--- a/Output Data/MtomToCrss_Monthly.xlsx
+++ b/Output Data/MtomToCrss_Monthly.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\MTOM\Output Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sabaker\Documents\2.MTOM Testbed\dev\Output Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -433,9 +433,9 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -485,7 +485,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>43282</v>
       </c>
@@ -538,7 +538,7 @@
         <v>9311.7568125987764</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>43313</v>
       </c>
@@ -591,7 +591,7 @@
         <v>9304.8210173694606</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>43344</v>
       </c>
@@ -644,7 +644,7 @@
         <v>9299.8318275663914</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>43374</v>
       </c>
@@ -697,7 +697,7 @@
         <v>9297.8766410675726</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>43405</v>
       </c>
@@ -750,7 +750,7 @@
         <v>9296.832197745598</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>43435</v>
       </c>
@@ -814,9 +814,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -866,7 +866,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>43282</v>
       </c>
@@ -919,7 +919,7 @@
         <v>9311.8935015154384</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>43313</v>
       </c>
@@ -972,7 +972,7 @@
         <v>9305.3763761364389</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>43344</v>
       </c>
@@ -1025,7 +1025,7 @@
         <v>9301.009612420994</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>43374</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>9301.0770210889095</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>43405</v>
       </c>
@@ -1131,7 +1131,7 @@
         <v>9300.7024018402972</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>43435</v>
       </c>
@@ -1195,9 +1195,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>43282</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>9311.8120164033098</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>43313</v>
       </c>
@@ -1353,7 +1353,7 @@
         <v>9305.4215427367908</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>43344</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>9300.5579178397111</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>43374</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>9299.683452247782</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>43405</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>9299.175751608971</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>43435</v>
       </c>
@@ -1576,9 +1576,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1628,7 +1628,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>43282</v>
       </c>
@@ -1681,7 +1681,7 @@
         <v>9311.7899454985163</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>43313</v>
       </c>
@@ -1734,7 +1734,7 @@
         <v>9304.9718432876471</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>43344</v>
       </c>
@@ -1787,7 +1787,7 @@
         <v>9300.168119422171</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>43374</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>9298.486958105661</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>43405</v>
       </c>
@@ -1893,7 +1893,7 @@
         <v>9297.4232118953296</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>43435</v>
       </c>
@@ -1957,9 +1957,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2009,7 +2009,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>43282</v>
       </c>
@@ -2062,7 +2062,7 @@
         <v>9311.7310425656451</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>43313</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>9304.8176178589893</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>43344</v>
       </c>
@@ -2168,7 +2168,7 @@
         <v>9301.1800980878852</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>43374</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>9299.8386450012185</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>43405</v>
       </c>
@@ -2274,7 +2274,7 @@
         <v>9298.665363347025</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>43435</v>
       </c>
@@ -2338,9 +2338,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2390,7 +2390,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>43282</v>
       </c>
@@ -2443,7 +2443,7 @@
         <v>9311.7310425656451</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>43313</v>
       </c>
@@ -2496,7 +2496,7 @@
         <v>9304.7808732359663</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>43344</v>
       </c>
@@ -2549,7 +2549,7 @@
         <v>9299.7557480046962</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>43374</v>
       </c>
@@ -2602,7 +2602,7 @@
         <v>9298.7187452527378</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>43405</v>
       </c>
@@ -2655,7 +2655,7 @@
         <v>9297.5558466092752</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>43435</v>
       </c>
@@ -2719,9 +2719,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>43282</v>
       </c>
@@ -2779,7 +2779,7 @@
         <v>136.30498477493867</v>
       </c>
       <c r="C2">
-        <v>629.4154400227211</v>
+        <v>629.52778909277504</v>
       </c>
       <c r="D2">
         <v>5040.2637421691406</v>
@@ -2806,7 +2806,7 @@
         <v>448.00000000163999</v>
       </c>
       <c r="L2">
-        <v>1076.0124608160338</v>
+        <v>1076.0336479305213</v>
       </c>
       <c r="M2">
         <v>642.50124642595142</v>
@@ -2824,7 +2824,7 @@
         <v>9311.7463818710803</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>43313</v>
       </c>
@@ -2832,7 +2832,7 @@
         <v>135.73003063706378</v>
       </c>
       <c r="C3">
-        <v>641.1689322010177</v>
+        <v>641.38757335127229</v>
       </c>
       <c r="D3">
         <v>4996.2235807292645</v>
@@ -2859,7 +2859,7 @@
         <v>447.50000000179955</v>
       </c>
       <c r="L3">
-        <v>1078.2210008146203</v>
+        <v>1078.2618919857041</v>
       </c>
       <c r="M3">
         <v>641.99704448074147</v>
@@ -2877,7 +2877,7 @@
         <v>9305.1852556994018</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>43344</v>
       </c>
@@ -2885,7 +2885,7 @@
         <v>134.31886542735623</v>
       </c>
       <c r="C4">
-        <v>634.51166451874053</v>
+        <v>634.81437637968077</v>
       </c>
       <c r="D4">
         <v>4966.9288915637126</v>
@@ -2912,7 +2912,7 @@
         <v>447.49999999998681</v>
       </c>
       <c r="L4">
-        <v>1076.9725962171165</v>
+        <v>1077.0295058371951</v>
       </c>
       <c r="M4">
         <v>640.00753110676112</v>
@@ -2930,7 +2930,7 @@
         <v>9300.2634275357341</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>43374</v>
       </c>
@@ -2938,7 +2938,7 @@
         <v>133.3671023455513</v>
       </c>
       <c r="C5">
-        <v>635.28674225421537</v>
+        <v>635.67744391857036</v>
       </c>
       <c r="D5">
         <v>4940.9798453481935</v>
@@ -2965,7 +2965,7 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L5">
-        <v>1077.1182162067344</v>
+        <v>1077.1915901186924</v>
       </c>
       <c r="M5">
         <v>632.99732935379745</v>
@@ -2983,7 +2983,7 @@
         <v>9298.3369229842465</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>43405</v>
       </c>
@@ -2991,7 +2991,7 @@
         <v>132.64786625725395</v>
       </c>
       <c r="C6">
-        <v>626.09650297602525</v>
+        <v>626.55378334991758</v>
       </c>
       <c r="D6">
         <v>4917.6958318701336</v>
@@ -3018,7 +3018,7 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L6">
-        <v>1075.3849539837947</v>
+        <v>1075.4715715508082</v>
       </c>
       <c r="M6">
         <v>634.99500232439834</v>
@@ -3036,7 +3036,7 @@
         <v>9297.3946459852814</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>43435</v>
       </c>
@@ -3044,7 +3044,7 @@
         <v>131.69866603614287</v>
       </c>
       <c r="C7">
-        <v>627.63366920771023</v>
+        <v>628.13580254057024</v>
       </c>
       <c r="D7">
         <v>4887.4985510115102</v>
@@ -3071,7 +3071,7 @@
         <v>446.50000000010687</v>
       </c>
       <c r="L7">
-        <v>1075.6757327081839</v>
+        <v>1075.7706359439969</v>
       </c>
       <c r="M7">
         <v>638.71142964928492</v>
@@ -3100,9 +3100,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -3152,7 +3152,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>43282</v>
       </c>
@@ -3205,7 +3205,7 @@
         <v>9312.0494581949351</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>43313</v>
       </c>
@@ -3258,7 +3258,7 @@
         <v>9305.4404030358601</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>43344</v>
       </c>
@@ -3311,7 +3311,7 @@
         <v>9300.5251118325559</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>43374</v>
       </c>
@@ -3364,7 +3364,7 @@
         <v>9298.6840793377851</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>43405</v>
       </c>
@@ -3417,7 +3417,7 @@
         <v>9297.3536655476528</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>43435</v>
       </c>
@@ -3481,9 +3481,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -3533,7 +3533,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>43282</v>
       </c>
@@ -3586,7 +3586,7 @@
         <v>9311.9271617556806</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>43313</v>
       </c>
@@ -3639,7 +3639,7 @@
         <v>9305.3642328456081</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>43344</v>
       </c>
@@ -3692,7 +3692,7 @@
         <v>9300.5280279220806</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>43374</v>
       </c>
@@ -3745,7 +3745,7 @@
         <v>9298.7895230555896</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>43405</v>
       </c>
@@ -3798,7 +3798,7 @@
         <v>9297.4864981498995</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>43435</v>
       </c>
@@ -3862,9 +3862,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -3914,7 +3914,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>43282</v>
       </c>
@@ -3967,7 +3967,7 @@
         <v>9311.9871225975585</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>43313</v>
       </c>
@@ -4020,7 +4020,7 @@
         <v>9305.1879626087884</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>43344</v>
       </c>
@@ -4073,7 +4073,7 @@
         <v>9300.1057295219762</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>43374</v>
       </c>
@@ -4126,7 +4126,7 @@
         <v>9298.7774757699972</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>43405</v>
       </c>
@@ -4179,7 +4179,7 @@
         <v>9297.6651000636703</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>43435</v>
       </c>
@@ -4243,9 +4243,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -4295,7 +4295,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>43282</v>
       </c>
@@ -4348,7 +4348,7 @@
         <v>9311.7310425656451</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>43313</v>
       </c>
@@ -4401,7 +4401,7 @@
         <v>9305.2778461804355</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>43344</v>
       </c>
@@ -4454,7 +4454,7 @@
         <v>9300.6322240907903</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>43374</v>
       </c>
@@ -4507,7 +4507,7 @@
         <v>9299.2815856547313</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>43405</v>
       </c>
@@ -4560,7 +4560,7 @@
         <v>9298.1645516278077</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>43435</v>
       </c>
@@ -4624,9 +4624,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -4676,7 +4676,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>43282</v>
       </c>
@@ -4729,7 +4729,7 @@
         <v>9311.7519040210373</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>43313</v>
       </c>
@@ -4782,7 +4782,7 @@
         <v>9305.1710444251203</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>43344</v>
       </c>
@@ -4835,7 +4835,7 @@
         <v>9301.4428295753696</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>43374</v>
       </c>
@@ -4888,7 +4888,7 @@
         <v>9301.9315945367453</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>43405</v>
       </c>
@@ -4941,7 +4941,7 @@
         <v>9301.3950116198776</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>43435</v>
       </c>
@@ -5005,9 +5005,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -5057,7 +5057,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>43282</v>
       </c>
@@ -5110,7 +5110,7 @@
         <v>9311.7310425656451</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>43313</v>
       </c>
@@ -5163,7 +5163,7 @@
         <v>9304.7958545093697</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>43344</v>
       </c>
@@ -5216,7 +5216,7 @@
         <v>9299.8384681625685</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>43374</v>
       </c>
@@ -5269,7 +5269,7 @@
         <v>9298.2290740007065</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>43405</v>
       </c>
@@ -5322,7 +5322,7 @@
         <v>9297.0278880398218</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>43435</v>
       </c>
@@ -5386,9 +5386,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -5438,7 +5438,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>43282</v>
       </c>
@@ -5491,7 +5491,7 @@
         <v>9311.7310425656451</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>43313</v>
       </c>
@@ -5544,7 +5544,7 @@
         <v>9305.0098429897298</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>43344</v>
       </c>
@@ -5597,7 +5597,7 @@
         <v>9300.7267935048585</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>43374</v>
       </c>
@@ -5650,7 +5650,7 @@
         <v>9299.6345742206686</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>43405</v>
       </c>
@@ -5703,7 +5703,7 @@
         <v>9298.6895033590936</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>43435</v>
       </c>
@@ -5767,9 +5767,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -5819,7 +5819,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>43282</v>
       </c>
@@ -5872,7 +5872,7 @@
         <v>9311.7310425656451</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>43313</v>
       </c>
@@ -5925,7 +5925,7 @@
         <v>9304.7808732359663</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>43344</v>
       </c>
@@ -5978,7 +5978,7 @@
         <v>9299.7446598911556</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>43374</v>
       </c>
@@ -6031,7 +6031,7 @@
         <v>9298.015765616532</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>43405</v>
       </c>
@@ -6084,7 +6084,7 @@
         <v>9296.9827415266082</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>43435</v>
       </c>
@@ -6148,9 +6148,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -6200,7 +6200,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>43282</v>
       </c>
@@ -6253,7 +6253,7 @@
         <v>9311.7310425656451</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>43313</v>
       </c>
@@ -6306,7 +6306,7 @@
         <v>9304.799940311208</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>43344</v>
       </c>
@@ -6359,7 +6359,7 @@
         <v>9299.9969258364272</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>43374</v>
       </c>
@@ -6412,7 +6412,7 @@
         <v>9298.7112156992407</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>43405</v>
       </c>
@@ -6465,7 +6465,7 @@
         <v>9297.7649164833965</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>43435</v>
       </c>
@@ -6529,9 +6529,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -6581,7 +6581,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>43282</v>
       </c>
@@ -6634,7 +6634,7 @@
         <v>9312.3177860632022</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>43313</v>
       </c>
@@ -6687,7 +6687,7 @@
         <v>9306.6140331594142</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>43344</v>
       </c>
@@ -6740,7 +6740,7 @@
         <v>9302.9391001406912</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>43374</v>
       </c>
@@ -6793,7 +6793,7 @@
         <v>9301.3833649163043</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>43405</v>
       </c>
@@ -6846,7 +6846,7 @@
         <v>9300.2974469906439</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>43435</v>
       </c>
@@ -6910,9 +6910,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -6962,7 +6962,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>43282</v>
       </c>
@@ -7015,7 +7015,7 @@
         <v>9311.7310425656451</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>43313</v>
       </c>
@@ -7068,7 +7068,7 @@
         <v>9304.8169379568972</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>43344</v>
       </c>
@@ -7121,7 +7121,7 @@
         <v>9299.7269189094895</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>43374</v>
       </c>
@@ -7174,7 +7174,7 @@
         <v>9297.7432867107873</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>43405</v>
       </c>
@@ -7227,7 +7227,7 @@
         <v>9296.3353013585838</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>43435</v>
       </c>
@@ -7291,9 +7291,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -7343,7 +7343,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>43282</v>
       </c>
@@ -7396,7 +7396,7 @@
         <v>9311.8077277131979</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>43313</v>
       </c>
@@ -7449,7 +7449,7 @@
         <v>9304.9657337227818</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>43344</v>
       </c>
@@ -7502,7 +7502,7 @@
         <v>9299.9961893509371</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>43374</v>
       </c>
@@ -7555,7 +7555,7 @@
         <v>9299.4483243423256</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>43405</v>
       </c>
@@ -7608,7 +7608,7 @@
         <v>9299.493805301634</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>43435</v>
       </c>
@@ -7672,9 +7672,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -7724,7 +7724,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>43282</v>
       </c>
@@ -7777,7 +7777,7 @@
         <v>9311.9032997879931</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>43313</v>
       </c>
@@ -7830,7 +7830,7 @@
         <v>9305.6019017974759</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>43344</v>
       </c>
@@ -7883,7 +7883,7 @@
         <v>9300.8864978244255</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>43374</v>
       </c>
@@ -7936,7 +7936,7 @@
         <v>9299.2554759941522</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>43405</v>
       </c>
@@ -7989,7 +7989,7 @@
         <v>9298.0731275959897</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>43435</v>
       </c>
@@ -8053,9 +8053,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -8105,7 +8105,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>43282</v>
       </c>
@@ -8158,7 +8158,7 @@
         <v>9311.7310425656451</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>43313</v>
       </c>
@@ -8211,7 +8211,7 @@
         <v>9304.9141418416875</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>43344</v>
       </c>
@@ -8264,7 +8264,7 @@
         <v>9300.4798787065265</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>43374</v>
       </c>
@@ -8317,7 +8317,7 @@
         <v>9298.8646968060457</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>43405</v>
       </c>
@@ -8370,7 +8370,7 @@
         <v>9297.5858858914071</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>43435</v>
       </c>
@@ -8434,9 +8434,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -8486,7 +8486,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>43282</v>
       </c>
@@ -8539,7 +8539,7 @@
         <v>9311.7365647156039</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>43313</v>
       </c>
@@ -8592,7 +8592,7 @@
         <v>9305.2812245588157</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>43344</v>
       </c>
@@ -8645,7 +8645,7 @@
         <v>9300.6868092436234</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>43374</v>
       </c>
@@ -8698,7 +8698,7 @@
         <v>9298.8316290170787</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>43405</v>
       </c>
@@ -8751,7 +8751,7 @@
         <v>9297.6251215905377</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>43435</v>
       </c>
@@ -8815,9 +8815,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -8867,7 +8867,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>43282</v>
       </c>
@@ -8920,7 +8920,7 @@
         <v>9311.988346288208</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>43313</v>
       </c>
@@ -8973,7 +8973,7 @@
         <v>9305.8420057212752</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>43344</v>
       </c>
@@ -9026,7 +9026,7 @@
         <v>9302.1085877889673</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>43374</v>
       </c>
@@ -9079,7 +9079,7 @@
         <v>9301.6774214946199</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>43405</v>
       </c>
@@ -9132,7 +9132,7 @@
         <v>9300.875928951702</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>43435</v>
       </c>
@@ -9196,9 +9196,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -9248,7 +9248,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>43282</v>
       </c>
@@ -9256,7 +9256,7 @@
         <v>136.27322094561066</v>
       </c>
       <c r="C2">
-        <v>625.7871524044931</v>
+        <v>625.89950053831922</v>
       </c>
       <c r="D2">
         <v>5041.3148239224793</v>
@@ -9283,7 +9283,7 @@
         <v>448.00000000163993</v>
       </c>
       <c r="L2">
-        <v>1075.3263560830658</v>
+        <v>1075.3476369620471</v>
       </c>
       <c r="M2">
         <v>642.50124642595142</v>
@@ -9301,7 +9301,7 @@
         <v>9312.062288106963</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>43313</v>
       </c>
@@ -9309,7 +9309,7 @@
         <v>135.25213718158903</v>
       </c>
       <c r="C3">
-        <v>636.11619732591225</v>
+        <v>636.334833095048</v>
       </c>
       <c r="D3">
         <v>4995.8568567108432</v>
@@ -9336,7 +9336,7 @@
         <v>447.50000000179955</v>
       </c>
       <c r="L3">
-        <v>1077.2739872984459</v>
+        <v>1077.3150472049213</v>
       </c>
       <c r="M3">
         <v>641.99704448074147</v>
@@ -9354,7 +9354,7 @@
         <v>9305.4154804978025</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>43344</v>
       </c>
@@ -9362,7 +9362,7 @@
         <v>133.60654093696255</v>
       </c>
       <c r="C4">
-        <v>627.23473859616229</v>
+        <v>627.53744116884991</v>
       </c>
       <c r="D4">
         <v>4972.3037432769652</v>
@@ -9389,7 +9389,7 @@
         <v>447.49999999998681</v>
       </c>
       <c r="L4">
-        <v>1075.6003341564403</v>
+        <v>1075.6575450052262</v>
       </c>
       <c r="M4">
         <v>640.00753110676112</v>
@@ -9407,7 +9407,7 @@
         <v>9301.7130178665775</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>43374</v>
       </c>
@@ -9415,7 +9415,7 @@
         <v>132.62083375218697</v>
       </c>
       <c r="C5">
-        <v>633.1161448674136</v>
+        <v>633.50683788714218</v>
       </c>
       <c r="D5">
         <v>4964.0793447321257</v>
@@ -9442,7 +9442,7 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L5">
-        <v>1076.7099386066825</v>
+        <v>1076.7834725239506</v>
       </c>
       <c r="M5">
         <v>632.99732935379745</v>
@@ -9460,7 +9460,7 @@
         <v>9301.4444380710756</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>43405</v>
       </c>
@@ -9468,7 +9468,7 @@
         <v>131.73830672858051</v>
       </c>
       <c r="C6">
-        <v>622.34982216010212</v>
+        <v>622.80709454302087</v>
       </c>
       <c r="D6">
         <v>4955.952749488798</v>
@@ -9495,7 +9495,7 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L6">
-        <v>1074.6746994708549</v>
+        <v>1074.7614651391177</v>
       </c>
       <c r="M6">
         <v>634.99500232439834</v>
@@ -9513,7 +9513,7 @@
         <v>9300.8149975720335</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>43435</v>
       </c>
@@ -9521,7 +9521,7 @@
         <v>130.56511007218464</v>
       </c>
       <c r="C7">
-        <v>619.31603237931472</v>
+        <v>619.81815426928517</v>
       </c>
       <c r="D7">
         <v>4932.7191320031316</v>
@@ -9548,7 +9548,7 @@
         <v>446.50000000010687</v>
       </c>
       <c r="L7">
-        <v>1074.0980589281182</v>
+        <v>1074.1935702026633</v>
       </c>
       <c r="M7">
         <v>638.71142964928492</v>
@@ -9577,9 +9577,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -9629,7 +9629,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>43282</v>
       </c>
@@ -9682,7 +9682,7 @@
         <v>9311.8426499041107</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>43313</v>
       </c>
@@ -9735,7 +9735,7 @@
         <v>9305.0274653294255</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>43344</v>
       </c>
@@ -9788,7 +9788,7 @@
         <v>9300.3907724219171</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>43374</v>
       </c>
@@ -9841,7 +9841,7 @@
         <v>9301.9786064321979</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>43405</v>
       </c>
@@ -9894,7 +9894,7 @@
         <v>9302.1735006409526</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>43435</v>
       </c>
@@ -9958,9 +9958,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -10010,7 +10010,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>43282</v>
       </c>
@@ -10063,7 +10063,7 @@
         <v>9311.8861494752455</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>43313</v>
       </c>
@@ -10116,7 +10116,7 @@
         <v>9305.7347987576431</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>43344</v>
       </c>
@@ -10169,7 +10169,7 @@
         <v>9301.1454535552275</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>43374</v>
       </c>
@@ -10222,7 +10222,7 @@
         <v>9299.5433827213965</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>43405</v>
       </c>
@@ -10275,7 +10275,7 @@
         <v>9298.3173448022226</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>43435</v>
       </c>
@@ -10339,9 +10339,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -10391,7 +10391,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>43282</v>
       </c>
@@ -10444,7 +10444,7 @@
         <v>9311.7414732933412</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>43313</v>
       </c>
@@ -10497,7 +10497,7 @@
         <v>9305.3298268549206</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>43344</v>
       </c>
@@ -10550,7 +10550,7 @@
         <v>9300.3637058527875</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>43374</v>
       </c>
@@ -10603,7 +10603,7 @@
         <v>9298.4733289695978</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>43405</v>
       </c>
@@ -10656,7 +10656,7 @@
         <v>9297.160776067718</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>43435</v>
       </c>
@@ -10720,9 +10720,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -10772,7 +10772,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>43282</v>
       </c>
@@ -10825,7 +10825,7 @@
         <v>9311.742086865559</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>43313</v>
       </c>
@@ -10878,7 +10878,7 @@
         <v>9305.0688100494808</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>43344</v>
       </c>
@@ -10931,7 +10931,7 @@
         <v>9301.2529081285265</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>43374</v>
       </c>
@@ -10984,7 +10984,7 @@
         <v>9299.9934199220224</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>43405</v>
       </c>
@@ -11037,7 +11037,7 @@
         <v>9298.848305766398</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>43435</v>
       </c>
@@ -11101,9 +11101,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -11153,7 +11153,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>43282</v>
       </c>
@@ -11206,7 +11206,7 @@
         <v>9311.8058897031497</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>43313</v>
       </c>
@@ -11259,7 +11259,7 @@
         <v>9305.0301764586093</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>43344</v>
       </c>
@@ -11312,7 +11312,7 @@
         <v>9299.9961893509371</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>43374</v>
       </c>
@@ -11365,7 +11365,7 @@
         <v>9298.2328739703062</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>43405</v>
       </c>
@@ -11418,7 +11418,7 @@
         <v>9297.2491792460023</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>43435</v>
       </c>
@@ -11482,9 +11482,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -11534,7 +11534,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>43282</v>
       </c>
@@ -11587,7 +11587,7 @@
         <v>9311.7568125987764</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>43313</v>
       </c>
@@ -11640,7 +11640,7 @@
         <v>9305.0782990016251</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>43344</v>
       </c>
@@ -11693,7 +11693,7 @@
         <v>9300.2187323423022</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>43374</v>
       </c>
@@ -11746,7 +11746,7 @@
         <v>9298.6207118061084</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>43405</v>
       </c>
@@ -11799,7 +11799,7 @@
         <v>9297.5050109010517</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>43435</v>
       </c>
@@ -11863,7 +11863,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11875,9 +11875,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -11927,7 +11927,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>43282</v>
       </c>
@@ -11980,7 +11980,7 @@
         <v>9312.0182998371529</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>43313</v>
       </c>
@@ -12033,7 +12033,7 @@
         <v>9305.2548732074556</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>43344</v>
       </c>
@@ -12086,7 +12086,7 @@
         <v>9300.4032027900976</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>43374</v>
       </c>
@@ -12139,7 +12139,7 @@
         <v>9298.5602898807174</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>43405</v>
       </c>
@@ -12192,7 +12192,7 @@
         <v>9297.2375576453214</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>43435</v>
       </c>
@@ -12256,9 +12256,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -12308,7 +12308,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>43282</v>
       </c>
@@ -12361,7 +12361,7 @@
         <v>9311.8322345138367</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>43313</v>
       </c>
@@ -12414,7 +12414,7 @@
         <v>9305.1690142430816</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>43344</v>
       </c>
@@ -12467,7 +12467,7 @@
         <v>9300.2172669261236</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>43374</v>
       </c>
@@ -12520,7 +12520,7 @@
         <v>9298.7947937430363</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>43405</v>
       </c>
@@ -12573,7 +12573,7 @@
         <v>9297.6489549110593</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>43435</v>
       </c>
@@ -12637,9 +12637,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -12689,7 +12689,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>43282</v>
       </c>
@@ -12742,7 +12742,7 @@
         <v>9311.7310425656451</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>43313</v>
       </c>
@@ -12795,7 +12795,7 @@
         <v>9305.3858209181963</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>43344</v>
       </c>
@@ -12848,7 +12848,7 @@
         <v>9300.4922929025179</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>43374</v>
       </c>
@@ -12901,7 +12901,7 @@
         <v>9298.7609107523094</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>43405</v>
       </c>
@@ -12954,7 +12954,7 @@
         <v>9297.9937748626344</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>43435</v>
       </c>
@@ -13018,9 +13018,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -13070,7 +13070,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>43282</v>
       </c>
@@ -13078,7 +13078,7 @@
         <v>135.99138491849828</v>
       </c>
       <c r="C2">
-        <v>631.67474382031969</v>
+        <v>631.78709289024289</v>
       </c>
       <c r="D2">
         <v>5038.8070086211183</v>
@@ -13105,7 +13105,7 @@
         <v>448.00000000163999</v>
       </c>
       <c r="L2">
-        <v>1076.4385268996525</v>
+        <v>1076.4597140141418</v>
       </c>
       <c r="M2">
         <v>642.50124642595142</v>
@@ -13123,7 +13123,7 @@
         <v>9311.7310425656451</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>43313</v>
       </c>
@@ -13131,7 +13131,7 @@
         <v>134.90263029276085</v>
       </c>
       <c r="C3">
-        <v>637.74461322443142</v>
+        <v>637.96325358500371</v>
       </c>
       <c r="D3">
         <v>4992.1282241881463</v>
@@ -13158,7 +13158,7 @@
         <v>447.50000000179955</v>
       </c>
       <c r="L3">
-        <v>1077.5796496046505</v>
+        <v>1077.6206303012345</v>
       </c>
       <c r="M3">
         <v>641.99704448074147</v>
@@ -13176,7 +13176,7 @@
         <v>9304.7808732359663</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>43344</v>
       </c>
@@ -13184,7 +13184,7 @@
         <v>133.61971970257204</v>
       </c>
       <c r="C4">
-        <v>628.08699473636784</v>
+        <v>628.3897042207326</v>
       </c>
       <c r="D4">
         <v>4961.8044736463871</v>
@@ -13211,7 +13211,7 @@
         <v>447.49999999998681</v>
       </c>
       <c r="L4">
-        <v>1075.761411301268</v>
+        <v>1075.8186234245425</v>
       </c>
       <c r="M4">
         <v>640.00753110676112</v>
@@ -13229,7 +13229,7 @@
         <v>9299.6388401842178</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>43374</v>
       </c>
@@ -13237,7 +13237,7 @@
         <v>132.87740949556417</v>
       </c>
       <c r="C5">
-        <v>626.38149440170287</v>
+        <v>626.77219210053079</v>
       </c>
       <c r="D5">
         <v>4936.6022473207095</v>
@@ -13264,7 +13264,7 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L5">
-        <v>1075.4389368191012</v>
+        <v>1075.5129137383517</v>
       </c>
       <c r="M5">
         <v>632.99732935379745</v>
@@ -13282,7 +13282,7 @@
         <v>9298.1057759614632</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>43405</v>
       </c>
@@ -13290,7 +13290,7 @@
         <v>132.36733641923635</v>
       </c>
       <c r="C6">
-        <v>616.79738017490331</v>
+        <v>617.25465284499626</v>
       </c>
       <c r="D6">
         <v>4914.9126815470509</v>
@@ -13317,7 +13317,7 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L6">
-        <v>1073.6182175940173</v>
+        <v>1073.7053702236672</v>
       </c>
       <c r="M6">
         <v>634.99500232439834</v>
@@ -13335,7 +13335,7 @@
         <v>9297.2127648972055</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>43435</v>
       </c>
@@ -13343,7 +13343,7 @@
         <v>131.57161895112446</v>
       </c>
       <c r="C7">
-        <v>617.84377177094848</v>
+        <v>618.3458913195044</v>
       </c>
       <c r="D7">
         <v>4885.4600968062869</v>
@@ -13370,7 +13370,7 @@
         <v>446.50000000010687</v>
       </c>
       <c r="L7">
-        <v>1073.8176515740049</v>
+        <v>1073.9133516647541</v>
       </c>
       <c r="M7">
         <v>638.71142964928492</v>
@@ -13399,9 +13399,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -13451,7 +13451,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>43282</v>
       </c>
@@ -13504,7 +13504,7 @@
         <v>9311.7310425656451</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>43313</v>
       </c>
@@ -13557,7 +13557,7 @@
         <v>9304.8638512013804</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>43344</v>
       </c>
@@ -13610,7 +13610,7 @@
         <v>9299.7757066090689</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>43374</v>
       </c>
@@ -13663,7 +13663,7 @@
         <v>9297.9554120386292</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>43405</v>
       </c>
@@ -13716,7 +13716,7 @@
         <v>9296.7227256496408</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>43435</v>
       </c>
@@ -13780,9 +13780,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -13832,7 +13832,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>43282</v>
       </c>
@@ -13885,7 +13885,7 @@
         <v>9311.8818607851335</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>43313</v>
       </c>
@@ -13938,7 +13938,7 @@
         <v>9305.4121125872553</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>43344</v>
       </c>
@@ -13991,7 +13991,7 @@
         <v>9301.0761248559538</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>43374</v>
       </c>
@@ -14044,7 +14044,7 @@
         <v>9300.1191174179148</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>43405</v>
       </c>
@@ -14097,7 +14097,7 @@
         <v>9299.3309051770757</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>43435</v>
       </c>

--- a/Output Data/MtomToCrss_Monthly.xlsx
+++ b/Output Data/MtomToCrss_Monthly.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\MTOM\Output Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\MTOM\dev\Output Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="1470"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12570" windowHeight="13590"/>
   </bookViews>
   <sheets>
     <sheet name="Trace38" sheetId="37" r:id="rId1"/>
@@ -429,7 +429,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -487,161 +487,108 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="B2">
-        <v>136.16173165641828</v>
+        <v>132.32042227523877</v>
       </c>
       <c r="C2">
-        <v>650.32557067517007</v>
+        <v>637.67906299056233</v>
       </c>
       <c r="D2">
-        <v>4908.3394142339375</v>
+        <v>4902.0936672103562</v>
       </c>
       <c r="E2">
-        <v>75.730726373623284</v>
+        <v>68.031996800661105</v>
       </c>
       <c r="F2">
         <v>639.99999999966485</v>
       </c>
       <c r="G2">
-        <v>7439.2060282684261</v>
+        <v>7438.2245366969619</v>
       </c>
       <c r="H2">
-        <v>6737.1025841817773</v>
+        <v>6751.764988009656</v>
       </c>
       <c r="I2">
-        <v>6030.9178739490035</v>
+        <v>6028.4216471583486</v>
       </c>
       <c r="J2">
-        <v>6491.8118377678211</v>
+        <v>6488.5348156848258</v>
       </c>
       <c r="K2">
-        <v>447.50000000148083</v>
+        <v>447.50000000015262</v>
       </c>
       <c r="L2">
-        <v>1079.9278732668442</v>
+        <v>1077.5673625246491</v>
       </c>
       <c r="M2">
-        <v>635.99722949064562</v>
+        <v>638.70388532631705</v>
       </c>
       <c r="N2">
-        <v>7135.7701949862858</v>
+        <v>7136.9196675898656</v>
       </c>
       <c r="O2">
-        <v>6019.0798172563691</v>
+        <v>6017.365637670764</v>
       </c>
       <c r="P2">
-        <v>3588.4759809919005</v>
+        <v>3587.6041979678821</v>
       </c>
       <c r="Q2">
-        <v>9299.6714379541427</v>
+        <v>9301.9176580116873</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B3">
-        <v>135.92606598345586</v>
+        <v>129.83267814337489</v>
       </c>
       <c r="C3">
-        <v>642.67785176565212</v>
+        <v>653.28346024707173</v>
       </c>
       <c r="D3">
-        <v>4882.93362364738</v>
+        <v>4872.9002780955798</v>
       </c>
       <c r="E3">
-        <v>74.765186813183831</v>
+        <v>65.501396694016464</v>
       </c>
       <c r="F3">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G3">
-        <v>7439.6367832140422</v>
+        <v>7438.1974567094421</v>
       </c>
       <c r="H3">
-        <v>6737.1025841817773</v>
+        <v>6751.764988009656</v>
       </c>
       <c r="I3">
-        <v>6030.76617565979</v>
+        <v>6026.7758576905026</v>
       </c>
       <c r="J3">
-        <v>6488.3439012539266</v>
+        <v>6483.705548301341</v>
       </c>
       <c r="K3">
-        <v>447.49999999998766</v>
+        <v>446.50000000010533</v>
       </c>
       <c r="L3">
-        <v>1078.5031978548504</v>
+        <v>1080.4766914270203</v>
       </c>
       <c r="M3">
-        <v>638.00068114730971</v>
+        <v>638.70388532632194</v>
       </c>
       <c r="N3">
-        <v>7135.7701949862858</v>
+        <v>7136.9196675898656</v>
       </c>
       <c r="O3">
-        <v>6018.026301228565</v>
+        <v>6016.3394626189847</v>
       </c>
       <c r="P3">
-        <v>3584.9044011023898</v>
+        <v>3583.4743425033726</v>
       </c>
       <c r="Q3">
-        <v>9299.2837991436882</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>43435</v>
-      </c>
-      <c r="B4">
-        <v>133.42674642565916</v>
-      </c>
-      <c r="C4">
-        <v>651.40577275427938</v>
-      </c>
-      <c r="D4">
-        <v>4853.8251956161357</v>
-      </c>
-      <c r="E4">
-        <v>72.064726373623287</v>
-      </c>
-      <c r="F4">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G4">
-        <v>7439.9684351556816</v>
-      </c>
-      <c r="H4">
-        <v>6737.1025841817773</v>
-      </c>
-      <c r="I4">
-        <v>6029.1461821920229</v>
-      </c>
-      <c r="J4">
-        <v>6482.7555724453769</v>
-      </c>
-      <c r="K4">
-        <v>446.50000000010687</v>
-      </c>
-      <c r="L4">
-        <v>1080.1283974722651</v>
-      </c>
-      <c r="M4">
-        <v>639.00563909789298</v>
-      </c>
-      <c r="N4">
-        <v>7135.7701949862858</v>
-      </c>
-      <c r="O4">
-        <v>6017.2199162997931</v>
-      </c>
-      <c r="P4">
-        <v>3580.7237568569371</v>
-      </c>
-      <c r="Q4">
-        <v>9298.2878951999792</v>
+        <v>9300.7573856242834</v>
       </c>
     </row>
   </sheetData>
@@ -651,7 +598,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -709,161 +656,108 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="B2">
-        <v>136.17839634506981</v>
+        <v>132.25730012719069</v>
       </c>
       <c r="C2">
-        <v>650.7818454057533</v>
+        <v>639.58898622743925</v>
       </c>
       <c r="D2">
-        <v>4927.5293465760824</v>
+        <v>4902.5713159087809</v>
       </c>
       <c r="E2">
-        <v>76.16436373626064</v>
+        <v>67.873996800661104</v>
       </c>
       <c r="F2">
         <v>639.99999999966485</v>
       </c>
       <c r="G2">
-        <v>7440.9074836343325</v>
+        <v>7438.2349176578682</v>
       </c>
       <c r="H2">
-        <v>6737.1025841817773</v>
+        <v>6751.764988009656</v>
       </c>
       <c r="I2">
-        <v>6030.928601031339</v>
+        <v>6028.380125989991</v>
       </c>
       <c r="J2">
-        <v>6491.8270682088678</v>
+        <v>6488.5790951169511</v>
       </c>
       <c r="K2">
-        <v>447.50000000148083</v>
+        <v>447.50000000015274</v>
       </c>
       <c r="L2">
-        <v>1080.0126646173892</v>
+        <v>1077.925348719403</v>
       </c>
       <c r="M2">
-        <v>635.99722949064562</v>
+        <v>638.70388532631705</v>
       </c>
       <c r="N2">
-        <v>7135.7701949862858</v>
+        <v>7136.9196675898656</v>
       </c>
       <c r="O2">
-        <v>6021.0721538830776</v>
+        <v>6017.3442615231652</v>
       </c>
       <c r="P2">
-        <v>3591.1284515095626</v>
+        <v>3587.6709579313219</v>
       </c>
       <c r="Q2">
-        <v>9300.1387717773614</v>
+        <v>9301.9326163420592</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B3">
-        <v>136.00518113327021</v>
+        <v>129.72595237913615</v>
       </c>
       <c r="C3">
-        <v>644.81547666053041</v>
+        <v>654.39308849905331</v>
       </c>
       <c r="D3">
-        <v>4906.874712329497</v>
+        <v>4872.9912822557917</v>
       </c>
       <c r="E3">
-        <v>76.389868131865128</v>
+        <v>65.863396694016473</v>
       </c>
       <c r="F3">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G3">
-        <v>7442.5288956340983</v>
+        <v>7438.1593885316279</v>
       </c>
       <c r="H3">
-        <v>6737.1025841817773</v>
+        <v>6751.764988009656</v>
       </c>
       <c r="I3">
-        <v>6030.8171021822891</v>
+        <v>6026.7047337418435</v>
       </c>
       <c r="J3">
-        <v>6488.1632916164053</v>
+        <v>6483.4879127237691</v>
       </c>
       <c r="K3">
-        <v>447.49999999998766</v>
+        <v>446.50000000010533</v>
       </c>
       <c r="L3">
-        <v>1078.9022094981947</v>
+        <v>1080.6821668144048</v>
       </c>
       <c r="M3">
-        <v>638.00068114730971</v>
+        <v>638.70388532632194</v>
       </c>
       <c r="N3">
-        <v>7135.7701949862858</v>
+        <v>7136.9196675898656</v>
       </c>
       <c r="O3">
-        <v>6020.3529133514548</v>
+        <v>6016.2159298116358</v>
       </c>
       <c r="P3">
-        <v>3588.2718151169884</v>
+        <v>3583.4873809688347</v>
       </c>
       <c r="Q3">
-        <v>9299.9160647754215</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>43435</v>
-      </c>
-      <c r="B4">
-        <v>133.54073364161061</v>
-      </c>
-      <c r="C4">
-        <v>652.74273381944136</v>
-      </c>
-      <c r="D4">
-        <v>4879.9336752957688</v>
-      </c>
-      <c r="E4">
-        <v>72.972363736260604</v>
-      </c>
-      <c r="F4">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G4">
-        <v>7443.0940172643241</v>
-      </c>
-      <c r="H4">
-        <v>6737.1025841817773</v>
-      </c>
-      <c r="I4">
-        <v>6029.2205205297832</v>
-      </c>
-      <c r="J4">
-        <v>6482.170514175853</v>
-      </c>
-      <c r="K4">
-        <v>446.50000000010687</v>
-      </c>
-      <c r="L4">
-        <v>1080.376391607168</v>
-      </c>
-      <c r="M4">
-        <v>639.00563909789298</v>
-      </c>
-      <c r="N4">
-        <v>7135.7701949862858</v>
-      </c>
-      <c r="O4">
-        <v>6019.3512528781603</v>
-      </c>
-      <c r="P4">
-        <v>3584.4780949662986</v>
-      </c>
-      <c r="Q4">
-        <v>9298.871007443362</v>
+        <v>9300.7893553983158</v>
       </c>
     </row>
   </sheetData>
@@ -873,7 +767,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -931,161 +825,108 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="B2">
-        <v>135.85454178514541</v>
+        <v>132.34214857054377</v>
       </c>
       <c r="C2">
-        <v>647.37026371482773</v>
+        <v>637.80958886086592</v>
       </c>
       <c r="D2">
-        <v>4910.2351609200232</v>
+        <v>4906.1477751264474</v>
       </c>
       <c r="E2">
-        <v>67.737237362634247</v>
+        <v>68.263996800661104</v>
       </c>
       <c r="F2">
         <v>639.99999999966485</v>
       </c>
       <c r="G2">
-        <v>7440.099904126836</v>
+        <v>7438.2414312019682</v>
       </c>
       <c r="H2">
-        <v>6737.1025841817773</v>
+        <v>6751.764988009656</v>
       </c>
       <c r="I2">
-        <v>6030.7201354187164</v>
+        <v>6028.4359385155512</v>
       </c>
       <c r="J2">
-        <v>6492.4947804774592</v>
+        <v>6488.5238599490422</v>
       </c>
       <c r="K2">
-        <v>447.50000000148083</v>
+        <v>447.50000000015274</v>
       </c>
       <c r="L2">
-        <v>1079.3782630338162</v>
+        <v>1077.5918275646925</v>
       </c>
       <c r="M2">
-        <v>635.99722949064562</v>
+        <v>638.70388532631705</v>
       </c>
       <c r="N2">
-        <v>7135.7701949862858</v>
+        <v>7136.9196675898656</v>
       </c>
       <c r="O2">
-        <v>6019.8299178812003</v>
+        <v>6017.4063071618357</v>
       </c>
       <c r="P2">
-        <v>3588.7395786515754</v>
+        <v>3588.1703711763003</v>
       </c>
       <c r="Q2">
-        <v>9300.1930876904698</v>
+        <v>9301.9176580116873</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B3">
-        <v>135.36550019677753</v>
+        <v>129.89771406007767</v>
       </c>
       <c r="C3">
-        <v>639.26506918930784</v>
+        <v>654.009901418499</v>
       </c>
       <c r="D3">
-        <v>4886.2635160894752</v>
+        <v>4876.8195999191466</v>
       </c>
       <c r="E3">
-        <v>68.168681318678296</v>
+        <v>66.290396694016465</v>
       </c>
       <c r="F3">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G3">
-        <v>7441.015711208559</v>
+        <v>7438.1534834291797</v>
       </c>
       <c r="H3">
-        <v>6737.1025841817773</v>
+        <v>6751.764988009656</v>
       </c>
       <c r="I3">
-        <v>6030.4049185603426</v>
+        <v>6026.8191987828495</v>
       </c>
       <c r="J3">
-        <v>6489.4926632141733</v>
+        <v>6483.2284703707764</v>
       </c>
       <c r="K3">
-        <v>447.49999999998766</v>
+        <v>446.50000000010533</v>
       </c>
       <c r="L3">
-        <v>1077.8646346878579</v>
+        <v>1080.6112251018028</v>
       </c>
       <c r="M3">
-        <v>638.00068114730971</v>
+        <v>638.70388532632194</v>
       </c>
       <c r="N3">
-        <v>7135.7701949862858</v>
+        <v>7136.9196675898656</v>
       </c>
       <c r="O3">
-        <v>6018.7342594780921</v>
+        <v>6016.5199908593877</v>
       </c>
       <c r="P3">
-        <v>3585.3764907362192</v>
+        <v>3584.0342865142488</v>
       </c>
       <c r="Q3">
-        <v>9300.1308373107131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>43435</v>
-      </c>
-      <c r="B4">
-        <v>132.6681080410238</v>
-      </c>
-      <c r="C4">
-        <v>648.59485310925004</v>
-      </c>
-      <c r="D4">
-        <v>4857.10499964685</v>
-      </c>
-      <c r="E4">
-        <v>66.908237362634225</v>
-      </c>
-      <c r="F4">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G4">
-        <v>7441.1490300805626</v>
-      </c>
-      <c r="H4">
-        <v>6737.1025841817773</v>
-      </c>
-      <c r="I4">
-        <v>6028.6499288582236</v>
-      </c>
-      <c r="J4">
-        <v>6484.4185514693991</v>
-      </c>
-      <c r="K4">
-        <v>446.50000000010687</v>
-      </c>
-      <c r="L4">
-        <v>1079.6061426405056</v>
-      </c>
-      <c r="M4">
-        <v>639.00563909789298</v>
-      </c>
-      <c r="N4">
-        <v>7135.7701949862858</v>
-      </c>
-      <c r="O4">
-        <v>6017.5735380257684</v>
-      </c>
-      <c r="P4">
-        <v>3581.1997335602787</v>
-      </c>
-      <c r="Q4">
-        <v>9299.1250840838456</v>
+        <v>9300.7581122100582</v>
       </c>
     </row>
   </sheetData>
@@ -1095,7 +936,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1153,161 +994,108 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="B2">
-        <v>136.19165596581641</v>
+        <v>132.23159520317557</v>
       </c>
       <c r="C2">
-        <v>652.07381806448689</v>
+        <v>646.40380347080247</v>
       </c>
       <c r="D2">
-        <v>4908.2481048966238</v>
+        <v>4904.003240394858</v>
       </c>
       <c r="E2">
-        <v>76.509396703293604</v>
+        <v>67.981996800661108</v>
       </c>
       <c r="F2">
         <v>639.99999999966485</v>
       </c>
       <c r="G2">
-        <v>7439.080269186722</v>
+        <v>7438.2442808775104</v>
       </c>
       <c r="H2">
-        <v>6737.1025841817773</v>
+        <v>6751.764988009656</v>
       </c>
       <c r="I2">
-        <v>6030.9371362669162</v>
+        <v>6028.3632175274206</v>
       </c>
       <c r="J2">
-        <v>6492.4343820964668</v>
+        <v>6488.5305551209094</v>
       </c>
       <c r="K2">
-        <v>447.50000000148083</v>
+        <v>447.50000000015274</v>
       </c>
       <c r="L2">
-        <v>1080.2523138118788</v>
+        <v>1079.198254534534</v>
       </c>
       <c r="M2">
-        <v>635.99722949064562</v>
+        <v>638.70388532631705</v>
       </c>
       <c r="N2">
-        <v>7135.7701949862858</v>
+        <v>7136.9196675898656</v>
       </c>
       <c r="O2">
-        <v>6019.1699358814813</v>
+        <v>6017.5224221376911</v>
       </c>
       <c r="P2">
-        <v>3588.463253315957</v>
+        <v>3587.8710950334289</v>
       </c>
       <c r="Q2">
-        <v>9299.7151039839464</v>
+        <v>9301.9176580116873</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B3">
-        <v>136.59557057128711</v>
+        <v>129.63968961693081</v>
       </c>
       <c r="C3">
-        <v>652.94546196800275</v>
+        <v>666.36966582347407</v>
       </c>
       <c r="D3">
-        <v>4891.9372413090086</v>
+        <v>4875.56007182745</v>
       </c>
       <c r="E3">
-        <v>91.401351648348651</v>
+        <v>66.100396694016467</v>
       </c>
       <c r="F3">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G3">
-        <v>7439.8988157224821</v>
+        <v>7438.3138849911238</v>
       </c>
       <c r="H3">
-        <v>6737.1025841817773</v>
+        <v>6751.764988009656</v>
       </c>
       <c r="I3">
-        <v>6031.1962674048145</v>
+        <v>6026.6472467018684</v>
       </c>
       <c r="J3">
-        <v>6490.4647423810102</v>
+        <v>6483.2359177683029</v>
       </c>
       <c r="K3">
-        <v>447.49999999998766</v>
+        <v>446.50000000010533</v>
       </c>
       <c r="L3">
-        <v>1080.4139956100141</v>
+        <v>1082.8895341808743</v>
       </c>
       <c r="M3">
-        <v>638.00068114730971</v>
+        <v>638.70388532632194</v>
       </c>
       <c r="N3">
-        <v>7135.7701949862858</v>
+        <v>7136.9196675898656</v>
       </c>
       <c r="O3">
-        <v>6018.5195063623796</v>
+        <v>6016.8150466828902</v>
       </c>
       <c r="P3">
-        <v>3586.1780623968016</v>
+        <v>3583.8544281037557</v>
       </c>
       <c r="Q3">
-        <v>9299.0783846889753</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>43435</v>
-      </c>
-      <c r="B4">
-        <v>134.22664861901316</v>
-      </c>
-      <c r="C4">
-        <v>666.03246800262548</v>
-      </c>
-      <c r="D4">
-        <v>4864.9466223582604</v>
-      </c>
-      <c r="E4">
-        <v>75.462396703293592</v>
-      </c>
-      <c r="F4">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G4">
-        <v>7440.0328833235972</v>
-      </c>
-      <c r="H4">
-        <v>6737.1025841817773</v>
-      </c>
-      <c r="I4">
-        <v>6029.667134633497</v>
-      </c>
-      <c r="J4">
-        <v>6485.113804478563</v>
-      </c>
-      <c r="K4">
-        <v>446.50000000010687</v>
-      </c>
-      <c r="L4">
-        <v>1082.8276296866984</v>
-      </c>
-      <c r="M4">
-        <v>639.00563909789298</v>
-      </c>
-      <c r="N4">
-        <v>7135.7701949862858</v>
-      </c>
-      <c r="O4">
-        <v>6017.717201202413</v>
-      </c>
-      <c r="P4">
-        <v>3582.3325970284541</v>
-      </c>
-      <c r="Q4">
-        <v>9297.8669902015135</v>
+        <v>9300.7581122100582</v>
       </c>
     </row>
   </sheetData>
@@ -1317,7 +1105,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1375,161 +1163,108 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="B2">
-        <v>135.91142654731547</v>
+        <v>132.55312714600981</v>
       </c>
       <c r="C2">
-        <v>644.10777199218387</v>
+        <v>639.03088267719613</v>
       </c>
       <c r="D2">
-        <v>4906.5972762984538</v>
+        <v>4902.3133995615781</v>
       </c>
       <c r="E2">
-        <v>69.217435164832054</v>
+        <v>67.995996800661089</v>
       </c>
       <c r="F2">
         <v>639.99999999966485</v>
       </c>
       <c r="G2">
-        <v>7438.9752972406886</v>
+        <v>7438.2524228076345</v>
       </c>
       <c r="H2">
-        <v>6737.1025841817773</v>
+        <v>6751.764988009656</v>
       </c>
       <c r="I2">
-        <v>6030.7567517174448</v>
+        <v>6028.5743972496048</v>
       </c>
       <c r="J2">
-        <v>6492.1094241180144</v>
+        <v>6488.5293378169335</v>
       </c>
       <c r="K2">
-        <v>447.50000000148083</v>
+        <v>447.50000000015274</v>
       </c>
       <c r="L2">
-        <v>1078.7701078056734</v>
+        <v>1077.8207410568968</v>
       </c>
       <c r="M2">
-        <v>635.99722949064562</v>
+        <v>638.70388532631705</v>
       </c>
       <c r="N2">
-        <v>7135.7701949862858</v>
+        <v>7136.9196675898656</v>
       </c>
       <c r="O2">
-        <v>6018.8922069419496</v>
+        <v>6018.106128854175</v>
       </c>
       <c r="P2">
-        <v>3588.2331444635438</v>
+        <v>3587.6349095008195</v>
       </c>
       <c r="Q2">
-        <v>9299.6714379541427</v>
+        <v>9301.9176580116873</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B3">
-        <v>135.49884682364495</v>
+        <v>130.32303643746681</v>
       </c>
       <c r="C3">
-        <v>637.67103218114926</v>
+        <v>653.64436907919492</v>
       </c>
       <c r="D3">
-        <v>4879.4615591363699</v>
+        <v>4872.3743726981475</v>
       </c>
       <c r="E3">
-        <v>70.15858241757941</v>
+        <v>66.068396694016471</v>
       </c>
       <c r="F3">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G3">
-        <v>7438.7398251274235</v>
+        <v>7438.2214679377958</v>
       </c>
       <c r="H3">
-        <v>6737.1025841817773</v>
+        <v>6751.764988009656</v>
       </c>
       <c r="I3">
-        <v>6030.4911343690364</v>
+        <v>6027.1021944210497</v>
       </c>
       <c r="J3">
-        <v>6488.7066474621615</v>
+        <v>6483.2591654028747</v>
       </c>
       <c r="K3">
-        <v>447.49999999998766</v>
+        <v>446.50000000010533</v>
       </c>
       <c r="L3">
-        <v>1077.5658566067273</v>
+        <v>1080.5435537090063</v>
       </c>
       <c r="M3">
-        <v>638.00068114730971</v>
+        <v>638.70388532632194</v>
       </c>
       <c r="N3">
-        <v>7135.7701949862858</v>
+        <v>7136.9196675898656</v>
       </c>
       <c r="O3">
-        <v>6017.9849215748191</v>
+        <v>6017.1653390200718</v>
       </c>
       <c r="P3">
-        <v>3584.4108307902666</v>
+        <v>3583.3989944485115</v>
       </c>
       <c r="Q3">
-        <v>9298.7307678277994</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>43435</v>
-      </c>
-      <c r="B4">
-        <v>132.87312785432499</v>
-      </c>
-      <c r="C4">
-        <v>645.41880969500733</v>
-      </c>
-      <c r="D4">
-        <v>4850.3993266794032</v>
-      </c>
-      <c r="E4">
-        <v>68.773435164832065</v>
-      </c>
-      <c r="F4">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G4">
-        <v>7438.6473881837628</v>
-      </c>
-      <c r="H4">
-        <v>6737.1025841817773</v>
-      </c>
-      <c r="I4">
-        <v>6028.7842083951218</v>
-      </c>
-      <c r="J4">
-        <v>6482.9960363780901</v>
-      </c>
-      <c r="K4">
-        <v>446.50000000010687</v>
-      </c>
-      <c r="L4">
-        <v>1079.0147953725188</v>
-      </c>
-      <c r="M4">
-        <v>639.00563909789298</v>
-      </c>
-      <c r="N4">
-        <v>7135.7701949862858</v>
-      </c>
-      <c r="O4">
-        <v>6017.2728055714479</v>
-      </c>
-      <c r="P4">
-        <v>3580.2252192620931</v>
-      </c>
-      <c r="Q4">
-        <v>9297.3940327102227</v>
+        <v>9300.7581122100582</v>
       </c>
     </row>
   </sheetData>
@@ -1539,7 +1274,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1597,161 +1332,108 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="B2">
-        <v>135.87279414002401</v>
+        <v>132.72063186426513</v>
       </c>
       <c r="C2">
-        <v>646.86573846874614</v>
+        <v>638.07726231830702</v>
       </c>
       <c r="D2">
-        <v>4907.0066885509295</v>
+        <v>4901.967767812388</v>
       </c>
       <c r="E2">
-        <v>68.212187912084786</v>
+        <v>67.930996800661092</v>
       </c>
       <c r="F2">
         <v>639.99999999966485</v>
       </c>
       <c r="G2">
-        <v>7438.9641677377986</v>
+        <v>7438.3460550040509</v>
       </c>
       <c r="H2">
-        <v>6737.1025841817773</v>
+        <v>6751.764988009656</v>
       </c>
       <c r="I2">
-        <v>6030.731884483921</v>
+        <v>6028.6841069034681</v>
       </c>
       <c r="J2">
-        <v>6492.2779592129755</v>
+        <v>6488.5748345530355</v>
       </c>
       <c r="K2">
-        <v>447.50000000148083</v>
+        <v>447.50000000015274</v>
       </c>
       <c r="L2">
-        <v>1079.2842929666442</v>
+        <v>1077.6420000390017</v>
       </c>
       <c r="M2">
-        <v>635.99722949064562</v>
+        <v>638.70388532631705</v>
       </c>
       <c r="N2">
-        <v>7135.7701949862858</v>
+        <v>7136.9196675898656</v>
       </c>
       <c r="O2">
-        <v>6019.08003336818</v>
+        <v>6017.3592796371186</v>
       </c>
       <c r="P2">
-        <v>3588.2902127206157</v>
+        <v>3587.5866012713282</v>
       </c>
       <c r="Q2">
-        <v>9299.6714379541427</v>
+        <v>9302.0351276986839</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B3">
-        <v>135.40201237204485</v>
+        <v>130.66315878005599</v>
       </c>
       <c r="C3">
-        <v>639.84777461751924</v>
+        <v>653.16706367148322</v>
       </c>
       <c r="D3">
-        <v>4880.2960744417005</v>
+        <v>4872.2270997558971</v>
       </c>
       <c r="E3">
-        <v>68.643956043953025</v>
+        <v>66.103396694016467</v>
       </c>
       <c r="F3">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G3">
-        <v>7438.8041926447904</v>
+        <v>7438.3511050638281</v>
       </c>
       <c r="H3">
-        <v>6737.1025841817773</v>
+        <v>6751.764988009656</v>
       </c>
       <c r="I3">
-        <v>6030.428525132008</v>
+        <v>6027.3278714109156</v>
       </c>
       <c r="J3">
-        <v>6489.0009473954369</v>
+        <v>6483.3153728633952</v>
       </c>
       <c r="K3">
-        <v>447.49999999998766</v>
+        <v>446.50000000010533</v>
       </c>
       <c r="L3">
-        <v>1077.9738537384726</v>
+        <v>1080.4551021630841</v>
       </c>
       <c r="M3">
-        <v>638.00068114730971</v>
+        <v>638.70388532632194</v>
       </c>
       <c r="N3">
-        <v>7135.7701949862858</v>
+        <v>7136.9196675898656</v>
       </c>
       <c r="O3">
-        <v>6018.5874513334184</v>
+        <v>6016.2600848771099</v>
       </c>
       <c r="P3">
-        <v>3584.5296482770937</v>
+        <v>3583.3778941898408</v>
       </c>
       <c r="Q3">
-        <v>9298.7307678277994</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>43435</v>
-      </c>
-      <c r="B4">
-        <v>132.71548674331842</v>
-      </c>
-      <c r="C4">
-        <v>648.06655948157641</v>
-      </c>
-      <c r="D4">
-        <v>4850.6060896692079</v>
-      </c>
-      <c r="E4">
-        <v>67.191187912084786</v>
-      </c>
-      <c r="F4">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G4">
-        <v>7438.6186336495284</v>
-      </c>
-      <c r="H4">
-        <v>6737.1025841817773</v>
-      </c>
-      <c r="I4">
-        <v>6028.6809593755361</v>
-      </c>
-      <c r="J4">
-        <v>6483.5886845228251</v>
-      </c>
-      <c r="K4">
-        <v>446.50000000010687</v>
-      </c>
-      <c r="L4">
-        <v>1079.5079358379871</v>
-      </c>
-      <c r="M4">
-        <v>639.00563909789298</v>
-      </c>
-      <c r="N4">
-        <v>7135.7701949862858</v>
-      </c>
-      <c r="O4">
-        <v>6017.5685869102017</v>
-      </c>
-      <c r="P4">
-        <v>3580.2553449926536</v>
-      </c>
-      <c r="Q4">
-        <v>9297.3940327102227</v>
+        <v>9300.9778404190674</v>
       </c>
     </row>
   </sheetData>
@@ -1761,7 +1443,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1819,161 +1501,108 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="B2">
-        <v>135.87534656845233</v>
+        <v>132.59792292099382</v>
       </c>
       <c r="C2">
-        <v>644.17726198710159</v>
+        <v>637.75865009133406</v>
       </c>
       <c r="D2">
-        <v>4907.7012020881975</v>
+        <v>4901.9328130030981</v>
       </c>
       <c r="E2">
-        <v>68.278605494502386</v>
+        <v>68.042996800661101</v>
       </c>
       <c r="F2">
         <v>639.99999999966485</v>
       </c>
       <c r="G2">
-        <v>7439.3619695297393</v>
+        <v>7438.2245366969619</v>
       </c>
       <c r="H2">
-        <v>6737.1025841817773</v>
+        <v>6751.764988009656</v>
       </c>
       <c r="I2">
-        <v>6030.7335274855086</v>
+        <v>6028.6037368945963</v>
       </c>
       <c r="J2">
-        <v>6492.3585924590679</v>
+        <v>6488.5375546187715</v>
       </c>
       <c r="K2">
-        <v>447.50000000148083</v>
+        <v>447.50000000015262</v>
       </c>
       <c r="L2">
-        <v>1078.7830788735021</v>
+        <v>1077.5822798862632</v>
       </c>
       <c r="M2">
-        <v>635.99722949064562</v>
+        <v>638.70388532631705</v>
       </c>
       <c r="N2">
-        <v>7135.7701949862858</v>
+        <v>7136.9196675898656</v>
       </c>
       <c r="O2">
-        <v>6018.9698265880916</v>
+        <v>6017.4924694798474</v>
       </c>
       <c r="P2">
-        <v>3588.387021442988</v>
+        <v>3587.5817157104589</v>
       </c>
       <c r="Q2">
-        <v>9299.7350625883191</v>
+        <v>9301.9176580116873</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B3">
-        <v>135.34053993359086</v>
+        <v>130.41235168654484</v>
       </c>
       <c r="C3">
-        <v>636.70685881106738</v>
+        <v>653.01725924213201</v>
       </c>
       <c r="D3">
-        <v>4881.1118600886248</v>
+        <v>4871.3552982957744</v>
       </c>
       <c r="E3">
-        <v>66.978747252744242</v>
+        <v>66.099396694016463</v>
       </c>
       <c r="F3">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G3">
-        <v>7439.7875955664904</v>
+        <v>7438.1400538119542</v>
       </c>
       <c r="H3">
-        <v>6737.1025841817773</v>
+        <v>6751.764988009656</v>
       </c>
       <c r="I3">
-        <v>6030.3887802231966</v>
+        <v>6027.1614566159624</v>
       </c>
       <c r="J3">
-        <v>6490.6310938916349</v>
+        <v>6483.2437036838992</v>
       </c>
       <c r="K3">
-        <v>447.49999999998766</v>
+        <v>446.50000000010533</v>
       </c>
       <c r="L3">
-        <v>1077.3849129756675</v>
+        <v>1080.4273135583226</v>
       </c>
       <c r="M3">
-        <v>638.00068114730971</v>
+        <v>638.70388532632194</v>
       </c>
       <c r="N3">
-        <v>7135.7701949862858</v>
+        <v>7136.9196675898656</v>
       </c>
       <c r="O3">
-        <v>6017.5831741662569</v>
+        <v>6016.3766134024372</v>
       </c>
       <c r="P3">
-        <v>3584.6455585348017</v>
+        <v>3583.2529885422546</v>
       </c>
       <c r="Q3">
-        <v>9299.3999871571887</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>43435</v>
-      </c>
-      <c r="B4">
-        <v>132.62725153356391</v>
-      </c>
-      <c r="C4">
-        <v>645.09927540312151</v>
-      </c>
-      <c r="D4">
-        <v>4851.8105564249672</v>
-      </c>
-      <c r="E4">
-        <v>66.49460549450238</v>
-      </c>
-      <c r="F4">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G4">
-        <v>7439.7487599876376</v>
-      </c>
-      <c r="H4">
-        <v>6737.1025841817773</v>
-      </c>
-      <c r="I4">
-        <v>6028.6231693348445</v>
-      </c>
-      <c r="J4">
-        <v>6485.8993428762033</v>
-      </c>
-      <c r="K4">
-        <v>446.50000000010687</v>
-      </c>
-      <c r="L4">
-        <v>1078.955183009138</v>
-      </c>
-      <c r="M4">
-        <v>639.00563909789298</v>
-      </c>
-      <c r="N4">
-        <v>7135.7701949862858</v>
-      </c>
-      <c r="O4">
-        <v>6016.3267003995215</v>
-      </c>
-      <c r="P4">
-        <v>3580.4308454657994</v>
-      </c>
-      <c r="Q4">
-        <v>9298.3106747357469</v>
+        <v>9300.7581122100582</v>
       </c>
     </row>
   </sheetData>
@@ -1983,7 +1612,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2041,161 +1670,108 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="B2">
-        <v>135.90029378649012</v>
+        <v>132.30840499348315</v>
       </c>
       <c r="C2">
-        <v>647.40412250128293</v>
+        <v>637.98110540001755</v>
       </c>
       <c r="D2">
-        <v>4910.0556494961356</v>
+        <v>4902.7161151652645</v>
       </c>
       <c r="E2">
-        <v>68.927737362634261</v>
+        <v>67.925996800661096</v>
       </c>
       <c r="F2">
         <v>639.99999999966485</v>
       </c>
       <c r="G2">
-        <v>7439.3895359204489</v>
+        <v>7438.6375662571127</v>
       </c>
       <c r="H2">
-        <v>6737.1025841817773</v>
+        <v>6751.764988009656</v>
       </c>
       <c r="I2">
-        <v>6030.7495853240598</v>
+        <v>6028.4137423009506</v>
       </c>
       <c r="J2">
-        <v>6492.6923895558011</v>
+        <v>6488.6679583071964</v>
       </c>
       <c r="K2">
-        <v>447.50000000148083</v>
+        <v>447.50000000015262</v>
       </c>
       <c r="L2">
-        <v>1079.3845693831263</v>
+        <v>1077.6239756667405</v>
       </c>
       <c r="M2">
-        <v>635.99722949064562</v>
+        <v>638.70388532631705</v>
       </c>
       <c r="N2">
-        <v>7135.7701949862858</v>
+        <v>7136.9196675898656</v>
       </c>
       <c r="O2">
-        <v>6019.7202119622243</v>
+        <v>6017.3833963164598</v>
       </c>
       <c r="P2">
-        <v>3588.7146243200273</v>
+        <v>3587.6911962217241</v>
       </c>
       <c r="Q2">
-        <v>9299.6714379541427</v>
+        <v>9302.2155362411286</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B3">
-        <v>135.43913016936463</v>
+        <v>129.83562434424584</v>
       </c>
       <c r="C3">
-        <v>639.89450154092242</v>
+        <v>652.95492668927454</v>
       </c>
       <c r="D3">
-        <v>4885.1377131418221</v>
+        <v>4873.6327253838272</v>
       </c>
       <c r="E3">
-        <v>68.894681318678309</v>
+        <v>66.099396694016463</v>
       </c>
       <c r="F3">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G3">
-        <v>7439.549230254328</v>
+        <v>7438.7736686920616</v>
       </c>
       <c r="H3">
-        <v>6737.1025841817773</v>
+        <v>6751.764988009656</v>
       </c>
       <c r="I3">
-        <v>6030.4525234682169</v>
+        <v>6026.7778210912202</v>
       </c>
       <c r="J3">
-        <v>6489.9638009073769</v>
+        <v>6483.4690111410473</v>
       </c>
       <c r="K3">
-        <v>447.49999999998766</v>
+        <v>446.50000000010533</v>
       </c>
       <c r="L3">
-        <v>1077.9826119719853</v>
+        <v>1080.4157514359522</v>
       </c>
       <c r="M3">
-        <v>638.00068114730971</v>
+        <v>638.70388532632194</v>
       </c>
       <c r="N3">
-        <v>7135.7701949862858</v>
+        <v>7136.9196675898656</v>
       </c>
       <c r="O3">
-        <v>6019.0220486457556</v>
+        <v>6016.2063075693104</v>
       </c>
       <c r="P3">
-        <v>3585.2169706703112</v>
+        <v>3583.5790613728263</v>
       </c>
       <c r="Q3">
-        <v>9298.7307678277994</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>43435</v>
-      </c>
-      <c r="B4">
-        <v>132.71954067371115</v>
-      </c>
-      <c r="C4">
-        <v>647.9970750676008</v>
-      </c>
-      <c r="D4">
-        <v>4855.1547977451946</v>
-      </c>
-      <c r="E4">
-        <v>66.331737362634257</v>
-      </c>
-      <c r="F4">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G4">
-        <v>7439.4201483358756</v>
-      </c>
-      <c r="H4">
-        <v>6737.1025841817773</v>
-      </c>
-      <c r="I4">
-        <v>6028.6836138970129</v>
-      </c>
-      <c r="J4">
-        <v>6484.9235847340451</v>
-      </c>
-      <c r="K4">
-        <v>446.50000000010687</v>
-      </c>
-      <c r="L4">
-        <v>1079.4950094294854</v>
-      </c>
-      <c r="M4">
-        <v>639.00563909789298</v>
-      </c>
-      <c r="N4">
-        <v>7135.7701949862858</v>
-      </c>
-      <c r="O4">
-        <v>6017.9907242651661</v>
-      </c>
-      <c r="P4">
-        <v>3580.9169412003466</v>
-      </c>
-      <c r="Q4">
-        <v>9297.3940327102227</v>
+        <v>9301.2709971427721</v>
       </c>
     </row>
   </sheetData>
@@ -2205,7 +1781,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2263,161 +1839,108 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="B2">
-        <v>135.812815450421</v>
+        <v>132.33575139040641</v>
       </c>
       <c r="C2">
-        <v>644.19059184231571</v>
+        <v>639.06790759805563</v>
       </c>
       <c r="D2">
-        <v>4906.793584034911</v>
+        <v>4902.8402652373443</v>
       </c>
       <c r="E2">
-        <v>66.651462637359529</v>
+        <v>67.994996800661085</v>
       </c>
       <c r="F2">
         <v>639.99999999966485</v>
       </c>
       <c r="G2">
-        <v>7439.3784691212586</v>
+        <v>7438.2890614931894</v>
       </c>
       <c r="H2">
-        <v>6737.1025841817773</v>
+        <v>6751.764988009656</v>
       </c>
       <c r="I2">
-        <v>6030.6932761213429</v>
+        <v>6028.4317305093009</v>
       </c>
       <c r="J2">
-        <v>6492.5434306293564</v>
+        <v>6488.5416630196905</v>
       </c>
       <c r="K2">
-        <v>447.50000000148083</v>
+        <v>447.50000000015274</v>
       </c>
       <c r="L2">
-        <v>1078.7855670368172</v>
+        <v>1077.8276807913314</v>
       </c>
       <c r="M2">
-        <v>635.99722949064562</v>
+        <v>638.70388532631705</v>
       </c>
       <c r="N2">
-        <v>7135.7701949862858</v>
+        <v>7136.9196675898656</v>
       </c>
       <c r="O2">
-        <v>6018.90705874575</v>
+        <v>6018.0720638571274</v>
       </c>
       <c r="P2">
-        <v>3588.2605079347186</v>
+        <v>3587.7085484186423</v>
       </c>
       <c r="Q2">
-        <v>9299.8362670032129</v>
+        <v>9301.9326163420592</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B3">
-        <v>135.27650302680317</v>
+        <v>129.8760268519743</v>
       </c>
       <c r="C3">
-        <v>638.63255884253829</v>
+        <v>657.19712284424224</v>
       </c>
       <c r="D3">
-        <v>4877.8587319671506</v>
+        <v>4874.8931533775512</v>
       </c>
       <c r="E3">
-        <v>66.938318681315678</v>
+        <v>65.791396694016456</v>
       </c>
       <c r="F3">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G3">
-        <v>7439.3003608774588</v>
+        <v>7438.774380579438</v>
       </c>
       <c r="H3">
-        <v>6737.1025841817773</v>
+        <v>6751.764988009656</v>
       </c>
       <c r="I3">
-        <v>6030.3473762197582</v>
+        <v>6026.8047460413964</v>
       </c>
       <c r="J3">
-        <v>6489.4883862340948</v>
+        <v>6483.6008655344458</v>
       </c>
       <c r="K3">
-        <v>447.49999999998766</v>
+        <v>446.50000000010533</v>
       </c>
       <c r="L3">
-        <v>1077.7460797711012</v>
+        <v>1081.2008051307894</v>
       </c>
       <c r="M3">
-        <v>638.00068114730971</v>
+        <v>638.70388532632194</v>
       </c>
       <c r="N3">
-        <v>7135.7701949862858</v>
+        <v>7136.9196675898656</v>
       </c>
       <c r="O3">
-        <v>6017.4492448035307</v>
+        <v>6017.6471747161313</v>
       </c>
       <c r="P3">
-        <v>3584.1824609919418</v>
+        <v>3583.7591430969769</v>
       </c>
       <c r="Q3">
-        <v>9298.9855095282546</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>43435</v>
-      </c>
-      <c r="B4">
-        <v>132.53581602851287</v>
-      </c>
-      <c r="C4">
-        <v>649.89427807228037</v>
-      </c>
-      <c r="D4">
-        <v>4847.158632413516</v>
-      </c>
-      <c r="E4">
-        <v>65.781462637359525</v>
-      </c>
-      <c r="F4">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G4">
-        <v>7439.0633907902338</v>
-      </c>
-      <c r="H4">
-        <v>6737.1025841817773</v>
-      </c>
-      <c r="I4">
-        <v>6028.5632821962963</v>
-      </c>
-      <c r="J4">
-        <v>6484.3565873278276</v>
-      </c>
-      <c r="K4">
-        <v>446.50000000010687</v>
-      </c>
-      <c r="L4">
-        <v>1079.8476976999027</v>
-      </c>
-      <c r="M4">
-        <v>639.00563909789298</v>
-      </c>
-      <c r="N4">
-        <v>7135.7701949862858</v>
-      </c>
-      <c r="O4">
-        <v>6016.0775135442327</v>
-      </c>
-      <c r="P4">
-        <v>3579.75232544766</v>
-      </c>
-      <c r="Q4">
-        <v>9297.6867859646227</v>
+        <v>9301.0407748949565</v>
       </c>
     </row>
   </sheetData>
@@ -2427,7 +1950,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2485,161 +2008,108 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="B2">
-        <v>135.87080781522047</v>
+        <v>132.23274861395791</v>
       </c>
       <c r="C2">
-        <v>648.07537848270772</v>
+        <v>640.12285656508448</v>
       </c>
       <c r="D2">
-        <v>4910.0233877563105</v>
+        <v>4902.7104030578967</v>
       </c>
       <c r="E2">
-        <v>68.160501098897996</v>
+        <v>68.01199680066108</v>
       </c>
       <c r="F2">
         <v>639.99999999966485</v>
       </c>
       <c r="G2">
-        <v>7439.0593428755265</v>
+        <v>7438.2249437934679</v>
       </c>
       <c r="H2">
-        <v>6737.1025841817773</v>
+        <v>6751.764988009656</v>
       </c>
       <c r="I2">
-        <v>6030.7306058839931</v>
+        <v>6028.3639762304238</v>
       </c>
       <c r="J2">
-        <v>6492.3147774969793</v>
+        <v>6488.5308594469034</v>
       </c>
       <c r="K2">
-        <v>447.50000000148083</v>
+        <v>447.50000000015274</v>
       </c>
       <c r="L2">
-        <v>1079.5095752423465</v>
+        <v>1078.0253586393362</v>
       </c>
       <c r="M2">
-        <v>635.99722949064562</v>
+        <v>638.70388532631705</v>
       </c>
       <c r="N2">
-        <v>7135.7701949862858</v>
+        <v>7136.9196675898656</v>
       </c>
       <c r="O2">
-        <v>6020.3970970191331</v>
+        <v>6017.466379617651</v>
       </c>
       <c r="P2">
-        <v>3588.7101395349673</v>
+        <v>3587.6903978523774</v>
       </c>
       <c r="Q2">
-        <v>9299.6714379541427</v>
+        <v>9301.9176580116873</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B3">
-        <v>135.42592487913541</v>
+        <v>129.50549061362375</v>
       </c>
       <c r="C3">
-        <v>640.04529027676745</v>
+        <v>649.94780674414949</v>
       </c>
       <c r="D3">
-        <v>4888.7699772594779</v>
+        <v>4873.4508311859181</v>
       </c>
       <c r="E3">
-        <v>69.317549450546437</v>
+        <v>66.100396694016467</v>
       </c>
       <c r="F3">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G3">
-        <v>7439.5772236091734</v>
+        <v>7438.1260082991685</v>
       </c>
       <c r="H3">
-        <v>6737.1025841817773</v>
+        <v>6751.764988009656</v>
       </c>
       <c r="I3">
-        <v>6030.4439861139772</v>
+        <v>6026.5578140976186</v>
       </c>
       <c r="J3">
-        <v>6489.0908009481618</v>
+        <v>6483.2362562863727</v>
       </c>
       <c r="K3">
-        <v>447.49999999998766</v>
+        <v>446.50000000010533</v>
       </c>
       <c r="L3">
-        <v>1078.0108511739604</v>
+        <v>1079.8576497651661</v>
       </c>
       <c r="M3">
-        <v>638.00068114730971</v>
+        <v>638.70388532632194</v>
       </c>
       <c r="N3">
-        <v>7135.7701949862858</v>
+        <v>7136.9196675898656</v>
       </c>
       <c r="O3">
-        <v>6021.6389200432086</v>
+        <v>6016.4753260238067</v>
       </c>
       <c r="P3">
-        <v>3585.7310035276696</v>
+        <v>3583.5530735177445</v>
       </c>
       <c r="Q3">
-        <v>9298.7420621580404</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>43435</v>
-      </c>
-      <c r="B4">
-        <v>132.74447800525701</v>
-      </c>
-      <c r="C4">
-        <v>643.00252625314783</v>
-      </c>
-      <c r="D4">
-        <v>4861.9916045456039</v>
-      </c>
-      <c r="E4">
-        <v>67.323501098897978</v>
-      </c>
-      <c r="F4">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G4">
-        <v>7440.3062419463622</v>
-      </c>
-      <c r="H4">
-        <v>6737.1025841817773</v>
-      </c>
-      <c r="I4">
-        <v>6028.6999476696428</v>
-      </c>
-      <c r="J4">
-        <v>6484.0374534171306</v>
-      </c>
-      <c r="K4">
-        <v>446.50000000010687</v>
-      </c>
-      <c r="L4">
-        <v>1078.56380120619</v>
-      </c>
-      <c r="M4">
-        <v>639.00563909789298</v>
-      </c>
-      <c r="N4">
-        <v>7135.7701949862858</v>
-      </c>
-      <c r="O4">
-        <v>6021.8861194226556</v>
-      </c>
-      <c r="P4">
-        <v>3581.9065903431601</v>
-      </c>
-      <c r="Q4">
-        <v>9297.6014473008217</v>
+        <v>9300.7581122100582</v>
       </c>
     </row>
   </sheetData>
@@ -2649,7 +2119,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2707,161 +2177,108 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="B2">
-        <v>135.9237521235643</v>
+        <v>132.22159897639523</v>
       </c>
       <c r="C2">
-        <v>644.13866930638756</v>
+        <v>640.73460989584032</v>
       </c>
       <c r="D2">
-        <v>4908.9882742737163</v>
+        <v>4904.2258295259708</v>
       </c>
       <c r="E2">
-        <v>69.538182417579321</v>
+        <v>67.721996800661088</v>
       </c>
       <c r="F2">
         <v>639.99999999966485</v>
       </c>
       <c r="G2">
-        <v>7440.5083422437738</v>
+        <v>7438.3839149791238</v>
       </c>
       <c r="H2">
-        <v>6737.1025841817773</v>
+        <v>6751.764988009656</v>
       </c>
       <c r="I2">
-        <v>6030.7646862059637</v>
+        <v>6028.3566421013948</v>
       </c>
       <c r="J2">
-        <v>6492.7281311623656</v>
+        <v>6488.8844862515289</v>
       </c>
       <c r="K2">
-        <v>447.50000000148083</v>
+        <v>447.50000000015262</v>
       </c>
       <c r="L2">
-        <v>1078.7758751274114</v>
+        <v>1078.1397711983152</v>
       </c>
       <c r="M2">
-        <v>635.99722949064562</v>
+        <v>638.70388532631705</v>
       </c>
       <c r="N2">
-        <v>7135.7701949862858</v>
+        <v>7136.9196675898656</v>
       </c>
       <c r="O2">
-        <v>6019.4876202433888</v>
+        <v>6017.6943253119889</v>
       </c>
       <c r="P2">
-        <v>3588.5662458234992</v>
+        <v>3587.9022058525356</v>
       </c>
       <c r="Q2">
-        <v>9300.0550232829319</v>
+        <v>9302.0657043892934</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B3">
-        <v>135.50499702954514</v>
+        <v>129.49515279543797</v>
       </c>
       <c r="C3">
-        <v>639.79221177462682</v>
+        <v>651.47659174620799</v>
       </c>
       <c r="D3">
-        <v>4883.6519038675851</v>
+        <v>4879.8495230596009</v>
       </c>
       <c r="E3">
-        <v>69.998208791205769</v>
+        <v>66.121396694016468</v>
       </c>
       <c r="F3">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G3">
-        <v>7441.2502965591184</v>
+        <v>7438.4994862238518</v>
       </c>
       <c r="H3">
-        <v>6737.1025841817773</v>
+        <v>6751.764988009656</v>
       </c>
       <c r="I3">
-        <v>6030.4951113767029</v>
+        <v>6026.5509247916098</v>
       </c>
       <c r="J3">
-        <v>6489.8082461075464</v>
+        <v>6484.1751826702184</v>
       </c>
       <c r="K3">
-        <v>447.49999999998766</v>
+        <v>446.50000000010533</v>
       </c>
       <c r="L3">
-        <v>1077.9634398174371</v>
+        <v>1080.1415342703704</v>
       </c>
       <c r="M3">
-        <v>638.00068114730971</v>
+        <v>638.70388532632194</v>
       </c>
       <c r="N3">
-        <v>7135.7701949862858</v>
+        <v>7136.9196675898656</v>
       </c>
       <c r="O3">
-        <v>6018.4862584257853</v>
+        <v>6017.2751470157127</v>
       </c>
       <c r="P3">
-        <v>3585.0064396941384</v>
+        <v>3584.4659868136951</v>
       </c>
       <c r="Q3">
-        <v>9299.3843505227887</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>43435</v>
-      </c>
-      <c r="B4">
-        <v>132.82108470529406</v>
-      </c>
-      <c r="C4">
-        <v>643.66790659744902</v>
-      </c>
-      <c r="D4">
-        <v>4854.2483797478253</v>
-      </c>
-      <c r="E4">
-        <v>67.260182417579315</v>
-      </c>
-      <c r="F4">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G4">
-        <v>7441.3231296253116</v>
-      </c>
-      <c r="H4">
-        <v>6737.1025841817773</v>
-      </c>
-      <c r="I4">
-        <v>6028.7501224968764</v>
-      </c>
-      <c r="J4">
-        <v>6484.6296025285728</v>
-      </c>
-      <c r="K4">
-        <v>446.50000000010687</v>
-      </c>
-      <c r="L4">
-        <v>1078.6880021282373</v>
-      </c>
-      <c r="M4">
-        <v>639.00563909789298</v>
-      </c>
-      <c r="N4">
-        <v>7135.7701949862858</v>
-      </c>
-      <c r="O4">
-        <v>6017.4330812383268</v>
-      </c>
-      <c r="P4">
-        <v>3580.7852433334224</v>
-      </c>
-      <c r="Q4">
-        <v>9298.1677548954285</v>
+        <v>9301.0986117949215</v>
       </c>
     </row>
   </sheetData>
@@ -2871,7 +2288,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2929,161 +2346,108 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="B2">
-        <v>136.07774899066277</v>
+        <v>132.35892105294943</v>
       </c>
       <c r="C2">
-        <v>647.21464250619306</v>
+        <v>638.23143655064666</v>
       </c>
       <c r="D2">
-        <v>4907.0226713896309</v>
+        <v>4904.1925505506124</v>
       </c>
       <c r="E2">
-        <v>73.545385714282602</v>
+        <v>67.925996800661096</v>
       </c>
       <c r="F2">
         <v>639.99999999966485</v>
       </c>
       <c r="G2">
-        <v>7439.2953675200679</v>
+        <v>7438.231864434073</v>
       </c>
       <c r="H2">
-        <v>6737.1025841817773</v>
+        <v>6751.764988009656</v>
       </c>
       <c r="I2">
-        <v>6030.8638141949259</v>
+        <v>6028.4469713001954</v>
       </c>
       <c r="J2">
-        <v>6491.6364703929712</v>
+        <v>6488.5523144294802</v>
       </c>
       <c r="K2">
-        <v>447.50000000148083</v>
+        <v>447.50000000015274</v>
       </c>
       <c r="L2">
-        <v>1079.3492778927507</v>
+        <v>1077.6708975546269</v>
       </c>
       <c r="M2">
-        <v>635.99722949064562</v>
+        <v>638.70388532631705</v>
       </c>
       <c r="N2">
-        <v>7135.7701949862858</v>
+        <v>7136.9196675898656</v>
       </c>
       <c r="O2">
-        <v>6018.9560588575605</v>
+        <v>6017.8109660935334</v>
       </c>
       <c r="P2">
-        <v>3588.2924405795584</v>
+        <v>3587.8975545194844</v>
       </c>
       <c r="Q2">
-        <v>9299.9188707242774</v>
+        <v>9301.9212195189193</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B3">
-        <v>135.81952914133393</v>
+        <v>129.93573124529178</v>
       </c>
       <c r="C3">
-        <v>640.00539906352094</v>
+        <v>655.94363554267215</v>
       </c>
       <c r="D3">
-        <v>4878.9466858203405</v>
+        <v>4875.3664459970923</v>
       </c>
       <c r="E3">
-        <v>74.176857142854146</v>
+        <v>66.065396694016471</v>
       </c>
       <c r="F3">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G3">
-        <v>7439.2408341168566</v>
+        <v>7438.1630534686738</v>
       </c>
       <c r="H3">
-        <v>6737.1025841817773</v>
+        <v>6751.764988009656</v>
       </c>
       <c r="I3">
-        <v>6030.6975977541024</v>
+        <v>6026.8445341116694</v>
       </c>
       <c r="J3">
-        <v>6487.6798194785879</v>
+        <v>6483.2820088460139</v>
       </c>
       <c r="K3">
-        <v>447.49999999998766</v>
+        <v>446.50000000010533</v>
       </c>
       <c r="L3">
-        <v>1078.0033905487901</v>
+        <v>1080.9692258013336</v>
       </c>
       <c r="M3">
-        <v>638.00068114730971</v>
+        <v>638.70388532632194</v>
       </c>
       <c r="N3">
-        <v>7135.7701949862858</v>
+        <v>7136.9196675898656</v>
       </c>
       <c r="O3">
-        <v>6017.6119077084268</v>
+        <v>6016.9577996980206</v>
       </c>
       <c r="P3">
-        <v>3584.3374719667995</v>
+        <v>3583.8267641189141</v>
       </c>
       <c r="Q3">
-        <v>9299.1800693214518</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>43435</v>
-      </c>
-      <c r="B4">
-        <v>133.35649987724227</v>
-      </c>
-      <c r="C4">
-        <v>650.84642226401252</v>
-      </c>
-      <c r="D4">
-        <v>4849.4224444694155</v>
-      </c>
-      <c r="E4">
-        <v>73.007385714282634</v>
-      </c>
-      <c r="F4">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G4">
-        <v>7439.0781451957746</v>
-      </c>
-      <c r="H4">
-        <v>6737.1025841817773</v>
-      </c>
-      <c r="I4">
-        <v>6029.1003698202812</v>
-      </c>
-      <c r="J4">
-        <v>6481.4628001340734</v>
-      </c>
-      <c r="K4">
-        <v>446.50000000010687</v>
-      </c>
-      <c r="L4">
-        <v>1080.0246430357299</v>
-      </c>
-      <c r="M4">
-        <v>639.00563909789298</v>
-      </c>
-      <c r="N4">
-        <v>7135.7701949862858</v>
-      </c>
-      <c r="O4">
-        <v>6016.4722107165835</v>
-      </c>
-      <c r="P4">
-        <v>3580.0828796885844</v>
-      </c>
-      <c r="Q4">
-        <v>9297.9190266025762</v>
+        <v>9300.7719173397545</v>
       </c>
     </row>
   </sheetData>
@@ -3093,7 +2457,7 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3151,161 +2515,108 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="B2">
-        <v>136.10305874257639</v>
+        <v>132.22702000707224</v>
       </c>
       <c r="C2">
-        <v>645.1646748838084</v>
+        <v>641.39831066162014</v>
       </c>
       <c r="D2">
-        <v>4906.7576226478332</v>
+        <v>4902.2684067547198</v>
       </c>
       <c r="E2">
-        <v>74.203979120875999</v>
+        <v>67.862996800661094</v>
       </c>
       <c r="F2">
         <v>639.99999999966485</v>
       </c>
       <c r="G2">
-        <v>7438.9645724469947</v>
+        <v>7438.4048804491922</v>
       </c>
       <c r="H2">
-        <v>6737.1025841817773</v>
+        <v>6751.764988009656</v>
       </c>
       <c r="I2">
-        <v>6030.8801061160257</v>
+        <v>6028.3602080055089</v>
       </c>
       <c r="J2">
-        <v>6491.6197468972114</v>
+        <v>6488.9044196041696</v>
       </c>
       <c r="K2">
-        <v>447.50000000148083</v>
+        <v>447.50000000015262</v>
       </c>
       <c r="L2">
-        <v>1078.9673902937814</v>
+        <v>1078.2638991747315</v>
       </c>
       <c r="M2">
-        <v>635.99722949064562</v>
+        <v>638.70388532631705</v>
       </c>
       <c r="N2">
-        <v>7135.7701949862858</v>
+        <v>7136.9196675898656</v>
       </c>
       <c r="O2">
-        <v>6018.9877137970489</v>
+        <v>6017.3849310142368</v>
       </c>
       <c r="P2">
-        <v>3588.2554952520986</v>
+        <v>3587.6286209499431</v>
       </c>
       <c r="Q2">
-        <v>9299.6714379541427</v>
+        <v>9301.9874635534197</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B3">
-        <v>136.02077768113625</v>
+        <v>129.55801598510115</v>
       </c>
       <c r="C3">
-        <v>641.67701531575631</v>
+        <v>654.29760933212856</v>
       </c>
       <c r="D3">
-        <v>4882.6109483740302</v>
+        <v>4874.62149465737</v>
       </c>
       <c r="E3">
-        <v>78.753560439557418</v>
+        <v>65.542396694016475</v>
       </c>
       <c r="F3">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G3">
-        <v>7439.2762306916266</v>
+        <v>7438.7132201566947</v>
       </c>
       <c r="H3">
-        <v>6737.1025841817773</v>
+        <v>6751.764988009656</v>
       </c>
       <c r="I3">
-        <v>6030.827141693595</v>
+        <v>6026.5928179400162</v>
       </c>
       <c r="J3">
-        <v>6488.190586254912</v>
+        <v>6484.849713241807</v>
       </c>
       <c r="K3">
-        <v>447.49999999998766</v>
+        <v>446.50000000010533</v>
       </c>
       <c r="L3">
-        <v>1078.3160233275651</v>
+        <v>1080.6644899174969</v>
       </c>
       <c r="M3">
-        <v>638.00068114730971</v>
+        <v>638.70388532632194</v>
       </c>
       <c r="N3">
-        <v>7135.7701949862858</v>
+        <v>7136.9196675898656</v>
       </c>
       <c r="O3">
-        <v>6018.3968396983691</v>
+        <v>6016.262392161012</v>
       </c>
       <c r="P3">
-        <v>3584.8585554118526</v>
+        <v>3583.720330246455</v>
       </c>
       <c r="Q3">
-        <v>9298.8579082760189</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>43435</v>
-      </c>
-      <c r="B4">
-        <v>133.67894004809312</v>
-      </c>
-      <c r="C4">
-        <v>647.7077736051416</v>
-      </c>
-      <c r="D4">
-        <v>4860.1309761373441</v>
-      </c>
-      <c r="E4">
-        <v>76.160979120875993</v>
-      </c>
-      <c r="F4">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G4">
-        <v>7439.4703703958912</v>
-      </c>
-      <c r="H4">
-        <v>6737.1025841817773</v>
-      </c>
-      <c r="I4">
-        <v>6029.3106535884535</v>
-      </c>
-      <c r="J4">
-        <v>6482.6579559096272</v>
-      </c>
-      <c r="K4">
-        <v>446.50000000010687</v>
-      </c>
-      <c r="L4">
-        <v>1079.4411257112081</v>
-      </c>
-      <c r="M4">
-        <v>639.00563909789298</v>
-      </c>
-      <c r="N4">
-        <v>7135.7701949862858</v>
-      </c>
-      <c r="O4">
-        <v>6018.1428569909649</v>
-      </c>
-      <c r="P4">
-        <v>3581.6377693974696</v>
-      </c>
-      <c r="Q4">
-        <v>9297.6990870332793</v>
+        <v>9300.9640812764828</v>
       </c>
     </row>
   </sheetData>
@@ -3315,7 +2626,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3373,161 +2684,108 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="B2">
-        <v>136.0635330538712</v>
+        <v>132.22909614648049</v>
       </c>
       <c r="C2">
-        <v>645.99804223839635</v>
+        <v>642.38932331486967</v>
       </c>
       <c r="D2">
-        <v>4906.6168848737134</v>
+        <v>4903.1110338942481</v>
       </c>
       <c r="E2">
-        <v>73.175468131865031</v>
+        <v>67.916996800661082</v>
       </c>
       <c r="F2">
         <v>639.99999999966485</v>
       </c>
       <c r="G2">
-        <v>7438.9734760493075</v>
+        <v>7438.2937431030095</v>
       </c>
       <c r="H2">
-        <v>6737.1025841817773</v>
+        <v>6751.764988009656</v>
       </c>
       <c r="I2">
-        <v>6030.8546633774331</v>
+        <v>6028.3615736709144</v>
       </c>
       <c r="J2">
-        <v>6491.7216859695427</v>
+        <v>6488.5836600068615</v>
       </c>
       <c r="K2">
-        <v>447.50000000148083</v>
+        <v>447.50000000015262</v>
       </c>
       <c r="L2">
-        <v>1079.1226795043665</v>
+        <v>1078.4492423317583</v>
       </c>
       <c r="M2">
-        <v>635.99722949064562</v>
+        <v>638.70388532631705</v>
       </c>
       <c r="N2">
-        <v>7135.7701949862858</v>
+        <v>7136.9196675898656</v>
       </c>
       <c r="O2">
-        <v>6018.8771383234944</v>
+        <v>6018.1366023339624</v>
       </c>
       <c r="P2">
-        <v>3588.2358777164127</v>
+        <v>3587.7463931896918</v>
       </c>
       <c r="Q2">
-        <v>9299.6714379541427</v>
+        <v>9301.9176580116873</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B3">
-        <v>135.75819678993409</v>
+        <v>129.63907371101834</v>
       </c>
       <c r="C3">
-        <v>643.21354616937947</v>
+        <v>665.41725617961845</v>
       </c>
       <c r="D3">
-        <v>4878.1685579683126</v>
+        <v>4874.8405214589793</v>
       </c>
       <c r="E3">
-        <v>72.951065934062925</v>
+        <v>66.071396694016457</v>
       </c>
       <c r="F3">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G3">
-        <v>7438.8250342911178</v>
+        <v>7438.2412004241178</v>
       </c>
       <c r="H3">
-        <v>6737.1025841817773</v>
+        <v>6751.764988009656</v>
       </c>
       <c r="I3">
-        <v>6030.6581180414414</v>
+        <v>6026.6468362512114</v>
       </c>
       <c r="J3">
-        <v>6488.2803898798129</v>
+        <v>6483.3185728765993</v>
       </c>
       <c r="K3">
-        <v>447.49999999998766</v>
+        <v>446.50000000010533</v>
       </c>
       <c r="L3">
-        <v>1078.6031907724464</v>
+        <v>1082.7146849064522</v>
       </c>
       <c r="M3">
-        <v>638.00068114730971</v>
+        <v>638.70388532632194</v>
       </c>
       <c r="N3">
-        <v>7135.7701949862858</v>
+        <v>7136.9196675898656</v>
       </c>
       <c r="O3">
-        <v>6017.5073389807039</v>
+        <v>6017.6167830311579</v>
       </c>
       <c r="P3">
-        <v>3584.2266048040528</v>
+        <v>3583.7516234051036</v>
       </c>
       <c r="Q3">
-        <v>9298.788745389711</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>43435</v>
-      </c>
-      <c r="B4">
-        <v>133.23539792696931</v>
-      </c>
-      <c r="C4">
-        <v>659.37182928156199</v>
-      </c>
-      <c r="D4">
-        <v>4849.5690577062824</v>
-      </c>
-      <c r="E4">
-        <v>71.452468131865032</v>
-      </c>
-      <c r="F4">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G4">
-        <v>7438.8370149598904</v>
-      </c>
-      <c r="H4">
-        <v>6737.1025841817773</v>
-      </c>
-      <c r="I4">
-        <v>6029.0213915532231</v>
-      </c>
-      <c r="J4">
-        <v>6483.303370153275</v>
-      </c>
-      <c r="K4">
-        <v>446.50000000010687</v>
-      </c>
-      <c r="L4">
-        <v>1081.6022522882026</v>
-      </c>
-      <c r="M4">
-        <v>639.00563909789298</v>
-      </c>
-      <c r="N4">
-        <v>7135.7701949862858</v>
-      </c>
-      <c r="O4">
-        <v>6016.1978510164408</v>
-      </c>
-      <c r="P4">
-        <v>3580.1042424132347</v>
-      </c>
-      <c r="Q4">
-        <v>9297.5952880722325</v>
+        <v>9300.7581122100582</v>
       </c>
     </row>
   </sheetData>
@@ -3537,7 +2795,7 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3595,161 +2853,108 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="B2">
-        <v>136.10218963309504</v>
+        <v>132.37737874772051</v>
       </c>
       <c r="C2">
-        <v>646.70640382800082</v>
+        <v>635.91322874399486</v>
       </c>
       <c r="D2">
-        <v>4909.5891861753635</v>
+        <v>4903.0175136858388</v>
       </c>
       <c r="E2">
-        <v>74.181363736260622</v>
+        <v>67.981996800661108</v>
       </c>
       <c r="F2">
         <v>639.99999999966485</v>
       </c>
       <c r="G2">
-        <v>7439.5604290285492</v>
+        <v>7438.2247402452149</v>
       </c>
       <c r="H2">
-        <v>6737.1025841817773</v>
+        <v>6751.764988009656</v>
       </c>
       <c r="I2">
-        <v>6030.8795466690917</v>
+        <v>6028.4591126020332</v>
       </c>
       <c r="J2">
-        <v>6491.6366195380724</v>
+        <v>6488.5282726759542</v>
       </c>
       <c r="K2">
-        <v>447.50000000148083</v>
+        <v>447.50000000015274</v>
       </c>
       <c r="L2">
-        <v>1079.2546161823607</v>
+        <v>1077.2358695419414</v>
       </c>
       <c r="M2">
-        <v>635.99722949064562</v>
+        <v>638.70388532631705</v>
       </c>
       <c r="N2">
-        <v>7135.7701949862858</v>
+        <v>7136.9196675898656</v>
       </c>
       <c r="O2">
-        <v>6019.379672393884</v>
+        <v>6017.7076494462099</v>
       </c>
       <c r="P2">
-        <v>3588.6497800883385</v>
+        <v>3587.7333220650053</v>
       </c>
       <c r="Q2">
-        <v>9299.9365463760678</v>
+        <v>9301.9176580116873</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B3">
-        <v>135.88478149477319</v>
+        <v>129.97197875580781</v>
       </c>
       <c r="C3">
-        <v>637.5510440035664</v>
+        <v>656.12926676366897</v>
       </c>
       <c r="D3">
-        <v>4885.0862913220753</v>
+        <v>4872.8016852961409</v>
       </c>
       <c r="E3">
-        <v>75.238868131865118</v>
+        <v>66.100396694016467</v>
       </c>
       <c r="F3">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G3">
-        <v>7440.0736580710718</v>
+        <v>7438.1304866008859</v>
       </c>
       <c r="H3">
-        <v>6737.1025841817773</v>
+        <v>6751.764988009656</v>
       </c>
       <c r="I3">
-        <v>6030.7396007778216</v>
+        <v>6026.8686900977691</v>
       </c>
       <c r="J3">
-        <v>6487.8344561287959</v>
+        <v>6483.2333788827827</v>
       </c>
       <c r="K3">
-        <v>447.49999999998766</v>
+        <v>446.50000000010533</v>
       </c>
       <c r="L3">
-        <v>1077.5433673811722</v>
+        <v>1081.003582586555</v>
       </c>
       <c r="M3">
-        <v>638.00068114730971</v>
+        <v>638.70388532632194</v>
       </c>
       <c r="N3">
-        <v>7135.7701949862858</v>
+        <v>7136.9196675898656</v>
       </c>
       <c r="O3">
-        <v>6019.4701862082775</v>
+        <v>6016.7645901402502</v>
       </c>
       <c r="P3">
-        <v>3585.2096844820949</v>
+        <v>3583.4602168571837</v>
       </c>
       <c r="Q3">
-        <v>9299.3716922949425</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>43435</v>
-      </c>
-      <c r="B4">
-        <v>133.42014963598751</v>
-      </c>
-      <c r="C4">
-        <v>650.89612058988928</v>
-      </c>
-      <c r="D4">
-        <v>4857.0705485728668</v>
-      </c>
-      <c r="E4">
-        <v>72.966363736260632</v>
-      </c>
-      <c r="F4">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G4">
-        <v>7440.1155678685627</v>
-      </c>
-      <c r="H4">
-        <v>6737.1025841817773</v>
-      </c>
-      <c r="I4">
-        <v>6029.1418799306994</v>
-      </c>
-      <c r="J4">
-        <v>6481.4582638509601</v>
-      </c>
-      <c r="K4">
-        <v>446.50000000010687</v>
-      </c>
-      <c r="L4">
-        <v>1080.0338616230449</v>
-      </c>
-      <c r="M4">
-        <v>639.00563909789298</v>
-      </c>
-      <c r="N4">
-        <v>7135.7701949862858</v>
-      </c>
-      <c r="O4">
-        <v>6019.0603109563317</v>
-      </c>
-      <c r="P4">
-        <v>3581.1947419832591</v>
-      </c>
-      <c r="Q4">
-        <v>9298.2172157654222</v>
+        <v>9300.7581122100582</v>
       </c>
     </row>
   </sheetData>
@@ -3759,7 +2964,7 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3817,161 +3022,108 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="B2">
-        <v>136.20478847191094</v>
+        <v>132.23209501451456</v>
       </c>
       <c r="C2">
-        <v>645.97610115929911</v>
+        <v>639.34466650355591</v>
       </c>
       <c r="D2">
-        <v>4913.383496015841</v>
+        <v>4902.3852512487292</v>
       </c>
       <c r="E2">
-        <v>76.851121978018853</v>
+        <v>67.994996800661085</v>
       </c>
       <c r="F2">
         <v>639.99999999966485</v>
       </c>
       <c r="G2">
-        <v>7439.9972194688899</v>
+        <v>7438.2245366969619</v>
       </c>
       <c r="H2">
-        <v>6737.1025841817773</v>
+        <v>6751.764988009656</v>
       </c>
       <c r="I2">
-        <v>6030.9455896786239</v>
+        <v>6028.3635462987222</v>
       </c>
       <c r="J2">
-        <v>6493.0617485355942</v>
+        <v>6488.5302507949154</v>
       </c>
       <c r="K2">
-        <v>447.50000000148083</v>
+        <v>447.50000000015262</v>
       </c>
       <c r="L2">
-        <v>1079.1185928868044</v>
+        <v>1077.879554860524</v>
       </c>
       <c r="M2">
-        <v>635.99722949064562</v>
+        <v>638.70388532631705</v>
       </c>
       <c r="N2">
-        <v>7135.7701949862858</v>
+        <v>7136.9196675898656</v>
       </c>
       <c r="O2">
-        <v>6019.3267250002318</v>
+        <v>6017.3569775904543</v>
       </c>
       <c r="P2">
-        <v>3589.1767608663586</v>
+        <v>3587.6449520614356</v>
       </c>
       <c r="Q2">
-        <v>9300.408326763165</v>
+        <v>9301.9176580116873</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B3">
-        <v>135.92967413635608</v>
+        <v>129.50483726526059</v>
       </c>
       <c r="C3">
-        <v>638.68231794983672</v>
+        <v>656.00225025136615</v>
       </c>
       <c r="D3">
-        <v>4891.1511518903308</v>
+        <v>4872.9777422807119</v>
       </c>
       <c r="E3">
-        <v>73.739989010985994</v>
+        <v>66.100396694016467</v>
       </c>
       <c r="F3">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G3">
-        <v>7440.4829909044274</v>
+        <v>7438.1280439858838</v>
       </c>
       <c r="H3">
-        <v>6737.1025841817773</v>
+        <v>6751.764988009656</v>
       </c>
       <c r="I3">
-        <v>6030.7684982358305</v>
+        <v>6026.5573786946425</v>
       </c>
       <c r="J3">
-        <v>6490.221688611884</v>
+        <v>6483.235579250234</v>
       </c>
       <c r="K3">
-        <v>447.49999999998766</v>
+        <v>446.50000000010533</v>
       </c>
       <c r="L3">
-        <v>1077.7554058621997</v>
+        <v>1080.9800770694069</v>
       </c>
       <c r="M3">
-        <v>638.00068114730971</v>
+        <v>638.70388532632194</v>
       </c>
       <c r="N3">
-        <v>7135.7701949862858</v>
+        <v>7136.9196675898656</v>
       </c>
       <c r="O3">
-        <v>6018.3401045514074</v>
+        <v>6016.2531304266531</v>
       </c>
       <c r="P3">
-        <v>3586.0672881292044</v>
+        <v>3583.4854410465823</v>
       </c>
       <c r="Q3">
-        <v>9300.058838959043</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>43435</v>
-      </c>
-      <c r="B4">
-        <v>133.33715526140762</v>
-      </c>
-      <c r="C4">
-        <v>648.4728637405467</v>
-      </c>
-      <c r="D4">
-        <v>4861.8851411085743</v>
-      </c>
-      <c r="E4">
-        <v>69.641121978018859</v>
-      </c>
-      <c r="F4">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G4">
-        <v>7440.4597148127905</v>
-      </c>
-      <c r="H4">
-        <v>6737.1025841817773</v>
-      </c>
-      <c r="I4">
-        <v>6029.0877542046965</v>
-      </c>
-      <c r="J4">
-        <v>6484.8841283934844</v>
-      </c>
-      <c r="K4">
-        <v>446.50000000010687</v>
-      </c>
-      <c r="L4">
-        <v>1079.5834643268033</v>
-      </c>
-      <c r="M4">
-        <v>639.00563909789298</v>
-      </c>
-      <c r="N4">
-        <v>7135.7701949862858</v>
-      </c>
-      <c r="O4">
-        <v>6017.2904171587134</v>
-      </c>
-      <c r="P4">
-        <v>3581.8912087698645</v>
-      </c>
-      <c r="Q4">
-        <v>9298.9483253350572</v>
+        <v>9300.7581122100582</v>
       </c>
     </row>
   </sheetData>
@@ -3981,7 +3133,7 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4039,161 +3191,108 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="B2">
-        <v>135.86795470362853</v>
+        <v>132.43460000058155</v>
       </c>
       <c r="C2">
-        <v>648.79999362223066</v>
+        <v>639.32725154753211</v>
       </c>
       <c r="D2">
-        <v>4907.3042209324949</v>
+        <v>4904.1688415997542</v>
       </c>
       <c r="E2">
-        <v>68.086259340656255</v>
+        <v>67.963996800661093</v>
       </c>
       <c r="F2">
         <v>639.99999999966485</v>
       </c>
       <c r="G2">
-        <v>7439.0239291181188</v>
+        <v>7438.2853976246342</v>
       </c>
       <c r="H2">
-        <v>6737.1025841817773</v>
+        <v>6751.764988009656</v>
       </c>
       <c r="I2">
-        <v>6030.7287693322523</v>
+        <v>6028.4967522158158</v>
       </c>
       <c r="J2">
-        <v>6492.3463064071821</v>
+        <v>6488.5261423939974</v>
       </c>
       <c r="K2">
-        <v>447.50000000148083</v>
+        <v>447.50000000015274</v>
       </c>
       <c r="L2">
-        <v>1079.6442771057855</v>
+        <v>1077.8762907031085</v>
       </c>
       <c r="M2">
-        <v>635.99722949064562</v>
+        <v>638.70388532631705</v>
       </c>
       <c r="N2">
-        <v>7135.7701949862858</v>
+        <v>7136.9196675898656</v>
       </c>
       <c r="O2">
-        <v>6018.9303663210585</v>
+        <v>6018.0475762394408</v>
       </c>
       <c r="P2">
-        <v>3588.3316859650927</v>
+        <v>3587.8942407688187</v>
       </c>
       <c r="Q2">
-        <v>9299.7165823990854</v>
+        <v>9301.9176580116873</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B3">
-        <v>135.43615043045079</v>
+        <v>130.0895844586465</v>
       </c>
       <c r="C3">
-        <v>642.50012142873652</v>
+        <v>660.78211745560486</v>
       </c>
       <c r="D3">
-        <v>4880.6257811234182</v>
+        <v>4874.9239612587189</v>
       </c>
       <c r="E3">
-        <v>69.657670329667326</v>
+        <v>66.153396694016465</v>
       </c>
       <c r="F3">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G3">
-        <v>7438.8246023391757</v>
+        <v>7438.2379460431193</v>
       </c>
       <c r="H3">
-        <v>6737.1025841817773</v>
+        <v>6751.764988009656</v>
       </c>
       <c r="I3">
-        <v>6030.4505975939037</v>
+        <v>6026.9470646311611</v>
       </c>
       <c r="J3">
-        <v>6489.1259147773262</v>
+        <v>6483.2310092562966</v>
       </c>
       <c r="K3">
-        <v>447.49999999998766</v>
+        <v>446.50000000010533</v>
       </c>
       <c r="L3">
-        <v>1078.4699641876914</v>
+        <v>1081.8622193828348</v>
       </c>
       <c r="M3">
-        <v>638.00068114730971</v>
+        <v>638.70388532632194</v>
       </c>
       <c r="N3">
-        <v>7135.7701949862858</v>
+        <v>7136.9196675898656</v>
       </c>
       <c r="O3">
-        <v>6017.7496458748974</v>
+        <v>6017.1365318683584</v>
       </c>
       <c r="P3">
-        <v>3584.5764943891081</v>
+        <v>3583.7635447888106</v>
       </c>
       <c r="Q3">
-        <v>9298.8992430122289</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>43435</v>
-      </c>
-      <c r="B4">
-        <v>132.76934136890011</v>
-      </c>
-      <c r="C4">
-        <v>657.08150128357579</v>
-      </c>
-      <c r="D4">
-        <v>4850.7884818401735</v>
-      </c>
-      <c r="E4">
-        <v>67.704259340656236</v>
-      </c>
-      <c r="F4">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G4">
-        <v>7438.5777099858042</v>
-      </c>
-      <c r="H4">
-        <v>6737.1025841817773</v>
-      </c>
-      <c r="I4">
-        <v>6028.7162323107486</v>
-      </c>
-      <c r="J4">
-        <v>6483.7053378266428</v>
-      </c>
-      <c r="K4">
-        <v>446.50000000010687</v>
-      </c>
-      <c r="L4">
-        <v>1081.1794501128591</v>
-      </c>
-      <c r="M4">
-        <v>639.00563909789298</v>
-      </c>
-      <c r="N4">
-        <v>7135.7701949862858</v>
-      </c>
-      <c r="O4">
-        <v>6016.5668663106626</v>
-      </c>
-      <c r="P4">
-        <v>3580.2819209964696</v>
-      </c>
-      <c r="Q4">
-        <v>9297.5999095002535</v>
+        <v>9300.7581122100582</v>
       </c>
     </row>
   </sheetData>
@@ -4203,7 +3302,7 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4261,161 +3360,108 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="B2">
-        <v>135.92573570336705</v>
+        <v>132.53606244033816</v>
       </c>
       <c r="C2">
-        <v>644.29834282637182</v>
+        <v>638.8226360939625</v>
       </c>
       <c r="D2">
-        <v>4906.9672494165425</v>
+        <v>4902.228733486374</v>
       </c>
       <c r="E2">
-        <v>69.589797802194695</v>
+        <v>67.963996800661093</v>
       </c>
       <c r="F2">
         <v>639.99999999966485</v>
       </c>
       <c r="G2">
-        <v>7438.9661912837782</v>
+        <v>7438.6165172047258</v>
       </c>
       <c r="H2">
-        <v>6737.1025841817773</v>
+        <v>6751.764988009656</v>
       </c>
       <c r="I2">
-        <v>6030.7659630389307</v>
+        <v>6028.563220472186</v>
       </c>
       <c r="J2">
-        <v>6492.1356405288552</v>
+        <v>6488.6387430117738</v>
       </c>
       <c r="K2">
-        <v>447.50000000148083</v>
+        <v>447.50000000015262</v>
       </c>
       <c r="L2">
-        <v>1078.8056799368746</v>
+        <v>1077.7817085363415</v>
       </c>
       <c r="M2">
-        <v>635.99722949064562</v>
+        <v>638.70388532631705</v>
       </c>
       <c r="N2">
-        <v>7135.7701949862858</v>
+        <v>7136.9196675898656</v>
       </c>
       <c r="O2">
-        <v>6018.9151892952768</v>
+        <v>6017.5305039895966</v>
       </c>
       <c r="P2">
-        <v>3588.284715272393</v>
+        <v>3587.6230758998818</v>
       </c>
       <c r="Q2">
-        <v>9299.6714379541427</v>
+        <v>9302.1268158201274</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B3">
-        <v>135.67816966198802</v>
+        <v>130.29027761056045</v>
       </c>
       <c r="C3">
-        <v>638.16045300420319</v>
+        <v>657.63119833286851</v>
       </c>
       <c r="D3">
-        <v>4882.1023689694266</v>
+        <v>4873.2319000853668</v>
       </c>
       <c r="E3">
-        <v>74.450901098898086</v>
+        <v>66.075396694016462</v>
       </c>
       <c r="F3">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G3">
-        <v>7439.0765856425578</v>
+        <v>7438.8947118671713</v>
       </c>
       <c r="H3">
-        <v>6737.1025841817773</v>
+        <v>6751.764988009656</v>
       </c>
       <c r="I3">
-        <v>6030.6066044676445</v>
+        <v>6027.0804583792742</v>
       </c>
       <c r="J3">
-        <v>6489.2134525862757</v>
+        <v>6483.4991205086417</v>
       </c>
       <c r="K3">
-        <v>447.49999999998766</v>
+        <v>446.50000000010533</v>
       </c>
       <c r="L3">
-        <v>1077.6575908609766</v>
+        <v>1081.2809742832355</v>
       </c>
       <c r="M3">
-        <v>638.00068114730971</v>
+        <v>638.70388532632194</v>
       </c>
       <c r="N3">
-        <v>7135.7701949862858</v>
+        <v>7136.9196675898656</v>
       </c>
       <c r="O3">
-        <v>6018.5562356030723</v>
+        <v>6016.442839228971</v>
       </c>
       <c r="P3">
-        <v>3584.7862942794545</v>
+        <v>3583.5217940493626</v>
       </c>
       <c r="Q3">
-        <v>9298.7307678277994</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>43435</v>
-      </c>
-      <c r="B4">
-        <v>133.09615635257367</v>
-      </c>
-      <c r="C4">
-        <v>650.10187945473012</v>
-      </c>
-      <c r="D4">
-        <v>4853.65180866842</v>
-      </c>
-      <c r="E4">
-        <v>69.911797802194712</v>
-      </c>
-      <c r="F4">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G4">
-        <v>7439.0554265940436</v>
-      </c>
-      <c r="H4">
-        <v>6737.1025841817773</v>
-      </c>
-      <c r="I4">
-        <v>6028.9302850045178</v>
-      </c>
-      <c r="J4">
-        <v>6484.0397649177567</v>
-      </c>
-      <c r="K4">
-        <v>446.50000000010687</v>
-      </c>
-      <c r="L4">
-        <v>1079.8862895960217</v>
-      </c>
-      <c r="M4">
-        <v>639.00563909789298</v>
-      </c>
-      <c r="N4">
-        <v>7135.7701949862858</v>
-      </c>
-      <c r="O4">
-        <v>6017.6325084083755</v>
-      </c>
-      <c r="P4">
-        <v>3580.6985660042906</v>
-      </c>
-      <c r="Q4">
-        <v>9297.3940327102227</v>
+        <v>9301.1837819088632</v>
       </c>
     </row>
   </sheetData>
@@ -4425,7 +3471,7 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4483,161 +3529,108 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="B2">
-        <v>135.90163174761938</v>
+        <v>132.31063030257553</v>
       </c>
       <c r="C2">
-        <v>644.28893656544449</v>
+        <v>637.72572073523293</v>
       </c>
       <c r="D2">
-        <v>4909.0159483349416</v>
+        <v>4902.1061499162106</v>
       </c>
       <c r="E2">
-        <v>68.962610989007885</v>
+        <v>67.810996800661101</v>
       </c>
       <c r="F2">
         <v>639.99999999966485</v>
       </c>
       <c r="G2">
-        <v>7439.7791243795764</v>
+        <v>7438.3334350123605</v>
       </c>
       <c r="H2">
-        <v>6737.1025841817773</v>
+        <v>6751.764988009656</v>
       </c>
       <c r="I2">
-        <v>6030.7504480673388</v>
+        <v>6028.4152060888018</v>
       </c>
       <c r="J2">
-        <v>6492.2803650686601</v>
+        <v>6488.6241353640626</v>
       </c>
       <c r="K2">
-        <v>447.50000000148083</v>
+        <v>447.50000000015262</v>
       </c>
       <c r="L2">
-        <v>1078.8039241553604</v>
+        <v>1077.5761077916911</v>
       </c>
       <c r="M2">
-        <v>635.99722949064562</v>
+        <v>638.70388532631705</v>
       </c>
       <c r="N2">
-        <v>7135.7701949862858</v>
+        <v>7136.9196675898656</v>
       </c>
       <c r="O2">
-        <v>6019.2600545065943</v>
+        <v>6017.3259547711186</v>
       </c>
       <c r="P2">
-        <v>3588.5700928638944</v>
+        <v>3587.6059426496722</v>
       </c>
       <c r="Q2">
-        <v>9300.2312006663942</v>
+        <v>9301.9746421273885</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B3">
-        <v>135.45991382297089</v>
+        <v>129.8415146018329</v>
       </c>
       <c r="C3">
-        <v>638.01763032843462</v>
+        <v>653.46357705599792</v>
       </c>
       <c r="D3">
-        <v>4886.21299163392</v>
+        <v>4872.2232141093809</v>
       </c>
       <c r="E3">
-        <v>69.40049450549148</v>
+        <v>66.021396694016474</v>
       </c>
       <c r="F3">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G3">
-        <v>7441.734257652176</v>
+        <v>7438.3272927802864</v>
       </c>
       <c r="H3">
-        <v>6737.1025841817773</v>
+        <v>6751.764988009656</v>
       </c>
       <c r="I3">
-        <v>6030.4659629469206</v>
+        <v>6026.7817464637055</v>
       </c>
       <c r="J3">
-        <v>6489.9426419658703</v>
+        <v>6483.4377402342634</v>
       </c>
       <c r="K3">
-        <v>447.49999999998766</v>
+        <v>446.50000000010533</v>
       </c>
       <c r="L3">
-        <v>1077.6308209789229</v>
+        <v>1080.5100820099567</v>
       </c>
       <c r="M3">
-        <v>638.00068114730971</v>
+        <v>638.70388532632194</v>
       </c>
       <c r="N3">
-        <v>7135.7701949862858</v>
+        <v>7136.9196675898656</v>
       </c>
       <c r="O3">
-        <v>6018.5384157590588</v>
+        <v>6016.1292706195945</v>
       </c>
       <c r="P3">
-        <v>3585.3693316994172</v>
+        <v>3583.3773374880357</v>
       </c>
       <c r="Q3">
-        <v>9300.7734452896202</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>43435</v>
-      </c>
-      <c r="B4">
-        <v>132.79780051010874</v>
-      </c>
-      <c r="C4">
-        <v>646.88697307442862</v>
-      </c>
-      <c r="D4">
-        <v>4858.6127318755071</v>
-      </c>
-      <c r="E4">
-        <v>67.826610989007875</v>
-      </c>
-      <c r="F4">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G4">
-        <v>7442.5460390330354</v>
-      </c>
-      <c r="H4">
-        <v>6737.1025841817773</v>
-      </c>
-      <c r="I4">
-        <v>6028.7348728777915</v>
-      </c>
-      <c r="J4">
-        <v>6484.986960454502</v>
-      </c>
-      <c r="K4">
-        <v>446.50000000010687</v>
-      </c>
-      <c r="L4">
-        <v>1079.2882472721212</v>
-      </c>
-      <c r="M4">
-        <v>639.00563909789298</v>
-      </c>
-      <c r="N4">
-        <v>7135.7701949862858</v>
-      </c>
-      <c r="O4">
-        <v>6017.5143003956737</v>
-      </c>
-      <c r="P4">
-        <v>3581.418184682746</v>
-      </c>
-      <c r="Q4">
-        <v>9300.0944438348561</v>
+        <v>9300.8778687325685</v>
       </c>
     </row>
   </sheetData>
@@ -4647,7 +3640,7 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4705,161 +3698,108 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="B2">
-        <v>135.83456599207756</v>
+        <v>132.23351755447942</v>
       </c>
       <c r="C2">
-        <v>648.01860481337542</v>
+        <v>636.49928526682879</v>
       </c>
       <c r="D2">
-        <v>4906.8766799972336</v>
+        <v>4902.8880007688658</v>
       </c>
       <c r="E2">
-        <v>67.217440659337555</v>
+        <v>68.031996800661105</v>
       </c>
       <c r="F2">
         <v>639.99999999966485</v>
       </c>
       <c r="G2">
-        <v>7439.0585380174034</v>
+        <v>7438.2495731320905</v>
       </c>
       <c r="H2">
-        <v>6737.1025841817773</v>
+        <v>6751.764988009656</v>
       </c>
       <c r="I2">
-        <v>6030.707276974048</v>
+        <v>6028.3644820324262</v>
       </c>
       <c r="J2">
-        <v>6492.4940253083059</v>
+        <v>6488.5290334909396</v>
       </c>
       <c r="K2">
-        <v>447.50000000148083</v>
+        <v>447.50000000015262</v>
       </c>
       <c r="L2">
-        <v>1079.4990194420484</v>
+        <v>1077.3459312485861</v>
       </c>
       <c r="M2">
-        <v>635.99722949064562</v>
+        <v>638.70388532631705</v>
       </c>
       <c r="N2">
-        <v>7135.7701949862858</v>
+        <v>7136.9196675898656</v>
       </c>
       <c r="O2">
-        <v>6018.8784392114185</v>
+        <v>6017.6573016931279</v>
       </c>
       <c r="P2">
-        <v>3588.2720907383864</v>
+        <v>3587.7152203144301</v>
       </c>
       <c r="Q2">
-        <v>9299.7284097201955</v>
+        <v>9301.9176580116873</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B3">
-        <v>135.33153183958191</v>
+        <v>129.51202737478786</v>
       </c>
       <c r="C3">
-        <v>639.26141882384695</v>
+        <v>654.02550121025308</v>
       </c>
       <c r="D3">
-        <v>4878.2773114263236</v>
+        <v>4873.9098307843742</v>
       </c>
       <c r="E3">
-        <v>67.804329670326666</v>
+        <v>66.250396694016459</v>
       </c>
       <c r="F3">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G3">
-        <v>7438.913434995181</v>
+        <v>7438.1791290728124</v>
       </c>
       <c r="H3">
-        <v>6737.1025841817773</v>
+        <v>6751.764988009656</v>
       </c>
       <c r="I3">
-        <v>6030.3829558453381</v>
+        <v>6026.5621703115967</v>
       </c>
       <c r="J3">
-        <v>6489.40505344752</v>
+        <v>6483.2342251779564</v>
       </c>
       <c r="K3">
-        <v>447.49999999998766</v>
+        <v>446.50000000010533</v>
       </c>
       <c r="L3">
-        <v>1077.8639504837372</v>
+        <v>1080.6141131496831</v>
       </c>
       <c r="M3">
-        <v>638.00068114730971</v>
+        <v>638.70388532632194</v>
       </c>
       <c r="N3">
-        <v>7135.7701949862858</v>
+        <v>7136.9196675898656</v>
       </c>
       <c r="O3">
-        <v>6017.3994980368498</v>
+        <v>6016.7181957653111</v>
       </c>
       <c r="P3">
-        <v>3584.2420999277588</v>
+        <v>3583.6186523904794</v>
       </c>
       <c r="Q3">
-        <v>9298.9315000765801</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>43435</v>
-      </c>
-      <c r="B4">
-        <v>132.61939421165062</v>
-      </c>
-      <c r="C4">
-        <v>649.91487462302598</v>
-      </c>
-      <c r="D4">
-        <v>4847.6736910443969</v>
-      </c>
-      <c r="E4">
-        <v>66.524440659337543</v>
-      </c>
-      <c r="F4">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G4">
-        <v>7438.6772468300305</v>
-      </c>
-      <c r="H4">
-        <v>6737.1025841817773</v>
-      </c>
-      <c r="I4">
-        <v>6028.6180229870588</v>
-      </c>
-      <c r="J4">
-        <v>6484.1981325747101</v>
-      </c>
-      <c r="K4">
-        <v>446.50000000010687</v>
-      </c>
-      <c r="L4">
-        <v>1079.8515271871058</v>
-      </c>
-      <c r="M4">
-        <v>639.00563909789298</v>
-      </c>
-      <c r="N4">
-        <v>7135.7701949862858</v>
-      </c>
-      <c r="O4">
-        <v>6016.0248939731946</v>
-      </c>
-      <c r="P4">
-        <v>3579.827585924103</v>
-      </c>
-      <c r="Q4">
-        <v>9297.6698719952219</v>
+        <v>9300.7581122100582</v>
       </c>
     </row>
   </sheetData>
@@ -4869,7 +3809,7 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4927,161 +3867,108 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="B2">
-        <v>135.92449876377958</v>
+        <v>132.30718857265455</v>
       </c>
       <c r="C2">
-        <v>650.82254991264483</v>
+        <v>639.25643873408569</v>
       </c>
       <c r="D2">
-        <v>4907.141432760538</v>
+        <v>4904.1194063557086</v>
       </c>
       <c r="E2">
-        <v>69.557610989007884</v>
+        <v>67.964996800661083</v>
       </c>
       <c r="F2">
         <v>639.99999999966485</v>
       </c>
       <c r="G2">
-        <v>7439.2865140807162</v>
+        <v>7438.3039205156629</v>
       </c>
       <c r="H2">
-        <v>6737.1025841817773</v>
+        <v>6751.764988009656</v>
       </c>
       <c r="I2">
-        <v>6030.7651668192666</v>
+        <v>6028.4129421505186</v>
       </c>
       <c r="J2">
-        <v>6492.0194162483103</v>
+        <v>6488.5265988829879</v>
       </c>
       <c r="K2">
-        <v>447.50000000148083</v>
+        <v>447.50000000015262</v>
       </c>
       <c r="L2">
-        <v>1080.020214933739</v>
+        <v>1077.8630179638706</v>
       </c>
       <c r="M2">
-        <v>635.99722949064562</v>
+        <v>638.70388532631705</v>
       </c>
       <c r="N2">
-        <v>7135.7701949862858</v>
+        <v>7136.9196675898656</v>
       </c>
       <c r="O2">
-        <v>6018.9476030860533</v>
+        <v>6017.662980832305</v>
       </c>
       <c r="P2">
-        <v>3588.3089948091988</v>
+        <v>3587.8873313077534</v>
       </c>
       <c r="Q2">
-        <v>9299.7520643624157</v>
+        <v>9301.9176580116873</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B3">
-        <v>135.50979095424606</v>
+        <v>129.8502559221844</v>
       </c>
       <c r="C3">
-        <v>645.00682436540046</v>
+        <v>655.06338964772476</v>
       </c>
       <c r="D3">
-        <v>4879.0488512010397</v>
+        <v>4875.12445039454</v>
       </c>
       <c r="E3">
-        <v>70.103494505491483</v>
+        <v>66.582396694016467</v>
       </c>
       <c r="F3">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G3">
-        <v>7439.1271302242949</v>
+        <v>7438.3757481130033</v>
       </c>
       <c r="H3">
-        <v>6737.1025841817773</v>
+        <v>6751.764988009656</v>
       </c>
       <c r="I3">
-        <v>6030.498210959081</v>
+        <v>6026.7875718351697</v>
       </c>
       <c r="J3">
-        <v>6488.4959918365885</v>
+        <v>6483.3092244936543</v>
       </c>
       <c r="K3">
-        <v>447.49999999998766</v>
+        <v>446.50000000010533</v>
       </c>
       <c r="L3">
-        <v>1078.9379266918386</v>
+        <v>1080.8062622846089</v>
       </c>
       <c r="M3">
-        <v>638.00068114730971</v>
+        <v>638.70388532632194</v>
       </c>
       <c r="N3">
-        <v>7135.7701949862858</v>
+        <v>7136.9196675898656</v>
       </c>
       <c r="O3">
-        <v>6017.7546569541437</v>
+        <v>6016.7363418394989</v>
       </c>
       <c r="P3">
-        <v>3584.3520284254309</v>
+        <v>3583.792189364538</v>
       </c>
       <c r="Q3">
-        <v>9298.8533990320702</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>43435</v>
-      </c>
-      <c r="B4">
-        <v>132.90010992931383</v>
-      </c>
-      <c r="C4">
-        <v>653.93606808098878</v>
-      </c>
-      <c r="D4">
-        <v>4848.801420302304</v>
-      </c>
-      <c r="E4">
-        <v>69.190610989007865</v>
-      </c>
-      <c r="F4">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G4">
-        <v>7438.8735929861368</v>
-      </c>
-      <c r="H4">
-        <v>6737.1025841817773</v>
-      </c>
-      <c r="I4">
-        <v>6028.8018812270975</v>
-      </c>
-      <c r="J4">
-        <v>6482.6994957956877</v>
-      </c>
-      <c r="K4">
-        <v>446.50000000010687</v>
-      </c>
-      <c r="L4">
-        <v>1080.5975560787438</v>
-      </c>
-      <c r="M4">
-        <v>639.00563909789298</v>
-      </c>
-      <c r="N4">
-        <v>7135.7701949862858</v>
-      </c>
-      <c r="O4">
-        <v>6016.6113976933893</v>
-      </c>
-      <c r="P4">
-        <v>3579.9923699625915</v>
-      </c>
-      <c r="Q4">
-        <v>9297.5352095079688</v>
+        <v>9300.7602919673791</v>
       </c>
     </row>
   </sheetData>
@@ -5091,7 +3978,7 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5149,161 +4036,108 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="B2">
-        <v>135.83758549294825</v>
+        <v>132.32622686380171</v>
       </c>
       <c r="C2">
-        <v>649.88724009751638</v>
+        <v>644.56465919393156</v>
       </c>
       <c r="D2">
-        <v>4908.9077679137845</v>
+        <v>4902.8289974888667</v>
       </c>
       <c r="E2">
-        <v>67.296012087908963</v>
+        <v>67.991996800661099</v>
       </c>
       <c r="F2">
         <v>639.99999999966485</v>
       </c>
       <c r="G2">
-        <v>7438.9787372688543</v>
+        <v>7438.397349163828</v>
       </c>
       <c r="H2">
-        <v>6737.1025841817773</v>
+        <v>6751.764988009656</v>
       </c>
       <c r="I2">
-        <v>6030.7092206307898</v>
+        <v>6028.4254653633125</v>
       </c>
       <c r="J2">
-        <v>6492.5203951222775</v>
+        <v>6488.5357286628077</v>
       </c>
       <c r="K2">
-        <v>447.50000000148083</v>
+        <v>447.50000000015274</v>
       </c>
       <c r="L2">
-        <v>1079.8463900872157</v>
+        <v>1078.8553911083311</v>
       </c>
       <c r="M2">
-        <v>635.99722949064562</v>
+        <v>638.70388532631705</v>
       </c>
       <c r="N2">
-        <v>7135.7701949862858</v>
+        <v>7136.9196675898656</v>
       </c>
       <c r="O2">
-        <v>6019.0627444233141</v>
+        <v>6017.4683528005053</v>
       </c>
       <c r="P2">
-        <v>3588.5550544332591</v>
+        <v>3587.7069735489131</v>
       </c>
       <c r="Q2">
-        <v>9299.6744002588148</v>
+        <v>9301.9176580116873</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B3">
-        <v>135.29916715949562</v>
+        <v>129.88736138558798</v>
       </c>
       <c r="C3">
-        <v>648.75093815098603</v>
+        <v>660.02341886750173</v>
       </c>
       <c r="D3">
-        <v>4890.2826719676159</v>
+        <v>4874.7970598815737</v>
       </c>
       <c r="E3">
-        <v>66.884043956040927</v>
+        <v>66.580396694016471</v>
       </c>
       <c r="F3">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G3">
-        <v>7439.4462829213353</v>
+        <v>7438.5314647370487</v>
       </c>
       <c r="H3">
-        <v>6737.1025841817773</v>
+        <v>6751.764988009656</v>
       </c>
       <c r="I3">
-        <v>6030.3620300530538</v>
+        <v>6026.8122995763433</v>
       </c>
       <c r="J3">
-        <v>6489.7482035842904</v>
+        <v>6483.2442175796405</v>
       </c>
       <c r="K3">
-        <v>447.49999999998766</v>
+        <v>446.50000000010533</v>
       </c>
       <c r="L3">
-        <v>1079.6351582723521</v>
+        <v>1081.7223631403322</v>
       </c>
       <c r="M3">
-        <v>638.00068114730971</v>
+        <v>638.70388532632194</v>
       </c>
       <c r="N3">
-        <v>7135.7701949862858</v>
+        <v>7136.9196675898656</v>
       </c>
       <c r="O3">
-        <v>6019.2046473967212</v>
+        <v>6016.648873530954</v>
       </c>
       <c r="P3">
-        <v>3585.9447528174396</v>
+        <v>3583.7454138854478</v>
       </c>
       <c r="Q3">
-        <v>9298.9570045398705</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>43435</v>
-      </c>
-      <c r="B4">
-        <v>132.57025952097823</v>
-      </c>
-      <c r="C4">
-        <v>657.33456548021536</v>
-      </c>
-      <c r="D4">
-        <v>4862.130869434096</v>
-      </c>
-      <c r="E4">
-        <v>66.088012087908965</v>
-      </c>
-      <c r="F4">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G4">
-        <v>7439.4876205678593</v>
-      </c>
-      <c r="H4">
-        <v>6737.1025841817773</v>
-      </c>
-      <c r="I4">
-        <v>6028.5858415119965</v>
-      </c>
-      <c r="J4">
-        <v>6484.8111425556262</v>
-      </c>
-      <c r="K4">
-        <v>446.50000000010687</v>
-      </c>
-      <c r="L4">
-        <v>1081.2261886577933</v>
-      </c>
-      <c r="M4">
-        <v>639.00563909789298</v>
-      </c>
-      <c r="N4">
-        <v>7135.7701949862858</v>
-      </c>
-      <c r="O4">
-        <v>6018.3475119589793</v>
-      </c>
-      <c r="P4">
-        <v>3581.9267112119701</v>
-      </c>
-      <c r="Q4">
-        <v>9297.7343838749184</v>
+        <v>9300.7581122100582</v>
       </c>
     </row>
   </sheetData>
@@ -5313,7 +4147,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5371,161 +4205,108 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="B2">
-        <v>135.92655455821856</v>
+        <v>132.6661796218967</v>
       </c>
       <c r="C2">
-        <v>644.17772355056309</v>
+        <v>643.20855464772603</v>
       </c>
       <c r="D2">
-        <v>4908.5764191272347</v>
+        <v>4901.5254230035425</v>
       </c>
       <c r="E2">
-        <v>69.611105494502382</v>
+        <v>68.006996800661099</v>
       </c>
       <c r="F2">
         <v>639.99999999966485</v>
       </c>
       <c r="G2">
-        <v>7439.4933626183038</v>
+        <v>7438.2263686312399</v>
       </c>
       <c r="H2">
-        <v>6737.1025841817773</v>
+        <v>6751.764988009656</v>
       </c>
       <c r="I2">
-        <v>6030.7664901368917</v>
+        <v>6028.648442614578</v>
       </c>
       <c r="J2">
-        <v>6492.1573657964354</v>
+        <v>6488.5326854028681</v>
       </c>
       <c r="K2">
-        <v>447.50000000148083</v>
+        <v>447.50000000015262</v>
       </c>
       <c r="L2">
-        <v>1078.783165029372</v>
+        <v>1078.6022593578948</v>
       </c>
       <c r="M2">
-        <v>635.99722949064562</v>
+        <v>638.70388532631705</v>
       </c>
       <c r="N2">
-        <v>7135.7701949862858</v>
+        <v>7136.9196675898656</v>
       </c>
       <c r="O2">
-        <v>6019.0194140052445</v>
+        <v>6017.4794245487492</v>
       </c>
       <c r="P2">
-        <v>3588.5089928105585</v>
+        <v>3587.5247756589824</v>
       </c>
       <c r="Q2">
-        <v>9299.8458589754664</v>
+        <v>9301.9176580116873</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B3">
-        <v>135.49797569355889</v>
+        <v>130.53911432509295</v>
       </c>
       <c r="C3">
-        <v>642.19399983099174</v>
+        <v>657.87954033227948</v>
       </c>
       <c r="D3">
-        <v>4885.7769462005062</v>
+        <v>4871.724292961987</v>
       </c>
       <c r="E3">
-        <v>69.742747252744238</v>
+        <v>65.796396694016465</v>
       </c>
       <c r="F3">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G3">
-        <v>7439.9560321170811</v>
+        <v>7438.1929779158254</v>
       </c>
       <c r="H3">
-        <v>6737.1025841817773</v>
+        <v>6751.764988009656</v>
       </c>
       <c r="I3">
-        <v>6030.4905716291814</v>
+        <v>6027.24556579407</v>
       </c>
       <c r="J3">
-        <v>6488.8958893414492</v>
+        <v>6483.4839651293887</v>
       </c>
       <c r="K3">
-        <v>447.49999999998766</v>
+        <v>446.50000000010533</v>
       </c>
       <c r="L3">
-        <v>1078.4127118429278</v>
+        <v>1081.3268392309383</v>
       </c>
       <c r="M3">
-        <v>638.00068114730971</v>
+        <v>638.70388532632194</v>
       </c>
       <c r="N3">
-        <v>7135.7701949862858</v>
+        <v>7136.9196675898656</v>
       </c>
       <c r="O3">
-        <v>6018.0745592375461</v>
+        <v>6016.4356852702958</v>
       </c>
       <c r="P3">
-        <v>3585.3075464673784</v>
+        <v>3583.3058555106331</v>
       </c>
       <c r="Q3">
-        <v>9299.1456896503096</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>43435</v>
-      </c>
-      <c r="B4">
-        <v>132.84286534833313</v>
-      </c>
-      <c r="C4">
-        <v>649.99843206594812</v>
-      </c>
-      <c r="D4">
-        <v>4857.8561245092451</v>
-      </c>
-      <c r="E4">
-        <v>68.009105494502379</v>
-      </c>
-      <c r="F4">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G4">
-        <v>7439.9699885828968</v>
-      </c>
-      <c r="H4">
-        <v>6737.1025841817773</v>
-      </c>
-      <c r="I4">
-        <v>6028.764388033147</v>
-      </c>
-      <c r="J4">
-        <v>6483.4070199048974</v>
-      </c>
-      <c r="K4">
-        <v>446.50000000010687</v>
-      </c>
-      <c r="L4">
-        <v>1079.8670598704825</v>
-      </c>
-      <c r="M4">
-        <v>639.00563909789298</v>
-      </c>
-      <c r="N4">
-        <v>7135.7701949862858</v>
-      </c>
-      <c r="O4">
-        <v>6017.0859731444143</v>
-      </c>
-      <c r="P4">
-        <v>3581.3085619267372</v>
-      </c>
-      <c r="Q4">
-        <v>9297.9098543943674</v>
+        <v>9300.7893553983158</v>
       </c>
     </row>
   </sheetData>
@@ -5535,7 +4316,7 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5593,161 +4374,108 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="B2">
-        <v>135.86223201043987</v>
+        <v>132.23259482585357</v>
       </c>
       <c r="C2">
-        <v>649.32541767415955</v>
+        <v>639.54594271436224</v>
       </c>
       <c r="D2">
-        <v>4908.7129395629627</v>
+        <v>4903.1472194278631</v>
       </c>
       <c r="E2">
-        <v>67.937347252744132</v>
+        <v>68.00799680066109</v>
       </c>
       <c r="F2">
         <v>639.99999999966485</v>
       </c>
       <c r="G2">
-        <v>7439.3911456366941</v>
+        <v>7438.2632108650478</v>
       </c>
       <c r="H2">
-        <v>6737.1025841817773</v>
+        <v>6751.764988009656</v>
       </c>
       <c r="I2">
-        <v>6030.7250856270057</v>
+        <v>6028.3638750700229</v>
       </c>
       <c r="J2">
-        <v>6492.6009099232597</v>
+        <v>6488.5310116099008</v>
       </c>
       <c r="K2">
-        <v>447.50000000148083</v>
+        <v>447.50000000015262</v>
       </c>
       <c r="L2">
-        <v>1079.7419504706245</v>
+        <v>1077.9172808952742</v>
       </c>
       <c r="M2">
-        <v>635.99722949064562</v>
+        <v>638.70388532631705</v>
       </c>
       <c r="N2">
-        <v>7135.7701949862858</v>
+        <v>7136.9196675898656</v>
       </c>
       <c r="O2">
-        <v>6019.7644603750796</v>
+        <v>6017.8224335861005</v>
       </c>
       <c r="P2">
-        <v>3588.527970857428</v>
+        <v>3587.751450766335</v>
       </c>
       <c r="Q2">
-        <v>9299.935073405084</v>
+        <v>9301.9176580116873</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B3">
-        <v>135.40717037540864</v>
+        <v>129.50199137729911</v>
       </c>
       <c r="C3">
-        <v>640.33572653088652</v>
+        <v>650.31076945676784</v>
       </c>
       <c r="D3">
-        <v>4887.7760168055274</v>
+        <v>4875.7888387821777</v>
       </c>
       <c r="E3">
-        <v>69.052626373623355</v>
+        <v>66.01339669401645</v>
       </c>
       <c r="F3">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G3">
-        <v>7440.6212980234568</v>
+        <v>7438.2656364120885</v>
       </c>
       <c r="H3">
-        <v>6737.1025841817773</v>
+        <v>6751.764988009656</v>
       </c>
       <c r="I3">
-        <v>6030.4318601138648</v>
+        <v>6026.5554821442538</v>
       </c>
       <c r="J3">
-        <v>6489.7690271607944</v>
+        <v>6483.2766366110845</v>
       </c>
       <c r="K3">
-        <v>447.49999999998766</v>
+        <v>446.50000000010533</v>
       </c>
       <c r="L3">
-        <v>1078.0651698034919</v>
+        <v>1079.9251226373403</v>
       </c>
       <c r="M3">
-        <v>638.00068114730971</v>
+        <v>638.70388532632194</v>
       </c>
       <c r="N3">
-        <v>7135.7701949862858</v>
+        <v>7136.9196675898656</v>
       </c>
       <c r="O3">
-        <v>6020.1488501349086</v>
+        <v>6017.1478116950093</v>
       </c>
       <c r="P3">
-        <v>3585.5905532830984</v>
+        <v>3583.8871127912735</v>
       </c>
       <c r="Q3">
-        <v>9299.3977533522739</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>43435</v>
-      </c>
-      <c r="B4">
-        <v>132.74525958946703</v>
-      </c>
-      <c r="C4">
-        <v>644.23135980562563</v>
-      </c>
-      <c r="D4">
-        <v>4861.5200463667743</v>
-      </c>
-      <c r="E4">
-        <v>67.831347252744138</v>
-      </c>
-      <c r="F4">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G4">
-        <v>7441.2378937732637</v>
-      </c>
-      <c r="H4">
-        <v>6737.1025841817773</v>
-      </c>
-      <c r="I4">
-        <v>6028.7004595434928</v>
-      </c>
-      <c r="J4">
-        <v>6484.6140296013491</v>
-      </c>
-      <c r="K4">
-        <v>446.50000000010687</v>
-      </c>
-      <c r="L4">
-        <v>1078.7931765132416</v>
-      </c>
-      <c r="M4">
-        <v>639.00563909789298</v>
-      </c>
-      <c r="N4">
-        <v>7135.7701949862858</v>
-      </c>
-      <c r="O4">
-        <v>6019.6807921117661</v>
-      </c>
-      <c r="P4">
-        <v>3581.8384589859106</v>
-      </c>
-      <c r="Q4">
-        <v>9298.2004958991838</v>
+        <v>9300.7581122100582</v>
       </c>
     </row>
   </sheetData>
@@ -5757,7 +4485,7 @@
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5815,161 +4543,108 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="B2">
-        <v>136.76647729512732</v>
+        <v>132.59958381029114</v>
       </c>
       <c r="C2">
-        <v>649.31417854288566</v>
+        <v>642.21551665282323</v>
       </c>
       <c r="D2">
-        <v>4914.532046849341</v>
+        <v>4901.5033077868948</v>
       </c>
       <c r="E2">
-        <v>91.466902197799087</v>
+        <v>67.987996800661094</v>
       </c>
       <c r="F2">
         <v>639.99999999966485</v>
       </c>
       <c r="G2">
-        <v>7440.4453181632962</v>
+        <v>7438.2312537893131</v>
       </c>
       <c r="H2">
-        <v>6737.1025841817773</v>
+        <v>6751.764988009656</v>
       </c>
       <c r="I2">
-        <v>6031.3057935898532</v>
+        <v>6028.6048247182225</v>
       </c>
       <c r="J2">
-        <v>6489.6232594913099</v>
+        <v>6488.5285770019491</v>
       </c>
       <c r="K2">
-        <v>447.50000000148083</v>
+        <v>447.50000000015262</v>
       </c>
       <c r="L2">
-        <v>1079.7398611795741</v>
+        <v>1078.4167363134441</v>
       </c>
       <c r="M2">
-        <v>635.99722949064562</v>
+        <v>638.70388532631705</v>
       </c>
       <c r="N2">
-        <v>7135.7701949862858</v>
+        <v>7136.9196675898656</v>
       </c>
       <c r="O2">
-        <v>6020.0845419226689</v>
+        <v>6017.4190232291248</v>
       </c>
       <c r="P2">
-        <v>3589.3359952429078</v>
+        <v>3587.5216846612266</v>
       </c>
       <c r="Q2">
-        <v>9300.7413374042426</v>
+        <v>9301.9176580116873</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B3">
-        <v>137.19381420997291</v>
+        <v>130.41783946472657</v>
       </c>
       <c r="C3">
-        <v>643.67740182639227</v>
+        <v>656.08032939895929</v>
       </c>
       <c r="D3">
-        <v>4893.049644572221</v>
+        <v>4872.0977071107927</v>
       </c>
       <c r="E3">
-        <v>92.022098901095887</v>
+        <v>66.100396694016467</v>
       </c>
       <c r="F3">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G3">
-        <v>7441.2042749029388</v>
+        <v>7438.1530793908059</v>
       </c>
       <c r="H3">
-        <v>6737.1025841817773</v>
+        <v>6751.764988009656</v>
       </c>
       <c r="I3">
-        <v>6031.5793083666213</v>
+        <v>6027.1650978506195</v>
       </c>
       <c r="J3">
-        <v>6484.1166327828214</v>
+        <v>6483.2337174008517</v>
       </c>
       <c r="K3">
-        <v>447.49999999998766</v>
+        <v>446.50000000010533</v>
       </c>
       <c r="L3">
-        <v>1078.6897750762278</v>
+        <v>1080.9945313979792</v>
       </c>
       <c r="M3">
-        <v>638.00068114730971</v>
+        <v>638.70388532632194</v>
       </c>
       <c r="N3">
-        <v>7135.7701949862858</v>
+        <v>7136.9196675898656</v>
       </c>
       <c r="O3">
-        <v>6019.4240494952637</v>
+        <v>6017.1262799908091</v>
       </c>
       <c r="P3">
-        <v>3586.3348202115044</v>
+        <v>3583.3593556900537</v>
       </c>
       <c r="Q3">
-        <v>9300.6163629928087</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>43435</v>
-      </c>
-      <c r="B4">
-        <v>135.41195087270049</v>
-      </c>
-      <c r="C4">
-        <v>650.67155913314468</v>
-      </c>
-      <c r="D4">
-        <v>4866.3417011546453</v>
-      </c>
-      <c r="E4">
-        <v>90.734902197799087</v>
-      </c>
-      <c r="F4">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G4">
-        <v>7441.3279006935099</v>
-      </c>
-      <c r="H4">
-        <v>6737.1025841817773</v>
-      </c>
-      <c r="I4">
-        <v>6030.434952719711</v>
-      </c>
-      <c r="J4">
-        <v>6473.6712625988839</v>
-      </c>
-      <c r="K4">
-        <v>446.50000000010687</v>
-      </c>
-      <c r="L4">
-        <v>1079.9921905662313</v>
-      </c>
-      <c r="M4">
-        <v>639.00563909789298</v>
-      </c>
-      <c r="N4">
-        <v>7135.7701949862858</v>
-      </c>
-      <c r="O4">
-        <v>6018.6927103526905</v>
-      </c>
-      <c r="P4">
-        <v>3582.5334984384481</v>
-      </c>
-      <c r="Q4">
-        <v>9299.6000611006239</v>
+        <v>9300.7581122100582</v>
       </c>
     </row>
   </sheetData>
@@ -5979,7 +4654,7 @@
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6037,161 +4712,108 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="B2">
-        <v>135.79282213157887</v>
+        <v>132.21879234349154</v>
       </c>
       <c r="C2">
-        <v>649.34312480871858</v>
+        <v>641.99112529331831</v>
       </c>
       <c r="D2">
-        <v>4908.3229134379862</v>
+        <v>4904.1049890834483</v>
       </c>
       <c r="E2">
-        <v>66.131209890106788</v>
+        <v>67.648996800661095</v>
       </c>
       <c r="F2">
         <v>639.99999999966485</v>
       </c>
       <c r="G2">
-        <v>7439.047471218214</v>
+        <v>7438.4455900998091</v>
       </c>
       <c r="H2">
-        <v>6737.1025841817773</v>
+        <v>6751.764988009656</v>
       </c>
       <c r="I2">
-        <v>6030.6804063953095</v>
+        <v>6028.3547959240877</v>
       </c>
       <c r="J2">
-        <v>6492.7958407028182</v>
+        <v>6488.7898408677902</v>
       </c>
       <c r="K2">
-        <v>447.50000000148083</v>
+        <v>447.50000000015274</v>
       </c>
       <c r="L2">
-        <v>1079.7452421269688</v>
+        <v>1078.3747697423375</v>
       </c>
       <c r="M2">
-        <v>635.99722949064562</v>
+        <v>638.70388532631705</v>
       </c>
       <c r="N2">
-        <v>7135.7701949862858</v>
+        <v>7136.9196675898656</v>
       </c>
       <c r="O2">
-        <v>6019.4450462166569</v>
+        <v>6017.6638545460237</v>
       </c>
       <c r="P2">
-        <v>3588.4736809337683</v>
+        <v>3587.8853162356472</v>
       </c>
       <c r="Q2">
-        <v>9299.6714379541427</v>
+        <v>9301.9582591941253</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B3">
-        <v>135.2359419476216</v>
+        <v>129.62371604798051</v>
       </c>
       <c r="C3">
-        <v>642.73632622031619</v>
+        <v>662.06522479000068</v>
       </c>
       <c r="D3">
-        <v>4882.14328746104</v>
+        <v>4876.50840320926</v>
       </c>
       <c r="E3">
-        <v>66.402945054942052</v>
+        <v>65.67539669401647</v>
       </c>
       <c r="F3">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G3">
-        <v>7439.3343487812954</v>
+        <v>7438.6775850424783</v>
       </c>
       <c r="H3">
-        <v>6737.1025841817773</v>
+        <v>6751.764988009656</v>
       </c>
       <c r="I3">
-        <v>6030.3211508959357</v>
+        <v>6026.6366016312495</v>
       </c>
       <c r="J3">
-        <v>6489.9295920741497</v>
+        <v>6483.8771329643196</v>
       </c>
       <c r="K3">
-        <v>447.49999999998766</v>
+        <v>446.50000000010533</v>
       </c>
       <c r="L3">
-        <v>1078.5141127672246</v>
+        <v>1082.0985280455695</v>
       </c>
       <c r="M3">
-        <v>638.00068114730971</v>
+        <v>638.70388532632194</v>
       </c>
       <c r="N3">
-        <v>7135.7701949862858</v>
+        <v>7136.9196675898656</v>
       </c>
       <c r="O3">
-        <v>6018.7410486327981</v>
+        <v>6016.7093936200654</v>
       </c>
       <c r="P3">
-        <v>3584.7921067793222</v>
+        <v>3583.9899195016369</v>
       </c>
       <c r="Q3">
-        <v>9298.734532604547</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>43435</v>
-      </c>
-      <c r="B4">
-        <v>132.44154035018562</v>
-      </c>
-      <c r="C4">
-        <v>655.9409225843234</v>
-      </c>
-      <c r="D4">
-        <v>4853.8607397263004</v>
-      </c>
-      <c r="E4">
-        <v>64.384209890106789</v>
-      </c>
-      <c r="F4">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G4">
-        <v>7439.2680401910793</v>
-      </c>
-      <c r="H4">
-        <v>6737.1025841817773</v>
-      </c>
-      <c r="I4">
-        <v>6028.5015349287423</v>
-      </c>
-      <c r="J4">
-        <v>6485.0695818453596</v>
-      </c>
-      <c r="K4">
-        <v>446.50000000010687</v>
-      </c>
-      <c r="L4">
-        <v>1080.9687223622088</v>
-      </c>
-      <c r="M4">
-        <v>639.00563909789298</v>
-      </c>
-      <c r="N4">
-        <v>7135.7701949862858</v>
-      </c>
-      <c r="O4">
-        <v>6018.7825131966492</v>
-      </c>
-      <c r="P4">
-        <v>3580.7289211920875</v>
-      </c>
-      <c r="Q4">
-        <v>9297.4071640843831</v>
+        <v>9300.8212895943034</v>
       </c>
     </row>
   </sheetData>
@@ -6201,7 +4823,7 @@
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6259,161 +4881,108 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="B2">
-        <v>135.90221683855074</v>
+        <v>132.23244103774925</v>
       </c>
       <c r="C2">
-        <v>655.50543414123433</v>
+        <v>648.00098263158793</v>
       </c>
       <c r="D2">
-        <v>4907.0225973950073</v>
+        <v>4903.6153373944262</v>
       </c>
       <c r="E2">
-        <v>68.977803296700202</v>
+        <v>68.003996800661085</v>
       </c>
       <c r="F2">
         <v>639.99999999966485</v>
       </c>
       <c r="G2">
-        <v>7438.9971515372727</v>
+        <v>7438.309416318496</v>
       </c>
       <c r="H2">
-        <v>6737.1025841817773</v>
+        <v>6751.764988009656</v>
       </c>
       <c r="I2">
-        <v>6030.7508238534037</v>
+        <v>6028.363773909623</v>
       </c>
       <c r="J2">
-        <v>6492.716924377859</v>
+        <v>6488.5308594469034</v>
       </c>
       <c r="K2">
-        <v>447.50000000148083</v>
+        <v>447.50000000015274</v>
       </c>
       <c r="L2">
-        <v>1080.8880987450964</v>
+        <v>1079.4957372121701</v>
       </c>
       <c r="M2">
-        <v>635.99722949064562</v>
+        <v>638.70388532631705</v>
       </c>
       <c r="N2">
-        <v>7135.7701949862858</v>
+        <v>7136.9196675898656</v>
       </c>
       <c r="O2">
-        <v>6018.9240786960918</v>
+        <v>6017.7845362535199</v>
       </c>
       <c r="P2">
-        <v>3588.2924302653964</v>
+        <v>3587.8168786392289</v>
       </c>
       <c r="Q2">
-        <v>9299.7964168165799</v>
+        <v>9301.9176580116873</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B3">
-        <v>135.45835137256691</v>
+        <v>129.57560694894084</v>
       </c>
       <c r="C3">
-        <v>655.77418950327672</v>
+        <v>669.11527212532849</v>
       </c>
       <c r="D3">
-        <v>4881.3907648352033</v>
+        <v>4876.7627888428769</v>
       </c>
       <c r="E3">
-        <v>69.344648351645361</v>
+        <v>66.100396694016467</v>
       </c>
       <c r="F3">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G3">
-        <v>7438.8021509399223</v>
+        <v>7438.2782429496601</v>
       </c>
       <c r="H3">
-        <v>6737.1025841817773</v>
+        <v>6751.764988009656</v>
       </c>
       <c r="I3">
-        <v>6030.4649518802707</v>
+        <v>6026.604540871389</v>
       </c>
       <c r="J3">
-        <v>6490.53086612885</v>
+        <v>6483.2362562863727</v>
       </c>
       <c r="K3">
-        <v>447.49999999998766</v>
+        <v>446.50000000010533</v>
       </c>
       <c r="L3">
-        <v>1080.9378554405425</v>
+        <v>1083.3926564871119</v>
       </c>
       <c r="M3">
-        <v>638.00068114730971</v>
+        <v>638.70388532632194</v>
       </c>
       <c r="N3">
-        <v>7135.7701949862858</v>
+        <v>7136.9196675898656</v>
       </c>
       <c r="O3">
-        <v>6017.6829206495077</v>
+        <v>6017.1097867145691</v>
       </c>
       <c r="P3">
-        <v>3584.6851865382141</v>
+        <v>3584.0261907359368</v>
       </c>
       <c r="Q3">
-        <v>9298.9825090031609</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>43435</v>
-      </c>
-      <c r="B4">
-        <v>132.80359081830176</v>
-      </c>
-      <c r="C4">
-        <v>670.00778378071107</v>
-      </c>
-      <c r="D4">
-        <v>4852.9658868828992</v>
-      </c>
-      <c r="E4">
-        <v>68.017803296700208</v>
-      </c>
-      <c r="F4">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G4">
-        <v>7438.7271043858937</v>
-      </c>
-      <c r="H4">
-        <v>6737.1025841817773</v>
-      </c>
-      <c r="I4">
-        <v>6028.7386644691405</v>
-      </c>
-      <c r="J4">
-        <v>6485.5909780147058</v>
-      </c>
-      <c r="K4">
-        <v>446.50000000010687</v>
-      </c>
-      <c r="L4">
-        <v>1083.5560144909416</v>
-      </c>
-      <c r="M4">
-        <v>639.00563909789298</v>
-      </c>
-      <c r="N4">
-        <v>7135.7701949862858</v>
-      </c>
-      <c r="O4">
-        <v>6016.5185039124481</v>
-      </c>
-      <c r="P4">
-        <v>3580.5989051187935</v>
-      </c>
-      <c r="Q4">
-        <v>9297.6921676821603</v>
+        <v>9300.7581122100582</v>
       </c>
     </row>
   </sheetData>
@@ -6423,7 +4992,7 @@
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6481,161 +5050,108 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="B2">
-        <v>135.83579596358607</v>
+        <v>132.23128762696692</v>
       </c>
       <c r="C2">
-        <v>643.42218135731468</v>
+        <v>639.42635253704213</v>
       </c>
       <c r="D2">
-        <v>4906.9225566638761</v>
+        <v>4902.671257562436</v>
       </c>
       <c r="E2">
-        <v>67.249446153843053</v>
+        <v>67.973996800661098</v>
       </c>
       <c r="F2">
         <v>639.99999999966485</v>
       </c>
       <c r="G2">
-        <v>7439.086909266236</v>
+        <v>7438.3900214267169</v>
       </c>
       <c r="H2">
-        <v>6737.1025841817773</v>
+        <v>6751.764988009656</v>
       </c>
       <c r="I2">
-        <v>6030.7080687083499</v>
+        <v>6028.3630152066198</v>
       </c>
       <c r="J2">
-        <v>6492.4931537139191</v>
+        <v>6488.5409022047052</v>
       </c>
       <c r="K2">
-        <v>447.50000000148083</v>
+        <v>447.50000000015262</v>
       </c>
       <c r="L2">
-        <v>1078.6421348127558</v>
+        <v>1077.894865612478</v>
       </c>
       <c r="M2">
-        <v>635.99722949064562</v>
+        <v>638.70388532631705</v>
       </c>
       <c r="N2">
-        <v>7135.7701949862858</v>
+        <v>7136.9196675898656</v>
       </c>
       <c r="O2">
-        <v>6018.9542159330013</v>
+        <v>6017.4595830989274</v>
       </c>
       <c r="P2">
-        <v>3588.2784855186842</v>
+        <v>3587.6849265680335</v>
       </c>
       <c r="Q2">
-        <v>9299.729148927765</v>
+        <v>9302.0059731797301</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B3">
-        <v>135.32275502854577</v>
+        <v>129.65118828704718</v>
       </c>
       <c r="C3">
-        <v>638.74834671303313</v>
+        <v>656.24417290240774</v>
       </c>
       <c r="D3">
-        <v>4881.8695909374474</v>
+        <v>4873.8296370148264</v>
       </c>
       <c r="E3">
-        <v>67.544076923073916</v>
+        <v>65.628396694016473</v>
       </c>
       <c r="F3">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G3">
-        <v>7439.0763197635042</v>
+        <v>7438.6170833070928</v>
       </c>
       <c r="H3">
-        <v>6737.1025841817773</v>
+        <v>6751.764988009656</v>
       </c>
       <c r="I3">
-        <v>6030.3772810882174</v>
+        <v>6026.6549096202853</v>
       </c>
       <c r="J3">
-        <v>6489.3782440070172</v>
+        <v>6484.0403809371301</v>
       </c>
       <c r="K3">
-        <v>447.49999999998766</v>
+        <v>446.50000000010533</v>
       </c>
       <c r="L3">
-        <v>1077.7677838606808</v>
+        <v>1081.0248054013432</v>
       </c>
       <c r="M3">
-        <v>638.00068114730971</v>
+        <v>638.70388532632194</v>
       </c>
       <c r="N3">
-        <v>7135.7701949862858</v>
+        <v>7136.9196675898656</v>
       </c>
       <c r="O3">
-        <v>6018.1041013644244</v>
+        <v>6016.2897397688475</v>
       </c>
       <c r="P3">
-        <v>3584.7532201898343</v>
+        <v>3583.6071948182503</v>
       </c>
       <c r="Q3">
-        <v>9298.8571567353611</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>43435</v>
-      </c>
-      <c r="B4">
-        <v>132.60308397608952</v>
-      </c>
-      <c r="C4">
-        <v>648.69914145886025</v>
-      </c>
-      <c r="D4">
-        <v>4854.844884187848</v>
-      </c>
-      <c r="E4">
-        <v>66.328446153843046</v>
-      </c>
-      <c r="F4">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G4">
-        <v>7438.9415206394442</v>
-      </c>
-      <c r="H4">
-        <v>6737.1025841817773</v>
-      </c>
-      <c r="I4">
-        <v>6028.6073403632354</v>
-      </c>
-      <c r="J4">
-        <v>6484.1576000815985</v>
-      </c>
-      <c r="K4">
-        <v>446.50000000010687</v>
-      </c>
-      <c r="L4">
-        <v>1079.6255299971176</v>
-      </c>
-      <c r="M4">
-        <v>639.00563909789298</v>
-      </c>
-      <c r="N4">
-        <v>7135.7701949862858</v>
-      </c>
-      <c r="O4">
-        <v>6017.2576885301069</v>
-      </c>
-      <c r="P4">
-        <v>3580.8719136290329</v>
-      </c>
-      <c r="Q4">
-        <v>9297.54907379203</v>
+        <v>9300.9930478924489</v>
       </c>
     </row>
   </sheetData>
@@ -6645,7 +5161,7 @@
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6703,161 +5219,108 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="B2">
-        <v>136.29377507931994</v>
+        <v>132.47135316825671</v>
       </c>
       <c r="C2">
-        <v>647.03652257541262</v>
+        <v>641.21477216301821</v>
       </c>
       <c r="D2">
-        <v>4910.3735312261533</v>
+        <v>4902.2337708535078</v>
       </c>
       <c r="E2">
-        <v>79.166671428568307</v>
+        <v>67.978996800661093</v>
       </c>
       <c r="F2">
         <v>639.99999999966485</v>
       </c>
       <c r="G2">
-        <v>7439.9077804735471</v>
+        <v>7438.3330279158536</v>
       </c>
       <c r="H2">
-        <v>6737.1025841817773</v>
+        <v>6751.764988009656</v>
       </c>
       <c r="I2">
-        <v>6031.0028578201282</v>
+        <v>6028.5208381923621</v>
       </c>
       <c r="J2">
-        <v>6492.2627952250041</v>
+        <v>6488.525077253018</v>
       </c>
       <c r="K2">
-        <v>447.50000000148083</v>
+        <v>447.50000000015274</v>
       </c>
       <c r="L2">
-        <v>1079.3161022647917</v>
+        <v>1078.2295730693529</v>
       </c>
       <c r="M2">
-        <v>635.99722949064562</v>
+        <v>638.70388532631705</v>
       </c>
       <c r="N2">
-        <v>7135.7701949862858</v>
+        <v>7136.9196675898656</v>
       </c>
       <c r="O2">
-        <v>6020.0811096086381</v>
+        <v>6017.3942488221646</v>
       </c>
       <c r="P2">
-        <v>3588.7588138535511</v>
+        <v>3587.6237799621913</v>
       </c>
       <c r="Q2">
-        <v>9299.9173977532937</v>
+        <v>9302.014506209669</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B3">
-        <v>136.22230945315269</v>
+        <v>130.13387454516339</v>
       </c>
       <c r="C3">
-        <v>643.33791342220218</v>
+        <v>655.91031059039392</v>
       </c>
       <c r="D3">
-        <v>4887.5359956794628</v>
+        <v>4872.3957120573932</v>
       </c>
       <c r="E3">
-        <v>79.038714285711293</v>
+        <v>65.401396694016469</v>
       </c>
       <c r="F3">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G3">
-        <v>7440.9126270027919</v>
+        <v>7438.6869293794944</v>
       </c>
       <c r="H3">
-        <v>6737.1025841817773</v>
+        <v>6751.764988009656</v>
       </c>
       <c r="I3">
-        <v>6030.9568679632375</v>
+        <v>6026.9765803329919</v>
       </c>
       <c r="J3">
-        <v>6489.4522229810354</v>
+        <v>6483.9499592890079</v>
       </c>
       <c r="K3">
-        <v>447.49999999998766</v>
+        <v>446.50000000010533</v>
       </c>
       <c r="L3">
-        <v>1078.626406747225</v>
+        <v>1080.9630554385271</v>
       </c>
       <c r="M3">
-        <v>638.00068114730971</v>
+        <v>638.70388532632194</v>
       </c>
       <c r="N3">
-        <v>7135.7701949862858</v>
+        <v>7136.9196675898656</v>
       </c>
       <c r="O3">
-        <v>6019.2208600591721</v>
+        <v>6016.5914903728899</v>
       </c>
       <c r="P3">
-        <v>3585.5566374212099</v>
+        <v>3583.4020517996041</v>
       </c>
       <c r="Q3">
-        <v>9299.5040379494931</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>43435</v>
-      </c>
-      <c r="B4">
-        <v>133.86142443745871</v>
-      </c>
-      <c r="C4">
-        <v>651.16170627247311</v>
-      </c>
-      <c r="D4">
-        <v>4859.6276506223949</v>
-      </c>
-      <c r="E4">
-        <v>75.667671428568326</v>
-      </c>
-      <c r="F4">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G4">
-        <v>7441.2463937975745</v>
-      </c>
-      <c r="H4">
-        <v>6737.1025841817773</v>
-      </c>
-      <c r="I4">
-        <v>6029.4296634582197</v>
-      </c>
-      <c r="J4">
-        <v>6484.1302404803164</v>
-      </c>
-      <c r="K4">
-        <v>446.50000000010687</v>
-      </c>
-      <c r="L4">
-        <v>1080.0831263370865</v>
-      </c>
-      <c r="M4">
-        <v>639.00563909789298</v>
-      </c>
-      <c r="N4">
-        <v>7135.7701949862858</v>
-      </c>
-      <c r="O4">
-        <v>6018.0625573897314</v>
-      </c>
-      <c r="P4">
-        <v>3581.5650495257269</v>
-      </c>
-      <c r="Q4">
-        <v>9298.4145699281962</v>
+        <v>9300.999565381042</v>
       </c>
     </row>
   </sheetData>
@@ -6867,7 +5330,7 @@
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6925,161 +5388,108 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="B2">
-        <v>135.91032572389602</v>
+        <v>132.23274861395791</v>
       </c>
       <c r="C2">
-        <v>646.88565644207893</v>
+        <v>639.20186715667319</v>
       </c>
       <c r="D2">
-        <v>4908.4495181996745</v>
+        <v>4902.9960393763786</v>
       </c>
       <c r="E2">
-        <v>69.188792307689184</v>
+        <v>68.01199680066108</v>
       </c>
       <c r="F2">
         <v>639.99999999966485</v>
       </c>
       <c r="G2">
-        <v>7439.3189096201631</v>
+        <v>7438.2632108650478</v>
       </c>
       <c r="H2">
-        <v>6737.1025841817773</v>
+        <v>6751.764988009656</v>
       </c>
       <c r="I2">
-        <v>6030.7560431682678</v>
+        <v>6028.3639762304238</v>
       </c>
       <c r="J2">
-        <v>6492.349712243984</v>
+        <v>6488.5326854028681</v>
       </c>
       <c r="K2">
-        <v>447.50000000148083</v>
+        <v>447.50000000015262</v>
       </c>
       <c r="L2">
-        <v>1079.2880027776134</v>
+        <v>1077.8527893868441</v>
       </c>
       <c r="M2">
-        <v>635.99722949064562</v>
+        <v>638.70388532631705</v>
       </c>
       <c r="N2">
-        <v>7135.7701949862858</v>
+        <v>7136.9196675898656</v>
       </c>
       <c r="O2">
-        <v>6019.0902986791934</v>
+        <v>6017.4869884163609</v>
       </c>
       <c r="P2">
-        <v>3588.4913284650015</v>
+        <v>3587.7303206455122</v>
       </c>
       <c r="Q2">
-        <v>9299.7853287030412</v>
+        <v>9301.9176580116873</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B3">
-        <v>135.49123292418579</v>
+        <v>129.67889855548265</v>
       </c>
       <c r="C3">
-        <v>640.72690635770061</v>
+        <v>655.18941142317442</v>
       </c>
       <c r="D3">
-        <v>4883.4215578722506</v>
+        <v>4874.2604930808075</v>
       </c>
       <c r="E3">
-        <v>69.989153846150828</v>
+        <v>66.112396694016468</v>
       </c>
       <c r="F3">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G3">
-        <v>7439.7788129237806</v>
+        <v>7438.2587154954126</v>
       </c>
       <c r="H3">
-        <v>6737.1025841817773</v>
+        <v>6751.764988009656</v>
       </c>
       <c r="I3">
-        <v>6030.4862115431561</v>
+        <v>6026.6733762363501</v>
       </c>
       <c r="J3">
-        <v>6489.4461230732413</v>
+        <v>6483.2684881107825</v>
       </c>
       <c r="K3">
-        <v>447.49999999998766</v>
+        <v>446.50000000010533</v>
       </c>
       <c r="L3">
-        <v>1078.1383299265999</v>
+        <v>1080.8295931861035</v>
       </c>
       <c r="M3">
-        <v>638.00068114730971</v>
+        <v>638.70388532632194</v>
       </c>
       <c r="N3">
-        <v>7135.7701949862858</v>
+        <v>7136.9196675898656</v>
       </c>
       <c r="O3">
-        <v>6018.1459018957139</v>
+        <v>6016.5386542603646</v>
       </c>
       <c r="P3">
-        <v>3584.9737288700708</v>
+        <v>3583.6687527338913</v>
       </c>
       <c r="Q3">
-        <v>9299.069399290247</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>43435</v>
-      </c>
-      <c r="B4">
-        <v>132.843034905688</v>
-      </c>
-      <c r="C4">
-        <v>649.84373637988176</v>
-      </c>
-      <c r="D4">
-        <v>4854.9771651272195</v>
-      </c>
-      <c r="E4">
-        <v>68.188792307689184</v>
-      </c>
-      <c r="F4">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G4">
-        <v>7439.7740024449831</v>
-      </c>
-      <c r="H4">
-        <v>6737.1025841817773</v>
-      </c>
-      <c r="I4">
-        <v>6028.7644986190271</v>
-      </c>
-      <c r="J4">
-        <v>6484.2642064917272</v>
-      </c>
-      <c r="K4">
-        <v>446.50000000010687</v>
-      </c>
-      <c r="L4">
-        <v>1079.8383029897132</v>
-      </c>
-      <c r="M4">
-        <v>639.00563909789298</v>
-      </c>
-      <c r="N4">
-        <v>7135.7701949862858</v>
-      </c>
-      <c r="O4">
-        <v>6017.1469530691375</v>
-      </c>
-      <c r="P4">
-        <v>3580.8911320263314</v>
-      </c>
-      <c r="Q4">
-        <v>9297.8493778269112</v>
+        <v>9300.7581122100582</v>
       </c>
     </row>
   </sheetData>
@@ -7101,7 +5511,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7159,161 +5569,108 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="B2">
-        <v>135.91951093706962</v>
+        <v>132.35835986725445</v>
       </c>
       <c r="C2">
-        <v>646.6878943255532</v>
+        <v>639.95079745632893</v>
       </c>
       <c r="D2">
-        <v>4907.8733875773542</v>
+        <v>4902.7031418760371</v>
       </c>
       <c r="E2">
-        <v>69.427786813183701</v>
+        <v>67.984996800661094</v>
       </c>
       <c r="F2">
         <v>639.99999999966485</v>
       </c>
       <c r="G2">
-        <v>7438.9878432257647</v>
+        <v>7438.2334928200971</v>
       </c>
       <c r="H2">
-        <v>6737.1025841817773</v>
+        <v>6751.764988009656</v>
       </c>
       <c r="I2">
-        <v>6030.7619552656288</v>
+        <v>6028.4466021574081</v>
       </c>
       <c r="J2">
-        <v>6492.3074793891801</v>
+        <v>6488.529794305925</v>
       </c>
       <c r="K2">
-        <v>447.50000000148083</v>
+        <v>447.50000000015274</v>
       </c>
       <c r="L2">
-        <v>1079.2511687053477</v>
+        <v>1077.9931644982239</v>
       </c>
       <c r="M2">
-        <v>635.99722949064562</v>
+        <v>638.70388532631705</v>
       </c>
       <c r="N2">
-        <v>7135.7701949862858</v>
+        <v>7136.9196675898656</v>
       </c>
       <c r="O2">
-        <v>6018.948578751997</v>
+        <v>6017.7196630098524</v>
       </c>
       <c r="P2">
-        <v>3588.4110224974261</v>
+        <v>3587.6893829721166</v>
       </c>
       <c r="Q2">
-        <v>9299.7616740608191</v>
+        <v>9301.9176580116873</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B3">
-        <v>135.49980557960083</v>
+        <v>129.93368172921436</v>
       </c>
       <c r="C3">
-        <v>640.8127756019702</v>
+        <v>655.69398048548601</v>
       </c>
       <c r="D3">
-        <v>4880.1774927525112</v>
+        <v>4873.7787967389122</v>
       </c>
       <c r="E3">
-        <v>69.973406593403581</v>
+        <v>66.100396694016467</v>
       </c>
       <c r="F3">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G3">
-        <v>7438.7270675047566</v>
+        <v>7438.1510431507031</v>
       </c>
       <c r="H3">
-        <v>6737.1025841817773</v>
+        <v>6751.764988009656</v>
       </c>
       <c r="I3">
-        <v>6030.4917538814116</v>
+        <v>6026.8431682776791</v>
       </c>
       <c r="J3">
-        <v>6490.0023910326991</v>
+        <v>6483.2350714731301</v>
       </c>
       <c r="K3">
-        <v>447.49999999998766</v>
+        <v>446.50000000010533</v>
       </c>
       <c r="L3">
-        <v>1078.1543895596603</v>
+        <v>1080.9230057636028</v>
       </c>
       <c r="M3">
-        <v>638.00068114730971</v>
+        <v>638.70388532632194</v>
       </c>
       <c r="N3">
-        <v>7135.7701949862858</v>
+        <v>7136.9196675898656</v>
       </c>
       <c r="O3">
-        <v>6017.5986983321327</v>
+        <v>6016.753255822201</v>
       </c>
       <c r="P3">
-        <v>3584.5128009556947</v>
+        <v>3583.5999310932443</v>
       </c>
       <c r="Q3">
-        <v>9298.8781998737941</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>43435</v>
-      </c>
-      <c r="B4">
-        <v>132.84792007961659</v>
-      </c>
-      <c r="C4">
-        <v>649.68634435008312</v>
-      </c>
-      <c r="D4">
-        <v>4850.5335780773412</v>
-      </c>
-      <c r="E4">
-        <v>67.816786813183697</v>
-      </c>
-      <c r="F4">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G4">
-        <v>7438.42146349417</v>
-      </c>
-      <c r="H4">
-        <v>6737.1025841817773</v>
-      </c>
-      <c r="I4">
-        <v>6028.7676978074969</v>
-      </c>
-      <c r="J4">
-        <v>6485.1011812502229</v>
-      </c>
-      <c r="K4">
-        <v>446.50000000010687</v>
-      </c>
-      <c r="L4">
-        <v>1079.8090447000247</v>
-      </c>
-      <c r="M4">
-        <v>639.00563909789298</v>
-      </c>
-      <c r="N4">
-        <v>7135.7701949862858</v>
-      </c>
-      <c r="O4">
-        <v>6016.3320089342351</v>
-      </c>
-      <c r="P4">
-        <v>3580.2447807675117</v>
-      </c>
-      <c r="Q4">
-        <v>9297.5644785520981</v>
+        <v>9300.7573856242834</v>
       </c>
     </row>
   </sheetData>
@@ -7323,7 +5680,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7381,161 +5738,108 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="B2">
-        <v>136.28018308599906</v>
+        <v>132.23205656748848</v>
       </c>
       <c r="C2">
-        <v>647.98004990451352</v>
+        <v>639.01385367688817</v>
       </c>
       <c r="D2">
-        <v>4910.6287393469338</v>
+        <v>4902.6031784398983</v>
       </c>
       <c r="E2">
-        <v>78.812990109886968</v>
+        <v>67.993996800661108</v>
       </c>
       <c r="F2">
         <v>639.99999999966485</v>
       </c>
       <c r="G2">
-        <v>7440.1864566071699</v>
+        <v>7438.227589920758</v>
       </c>
       <c r="H2">
-        <v>6737.1025841817773</v>
+        <v>6751.764988009656</v>
       </c>
       <c r="I2">
-        <v>6030.9941212923504</v>
+        <v>6028.3635210086222</v>
       </c>
       <c r="J2">
-        <v>6493.0844547990382</v>
+        <v>6488.5300986319189</v>
       </c>
       <c r="K2">
-        <v>447.50000000148083</v>
+        <v>447.50000000015274</v>
       </c>
       <c r="L2">
-        <v>1079.4918384190896</v>
+        <v>1077.8175492407611</v>
       </c>
       <c r="M2">
-        <v>635.99722949064562</v>
+        <v>638.70388532631705</v>
       </c>
       <c r="N2">
-        <v>7135.7701949862858</v>
+        <v>7136.9196675898656</v>
       </c>
       <c r="O2">
-        <v>6019.9734291569548</v>
+        <v>6017.3252970435005</v>
       </c>
       <c r="P2">
-        <v>3588.7942909720623</v>
+        <v>3587.675411290913</v>
       </c>
       <c r="Q2">
-        <v>9300.1314317891029</v>
+        <v>9301.9176580116873</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B3">
-        <v>136.08359759918147</v>
+        <v>129.50537564460703</v>
       </c>
       <c r="C3">
-        <v>641.26237827985221</v>
+        <v>656.23856886240355</v>
       </c>
       <c r="D3">
-        <v>4886.2311015349296</v>
+        <v>4876.2397620245019</v>
       </c>
       <c r="E3">
-        <v>75.784054945051921</v>
+        <v>66.115396694016454</v>
       </c>
       <c r="F3">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G3">
-        <v>7440.4926404906291</v>
+        <v>7438.4453874507481</v>
       </c>
       <c r="H3">
-        <v>6737.1025841817773</v>
+        <v>6751.764988009656</v>
       </c>
       <c r="I3">
-        <v>6030.8675789679655</v>
+        <v>6026.5577374802206</v>
       </c>
       <c r="J3">
-        <v>6490.084457162543</v>
+        <v>6483.2354099912</v>
       </c>
       <c r="K3">
-        <v>447.49999999998766</v>
+        <v>446.50000000010533</v>
       </c>
       <c r="L3">
-        <v>1078.2384761740227</v>
+        <v>1081.0237705040176</v>
       </c>
       <c r="M3">
-        <v>638.00068114730971</v>
+        <v>638.70388532632194</v>
       </c>
       <c r="N3">
-        <v>7135.7701949862858</v>
+        <v>7136.9196675898656</v>
       </c>
       <c r="O3">
-        <v>6019.2544533082746</v>
+        <v>6016.9219338773955</v>
       </c>
       <c r="P3">
-        <v>3585.3718977727658</v>
+        <v>3583.9515364997187</v>
       </c>
       <c r="Q3">
-        <v>9299.4163391943712</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>43435</v>
-      </c>
-      <c r="B4">
-        <v>133.62348933293424</v>
-      </c>
-      <c r="C4">
-        <v>651.61513801080594</v>
-      </c>
-      <c r="D4">
-        <v>4857.8384401676585</v>
-      </c>
-      <c r="E4">
-        <v>73.085990109886993</v>
-      </c>
-      <c r="F4">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G4">
-        <v>7440.4416982932071</v>
-      </c>
-      <c r="H4">
-        <v>6737.1025841817773</v>
-      </c>
-      <c r="I4">
-        <v>6029.2744908440245</v>
-      </c>
-      <c r="J4">
-        <v>6484.2226253415847</v>
-      </c>
-      <c r="K4">
-        <v>446.50000000010687</v>
-      </c>
-      <c r="L4">
-        <v>1080.1672328254963</v>
-      </c>
-      <c r="M4">
-        <v>639.00563909789298</v>
-      </c>
-      <c r="N4">
-        <v>7135.7701949862858</v>
-      </c>
-      <c r="O4">
-        <v>6018.3074171163016</v>
-      </c>
-      <c r="P4">
-        <v>3581.3059997139771</v>
-      </c>
-      <c r="Q4">
-        <v>9298.1791765051075</v>
+        <v>9300.7581122100582</v>
       </c>
     </row>
   </sheetData>
@@ -7545,7 +5849,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7603,161 +5907,108 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="B2">
-        <v>135.89942877570661</v>
+        <v>132.74251745694392</v>
       </c>
       <c r="C2">
-        <v>648.18672898835734</v>
+        <v>636.59513737924476</v>
       </c>
       <c r="D2">
-        <v>4912.4097954349363</v>
+        <v>4901.505552063586</v>
       </c>
       <c r="E2">
-        <v>68.905259340656244</v>
+        <v>67.980996800661103</v>
       </c>
       <c r="F2">
         <v>639.99999999966485</v>
       </c>
       <c r="G2">
-        <v>7440.1070670907256</v>
+        <v>7438.2334928200971</v>
       </c>
       <c r="H2">
-        <v>6737.1025841817773</v>
+        <v>6751.764988009656</v>
       </c>
       <c r="I2">
-        <v>6030.7490293061601</v>
+        <v>6028.698441191018</v>
       </c>
       <c r="J2">
-        <v>6492.7463117447487</v>
+        <v>6488.5270553719783</v>
       </c>
       <c r="K2">
-        <v>447.50000000148083</v>
+        <v>447.50000000015274</v>
       </c>
       <c r="L2">
-        <v>1079.5302746726893</v>
+        <v>1077.3639323229997</v>
       </c>
       <c r="M2">
-        <v>635.99722949064562</v>
+        <v>638.70388532631705</v>
       </c>
       <c r="N2">
-        <v>7135.7701949862858</v>
+        <v>7136.9196675898656</v>
       </c>
       <c r="O2">
-        <v>6019.2630800719453</v>
+        <v>6017.4066360256447</v>
       </c>
       <c r="P2">
-        <v>3589.0417676205766</v>
+        <v>3587.5219983391039</v>
       </c>
       <c r="Q2">
-        <v>9300.1622597397873</v>
+        <v>9301.9262056290427</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B3">
-        <v>135.43845763959607</v>
+        <v>130.7050575022175</v>
       </c>
       <c r="C3">
-        <v>637.70372378414481</v>
+        <v>666.92603537068885</v>
       </c>
       <c r="D3">
-        <v>4890.8380833895653</v>
+        <v>4871.8587008296727</v>
       </c>
       <c r="E3">
-        <v>68.899670329667316</v>
+        <v>66.100396694016467</v>
       </c>
       <c r="F3">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G3">
-        <v>7441.4512640054327</v>
+        <v>7438.1614245257824</v>
       </c>
       <c r="H3">
-        <v>6737.1025841817773</v>
+        <v>6751.764988009656</v>
       </c>
       <c r="I3">
-        <v>6030.452089428376</v>
+        <v>6027.3556719294693</v>
       </c>
       <c r="J3">
-        <v>6490.1529926517196</v>
+        <v>6483.2320248105052</v>
       </c>
       <c r="K3">
-        <v>447.49999999998766</v>
+        <v>446.50000000010533</v>
       </c>
       <c r="L3">
-        <v>1077.5719848263832</v>
+        <v>1082.9916775208453</v>
       </c>
       <c r="M3">
-        <v>638.00068114730971</v>
+        <v>638.70388532632194</v>
       </c>
       <c r="N3">
-        <v>7135.7701949862858</v>
+        <v>7136.9196675898656</v>
       </c>
       <c r="O3">
-        <v>6018.0273630528945</v>
+        <v>6016.2223060096212</v>
       </c>
       <c r="P3">
-        <v>3586.0231710941453</v>
+        <v>3583.3251125335605</v>
       </c>
       <c r="Q3">
-        <v>9300.2284091091296</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>43435</v>
-      </c>
-      <c r="B4">
-        <v>132.74557571465263</v>
-      </c>
-      <c r="C4">
-        <v>661.16448567217662</v>
-      </c>
-      <c r="D4">
-        <v>4865.8070587401098</v>
-      </c>
-      <c r="E4">
-        <v>67.026259340656239</v>
-      </c>
-      <c r="F4">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G4">
-        <v>7442.007363346298</v>
-      </c>
-      <c r="H4">
-        <v>6737.1025841817773</v>
-      </c>
-      <c r="I4">
-        <v>6028.7006667293508</v>
-      </c>
-      <c r="J4">
-        <v>6485.1249554387605</v>
-      </c>
-      <c r="K4">
-        <v>446.50000000010687</v>
-      </c>
-      <c r="L4">
-        <v>1081.9327024217455</v>
-      </c>
-      <c r="M4">
-        <v>639.00563909789298</v>
-      </c>
-      <c r="N4">
-        <v>7135.7701949862858</v>
-      </c>
-      <c r="O4">
-        <v>6017.4705020146266</v>
-      </c>
-      <c r="P4">
-        <v>3582.4565636900638</v>
-      </c>
-      <c r="Q4">
-        <v>9299.2669619576118</v>
+        <v>9300.7799097832612</v>
       </c>
     </row>
   </sheetData>
@@ -7767,7 +6018,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7825,161 +6076,108 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="B2">
-        <v>135.81754276409183</v>
+        <v>132.22636640762892</v>
       </c>
       <c r="C2">
-        <v>643.50070202122765</v>
+        <v>638.74153966423228</v>
       </c>
       <c r="D2">
-        <v>4907.1080611852858</v>
+        <v>4902.5658089215485</v>
       </c>
       <c r="E2">
-        <v>66.774473626370508</v>
+        <v>67.845996800661098</v>
       </c>
       <c r="F2">
         <v>639.99999999966485</v>
       </c>
       <c r="G2">
-        <v>7439.2971784508454</v>
+        <v>7438.2969998750586</v>
       </c>
       <c r="H2">
-        <v>6737.1025841817773</v>
+        <v>6751.764988009656</v>
       </c>
       <c r="I2">
-        <v>6030.6963190994647</v>
+        <v>6028.3597780738064</v>
       </c>
       <c r="J2">
-        <v>6493.0421697088532</v>
+        <v>6488.6805878359473</v>
       </c>
       <c r="K2">
-        <v>447.50000000148083</v>
+        <v>447.50000000015274</v>
       </c>
       <c r="L2">
-        <v>1078.6567915537551</v>
+        <v>1077.7665082962642</v>
       </c>
       <c r="M2">
-        <v>635.99722949064562</v>
+        <v>638.70388532631705</v>
       </c>
       <c r="N2">
-        <v>7135.7701949862858</v>
+        <v>7136.9196675898656</v>
       </c>
       <c r="O2">
-        <v>6019.2776676191761</v>
+        <v>6017.4963062242887</v>
       </c>
       <c r="P2">
-        <v>3588.3043431222404</v>
+        <v>3587.6701882311895</v>
       </c>
       <c r="Q2">
-        <v>9299.8650429199733</v>
+        <v>9301.921931820365</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B3">
-        <v>135.31876954219413</v>
+        <v>129.55503167313219</v>
       </c>
       <c r="C3">
-        <v>635.62351619535571</v>
+        <v>653.55729228228131</v>
       </c>
       <c r="D3">
-        <v>4880.4613224558925</v>
+        <v>4874.9560540923931</v>
       </c>
       <c r="E3">
-        <v>67.914813186810179</v>
+        <v>65.954396694016467</v>
       </c>
       <c r="F3">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G3">
-        <v>7439.837661677182</v>
+        <v>7438.2882209627269</v>
       </c>
       <c r="H3">
-        <v>6737.1025841817773</v>
+        <v>6751.764988009656</v>
       </c>
       <c r="I3">
-        <v>6030.3747041854758</v>
+        <v>6026.5908291414071</v>
       </c>
       <c r="J3">
-        <v>6490.5055950597998</v>
+        <v>6483.6392433985375</v>
       </c>
       <c r="K3">
-        <v>447.49999999998766</v>
+        <v>446.50000000010533</v>
       </c>
       <c r="L3">
-        <v>1077.181460874858</v>
+        <v>1080.5274329293213</v>
       </c>
       <c r="M3">
-        <v>638.00068114730971</v>
+        <v>638.70388532632194</v>
       </c>
       <c r="N3">
-        <v>7135.7701949862858</v>
+        <v>7136.9196675898656</v>
       </c>
       <c r="O3">
-        <v>6018.1405394899521</v>
+        <v>6016.5465695717494</v>
       </c>
       <c r="P3">
-        <v>3584.5531274122068</v>
+        <v>3583.7681299272044</v>
       </c>
       <c r="Q3">
-        <v>9299.364246278561</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>43435</v>
-      </c>
-      <c r="B4">
-        <v>132.70090430377599</v>
-      </c>
-      <c r="C4">
-        <v>643.57657664715032</v>
-      </c>
-      <c r="D4">
-        <v>4851.33204127728</v>
-      </c>
-      <c r="E4">
-        <v>66.161473626370508</v>
-      </c>
-      <c r="F4">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G4">
-        <v>7439.8194270286149</v>
-      </c>
-      <c r="H4">
-        <v>6737.1025841817773</v>
-      </c>
-      <c r="I4">
-        <v>6028.6714091751728</v>
-      </c>
-      <c r="J4">
-        <v>6485.6047203717117</v>
-      </c>
-      <c r="K4">
-        <v>446.50000000010687</v>
-      </c>
-      <c r="L4">
-        <v>1078.6709544011908</v>
-      </c>
-      <c r="M4">
-        <v>639.00563909789298</v>
-      </c>
-      <c r="N4">
-        <v>7135.7701949862858</v>
-      </c>
-      <c r="O4">
-        <v>6016.8960805988791</v>
-      </c>
-      <c r="P4">
-        <v>3580.3611219678742</v>
-      </c>
-      <c r="Q4">
-        <v>9298.2020158870237</v>
+        <v>9300.7777300259422</v>
       </c>
     </row>
   </sheetData>
@@ -7989,7 +6187,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8047,161 +6245,108 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="B2">
-        <v>136.00291836870016</v>
+        <v>132.77622025507375</v>
       </c>
       <c r="C2">
-        <v>645.38951127221912</v>
+        <v>640.81228532884052</v>
       </c>
       <c r="D2">
-        <v>4906.6121492178008</v>
+        <v>4901.2574629584478</v>
       </c>
       <c r="E2">
-        <v>71.598193406590283</v>
+        <v>67.744996800661085</v>
       </c>
       <c r="F2">
         <v>639.99999999966485</v>
       </c>
       <c r="G2">
-        <v>7439.1820837392697</v>
+        <v>7438.3586749957421</v>
       </c>
       <c r="H2">
-        <v>6737.1025841817773</v>
+        <v>6751.764988009656</v>
       </c>
       <c r="I2">
-        <v>6030.8156456236575</v>
+        <v>6028.7205153293198</v>
       </c>
       <c r="J2">
-        <v>6492.085367156029</v>
+        <v>6488.6720667081154</v>
       </c>
       <c r="K2">
-        <v>447.50000000148083</v>
+        <v>447.50000000015262</v>
       </c>
       <c r="L2">
-        <v>1079.00933807196</v>
+        <v>1078.1542983690113</v>
       </c>
       <c r="M2">
-        <v>635.99722949064562</v>
+        <v>638.70388532631705</v>
       </c>
       <c r="N2">
-        <v>7135.7701949862858</v>
+        <v>7136.9196675898656</v>
       </c>
       <c r="O2">
-        <v>6019.0906228469103</v>
+        <v>6017.3727630532958</v>
       </c>
       <c r="P2">
-        <v>3588.235217610059</v>
+        <v>3587.4872887619699</v>
       </c>
       <c r="Q2">
-        <v>9299.8797998003629</v>
+        <v>9302.0045510080745</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B3">
-        <v>135.6284882468739</v>
+        <v>130.77748643758625</v>
       </c>
       <c r="C3">
-        <v>639.71833522772181</v>
+        <v>658.28523741337312</v>
       </c>
       <c r="D3">
-        <v>4878.8107191364879</v>
+        <v>4874.1138750835362</v>
       </c>
       <c r="E3">
-        <v>71.152703296700281</v>
+        <v>65.988396694016473</v>
       </c>
       <c r="F3">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G3">
-        <v>7439.1974238511957</v>
+        <v>7438.3883520680574</v>
       </c>
       <c r="H3">
-        <v>6737.1025841817773</v>
+        <v>6751.764988009656</v>
       </c>
       <c r="I3">
-        <v>6030.5746244846978</v>
+        <v>6027.4037297665109</v>
       </c>
       <c r="J3">
-        <v>6489.3362767573017</v>
+        <v>6483.5344336287926</v>
       </c>
       <c r="K3">
-        <v>447.49999999998766</v>
+        <v>446.50000000010533</v>
       </c>
       <c r="L3">
-        <v>1077.9495913108951</v>
+        <v>1081.4017677628788</v>
       </c>
       <c r="M3">
-        <v>638.00068114730971</v>
+        <v>638.70388532632194</v>
       </c>
       <c r="N3">
-        <v>7135.7701949862858</v>
+        <v>7136.9196675898656</v>
       </c>
       <c r="O3">
-        <v>6017.9598736823327</v>
+        <v>6019.1262249272877</v>
       </c>
       <c r="P3">
-        <v>3584.3180995199409</v>
+        <v>3583.6478048295658</v>
       </c>
       <c r="Q3">
-        <v>9299.192774852092</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>43435</v>
-      </c>
-      <c r="B4">
-        <v>133.05047010584275</v>
-      </c>
-      <c r="C4">
-        <v>650.32484598873589</v>
-      </c>
-      <c r="D4">
-        <v>4850.0799606576293</v>
-      </c>
-      <c r="E4">
-        <v>70.015193406590285</v>
-      </c>
-      <c r="F4">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G4">
-        <v>7438.9918313107992</v>
-      </c>
-      <c r="H4">
-        <v>6737.1025841817773</v>
-      </c>
-      <c r="I4">
-        <v>6028.9003620446183</v>
-      </c>
-      <c r="J4">
-        <v>6483.8555283876776</v>
-      </c>
-      <c r="K4">
-        <v>446.50000000010687</v>
-      </c>
-      <c r="L4">
-        <v>1079.9277375264553</v>
-      </c>
-      <c r="M4">
-        <v>639.00563909789298</v>
-      </c>
-      <c r="N4">
-        <v>7135.7701949862858</v>
-      </c>
-      <c r="O4">
-        <v>6016.87518049968</v>
-      </c>
-      <c r="P4">
-        <v>3580.1786850711383</v>
-      </c>
-      <c r="Q4">
-        <v>9297.9450145258361</v>
+        <v>9300.9329421643197</v>
       </c>
     </row>
   </sheetData>
@@ -8211,7 +6356,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8269,161 +6414,108 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="B2">
-        <v>136.01268782651726</v>
+        <v>132.58653296262239</v>
       </c>
       <c r="C2">
-        <v>644.81019841344835</v>
+        <v>640.02554490644889</v>
       </c>
       <c r="D2">
-        <v>4906.9875239434132</v>
+        <v>4901.4539836908734</v>
       </c>
       <c r="E2">
-        <v>71.852407692304595</v>
+        <v>68.012996800661085</v>
       </c>
       <c r="F2">
         <v>639.99999999966485</v>
       </c>
       <c r="G2">
-        <v>7439.3201169073482</v>
+        <v>7438.2294218550351</v>
       </c>
       <c r="H2">
-        <v>6737.1025841817773</v>
+        <v>6751.764988009656</v>
       </c>
       <c r="I2">
-        <v>6030.8219342366983</v>
+        <v>6028.5962768755389</v>
       </c>
       <c r="J2">
-        <v>6493.3142835265835</v>
+        <v>6488.5299464689215</v>
       </c>
       <c r="K2">
-        <v>447.50000000148083</v>
+        <v>447.50000000015274</v>
       </c>
       <c r="L2">
-        <v>1078.9012233823191</v>
+        <v>1078.0071590230607</v>
       </c>
       <c r="M2">
-        <v>635.99722949064562</v>
+        <v>638.70388532631705</v>
       </c>
       <c r="N2">
-        <v>7135.7701949862858</v>
+        <v>7136.9196675898656</v>
       </c>
       <c r="O2">
-        <v>6018.8889547221388</v>
+        <v>6017.3498522079217</v>
       </c>
       <c r="P2">
-        <v>3588.2875413527172</v>
+        <v>3587.5147907350879</v>
       </c>
       <c r="Q2">
-        <v>9299.7853287030412</v>
+        <v>9301.9176580116873</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B3">
-        <v>135.60707548648031</v>
+        <v>130.38017968138465</v>
       </c>
       <c r="C3">
-        <v>639.52153919472244</v>
+        <v>657.80049851784327</v>
       </c>
       <c r="D3">
-        <v>4881.7951618679626</v>
+        <v>4871.3466086465323</v>
       </c>
       <c r="E3">
-        <v>70.341846153843136</v>
+        <v>65.827396694016471</v>
       </c>
       <c r="F3">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G3">
-        <v>7439.7798129134962</v>
+        <v>7438.2733817612716</v>
       </c>
       <c r="H3">
-        <v>6737.1025841817773</v>
+        <v>6751.764988009656</v>
       </c>
       <c r="I3">
-        <v>6030.5608410647728</v>
+        <v>6027.1401099404402</v>
       </c>
       <c r="J3">
-        <v>6491.4506986767374</v>
+        <v>6483.4273037125286</v>
       </c>
       <c r="K3">
-        <v>447.49999999998766</v>
+        <v>446.50000000010533</v>
       </c>
       <c r="L3">
-        <v>1077.9127051167397</v>
+        <v>1081.3122418945889</v>
       </c>
       <c r="M3">
-        <v>638.00068114730971</v>
+        <v>638.70388532632194</v>
       </c>
       <c r="N3">
-        <v>7135.7701949862858</v>
+        <v>7136.9196675898656</v>
       </c>
       <c r="O3">
-        <v>6017.4271147744421</v>
+        <v>6016.2203435326719</v>
       </c>
       <c r="P3">
-        <v>3584.7426449883583</v>
+        <v>3583.2517435270006</v>
       </c>
       <c r="Q3">
-        <v>9299.2793232018739</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>43435</v>
-      </c>
-      <c r="B4">
-        <v>132.95985622541519</v>
-      </c>
-      <c r="C4">
-        <v>650.42907742761929</v>
-      </c>
-      <c r="D4">
-        <v>4855.4452039956795</v>
-      </c>
-      <c r="E4">
-        <v>68.215407692304566</v>
-      </c>
-      <c r="F4">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G4">
-        <v>7439.7065562360249</v>
-      </c>
-      <c r="H4">
-        <v>6737.1025841817773</v>
-      </c>
-      <c r="I4">
-        <v>6028.8410131246519</v>
-      </c>
-      <c r="J4">
-        <v>6486.6130093270131</v>
-      </c>
-      <c r="K4">
-        <v>446.50000000010687</v>
-      </c>
-      <c r="L4">
-        <v>1079.9471137161242</v>
-      </c>
-      <c r="M4">
-        <v>639.00563909789298</v>
-      </c>
-      <c r="N4">
-        <v>7135.7701949862858</v>
-      </c>
-      <c r="O4">
-        <v>6018.6094388005849</v>
-      </c>
-      <c r="P4">
-        <v>3580.9591356962851</v>
-      </c>
-      <c r="Q4">
-        <v>9298.0694709369782</v>
+        <v>9300.7581122100582</v>
       </c>
     </row>
   </sheetData>

--- a/Output Data/MtomToCrss_Monthly.xlsx
+++ b/Output Data/MtomToCrss_Monthly.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\MTOM\dev\Output Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D_Drive\Modeling\MTOM_Production\_DEC18_Post-MTOM-dev\Output Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12570" windowHeight="13590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12840" windowHeight="13530"/>
   </bookViews>
   <sheets>
     <sheet name="Trace38" sheetId="37" r:id="rId1"/>
@@ -114,9 +114,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/yyyy"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -148,7 +145,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,7 +426,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -487,108 +484,55 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B2">
-        <v>132.32042227523877</v>
+        <v>130.99847981129901</v>
       </c>
       <c r="C2">
-        <v>637.67906299056233</v>
+        <v>656.7549624743765</v>
       </c>
       <c r="D2">
-        <v>4902.0936672103562</v>
+        <v>4865.0337483212134</v>
       </c>
       <c r="E2">
-        <v>68.031996800661105</v>
+        <v>61.722079891173479</v>
       </c>
       <c r="F2">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G2">
-        <v>7438.2245366969619</v>
+        <v>7438.2795161516151</v>
       </c>
       <c r="H2">
-        <v>6751.764988009656</v>
+        <v>6742.9990702171754</v>
       </c>
       <c r="I2">
-        <v>6028.4216471583486</v>
+        <v>6027.5503324363135</v>
       </c>
       <c r="J2">
-        <v>6488.5348156848258</v>
+        <v>6483.3374453433298</v>
       </c>
       <c r="K2">
-        <v>447.50000000015262</v>
+        <v>446.50000000015768</v>
       </c>
       <c r="L2">
-        <v>1077.5673625246491</v>
+        <v>1081.1191418937567</v>
       </c>
       <c r="M2">
-        <v>638.70388532631705</v>
+        <v>638.70388532645052</v>
       </c>
       <c r="N2">
-        <v>7136.9196675898656</v>
+        <v>7143.4705882348844</v>
       </c>
       <c r="O2">
-        <v>6017.365637670764</v>
+        <v>6016.3245447140689</v>
       </c>
       <c r="P2">
-        <v>3587.6041979678821</v>
+        <v>3582.3449845889504</v>
       </c>
       <c r="Q2">
-        <v>9301.9176580116873</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>43435</v>
-      </c>
-      <c r="B3">
-        <v>129.83267814337489</v>
-      </c>
-      <c r="C3">
-        <v>653.28346024707173</v>
-      </c>
-      <c r="D3">
-        <v>4872.9002780955798</v>
-      </c>
-      <c r="E3">
-        <v>65.501396694016464</v>
-      </c>
-      <c r="F3">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G3">
-        <v>7438.1974567094421</v>
-      </c>
-      <c r="H3">
-        <v>6751.764988009656</v>
-      </c>
-      <c r="I3">
-        <v>6026.7758576905026</v>
-      </c>
-      <c r="J3">
-        <v>6483.705548301341</v>
-      </c>
-      <c r="K3">
-        <v>446.50000000010533</v>
-      </c>
-      <c r="L3">
-        <v>1080.4766914270203</v>
-      </c>
-      <c r="M3">
-        <v>638.70388532632194</v>
-      </c>
-      <c r="N3">
-        <v>7136.9196675898656</v>
-      </c>
-      <c r="O3">
-        <v>6016.3394626189847</v>
-      </c>
-      <c r="P3">
-        <v>3583.4743425033726</v>
-      </c>
-      <c r="Q3">
-        <v>9300.7573856242834</v>
+        <v>9301.4637394082747</v>
       </c>
     </row>
   </sheetData>
@@ -598,7 +542,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -656,108 +600,55 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B2">
-        <v>132.25730012719069</v>
+        <v>130.64300830403658</v>
       </c>
       <c r="C2">
-        <v>639.58898622743925</v>
+        <v>656.10910954860117</v>
       </c>
       <c r="D2">
-        <v>4902.5713159087809</v>
+        <v>4864.801870562871</v>
       </c>
       <c r="E2">
-        <v>67.873996800661104</v>
+        <v>61.772079891173483</v>
       </c>
       <c r="F2">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G2">
-        <v>7438.2349176578682</v>
+        <v>7438.2791090388655</v>
       </c>
       <c r="H2">
-        <v>6751.764988009656</v>
+        <v>6742.9990702171754</v>
       </c>
       <c r="I2">
-        <v>6028.380125989991</v>
+        <v>6027.3146900935653</v>
       </c>
       <c r="J2">
-        <v>6488.5790951169511</v>
+        <v>6483.2853575915879</v>
       </c>
       <c r="K2">
-        <v>447.50000000015274</v>
+        <v>446.50000000015768</v>
       </c>
       <c r="L2">
-        <v>1077.925348719403</v>
+        <v>1080.999859446978</v>
       </c>
       <c r="M2">
-        <v>638.70388532631705</v>
+        <v>638.70388532645052</v>
       </c>
       <c r="N2">
-        <v>7136.9196675898656</v>
+        <v>7143.4705882348844</v>
       </c>
       <c r="O2">
-        <v>6017.3442615231652</v>
+        <v>6016.2347862142697</v>
       </c>
       <c r="P2">
-        <v>3587.6709579313219</v>
+        <v>3582.311576660079</v>
       </c>
       <c r="Q2">
-        <v>9301.9326163420592</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>43435</v>
-      </c>
-      <c r="B3">
-        <v>129.72595237913615</v>
-      </c>
-      <c r="C3">
-        <v>654.39308849905331</v>
-      </c>
-      <c r="D3">
-        <v>4872.9912822557917</v>
-      </c>
-      <c r="E3">
-        <v>65.863396694016473</v>
-      </c>
-      <c r="F3">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G3">
-        <v>7438.1593885316279</v>
-      </c>
-      <c r="H3">
-        <v>6751.764988009656</v>
-      </c>
-      <c r="I3">
-        <v>6026.7047337418435</v>
-      </c>
-      <c r="J3">
-        <v>6483.4879127237691</v>
-      </c>
-      <c r="K3">
-        <v>446.50000000010533</v>
-      </c>
-      <c r="L3">
-        <v>1080.6821668144048</v>
-      </c>
-      <c r="M3">
-        <v>638.70388532632194</v>
-      </c>
-      <c r="N3">
-        <v>7136.9196675898656</v>
-      </c>
-      <c r="O3">
-        <v>6016.2159298116358</v>
-      </c>
-      <c r="P3">
-        <v>3583.4873809688347</v>
-      </c>
-      <c r="Q3">
-        <v>9300.7893553983158</v>
+        <v>9301.4637394082747</v>
       </c>
     </row>
   </sheetData>
@@ -767,7 +658,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -825,108 +716,55 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B2">
-        <v>132.34214857054377</v>
+        <v>130.82806612742678</v>
       </c>
       <c r="C2">
-        <v>637.80958886086592</v>
+        <v>657.31529431144281</v>
       </c>
       <c r="D2">
-        <v>4906.1477751264474</v>
+        <v>4864.5789138630653</v>
       </c>
       <c r="E2">
-        <v>68.263996800661104</v>
+        <v>62.045079891173479</v>
       </c>
       <c r="F2">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G2">
-        <v>7438.2414312019682</v>
+        <v>7438.2791090388655</v>
       </c>
       <c r="H2">
-        <v>6751.764988009656</v>
+        <v>6742.9990702171754</v>
       </c>
       <c r="I2">
-        <v>6028.4359385155512</v>
+        <v>6027.4374791237424</v>
       </c>
       <c r="J2">
-        <v>6488.5238599490422</v>
+        <v>6483.1822000897673</v>
       </c>
       <c r="K2">
-        <v>447.50000000015274</v>
+        <v>446.50000000015768</v>
       </c>
       <c r="L2">
-        <v>1077.5918275646925</v>
+        <v>1081.2226291751294</v>
       </c>
       <c r="M2">
-        <v>638.70388532631705</v>
+        <v>638.70388532645052</v>
       </c>
       <c r="N2">
-        <v>7136.9196675898656</v>
+        <v>7143.4705882348844</v>
       </c>
       <c r="O2">
-        <v>6017.4063071618357</v>
+        <v>6016.3239926937749</v>
       </c>
       <c r="P2">
-        <v>3588.1703711763003</v>
+        <v>3582.2794540381342</v>
       </c>
       <c r="Q2">
-        <v>9301.9176580116873</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>43435</v>
-      </c>
-      <c r="B3">
-        <v>129.89771406007767</v>
-      </c>
-      <c r="C3">
-        <v>654.009901418499</v>
-      </c>
-      <c r="D3">
-        <v>4876.8195999191466</v>
-      </c>
-      <c r="E3">
-        <v>66.290396694016465</v>
-      </c>
-      <c r="F3">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G3">
-        <v>7438.1534834291797</v>
-      </c>
-      <c r="H3">
-        <v>6751.764988009656</v>
-      </c>
-      <c r="I3">
-        <v>6026.8191987828495</v>
-      </c>
-      <c r="J3">
-        <v>6483.2284703707764</v>
-      </c>
-      <c r="K3">
-        <v>446.50000000010533</v>
-      </c>
-      <c r="L3">
-        <v>1080.6112251018028</v>
-      </c>
-      <c r="M3">
-        <v>638.70388532632194</v>
-      </c>
-      <c r="N3">
-        <v>7136.9196675898656</v>
-      </c>
-      <c r="O3">
-        <v>6016.5199908593877</v>
-      </c>
-      <c r="P3">
-        <v>3584.0342865142488</v>
-      </c>
-      <c r="Q3">
-        <v>9300.7581122100582</v>
+        <v>9301.4637394082747</v>
       </c>
     </row>
   </sheetData>
@@ -936,7 +774,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -994,108 +832,55 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B2">
-        <v>132.23159520317557</v>
+        <v>130.73311875035273</v>
       </c>
       <c r="C2">
-        <v>646.40380347080247</v>
+        <v>660.07567836024225</v>
       </c>
       <c r="D2">
-        <v>4904.003240394858</v>
+        <v>4865.3681145140526</v>
       </c>
       <c r="E2">
-        <v>67.981996800661108</v>
+        <v>62.048079891173479</v>
       </c>
       <c r="F2">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G2">
-        <v>7438.2442808775104</v>
+        <v>7438.2789054824916</v>
       </c>
       <c r="H2">
-        <v>6751.764988009656</v>
+        <v>6742.9990702171754</v>
       </c>
       <c r="I2">
-        <v>6028.3632175274206</v>
+        <v>6027.3744799155211</v>
       </c>
       <c r="J2">
-        <v>6488.5305551209094</v>
+        <v>6483.1811820881039</v>
       </c>
       <c r="K2">
-        <v>447.50000000015274</v>
+        <v>446.50000000015768</v>
       </c>
       <c r="L2">
-        <v>1079.198254534534</v>
+        <v>1081.7319968947991</v>
       </c>
       <c r="M2">
-        <v>638.70388532631705</v>
+        <v>638.70388532645052</v>
       </c>
       <c r="N2">
-        <v>7136.9196675898656</v>
+        <v>7143.4705882348844</v>
       </c>
       <c r="O2">
-        <v>6017.5224221376911</v>
+        <v>6016.3127314797784</v>
       </c>
       <c r="P2">
-        <v>3587.8710950334289</v>
+        <v>3582.3931586012723</v>
       </c>
       <c r="Q2">
-        <v>9301.9176580116873</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>43435</v>
-      </c>
-      <c r="B3">
-        <v>129.63968961693081</v>
-      </c>
-      <c r="C3">
-        <v>666.36966582347407</v>
-      </c>
-      <c r="D3">
-        <v>4875.56007182745</v>
-      </c>
-      <c r="E3">
-        <v>66.100396694016467</v>
-      </c>
-      <c r="F3">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G3">
-        <v>7438.3138849911238</v>
-      </c>
-      <c r="H3">
-        <v>6751.764988009656</v>
-      </c>
-      <c r="I3">
-        <v>6026.6472467018684</v>
-      </c>
-      <c r="J3">
-        <v>6483.2359177683029</v>
-      </c>
-      <c r="K3">
-        <v>446.50000000010533</v>
-      </c>
-      <c r="L3">
-        <v>1082.8895341808743</v>
-      </c>
-      <c r="M3">
-        <v>638.70388532632194</v>
-      </c>
-      <c r="N3">
-        <v>7136.9196675898656</v>
-      </c>
-      <c r="O3">
-        <v>6016.8150466828902</v>
-      </c>
-      <c r="P3">
-        <v>3583.8544281037557</v>
-      </c>
-      <c r="Q3">
-        <v>9300.7581122100582</v>
+        <v>9301.4637394082747</v>
       </c>
     </row>
   </sheetData>
@@ -1105,7 +890,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1163,108 +948,55 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B2">
-        <v>132.55312714600981</v>
+        <v>131.03334286457539</v>
       </c>
       <c r="C2">
-        <v>639.03088267719613</v>
+        <v>656.94955951922839</v>
       </c>
       <c r="D2">
-        <v>4902.3133995615781</v>
+        <v>4864.2645675257108</v>
       </c>
       <c r="E2">
-        <v>67.995996800661089</v>
+        <v>62.048079891173479</v>
       </c>
       <c r="F2">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G2">
-        <v>7438.2524228076345</v>
+        <v>7438.2784983697438</v>
       </c>
       <c r="H2">
-        <v>6751.764988009656</v>
+        <v>6742.9990702171754</v>
       </c>
       <c r="I2">
-        <v>6028.5743972496048</v>
+        <v>6027.5733644176207</v>
       </c>
       <c r="J2">
-        <v>6488.5293378169335</v>
+        <v>6483.1811820881039</v>
       </c>
       <c r="K2">
-        <v>447.50000000015274</v>
+        <v>446.50000000015768</v>
       </c>
       <c r="L2">
-        <v>1077.8207410568968</v>
+        <v>1081.1550818811047</v>
       </c>
       <c r="M2">
-        <v>638.70388532631705</v>
+        <v>638.70388532645052</v>
       </c>
       <c r="N2">
-        <v>7136.9196675898656</v>
+        <v>7143.4705882348844</v>
       </c>
       <c r="O2">
-        <v>6018.106128854175</v>
+        <v>6016.2606207640265</v>
       </c>
       <c r="P2">
-        <v>3587.6349095008195</v>
+        <v>3582.2341643986524</v>
       </c>
       <c r="Q2">
-        <v>9301.9176580116873</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>43435</v>
-      </c>
-      <c r="B3">
-        <v>130.32303643746681</v>
-      </c>
-      <c r="C3">
-        <v>653.64436907919492</v>
-      </c>
-      <c r="D3">
-        <v>4872.3743726981475</v>
-      </c>
-      <c r="E3">
-        <v>66.068396694016471</v>
-      </c>
-      <c r="F3">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G3">
-        <v>7438.2214679377958</v>
-      </c>
-      <c r="H3">
-        <v>6751.764988009656</v>
-      </c>
-      <c r="I3">
-        <v>6027.1021944210497</v>
-      </c>
-      <c r="J3">
-        <v>6483.2591654028747</v>
-      </c>
-      <c r="K3">
-        <v>446.50000000010533</v>
-      </c>
-      <c r="L3">
-        <v>1080.5435537090063</v>
-      </c>
-      <c r="M3">
-        <v>638.70388532632194</v>
-      </c>
-      <c r="N3">
-        <v>7136.9196675898656</v>
-      </c>
-      <c r="O3">
-        <v>6017.1653390200718</v>
-      </c>
-      <c r="P3">
-        <v>3583.3989944485115</v>
-      </c>
-      <c r="Q3">
-        <v>9300.7581122100582</v>
+        <v>9301.4637394082747</v>
       </c>
     </row>
   </sheetData>
@@ -1274,7 +1006,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1332,108 +1064,55 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B2">
-        <v>132.72063186426513</v>
+        <v>131.25574449282195</v>
       </c>
       <c r="C2">
-        <v>638.07726231830702</v>
+        <v>656.61205030647761</v>
       </c>
       <c r="D2">
-        <v>4901.967767812388</v>
+        <v>4863.9515289534347</v>
       </c>
       <c r="E2">
-        <v>67.930996800661092</v>
+        <v>62.048079891173479</v>
       </c>
       <c r="F2">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G2">
-        <v>7438.3460550040509</v>
+        <v>7438.2791090388655</v>
       </c>
       <c r="H2">
-        <v>6751.764988009656</v>
+        <v>6742.9990702171754</v>
       </c>
       <c r="I2">
-        <v>6028.6841069034681</v>
+        <v>6027.7202921724593</v>
       </c>
       <c r="J2">
-        <v>6488.5748345530355</v>
+        <v>6483.1811820881039</v>
       </c>
       <c r="K2">
-        <v>447.50000000015274</v>
+        <v>446.50000000015768</v>
       </c>
       <c r="L2">
-        <v>1077.6420000390017</v>
+        <v>1081.0927475489191</v>
       </c>
       <c r="M2">
-        <v>638.70388532631705</v>
+        <v>638.70388532645052</v>
       </c>
       <c r="N2">
-        <v>7136.9196675898656</v>
+        <v>7143.4705882348844</v>
       </c>
       <c r="O2">
-        <v>6017.3592796371186</v>
+        <v>6016.2335717696224</v>
       </c>
       <c r="P2">
-        <v>3587.5866012713282</v>
+        <v>3582.1890631762176</v>
       </c>
       <c r="Q2">
-        <v>9302.0351276986839</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>43435</v>
-      </c>
-      <c r="B3">
-        <v>130.66315878005599</v>
-      </c>
-      <c r="C3">
-        <v>653.16706367148322</v>
-      </c>
-      <c r="D3">
-        <v>4872.2270997558971</v>
-      </c>
-      <c r="E3">
-        <v>66.103396694016467</v>
-      </c>
-      <c r="F3">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G3">
-        <v>7438.3511050638281</v>
-      </c>
-      <c r="H3">
-        <v>6751.764988009656</v>
-      </c>
-      <c r="I3">
-        <v>6027.3278714109156</v>
-      </c>
-      <c r="J3">
-        <v>6483.3153728633952</v>
-      </c>
-      <c r="K3">
-        <v>446.50000000010533</v>
-      </c>
-      <c r="L3">
-        <v>1080.4551021630841</v>
-      </c>
-      <c r="M3">
-        <v>638.70388532632194</v>
-      </c>
-      <c r="N3">
-        <v>7136.9196675898656</v>
-      </c>
-      <c r="O3">
-        <v>6016.2600848771099</v>
-      </c>
-      <c r="P3">
-        <v>3583.3778941898408</v>
-      </c>
-      <c r="Q3">
-        <v>9300.9778404190674</v>
+        <v>9301.4637394082747</v>
       </c>
     </row>
   </sheetData>
@@ -1443,7 +1122,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1501,108 +1180,55 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B2">
-        <v>132.59792292099382</v>
+        <v>131.13348626922956</v>
       </c>
       <c r="C2">
-        <v>637.75865009133406</v>
+        <v>656.60457601349935</v>
       </c>
       <c r="D2">
-        <v>4901.9328130030981</v>
+        <v>4864.0334104059475</v>
       </c>
       <c r="E2">
-        <v>68.042996800661101</v>
+        <v>62.048079891173479</v>
       </c>
       <c r="F2">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G2">
-        <v>7438.2245366969619</v>
+        <v>7438.2787019261177</v>
       </c>
       <c r="H2">
-        <v>6751.764988009656</v>
+        <v>6742.9990702171754</v>
       </c>
       <c r="I2">
-        <v>6028.6037368945963</v>
+        <v>6027.639523310987</v>
       </c>
       <c r="J2">
-        <v>6488.5375546187715</v>
+        <v>6483.1811820881039</v>
       </c>
       <c r="K2">
-        <v>447.50000000015262</v>
+        <v>446.50000000015768</v>
       </c>
       <c r="L2">
-        <v>1077.5822798862632</v>
+        <v>1081.0913671271594</v>
       </c>
       <c r="M2">
-        <v>638.70388532631705</v>
+        <v>638.70388532645052</v>
       </c>
       <c r="N2">
-        <v>7136.9196675898656</v>
+        <v>7143.4705882348844</v>
       </c>
       <c r="O2">
-        <v>6017.4924694798474</v>
+        <v>6016.2343445980341</v>
       </c>
       <c r="P2">
-        <v>3587.5817157104589</v>
+        <v>3582.2008602962223</v>
       </c>
       <c r="Q2">
-        <v>9301.9176580116873</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>43435</v>
-      </c>
-      <c r="B3">
-        <v>130.41235168654484</v>
-      </c>
-      <c r="C3">
-        <v>653.01725924213201</v>
-      </c>
-      <c r="D3">
-        <v>4871.3552982957744</v>
-      </c>
-      <c r="E3">
-        <v>66.099396694016463</v>
-      </c>
-      <c r="F3">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G3">
-        <v>7438.1400538119542</v>
-      </c>
-      <c r="H3">
-        <v>6751.764988009656</v>
-      </c>
-      <c r="I3">
-        <v>6027.1614566159624</v>
-      </c>
-      <c r="J3">
-        <v>6483.2437036838992</v>
-      </c>
-      <c r="K3">
-        <v>446.50000000010533</v>
-      </c>
-      <c r="L3">
-        <v>1080.4273135583226</v>
-      </c>
-      <c r="M3">
-        <v>638.70388532632194</v>
-      </c>
-      <c r="N3">
-        <v>7136.9196675898656</v>
-      </c>
-      <c r="O3">
-        <v>6016.3766134024372</v>
-      </c>
-      <c r="P3">
-        <v>3583.2529885422546</v>
-      </c>
-      <c r="Q3">
-        <v>9300.7581122100582</v>
+        <v>9301.4637394082747</v>
       </c>
     </row>
   </sheetData>
@@ -1612,7 +1238,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1670,108 +1296,55 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B2">
-        <v>132.30840499348315</v>
+        <v>130.72552653641185</v>
       </c>
       <c r="C2">
-        <v>637.98110540001755</v>
+        <v>657.76207724844357</v>
       </c>
       <c r="D2">
-        <v>4902.7161151652645</v>
+        <v>4864.7768627916312</v>
       </c>
       <c r="E2">
-        <v>67.925996800661096</v>
+        <v>62.048079891173479</v>
       </c>
       <c r="F2">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G2">
-        <v>7438.6375662571127</v>
+        <v>7438.2791090388655</v>
       </c>
       <c r="H2">
-        <v>6751.764988009656</v>
+        <v>6742.9990702171754</v>
       </c>
       <c r="I2">
-        <v>6028.4137423009506</v>
+        <v>6027.3694423517491</v>
       </c>
       <c r="J2">
-        <v>6488.6679583071964</v>
+        <v>6483.1811820881039</v>
       </c>
       <c r="K2">
-        <v>447.50000000015262</v>
+        <v>446.50000000015768</v>
       </c>
       <c r="L2">
-        <v>1077.6239756667405</v>
+        <v>1081.3051451923454</v>
       </c>
       <c r="M2">
-        <v>638.70388532631705</v>
+        <v>638.70388532645052</v>
       </c>
       <c r="N2">
-        <v>7136.9196675898656</v>
+        <v>7143.4705882348844</v>
       </c>
       <c r="O2">
-        <v>6017.3833963164598</v>
+        <v>6016.1860980243409</v>
       </c>
       <c r="P2">
-        <v>3587.6911962217241</v>
+        <v>3582.3079736502477</v>
       </c>
       <c r="Q2">
-        <v>9302.2155362411286</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>43435</v>
-      </c>
-      <c r="B3">
-        <v>129.83562434424584</v>
-      </c>
-      <c r="C3">
-        <v>652.95492668927454</v>
-      </c>
-      <c r="D3">
-        <v>4873.6327253838272</v>
-      </c>
-      <c r="E3">
-        <v>66.099396694016463</v>
-      </c>
-      <c r="F3">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G3">
-        <v>7438.7736686920616</v>
-      </c>
-      <c r="H3">
-        <v>6751.764988009656</v>
-      </c>
-      <c r="I3">
-        <v>6026.7778210912202</v>
-      </c>
-      <c r="J3">
-        <v>6483.4690111410473</v>
-      </c>
-      <c r="K3">
-        <v>446.50000000010533</v>
-      </c>
-      <c r="L3">
-        <v>1080.4157514359522</v>
-      </c>
-      <c r="M3">
-        <v>638.70388532632194</v>
-      </c>
-      <c r="N3">
-        <v>7136.9196675898656</v>
-      </c>
-      <c r="O3">
-        <v>6016.2063075693104</v>
-      </c>
-      <c r="P3">
-        <v>3583.5790613728263</v>
-      </c>
-      <c r="Q3">
-        <v>9301.2709971427721</v>
+        <v>9301.4637394082747</v>
       </c>
     </row>
   </sheetData>
@@ -1781,7 +1354,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1839,108 +1412,55 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B2">
-        <v>132.33575139040641</v>
+        <v>130.80548509961642</v>
       </c>
       <c r="C2">
-        <v>639.06790759805563</v>
+        <v>657.10155612162657</v>
       </c>
       <c r="D2">
-        <v>4902.8402652373443</v>
+        <v>4864.5058060085139</v>
       </c>
       <c r="E2">
-        <v>67.994996800661085</v>
+        <v>62.048079891173479</v>
       </c>
       <c r="F2">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G2">
-        <v>7438.2890614931894</v>
+        <v>7438.279719707989</v>
       </c>
       <c r="H2">
-        <v>6751.764988009656</v>
+        <v>6742.9990702171754</v>
       </c>
       <c r="I2">
-        <v>6028.4317305093009</v>
+        <v>6027.4224962256703</v>
       </c>
       <c r="J2">
-        <v>6488.5416630196905</v>
+        <v>6483.1811820881039</v>
       </c>
       <c r="K2">
-        <v>447.50000000015274</v>
+        <v>446.50000000015768</v>
       </c>
       <c r="L2">
-        <v>1077.8276807913314</v>
+        <v>1081.1831540235739</v>
       </c>
       <c r="M2">
-        <v>638.70388532631705</v>
+        <v>638.70388532645052</v>
       </c>
       <c r="N2">
-        <v>7136.9196675898656</v>
+        <v>7143.4705882348844</v>
       </c>
       <c r="O2">
-        <v>6018.0720638571274</v>
+        <v>6016.2374359116802</v>
       </c>
       <c r="P2">
-        <v>3587.7085484186423</v>
+        <v>3582.2689209795858</v>
       </c>
       <c r="Q2">
-        <v>9301.9326163420592</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>43435</v>
-      </c>
-      <c r="B3">
-        <v>129.8760268519743</v>
-      </c>
-      <c r="C3">
-        <v>657.19712284424224</v>
-      </c>
-      <c r="D3">
-        <v>4874.8931533775512</v>
-      </c>
-      <c r="E3">
-        <v>65.791396694016456</v>
-      </c>
-      <c r="F3">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G3">
-        <v>7438.774380579438</v>
-      </c>
-      <c r="H3">
-        <v>6751.764988009656</v>
-      </c>
-      <c r="I3">
-        <v>6026.8047460413964</v>
-      </c>
-      <c r="J3">
-        <v>6483.6008655344458</v>
-      </c>
-      <c r="K3">
-        <v>446.50000000010533</v>
-      </c>
-      <c r="L3">
-        <v>1081.2008051307894</v>
-      </c>
-      <c r="M3">
-        <v>638.70388532632194</v>
-      </c>
-      <c r="N3">
-        <v>7136.9196675898656</v>
-      </c>
-      <c r="O3">
-        <v>6017.6471747161313</v>
-      </c>
-      <c r="P3">
-        <v>3583.7591430969769</v>
-      </c>
-      <c r="Q3">
-        <v>9301.0407748949565</v>
+        <v>9301.4637394082747</v>
       </c>
     </row>
   </sheetData>
@@ -1950,7 +1470,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2008,108 +1528,55 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B2">
-        <v>132.23274861395791</v>
+        <v>130.54911091868138</v>
       </c>
       <c r="C2">
-        <v>640.12285656508448</v>
+        <v>655.36745142601512</v>
       </c>
       <c r="D2">
-        <v>4902.7104030578967</v>
+        <v>4865.2266122611036</v>
       </c>
       <c r="E2">
-        <v>68.01199680066108</v>
+        <v>62.048079891173479</v>
       </c>
       <c r="F2">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G2">
-        <v>7438.2249437934679</v>
+        <v>7438.2789054824916</v>
       </c>
       <c r="H2">
-        <v>6751.764988009656</v>
+        <v>6742.9990702171754</v>
       </c>
       <c r="I2">
-        <v>6028.3639762304238</v>
+        <v>6027.2523875728029</v>
       </c>
       <c r="J2">
-        <v>6488.5308594469034</v>
+        <v>6483.1811820881039</v>
       </c>
       <c r="K2">
-        <v>447.50000000015274</v>
+        <v>446.50000000015768</v>
       </c>
       <c r="L2">
-        <v>1078.0253586393362</v>
+        <v>1080.8625534787004</v>
       </c>
       <c r="M2">
-        <v>638.70388532631705</v>
+        <v>638.70388532645052</v>
       </c>
       <c r="N2">
-        <v>7136.9196675898656</v>
+        <v>7143.4705882348844</v>
       </c>
       <c r="O2">
-        <v>6017.466379617651</v>
+        <v>6016.2569774300873</v>
       </c>
       <c r="P2">
-        <v>3587.6903978523774</v>
+        <v>3582.3727715782315</v>
       </c>
       <c r="Q2">
-        <v>9301.9176580116873</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>43435</v>
-      </c>
-      <c r="B3">
-        <v>129.50549061362375</v>
-      </c>
-      <c r="C3">
-        <v>649.94780674414949</v>
-      </c>
-      <c r="D3">
-        <v>4873.4508311859181</v>
-      </c>
-      <c r="E3">
-        <v>66.100396694016467</v>
-      </c>
-      <c r="F3">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G3">
-        <v>7438.1260082991685</v>
-      </c>
-      <c r="H3">
-        <v>6751.764988009656</v>
-      </c>
-      <c r="I3">
-        <v>6026.5578140976186</v>
-      </c>
-      <c r="J3">
-        <v>6483.2362562863727</v>
-      </c>
-      <c r="K3">
-        <v>446.50000000010533</v>
-      </c>
-      <c r="L3">
-        <v>1079.8576497651661</v>
-      </c>
-      <c r="M3">
-        <v>638.70388532632194</v>
-      </c>
-      <c r="N3">
-        <v>7136.9196675898656</v>
-      </c>
-      <c r="O3">
-        <v>6016.4753260238067</v>
-      </c>
-      <c r="P3">
-        <v>3583.5530735177445</v>
-      </c>
-      <c r="Q3">
-        <v>9300.7581122100582</v>
+        <v>9301.4637394082747</v>
       </c>
     </row>
   </sheetData>
@@ -2119,7 +1586,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2177,108 +1644,55 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B2">
-        <v>132.22159897639523</v>
+        <v>130.54907246454215</v>
       </c>
       <c r="C2">
-        <v>640.73460989584032</v>
+        <v>652.97242141510935</v>
       </c>
       <c r="D2">
-        <v>4904.2258295259708</v>
+        <v>4865.2958877379824</v>
       </c>
       <c r="E2">
-        <v>67.721996800661088</v>
+        <v>62.047079891173482</v>
       </c>
       <c r="F2">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G2">
-        <v>7438.3839149791238</v>
+        <v>7438.2791090388655</v>
       </c>
       <c r="H2">
-        <v>6751.764988009656</v>
+        <v>6742.9990702171754</v>
       </c>
       <c r="I2">
-        <v>6028.3566421013948</v>
+        <v>6027.252362057824</v>
       </c>
       <c r="J2">
-        <v>6488.8844862515289</v>
+        <v>6483.1813517550481</v>
       </c>
       <c r="K2">
-        <v>447.50000000015262</v>
+        <v>446.50000000015768</v>
       </c>
       <c r="L2">
-        <v>1078.1397711983152</v>
+        <v>1080.4189965673968</v>
       </c>
       <c r="M2">
-        <v>638.70388532631705</v>
+        <v>638.70388532645052</v>
       </c>
       <c r="N2">
-        <v>7136.9196675898656</v>
+        <v>7143.4705882348844</v>
       </c>
       <c r="O2">
-        <v>6017.6943253119889</v>
+        <v>6016.4317470551578</v>
       </c>
       <c r="P2">
-        <v>3587.9022058525356</v>
+        <v>3582.3827524846402</v>
       </c>
       <c r="Q2">
-        <v>9302.0657043892934</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>43435</v>
-      </c>
-      <c r="B3">
-        <v>129.49515279543797</v>
-      </c>
-      <c r="C3">
-        <v>651.47659174620799</v>
-      </c>
-      <c r="D3">
-        <v>4879.8495230596009</v>
-      </c>
-      <c r="E3">
-        <v>66.121396694016468</v>
-      </c>
-      <c r="F3">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G3">
-        <v>7438.4994862238518</v>
-      </c>
-      <c r="H3">
-        <v>6751.764988009656</v>
-      </c>
-      <c r="I3">
-        <v>6026.5509247916098</v>
-      </c>
-      <c r="J3">
-        <v>6484.1751826702184</v>
-      </c>
-      <c r="K3">
-        <v>446.50000000010533</v>
-      </c>
-      <c r="L3">
-        <v>1080.1415342703704</v>
-      </c>
-      <c r="M3">
-        <v>638.70388532632194</v>
-      </c>
-      <c r="N3">
-        <v>7136.9196675898656</v>
-      </c>
-      <c r="O3">
-        <v>6017.2751470157127</v>
-      </c>
-      <c r="P3">
-        <v>3584.4659868136951</v>
-      </c>
-      <c r="Q3">
-        <v>9301.0986117949215</v>
+        <v>9301.4637394082747</v>
       </c>
     </row>
   </sheetData>
@@ -2288,7 +1702,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2346,108 +1760,55 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B2">
-        <v>132.35892105294943</v>
+        <v>130.77320357852184</v>
       </c>
       <c r="C2">
-        <v>638.23143655064666</v>
+        <v>658.03321739443834</v>
       </c>
       <c r="D2">
-        <v>4904.1925505506124</v>
+        <v>4864.8968483901072</v>
       </c>
       <c r="E2">
-        <v>67.925996800661096</v>
+        <v>61.991079891173491</v>
       </c>
       <c r="F2">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G2">
-        <v>7438.231864434073</v>
+        <v>7438.2789054824916</v>
       </c>
       <c r="H2">
-        <v>6751.764988009656</v>
+        <v>6742.9990702171754</v>
       </c>
       <c r="I2">
-        <v>6028.4469713001954</v>
+        <v>6027.4010768844337</v>
       </c>
       <c r="J2">
-        <v>6488.5523144294802</v>
+        <v>6483.2057837949533</v>
       </c>
       <c r="K2">
-        <v>447.50000000015274</v>
+        <v>446.50000000015768</v>
       </c>
       <c r="L2">
-        <v>1077.6708975546269</v>
+        <v>1081.3552218696336</v>
       </c>
       <c r="M2">
-        <v>638.70388532631705</v>
+        <v>638.70388532645052</v>
       </c>
       <c r="N2">
-        <v>7136.9196675898656</v>
+        <v>7143.4705882348844</v>
       </c>
       <c r="O2">
-        <v>6017.8109660935334</v>
+        <v>6016.2583022787931</v>
       </c>
       <c r="P2">
-        <v>3587.8975545194844</v>
+        <v>3582.3252606482251</v>
       </c>
       <c r="Q2">
-        <v>9301.9212195189193</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>43435</v>
-      </c>
-      <c r="B3">
-        <v>129.93573124529178</v>
-      </c>
-      <c r="C3">
-        <v>655.94363554267215</v>
-      </c>
-      <c r="D3">
-        <v>4875.3664459970923</v>
-      </c>
-      <c r="E3">
-        <v>66.065396694016471</v>
-      </c>
-      <c r="F3">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G3">
-        <v>7438.1630534686738</v>
-      </c>
-      <c r="H3">
-        <v>6751.764988009656</v>
-      </c>
-      <c r="I3">
-        <v>6026.8445341116694</v>
-      </c>
-      <c r="J3">
-        <v>6483.2820088460139</v>
-      </c>
-      <c r="K3">
-        <v>446.50000000010533</v>
-      </c>
-      <c r="L3">
-        <v>1080.9692258013336</v>
-      </c>
-      <c r="M3">
-        <v>638.70388532632194</v>
-      </c>
-      <c r="N3">
-        <v>7136.9196675898656</v>
-      </c>
-      <c r="O3">
-        <v>6016.9577996980206</v>
-      </c>
-      <c r="P3">
-        <v>3583.8267641189141</v>
-      </c>
-      <c r="Q3">
-        <v>9300.7719173397545</v>
+        <v>9301.4637394082747</v>
       </c>
     </row>
   </sheetData>
@@ -2457,7 +1818,7 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2515,108 +1876,55 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B2">
-        <v>132.22702000707224</v>
+        <v>130.53599805720413</v>
       </c>
       <c r="C2">
-        <v>641.39831066162014</v>
+        <v>655.36531696323686</v>
       </c>
       <c r="D2">
-        <v>4902.2684067547198</v>
+        <v>4865.0868771111609</v>
       </c>
       <c r="E2">
-        <v>67.862996800661094</v>
+        <v>61.707079891173478</v>
       </c>
       <c r="F2">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G2">
-        <v>7438.4048804491922</v>
+        <v>7438.2787019261177</v>
       </c>
       <c r="H2">
-        <v>6751.764988009656</v>
+        <v>6742.9990702171754</v>
       </c>
       <c r="I2">
-        <v>6028.3602080055089</v>
+        <v>6027.2436869649928</v>
       </c>
       <c r="J2">
-        <v>6488.9044196041696</v>
+        <v>6483.3866487570267</v>
       </c>
       <c r="K2">
-        <v>447.50000000015262</v>
+        <v>446.50000000015768</v>
       </c>
       <c r="L2">
-        <v>1078.2638991747315</v>
+        <v>1080.8621583175477</v>
       </c>
       <c r="M2">
-        <v>638.70388532631705</v>
+        <v>638.70388532645052</v>
       </c>
       <c r="N2">
-        <v>7136.9196675898656</v>
+        <v>7143.4705882348844</v>
       </c>
       <c r="O2">
-        <v>6017.3849310142368</v>
+        <v>6016.2295972235061</v>
       </c>
       <c r="P2">
-        <v>3587.6286209499431</v>
+        <v>3582.3526391516316</v>
       </c>
       <c r="Q2">
-        <v>9301.9874635534197</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>43435</v>
-      </c>
-      <c r="B3">
-        <v>129.55801598510115</v>
-      </c>
-      <c r="C3">
-        <v>654.29760933212856</v>
-      </c>
-      <c r="D3">
-        <v>4874.62149465737</v>
-      </c>
-      <c r="E3">
-        <v>65.542396694016475</v>
-      </c>
-      <c r="F3">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G3">
-        <v>7438.7132201566947</v>
-      </c>
-      <c r="H3">
-        <v>6751.764988009656</v>
-      </c>
-      <c r="I3">
-        <v>6026.5928179400162</v>
-      </c>
-      <c r="J3">
-        <v>6484.849713241807</v>
-      </c>
-      <c r="K3">
-        <v>446.50000000010533</v>
-      </c>
-      <c r="L3">
-        <v>1080.6644899174969</v>
-      </c>
-      <c r="M3">
-        <v>638.70388532632194</v>
-      </c>
-      <c r="N3">
-        <v>7136.9196675898656</v>
-      </c>
-      <c r="O3">
-        <v>6016.262392161012</v>
-      </c>
-      <c r="P3">
-        <v>3583.720330246455</v>
-      </c>
-      <c r="Q3">
-        <v>9300.9640812764828</v>
+        <v>9301.4637394082747</v>
       </c>
     </row>
   </sheetData>
@@ -2626,7 +1934,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2684,108 +1992,55 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B2">
-        <v>132.22909614648049</v>
+        <v>130.65306964573301</v>
       </c>
       <c r="C2">
-        <v>642.38932331486967</v>
+        <v>659.10563307447535</v>
       </c>
       <c r="D2">
-        <v>4903.1110338942481</v>
+        <v>4865.8684875232211</v>
       </c>
       <c r="E2">
-        <v>67.916996800661082</v>
+        <v>62.048079891173479</v>
       </c>
       <c r="F2">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G2">
-        <v>7438.2937431030095</v>
+        <v>7438.2789054824916</v>
       </c>
       <c r="H2">
-        <v>6751.764988009656</v>
+        <v>6742.9990702171754</v>
       </c>
       <c r="I2">
-        <v>6028.3615736709144</v>
+        <v>6027.3213659658222</v>
       </c>
       <c r="J2">
-        <v>6488.5836600068615</v>
+        <v>6483.1811820881039</v>
       </c>
       <c r="K2">
-        <v>447.50000000015262</v>
+        <v>446.50000000015768</v>
       </c>
       <c r="L2">
-        <v>1078.4492423317583</v>
+        <v>1081.5531833923171</v>
       </c>
       <c r="M2">
-        <v>638.70388532631705</v>
+        <v>638.70388532645052</v>
       </c>
       <c r="N2">
-        <v>7136.9196675898656</v>
+        <v>7143.4705882348844</v>
       </c>
       <c r="O2">
-        <v>6018.1366023339624</v>
+        <v>6016.3468463339459</v>
       </c>
       <c r="P2">
-        <v>3587.7463931896918</v>
+        <v>3582.4652501464857</v>
       </c>
       <c r="Q2">
-        <v>9301.9176580116873</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>43435</v>
-      </c>
-      <c r="B3">
-        <v>129.63907371101834</v>
-      </c>
-      <c r="C3">
-        <v>665.41725617961845</v>
-      </c>
-      <c r="D3">
-        <v>4874.8405214589793</v>
-      </c>
-      <c r="E3">
-        <v>66.071396694016457</v>
-      </c>
-      <c r="F3">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G3">
-        <v>7438.2412004241178</v>
-      </c>
-      <c r="H3">
-        <v>6751.764988009656</v>
-      </c>
-      <c r="I3">
-        <v>6026.6468362512114</v>
-      </c>
-      <c r="J3">
-        <v>6483.3185728765993</v>
-      </c>
-      <c r="K3">
-        <v>446.50000000010533</v>
-      </c>
-      <c r="L3">
-        <v>1082.7146849064522</v>
-      </c>
-      <c r="M3">
-        <v>638.70388532632194</v>
-      </c>
-      <c r="N3">
-        <v>7136.9196675898656</v>
-      </c>
-      <c r="O3">
-        <v>6017.6167830311579</v>
-      </c>
-      <c r="P3">
-        <v>3583.7516234051036</v>
-      </c>
-      <c r="Q3">
-        <v>9300.7581122100582</v>
+        <v>9301.4637394082747</v>
       </c>
     </row>
   </sheetData>
@@ -2795,7 +2050,7 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2853,108 +2108,55 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B2">
-        <v>132.37737874772051</v>
+        <v>130.85309593734692</v>
       </c>
       <c r="C2">
-        <v>635.91322874399486</v>
+        <v>660.35019316331534</v>
       </c>
       <c r="D2">
-        <v>4903.0175136858388</v>
+        <v>4864.4038082327052</v>
       </c>
       <c r="E2">
-        <v>67.981996800661108</v>
+        <v>62.048079891173479</v>
       </c>
       <c r="F2">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G2">
-        <v>7438.2247402452149</v>
+        <v>7438.2789054824916</v>
       </c>
       <c r="H2">
-        <v>6751.764988009656</v>
+        <v>6742.9990702171754</v>
       </c>
       <c r="I2">
-        <v>6028.4591126020332</v>
+        <v>6027.4540868306167</v>
       </c>
       <c r="J2">
-        <v>6488.5282726759542</v>
+        <v>6483.1811820881039</v>
       </c>
       <c r="K2">
-        <v>447.50000000015274</v>
+        <v>446.50000000015768</v>
       </c>
       <c r="L2">
-        <v>1077.2358695419414</v>
+        <v>1081.7825996389602</v>
       </c>
       <c r="M2">
-        <v>638.70388532631705</v>
+        <v>638.70388532645052</v>
       </c>
       <c r="N2">
-        <v>7136.9196675898656</v>
+        <v>7143.4705882348844</v>
       </c>
       <c r="O2">
-        <v>6017.7076494462099</v>
+        <v>6016.2390919725622</v>
       </c>
       <c r="P2">
-        <v>3587.7333220650053</v>
+        <v>3582.2542255880844</v>
       </c>
       <c r="Q2">
-        <v>9301.9176580116873</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>43435</v>
-      </c>
-      <c r="B3">
-        <v>129.97197875580781</v>
-      </c>
-      <c r="C3">
-        <v>656.12926676366897</v>
-      </c>
-      <c r="D3">
-        <v>4872.8016852961409</v>
-      </c>
-      <c r="E3">
-        <v>66.100396694016467</v>
-      </c>
-      <c r="F3">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G3">
-        <v>7438.1304866008859</v>
-      </c>
-      <c r="H3">
-        <v>6751.764988009656</v>
-      </c>
-      <c r="I3">
-        <v>6026.8686900977691</v>
-      </c>
-      <c r="J3">
-        <v>6483.2333788827827</v>
-      </c>
-      <c r="K3">
-        <v>446.50000000010533</v>
-      </c>
-      <c r="L3">
-        <v>1081.003582586555</v>
-      </c>
-      <c r="M3">
-        <v>638.70388532632194</v>
-      </c>
-      <c r="N3">
-        <v>7136.9196675898656</v>
-      </c>
-      <c r="O3">
-        <v>6016.7645901402502</v>
-      </c>
-      <c r="P3">
-        <v>3583.4602168571837</v>
-      </c>
-      <c r="Q3">
-        <v>9300.7581122100582</v>
+        <v>9301.464457592705</v>
       </c>
     </row>
   </sheetData>
@@ -2964,7 +2166,7 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3022,108 +2224,55 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B2">
-        <v>132.23209501451456</v>
+        <v>130.54911091868138</v>
       </c>
       <c r="C2">
-        <v>639.34466650355591</v>
+        <v>657.62781318659086</v>
       </c>
       <c r="D2">
-        <v>4902.3852512487292</v>
+        <v>4865.4470207762151</v>
       </c>
       <c r="E2">
-        <v>67.994996800661085</v>
+        <v>62.048079891173479</v>
       </c>
       <c r="F2">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G2">
-        <v>7438.2245366969619</v>
+        <v>7438.2789054824916</v>
       </c>
       <c r="H2">
-        <v>6751.764988009656</v>
+        <v>6742.9990702171754</v>
       </c>
       <c r="I2">
-        <v>6028.3635462987222</v>
+        <v>6027.2523875728029</v>
       </c>
       <c r="J2">
-        <v>6488.5302507949154</v>
+        <v>6483.1811820881039</v>
       </c>
       <c r="K2">
-        <v>447.50000000015262</v>
+        <v>446.50000000015768</v>
       </c>
       <c r="L2">
-        <v>1077.879554860524</v>
+        <v>1081.2803480599534</v>
       </c>
       <c r="M2">
-        <v>638.70388532631705</v>
+        <v>638.70388532645052</v>
       </c>
       <c r="N2">
-        <v>7136.9196675898656</v>
+        <v>7143.4705882348844</v>
       </c>
       <c r="O2">
-        <v>6017.3569775904543</v>
+        <v>6016.3074320849564</v>
       </c>
       <c r="P2">
-        <v>3587.6449520614356</v>
+        <v>3582.4045270689189</v>
       </c>
       <c r="Q2">
-        <v>9301.9176580116873</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>43435</v>
-      </c>
-      <c r="B3">
-        <v>129.50483726526059</v>
-      </c>
-      <c r="C3">
-        <v>656.00225025136615</v>
-      </c>
-      <c r="D3">
-        <v>4872.9777422807119</v>
-      </c>
-      <c r="E3">
-        <v>66.100396694016467</v>
-      </c>
-      <c r="F3">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G3">
-        <v>7438.1280439858838</v>
-      </c>
-      <c r="H3">
-        <v>6751.764988009656</v>
-      </c>
-      <c r="I3">
-        <v>6026.5573786946425</v>
-      </c>
-      <c r="J3">
-        <v>6483.235579250234</v>
-      </c>
-      <c r="K3">
-        <v>446.50000000010533</v>
-      </c>
-      <c r="L3">
-        <v>1080.9800770694069</v>
-      </c>
-      <c r="M3">
-        <v>638.70388532632194</v>
-      </c>
-      <c r="N3">
-        <v>7136.9196675898656</v>
-      </c>
-      <c r="O3">
-        <v>6016.2531304266531</v>
-      </c>
-      <c r="P3">
-        <v>3583.4854410465823</v>
-      </c>
-      <c r="Q3">
-        <v>9300.7581122100582</v>
+        <v>9301.4637394082747</v>
       </c>
     </row>
   </sheetData>
@@ -3133,7 +2282,7 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3191,108 +2340,55 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B2">
-        <v>132.43460000058155</v>
+        <v>131.16046571581873</v>
       </c>
       <c r="C2">
-        <v>639.32725154753211</v>
+        <v>661.82845505456157</v>
       </c>
       <c r="D2">
-        <v>4904.1688415997542</v>
+        <v>4864.2796047930096</v>
       </c>
       <c r="E2">
-        <v>67.963996800661093</v>
+        <v>62.048079891173479</v>
       </c>
       <c r="F2">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G2">
-        <v>7438.2853976246342</v>
+        <v>7438.2789054824916</v>
       </c>
       <c r="H2">
-        <v>6751.764988009656</v>
+        <v>6742.9990702171754</v>
       </c>
       <c r="I2">
-        <v>6028.4967522158158</v>
+        <v>6027.6573470542098</v>
       </c>
       <c r="J2">
-        <v>6488.5261423939974</v>
+        <v>6483.1811820881039</v>
       </c>
       <c r="K2">
-        <v>447.50000000015274</v>
+        <v>446.50000000015768</v>
       </c>
       <c r="L2">
-        <v>1077.8762907031085</v>
+        <v>1082.0549767870646</v>
       </c>
       <c r="M2">
-        <v>638.70388532631705</v>
+        <v>638.70388532645052</v>
       </c>
       <c r="N2">
-        <v>7136.9196675898656</v>
+        <v>7143.4705882348844</v>
       </c>
       <c r="O2">
-        <v>6018.0475762394408</v>
+        <v>6016.272765210495</v>
       </c>
       <c r="P2">
-        <v>3587.8942407688187</v>
+        <v>3582.236330902072</v>
       </c>
       <c r="Q2">
-        <v>9301.9176580116873</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>43435</v>
-      </c>
-      <c r="B3">
-        <v>130.0895844586465</v>
-      </c>
-      <c r="C3">
-        <v>660.78211745560486</v>
-      </c>
-      <c r="D3">
-        <v>4874.9239612587189</v>
-      </c>
-      <c r="E3">
-        <v>66.153396694016465</v>
-      </c>
-      <c r="F3">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G3">
-        <v>7438.2379460431193</v>
-      </c>
-      <c r="H3">
-        <v>6751.764988009656</v>
-      </c>
-      <c r="I3">
-        <v>6026.9470646311611</v>
-      </c>
-      <c r="J3">
-        <v>6483.2310092562966</v>
-      </c>
-      <c r="K3">
-        <v>446.50000000010533</v>
-      </c>
-      <c r="L3">
-        <v>1081.8622193828348</v>
-      </c>
-      <c r="M3">
-        <v>638.70388532632194</v>
-      </c>
-      <c r="N3">
-        <v>7136.9196675898656</v>
-      </c>
-      <c r="O3">
-        <v>6017.1365318683584</v>
-      </c>
-      <c r="P3">
-        <v>3583.7635447888106</v>
-      </c>
-      <c r="Q3">
-        <v>9300.7581122100582</v>
+        <v>9301.4637394082747</v>
       </c>
     </row>
   </sheetData>
@@ -3302,7 +2398,7 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3360,108 +2456,55 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B2">
-        <v>132.53606244033816</v>
+        <v>131.07880382467457</v>
       </c>
       <c r="C2">
-        <v>638.8226360939625</v>
+        <v>659.43703028470134</v>
       </c>
       <c r="D2">
-        <v>4902.228733486374</v>
+        <v>4864.388596429224</v>
       </c>
       <c r="E2">
-        <v>67.963996800661093</v>
+        <v>62.048079891173479</v>
       </c>
       <c r="F2">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G2">
-        <v>7438.6165172047258</v>
+        <v>7438.2811446026071</v>
       </c>
       <c r="H2">
-        <v>6751.764988009656</v>
+        <v>6742.9990702171754</v>
       </c>
       <c r="I2">
-        <v>6028.563220472186</v>
+        <v>6027.6033978164442</v>
       </c>
       <c r="J2">
-        <v>6488.6387430117738</v>
+        <v>6483.1811820881039</v>
       </c>
       <c r="K2">
-        <v>447.50000000015262</v>
+        <v>446.50000000015768</v>
       </c>
       <c r="L2">
-        <v>1077.7817085363415</v>
+        <v>1081.6142715670064</v>
       </c>
       <c r="M2">
-        <v>638.70388532631705</v>
+        <v>638.70388532645052</v>
       </c>
       <c r="N2">
-        <v>7136.9196675898656</v>
+        <v>7143.4705882348844</v>
       </c>
       <c r="O2">
-        <v>6017.5305039895966</v>
+        <v>6016.2334613655639</v>
       </c>
       <c r="P2">
-        <v>3587.6230758998818</v>
+        <v>3582.252033938259</v>
       </c>
       <c r="Q2">
-        <v>9302.1268158201274</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>43435</v>
-      </c>
-      <c r="B3">
-        <v>130.29027761056045</v>
-      </c>
-      <c r="C3">
-        <v>657.63119833286851</v>
-      </c>
-      <c r="D3">
-        <v>4873.2319000853668</v>
-      </c>
-      <c r="E3">
-        <v>66.075396694016462</v>
-      </c>
-      <c r="F3">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G3">
-        <v>7438.8947118671713</v>
-      </c>
-      <c r="H3">
-        <v>6751.764988009656</v>
-      </c>
-      <c r="I3">
-        <v>6027.0804583792742</v>
-      </c>
-      <c r="J3">
-        <v>6483.4991205086417</v>
-      </c>
-      <c r="K3">
-        <v>446.50000000010533</v>
-      </c>
-      <c r="L3">
-        <v>1081.2809742832355</v>
-      </c>
-      <c r="M3">
-        <v>638.70388532632194</v>
-      </c>
-      <c r="N3">
-        <v>7136.9196675898656</v>
-      </c>
-      <c r="O3">
-        <v>6016.442839228971</v>
-      </c>
-      <c r="P3">
-        <v>3583.5217940493626</v>
-      </c>
-      <c r="Q3">
-        <v>9301.1837819088632</v>
+        <v>9301.4637394082747</v>
       </c>
     </row>
   </sheetData>
@@ -3471,7 +2514,7 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3529,108 +2572,55 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B2">
-        <v>132.31063030257553</v>
+        <v>130.83621634629733</v>
       </c>
       <c r="C2">
-        <v>637.72572073523293</v>
+        <v>656.47989936678312</v>
       </c>
       <c r="D2">
-        <v>4902.1061499162106</v>
+        <v>4864.2550401684575</v>
       </c>
       <c r="E2">
-        <v>67.810996800661101</v>
+        <v>62.048079891173479</v>
       </c>
       <c r="F2">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G2">
-        <v>7438.3334350123605</v>
+        <v>7438.2787019261177</v>
       </c>
       <c r="H2">
-        <v>6751.764988009656</v>
+        <v>6742.9990702171754</v>
       </c>
       <c r="I2">
-        <v>6028.4152060888018</v>
+        <v>6027.442886933326</v>
       </c>
       <c r="J2">
-        <v>6488.6241353640626</v>
+        <v>6483.1811820881039</v>
       </c>
       <c r="K2">
-        <v>447.50000000015262</v>
+        <v>446.50000000015768</v>
       </c>
       <c r="L2">
-        <v>1077.5761077916911</v>
+        <v>1081.0683406875289</v>
       </c>
       <c r="M2">
-        <v>638.70388532631705</v>
+        <v>638.70388532645052</v>
       </c>
       <c r="N2">
-        <v>7136.9196675898656</v>
+        <v>7143.4705882348844</v>
       </c>
       <c r="O2">
-        <v>6017.3259547711186</v>
+        <v>6016.1852147918707</v>
       </c>
       <c r="P2">
-        <v>3587.6059426496722</v>
+        <v>3582.2327917388689</v>
       </c>
       <c r="Q2">
-        <v>9301.9746421273885</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>43435</v>
-      </c>
-      <c r="B3">
-        <v>129.8415146018329</v>
-      </c>
-      <c r="C3">
-        <v>653.46357705599792</v>
-      </c>
-      <c r="D3">
-        <v>4872.2232141093809</v>
-      </c>
-      <c r="E3">
-        <v>66.021396694016474</v>
-      </c>
-      <c r="F3">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G3">
-        <v>7438.3272927802864</v>
-      </c>
-      <c r="H3">
-        <v>6751.764988009656</v>
-      </c>
-      <c r="I3">
-        <v>6026.7817464637055</v>
-      </c>
-      <c r="J3">
-        <v>6483.4377402342634</v>
-      </c>
-      <c r="K3">
-        <v>446.50000000010533</v>
-      </c>
-      <c r="L3">
-        <v>1080.5100820099567</v>
-      </c>
-      <c r="M3">
-        <v>638.70388532632194</v>
-      </c>
-      <c r="N3">
-        <v>7136.9196675898656</v>
-      </c>
-      <c r="O3">
-        <v>6016.1292706195945</v>
-      </c>
-      <c r="P3">
-        <v>3583.3773374880357</v>
-      </c>
-      <c r="Q3">
-        <v>9300.8778687325685</v>
+        <v>9301.464457592705</v>
       </c>
     </row>
   </sheetData>
@@ -3640,7 +2630,7 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3698,108 +2688,55 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B2">
-        <v>132.23351755447942</v>
+        <v>130.54911091868138</v>
       </c>
       <c r="C2">
-        <v>636.49928526682879</v>
+        <v>659.49904761694916</v>
       </c>
       <c r="D2">
-        <v>4902.8880007688658</v>
+        <v>4865.2127719681812</v>
       </c>
       <c r="E2">
-        <v>68.031996800661105</v>
+        <v>62.048079891173479</v>
       </c>
       <c r="F2">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G2">
-        <v>7438.2495731320905</v>
+        <v>7438.2789054824916</v>
       </c>
       <c r="H2">
-        <v>6751.764988009656</v>
+        <v>6742.9990702171754</v>
       </c>
       <c r="I2">
-        <v>6028.3644820324262</v>
+        <v>6027.2523875728029</v>
       </c>
       <c r="J2">
-        <v>6488.5290334909396</v>
+        <v>6483.1811820881039</v>
       </c>
       <c r="K2">
-        <v>447.50000000015262</v>
+        <v>446.50000000015768</v>
       </c>
       <c r="L2">
-        <v>1077.3459312485861</v>
+        <v>1081.6257035450351</v>
       </c>
       <c r="M2">
-        <v>638.70388532631705</v>
+        <v>638.70388532645052</v>
       </c>
       <c r="N2">
-        <v>7136.9196675898656</v>
+        <v>7143.4705882348844</v>
       </c>
       <c r="O2">
-        <v>6017.6573016931279</v>
+        <v>6016.2342341939757</v>
       </c>
       <c r="P2">
-        <v>3587.7152203144301</v>
+        <v>3582.370777529623</v>
       </c>
       <c r="Q2">
-        <v>9301.9176580116873</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>43435</v>
-      </c>
-      <c r="B3">
-        <v>129.51202737478786</v>
-      </c>
-      <c r="C3">
-        <v>654.02550121025308</v>
-      </c>
-      <c r="D3">
-        <v>4873.9098307843742</v>
-      </c>
-      <c r="E3">
-        <v>66.250396694016459</v>
-      </c>
-      <c r="F3">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G3">
-        <v>7438.1791290728124</v>
-      </c>
-      <c r="H3">
-        <v>6751.764988009656</v>
-      </c>
-      <c r="I3">
-        <v>6026.5621703115967</v>
-      </c>
-      <c r="J3">
-        <v>6483.2342251779564</v>
-      </c>
-      <c r="K3">
-        <v>446.50000000010533</v>
-      </c>
-      <c r="L3">
-        <v>1080.6141131496831</v>
-      </c>
-      <c r="M3">
-        <v>638.70388532632194</v>
-      </c>
-      <c r="N3">
-        <v>7136.9196675898656</v>
-      </c>
-      <c r="O3">
-        <v>6016.7181957653111</v>
-      </c>
-      <c r="P3">
-        <v>3583.6186523904794</v>
-      </c>
-      <c r="Q3">
-        <v>9300.7581122100582</v>
+        <v>9301.4637394082747</v>
       </c>
     </row>
   </sheetData>
@@ -3809,7 +2746,7 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3867,108 +2804,55 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B2">
-        <v>132.30718857265455</v>
+        <v>130.72434414318238</v>
       </c>
       <c r="C2">
-        <v>639.25643873408569</v>
+        <v>657.8031023106945</v>
       </c>
       <c r="D2">
-        <v>4904.1194063557086</v>
+        <v>4865.0518737150405</v>
       </c>
       <c r="E2">
-        <v>67.964996800661083</v>
+        <v>62.048079891173479</v>
       </c>
       <c r="F2">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G2">
-        <v>7438.3039205156629</v>
+        <v>7438.2789054824916</v>
       </c>
       <c r="H2">
-        <v>6751.764988009656</v>
+        <v>6742.9990702171754</v>
       </c>
       <c r="I2">
-        <v>6028.4129421505186</v>
+        <v>6027.3686578136239</v>
       </c>
       <c r="J2">
-        <v>6488.5265988829879</v>
+        <v>6483.1811820881039</v>
       </c>
       <c r="K2">
-        <v>447.50000000015262</v>
+        <v>446.50000000015768</v>
       </c>
       <c r="L2">
-        <v>1077.8630179638706</v>
+        <v>1081.3127220813949</v>
       </c>
       <c r="M2">
-        <v>638.70388532631705</v>
+        <v>638.70388532645052</v>
       </c>
       <c r="N2">
-        <v>7136.9196675898656</v>
+        <v>7143.4705882348844</v>
       </c>
       <c r="O2">
-        <v>6017.662980832305</v>
+        <v>6016.2670241994374</v>
       </c>
       <c r="P2">
-        <v>3587.8873313077534</v>
+        <v>3582.3475960160745</v>
       </c>
       <c r="Q2">
-        <v>9301.9176580116873</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>43435</v>
-      </c>
-      <c r="B3">
-        <v>129.8502559221844</v>
-      </c>
-      <c r="C3">
-        <v>655.06338964772476</v>
-      </c>
-      <c r="D3">
-        <v>4875.12445039454</v>
-      </c>
-      <c r="E3">
-        <v>66.582396694016467</v>
-      </c>
-      <c r="F3">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G3">
-        <v>7438.3757481130033</v>
-      </c>
-      <c r="H3">
-        <v>6751.764988009656</v>
-      </c>
-      <c r="I3">
-        <v>6026.7875718351697</v>
-      </c>
-      <c r="J3">
-        <v>6483.3092244936543</v>
-      </c>
-      <c r="K3">
-        <v>446.50000000010533</v>
-      </c>
-      <c r="L3">
-        <v>1080.8062622846089</v>
-      </c>
-      <c r="M3">
-        <v>638.70388532632194</v>
-      </c>
-      <c r="N3">
-        <v>7136.9196675898656</v>
-      </c>
-      <c r="O3">
-        <v>6016.7363418394989</v>
-      </c>
-      <c r="P3">
-        <v>3583.792189364538</v>
-      </c>
-      <c r="Q3">
-        <v>9300.7602919673791</v>
+        <v>9301.464457592705</v>
       </c>
     </row>
   </sheetData>
@@ -3978,7 +2862,7 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4036,108 +2920,55 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B2">
-        <v>132.32622686380171</v>
+        <v>131.04025957372269</v>
       </c>
       <c r="C2">
-        <v>644.56465919393156</v>
+        <v>659.0097679260117</v>
       </c>
       <c r="D2">
-        <v>4902.8289974888667</v>
+        <v>4864.7694148659139</v>
       </c>
       <c r="E2">
-        <v>67.991996800661099</v>
+        <v>62.048079891173479</v>
       </c>
       <c r="F2">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G2">
-        <v>7438.397349163828</v>
+        <v>7438.2787019261177</v>
       </c>
       <c r="H2">
-        <v>6751.764988009656</v>
+        <v>6742.9990702171754</v>
       </c>
       <c r="I2">
-        <v>6028.4254653633125</v>
+        <v>6027.5779338830234</v>
       </c>
       <c r="J2">
-        <v>6488.5357286628077</v>
+        <v>6483.1811820881039</v>
       </c>
       <c r="K2">
-        <v>447.50000000015274</v>
+        <v>446.50000000015768</v>
       </c>
       <c r="L2">
-        <v>1078.8553911083311</v>
+        <v>1081.5355120699428</v>
       </c>
       <c r="M2">
-        <v>638.70388532631705</v>
+        <v>638.70388532645052</v>
       </c>
       <c r="N2">
-        <v>7136.9196675898656</v>
+        <v>7143.4705882348844</v>
       </c>
       <c r="O2">
-        <v>6017.4683528005053</v>
+        <v>6016.2599583396741</v>
       </c>
       <c r="P2">
-        <v>3587.7069735489131</v>
+        <v>3582.3069005858265</v>
       </c>
       <c r="Q2">
-        <v>9301.9176580116873</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>43435</v>
-      </c>
-      <c r="B3">
-        <v>129.88736138558798</v>
-      </c>
-      <c r="C3">
-        <v>660.02341886750173</v>
-      </c>
-      <c r="D3">
-        <v>4874.7970598815737</v>
-      </c>
-      <c r="E3">
-        <v>66.580396694016471</v>
-      </c>
-      <c r="F3">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G3">
-        <v>7438.5314647370487</v>
-      </c>
-      <c r="H3">
-        <v>6751.764988009656</v>
-      </c>
-      <c r="I3">
-        <v>6026.8122995763433</v>
-      </c>
-      <c r="J3">
-        <v>6483.2442175796405</v>
-      </c>
-      <c r="K3">
-        <v>446.50000000010533</v>
-      </c>
-      <c r="L3">
-        <v>1081.7223631403322</v>
-      </c>
-      <c r="M3">
-        <v>638.70388532632194</v>
-      </c>
-      <c r="N3">
-        <v>7136.9196675898656</v>
-      </c>
-      <c r="O3">
-        <v>6016.648873530954</v>
-      </c>
-      <c r="P3">
-        <v>3583.7454138854478</v>
-      </c>
-      <c r="Q3">
-        <v>9300.7581122100582</v>
+        <v>9301.4637394082747</v>
       </c>
     </row>
   </sheetData>
@@ -4147,7 +2978,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4205,108 +3036,55 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B2">
-        <v>132.6661796218967</v>
+        <v>131.18710676570041</v>
       </c>
       <c r="C2">
-        <v>643.20855464772603</v>
+        <v>656.01949748297352</v>
       </c>
       <c r="D2">
-        <v>4901.5254230035425</v>
+        <v>4864.3602929606304</v>
       </c>
       <c r="E2">
-        <v>68.006996800661099</v>
+        <v>62.048079891173479</v>
       </c>
       <c r="F2">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G2">
-        <v>7438.2263686312399</v>
+        <v>7438.2791090388655</v>
       </c>
       <c r="H2">
-        <v>6751.764988009656</v>
+        <v>6742.9990702171754</v>
       </c>
       <c r="I2">
-        <v>6028.648442614578</v>
+        <v>6027.674947238509</v>
       </c>
       <c r="J2">
-        <v>6488.5326854028681</v>
+        <v>6483.1811820881039</v>
       </c>
       <c r="K2">
-        <v>447.50000000015262</v>
+        <v>446.50000000015768</v>
       </c>
       <c r="L2">
-        <v>1078.6022593578948</v>
+        <v>1080.9832692269536</v>
       </c>
       <c r="M2">
-        <v>638.70388532631705</v>
+        <v>638.70388532645052</v>
       </c>
       <c r="N2">
-        <v>7136.9196675898656</v>
+        <v>7143.4705882348844</v>
       </c>
       <c r="O2">
-        <v>6017.4794245487492</v>
+        <v>6016.2361110629745</v>
       </c>
       <c r="P2">
-        <v>3587.5247756589824</v>
+        <v>3582.2479560988299</v>
       </c>
       <c r="Q2">
-        <v>9301.9176580116873</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>43435</v>
-      </c>
-      <c r="B3">
-        <v>130.53911432509295</v>
-      </c>
-      <c r="C3">
-        <v>657.87954033227948</v>
-      </c>
-      <c r="D3">
-        <v>4871.724292961987</v>
-      </c>
-      <c r="E3">
-        <v>65.796396694016465</v>
-      </c>
-      <c r="F3">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G3">
-        <v>7438.1929779158254</v>
-      </c>
-      <c r="H3">
-        <v>6751.764988009656</v>
-      </c>
-      <c r="I3">
-        <v>6027.24556579407</v>
-      </c>
-      <c r="J3">
-        <v>6483.4839651293887</v>
-      </c>
-      <c r="K3">
-        <v>446.50000000010533</v>
-      </c>
-      <c r="L3">
-        <v>1081.3268392309383</v>
-      </c>
-      <c r="M3">
-        <v>638.70388532632194</v>
-      </c>
-      <c r="N3">
-        <v>7136.9196675898656</v>
-      </c>
-      <c r="O3">
-        <v>6016.4356852702958</v>
-      </c>
-      <c r="P3">
-        <v>3583.3058555106331</v>
-      </c>
-      <c r="Q3">
-        <v>9300.7893553983158</v>
+        <v>9301.4637394082747</v>
       </c>
     </row>
   </sheetData>
@@ -4316,7 +3094,7 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4374,108 +3152,55 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B2">
-        <v>132.23259482585357</v>
+        <v>130.54911091868138</v>
       </c>
       <c r="C2">
-        <v>639.54594271436224</v>
+        <v>657.82900741979518</v>
       </c>
       <c r="D2">
-        <v>4903.1472194278631</v>
+        <v>4865.202336239292</v>
       </c>
       <c r="E2">
-        <v>68.00799680066109</v>
+        <v>62.048079891173479</v>
       </c>
       <c r="F2">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G2">
-        <v>7438.2632108650478</v>
+        <v>7438.2789054824916</v>
       </c>
       <c r="H2">
-        <v>6751.764988009656</v>
+        <v>6742.9990702171754</v>
       </c>
       <c r="I2">
-        <v>6028.3638750700229</v>
+        <v>6027.2523875728029</v>
       </c>
       <c r="J2">
-        <v>6488.5310116099008</v>
+        <v>6483.1811820881039</v>
       </c>
       <c r="K2">
-        <v>447.50000000015262</v>
+        <v>446.50000000015768</v>
       </c>
       <c r="L2">
-        <v>1077.9172808952742</v>
+        <v>1081.3175064772422</v>
       </c>
       <c r="M2">
-        <v>638.70388532631705</v>
+        <v>638.70388532645052</v>
       </c>
       <c r="N2">
-        <v>7136.9196675898656</v>
+        <v>7143.4705882348844</v>
       </c>
       <c r="O2">
-        <v>6017.8224335861005</v>
+        <v>6016.2336821736808</v>
       </c>
       <c r="P2">
-        <v>3587.751450766335</v>
+        <v>3582.3692739956446</v>
       </c>
       <c r="Q2">
-        <v>9301.9176580116873</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>43435</v>
-      </c>
-      <c r="B3">
-        <v>129.50199137729911</v>
-      </c>
-      <c r="C3">
-        <v>650.31076945676784</v>
-      </c>
-      <c r="D3">
-        <v>4875.7888387821777</v>
-      </c>
-      <c r="E3">
-        <v>66.01339669401645</v>
-      </c>
-      <c r="F3">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G3">
-        <v>7438.2656364120885</v>
-      </c>
-      <c r="H3">
-        <v>6751.764988009656</v>
-      </c>
-      <c r="I3">
-        <v>6026.5554821442538</v>
-      </c>
-      <c r="J3">
-        <v>6483.2766366110845</v>
-      </c>
-      <c r="K3">
-        <v>446.50000000010533</v>
-      </c>
-      <c r="L3">
-        <v>1079.9251226373403</v>
-      </c>
-      <c r="M3">
-        <v>638.70388532632194</v>
-      </c>
-      <c r="N3">
-        <v>7136.9196675898656</v>
-      </c>
-      <c r="O3">
-        <v>6017.1478116950093</v>
-      </c>
-      <c r="P3">
-        <v>3583.8871127912735</v>
-      </c>
-      <c r="Q3">
-        <v>9300.7581122100582</v>
+        <v>9301.4637394082747</v>
       </c>
     </row>
   </sheetData>
@@ -4485,7 +3210,7 @@
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4543,108 +3268,55 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B2">
-        <v>132.59958381029114</v>
+        <v>131.14491478113928</v>
       </c>
       <c r="C2">
-        <v>642.21551665282323</v>
+        <v>660.0466361508835</v>
       </c>
       <c r="D2">
-        <v>4901.5033077868948</v>
+        <v>4864.9937788408124</v>
       </c>
       <c r="E2">
-        <v>67.987996800661094</v>
+        <v>62.048079891173479</v>
       </c>
       <c r="F2">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G2">
-        <v>7438.2312537893131</v>
+        <v>7438.2791090388655</v>
       </c>
       <c r="H2">
-        <v>6751.764988009656</v>
+        <v>6742.9990702171754</v>
       </c>
       <c r="I2">
-        <v>6028.6048247182225</v>
+        <v>6027.6470734607292</v>
       </c>
       <c r="J2">
-        <v>6488.5285770019491</v>
+        <v>6483.1811820881039</v>
       </c>
       <c r="K2">
-        <v>447.50000000015262</v>
+        <v>446.50000000015768</v>
       </c>
       <c r="L2">
-        <v>1078.4167363134441</v>
+        <v>1081.7266433930076</v>
       </c>
       <c r="M2">
-        <v>638.70388532631705</v>
+        <v>638.70388532645052</v>
       </c>
       <c r="N2">
-        <v>7136.9196675898656</v>
+        <v>7143.4705882348844</v>
       </c>
       <c r="O2">
-        <v>6017.4190232291248</v>
+        <v>6016.7723150143993</v>
       </c>
       <c r="P2">
-        <v>3587.5216846612266</v>
+        <v>3582.3392259617845</v>
       </c>
       <c r="Q2">
-        <v>9301.9176580116873</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>43435</v>
-      </c>
-      <c r="B3">
-        <v>130.41783946472657</v>
-      </c>
-      <c r="C3">
-        <v>656.08032939895929</v>
-      </c>
-      <c r="D3">
-        <v>4872.0977071107927</v>
-      </c>
-      <c r="E3">
-        <v>66.100396694016467</v>
-      </c>
-      <c r="F3">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G3">
-        <v>7438.1530793908059</v>
-      </c>
-      <c r="H3">
-        <v>6751.764988009656</v>
-      </c>
-      <c r="I3">
-        <v>6027.1650978506195</v>
-      </c>
-      <c r="J3">
-        <v>6483.2337174008517</v>
-      </c>
-      <c r="K3">
-        <v>446.50000000010533</v>
-      </c>
-      <c r="L3">
-        <v>1080.9945313979792</v>
-      </c>
-      <c r="M3">
-        <v>638.70388532632194</v>
-      </c>
-      <c r="N3">
-        <v>7136.9196675898656</v>
-      </c>
-      <c r="O3">
-        <v>6017.1262799908091</v>
-      </c>
-      <c r="P3">
-        <v>3583.3593556900537</v>
-      </c>
-      <c r="Q3">
-        <v>9300.7581122100582</v>
+        <v>9301.4637394082747</v>
       </c>
     </row>
   </sheetData>
@@ -4654,7 +3326,7 @@
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4712,108 +3384,55 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B2">
-        <v>132.21879234349154</v>
+        <v>131.22660732654586</v>
       </c>
       <c r="C2">
-        <v>641.99112529331831</v>
+        <v>664.32569765442179</v>
       </c>
       <c r="D2">
-        <v>4904.1049890834483</v>
+        <v>4864.6507754457334</v>
       </c>
       <c r="E2">
-        <v>67.648996800661095</v>
+        <v>62.048079891173479</v>
       </c>
       <c r="F2">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G2">
-        <v>7438.4455900998091</v>
+        <v>7438.3977824049498</v>
       </c>
       <c r="H2">
-        <v>6751.764988009656</v>
+        <v>6742.9990702171754</v>
       </c>
       <c r="I2">
-        <v>6028.3547959240877</v>
+        <v>6027.7010429499733</v>
       </c>
       <c r="J2">
-        <v>6488.7898408677902</v>
+        <v>6483.1811820881039</v>
       </c>
       <c r="K2">
-        <v>447.50000000015274</v>
+        <v>446.50000000015768</v>
       </c>
       <c r="L2">
-        <v>1078.3747697423375</v>
+        <v>1082.5142885291584</v>
       </c>
       <c r="M2">
-        <v>638.70388532631705</v>
+        <v>638.70388532645052</v>
       </c>
       <c r="N2">
-        <v>7136.9196675898656</v>
+        <v>7143.4705882348844</v>
       </c>
       <c r="O2">
-        <v>6017.6638545460237</v>
+        <v>6016.3594323966481</v>
       </c>
       <c r="P2">
-        <v>3587.8853162356472</v>
+        <v>3582.289807539305</v>
       </c>
       <c r="Q2">
-        <v>9301.9582591941253</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>43435</v>
-      </c>
-      <c r="B3">
-        <v>129.62371604798051</v>
-      </c>
-      <c r="C3">
-        <v>662.06522479000068</v>
-      </c>
-      <c r="D3">
-        <v>4876.50840320926</v>
-      </c>
-      <c r="E3">
-        <v>65.67539669401647</v>
-      </c>
-      <c r="F3">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G3">
-        <v>7438.6775850424783</v>
-      </c>
-      <c r="H3">
-        <v>6751.764988009656</v>
-      </c>
-      <c r="I3">
-        <v>6026.6366016312495</v>
-      </c>
-      <c r="J3">
-        <v>6483.8771329643196</v>
-      </c>
-      <c r="K3">
-        <v>446.50000000010533</v>
-      </c>
-      <c r="L3">
-        <v>1082.0985280455695</v>
-      </c>
-      <c r="M3">
-        <v>638.70388532632194</v>
-      </c>
-      <c r="N3">
-        <v>7136.9196675898656</v>
-      </c>
-      <c r="O3">
-        <v>6016.7093936200654</v>
-      </c>
-      <c r="P3">
-        <v>3583.9899195016369</v>
-      </c>
-      <c r="Q3">
-        <v>9300.8212895943034</v>
+        <v>9301.4637394082747</v>
       </c>
     </row>
   </sheetData>
@@ -4823,7 +3442,7 @@
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4881,108 +3500,55 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B2">
-        <v>132.23244103774925</v>
+        <v>130.75048322049489</v>
       </c>
       <c r="C2">
-        <v>648.00098263158793</v>
+        <v>669.05451267265971</v>
       </c>
       <c r="D2">
-        <v>4903.6153373944262</v>
+        <v>4866.3912190017409</v>
       </c>
       <c r="E2">
-        <v>68.003996800661085</v>
+        <v>62.048079891173479</v>
       </c>
       <c r="F2">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G2">
-        <v>7438.309416318496</v>
+        <v>7438.2793125952412</v>
       </c>
       <c r="H2">
-        <v>6751.764988009656</v>
+        <v>6742.9990702171754</v>
       </c>
       <c r="I2">
-        <v>6028.363773909623</v>
+        <v>6027.3860015383798</v>
       </c>
       <c r="J2">
-        <v>6488.5308594469034</v>
+        <v>6483.1811820881039</v>
       </c>
       <c r="K2">
-        <v>447.50000000015274</v>
+        <v>446.50000000015768</v>
       </c>
       <c r="L2">
-        <v>1079.4957372121701</v>
+        <v>1083.3815283967017</v>
       </c>
       <c r="M2">
-        <v>638.70388532631705</v>
+        <v>638.70388532645052</v>
       </c>
       <c r="N2">
-        <v>7136.9196675898656</v>
+        <v>7143.4705882348844</v>
       </c>
       <c r="O2">
-        <v>6017.7845362535199</v>
+        <v>6016.3107442067203</v>
       </c>
       <c r="P2">
-        <v>3587.8168786392289</v>
+        <v>3582.5404492440525</v>
       </c>
       <c r="Q2">
-        <v>9301.9176580116873</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>43435</v>
-      </c>
-      <c r="B3">
-        <v>129.57560694894084</v>
-      </c>
-      <c r="C3">
-        <v>669.11527212532849</v>
-      </c>
-      <c r="D3">
-        <v>4876.7627888428769</v>
-      </c>
-      <c r="E3">
-        <v>66.100396694016467</v>
-      </c>
-      <c r="F3">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G3">
-        <v>7438.2782429496601</v>
-      </c>
-      <c r="H3">
-        <v>6751.764988009656</v>
-      </c>
-      <c r="I3">
-        <v>6026.604540871389</v>
-      </c>
-      <c r="J3">
-        <v>6483.2362562863727</v>
-      </c>
-      <c r="K3">
-        <v>446.50000000010533</v>
-      </c>
-      <c r="L3">
-        <v>1083.3926564871119</v>
-      </c>
-      <c r="M3">
-        <v>638.70388532632194</v>
-      </c>
-      <c r="N3">
-        <v>7136.9196675898656</v>
-      </c>
-      <c r="O3">
-        <v>6017.1097867145691</v>
-      </c>
-      <c r="P3">
-        <v>3584.0261907359368</v>
-      </c>
-      <c r="Q3">
-        <v>9300.7581122100582</v>
+        <v>9301.4637394082747</v>
       </c>
     </row>
   </sheetData>
@@ -4992,7 +3558,7 @@
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5050,108 +3616,55 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B2">
-        <v>132.23128762696692</v>
+        <v>130.74151619642751</v>
       </c>
       <c r="C2">
-        <v>639.42635253704213</v>
+        <v>660.42748537309751</v>
       </c>
       <c r="D2">
-        <v>4902.671257562436</v>
+        <v>4864.4108121225509</v>
       </c>
       <c r="E2">
-        <v>67.973996800661098</v>
+        <v>61.55107989117348</v>
       </c>
       <c r="F2">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G2">
-        <v>7438.3900214267169</v>
+        <v>7438.2831801663478</v>
       </c>
       <c r="H2">
-        <v>6751.764988009656</v>
+        <v>6742.9990702171754</v>
       </c>
       <c r="I2">
-        <v>6028.3630152066198</v>
+        <v>6027.3800517645814</v>
       </c>
       <c r="J2">
-        <v>6488.5409022047052</v>
+        <v>6483.5256493918105</v>
       </c>
       <c r="K2">
-        <v>447.50000000015262</v>
+        <v>446.50000000015768</v>
       </c>
       <c r="L2">
-        <v>1077.894865612478</v>
+        <v>1081.7968473147625</v>
       </c>
       <c r="M2">
-        <v>638.70388532631705</v>
+        <v>638.70388532645052</v>
       </c>
       <c r="N2">
-        <v>7136.9196675898656</v>
+        <v>7143.4705882348844</v>
       </c>
       <c r="O2">
-        <v>6017.4595830989274</v>
+        <v>6016.184993983753</v>
       </c>
       <c r="P2">
-        <v>3587.6849265680335</v>
+        <v>3582.2552346777679</v>
       </c>
       <c r="Q2">
-        <v>9302.0059731797301</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>43435</v>
-      </c>
-      <c r="B3">
-        <v>129.65118828704718</v>
-      </c>
-      <c r="C3">
-        <v>656.24417290240774</v>
-      </c>
-      <c r="D3">
-        <v>4873.8296370148264</v>
-      </c>
-      <c r="E3">
-        <v>65.628396694016473</v>
-      </c>
-      <c r="F3">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G3">
-        <v>7438.6170833070928</v>
-      </c>
-      <c r="H3">
-        <v>6751.764988009656</v>
-      </c>
-      <c r="I3">
-        <v>6026.6549096202853</v>
-      </c>
-      <c r="J3">
-        <v>6484.0403809371301</v>
-      </c>
-      <c r="K3">
-        <v>446.50000000010533</v>
-      </c>
-      <c r="L3">
-        <v>1081.0248054013432</v>
-      </c>
-      <c r="M3">
-        <v>638.70388532632194</v>
-      </c>
-      <c r="N3">
-        <v>7136.9196675898656</v>
-      </c>
-      <c r="O3">
-        <v>6016.2897397688475</v>
-      </c>
-      <c r="P3">
-        <v>3583.6071948182503</v>
-      </c>
-      <c r="Q3">
-        <v>9300.9930478924489</v>
+        <v>9301.4637394082747</v>
       </c>
     </row>
   </sheetData>
@@ -5161,7 +3674,7 @@
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5219,108 +3732,55 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B2">
-        <v>132.47135316825671</v>
+        <v>130.87041735116907</v>
       </c>
       <c r="C2">
-        <v>641.21477216301821</v>
+        <v>656.71728805888279</v>
       </c>
       <c r="D2">
-        <v>4902.2337708535078</v>
+        <v>4864.2647803871796</v>
       </c>
       <c r="E2">
-        <v>67.978996800661093</v>
+        <v>61.454079891173485</v>
       </c>
       <c r="F2">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G2">
-        <v>7438.3330279158536</v>
+        <v>7438.3723378581917</v>
       </c>
       <c r="H2">
-        <v>6751.764988009656</v>
+        <v>6742.9990702171754</v>
       </c>
       <c r="I2">
-        <v>6028.5208381923621</v>
+        <v>6027.4655798848707</v>
       </c>
       <c r="J2">
-        <v>6488.525077253018</v>
+        <v>6483.4066694563944</v>
       </c>
       <c r="K2">
-        <v>447.50000000015274</v>
+        <v>446.50000000015768</v>
       </c>
       <c r="L2">
-        <v>1078.2295730693529</v>
+        <v>1081.112183833231</v>
       </c>
       <c r="M2">
-        <v>638.70388532631705</v>
+        <v>638.70388532645052</v>
       </c>
       <c r="N2">
-        <v>7136.9196675898656</v>
+        <v>7143.4705882348844</v>
       </c>
       <c r="O2">
-        <v>6017.3942488221646</v>
+        <v>6016.3009182454871</v>
       </c>
       <c r="P2">
-        <v>3587.6237799621913</v>
+        <v>3582.2341950667974</v>
       </c>
       <c r="Q2">
-        <v>9302.014506209669</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>43435</v>
-      </c>
-      <c r="B3">
-        <v>130.13387454516339</v>
-      </c>
-      <c r="C3">
-        <v>655.91031059039392</v>
-      </c>
-      <c r="D3">
-        <v>4872.3957120573932</v>
-      </c>
-      <c r="E3">
-        <v>65.401396694016469</v>
-      </c>
-      <c r="F3">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G3">
-        <v>7438.6869293794944</v>
-      </c>
-      <c r="H3">
-        <v>6751.764988009656</v>
-      </c>
-      <c r="I3">
-        <v>6026.9765803329919</v>
-      </c>
-      <c r="J3">
-        <v>6483.9499592890079</v>
-      </c>
-      <c r="K3">
-        <v>446.50000000010533</v>
-      </c>
-      <c r="L3">
-        <v>1080.9630554385271</v>
-      </c>
-      <c r="M3">
-        <v>638.70388532632194</v>
-      </c>
-      <c r="N3">
-        <v>7136.9196675898656</v>
-      </c>
-      <c r="O3">
-        <v>6016.5914903728899</v>
-      </c>
-      <c r="P3">
-        <v>3583.4020517996041</v>
-      </c>
-      <c r="Q3">
-        <v>9300.999565381042</v>
+        <v>9301.4637394082747</v>
       </c>
     </row>
   </sheetData>
@@ -5330,7 +3790,7 @@
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5388,108 +3848,55 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B2">
-        <v>132.23274861395791</v>
+        <v>130.80343151198781</v>
       </c>
       <c r="C2">
-        <v>639.20186715667319</v>
+        <v>657.03078025090372</v>
       </c>
       <c r="D2">
-        <v>4902.9960393763786</v>
+        <v>4864.901135365647</v>
       </c>
       <c r="E2">
-        <v>68.01199680066108</v>
+        <v>62.048079891173479</v>
       </c>
       <c r="F2">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G2">
-        <v>7438.2632108650478</v>
+        <v>7438.2791090388655</v>
       </c>
       <c r="H2">
-        <v>6751.764988009656</v>
+        <v>6742.9990702171754</v>
       </c>
       <c r="I2">
-        <v>6028.3639762304238</v>
+        <v>6027.4211336351636</v>
       </c>
       <c r="J2">
-        <v>6488.5326854028681</v>
+        <v>6483.1811820881039</v>
       </c>
       <c r="K2">
-        <v>447.50000000015262</v>
+        <v>446.50000000015768</v>
       </c>
       <c r="L2">
-        <v>1077.8527893868441</v>
+        <v>1081.1700824792435</v>
       </c>
       <c r="M2">
-        <v>638.70388532631705</v>
+        <v>638.70388532645052</v>
       </c>
       <c r="N2">
-        <v>7136.9196675898656</v>
+        <v>7143.4705882348844</v>
       </c>
       <c r="O2">
-        <v>6017.4869884163609</v>
+        <v>6016.2606207640265</v>
       </c>
       <c r="P2">
-        <v>3587.7303206455122</v>
+        <v>3582.3258782968305</v>
       </c>
       <c r="Q2">
-        <v>9301.9176580116873</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>43435</v>
-      </c>
-      <c r="B3">
-        <v>129.67889855548265</v>
-      </c>
-      <c r="C3">
-        <v>655.18941142317442</v>
-      </c>
-      <c r="D3">
-        <v>4874.2604930808075</v>
-      </c>
-      <c r="E3">
-        <v>66.112396694016468</v>
-      </c>
-      <c r="F3">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G3">
-        <v>7438.2587154954126</v>
-      </c>
-      <c r="H3">
-        <v>6751.764988009656</v>
-      </c>
-      <c r="I3">
-        <v>6026.6733762363501</v>
-      </c>
-      <c r="J3">
-        <v>6483.2684881107825</v>
-      </c>
-      <c r="K3">
-        <v>446.50000000010533</v>
-      </c>
-      <c r="L3">
-        <v>1080.8295931861035</v>
-      </c>
-      <c r="M3">
-        <v>638.70388532632194</v>
-      </c>
-      <c r="N3">
-        <v>7136.9196675898656</v>
-      </c>
-      <c r="O3">
-        <v>6016.5386542603646</v>
-      </c>
-      <c r="P3">
-        <v>3583.6687527338913</v>
-      </c>
-      <c r="Q3">
-        <v>9300.7581122100582</v>
+        <v>9301.4637394082747</v>
       </c>
     </row>
   </sheetData>
@@ -5511,7 +3918,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5569,108 +3976,55 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B2">
-        <v>132.35835986725445</v>
+        <v>130.88302092444252</v>
       </c>
       <c r="C2">
-        <v>639.95079745632893</v>
+        <v>657.57668355838553</v>
       </c>
       <c r="D2">
-        <v>4902.7031418760371</v>
+        <v>4865.3023023326459</v>
       </c>
       <c r="E2">
-        <v>67.984996800661094</v>
+        <v>62.048079891173479</v>
       </c>
       <c r="F2">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G2">
-        <v>7438.2334928200971</v>
+        <v>7438.2787019261177</v>
       </c>
       <c r="H2">
-        <v>6751.764988009656</v>
+        <v>6742.9990702171754</v>
       </c>
       <c r="I2">
-        <v>6028.4466021574081</v>
+        <v>6027.4739425712505</v>
       </c>
       <c r="J2">
-        <v>6488.529794305925</v>
+        <v>6483.1811820881039</v>
       </c>
       <c r="K2">
-        <v>447.50000000015274</v>
+        <v>446.50000000015768</v>
       </c>
       <c r="L2">
-        <v>1077.9931644982239</v>
+        <v>1081.270904965932</v>
       </c>
       <c r="M2">
-        <v>638.70388532631705</v>
+        <v>638.70388532645052</v>
       </c>
       <c r="N2">
-        <v>7136.9196675898656</v>
+        <v>7143.4705882348844</v>
       </c>
       <c r="O2">
-        <v>6017.7196630098524</v>
+        <v>6016.3248759262451</v>
       </c>
       <c r="P2">
-        <v>3587.6893829721166</v>
+        <v>3582.3836766712625</v>
       </c>
       <c r="Q2">
-        <v>9301.9176580116873</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>43435</v>
-      </c>
-      <c r="B3">
-        <v>129.93368172921436</v>
-      </c>
-      <c r="C3">
-        <v>655.69398048548601</v>
-      </c>
-      <c r="D3">
-        <v>4873.7787967389122</v>
-      </c>
-      <c r="E3">
-        <v>66.100396694016467</v>
-      </c>
-      <c r="F3">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G3">
-        <v>7438.1510431507031</v>
-      </c>
-      <c r="H3">
-        <v>6751.764988009656</v>
-      </c>
-      <c r="I3">
-        <v>6026.8431682776791</v>
-      </c>
-      <c r="J3">
-        <v>6483.2350714731301</v>
-      </c>
-      <c r="K3">
-        <v>446.50000000010533</v>
-      </c>
-      <c r="L3">
-        <v>1080.9230057636028</v>
-      </c>
-      <c r="M3">
-        <v>638.70388532632194</v>
-      </c>
-      <c r="N3">
-        <v>7136.9196675898656</v>
-      </c>
-      <c r="O3">
-        <v>6016.753255822201</v>
-      </c>
-      <c r="P3">
-        <v>3583.5999310932443</v>
-      </c>
-      <c r="Q3">
-        <v>9300.7573856242834</v>
+        <v>9301.4637394082747</v>
       </c>
     </row>
   </sheetData>
@@ -5680,7 +4034,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5738,108 +4092,55 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B2">
-        <v>132.23205656748848</v>
+        <v>130.54911091868138</v>
       </c>
       <c r="C2">
-        <v>639.01385367688817</v>
+        <v>658.58691207096876</v>
       </c>
       <c r="D2">
-        <v>4902.6031784398983</v>
+        <v>4867.4221231816218</v>
       </c>
       <c r="E2">
-        <v>67.993996800661108</v>
+        <v>62.048079891173479</v>
       </c>
       <c r="F2">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G2">
-        <v>7438.227589920758</v>
+        <v>7438.5347811631136</v>
       </c>
       <c r="H2">
-        <v>6751.764988009656</v>
+        <v>6742.9990702171754</v>
       </c>
       <c r="I2">
-        <v>6028.3635210086222</v>
+        <v>6027.2523875728029</v>
       </c>
       <c r="J2">
-        <v>6488.5300986319189</v>
+        <v>6483.1811820881039</v>
       </c>
       <c r="K2">
-        <v>447.50000000015274</v>
+        <v>446.50000000015768</v>
       </c>
       <c r="L2">
-        <v>1077.8175492407611</v>
+        <v>1081.4574833386282</v>
       </c>
       <c r="M2">
-        <v>638.70388532631705</v>
+        <v>638.70388532645052</v>
       </c>
       <c r="N2">
-        <v>7136.9196675898656</v>
+        <v>7143.4705882348844</v>
       </c>
       <c r="O2">
-        <v>6017.3252970435005</v>
+        <v>6016.7433873338114</v>
       </c>
       <c r="P2">
-        <v>3587.675411290913</v>
+        <v>3582.6885595863168</v>
       </c>
       <c r="Q2">
-        <v>9301.9176580116873</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>43435</v>
-      </c>
-      <c r="B3">
-        <v>129.50537564460703</v>
-      </c>
-      <c r="C3">
-        <v>656.23856886240355</v>
-      </c>
-      <c r="D3">
-        <v>4876.2397620245019</v>
-      </c>
-      <c r="E3">
-        <v>66.115396694016454</v>
-      </c>
-      <c r="F3">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G3">
-        <v>7438.4453874507481</v>
-      </c>
-      <c r="H3">
-        <v>6751.764988009656</v>
-      </c>
-      <c r="I3">
-        <v>6026.5577374802206</v>
-      </c>
-      <c r="J3">
-        <v>6483.2354099912</v>
-      </c>
-      <c r="K3">
-        <v>446.50000000010533</v>
-      </c>
-      <c r="L3">
-        <v>1081.0237705040176</v>
-      </c>
-      <c r="M3">
-        <v>638.70388532632194</v>
-      </c>
-      <c r="N3">
-        <v>7136.9196675898656</v>
-      </c>
-      <c r="O3">
-        <v>6016.9219338773955</v>
-      </c>
-      <c r="P3">
-        <v>3583.9515364997187</v>
-      </c>
-      <c r="Q3">
-        <v>9300.7581122100582</v>
+        <v>9301.4637394082747</v>
       </c>
     </row>
   </sheetData>
@@ -5849,7 +4150,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5907,108 +4208,55 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B2">
-        <v>132.74251745694392</v>
+        <v>131.22589621781435</v>
       </c>
       <c r="C2">
-        <v>636.59513737924476</v>
+        <v>670.03767212437958</v>
       </c>
       <c r="D2">
-        <v>4901.505552063586</v>
+        <v>4865.0451492170141</v>
       </c>
       <c r="E2">
-        <v>67.980996800661103</v>
+        <v>62.048079891173479</v>
       </c>
       <c r="F2">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G2">
-        <v>7438.2334928200971</v>
+        <v>7438.2789054824916</v>
       </c>
       <c r="H2">
-        <v>6751.764988009656</v>
+        <v>6742.9990702171754</v>
       </c>
       <c r="I2">
-        <v>6028.698441191018</v>
+        <v>6027.7005731620038</v>
       </c>
       <c r="J2">
-        <v>6488.5270553719783</v>
+        <v>6483.1811820881039</v>
       </c>
       <c r="K2">
-        <v>447.50000000015274</v>
+        <v>446.50000000015768</v>
       </c>
       <c r="L2">
-        <v>1077.3639323229997</v>
+        <v>1083.5614771465744</v>
       </c>
       <c r="M2">
-        <v>638.70388532631705</v>
+        <v>638.70388532645052</v>
       </c>
       <c r="N2">
-        <v>7136.9196675898656</v>
+        <v>7143.4705882348844</v>
       </c>
       <c r="O2">
-        <v>6017.4066360256447</v>
+        <v>6016.2793894540218</v>
       </c>
       <c r="P2">
-        <v>3587.5219983391039</v>
+        <v>3582.3466271799371</v>
       </c>
       <c r="Q2">
-        <v>9301.9262056290427</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>43435</v>
-      </c>
-      <c r="B3">
-        <v>130.7050575022175</v>
-      </c>
-      <c r="C3">
-        <v>666.92603537068885</v>
-      </c>
-      <c r="D3">
-        <v>4871.8587008296727</v>
-      </c>
-      <c r="E3">
-        <v>66.100396694016467</v>
-      </c>
-      <c r="F3">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G3">
-        <v>7438.1614245257824</v>
-      </c>
-      <c r="H3">
-        <v>6751.764988009656</v>
-      </c>
-      <c r="I3">
-        <v>6027.3556719294693</v>
-      </c>
-      <c r="J3">
-        <v>6483.2320248105052</v>
-      </c>
-      <c r="K3">
-        <v>446.50000000010533</v>
-      </c>
-      <c r="L3">
-        <v>1082.9916775208453</v>
-      </c>
-      <c r="M3">
-        <v>638.70388532632194</v>
-      </c>
-      <c r="N3">
-        <v>7136.9196675898656</v>
-      </c>
-      <c r="O3">
-        <v>6016.2223060096212</v>
-      </c>
-      <c r="P3">
-        <v>3583.3251125335605</v>
-      </c>
-      <c r="Q3">
-        <v>9300.7799097832612</v>
+        <v>9301.4637394082747</v>
       </c>
     </row>
   </sheetData>
@@ -6018,7 +4266,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6076,108 +4324,55 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B2">
-        <v>132.22636640762892</v>
+        <v>130.54911091868138</v>
       </c>
       <c r="C2">
-        <v>638.74153966423228</v>
+        <v>656.93619592735263</v>
       </c>
       <c r="D2">
-        <v>4902.5658089215485</v>
+        <v>4865.5117815051335</v>
       </c>
       <c r="E2">
-        <v>67.845996800661098</v>
+        <v>62.048079891173479</v>
       </c>
       <c r="F2">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G2">
-        <v>7438.2969998750586</v>
+        <v>7438.2791090388655</v>
       </c>
       <c r="H2">
-        <v>6751.764988009656</v>
+        <v>6742.9990702171754</v>
       </c>
       <c r="I2">
-        <v>6028.3597780738064</v>
+        <v>6027.2523875728029</v>
       </c>
       <c r="J2">
-        <v>6488.6805878359473</v>
+        <v>6483.1811820881039</v>
       </c>
       <c r="K2">
-        <v>447.50000000015274</v>
+        <v>446.50000000015768</v>
       </c>
       <c r="L2">
-        <v>1077.7665082962642</v>
+        <v>1081.1526137689948</v>
       </c>
       <c r="M2">
-        <v>638.70388532631705</v>
+        <v>638.70388532645052</v>
       </c>
       <c r="N2">
-        <v>7136.9196675898656</v>
+        <v>7143.4705882348844</v>
       </c>
       <c r="O2">
-        <v>6017.4963062242887</v>
+        <v>6016.2821495554917</v>
       </c>
       <c r="P2">
-        <v>3587.6701882311895</v>
+        <v>3582.4138575102729</v>
       </c>
       <c r="Q2">
-        <v>9301.921931820365</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>43435</v>
-      </c>
-      <c r="B3">
-        <v>129.55503167313219</v>
-      </c>
-      <c r="C3">
-        <v>653.55729228228131</v>
-      </c>
-      <c r="D3">
-        <v>4874.9560540923931</v>
-      </c>
-      <c r="E3">
-        <v>65.954396694016467</v>
-      </c>
-      <c r="F3">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G3">
-        <v>7438.2882209627269</v>
-      </c>
-      <c r="H3">
-        <v>6751.764988009656</v>
-      </c>
-      <c r="I3">
-        <v>6026.5908291414071</v>
-      </c>
-      <c r="J3">
-        <v>6483.6392433985375</v>
-      </c>
-      <c r="K3">
-        <v>446.50000000010533</v>
-      </c>
-      <c r="L3">
-        <v>1080.5274329293213</v>
-      </c>
-      <c r="M3">
-        <v>638.70388532632194</v>
-      </c>
-      <c r="N3">
-        <v>7136.9196675898656</v>
-      </c>
-      <c r="O3">
-        <v>6016.5465695717494</v>
-      </c>
-      <c r="P3">
-        <v>3583.7681299272044</v>
-      </c>
-      <c r="Q3">
-        <v>9300.7777300259422</v>
+        <v>9301.4637394082747</v>
       </c>
     </row>
   </sheetData>
@@ -6187,7 +4382,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6245,108 +4440,55 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B2">
-        <v>132.77622025507375</v>
+        <v>131.2519844283637</v>
       </c>
       <c r="C2">
-        <v>640.81228532884052</v>
+        <v>658.02229619772618</v>
       </c>
       <c r="D2">
-        <v>4901.2574629584478</v>
+        <v>4865.4728347383916</v>
       </c>
       <c r="E2">
-        <v>67.744996800661085</v>
+        <v>62.048079891173479</v>
       </c>
       <c r="F2">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G2">
-        <v>7438.3586749957421</v>
+        <v>7438.2791090388655</v>
       </c>
       <c r="H2">
-        <v>6751.764988009656</v>
+        <v>6742.9990702171754</v>
       </c>
       <c r="I2">
-        <v>6028.7205153293198</v>
+        <v>6027.7178081176744</v>
       </c>
       <c r="J2">
-        <v>6488.6720667081154</v>
+        <v>6483.1811820881039</v>
       </c>
       <c r="K2">
-        <v>447.50000000015262</v>
+        <v>446.50000000015768</v>
       </c>
       <c r="L2">
-        <v>1078.1542983690113</v>
+        <v>1081.3532048417185</v>
       </c>
       <c r="M2">
-        <v>638.70388532631705</v>
+        <v>638.70388532645052</v>
       </c>
       <c r="N2">
-        <v>7136.9196675898656</v>
+        <v>7143.4705882348844</v>
       </c>
       <c r="O2">
-        <v>6017.3727630532958</v>
+        <v>6016.368595933528</v>
       </c>
       <c r="P2">
-        <v>3587.4872887619699</v>
+        <v>3582.4082462311985</v>
       </c>
       <c r="Q2">
-        <v>9302.0045510080745</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>43435</v>
-      </c>
-      <c r="B3">
-        <v>130.77748643758625</v>
-      </c>
-      <c r="C3">
-        <v>658.28523741337312</v>
-      </c>
-      <c r="D3">
-        <v>4874.1138750835362</v>
-      </c>
-      <c r="E3">
-        <v>65.988396694016473</v>
-      </c>
-      <c r="F3">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G3">
-        <v>7438.3883520680574</v>
-      </c>
-      <c r="H3">
-        <v>6751.764988009656</v>
-      </c>
-      <c r="I3">
-        <v>6027.4037297665109</v>
-      </c>
-      <c r="J3">
-        <v>6483.5344336287926</v>
-      </c>
-      <c r="K3">
-        <v>446.50000000010533</v>
-      </c>
-      <c r="L3">
-        <v>1081.4017677628788</v>
-      </c>
-      <c r="M3">
-        <v>638.70388532632194</v>
-      </c>
-      <c r="N3">
-        <v>7136.9196675898656</v>
-      </c>
-      <c r="O3">
-        <v>6019.1262249272877</v>
-      </c>
-      <c r="P3">
-        <v>3583.6478048295658</v>
-      </c>
-      <c r="Q3">
-        <v>9300.9329421643197</v>
+        <v>9301.4637394082747</v>
       </c>
     </row>
   </sheetData>
@@ -6356,7 +4498,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6414,108 +4556,55 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B2">
-        <v>132.58653296262239</v>
+        <v>131.09140202415088</v>
       </c>
       <c r="C2">
-        <v>640.02554490644889</v>
+        <v>659.67601591900575</v>
       </c>
       <c r="D2">
-        <v>4901.4539836908734</v>
+        <v>4864.2671707330574</v>
       </c>
       <c r="E2">
-        <v>68.012996800661085</v>
+        <v>61.856079891173479</v>
       </c>
       <c r="F2">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G2">
-        <v>7438.2294218550351</v>
+        <v>7438.2819588281036</v>
       </c>
       <c r="H2">
-        <v>6751.764988009656</v>
+        <v>6742.9990702171754</v>
       </c>
       <c r="I2">
-        <v>6028.5962768755389</v>
+        <v>6027.6117207103853</v>
       </c>
       <c r="J2">
-        <v>6488.5299464689215</v>
+        <v>6483.2624525541769</v>
       </c>
       <c r="K2">
-        <v>447.50000000015274</v>
+        <v>446.50000000015768</v>
       </c>
       <c r="L2">
-        <v>1078.0071590230607</v>
+        <v>1081.6583250343442</v>
       </c>
       <c r="M2">
-        <v>638.70388532631705</v>
+        <v>638.70388532645052</v>
       </c>
       <c r="N2">
-        <v>7136.9196675898656</v>
+        <v>7143.4705882348844</v>
       </c>
       <c r="O2">
-        <v>6017.3498522079217</v>
+        <v>6016.2300388397407</v>
       </c>
       <c r="P2">
-        <v>3587.5147907350879</v>
+        <v>3582.2345394573317</v>
       </c>
       <c r="Q2">
-        <v>9301.9176580116873</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>43435</v>
-      </c>
-      <c r="B3">
-        <v>130.38017968138465</v>
-      </c>
-      <c r="C3">
-        <v>657.80049851784327</v>
-      </c>
-      <c r="D3">
-        <v>4871.3466086465323</v>
-      </c>
-      <c r="E3">
-        <v>65.827396694016471</v>
-      </c>
-      <c r="F3">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G3">
-        <v>7438.2733817612716</v>
-      </c>
-      <c r="H3">
-        <v>6751.764988009656</v>
-      </c>
-      <c r="I3">
-        <v>6027.1401099404402</v>
-      </c>
-      <c r="J3">
-        <v>6483.4273037125286</v>
-      </c>
-      <c r="K3">
-        <v>446.50000000010533</v>
-      </c>
-      <c r="L3">
-        <v>1081.3122418945889</v>
-      </c>
-      <c r="M3">
-        <v>638.70388532632194</v>
-      </c>
-      <c r="N3">
-        <v>7136.9196675898656</v>
-      </c>
-      <c r="O3">
-        <v>6016.2203435326719</v>
-      </c>
-      <c r="P3">
-        <v>3583.2517435270006</v>
-      </c>
-      <c r="Q3">
-        <v>9300.7581122100582</v>
+        <v>9301.4637394082747</v>
       </c>
     </row>
   </sheetData>

--- a/Output Data/MtomToCrss_Monthly.xlsx
+++ b/Output Data/MtomToCrss_Monthly.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D_Drive\Modeling\MTOM_Production\_DEC18_Post-MTOM-dev\Output Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\MTOM\dev\Output Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12840" windowHeight="13530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="4245" windowHeight="8535"/>
   </bookViews>
   <sheets>
     <sheet name="Trace38" sheetId="37" r:id="rId1"/>

--- a/Output Data/MtomToCrss_Monthly.xlsx
+++ b/Output Data/MtomToCrss_Monthly.xlsx
@@ -814,7 +814,7 @@
         <v>128.92964617182901</v>
       </c>
       <c r="C2">
-        <v>738.42895729288978</v>
+        <v>738.42902516011827</v>
       </c>
       <c r="D2">
         <v>4995.667609127855</v>
@@ -841,10 +841,10 @@
         <v>448.01136248050449</v>
       </c>
       <c r="L2">
-        <v>1095.7674356205393</v>
+        <v>1095.7674475075937</v>
       </c>
       <c r="M2">
-        <v>642.99985740391708</v>
+        <v>642.99981670214788</v>
       </c>
       <c r="N2">
         <v>7153.7270248759933</v>
@@ -867,7 +867,7 @@
         <v>126.68657233218961</v>
       </c>
       <c r="C3">
-        <v>711.97111724390811</v>
+        <v>711.97118498937118</v>
       </c>
       <c r="D3">
         <v>5037.7157916002898</v>
@@ -894,10 +894,10 @@
         <v>448.49999999931407</v>
       </c>
       <c r="L3">
-        <v>1091.1135485865627</v>
+        <v>1091.1135605966801</v>
       </c>
       <c r="M3">
-        <v>642.99990540406293</v>
+        <v>642.99981670213811</v>
       </c>
       <c r="N3">
         <v>7153.7299999998104</v>
@@ -920,7 +920,7 @@
         <v>126.69579172903344</v>
       </c>
       <c r="C4">
-        <v>689.33478349359461</v>
+        <v>689.33485109071023</v>
       </c>
       <c r="D4">
         <v>5080.485286274341</v>
@@ -947,10 +947,10 @@
         <v>448.69999999960066</v>
       </c>
       <c r="L4">
-        <v>1087.065953473395</v>
+        <v>1087.0659656508624</v>
       </c>
       <c r="M4">
-        <v>642.99990477156177</v>
+        <v>642.99981670213811</v>
       </c>
       <c r="N4">
         <v>7153.7246089077908</v>
@@ -973,7 +973,7 @@
         <v>126.98841677025062</v>
       </c>
       <c r="C5">
-        <v>680.55044331930651</v>
+        <v>680.55051072769095</v>
       </c>
       <c r="D5">
         <v>5068.3694178355126</v>
@@ -1000,10 +1000,10 @@
         <v>447.99999999997851</v>
       </c>
       <c r="L5">
-        <v>1085.4770750972398</v>
+        <v>1085.4770873439588</v>
       </c>
       <c r="M5">
-        <v>641.99713259811324</v>
+        <v>641.99704448085447</v>
       </c>
       <c r="N5">
         <v>7153.7299999999987</v>
@@ -1026,7 +1026,7 @@
         <v>126.64975182597139</v>
       </c>
       <c r="C6">
-        <v>679.23466539620904</v>
+        <v>679.23473260053925</v>
       </c>
       <c r="D6">
         <v>5037.4133386285048</v>
@@ -1053,10 +1053,10 @@
         <v>447.50000000180552</v>
       </c>
       <c r="L6">
-        <v>1085.238025628686</v>
+        <v>1085.2380378383325</v>
       </c>
       <c r="M6">
-        <v>641.99713202228259</v>
+        <v>641.99704448068405</v>
       </c>
       <c r="N6">
         <v>7153.7299999999987</v>
@@ -1079,7 +1079,7 @@
         <v>125.82715439318606</v>
       </c>
       <c r="C7">
-        <v>670.59672444534351</v>
+        <v>670.59679148153407</v>
       </c>
       <c r="D7">
         <v>5017.7335509659815</v>
@@ -1106,10 +1106,10 @@
         <v>447.49999999998676</v>
       </c>
       <c r="L7">
-        <v>1083.6636715646878</v>
+        <v>1083.6636838190379</v>
       </c>
       <c r="M7">
-        <v>640.00761692784238</v>
+        <v>640.00753110685321</v>
       </c>
       <c r="N7">
         <v>7153.7262225311251</v>
@@ -1132,7 +1132,7 @@
         <v>125.08248522450023</v>
       </c>
       <c r="C8">
-        <v>673.16435792731181</v>
+        <v>673.16442484226638</v>
       </c>
       <c r="D8">
         <v>4998.0592529938804</v>
@@ -1159,10 +1159,10 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L8">
-        <v>1084.1327555120172</v>
+        <v>1084.1327677180989</v>
       </c>
       <c r="M8">
-        <v>632.99742167844772</v>
+        <v>632.99732935379745</v>
       </c>
       <c r="N8">
         <v>7153.7300000000805</v>
@@ -1185,7 +1185,7 @@
         <v>124.51183386374368</v>
       </c>
       <c r="C9">
-        <v>664.02210206918869</v>
+        <v>664.0278690857574</v>
       </c>
       <c r="D9">
         <v>4980.6895408549108</v>
@@ -1212,10 +1212,10 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L9">
-        <v>1082.4584707963372</v>
+        <v>1082.4595315727565</v>
       </c>
       <c r="M9">
-        <v>634.99509315017906</v>
+        <v>634.99500232439834</v>
       </c>
       <c r="N9">
         <v>7153.7290312053328</v>
@@ -1238,7 +1238,7 @@
         <v>123.76070570240492</v>
       </c>
       <c r="C10">
-        <v>670.4396805214609</v>
+        <v>670.45113947648088</v>
       </c>
       <c r="D10">
         <v>4953.0822838439271</v>
@@ -1265,10 +1265,10 @@
         <v>446.50000000010687</v>
       </c>
       <c r="L10">
-        <v>1083.6349629532315</v>
+        <v>1083.6370576731833</v>
       </c>
       <c r="M10">
-        <v>639.50570857236914</v>
+        <v>639.50562092495261</v>
       </c>
       <c r="N10">
         <v>7153.7300000000005</v>
@@ -1350,7 +1350,7 @@
         <v>130.06565210482239</v>
       </c>
       <c r="C2">
-        <v>743.00877571051831</v>
+        <v>743.00884357528105</v>
       </c>
       <c r="D2">
         <v>4992.2929205590972</v>
@@ -1377,10 +1377,10 @@
         <v>448.01136248050437</v>
       </c>
       <c r="L2">
-        <v>1096.5684329324929</v>
+        <v>1096.5684447770427</v>
       </c>
       <c r="M2">
-        <v>642.99985740391708</v>
+        <v>642.99981670214788</v>
       </c>
       <c r="N2">
         <v>7153.7270248759933</v>
@@ -1403,7 +1403,7 @@
         <v>135.53474819778629</v>
       </c>
       <c r="C3">
-        <v>718.61965920088926</v>
+        <v>718.61972694169208</v>
       </c>
       <c r="D3">
         <v>5057.6831235977625</v>
@@ -1430,10 +1430,10 @@
         <v>448.49999999931407</v>
       </c>
       <c r="L3">
-        <v>1092.2899818237033</v>
+        <v>1092.2899937833806</v>
       </c>
       <c r="M3">
-        <v>642.99990540406293</v>
+        <v>642.99981670213811</v>
       </c>
       <c r="N3">
         <v>7153.7299999998104</v>
@@ -1456,7 +1456,7 @@
         <v>133.87599401514882</v>
       </c>
       <c r="C4">
-        <v>701.3081221625971</v>
+        <v>701.30818975597606</v>
       </c>
       <c r="D4">
         <v>5100.6813266511963</v>
@@ -1483,10 +1483,10 @@
         <v>448.69999999960066</v>
       </c>
       <c r="L4">
-        <v>1089.2151876099965</v>
+        <v>1089.2151996877924</v>
       </c>
       <c r="M4">
-        <v>642.99990477156177</v>
+        <v>642.99981670213811</v>
       </c>
       <c r="N4">
         <v>7153.7246089077908</v>
@@ -1509,7 +1509,7 @@
         <v>131.30107208625566</v>
       </c>
       <c r="C5">
-        <v>695.00206437776285</v>
+        <v>695.00213178376839</v>
       </c>
       <c r="D5">
         <v>5081.3413513306186</v>
@@ -1536,10 +1536,10 @@
         <v>447.99999999997851</v>
       </c>
       <c r="L5">
-        <v>1088.0856236376158</v>
+        <v>1088.0856357325019</v>
       </c>
       <c r="M5">
-        <v>641.99713259811324</v>
+        <v>641.99704448085447</v>
       </c>
       <c r="N5">
         <v>7153.7299999999987</v>
@@ -1562,7 +1562,7 @@
         <v>129.38590212280437</v>
       </c>
       <c r="C6">
-        <v>699.2488121559519</v>
+        <v>699.24887936060873</v>
       </c>
       <c r="D6">
         <v>5054.4396582030959</v>
@@ -1589,10 +1589,10 @@
         <v>447.50000000180552</v>
       </c>
       <c r="L6">
-        <v>1088.8469024764247</v>
+        <v>1088.8469145099198</v>
       </c>
       <c r="M6">
-        <v>641.99713202228259</v>
+        <v>641.99704448068417</v>
       </c>
       <c r="N6">
         <v>7153.7299999999987</v>
@@ -1615,7 +1615,7 @@
         <v>127.8967117292049</v>
       </c>
       <c r="C7">
-        <v>691.25093171403728</v>
+        <v>691.25099875347189</v>
       </c>
       <c r="D7">
         <v>5039.2007506639939</v>
@@ -1642,10 +1642,10 @@
         <v>447.49999999998676</v>
       </c>
       <c r="L7">
-        <v>1087.4111420974657</v>
+        <v>1087.4111541744683</v>
       </c>
       <c r="M7">
-        <v>640.00761692784238</v>
+        <v>640.00753110685321</v>
       </c>
       <c r="N7">
         <v>7153.7262225311251</v>
@@ -1668,7 +1668,7 @@
         <v>126.80899457543627</v>
       </c>
       <c r="C8">
-        <v>699.24338204892456</v>
+        <v>699.24344896948276</v>
       </c>
       <c r="D8">
         <v>5021.3512522216142</v>
@@ -1695,10 +1695,10 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L8">
-        <v>1088.8459301711555</v>
+        <v>1088.8459421537807</v>
       </c>
       <c r="M8">
-        <v>632.99742167844772</v>
+        <v>632.99732935379745</v>
       </c>
       <c r="N8">
         <v>7153.7300000000805</v>
@@ -1721,7 +1721,7 @@
         <v>125.9877994093665</v>
       </c>
       <c r="C9">
-        <v>695.94664298294015</v>
+        <v>695.95241014226258</v>
       </c>
       <c r="D9">
         <v>5012.3917115359927</v>
@@ -1748,10 +1748,10 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L9">
-        <v>1088.25511225992</v>
+        <v>1088.256147079275</v>
       </c>
       <c r="M9">
-        <v>634.99509315017906</v>
+        <v>634.99500232439834</v>
       </c>
       <c r="N9">
         <v>7153.7290312053328</v>
@@ -1774,7 +1774,7 @@
         <v>125.35506805258323</v>
       </c>
       <c r="C10">
-        <v>701.14950578322976</v>
+        <v>701.16096520050939</v>
       </c>
       <c r="D10">
         <v>4990.1397966908789</v>
@@ -1801,10 +1801,10 @@
         <v>446.50000000010687</v>
       </c>
       <c r="L10">
-        <v>1089.186843936227</v>
+        <v>1089.188891537799</v>
       </c>
       <c r="M10">
-        <v>639.50570857236914</v>
+        <v>639.50562092495261</v>
       </c>
       <c r="N10">
         <v>7153.7300000000005</v>
@@ -1886,7 +1886,7 @@
         <v>130.61297180874678</v>
       </c>
       <c r="C2">
-        <v>745.59021709696719</v>
+        <v>745.59028496582107</v>
       </c>
       <c r="D2">
         <v>5002.5434764086267</v>
@@ -1913,10 +1913,10 @@
         <v>448.01136248050449</v>
       </c>
       <c r="L2">
-        <v>1097.0189387979003</v>
+        <v>1097.018950619828</v>
       </c>
       <c r="M2">
-        <v>642.99985740391708</v>
+        <v>642.99981670214788</v>
       </c>
       <c r="N2">
         <v>7153.7270248759933</v>
@@ -1939,7 +1939,7 @@
         <v>133.55053591811679</v>
       </c>
       <c r="C3">
-        <v>721.86883104832418</v>
+        <v>721.86889879765033</v>
       </c>
       <c r="D3">
         <v>5038.1940391939288</v>
@@ -1966,10 +1966,10 @@
         <v>448.49999999931407</v>
       </c>
       <c r="L3">
-        <v>1092.8629585306194</v>
+        <v>1092.8629704698797</v>
       </c>
       <c r="M3">
-        <v>642.99990540406293</v>
+        <v>642.99981670213811</v>
       </c>
       <c r="N3">
         <v>7153.7299999998104</v>
@@ -1992,7 +1992,7 @@
         <v>127.27603977793412</v>
       </c>
       <c r="C4">
-        <v>701.50233558346611</v>
+        <v>701.50240318501915</v>
       </c>
       <c r="D4">
         <v>5133.6087741711071</v>
@@ -2019,10 +2019,10 @@
         <v>448.69999999960066</v>
       </c>
       <c r="L4">
-        <v>1089.2498902691802</v>
+        <v>1089.249902348437</v>
       </c>
       <c r="M4">
-        <v>642.99990477156177</v>
+        <v>642.99981670213811</v>
       </c>
       <c r="N4">
         <v>7153.7246089077908</v>
@@ -2045,7 +2045,7 @@
         <v>125.22446569535445</v>
       </c>
       <c r="C5">
-        <v>691.44562952173703</v>
+        <v>691.44569693611277</v>
       </c>
       <c r="D5">
         <v>5124.7847240006558</v>
@@ -2072,10 +2072,10 @@
         <v>447.99999999997851</v>
       </c>
       <c r="L5">
-        <v>1087.446217601243</v>
+        <v>1087.4462297457903</v>
       </c>
       <c r="M5">
-        <v>641.99713259811324</v>
+        <v>641.99704448085447</v>
       </c>
       <c r="N5">
         <v>7153.7299999999987</v>
@@ -2098,7 +2098,7 @@
         <v>123.17968842907396</v>
       </c>
       <c r="C6">
-        <v>694.89862162189706</v>
+        <v>694.89868883492352</v>
       </c>
       <c r="D6">
         <v>5094.0661294189049</v>
@@ -2125,10 +2125,10 @@
         <v>447.50000000180552</v>
       </c>
       <c r="L6">
-        <v>1088.0670616332259</v>
+        <v>1088.0670736934856</v>
       </c>
       <c r="M6">
-        <v>641.99713202228259</v>
+        <v>641.99704448068417</v>
       </c>
       <c r="N6">
         <v>7153.7299999999987</v>
@@ -2151,7 +2151,7 @@
         <v>122.32377811308851</v>
       </c>
       <c r="C7">
-        <v>686.9465097025427</v>
+        <v>686.94657674946654</v>
       </c>
       <c r="D7">
         <v>5080.2854817378065</v>
@@ -2175,13 +2175,13 @@
         <v>6497.6325682620563</v>
       </c>
       <c r="K7">
-        <v>447.49999999998681</v>
+        <v>447.49999999998676</v>
       </c>
       <c r="L7">
-        <v>1086.6349409753288</v>
+        <v>1086.6349530791922</v>
       </c>
       <c r="M7">
-        <v>640.00761692784238</v>
+        <v>640.00753110685321</v>
       </c>
       <c r="N7">
         <v>7153.7262225311251</v>
@@ -2204,7 +2204,7 @@
         <v>121.69297158741252</v>
       </c>
       <c r="C8">
-        <v>695.24031400166143</v>
+        <v>695.2403809290696</v>
       </c>
       <c r="D8">
         <v>5062.5219717178779</v>
@@ -2231,10 +2231,10 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L8">
-        <v>1088.1283726425806</v>
+        <v>1088.1283846515907</v>
       </c>
       <c r="M8">
-        <v>632.99742167844772</v>
+        <v>632.99732935379745</v>
       </c>
       <c r="N8">
         <v>7153.7300000000805</v>
@@ -2257,7 +2257,7 @@
         <v>121.43834386612819</v>
       </c>
       <c r="C9">
-        <v>687.27264047008725</v>
+        <v>687.27840759732214</v>
       </c>
       <c r="D9">
         <v>5042.6606846366312</v>
@@ -2284,10 +2284,10 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L9">
-        <v>1086.6938167892074</v>
+        <v>1086.694857918545</v>
       </c>
       <c r="M9">
-        <v>634.99509315017906</v>
+        <v>634.99500232439834</v>
       </c>
       <c r="N9">
         <v>7153.7290312053328</v>
@@ -2310,7 +2310,7 @@
         <v>121.12775499522004</v>
       </c>
       <c r="C10">
-        <v>692.82826893658091</v>
+        <v>692.83972823224747</v>
       </c>
       <c r="D10">
         <v>5020.1828009468636</v>
@@ -2337,10 +2337,10 @@
         <v>446.50000000010687</v>
       </c>
       <c r="L10">
-        <v>1087.6949308252927</v>
+        <v>1087.6969913310409</v>
       </c>
       <c r="M10">
-        <v>639.50570857236914</v>
+        <v>639.50562092495261</v>
       </c>
       <c r="N10">
         <v>7153.7300000000005</v>
@@ -2422,7 +2422,7 @@
         <v>130.88125007202132</v>
       </c>
       <c r="C2">
-        <v>741.60939051408661</v>
+        <v>741.60945838707391</v>
       </c>
       <c r="D2">
         <v>5009.706021706219</v>
@@ -2449,10 +2449,10 @@
         <v>448.01136248050437</v>
       </c>
       <c r="L2">
-        <v>1096.3238962408359</v>
+        <v>1096.3239081070133</v>
       </c>
       <c r="M2">
-        <v>642.99985740391708</v>
+        <v>642.99981670214788</v>
       </c>
       <c r="N2">
         <v>7153.7270248759933</v>
@@ -2475,7 +2475,7 @@
         <v>131.10475917534015</v>
       </c>
       <c r="C3">
-        <v>712.45475624464643</v>
+        <v>712.4548240024925</v>
       </c>
       <c r="D3">
         <v>5048.2003078188081</v>
@@ -2502,10 +2502,10 @@
         <v>448.49999999931407</v>
       </c>
       <c r="L3">
-        <v>1091.1992895491121</v>
+        <v>1091.199301561425</v>
       </c>
       <c r="M3">
-        <v>642.99990540406293</v>
+        <v>642.99981670213811</v>
       </c>
       <c r="N3">
         <v>7153.7299999998104</v>
@@ -2528,7 +2528,7 @@
         <v>131.02880497776286</v>
       </c>
       <c r="C4">
-        <v>690.66626838215973</v>
+        <v>690.66633599163094</v>
       </c>
       <c r="D4">
         <v>5073.2692995952521</v>
@@ -2555,10 +2555,10 @@
         <v>448.69999999960066</v>
       </c>
       <c r="L4">
-        <v>1087.3058174643363</v>
+        <v>1087.3058296440295</v>
       </c>
       <c r="M4">
-        <v>642.99990477156177</v>
+        <v>642.99981670213811</v>
       </c>
       <c r="N4">
         <v>7153.7246089077908</v>
@@ -2581,7 +2581,7 @@
         <v>129.80191078742277</v>
       </c>
       <c r="C5">
-        <v>686.59868576818178</v>
+        <v>686.59875318948843</v>
       </c>
       <c r="D5">
         <v>5053.2588643504632</v>
@@ -2608,10 +2608,10 @@
         <v>447.99999999997851</v>
       </c>
       <c r="L5">
-        <v>1086.572150951677</v>
+        <v>1086.572163123127</v>
       </c>
       <c r="M5">
-        <v>641.99713259811324</v>
+        <v>641.99704448085447</v>
       </c>
       <c r="N5">
         <v>7153.7299999999987</v>
@@ -2634,7 +2634,7 @@
         <v>128.63405261190354</v>
       </c>
       <c r="C6">
-        <v>688.43045009050616</v>
+        <v>688.43051730899663</v>
       </c>
       <c r="D6">
         <v>5026.9510051421785</v>
@@ -2661,10 +2661,10 @@
         <v>447.50000000180552</v>
       </c>
       <c r="L6">
-        <v>1086.9028356528097</v>
+        <v>1086.9028477876457</v>
       </c>
       <c r="M6">
-        <v>641.99713202228259</v>
+        <v>641.99704448068405</v>
       </c>
       <c r="N6">
         <v>7153.7299999999987</v>
@@ -2687,7 +2687,7 @@
         <v>127.91222559078122</v>
       </c>
       <c r="C7">
-        <v>681.82282275877469</v>
+        <v>681.82288981032116</v>
       </c>
       <c r="D7">
         <v>5005.0195056467264</v>
@@ -2711,13 +2711,13 @@
         <v>6499.798361739654</v>
       </c>
       <c r="K7">
-        <v>447.49999999998681</v>
+        <v>447.49999999998676</v>
       </c>
       <c r="L7">
-        <v>1085.7077502365253</v>
+        <v>1085.7077623897105</v>
       </c>
       <c r="M7">
-        <v>640.00761692784238</v>
+        <v>640.00753110685321</v>
       </c>
       <c r="N7">
         <v>7153.7262225311251</v>
@@ -2740,7 +2740,7 @@
         <v>126.76517620712285</v>
       </c>
       <c r="C8">
-        <v>686.08413200242353</v>
+        <v>686.08419893371718</v>
       </c>
       <c r="D8">
         <v>4985.039608072575</v>
@@ -2767,10 +2767,10 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L8">
-        <v>1086.4792139764545</v>
+        <v>1086.4792260850188</v>
       </c>
       <c r="M8">
-        <v>632.99742167844784</v>
+        <v>632.99732935379745</v>
       </c>
       <c r="N8">
         <v>7153.7300000000805</v>
@@ -2793,7 +2793,7 @@
         <v>125.84458176150837</v>
       </c>
       <c r="C9">
-        <v>675.185560784941</v>
+        <v>675.19132787292835</v>
       </c>
       <c r="D9">
         <v>4963.9775193034147</v>
@@ -2820,10 +2820,10 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L9">
-        <v>1084.501443627961</v>
+        <v>1084.5024933728553</v>
       </c>
       <c r="M9">
-        <v>634.99509315017906</v>
+        <v>634.99500232439834</v>
       </c>
       <c r="N9">
         <v>7153.7290312053328</v>
@@ -2846,7 +2846,7 @@
         <v>125.06899345891412</v>
       </c>
       <c r="C10">
-        <v>682.47459732632399</v>
+        <v>682.48605647558486</v>
       </c>
       <c r="D10">
         <v>4936.9528584020081</v>
@@ -2873,10 +2873,10 @@
         <v>446.50000000010687</v>
       </c>
       <c r="L10">
-        <v>1085.825884176593</v>
+        <v>1085.8279611631547</v>
       </c>
       <c r="M10">
-        <v>639.50570857236914</v>
+        <v>639.50562092495261</v>
       </c>
       <c r="N10">
         <v>7153.7300000000005</v>
@@ -2958,7 +2958,7 @@
         <v>130.84084880325923</v>
       </c>
       <c r="C2">
-        <v>738.91785120828467</v>
+        <v>738.91791907551305</v>
       </c>
       <c r="D2">
         <v>5010.3795348855974</v>
@@ -2985,10 +2985,10 @@
         <v>448.01136248050449</v>
       </c>
       <c r="L2">
-        <v>1095.8530661764826</v>
+        <v>1095.8530780635369</v>
       </c>
       <c r="M2">
-        <v>642.99985740391708</v>
+        <v>642.99981670214788</v>
       </c>
       <c r="N2">
         <v>7153.7270248759933</v>
@@ -3011,7 +3011,7 @@
         <v>131.02845546678859</v>
       </c>
       <c r="C3">
-        <v>712.1625810697409</v>
+        <v>712.16264881520408</v>
       </c>
       <c r="D3">
         <v>5046.1038053954589</v>
@@ -3038,10 +3038,10 @@
         <v>448.49999999931407</v>
       </c>
       <c r="L3">
-        <v>1091.1474918634517</v>
+        <v>1091.1475038735691</v>
       </c>
       <c r="M3">
-        <v>642.99990540406293</v>
+        <v>642.99981670213811</v>
       </c>
       <c r="N3">
         <v>7153.7299999998104</v>
@@ -3064,7 +3064,7 @@
         <v>131.72132936035524</v>
       </c>
       <c r="C4">
-        <v>695.18555708642441</v>
+        <v>695.18562468336438</v>
       </c>
       <c r="D4">
         <v>5144.8516993463218</v>
@@ -3091,10 +3091,10 @@
         <v>448.69999999960066</v>
       </c>
       <c r="L4">
-        <v>1088.1185483573195</v>
+        <v>1088.1185604864659</v>
       </c>
       <c r="M4">
-        <v>642.99990477156177</v>
+        <v>642.99981670213811</v>
       </c>
       <c r="N4">
         <v>7153.7246089077908</v>
@@ -3117,7 +3117,7 @@
         <v>133.33214998818377</v>
       </c>
       <c r="C5">
-        <v>688.27386712546763</v>
+        <v>688.27393453405887</v>
       </c>
       <c r="D5">
         <v>5149.5102128512335</v>
@@ -3144,10 +3144,10 @@
         <v>447.99999999997851</v>
       </c>
       <c r="L5">
-        <v>1086.8745674090032</v>
+        <v>1086.8745795781579</v>
       </c>
       <c r="M5">
-        <v>641.99713259811324</v>
+        <v>641.99704448085447</v>
       </c>
       <c r="N5">
         <v>7153.7299999999987</v>
@@ -3170,7 +3170,7 @@
         <v>132.66002278788909</v>
       </c>
       <c r="C6">
-        <v>691.04055055481558</v>
+        <v>691.04061776146602</v>
       </c>
       <c r="D6">
         <v>5126.3247430692099</v>
@@ -3197,10 +3197,10 @@
         <v>447.50000000180552</v>
       </c>
       <c r="L6">
-        <v>1087.3732428070139</v>
+        <v>1087.37325491414</v>
       </c>
       <c r="M6">
-        <v>641.99713202228259</v>
+        <v>641.99704448068405</v>
       </c>
       <c r="N6">
         <v>7153.7299999999987</v>
@@ -3223,7 +3223,7 @@
         <v>130.62614304427797</v>
       </c>
       <c r="C7">
-        <v>691.79008922689559</v>
+        <v>691.79015626797604</v>
       </c>
       <c r="D7">
         <v>5115.930255062226</v>
@@ -3250,10 +3250,10 @@
         <v>447.49999999998676</v>
       </c>
       <c r="L7">
-        <v>1087.5082548406563</v>
+        <v>1087.5082668953703</v>
       </c>
       <c r="M7">
-        <v>640.00761692784238</v>
+        <v>640.00753110685321</v>
       </c>
       <c r="N7">
         <v>7153.7262225311251</v>
@@ -3276,7 +3276,7 @@
         <v>129.27944980296883</v>
       </c>
       <c r="C8">
-        <v>694.35389966219395</v>
+        <v>694.35396658388174</v>
       </c>
       <c r="D8">
         <v>5107.3979612221192</v>
@@ -3303,10 +3303,10 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L8">
-        <v>1087.96925513318</v>
+        <v>1087.9692671664261</v>
       </c>
       <c r="M8">
-        <v>632.99742167844772</v>
+        <v>632.99732935379745</v>
       </c>
       <c r="N8">
         <v>7153.7300000000805</v>
@@ -3329,7 +3329,7 @@
         <v>128.15042931904998</v>
       </c>
       <c r="C9">
-        <v>685.91929687749462</v>
+        <v>685.92506398799753</v>
       </c>
       <c r="D9">
         <v>5101.2377797672134</v>
@@ -3356,10 +3356,10 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L9">
-        <v>1086.4493924975866</v>
+        <v>1086.4504358276035</v>
       </c>
       <c r="M9">
-        <v>634.99509315017906</v>
+        <v>634.99500232439834</v>
       </c>
       <c r="N9">
         <v>7153.7290312053328</v>
@@ -3382,7 +3382,7 @@
         <v>127.15335493476161</v>
       </c>
       <c r="C10">
-        <v>691.40539123570613</v>
+        <v>691.4168505441877</v>
       </c>
       <c r="D10">
         <v>5085.6808363792879</v>
@@ -3409,10 +3409,10 @@
         <v>446.50000000010687</v>
       </c>
       <c r="L10">
-        <v>1087.4389671780825</v>
+        <v>1087.4410315465741</v>
       </c>
       <c r="M10">
-        <v>639.50570857236914</v>
+        <v>639.50562092495261</v>
       </c>
       <c r="N10">
         <v>7153.7300000000005</v>
@@ -3494,7 +3494,7 @@
         <v>130.99565003001427</v>
       </c>
       <c r="C2">
-        <v>743.54756909527509</v>
+        <v>743.54763696003772</v>
       </c>
       <c r="D2">
         <v>4994.7651097671969</v>
@@ -3521,10 +3521,10 @@
         <v>448.01136248050449</v>
       </c>
       <c r="L2">
-        <v>1096.6624694359391</v>
+        <v>1096.6624812804885</v>
       </c>
       <c r="M2">
-        <v>642.99985740391708</v>
+        <v>642.99981670214788</v>
       </c>
       <c r="N2">
         <v>7153.7270248759933</v>
@@ -3547,7 +3547,7 @@
         <v>129.80134396007128</v>
       </c>
       <c r="C3">
-        <v>717.75281965302236</v>
+        <v>717.75288739382484</v>
       </c>
       <c r="D3">
         <v>5018.2168195649674</v>
@@ -3574,10 +3574,10 @@
         <v>448.49999999931407</v>
       </c>
       <c r="L3">
-        <v>1092.1369408063424</v>
+        <v>1092.1369527660197</v>
       </c>
       <c r="M3">
-        <v>642.99990540406293</v>
+        <v>642.99981670213811</v>
       </c>
       <c r="N3">
         <v>7153.7299999998104</v>
@@ -3600,7 +3600,7 @@
         <v>132.6880654442505</v>
       </c>
       <c r="C4">
-        <v>699.33735071178808</v>
+        <v>699.33741830500981</v>
       </c>
       <c r="D4">
         <v>5131.8278934026157</v>
@@ -3627,10 +3627,10 @@
         <v>448.69999999960066</v>
       </c>
       <c r="L4">
-        <v>1088.8627570966291</v>
+        <v>1088.8627691996994</v>
       </c>
       <c r="M4">
-        <v>642.99990477156177</v>
+        <v>642.99981670213811</v>
       </c>
       <c r="N4">
         <v>7153.7246089077908</v>
@@ -3653,7 +3653,7 @@
         <v>134.50770491126127</v>
       </c>
       <c r="C5">
-        <v>687.26782871057162</v>
+        <v>687.26789611565221</v>
       </c>
       <c r="D5">
         <v>5138.2431749886491</v>
@@ -3680,10 +3680,10 @@
         <v>447.99999999997851</v>
       </c>
       <c r="L5">
-        <v>1086.6929490577534</v>
+        <v>1086.6929612262741</v>
       </c>
       <c r="M5">
-        <v>641.99713259811324</v>
+        <v>641.99704448085447</v>
       </c>
       <c r="N5">
         <v>7153.7299999999987</v>
@@ -3706,7 +3706,7 @@
         <v>133.57504181121965</v>
       </c>
       <c r="C6">
-        <v>688.0255166012372</v>
+        <v>688.02558380354969</v>
       </c>
       <c r="D6">
         <v>5115.9999166598409</v>
@@ -3733,10 +3733,10 @@
         <v>447.50000000180552</v>
       </c>
       <c r="L6">
-        <v>1086.8297329172397</v>
+        <v>1086.829745049155</v>
       </c>
       <c r="M6">
-        <v>641.99713202228259</v>
+        <v>641.99704448068417</v>
       </c>
       <c r="N6">
         <v>7153.7299999999987</v>
@@ -3759,7 +3759,7 @@
         <v>131.5187991218931</v>
       </c>
       <c r="C7">
-        <v>681.48506326482777</v>
+        <v>681.48513030023582</v>
       </c>
       <c r="D7">
         <v>5106.9945201758974</v>
@@ -3786,10 +3786,10 @@
         <v>447.49999999998676</v>
       </c>
       <c r="L7">
-        <v>1085.6465300556983</v>
+        <v>1085.6465422059584</v>
       </c>
       <c r="M7">
-        <v>640.00761692784238</v>
+        <v>640.00753110685321</v>
       </c>
       <c r="N7">
         <v>7153.7262225311251</v>
@@ -3812,7 +3812,7 @@
         <v>129.68702783926909</v>
       </c>
       <c r="C8">
-        <v>683.84809714276071</v>
+        <v>683.84816405794504</v>
       </c>
       <c r="D8">
         <v>5092.7368646758569</v>
@@ -3839,10 +3839,10 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L8">
-        <v>1086.0746917933097</v>
+        <v>1086.0747038989596</v>
       </c>
       <c r="M8">
-        <v>632.99742167844772</v>
+        <v>632.99732935379745</v>
       </c>
       <c r="N8">
         <v>7153.7300000000805</v>
@@ -3865,7 +3865,7 @@
         <v>128.34548265464923</v>
       </c>
       <c r="C9">
-        <v>675.56572087175005</v>
+        <v>675.57148794365662</v>
       </c>
       <c r="D9">
         <v>5082.3325438920829</v>
@@ -3892,10 +3892,10 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L9">
-        <v>1084.5706413333926</v>
+        <v>1084.5716910753599</v>
       </c>
       <c r="M9">
-        <v>634.99509315017906</v>
+        <v>634.99500232439834</v>
       </c>
       <c r="N9">
         <v>7153.7290312053328</v>
@@ -3918,7 +3918,7 @@
         <v>127.02290892943277</v>
       </c>
       <c r="C10">
-        <v>684.14036107908225</v>
+        <v>684.15182022896033</v>
       </c>
       <c r="D10">
         <v>5066.2469922035079</v>
@@ -3945,10 +3945,10 @@
         <v>446.50000000010687</v>
       </c>
       <c r="L10">
-        <v>1086.1275653645239</v>
+        <v>1086.1296384434122</v>
       </c>
       <c r="M10">
-        <v>639.50570857236914</v>
+        <v>639.50562092495261</v>
       </c>
       <c r="N10">
         <v>7153.7300000000005</v>
@@ -4030,7 +4030,7 @@
         <v>130.54839128398621</v>
       </c>
       <c r="C2">
-        <v>746.08167069411058</v>
+        <v>746.08173856296469</v>
       </c>
       <c r="D2">
         <v>5007.3495380321983</v>
@@ -4057,10 +4057,10 @@
         <v>448.01136248050437</v>
       </c>
       <c r="L2">
-        <v>1097.1045440292205</v>
+        <v>1097.1045558511485</v>
       </c>
       <c r="M2">
-        <v>642.99985740391708</v>
+        <v>642.99981670214788</v>
       </c>
       <c r="N2">
         <v>7153.7270248759933</v>
@@ -4083,7 +4083,7 @@
         <v>135.27668854875697</v>
       </c>
       <c r="C3">
-        <v>723.62532436073309</v>
+        <v>723.62539211018554</v>
       </c>
       <c r="D3">
         <v>5090.1016354729509</v>
@@ -4110,10 +4110,10 @@
         <v>448.49999999931407</v>
       </c>
       <c r="L3">
-        <v>1093.1721451318476</v>
+        <v>1093.1721570465636</v>
       </c>
       <c r="M3">
-        <v>642.99990540406293</v>
+        <v>642.99981670213811</v>
       </c>
       <c r="N3">
         <v>7153.7299999998104</v>
@@ -4136,7 +4136,7 @@
         <v>125.67993147422406</v>
       </c>
       <c r="C4">
-        <v>701.10134226298385</v>
+        <v>701.1014098648152</v>
       </c>
       <c r="D4">
         <v>5148.7225109440924</v>
@@ -4163,10 +4163,10 @@
         <v>448.69999999960066</v>
       </c>
       <c r="L4">
-        <v>1089.1782395306095</v>
+        <v>1089.1782516099158</v>
       </c>
       <c r="M4">
-        <v>642.99990477156177</v>
+        <v>642.99981670213811</v>
       </c>
       <c r="N4">
         <v>7153.7246089077908</v>
@@ -4189,7 +4189,7 @@
         <v>123.69223275291603</v>
       </c>
       <c r="C5">
-        <v>694.99538389458939</v>
+        <v>694.99545130902391</v>
       </c>
       <c r="D5">
         <v>5132.78171587817</v>
@@ -4216,10 +4216,10 @@
         <v>447.99999999997851</v>
       </c>
       <c r="L5">
-        <v>1088.0844249345985</v>
+        <v>1088.0844370309974</v>
       </c>
       <c r="M5">
-        <v>641.99713259811324</v>
+        <v>641.99704448085447</v>
       </c>
       <c r="N5">
         <v>7153.7299999999987</v>
@@ -4242,7 +4242,7 @@
         <v>121.64026180594098</v>
       </c>
       <c r="C6">
-        <v>699.46024116763829</v>
+        <v>699.46030838069919</v>
       </c>
       <c r="D6">
         <v>5102.4726664967475</v>
@@ -4269,10 +4269,10 @@
         <v>447.50000000180552</v>
       </c>
       <c r="L6">
-        <v>1088.8847603583611</v>
+        <v>1088.8847723933611</v>
       </c>
       <c r="M6">
-        <v>641.99713202228259</v>
+        <v>641.99704448068405</v>
       </c>
       <c r="N6">
         <v>7153.7299999999987</v>
@@ -4295,7 +4295,7 @@
         <v>120.80500064189009</v>
       </c>
       <c r="C7">
-        <v>695.41716109640436</v>
+        <v>695.4172281440317</v>
       </c>
       <c r="D7">
         <v>5085.9779985177975</v>
@@ -4322,10 +4322,10 @@
         <v>447.49999999998681</v>
       </c>
       <c r="L7">
-        <v>1088.1601057040473</v>
+        <v>1088.1601177346288</v>
       </c>
       <c r="M7">
-        <v>640.00761692784238</v>
+        <v>640.00753110685321</v>
       </c>
       <c r="N7">
         <v>7153.7262225311251</v>
@@ -4348,7 +4348,7 @@
         <v>120.22777377666246</v>
       </c>
       <c r="C8">
-        <v>701.84692135272826</v>
+        <v>701.84698828144985</v>
       </c>
       <c r="D8">
         <v>5065.5285636446724</v>
@@ -4375,10 +4375,10 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L8">
-        <v>1089.3114617917067</v>
+        <v>1089.3114737507397</v>
       </c>
       <c r="M8">
-        <v>632.99742167844772</v>
+        <v>632.99732935379745</v>
       </c>
       <c r="N8">
         <v>7153.7300000000805</v>
@@ -4401,7 +4401,7 @@
         <v>120.04841614979814</v>
       </c>
       <c r="C9">
-        <v>693.37935773581967</v>
+        <v>693.38512488507172</v>
       </c>
       <c r="D9">
         <v>5046.685987230574</v>
@@ -4428,10 +4428,10 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L9">
-        <v>1087.7940233681959</v>
+        <v>1087.7950603642328</v>
       </c>
       <c r="M9">
-        <v>634.99509315017906</v>
+        <v>634.99500232439834</v>
       </c>
       <c r="N9">
         <v>7153.7290312053328</v>
@@ -4454,7 +4454,7 @@
         <v>119.74849222409105</v>
       </c>
       <c r="C10">
-        <v>704.57380580513041</v>
+        <v>704.58526521177487</v>
       </c>
       <c r="D10">
         <v>5024.0301007603994</v>
@@ -4481,10 +4481,10 @@
         <v>446.50000000010687</v>
       </c>
       <c r="L10">
-        <v>1089.798155950067</v>
+        <v>1089.8001997546032</v>
       </c>
       <c r="M10">
-        <v>639.50570857236914</v>
+        <v>639.50562092495261</v>
       </c>
       <c r="N10">
         <v>7153.7300000000005</v>
@@ -4566,7 +4566,7 @@
         <v>130.3231667038836</v>
       </c>
       <c r="C2">
-        <v>750.19345755536085</v>
+        <v>750.19352541943374</v>
       </c>
       <c r="D2">
         <v>4991.8086193693125</v>
@@ -4593,10 +4593,10 @@
         <v>448.01136248050437</v>
       </c>
       <c r="L2">
-        <v>1097.8201955119187</v>
+        <v>1097.820207311888</v>
       </c>
       <c r="M2">
-        <v>642.99985740391708</v>
+        <v>642.99981670214788</v>
       </c>
       <c r="N2">
         <v>7153.7270248759933</v>
@@ -4619,7 +4619,7 @@
         <v>134.44146273378649</v>
       </c>
       <c r="C3">
-        <v>728.75255645176503</v>
+        <v>728.75262419107014</v>
       </c>
       <c r="D3">
         <v>5048.2165224402697</v>
@@ -4646,10 +4646,10 @@
         <v>448.49999999931407</v>
       </c>
       <c r="L3">
-        <v>1094.0725330558405</v>
+        <v>1094.0725449226336</v>
       </c>
       <c r="M3">
-        <v>642.99990540406293</v>
+        <v>642.99981670213811</v>
       </c>
       <c r="N3">
         <v>7153.7299999998104</v>
@@ -4672,7 +4672,7 @@
         <v>134.41537427406001</v>
       </c>
       <c r="C4">
-        <v>706.75142490148494</v>
+        <v>706.75149249378956</v>
       </c>
       <c r="D4">
         <v>5180.5322622313579</v>
@@ -4699,10 +4699,10 @@
         <v>448.69999999960066</v>
       </c>
       <c r="L4">
-        <v>1090.1861077459475</v>
+        <v>1090.186119773246</v>
       </c>
       <c r="M4">
-        <v>642.99990477156177</v>
+        <v>642.99981670213811</v>
       </c>
       <c r="N4">
         <v>7153.7246089077908</v>
@@ -4725,7 +4725,7 @@
         <v>133.24745129268484</v>
       </c>
       <c r="C5">
-        <v>694.605324764133</v>
+        <v>694.60539216945756</v>
       </c>
       <c r="D5">
         <v>5197.0904395342486</v>
@@ -4752,10 +4752,10 @@
         <v>447.99999999997851</v>
       </c>
       <c r="L5">
-        <v>1088.0144364296361</v>
+        <v>1088.0144485243829</v>
       </c>
       <c r="M5">
-        <v>641.99713259811324</v>
+        <v>641.99704448085447</v>
       </c>
       <c r="N5">
         <v>7153.7299999999987</v>
@@ -4778,7 +4778,7 @@
         <v>134.21036855297066</v>
       </c>
       <c r="C6">
-        <v>695.51310147382333</v>
+        <v>695.51316867759328</v>
       </c>
       <c r="D6">
         <v>5173.6377205000499</v>
@@ -4805,10 +4805,10 @@
         <v>447.50000000180552</v>
       </c>
       <c r="L6">
-        <v>1088.1773216179301</v>
+        <v>1088.1773336765114</v>
       </c>
       <c r="M6">
-        <v>641.99713202228259</v>
+        <v>641.99704448068417</v>
       </c>
       <c r="N6">
         <v>7153.7299999999987</v>
@@ -4831,7 +4831,7 @@
         <v>131.92543904606052</v>
       </c>
       <c r="C7">
-        <v>687.09351717097229</v>
+        <v>687.09358420866261</v>
       </c>
       <c r="D7">
         <v>5169.6971575589687</v>
@@ -4858,10 +4858,10 @@
         <v>447.49999999998676</v>
       </c>
       <c r="L7">
-        <v>1086.6614817828643</v>
+        <v>1086.6614938850432</v>
       </c>
       <c r="M7">
-        <v>640.00761692784238</v>
+        <v>640.00753110685321</v>
       </c>
       <c r="N7">
         <v>7153.7262225311251</v>
@@ -4884,7 +4884,7 @@
         <v>130.24207002578785</v>
       </c>
       <c r="C8">
-        <v>690.14287495728854</v>
+        <v>690.14294187561802</v>
       </c>
       <c r="D8">
         <v>5162.2258934949186</v>
@@ -4911,10 +4911,10 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L8">
-        <v>1087.2115294134237</v>
+        <v>1087.211541468592</v>
       </c>
       <c r="M8">
-        <v>632.99742167844772</v>
+        <v>632.99732935379745</v>
       </c>
       <c r="N8">
         <v>7153.7300000000805</v>
@@ -4937,7 +4937,7 @@
         <v>128.73811249197252</v>
       </c>
       <c r="C9">
-        <v>680.69654148085874</v>
+        <v>680.70230857854767</v>
       </c>
       <c r="D9">
         <v>5154.0146149330212</v>
@@ -4964,10 +4964,10 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L9">
-        <v>1085.5036097063021</v>
+        <v>1085.5046550006721</v>
       </c>
       <c r="M9">
-        <v>634.99509315017906</v>
+        <v>634.99500232439834</v>
       </c>
       <c r="N9">
         <v>7153.7290312053328</v>
@@ -4990,7 +4990,7 @@
         <v>127.31552770834672</v>
       </c>
       <c r="C10">
-        <v>687.11308663030854</v>
+        <v>687.12454584360751</v>
       </c>
       <c r="D10">
         <v>5136.866254543761</v>
@@ -5017,10 +5017,10 @@
         <v>446.50000000010687</v>
       </c>
       <c r="L10">
-        <v>1086.6650138416135</v>
+        <v>1086.6670825532199</v>
       </c>
       <c r="M10">
-        <v>639.50570857236914</v>
+        <v>639.50562092495261</v>
       </c>
       <c r="N10">
         <v>7153.7300000000005</v>
@@ -5102,7 +5102,7 @@
         <v>130.61181858509036</v>
       </c>
       <c r="C2">
-        <v>737.57875343183548</v>
+        <v>737.57882129906409</v>
       </c>
       <c r="D2">
         <v>5008.1288897715385</v>
@@ -5129,10 +5129,10 @@
         <v>448.01136248050449</v>
       </c>
       <c r="L2">
-        <v>1095.6185210463884</v>
+        <v>1095.6185329334428</v>
       </c>
       <c r="M2">
-        <v>642.99985740391708</v>
+        <v>642.99981670214788</v>
       </c>
       <c r="N2">
         <v>7153.7270248759933</v>
@@ -5155,7 +5155,7 @@
         <v>132.38411357033704</v>
       </c>
       <c r="C3">
-        <v>711.30608224213097</v>
+        <v>711.30614998748035</v>
       </c>
       <c r="D3">
         <v>5088.7053249448454</v>
@@ -5182,10 +5182,10 @@
         <v>448.49999999931407</v>
       </c>
       <c r="L3">
-        <v>1090.9956411655253</v>
+        <v>1090.9956531978066</v>
       </c>
       <c r="M3">
-        <v>642.99990540406293</v>
+        <v>642.99981670213811</v>
       </c>
       <c r="N3">
         <v>7153.7299999998104</v>
@@ -5208,7 +5208,7 @@
         <v>126.96510571852747</v>
       </c>
       <c r="C4">
-        <v>687.41860254818505</v>
+        <v>687.41867014441482</v>
       </c>
       <c r="D4">
         <v>5169.2057383619667</v>
@@ -5235,10 +5235,10 @@
         <v>448.69999999960066</v>
       </c>
       <c r="L4">
-        <v>1086.7201680021726</v>
+        <v>1086.7201802052009</v>
       </c>
       <c r="M4">
-        <v>642.99990477156177</v>
+        <v>642.99981670213811</v>
       </c>
       <c r="N4">
         <v>7153.7246089077908</v>
@@ -5261,7 +5261,7 @@
         <v>124.7764642482947</v>
       </c>
       <c r="C5">
-        <v>676.99164747978534</v>
+        <v>676.99171488631328</v>
       </c>
       <c r="D5">
         <v>5150.1774703990541</v>
@@ -5288,10 +5288,10 @@
         <v>447.99999999997851</v>
       </c>
       <c r="L5">
-        <v>1084.8301941438106</v>
+        <v>1084.830206413375</v>
       </c>
       <c r="M5">
-        <v>641.99713259811324</v>
+        <v>641.99704448085447</v>
       </c>
       <c r="N5">
         <v>7153.7299999999987</v>
@@ -5314,7 +5314,7 @@
         <v>122.68333735759359</v>
       </c>
       <c r="C6">
-        <v>673.42524687723562</v>
+        <v>673.42531407911861</v>
       </c>
       <c r="D6">
         <v>5118.0622321128849</v>
@@ -5341,10 +5341,10 @@
         <v>447.50000000180552</v>
       </c>
       <c r="L6">
-        <v>1084.1803460294855</v>
+        <v>1084.1803582879063</v>
       </c>
       <c r="M6">
-        <v>641.99713202228259</v>
+        <v>641.99704448068405</v>
       </c>
       <c r="N6">
         <v>7153.7299999999987</v>
@@ -5367,7 +5367,7 @@
         <v>121.96080823289562</v>
       </c>
       <c r="C7">
-        <v>666.08405540130138</v>
+        <v>666.08412243488499</v>
       </c>
       <c r="D7">
         <v>5102.8181065331228</v>
@@ -5391,13 +5391,13 @@
         <v>6496.141158680306</v>
       </c>
       <c r="K7">
-        <v>447.49999999998676</v>
+        <v>447.49999999998681</v>
       </c>
       <c r="L7">
-        <v>1082.8370998396335</v>
+        <v>1082.8371121461489</v>
       </c>
       <c r="M7">
-        <v>640.00761692784238</v>
+        <v>640.00753110685321</v>
       </c>
       <c r="N7">
         <v>7153.7262225311251</v>
@@ -5420,7 +5420,7 @@
         <v>122.22054942342862</v>
       </c>
       <c r="C8">
-        <v>669.84215389518386</v>
+        <v>669.84222080752954</v>
       </c>
       <c r="D8">
         <v>5089.0681711843217</v>
@@ -5447,10 +5447,10 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L8">
-        <v>1083.5257341905626</v>
+        <v>1083.5257464222736</v>
       </c>
       <c r="M8">
-        <v>632.99742167844772</v>
+        <v>632.99732935379745</v>
       </c>
       <c r="N8">
         <v>7153.7300000000805</v>
@@ -5473,7 +5473,7 @@
         <v>122.08006459107716</v>
       </c>
       <c r="C9">
-        <v>658.57209943430109</v>
+        <v>658.57786642672772</v>
       </c>
       <c r="D9">
         <v>5077.0820280418538</v>
@@ -5500,10 +5500,10 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L9">
-        <v>1081.4547457503147</v>
+        <v>1081.4558108519727</v>
       </c>
       <c r="M9">
-        <v>634.99509315017906</v>
+        <v>634.99500232439834</v>
       </c>
       <c r="N9">
         <v>7153.7290312053328</v>
@@ -5526,7 +5526,7 @@
         <v>121.9137473586451</v>
       </c>
       <c r="C10">
-        <v>668.57592248944172</v>
+        <v>668.58738138486126</v>
       </c>
       <c r="D10">
         <v>5058.3265119730577</v>
@@ -5553,10 +5553,10 @@
         <v>446.50000000010687</v>
       </c>
       <c r="L10">
-        <v>1083.2938726718444</v>
+        <v>1083.2959713708215</v>
       </c>
       <c r="M10">
-        <v>639.50570857236914</v>
+        <v>639.50562092495261</v>
       </c>
       <c r="N10">
         <v>7153.7300000000005</v>
@@ -5638,7 +5638,7 @@
         <v>130.55384987596</v>
       </c>
       <c r="C2">
-        <v>740.39725122650304</v>
+        <v>740.39731909949057</v>
       </c>
       <c r="D2">
         <v>4993.2671483231125</v>
@@ -5665,10 +5665,10 @@
         <v>448.01136248050449</v>
       </c>
       <c r="L2">
-        <v>1096.1119789434231</v>
+        <v>1096.1119908096007</v>
       </c>
       <c r="M2">
-        <v>642.99985740391708</v>
+        <v>642.99981670214788</v>
       </c>
       <c r="N2">
         <v>7153.7270248759933</v>
@@ -5691,7 +5691,7 @@
         <v>132.38373703681594</v>
       </c>
       <c r="C3">
-        <v>720.20819727097989</v>
+        <v>720.20826502919363</v>
       </c>
       <c r="D3">
         <v>5084.1733941891634</v>
@@ -5718,10 +5718,10 @@
         <v>448.49999999931407</v>
       </c>
       <c r="L3">
-        <v>1092.5703100309277</v>
+        <v>1092.5703219717543</v>
       </c>
       <c r="M3">
-        <v>642.99990540406293</v>
+        <v>642.99981670213811</v>
       </c>
       <c r="N3">
         <v>7153.7299999998104</v>
@@ -5744,7 +5744,7 @@
         <v>139.55512266767499</v>
       </c>
       <c r="C4">
-        <v>701.60014766054746</v>
+        <v>701.60021527096853</v>
       </c>
       <c r="D4">
         <v>5285.615958766939</v>
@@ -5771,10 +5771,10 @@
         <v>448.69999999960066</v>
       </c>
       <c r="L4">
-        <v>1089.2673676390605</v>
+        <v>1089.2673797199016</v>
       </c>
       <c r="M4">
-        <v>642.99990477156177</v>
+        <v>642.99981670213811</v>
       </c>
       <c r="N4">
         <v>7153.7246089077908</v>
@@ -5797,7 +5797,7 @@
         <v>142.91870051316286</v>
       </c>
       <c r="C5">
-        <v>695.72503018192958</v>
+        <v>695.72509760492972</v>
       </c>
       <c r="D5">
         <v>5407.4159237959511</v>
@@ -5824,10 +5824,10 @@
         <v>447.99999999997851</v>
       </c>
       <c r="L5">
-        <v>1088.2153478268003</v>
+        <v>1088.215359924736</v>
       </c>
       <c r="M5">
-        <v>641.99713259811324</v>
+        <v>641.99704448085447</v>
       </c>
       <c r="N5">
         <v>7153.7299999999987</v>
@@ -5850,7 +5850,7 @@
         <v>142.08734836037704</v>
       </c>
       <c r="C6">
-        <v>694.5111287941096</v>
+        <v>694.51119601529365</v>
       </c>
       <c r="D6">
         <v>5413.3129208682903</v>
@@ -5877,10 +5877,10 @@
         <v>447.50000000180552</v>
       </c>
       <c r="L6">
-        <v>1087.9975285503765</v>
+        <v>1087.9975406374751</v>
       </c>
       <c r="M6">
-        <v>641.99713202228259</v>
+        <v>641.99704448068405</v>
       </c>
       <c r="N6">
         <v>7153.7299999999987</v>
@@ -5903,7 +5903,7 @@
         <v>139.29233185690939</v>
       </c>
       <c r="C7">
-        <v>686.4955037013284</v>
+        <v>686.49557075621794</v>
       </c>
       <c r="D7">
         <v>5413.7488879986258</v>
@@ -5930,10 +5930,10 @@
         <v>447.49999999998676</v>
       </c>
       <c r="L7">
-        <v>1086.5535229103352</v>
+        <v>1086.5535350156365</v>
       </c>
       <c r="M7">
-        <v>640.00761692784238</v>
+        <v>640.00753110685321</v>
       </c>
       <c r="N7">
         <v>7153.7262225311251</v>
@@ -5956,7 +5956,7 @@
         <v>137.68257020964344</v>
       </c>
       <c r="C8">
-        <v>690.0863716492604</v>
+        <v>690.08643858475841</v>
       </c>
       <c r="D8">
         <v>5415.9636884067377</v>
@@ -5983,10 +5983,10 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L8">
-        <v>1087.2013497807527</v>
+        <v>1087.2013618390313</v>
       </c>
       <c r="M8">
-        <v>632.99742167844772</v>
+        <v>632.99732935379745</v>
       </c>
       <c r="N8">
         <v>7153.7300000000805</v>
@@ -6009,7 +6009,7 @@
         <v>136.41454381830994</v>
       </c>
       <c r="C9">
-        <v>685.14988832156234</v>
+        <v>685.1556554536968</v>
       </c>
       <c r="D9">
         <v>5413.1656100802329</v>
@@ -6036,10 +6036,10 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L9">
-        <v>1086.3102007872724</v>
+        <v>1086.3112441197406</v>
       </c>
       <c r="M9">
-        <v>634.99509315017906</v>
+        <v>634.99500232439834</v>
       </c>
       <c r="N9">
         <v>7153.7290312053328</v>
@@ -6062,7 +6062,7 @@
         <v>135.16765032286045</v>
       </c>
       <c r="C10">
-        <v>697.93504160874272</v>
+        <v>697.94650093674068</v>
       </c>
       <c r="D10">
         <v>5404.1160795904671</v>
@@ -6089,10 +6089,10 @@
         <v>446.50000000010687</v>
       </c>
       <c r="L10">
-        <v>1088.6116638497322</v>
+        <v>1088.6137157264195</v>
       </c>
       <c r="M10">
-        <v>639.50570857236914</v>
+        <v>639.50562092495261</v>
       </c>
       <c r="N10">
         <v>7153.7300000000005</v>
@@ -6174,7 +6174,7 @@
         <v>130.58268046737101</v>
       </c>
       <c r="C2">
-        <v>742.27191446259383</v>
+        <v>742.27198233558136</v>
       </c>
       <c r="D2">
         <v>5001.5256710311478</v>
@@ -6201,10 +6201,10 @@
         <v>448.01136248050449</v>
       </c>
       <c r="L2">
-        <v>1096.4397247483473</v>
+        <v>1096.4397366145249</v>
       </c>
       <c r="M2">
-        <v>642.99985740391708</v>
+        <v>642.99981670214788</v>
       </c>
       <c r="N2">
         <v>7153.7270248759933</v>
@@ -6227,7 +6227,7 @@
         <v>128.80420535013059</v>
       </c>
       <c r="C3">
-        <v>715.5354603702184</v>
+        <v>715.5355281281926</v>
       </c>
       <c r="D3">
         <v>5069.9176562936946</v>
@@ -6254,10 +6254,10 @@
         <v>448.49999999931407</v>
       </c>
       <c r="L3">
-        <v>1091.7449378941774</v>
+        <v>1091.7449498816482</v>
       </c>
       <c r="M3">
-        <v>642.99990540406293</v>
+        <v>642.99981670213811</v>
       </c>
       <c r="N3">
         <v>7153.7299999998104</v>
@@ -6280,7 +6280,7 @@
         <v>127.08061175334289</v>
       </c>
       <c r="C4">
-        <v>692.36334111471217</v>
+        <v>692.36340872413143</v>
       </c>
       <c r="D4">
         <v>5137.5689430641551</v>
@@ -6307,10 +6307,10 @@
         <v>448.69999999960066</v>
       </c>
       <c r="L4">
-        <v>1087.6113326903117</v>
+        <v>1087.6113448472192</v>
       </c>
       <c r="M4">
-        <v>642.99990477156177</v>
+        <v>642.99981670213811</v>
       </c>
       <c r="N4">
         <v>7153.7246089077908</v>
@@ -6333,7 +6333,7 @@
         <v>127.28931478324468</v>
       </c>
       <c r="C5">
-        <v>685.54193545220608</v>
+        <v>685.54200287284448</v>
       </c>
       <c r="D5">
         <v>5124.7121029804866</v>
@@ -6360,10 +6360,10 @@
         <v>447.99999999997851</v>
       </c>
       <c r="L5">
-        <v>1086.3811255029402</v>
+        <v>1086.3811377000318</v>
       </c>
       <c r="M5">
-        <v>641.99713259811324</v>
+        <v>641.99704448085447</v>
       </c>
       <c r="N5">
         <v>7153.7299999999987</v>
@@ -6386,7 +6386,7 @@
         <v>126.77579694160798</v>
       </c>
       <c r="C6">
-        <v>684.10960402476837</v>
+        <v>684.10967124216859</v>
       </c>
       <c r="D6">
         <v>5094.7526149362757</v>
@@ -6413,10 +6413,10 @@
         <v>447.50000000180552</v>
       </c>
       <c r="L6">
-        <v>1086.1220022983935</v>
+        <v>1086.1220144587171</v>
       </c>
       <c r="M6">
-        <v>641.99713202228259</v>
+        <v>641.99704448068417</v>
       </c>
       <c r="N6">
         <v>7153.7299999999987</v>
@@ -6439,7 +6439,7 @@
         <v>125.12286975389469</v>
       </c>
       <c r="C7">
-        <v>674.31415358564243</v>
+        <v>674.31422063539901</v>
       </c>
       <c r="D7">
         <v>5079.228429309579</v>
@@ -6466,10 +6466,10 @@
         <v>447.49999999998676</v>
       </c>
       <c r="L7">
-        <v>1084.342492580517</v>
+        <v>1084.3425048111883</v>
       </c>
       <c r="M7">
-        <v>640.00761692784238</v>
+        <v>640.00753110685321</v>
       </c>
       <c r="N7">
         <v>7153.7262225311251</v>
@@ -6492,7 +6492,7 @@
         <v>123.91752205970643</v>
       </c>
       <c r="C8">
-        <v>677.25390661855602</v>
+        <v>677.2539735473099</v>
       </c>
       <c r="D8">
         <v>5068.5946015876116</v>
@@ -6519,10 +6519,10 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L8">
-        <v>1084.8779310674231</v>
+        <v>1084.8779432500219</v>
       </c>
       <c r="M8">
-        <v>632.99742167844772</v>
+        <v>632.99732935379745</v>
       </c>
       <c r="N8">
         <v>7153.7300000000805</v>
@@ -6545,7 +6545,7 @@
         <v>123.10506701954945</v>
       </c>
       <c r="C9">
-        <v>671.63557693003224</v>
+        <v>671.64134399291265</v>
       </c>
       <c r="D9">
         <v>5056.8017126740097</v>
@@ -6572,10 +6572,10 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L9">
-        <v>1083.8535751525196</v>
+        <v>1083.8546293831773</v>
       </c>
       <c r="M9">
-        <v>634.99509315017906</v>
+        <v>634.99500232439834</v>
       </c>
       <c r="N9">
         <v>7153.7290312053328</v>
@@ -6598,7 +6598,7 @@
         <v>122.46456628527739</v>
       </c>
       <c r="C10">
-        <v>674.31121219713839</v>
+        <v>674.32267125293549</v>
       </c>
       <c r="D10">
         <v>5045.3777007429699</v>
@@ -6625,10 +6625,10 @@
         <v>446.50000000010687</v>
       </c>
       <c r="L10">
-        <v>1084.3419545896534</v>
+        <v>1084.3440448559388</v>
       </c>
       <c r="M10">
-        <v>639.50570857236914</v>
+        <v>639.50562092495261</v>
       </c>
       <c r="N10">
         <v>7153.7300000000005</v>
@@ -6710,7 +6710,7 @@
         <v>132.08629557684634</v>
       </c>
       <c r="C2">
-        <v>741.01295502158689</v>
+        <v>741.01302289457408</v>
       </c>
       <c r="D2">
         <v>5025.3592190240397</v>
@@ -6737,10 +6737,10 @@
         <v>448.01136248050449</v>
       </c>
       <c r="L2">
-        <v>1096.2196219227847</v>
+        <v>1096.219633788962</v>
       </c>
       <c r="M2">
-        <v>642.99985740391708</v>
+        <v>642.99981670214788</v>
       </c>
       <c r="N2">
         <v>7153.7270248759933</v>
@@ -6763,7 +6763,7 @@
         <v>139.29817247299877</v>
       </c>
       <c r="C3">
-        <v>716.82349298426516</v>
+        <v>716.8235607422389</v>
       </c>
       <c r="D3">
         <v>5144.7408236684159</v>
@@ -6790,10 +6790,10 @@
         <v>448.49999999931407</v>
       </c>
       <c r="L3">
-        <v>1091.972811492838</v>
+        <v>1091.972823480309</v>
       </c>
       <c r="M3">
-        <v>642.99990540406293</v>
+        <v>642.99981670213811</v>
       </c>
       <c r="N3">
         <v>7153.7299999998104</v>
@@ -6816,7 +6816,7 @@
         <v>138.86520366668435</v>
       </c>
       <c r="C4">
-        <v>695.48077122978418</v>
+        <v>695.48083883936147</v>
       </c>
       <c r="D4">
         <v>5287.5769343748561</v>
@@ -6843,10 +6843,10 @@
         <v>448.69999999960066</v>
       </c>
       <c r="L4">
-        <v>1088.1715196243281</v>
+        <v>1088.1715317557421</v>
       </c>
       <c r="M4">
-        <v>642.99990477156177</v>
+        <v>642.99981670213811</v>
       </c>
       <c r="N4">
         <v>7153.7246089077908</v>
@@ -6869,7 +6869,7 @@
         <v>142.0876610999656</v>
       </c>
       <c r="C5">
-        <v>688.2513331904687</v>
+        <v>688.25140061166212</v>
       </c>
       <c r="D5">
         <v>5308.9491441722794</v>
@@ -6896,10 +6896,10 @@
         <v>447.99999999997851</v>
       </c>
       <c r="L5">
-        <v>1086.8704993969188</v>
+        <v>1086.8705115683483</v>
       </c>
       <c r="M5">
-        <v>641.99713259811324</v>
+        <v>641.99704448085447</v>
       </c>
       <c r="N5">
         <v>7153.7299999999987</v>
@@ -6922,7 +6922,7 @@
         <v>140.57242486379539</v>
       </c>
       <c r="C6">
-        <v>686.70989562818284</v>
+        <v>686.70996284656007</v>
       </c>
       <c r="D6">
         <v>5296.7446348841177</v>
@@ -6949,10 +6949,10 @@
         <v>447.50000000180552</v>
       </c>
       <c r="L6">
-        <v>1086.5922267974436</v>
+        <v>1086.5922389322591</v>
       </c>
       <c r="M6">
-        <v>641.99713202228259</v>
+        <v>641.99704448068405</v>
       </c>
       <c r="N6">
         <v>7153.7299999999987</v>
@@ -6975,7 +6975,7 @@
         <v>138.67031992590177</v>
       </c>
       <c r="C7">
-        <v>677.01803371001279</v>
+        <v>677.01810076109507</v>
       </c>
       <c r="D7">
         <v>5296.2474209410575</v>
@@ -7002,10 +7002,10 @@
         <v>447.49999999998676</v>
       </c>
       <c r="L7">
-        <v>1084.8349974708171</v>
+        <v>1084.8350096756824</v>
       </c>
       <c r="M7">
-        <v>640.00761692784238</v>
+        <v>640.00753110685321</v>
       </c>
       <c r="N7">
         <v>7153.7262225311251</v>
@@ -7028,7 +7028,7 @@
         <v>136.74879131715682</v>
       </c>
       <c r="C8">
-        <v>681.70345255978793</v>
+        <v>681.70351949024939</v>
       </c>
       <c r="D8">
         <v>5300.8168288009583</v>
@@ -7055,10 +7055,10 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L8">
-        <v>1085.6861128329479</v>
+        <v>1085.6861249641861</v>
       </c>
       <c r="M8">
-        <v>632.99742167844772</v>
+        <v>632.99732935379745</v>
       </c>
       <c r="N8">
         <v>7153.7300000000805</v>
@@ -7081,7 +7081,7 @@
         <v>134.94048001745404</v>
       </c>
       <c r="C9">
-        <v>673.66858098998182</v>
+        <v>673.67434806594792</v>
       </c>
       <c r="D9">
         <v>5295.1770667610426</v>
@@ -7108,10 +7108,10 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L9">
-        <v>1084.2247312971915</v>
+        <v>1084.2257832802768</v>
       </c>
       <c r="M9">
-        <v>634.99509315017906</v>
+        <v>634.99500232439834</v>
       </c>
       <c r="N9">
         <v>7153.7290312053328</v>
@@ -7134,7 +7134,7 @@
         <v>132.85690656351855</v>
       </c>
       <c r="C10">
-        <v>680.33953485475058</v>
+        <v>680.350993961521</v>
       </c>
       <c r="D10">
         <v>5279.2273778983745</v>
@@ -7161,10 +7161,10 @@
         <v>446.50000000010687</v>
       </c>
       <c r="L10">
-        <v>1085.4387565659349</v>
+        <v>1085.4408384502726</v>
       </c>
       <c r="M10">
-        <v>639.50570857236914</v>
+        <v>639.50562092495261</v>
       </c>
       <c r="N10">
         <v>7153.7300000000005</v>
@@ -7246,7 +7246,7 @@
         <v>130.71318694449141</v>
       </c>
       <c r="C2">
-        <v>740.75072544975262</v>
+        <v>740.75079332274026</v>
       </c>
       <c r="D2">
         <v>4997.1322203061372</v>
@@ -7273,10 +7273,10 @@
         <v>448.01136248050449</v>
       </c>
       <c r="L2">
-        <v>1096.1737765461769</v>
+        <v>1096.1737884123545</v>
       </c>
       <c r="M2">
-        <v>642.99985740391708</v>
+        <v>642.99981670214788</v>
       </c>
       <c r="N2">
         <v>7153.7270248759933</v>
@@ -7299,7 +7299,7 @@
         <v>132.61919120985101</v>
       </c>
       <c r="C3">
-        <v>714.39586947516659</v>
+        <v>714.39593723314067</v>
       </c>
       <c r="D3">
         <v>5084.527864468605</v>
@@ -7326,10 +7326,10 @@
         <v>448.49999999931407</v>
       </c>
       <c r="L3">
-        <v>1091.5433260137688</v>
+        <v>1091.5433380012396</v>
       </c>
       <c r="M3">
-        <v>642.99990540406293</v>
+        <v>642.99981670213811</v>
       </c>
       <c r="N3">
         <v>7153.7299999998104</v>
@@ -7352,7 +7352,7 @@
         <v>130.25762127249345</v>
       </c>
       <c r="C4">
-        <v>690.88317769051662</v>
+        <v>690.88324530026955</v>
       </c>
       <c r="D4">
         <v>5240.6164899329278</v>
@@ -7379,10 +7379,10 @@
         <v>448.69999999960066</v>
       </c>
       <c r="L4">
-        <v>1087.3448931851738</v>
+        <v>1087.3449053649178</v>
       </c>
       <c r="M4">
-        <v>642.99990477156177</v>
+        <v>642.99981670213811</v>
       </c>
       <c r="N4">
         <v>7153.7246089077908</v>
@@ -7405,7 +7405,7 @@
         <v>129.04578193928415</v>
       </c>
       <c r="C5">
-        <v>682.65504784623113</v>
+        <v>682.65511526744126</v>
       </c>
       <c r="D5">
         <v>5249.2067681459639</v>
@@ -7432,10 +7432,10 @@
         <v>447.99999999997851</v>
       </c>
       <c r="L5">
-        <v>1085.8585915807773</v>
+        <v>1085.8586038009644</v>
       </c>
       <c r="M5">
-        <v>641.99713259811324</v>
+        <v>641.99704448085447</v>
       </c>
       <c r="N5">
         <v>7153.7299999999987</v>
@@ -7458,7 +7458,7 @@
         <v>127.86034725189933</v>
       </c>
       <c r="C6">
-        <v>683.75181044322062</v>
+        <v>683.75187766100157</v>
       </c>
       <c r="D6">
         <v>5239.5211325349101</v>
@@ -7485,10 +7485,10 @@
         <v>447.50000000180552</v>
       </c>
       <c r="L6">
-        <v>1086.0572730541712</v>
+        <v>1086.057285214564</v>
       </c>
       <c r="M6">
-        <v>641.99713202228259</v>
+        <v>641.99704448068417</v>
       </c>
       <c r="N6">
         <v>7153.7299999999987</v>
@@ -7511,7 +7511,7 @@
         <v>126.27597429437195</v>
       </c>
       <c r="C7">
-        <v>679.68788470972549</v>
+        <v>679.68795176019489</v>
       </c>
       <c r="D7">
         <v>5242.0652669055598</v>
@@ -7538,10 +7538,10 @@
         <v>447.49999999998676</v>
       </c>
       <c r="L7">
-        <v>1085.3203666943468</v>
+        <v>1085.3203788760402</v>
       </c>
       <c r="M7">
-        <v>640.00761692784238</v>
+        <v>640.00753110685321</v>
       </c>
       <c r="N7">
         <v>7153.7262225311251</v>
@@ -7564,7 +7564,7 @@
         <v>125.32432365234921</v>
       </c>
       <c r="C8">
-        <v>681.62529544380391</v>
+        <v>681.62536237376753</v>
       </c>
       <c r="D8">
         <v>5255.6693480829326</v>
@@ -7591,10 +7591,10 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L8">
-        <v>1085.6719478204993</v>
+        <v>1085.6719599516475</v>
       </c>
       <c r="M8">
-        <v>632.99742167844772</v>
+        <v>632.99732935379745</v>
       </c>
       <c r="N8">
         <v>7153.7300000000805</v>
@@ -7617,7 +7617,7 @@
         <v>124.44264626577107</v>
       </c>
       <c r="C9">
-        <v>675.13819644585055</v>
+        <v>675.14396352131951</v>
       </c>
       <c r="D9">
         <v>5250.3806122514898</v>
@@ -7644,10 +7644,10 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L9">
-        <v>1084.492807673168</v>
+        <v>1084.4938596561628</v>
       </c>
       <c r="M9">
-        <v>634.99509315017906</v>
+        <v>634.99500232439834</v>
       </c>
       <c r="N9">
         <v>7153.7290312053328</v>
@@ -7670,7 +7670,7 @@
         <v>123.65047154282652</v>
       </c>
       <c r="C10">
-        <v>675.64994106382983</v>
+        <v>675.66140016078725</v>
       </c>
       <c r="D10">
         <v>5235.7232431418543</v>
@@ -7697,10 +7697,10 @@
         <v>446.50000000010687</v>
       </c>
       <c r="L10">
-        <v>1084.585972348711</v>
+        <v>1084.5880581709064</v>
       </c>
       <c r="M10">
-        <v>639.50570857236914</v>
+        <v>639.50562092495261</v>
       </c>
       <c r="N10">
         <v>7153.7300000000005</v>
@@ -7782,7 +7782,7 @@
         <v>130.51494779794945</v>
       </c>
       <c r="C2">
-        <v>747.10914909749488</v>
+        <v>747.10921696634898</v>
       </c>
       <c r="D2">
         <v>4989.57785896101</v>
@@ -7809,10 +7809,10 @@
         <v>448.01136248050437</v>
       </c>
       <c r="L2">
-        <v>1097.2835182534354</v>
+        <v>1097.2835300753634</v>
       </c>
       <c r="M2">
-        <v>642.99985740391708</v>
+        <v>642.99981670214788</v>
       </c>
       <c r="N2">
         <v>7153.7270248759933</v>
@@ -7835,7 +7835,7 @@
         <v>129.84860553341511</v>
       </c>
       <c r="C3">
-        <v>728.47265313879507</v>
+        <v>728.47272088848433</v>
       </c>
       <c r="D3">
         <v>5034.9253857116928</v>
@@ -7862,10 +7862,10 @@
         <v>448.49999999931407</v>
       </c>
       <c r="L3">
-        <v>1094.0234975129094</v>
+        <v>1094.0235093815384</v>
       </c>
       <c r="M3">
-        <v>642.99990540406293</v>
+        <v>642.99981670213811</v>
       </c>
       <c r="N3">
         <v>7153.7299999998104</v>
@@ -7888,7 +7888,7 @@
         <v>124.5767714329051</v>
       </c>
       <c r="C4">
-        <v>709.29898090833024</v>
+        <v>709.29904851113395</v>
       </c>
       <c r="D4">
         <v>5129.2137773944551</v>
@@ -7915,10 +7915,10 @@
         <v>448.69999999960066</v>
       </c>
       <c r="L4">
-        <v>1090.6391589979148</v>
+        <v>1090.6391710048788</v>
       </c>
       <c r="M4">
-        <v>642.99990477156177</v>
+        <v>642.99981670213811</v>
       </c>
       <c r="N4">
         <v>7153.7246089077908</v>
@@ -7941,7 +7941,7 @@
         <v>131.86147615292143</v>
       </c>
       <c r="C5">
-        <v>704.52371782374223</v>
+        <v>704.5237852402737</v>
       </c>
       <c r="D5">
         <v>5140.1826935632571</v>
@@ -7968,10 +7968,10 @@
         <v>447.99999999997851</v>
       </c>
       <c r="L5">
-        <v>1089.7892240682972</v>
+        <v>1089.7892360921496</v>
       </c>
       <c r="M5">
-        <v>641.99713259811324</v>
+        <v>641.99704448085447</v>
       </c>
       <c r="N5">
         <v>7153.7299999999987</v>
@@ -7994,7 +7994,7 @@
         <v>131.33456563666772</v>
       </c>
       <c r="C6">
-        <v>704.48004018573238</v>
+        <v>704.48010740187965</v>
       </c>
       <c r="D6">
         <v>5121.7483686276328</v>
@@ -8021,10 +8021,10 @@
         <v>447.50000000180552</v>
       </c>
       <c r="L6">
-        <v>1089.7814339253005</v>
+        <v>1089.7814459134131</v>
       </c>
       <c r="M6">
-        <v>641.99713202228259</v>
+        <v>641.99704448068405</v>
       </c>
       <c r="N6">
         <v>7153.7299999999987</v>
@@ -8047,7 +8047,7 @@
         <v>129.06018605627864</v>
       </c>
       <c r="C7">
-        <v>697.83037844034232</v>
+        <v>697.8304454915417</v>
       </c>
       <c r="D7">
         <v>5111.2427710256052</v>
@@ -8074,10 +8074,10 @@
         <v>447.49999999998676</v>
       </c>
       <c r="L7">
-        <v>1088.592923565752</v>
+        <v>1088.5929355717685</v>
       </c>
       <c r="M7">
-        <v>640.00761692784238</v>
+        <v>640.00753110685321</v>
       </c>
       <c r="N7">
         <v>7153.7262225311251</v>
@@ -8100,7 +8100,7 @@
         <v>127.87486009821431</v>
       </c>
       <c r="C8">
-        <v>703.33458386858308</v>
+        <v>703.33465080110489</v>
       </c>
       <c r="D8">
         <v>5099.9911904847586</v>
@@ -8127,10 +8127,10 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L8">
-        <v>1089.5771398522963</v>
+        <v>1089.577151789824</v>
       </c>
       <c r="M8">
-        <v>632.99742167844772</v>
+        <v>632.99732935379745</v>
       </c>
       <c r="N8">
         <v>7153.7300000000805</v>
@@ -8153,7 +8153,7 @@
         <v>126.90471501517349</v>
       </c>
       <c r="C9">
-        <v>693.13256677163656</v>
+        <v>693.13833392479171</v>
       </c>
       <c r="D9">
         <v>5093.3910340242683</v>
@@ -8180,10 +8180,10 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L9">
-        <v>1087.7496489102928</v>
+        <v>1087.7506859070306</v>
       </c>
       <c r="M9">
-        <v>634.99509315017906</v>
+        <v>634.99500232439834</v>
       </c>
       <c r="N9">
         <v>7153.7290312053328</v>
@@ -8206,7 +8206,7 @@
         <v>126.05963640874958</v>
       </c>
       <c r="C10">
-        <v>692.69844740759345</v>
+        <v>692.70990675428595</v>
       </c>
       <c r="D10">
         <v>5077.5341694875424</v>
@@ -8233,10 +8233,10 @@
         <v>446.50000000010687</v>
       </c>
       <c r="L10">
-        <v>1087.671589645963</v>
+        <v>1087.6736501594494</v>
       </c>
       <c r="M10">
-        <v>639.50570857236914</v>
+        <v>639.50562092495261</v>
       </c>
       <c r="N10">
         <v>7153.7300000000005</v>
@@ -8318,7 +8318,7 @@
         <v>131.11227965520987</v>
       </c>
       <c r="C2">
-        <v>734.8428492227016</v>
+        <v>734.84291709584352</v>
       </c>
       <c r="D2">
         <v>4997.1489109373169</v>
@@ -8345,10 +8345,10 @@
         <v>448.01136248050449</v>
       </c>
       <c r="L2">
-        <v>1095.1386565816306</v>
+        <v>1095.138668491687</v>
       </c>
       <c r="M2">
-        <v>642.99985740391708</v>
+        <v>642.99981670214788</v>
       </c>
       <c r="N2">
         <v>7153.7270248759933</v>
@@ -8371,7 +8371,7 @@
         <v>139.11876079016261</v>
       </c>
       <c r="C3">
-        <v>707.85828774217578</v>
+        <v>707.85835550012553</v>
       </c>
       <c r="D3">
         <v>5088.4455466918826</v>
@@ -8398,10 +8398,10 @@
         <v>448.49999999931407</v>
       </c>
       <c r="L3">
-        <v>1090.3830608488718</v>
+        <v>1090.3830729056619</v>
       </c>
       <c r="M3">
-        <v>642.99990540406293</v>
+        <v>642.99981670213811</v>
       </c>
       <c r="N3">
         <v>7153.7299999998104</v>
@@ -8424,7 +8424,7 @@
         <v>139.55386530692707</v>
       </c>
       <c r="C4">
-        <v>687.47553940948626</v>
+        <v>687.47560701815007</v>
       </c>
       <c r="D4">
         <v>5291.6567980896207</v>
@@ -8451,10 +8451,10 @@
         <v>448.69999999960066</v>
       </c>
       <c r="L4">
-        <v>1086.7304467170779</v>
+        <v>1086.7304589223511</v>
       </c>
       <c r="M4">
-        <v>642.99990477156177</v>
+        <v>642.99981670213811</v>
       </c>
       <c r="N4">
         <v>7153.7246089077908</v>
@@ -8477,7 +8477,7 @@
         <v>142.51801753561898</v>
       </c>
       <c r="C5">
-        <v>687.46121481836155</v>
+        <v>687.46128223801452</v>
       </c>
       <c r="D5">
         <v>5353.5487772979186</v>
@@ -8504,10 +8504,10 @@
         <v>447.99999999997851</v>
       </c>
       <c r="L5">
-        <v>1086.7278615346061</v>
+        <v>1086.7278737057682</v>
       </c>
       <c r="M5">
-        <v>641.99713259811324</v>
+        <v>641.99704448085447</v>
       </c>
       <c r="N5">
         <v>7153.7299999999987</v>
@@ -8530,7 +8530,7 @@
         <v>140.69789332964123</v>
       </c>
       <c r="C6">
-        <v>689.72438503159503</v>
+        <v>689.72445224927446</v>
       </c>
       <c r="D6">
         <v>5350.1938825003544</v>
@@ -8557,10 +8557,10 @@
         <v>447.50000000180552</v>
       </c>
       <c r="L6">
-        <v>1087.1361395164759</v>
+        <v>1087.1361516255995</v>
       </c>
       <c r="M6">
-        <v>641.99713202228259</v>
+        <v>641.99704448068405</v>
       </c>
       <c r="N6">
         <v>7153.7299999999987</v>
@@ -8583,7 +8583,7 @@
         <v>138.62220045842088</v>
       </c>
       <c r="C7">
-        <v>681.76809951981306</v>
+        <v>681.76816657124039</v>
       </c>
       <c r="D7">
         <v>5355.4095286690799</v>
@@ -8610,10 +8610,10 @@
         <v>447.49999999998676</v>
       </c>
       <c r="L7">
-        <v>1085.6978311872213</v>
+        <v>1085.6978433403956</v>
       </c>
       <c r="M7">
-        <v>640.00761692784238</v>
+        <v>640.00753110685321</v>
       </c>
       <c r="N7">
         <v>7153.7262225311251</v>
@@ -8636,7 +8636,7 @@
         <v>136.05757999520551</v>
       </c>
       <c r="C8">
-        <v>684.14244413685924</v>
+        <v>684.14251106803397</v>
       </c>
       <c r="D8">
         <v>5351.9878045018449</v>
@@ -8663,10 +8663,10 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L8">
-        <v>1086.1279426303122</v>
+        <v>1086.1279547388658</v>
       </c>
       <c r="M8">
-        <v>632.99742167844772</v>
+        <v>632.99732935379745</v>
       </c>
       <c r="N8">
         <v>7153.7300000000805</v>
@@ -8689,7 +8689,7 @@
         <v>134.43367445187059</v>
       </c>
       <c r="C9">
-        <v>676.43923603828523</v>
+        <v>676.44500312615389</v>
       </c>
       <c r="D9">
         <v>5342.1333035093739</v>
@@ -8716,10 +8716,10 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L9">
-        <v>1084.7296419433887</v>
+        <v>1084.7306916882724</v>
       </c>
       <c r="M9">
-        <v>634.99509315017906</v>
+        <v>634.99500232439834</v>
       </c>
       <c r="N9">
         <v>7153.7290312053328</v>
@@ -8742,7 +8742,7 @@
         <v>132.77663505211669</v>
       </c>
       <c r="C10">
-        <v>684.33356865996291</v>
+        <v>684.34502782577829</v>
       </c>
       <c r="D10">
         <v>5327.4156546554441</v>
@@ -8769,10 +8769,10 @@
         <v>446.50000000010687</v>
       </c>
       <c r="L10">
-        <v>1086.1625190343623</v>
+        <v>1086.1645921161446</v>
       </c>
       <c r="M10">
-        <v>639.50570857236914</v>
+        <v>639.50562092495261</v>
       </c>
       <c r="N10">
         <v>7153.7300000000005</v>
@@ -8854,7 +8854,7 @@
         <v>130.65521823536105</v>
       </c>
       <c r="C2">
-        <v>735.82886371211941</v>
+        <v>735.82893158526144</v>
       </c>
       <c r="D2">
         <v>5001.9015694865302</v>
@@ -8881,10 +8881,10 @@
         <v>448.01136248050449</v>
       </c>
       <c r="L2">
-        <v>1095.3116777168066</v>
+        <v>1095.3116896268627</v>
       </c>
       <c r="M2">
-        <v>642.99985740391708</v>
+        <v>642.99981670214788</v>
       </c>
       <c r="N2">
         <v>7153.7270248759933</v>
@@ -8907,7 +8907,7 @@
         <v>131.20289185260589</v>
       </c>
       <c r="C3">
-        <v>709.69284187975165</v>
+        <v>709.69290963781611</v>
       </c>
       <c r="D3">
         <v>5074.8717505188642</v>
@@ -8934,10 +8934,10 @@
         <v>448.49999999931407</v>
       </c>
       <c r="L3">
-        <v>1090.7091128293303</v>
+        <v>1090.7091248638701</v>
       </c>
       <c r="M3">
-        <v>642.99990540406293</v>
+        <v>642.99981670213811</v>
       </c>
       <c r="N3">
         <v>7153.7299999998104</v>
@@ -8960,7 +8960,7 @@
         <v>129.45136190751188</v>
       </c>
       <c r="C4">
-        <v>690.44131163588111</v>
+        <v>690.44137924543259</v>
       </c>
       <c r="D4">
         <v>5128.7015356634829</v>
@@ -8987,10 +8987,10 @@
         <v>448.69999999960066</v>
       </c>
       <c r="L4">
-        <v>1087.2652920179326</v>
+        <v>1087.2653041976403</v>
       </c>
       <c r="M4">
-        <v>642.99990477156177</v>
+        <v>642.99981670213811</v>
       </c>
       <c r="N4">
         <v>7153.7246089077908</v>
@@ -9013,7 +9013,7 @@
         <v>127.53339136835901</v>
       </c>
       <c r="C5">
-        <v>678.52748316469592</v>
+        <v>678.52755058548132</v>
       </c>
       <c r="D5">
         <v>5102.3830992105295</v>
@@ -9040,10 +9040,10 @@
         <v>447.99999999997851</v>
       </c>
       <c r="L5">
-        <v>1085.1095447883401</v>
+        <v>1085.1095570373122</v>
       </c>
       <c r="M5">
-        <v>641.99713259811324</v>
+        <v>641.99704448085447</v>
       </c>
       <c r="N5">
         <v>7153.7299999999987</v>
@@ -9066,7 +9066,7 @@
         <v>125.57260186253866</v>
       </c>
       <c r="C6">
-        <v>678.18381382179939</v>
+        <v>678.18388103849338</v>
       </c>
       <c r="D6">
         <v>5068.2792471681978</v>
@@ -9093,10 +9093,10 @@
         <v>447.50000000180552</v>
       </c>
       <c r="L6">
-        <v>1085.0471072201644</v>
+        <v>1085.0471194320571</v>
       </c>
       <c r="M6">
-        <v>641.99713202228259</v>
+        <v>641.99704448068405</v>
       </c>
       <c r="N6">
         <v>7153.7299999999987</v>
@@ -9119,7 +9119,7 @@
         <v>124.90537342076094</v>
       </c>
       <c r="C7">
-        <v>667.60594775303196</v>
+        <v>667.60601480139746</v>
       </c>
       <c r="D7">
         <v>5048.8971608233251</v>
@@ -9146,10 +9146,10 @@
         <v>447.49999999998676</v>
       </c>
       <c r="L7">
-        <v>1083.116221708734</v>
+        <v>1083.1162339886555</v>
       </c>
       <c r="M7">
-        <v>640.00761692784238</v>
+        <v>640.00753110685321</v>
       </c>
       <c r="N7">
         <v>7153.7262225311251</v>
@@ -9172,7 +9172,7 @@
         <v>124.43673363425556</v>
       </c>
       <c r="C8">
-        <v>671.94162828848164</v>
+        <v>671.94169521534445</v>
       </c>
       <c r="D8">
         <v>5035.6840304247253</v>
@@ -9199,10 +9199,10 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L8">
-        <v>1083.9095212952018</v>
+        <v>1083.9095335295665</v>
       </c>
       <c r="M8">
-        <v>632.99742167844772</v>
+        <v>632.99732935379745</v>
       </c>
       <c r="N8">
         <v>7153.7300000000805</v>
@@ -9225,7 +9225,7 @@
         <v>124.10461997182846</v>
       </c>
       <c r="C9">
-        <v>662.31501165409384</v>
+        <v>662.32077868242015</v>
       </c>
       <c r="D9">
         <v>5018.4639305345163</v>
@@ -9252,10 +9252,10 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L9">
-        <v>1082.1444704064904</v>
+        <v>1082.1455311850723</v>
       </c>
       <c r="M9">
-        <v>634.99509315017906</v>
+        <v>634.99500232439834</v>
       </c>
       <c r="N9">
         <v>7153.7290312053328</v>
@@ -9278,7 +9278,7 @@
         <v>123.78980890021988</v>
       </c>
       <c r="C10">
-        <v>667.07412262063747</v>
+        <v>667.08558157787468</v>
       </c>
       <c r="D10">
         <v>4991.7998153096814</v>
@@ -9305,10 +9305,10 @@
         <v>446.50000000010687</v>
       </c>
       <c r="L10">
-        <v>1083.0188154775683</v>
+        <v>1083.0209141864032</v>
       </c>
       <c r="M10">
-        <v>639.50570857236914</v>
+        <v>639.50562092495261</v>
       </c>
       <c r="N10">
         <v>7153.7300000000005</v>
@@ -9390,7 +9390,7 @@
         <v>131.35999267589563</v>
       </c>
       <c r="C2">
-        <v>738.21688794878719</v>
+        <v>738.21695581601546</v>
       </c>
       <c r="D2">
         <v>5003.1559265158958</v>
@@ -9417,10 +9417,10 @@
         <v>448.01136248050449</v>
       </c>
       <c r="L2">
-        <v>1095.7302913336866</v>
+        <v>1095.7303032207408</v>
       </c>
       <c r="M2">
-        <v>642.99985740391708</v>
+        <v>642.99981670214788</v>
       </c>
       <c r="N2">
         <v>7153.7270248759933</v>
@@ -9443,7 +9443,7 @@
         <v>135.10827289672767</v>
       </c>
       <c r="C3">
-        <v>711.24621570224326</v>
+        <v>711.2462834475923</v>
       </c>
       <c r="D3">
         <v>5099.8255247879288</v>
@@ -9470,10 +9470,10 @@
         <v>448.49999999931407</v>
       </c>
       <c r="L3">
-        <v>1090.9850082424814</v>
+        <v>1090.985020274763</v>
       </c>
       <c r="M3">
-        <v>642.99990540406293</v>
+        <v>642.99981670213811</v>
       </c>
       <c r="N3">
         <v>7153.7299999998104</v>
@@ -9496,7 +9496,7 @@
         <v>134.10309076561219</v>
       </c>
       <c r="C4">
-        <v>689.16863636309495</v>
+        <v>689.16870395995909</v>
       </c>
       <c r="D4">
         <v>5172.4684018651169</v>
@@ -9523,10 +9523,10 @@
         <v>448.69999999960066</v>
       </c>
       <c r="L4">
-        <v>1087.036022443953</v>
+        <v>1087.0360346213752</v>
       </c>
       <c r="M4">
-        <v>642.99990477156177</v>
+        <v>642.99981670213811</v>
       </c>
       <c r="N4">
         <v>7153.7246089077908</v>
@@ -9549,7 +9549,7 @@
         <v>131.84930825623977</v>
       </c>
       <c r="C5">
-        <v>676.77020700517835</v>
+        <v>676.77027441313226</v>
       </c>
       <c r="D5">
         <v>5155.9522148260257</v>
@@ -9576,10 +9576,10 @@
         <v>447.99999999997851</v>
       </c>
       <c r="L5">
-        <v>1084.7898867973718</v>
+        <v>1084.7898990671958</v>
       </c>
       <c r="M5">
-        <v>641.99713259811324</v>
+        <v>641.99704448085447</v>
       </c>
       <c r="N5">
         <v>7153.7299999999987</v>
@@ -9602,7 +9602,7 @@
         <v>129.55283447896244</v>
       </c>
       <c r="C6">
-        <v>678.45647426654216</v>
+        <v>678.4565414702522</v>
       </c>
       <c r="D6">
         <v>5128.1255477872401</v>
@@ -9629,10 +9629,10 @@
         <v>447.50000000180552</v>
       </c>
       <c r="L6">
-        <v>1085.0966434711618</v>
+        <v>1085.0966556806957</v>
       </c>
       <c r="M6">
-        <v>641.99713202228259</v>
+        <v>641.99704448068405</v>
       </c>
       <c r="N6">
         <v>7153.7299999999987</v>
@@ -9655,7 +9655,7 @@
         <v>128.81873029696368</v>
       </c>
       <c r="C7">
-        <v>670.67293140949971</v>
+        <v>670.67299844507147</v>
       </c>
       <c r="D7">
         <v>5110.9383694065727</v>
@@ -9682,10 +9682,10 @@
         <v>447.49999999998676</v>
       </c>
       <c r="L7">
-        <v>1083.6776015332402</v>
+        <v>1083.6776137874774</v>
       </c>
       <c r="M7">
-        <v>640.00761692784238</v>
+        <v>640.00753110685321</v>
       </c>
       <c r="N7">
         <v>7153.7262225311251</v>
@@ -9708,7 +9708,7 @@
         <v>128.35472391626652</v>
       </c>
       <c r="C8">
-        <v>673.35623404947637</v>
+        <v>673.35630096381306</v>
       </c>
       <c r="D8">
         <v>5090.2830124109532</v>
@@ -9735,10 +9735,10 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L8">
-        <v>1084.1677551479131</v>
+        <v>1084.1677673538823</v>
       </c>
       <c r="M8">
-        <v>632.99742167844772</v>
+        <v>632.99732935379745</v>
       </c>
       <c r="N8">
         <v>7153.7300000000805</v>
@@ -9761,7 +9761,7 @@
         <v>127.54077641953059</v>
       </c>
       <c r="C9">
-        <v>663.75989268111221</v>
+        <v>663.76565969706405</v>
       </c>
       <c r="D9">
         <v>5072.393422338534</v>
@@ -9788,10 +9788,10 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L9">
-        <v>1082.4102395403338</v>
+        <v>1082.4113003166397</v>
       </c>
       <c r="M9">
-        <v>634.99509315017906</v>
+        <v>634.99500232439834</v>
       </c>
       <c r="N9">
         <v>7153.7290312053328</v>
@@ -9814,7 +9814,7 @@
         <v>126.86923589320874</v>
       </c>
       <c r="C10">
-        <v>668.80116551026083</v>
+        <v>668.81262445514301</v>
       </c>
       <c r="D10">
         <v>5051.8054287743425</v>
@@ -9841,10 +9841,10 @@
         <v>446.50000000010687</v>
       </c>
       <c r="L10">
-        <v>1083.3351235291843</v>
+        <v>1083.3372222357564</v>
       </c>
       <c r="M10">
-        <v>639.50570857236914</v>
+        <v>639.50562092495261</v>
       </c>
       <c r="N10">
         <v>7153.7300000000005</v>
@@ -9926,7 +9926,7 @@
         <v>130.42668774744331</v>
       </c>
       <c r="C2">
-        <v>735.32609726554938</v>
+        <v>735.32616513869118</v>
       </c>
       <c r="D2">
         <v>5006.7356782671368</v>
@@ -9953,10 +9953,10 @@
         <v>448.01136248050449</v>
       </c>
       <c r="L2">
-        <v>1095.2234546509346</v>
+        <v>1095.223466560991</v>
       </c>
       <c r="M2">
-        <v>642.99985740391708</v>
+        <v>642.99981670214788</v>
       </c>
       <c r="N2">
         <v>7153.7270248759933</v>
@@ -9979,7 +9979,7 @@
         <v>129.6290563482672</v>
       </c>
       <c r="C3">
-        <v>707.95505388948766</v>
+        <v>707.95512164743741</v>
       </c>
       <c r="D3">
         <v>5018.4607390400088</v>
@@ -10006,10 +10006,10 @@
         <v>448.49999999931407</v>
       </c>
       <c r="L3">
-        <v>1090.4002793324462</v>
+        <v>1090.4002913892364</v>
       </c>
       <c r="M3">
-        <v>642.99990540406293</v>
+        <v>642.99981670213811</v>
       </c>
       <c r="N3">
         <v>7153.7299999998104</v>
@@ -10032,7 +10032,7 @@
         <v>128.17572860364447</v>
       </c>
       <c r="C4">
-        <v>684.77160752514146</v>
+        <v>684.7716751336452</v>
       </c>
       <c r="D4">
         <v>5054.7950484656249</v>
@@ -10059,10 +10059,10 @@
         <v>448.69999999960066</v>
       </c>
       <c r="L4">
-        <v>1086.2417652099109</v>
+        <v>1086.2417774409894</v>
       </c>
       <c r="M4">
-        <v>642.99990477156177</v>
+        <v>642.99981670213811</v>
       </c>
       <c r="N4">
         <v>7153.7246089077908</v>
@@ -10085,7 +10085,7 @@
         <v>127.27511302609746</v>
       </c>
       <c r="C5">
-        <v>675.07941253879221</v>
+        <v>675.07947995715631</v>
       </c>
       <c r="D5">
         <v>5025.1750037984293</v>
@@ -10112,10 +10112,10 @@
         <v>447.99999999997851</v>
       </c>
       <c r="L5">
-        <v>1084.4820845101253</v>
+        <v>1084.4820968080348</v>
       </c>
       <c r="M5">
-        <v>641.99713259811324</v>
+        <v>641.99704448085447</v>
       </c>
       <c r="N5">
         <v>7153.7299999999987</v>
@@ -10138,7 +10138,7 @@
         <v>126.32795803511978</v>
       </c>
       <c r="C6">
-        <v>671.96246609646005</v>
+        <v>671.96253330971194</v>
       </c>
       <c r="D6">
         <v>4990.908462971428</v>
@@ -10165,10 +10165,10 @@
         <v>447.50000000180552</v>
       </c>
       <c r="L6">
-        <v>1083.9133323721915</v>
+        <v>1083.9133446589087</v>
       </c>
       <c r="M6">
-        <v>641.99713202228259</v>
+        <v>641.99704448068405</v>
       </c>
       <c r="N6">
         <v>7153.7299999999987</v>
@@ -10191,7 +10191,7 @@
         <v>125.6777205809196</v>
       </c>
       <c r="C7">
-        <v>668.91718948450091</v>
+        <v>668.91725652892057</v>
       </c>
       <c r="D7">
         <v>4975.4283528551823</v>
@@ -10218,10 +10218,10 @@
         <v>447.49999999998676</v>
       </c>
       <c r="L7">
-        <v>1083.3563774659003</v>
+        <v>1083.3563897450992</v>
       </c>
       <c r="M7">
-        <v>640.00761692784238</v>
+        <v>640.00753110685321</v>
       </c>
       <c r="N7">
         <v>7153.7262225311251</v>
@@ -10244,7 +10244,7 @@
         <v>125.07432513070361</v>
       </c>
       <c r="C8">
-        <v>673.0382403135593</v>
+        <v>673.0383072366127</v>
       </c>
       <c r="D8">
         <v>4960.5090855653434</v>
@@ -10271,10 +10271,10 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L8">
-        <v>1084.1097510640434</v>
+        <v>1084.1097632716026</v>
       </c>
       <c r="M8">
-        <v>632.99742167844772</v>
+        <v>632.99732935379745</v>
       </c>
       <c r="N8">
         <v>7153.7300000000805</v>
@@ -10297,7 +10297,7 @@
         <v>124.62915838686494</v>
       </c>
       <c r="C9">
-        <v>663.90026972660451</v>
+        <v>663.90603675125726</v>
       </c>
       <c r="D9">
         <v>4942.5867911757487</v>
@@ -10324,10 +10324,10 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L9">
-        <v>1082.4360620458631</v>
+        <v>1082.4371228237692</v>
       </c>
       <c r="M9">
-        <v>634.99509315017906</v>
+        <v>634.99500232439834</v>
       </c>
       <c r="N9">
         <v>7153.7290312053328</v>
@@ -10350,7 +10350,7 @@
         <v>124.3089150185675</v>
       </c>
       <c r="C10">
-        <v>668.7730375522458</v>
+        <v>668.78449650581501</v>
       </c>
       <c r="D10">
         <v>4916.4730440329613</v>
@@ -10377,10 +10377,10 @@
         <v>446.50000000010687</v>
       </c>
       <c r="L10">
-        <v>1083.3299736852339</v>
+        <v>1083.3320723933969</v>
       </c>
       <c r="M10">
-        <v>639.50570857236914</v>
+        <v>639.50562092495261</v>
       </c>
       <c r="N10">
         <v>7153.7300000000005</v>
@@ -10462,7 +10462,7 @@
         <v>129.63980548372103</v>
       </c>
       <c r="C2">
-        <v>738.28027652502965</v>
+        <v>738.28034439225826</v>
       </c>
       <c r="D2">
         <v>4999.396333011975</v>
@@ -10489,10 +10489,10 @@
         <v>448.01136248050437</v>
       </c>
       <c r="L2">
-        <v>1095.7413939448118</v>
+        <v>1095.7414058318661</v>
       </c>
       <c r="M2">
-        <v>642.99985740391708</v>
+        <v>642.99981670214788</v>
       </c>
       <c r="N2">
         <v>7153.7270248759933</v>
@@ -10515,7 +10515,7 @@
         <v>129.46887931173373</v>
       </c>
       <c r="C3">
-        <v>710.73099277684878</v>
+        <v>710.73106052219782</v>
       </c>
       <c r="D3">
         <v>5049.6221362328415</v>
@@ -10542,10 +10542,10 @@
         <v>448.49999999931407</v>
       </c>
       <c r="L3">
-        <v>1090.8934992694951</v>
+        <v>1090.8935113017767</v>
       </c>
       <c r="M3">
-        <v>642.99990540406293</v>
+        <v>642.99981670213811</v>
       </c>
       <c r="N3">
         <v>7153.7299999998104</v>
@@ -10568,7 +10568,7 @@
         <v>124.52623367039348</v>
       </c>
       <c r="C4">
-        <v>686.78276370166554</v>
+        <v>686.78283129789509</v>
       </c>
       <c r="D4">
         <v>5179.228908217543</v>
@@ -10595,10 +10595,10 @@
         <v>448.69999999960066</v>
       </c>
       <c r="L4">
-        <v>1086.605381133056</v>
+        <v>1086.6053933360843</v>
       </c>
       <c r="M4">
-        <v>642.99990477156177</v>
+        <v>642.99981670213811</v>
       </c>
       <c r="N4">
         <v>7153.7246089077908</v>
@@ -10621,7 +10621,7 @@
         <v>123.76799665199522</v>
       </c>
       <c r="C5">
-        <v>676.52815214335487</v>
+        <v>676.52821954988258</v>
       </c>
       <c r="D5">
         <v>5169.2425887151658</v>
@@ -10648,10 +10648,10 @@
         <v>447.99999999997851</v>
       </c>
       <c r="L5">
-        <v>1084.7458271521784</v>
+        <v>1084.7458394217431</v>
       </c>
       <c r="M5">
-        <v>641.99713259811324</v>
+        <v>641.99704448085447</v>
       </c>
       <c r="N5">
         <v>7153.7299999999987</v>
@@ -10674,7 +10674,7 @@
         <v>122.00487680912514</v>
       </c>
       <c r="C6">
-        <v>678.29079193095947</v>
+        <v>678.29085913324752</v>
       </c>
       <c r="D6">
         <v>5140.9474659974139</v>
@@ -10701,10 +10701,10 @@
         <v>447.50000000180552</v>
       </c>
       <c r="L6">
-        <v>1085.0665423740011</v>
+        <v>1085.0665545832765</v>
       </c>
       <c r="M6">
-        <v>641.99713202228259</v>
+        <v>641.99704448068405</v>
       </c>
       <c r="N6">
         <v>7153.7299999999987</v>
@@ -10727,7 +10727,7 @@
         <v>121.35934209706969</v>
       </c>
       <c r="C7">
-        <v>668.67231353817465</v>
+        <v>668.67238057217003</v>
       </c>
       <c r="D7">
         <v>5132.2110456726732</v>
@@ -10754,10 +10754,10 @@
         <v>447.49999999998676</v>
       </c>
       <c r="L7">
-        <v>1083.3115262391977</v>
+        <v>1083.3115385164874</v>
       </c>
       <c r="M7">
-        <v>640.00761692784238</v>
+        <v>640.00753110685321</v>
       </c>
       <c r="N7">
         <v>7153.7262225311251</v>
@@ -10780,7 +10780,7 @@
         <v>120.92846082238478</v>
       </c>
       <c r="C8">
-        <v>669.23387233458106</v>
+        <v>669.23393924698451</v>
       </c>
       <c r="D8">
         <v>5115.8637080369945</v>
@@ -10807,10 +10807,10 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L8">
-        <v>1083.4143756986252</v>
+        <v>1083.4143879536455</v>
       </c>
       <c r="M8">
-        <v>632.99742167844772</v>
+        <v>632.99732935379745</v>
       </c>
       <c r="N8">
         <v>7153.7300000000805</v>
@@ -10833,7 +10833,7 @@
         <v>120.79386450711887</v>
       </c>
       <c r="C9">
-        <v>660.6786220158175</v>
+        <v>660.6843890182829</v>
       </c>
       <c r="D9">
         <v>5099.4527450142241</v>
@@ -10860,10 +10860,10 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L9">
-        <v>1081.8431381671926</v>
+        <v>1081.8442012288103</v>
       </c>
       <c r="M9">
-        <v>634.99509315017906</v>
+        <v>634.99500232439834</v>
       </c>
       <c r="N9">
         <v>7153.7290312053328</v>
@@ -10886,7 +10886,7 @@
         <v>120.79456790985824</v>
       </c>
       <c r="C10">
-        <v>665.08168059751517</v>
+        <v>665.09313955424841</v>
       </c>
       <c r="D10">
         <v>5079.1953056720167</v>
@@ -10913,10 +10913,10 @@
         <v>446.50000000010687</v>
       </c>
       <c r="L10">
-        <v>1082.6530738066447</v>
+        <v>1082.6551775242397</v>
       </c>
       <c r="M10">
-        <v>639.50570857236914</v>
+        <v>639.50562092495261</v>
       </c>
       <c r="N10">
         <v>7153.7300000000005</v>
@@ -10998,7 +10998,7 @@
         <v>131.1315769761882</v>
       </c>
       <c r="C2">
-        <v>739.91625966288757</v>
+        <v>739.91632753587487</v>
       </c>
       <c r="D2">
         <v>5019.0751397953827</v>
@@ -11025,10 +11025,10 @@
         <v>448.01136248050437</v>
       </c>
       <c r="L2">
-        <v>1096.0278875906924</v>
+        <v>1096.0278994568703</v>
       </c>
       <c r="M2">
-        <v>642.99985740391708</v>
+        <v>642.99981670214788</v>
       </c>
       <c r="N2">
         <v>7153.7270248759933</v>
@@ -11051,7 +11051,7 @@
         <v>131.21033377310445</v>
       </c>
       <c r="C3">
-        <v>711.64029244905146</v>
+        <v>711.64036020689775</v>
       </c>
       <c r="D3">
         <v>5098.8357310734445</v>
@@ -11078,10 +11078,10 @@
         <v>448.49999999931407</v>
       </c>
       <c r="L3">
-        <v>1091.0548989832264</v>
+        <v>1091.0549109955391</v>
       </c>
       <c r="M3">
-        <v>642.99990540406293</v>
+        <v>642.99981670213811</v>
       </c>
       <c r="N3">
         <v>7153.7299999998104</v>
@@ -11104,7 +11104,7 @@
         <v>132.27933053537797</v>
       </c>
       <c r="C4">
-        <v>686.14542276532313</v>
+        <v>686.14549037399934</v>
       </c>
       <c r="D4">
         <v>5146.0872509249239</v>
@@ -11131,10 +11131,10 @@
         <v>448.69999999960066</v>
       </c>
       <c r="L4">
-        <v>1086.4903026125382</v>
+        <v>1086.4903148436479</v>
       </c>
       <c r="M4">
-        <v>642.99990477156177</v>
+        <v>642.99981670213811</v>
       </c>
       <c r="N4">
         <v>7153.7246089077908</v>
@@ -11157,7 +11157,7 @@
         <v>133.19399939817509</v>
       </c>
       <c r="C5">
-        <v>676.0806818929525</v>
+        <v>676.08074931169165</v>
       </c>
       <c r="D5">
         <v>5133.975091937752</v>
@@ -11184,10 +11184,10 @@
         <v>447.99999999997851</v>
       </c>
       <c r="L5">
-        <v>1084.6643771018703</v>
+        <v>1084.6643893736575</v>
       </c>
       <c r="M5">
-        <v>641.99713259811324</v>
+        <v>641.99704448085447</v>
       </c>
       <c r="N5">
         <v>7153.7299999999987</v>
@@ -11210,7 +11210,7 @@
         <v>131.84301257360951</v>
       </c>
       <c r="C6">
-        <v>673.1662294436652</v>
+        <v>673.1662966577228</v>
       </c>
       <c r="D6">
         <v>5107.605757363096</v>
@@ -11237,10 +11237,10 @@
         <v>447.50000000180552</v>
       </c>
       <c r="L6">
-        <v>1084.1330980000837</v>
+        <v>1084.1331102607253</v>
       </c>
       <c r="M6">
-        <v>641.99713202228259</v>
+        <v>641.99704448068405</v>
       </c>
       <c r="N6">
         <v>7153.7299999999987</v>
@@ -11263,7 +11263,7 @@
         <v>129.59657329138128</v>
       </c>
       <c r="C7">
-        <v>666.88408405675352</v>
+        <v>666.88415110248161</v>
       </c>
       <c r="D7">
         <v>5095.0439825633139</v>
@@ -11287,13 +11287,13 @@
         <v>6500.9176015179364</v>
       </c>
       <c r="K7">
-        <v>447.49999999998676</v>
+        <v>447.49999999998681</v>
       </c>
       <c r="L7">
-        <v>1082.9839747731692</v>
+        <v>1082.9839870819142</v>
       </c>
       <c r="M7">
-        <v>640.00761692784238</v>
+        <v>640.00753110685321</v>
       </c>
       <c r="N7">
         <v>7153.7262225311251</v>
@@ -11316,7 +11316,7 @@
         <v>128.0456581334212</v>
       </c>
       <c r="C8">
-        <v>676.81712041110904</v>
+        <v>676.81718733583489</v>
       </c>
       <c r="D8">
         <v>5088.4308814151354</v>
@@ -11343,10 +11343,10 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L8">
-        <v>1084.7984269207086</v>
+        <v>1084.7984391025741</v>
       </c>
       <c r="M8">
-        <v>632.99742167844772</v>
+        <v>632.99732935379745</v>
       </c>
       <c r="N8">
         <v>7153.7300000000805</v>
@@ -11369,7 +11369,7 @@
         <v>127.39432821648502</v>
       </c>
       <c r="C9">
-        <v>675.57259772285045</v>
+        <v>675.57836481149957</v>
       </c>
       <c r="D9">
         <v>5088.8610145566208</v>
@@ -11396,10 +11396,10 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L9">
-        <v>1084.5718950059481</v>
+        <v>1084.5729447494909</v>
       </c>
       <c r="M9">
-        <v>634.99509315017906</v>
+        <v>634.99500232439834</v>
       </c>
       <c r="N9">
         <v>7153.7290312053328</v>
@@ -11422,7 +11422,7 @@
         <v>126.24193429120795</v>
       </c>
       <c r="C10">
-        <v>685.31694858342712</v>
+        <v>685.32840775002774</v>
       </c>
       <c r="D10">
         <v>5074.3812685284929</v>
@@ -11449,10 +11449,10 @@
         <v>446.50000000010687</v>
       </c>
       <c r="L10">
-        <v>1086.3404241421854</v>
+        <v>1086.3424972226362</v>
       </c>
       <c r="M10">
-        <v>639.50570857236914</v>
+        <v>639.50562092495261</v>
       </c>
       <c r="N10">
         <v>7153.7300000000005</v>
@@ -11534,7 +11534,7 @@
         <v>130.32036052631958</v>
       </c>
       <c r="C2">
-        <v>747.64391455383827</v>
+        <v>747.64398242269249</v>
       </c>
       <c r="D2">
         <v>5000.4333954676449</v>
@@ -11561,10 +11561,10 @@
         <v>448.01136248050449</v>
       </c>
       <c r="L2">
-        <v>1097.3766678830245</v>
+        <v>1097.3766797049523</v>
       </c>
       <c r="M2">
-        <v>642.99985740391708</v>
+        <v>642.99981670214788</v>
       </c>
       <c r="N2">
         <v>7153.7270248759933</v>
@@ -11587,7 +11587,7 @@
         <v>131.05922884622964</v>
       </c>
       <c r="C3">
-        <v>729.74023752453388</v>
+        <v>729.74030527422326</v>
       </c>
       <c r="D3">
         <v>5053.755331988028</v>
@@ -11614,10 +11614,10 @@
         <v>448.49999999931407</v>
       </c>
       <c r="L3">
-        <v>1094.24555740748</v>
+        <v>1094.2455692761091</v>
       </c>
       <c r="M3">
-        <v>642.99990540406293</v>
+        <v>642.99981670213811</v>
       </c>
       <c r="N3">
         <v>7153.7299999998104</v>
@@ -11640,7 +11640,7 @@
         <v>128.00184167386888</v>
       </c>
       <c r="C4">
-        <v>710.17158212245806</v>
+        <v>710.17164972526189</v>
       </c>
       <c r="D4">
         <v>5163.3842651853884</v>
@@ -11667,10 +11667,10 @@
         <v>448.69999999960066</v>
       </c>
       <c r="L4">
-        <v>1090.7941420875022</v>
+        <v>1090.7941540944664</v>
       </c>
       <c r="M4">
-        <v>642.99990477156177</v>
+        <v>642.99981670213811</v>
       </c>
       <c r="N4">
         <v>7153.7246089077908</v>
@@ -11693,7 +11693,7 @@
         <v>130.60554367470985</v>
       </c>
       <c r="C5">
-        <v>700.98490418773429</v>
+        <v>700.98497160409272</v>
       </c>
       <c r="D5">
         <v>5167.5564026150569</v>
@@ -11720,10 +11720,10 @@
         <v>447.99999999997851</v>
       </c>
       <c r="L5">
-        <v>1089.1574340059169</v>
+        <v>1089.1574460520822</v>
       </c>
       <c r="M5">
-        <v>641.99713259811324</v>
+        <v>641.99704448085447</v>
       </c>
       <c r="N5">
         <v>7153.7299999999987</v>
@@ -11746,7 +11746,7 @@
         <v>130.05878255848026</v>
       </c>
       <c r="C6">
-        <v>703.31653758264565</v>
+        <v>703.31660479843208</v>
       </c>
       <c r="D6">
         <v>5144.1348346627055</v>
@@ -11773,10 +11773,10 @@
         <v>447.50000000180552</v>
       </c>
       <c r="L6">
-        <v>1089.5739195554686</v>
+        <v>1089.5739315435178</v>
       </c>
       <c r="M6">
-        <v>641.99713202228259</v>
+        <v>641.99704448068405</v>
       </c>
       <c r="N6">
         <v>7153.7299999999987</v>
@@ -11799,7 +11799,7 @@
         <v>128.32014819870628</v>
       </c>
       <c r="C7">
-        <v>694.87898640647188</v>
+        <v>694.87905345714034</v>
       </c>
       <c r="D7">
         <v>5129.1172064798866</v>
@@ -11826,10 +11826,10 @@
         <v>447.49999999998676</v>
       </c>
       <c r="L7">
-        <v>1088.0635387161299</v>
+        <v>1088.0635507472571</v>
       </c>
       <c r="M7">
-        <v>640.00761692784238</v>
+        <v>640.00753110685321</v>
       </c>
       <c r="N7">
         <v>7153.7262225311251</v>
@@ -11852,7 +11852,7 @@
         <v>126.99121875336559</v>
       </c>
       <c r="C8">
-        <v>699.60902637175673</v>
+        <v>699.60909330338995</v>
       </c>
       <c r="D8">
         <v>5120.3763711341207</v>
@@ -11879,10 +11879,10 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L8">
-        <v>1088.91140081961</v>
+        <v>1088.9114128042181</v>
       </c>
       <c r="M8">
-        <v>632.99742167844772</v>
+        <v>632.99732935379745</v>
       </c>
       <c r="N8">
         <v>7153.7300000000805</v>
@@ -11905,7 +11905,7 @@
         <v>125.93233902579429</v>
       </c>
       <c r="C9">
-        <v>689.33709740052109</v>
+        <v>689.34286457525809</v>
       </c>
       <c r="D9">
         <v>5111.6489533191007</v>
@@ -11932,10 +11932,10 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L9">
-        <v>1087.0663684780666</v>
+        <v>1087.0674074215453</v>
       </c>
       <c r="M9">
-        <v>634.99509315017906</v>
+        <v>634.99500232439834</v>
       </c>
       <c r="N9">
         <v>7153.7290312053328</v>
@@ -11958,7 +11958,7 @@
         <v>125.02764516123061</v>
       </c>
       <c r="C10">
-        <v>695.28054616379791</v>
+        <v>695.29200556259184</v>
       </c>
       <c r="D10">
         <v>5093.4271923675633</v>
@@ -11985,10 +11985,10 @@
         <v>446.50000000010687</v>
       </c>
       <c r="L10">
-        <v>1088.1355907310103</v>
+        <v>1088.1376469294974</v>
       </c>
       <c r="M10">
-        <v>639.50570857236914</v>
+        <v>639.50562092495261</v>
       </c>
       <c r="N10">
         <v>7153.7300000000005</v>
@@ -12070,7 +12070,7 @@
         <v>130.26296632748586</v>
       </c>
       <c r="C2">
-        <v>739.04975162476092</v>
+        <v>739.0498194919893</v>
       </c>
       <c r="D2">
         <v>5010.5998699114216</v>
@@ -12097,10 +12097,10 @@
         <v>448.01136248050449</v>
       </c>
       <c r="L2">
-        <v>1095.8761687466647</v>
+        <v>1095.8761806337188</v>
       </c>
       <c r="M2">
-        <v>642.99985740391708</v>
+        <v>642.99981670214788</v>
       </c>
       <c r="N2">
         <v>7153.7270248759933</v>
@@ -12123,7 +12123,7 @@
         <v>131.31352125022386</v>
       </c>
       <c r="C3">
-        <v>709.64050666255378</v>
+        <v>709.64057440790293</v>
       </c>
       <c r="D3">
         <v>5060.0871063003387</v>
@@ -12150,10 +12150,10 @@
         <v>448.49999999931407</v>
       </c>
       <c r="L3">
-        <v>1090.699817545503</v>
+        <v>1090.6998295777846</v>
       </c>
       <c r="M3">
-        <v>642.99990540406293</v>
+        <v>642.99981670213811</v>
       </c>
       <c r="N3">
         <v>7153.7299999998104</v>
@@ -12176,7 +12176,7 @@
         <v>128.60492571222872</v>
       </c>
       <c r="C4">
-        <v>687.18005364986493</v>
+        <v>687.18012124609459</v>
       </c>
       <c r="D4">
         <v>5105.1934749566544</v>
@@ -12203,10 +12203,10 @@
         <v>448.69999999960066</v>
       </c>
       <c r="L4">
-        <v>1086.6771031890921</v>
+        <v>1086.6771153921206</v>
       </c>
       <c r="M4">
-        <v>642.99990477156177</v>
+        <v>642.99981670213811</v>
       </c>
       <c r="N4">
         <v>7153.7246089077908</v>
@@ -12229,7 +12229,7 @@
         <v>126.67146573197296</v>
       </c>
       <c r="C5">
-        <v>678.03023224771403</v>
+        <v>678.03029965442158</v>
       </c>
       <c r="D5">
         <v>5077.4160597472628</v>
@@ -12256,10 +12256,10 @@
         <v>447.99999999997851</v>
       </c>
       <c r="L5">
-        <v>1085.0192045080828</v>
+        <v>1085.0192167544972</v>
       </c>
       <c r="M5">
-        <v>641.99713259811324</v>
+        <v>641.99704448085447</v>
       </c>
       <c r="N5">
         <v>7153.7299999999987</v>
@@ -12282,7 +12282,7 @@
         <v>124.82605747578413</v>
       </c>
       <c r="C6">
-        <v>678.22478536941867</v>
+        <v>678.22485257208143</v>
       </c>
       <c r="D6">
         <v>5044.9206435245751</v>
@@ -12309,10 +12309,10 @@
         <v>447.50000000180552</v>
       </c>
       <c r="L6">
-        <v>1085.0545515527754</v>
+        <v>1085.0545637621181</v>
       </c>
       <c r="M6">
-        <v>641.99713202228259</v>
+        <v>641.99704448068417</v>
       </c>
       <c r="N6">
         <v>7153.7299999999987</v>
@@ -12335,7 +12335,7 @@
         <v>124.6212358208595</v>
       </c>
       <c r="C7">
-        <v>668.02899401711488</v>
+        <v>668.02906105148384</v>
       </c>
       <c r="D7">
         <v>5026.459088558192</v>
@@ -12362,10 +12362,10 @@
         <v>447.49999999998676</v>
       </c>
       <c r="L7">
-        <v>1083.1937033656034</v>
+        <v>1083.1937156429603</v>
       </c>
       <c r="M7">
-        <v>640.00761692784238</v>
+        <v>640.00753110685321</v>
       </c>
       <c r="N7">
         <v>7153.7262225311251</v>
@@ -12388,7 +12388,7 @@
         <v>124.22643333484807</v>
       </c>
       <c r="C8">
-        <v>676.4191785978021</v>
+        <v>676.41924551095167</v>
       </c>
       <c r="D8">
         <v>5047.6007128048923</v>
@@ -12415,10 +12415,10 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L8">
-        <v>1084.725992153825</v>
+        <v>1084.7260043335825</v>
       </c>
       <c r="M8">
-        <v>632.99742167844772</v>
+        <v>632.99732935379745</v>
       </c>
       <c r="N8">
         <v>7153.7300000000805</v>
@@ -12441,7 +12441,7 @@
         <v>124.03782514391108</v>
       </c>
       <c r="C9">
-        <v>668.33450452110617</v>
+        <v>668.34027155848128</v>
       </c>
       <c r="D9">
         <v>5040.4914823262689</v>
@@ -12468,10 +12468,10 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L9">
-        <v>1083.2496576751917</v>
+        <v>1083.2507139092347</v>
       </c>
       <c r="M9">
-        <v>634.99509315017906</v>
+        <v>634.99500232439834</v>
       </c>
       <c r="N9">
         <v>7153.7290312053328</v>
@@ -12494,7 +12494,7 @@
         <v>123.80701175891322</v>
       </c>
       <c r="C10">
-        <v>672.91714025242391</v>
+        <v>672.9285992741876</v>
       </c>
       <c r="D10">
         <v>5022.6348642719431</v>
@@ -12521,10 +12521,10 @@
         <v>446.50000000010687</v>
       </c>
       <c r="L10">
-        <v>1084.087659947842</v>
+        <v>1084.0897502079183</v>
       </c>
       <c r="M10">
-        <v>639.50570857236914</v>
+        <v>639.50562092495261</v>
       </c>
       <c r="N10">
         <v>7153.7300000000005</v>
@@ -12606,7 +12606,7 @@
         <v>130.70357674735442</v>
       </c>
       <c r="C2">
-        <v>739.84507373360634</v>
+        <v>739.84514160659364</v>
       </c>
       <c r="D2">
         <v>4999.2409015747226</v>
@@ -12633,10 +12633,10 @@
         <v>448.01136248050449</v>
       </c>
       <c r="L2">
-        <v>1096.0154422142216</v>
+        <v>1096.015454080399</v>
       </c>
       <c r="M2">
-        <v>642.99985740391708</v>
+        <v>642.99981670214788</v>
       </c>
       <c r="N2">
         <v>7153.7270248759933</v>
@@ -12659,7 +12659,7 @@
         <v>130.56657605815067</v>
       </c>
       <c r="C3">
-        <v>714.38924645710324</v>
+        <v>714.38931421507698</v>
       </c>
       <c r="D3">
         <v>5057.3132586299416</v>
@@ -12686,10 +12686,10 @@
         <v>448.49999999931407</v>
       </c>
       <c r="L3">
-        <v>1091.5421542957636</v>
+        <v>1091.5421662832343</v>
       </c>
       <c r="M3">
-        <v>642.99990540406293</v>
+        <v>642.99981670213811</v>
       </c>
       <c r="N3">
         <v>7153.7299999998104</v>
@@ -12712,7 +12712,7 @@
         <v>132.04924086780662</v>
       </c>
       <c r="C4">
-        <v>692.19126983648823</v>
+        <v>692.19133744590715</v>
       </c>
       <c r="D4">
         <v>5150.6308240723001</v>
@@ -12739,10 +12739,10 @@
         <v>448.69999999960066</v>
       </c>
       <c r="L4">
-        <v>1087.5803924073662</v>
+        <v>1087.5804045642735</v>
       </c>
       <c r="M4">
-        <v>642.99990477156177</v>
+        <v>642.99981670213811</v>
       </c>
       <c r="N4">
         <v>7153.7246089077908</v>
@@ -12765,7 +12765,7 @@
         <v>131.96725526389486</v>
       </c>
       <c r="C5">
-        <v>684.43858671160717</v>
+        <v>684.43865413224501</v>
       </c>
       <c r="D5">
         <v>5152.4050236223029</v>
@@ -12792,10 +12792,10 @@
         <v>447.99999999997851</v>
       </c>
       <c r="L5">
-        <v>1086.1815182888943</v>
+        <v>1086.1815304859861</v>
       </c>
       <c r="M5">
-        <v>641.99713259811324</v>
+        <v>641.99704448085447</v>
       </c>
       <c r="N5">
         <v>7153.7299999999987</v>
@@ -12818,7 +12818,7 @@
         <v>131.35559664128354</v>
       </c>
       <c r="C6">
-        <v>682.84683167172648</v>
+        <v>682.84689888893718</v>
       </c>
       <c r="D6">
         <v>5128.5267103572442</v>
@@ -12845,10 +12845,10 @@
         <v>447.50000000180552</v>
       </c>
       <c r="L6">
-        <v>1085.8933530918716</v>
+        <v>1085.8933652750836</v>
       </c>
       <c r="M6">
-        <v>641.99713202228259</v>
+        <v>641.99704448068405</v>
       </c>
       <c r="N6">
         <v>7153.7299999999987</v>
@@ -12871,7 +12871,7 @@
         <v>129.42867445020926</v>
       </c>
       <c r="C7">
-        <v>673.37521678134135</v>
+        <v>673.37528383075357</v>
       </c>
       <c r="D7">
         <v>5116.7873140598513</v>
@@ -12898,10 +12898,10 @@
         <v>447.49999999998676</v>
       </c>
       <c r="L7">
-        <v>1084.1712194098602</v>
+        <v>1084.1712316404687</v>
       </c>
       <c r="M7">
-        <v>640.00761692784238</v>
+        <v>640.00753110685321</v>
       </c>
       <c r="N7">
         <v>7153.7262225311251</v>
@@ -12924,7 +12924,7 @@
         <v>127.86555262049892</v>
       </c>
       <c r="C8">
-        <v>677.21428855813292</v>
+        <v>677.21435548654324</v>
       </c>
       <c r="D8">
         <v>5106.1464959925916</v>
@@ -12951,10 +12951,10 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L8">
-        <v>1084.8707194648716</v>
+        <v>1084.8707316474079</v>
       </c>
       <c r="M8">
-        <v>632.99742167844772</v>
+        <v>632.99732935379745</v>
       </c>
       <c r="N8">
         <v>7153.7300000000805</v>
@@ -12977,7 +12977,7 @@
         <v>126.41280729109394</v>
       </c>
       <c r="C9">
-        <v>669.1667727217532</v>
+        <v>669.17253977436144</v>
       </c>
       <c r="D9">
         <v>5094.4732407094507</v>
@@ -13004,10 +13004,10 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L9">
-        <v>1083.4020864561089</v>
+        <v>1083.403142692943</v>
       </c>
       <c r="M9">
-        <v>634.99509315017906</v>
+        <v>634.99500232439834</v>
       </c>
       <c r="N9">
         <v>7153.7290312053328</v>
@@ -13030,7 +13030,7 @@
         <v>124.93676494902363</v>
       </c>
       <c r="C10">
-        <v>676.27504244963927</v>
+        <v>676.28650149810585</v>
       </c>
       <c r="D10">
         <v>5074.0329195000932</v>
@@ -13057,10 +13057,10 @@
         <v>446.50000000010687</v>
       </c>
       <c r="L10">
-        <v>1084.6997547046387</v>
+        <v>1084.7018405194626</v>
       </c>
       <c r="M10">
-        <v>639.50570857236914</v>
+        <v>639.50562092495261</v>
       </c>
       <c r="N10">
         <v>7153.7300000000005</v>
@@ -13142,7 +13142,7 @@
         <v>130.30348502014701</v>
       </c>
       <c r="C2">
-        <v>737.3731855892438</v>
+        <v>737.37325345647218</v>
       </c>
       <c r="D2">
         <v>4999.2918937916947</v>
@@ -13169,10 +13169,10 @@
         <v>448.01136248050437</v>
       </c>
       <c r="L2">
-        <v>1095.5825155080579</v>
+        <v>1095.582527395112</v>
       </c>
       <c r="M2">
-        <v>642.99985740391708</v>
+        <v>642.99981670214788</v>
       </c>
       <c r="N2">
         <v>7153.7270248759933</v>
@@ -13195,7 +13195,7 @@
         <v>133.85065173810574</v>
       </c>
       <c r="C3">
-        <v>708.74904909562326</v>
+        <v>708.74911684097231</v>
       </c>
       <c r="D3">
         <v>5067.5906699888856</v>
@@ -13222,10 +13222,10 @@
         <v>448.49999999931407</v>
       </c>
       <c r="L3">
-        <v>1090.5414853709869</v>
+        <v>1090.5414974032683</v>
       </c>
       <c r="M3">
-        <v>642.99990540406293</v>
+        <v>642.99981670213811</v>
       </c>
       <c r="N3">
         <v>7153.7299999998104</v>
@@ -13248,7 +13248,7 @@
         <v>131.08321116514549</v>
       </c>
       <c r="C4">
-        <v>684.78052649131803</v>
+        <v>684.78059408738727</v>
       </c>
       <c r="D4">
         <v>5122.9522378144593</v>
@@ -13275,10 +13275,10 @@
         <v>448.69999999960066</v>
       </c>
       <c r="L4">
-        <v>1086.2433787407651</v>
+        <v>1086.243390969594</v>
       </c>
       <c r="M4">
-        <v>642.99990477156177</v>
+        <v>642.99981670213811</v>
       </c>
       <c r="N4">
         <v>7153.7246089077908</v>
@@ -13301,7 +13301,7 @@
         <v>129.08628248380734</v>
       </c>
       <c r="C5">
-        <v>676.01439660904975</v>
+        <v>676.01446401521753</v>
       </c>
       <c r="D5">
         <v>5107.7554822497232</v>
@@ -13328,10 +13328,10 @@
         <v>447.99999999997851</v>
       </c>
       <c r="L5">
-        <v>1084.6523116306985</v>
+        <v>1084.6523239001976</v>
       </c>
       <c r="M5">
-        <v>641.99713259811324</v>
+        <v>641.99704448085447</v>
       </c>
       <c r="N5">
         <v>7153.7299999999987</v>
@@ -13354,7 +13354,7 @@
         <v>127.19051572514796</v>
       </c>
       <c r="C6">
-        <v>676.86064407090976</v>
+        <v>676.8607112726487</v>
       </c>
       <c r="D6">
         <v>5080.3485393198853</v>
@@ -13381,10 +13381,10 @@
         <v>447.50000000180552</v>
       </c>
       <c r="L6">
-        <v>1084.8063482319853</v>
+        <v>1084.8063604642737</v>
       </c>
       <c r="M6">
-        <v>641.99713202228259</v>
+        <v>641.99704448068417</v>
       </c>
       <c r="N6">
         <v>7153.7299999999987</v>
@@ -13407,7 +13407,7 @@
         <v>126.38414682971674</v>
       </c>
       <c r="C7">
-        <v>666.48774599190165</v>
+        <v>666.48781302551868</v>
       </c>
       <c r="D7">
         <v>5069.4570075031224</v>
@@ -13431,13 +13431,13 @@
         <v>6496.6394739339594</v>
       </c>
       <c r="K7">
-        <v>447.49999999998676</v>
+        <v>447.49999999998681</v>
       </c>
       <c r="L7">
-        <v>1082.9112111062107</v>
+        <v>1082.9112234127322</v>
       </c>
       <c r="M7">
-        <v>640.00761692784238</v>
+        <v>640.00753110685321</v>
       </c>
       <c r="N7">
         <v>7153.7262225311251</v>
@@ -13460,7 +13460,7 @@
         <v>126.14585369090184</v>
       </c>
       <c r="C8">
-        <v>668.39241113129731</v>
+        <v>668.39247804356103</v>
       </c>
       <c r="D8">
         <v>5063.1942196542432</v>
@@ -13487,10 +13487,10 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L8">
-        <v>1083.2602618128785</v>
+        <v>1083.2602740678731</v>
       </c>
       <c r="M8">
-        <v>632.99742167844772</v>
+        <v>632.99732935379745</v>
       </c>
       <c r="N8">
         <v>7153.7300000000805</v>
@@ -13513,7 +13513,7 @@
         <v>125.82090000393586</v>
       </c>
       <c r="C9">
-        <v>660.98825083371219</v>
+        <v>660.9940178360381</v>
       </c>
       <c r="D9">
         <v>5054.2686285573391</v>
@@ -13540,10 +13540,10 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L9">
-        <v>1081.9002135613312</v>
+        <v>1081.9012766229232</v>
       </c>
       <c r="M9">
-        <v>634.99509315017906</v>
+        <v>634.99500232439834</v>
       </c>
       <c r="N9">
         <v>7153.7290312053328</v>
@@ -13566,7 +13566,7 @@
         <v>125.51432329253574</v>
       </c>
       <c r="C10">
-        <v>668.55395073763111</v>
+        <v>668.56540965164652</v>
       </c>
       <c r="D10">
         <v>5038.4071571491595</v>
@@ -13593,10 +13593,10 @@
         <v>446.50000000010687</v>
       </c>
       <c r="L10">
-        <v>1083.2898478224183</v>
+        <v>1083.2919465248015</v>
       </c>
       <c r="M10">
-        <v>639.50570857236914</v>
+        <v>639.50562092495261</v>
       </c>
       <c r="N10">
         <v>7153.7300000000005</v>
@@ -13678,7 +13678,7 @@
         <v>129.41419640672473</v>
       </c>
       <c r="C2">
-        <v>738.66262472263782</v>
+        <v>738.66269258986608</v>
       </c>
       <c r="D2">
         <v>4985.8248470851186</v>
@@ -13705,10 +13705,10 @@
         <v>448.01136248050449</v>
       </c>
       <c r="L2">
-        <v>1095.8083628468455</v>
+        <v>1095.8083747338999</v>
       </c>
       <c r="M2">
-        <v>642.99985740391708</v>
+        <v>642.99981670214788</v>
       </c>
       <c r="N2">
         <v>7153.7270248759933</v>
@@ -13731,7 +13731,7 @@
         <v>128.008394507498</v>
       </c>
       <c r="C3">
-        <v>712.6011016985301</v>
+        <v>712.60116944399317</v>
       </c>
       <c r="D3">
         <v>5002.9113018240605</v>
@@ -13758,10 +13758,10 @@
         <v>448.49999999931407</v>
       </c>
       <c r="L3">
-        <v>1091.2252341059082</v>
+        <v>1091.2252461160253</v>
       </c>
       <c r="M3">
-        <v>642.99990540406293</v>
+        <v>642.99981670213811</v>
       </c>
       <c r="N3">
         <v>7153.7299999998104</v>
@@ -13784,7 +13784,7 @@
         <v>121.47289002794984</v>
       </c>
       <c r="C4">
-        <v>690.47093835120143</v>
+        <v>690.47100594831693</v>
       </c>
       <c r="D4">
         <v>5106.5395188385428</v>
@@ -13811,10 +13811,10 @@
         <v>448.69999999960066</v>
       </c>
       <c r="L4">
-        <v>1087.2706292002424</v>
+        <v>1087.2706413777098</v>
       </c>
       <c r="M4">
-        <v>642.99990477156177</v>
+        <v>642.99981670213811</v>
       </c>
       <c r="N4">
         <v>7153.7246089077908</v>
@@ -13837,7 +13837,7 @@
         <v>123.42052006539237</v>
       </c>
       <c r="C5">
-        <v>681.58436172697486</v>
+        <v>681.5844291355827</v>
       </c>
       <c r="D5">
         <v>5120.1536987140798</v>
@@ -13864,10 +13864,10 @@
         <v>447.99999999997851</v>
       </c>
       <c r="L5">
-        <v>1085.6645282478844</v>
+        <v>1085.6645404657872</v>
       </c>
       <c r="M5">
-        <v>641.99713259811324</v>
+        <v>641.99704448085447</v>
       </c>
       <c r="N5">
         <v>7153.7299999999987</v>
@@ -13890,7 +13890,7 @@
         <v>123.7331511979325</v>
       </c>
       <c r="C6">
-        <v>680.42172636295288</v>
+        <v>680.42179356774341</v>
       </c>
       <c r="D6">
         <v>5096.3335886591321</v>
@@ -13917,10 +13917,10 @@
         <v>447.50000000180552</v>
       </c>
       <c r="L6">
-        <v>1085.4536901838128</v>
+        <v>1085.4537023935427</v>
       </c>
       <c r="M6">
-        <v>641.99713202228259</v>
+        <v>641.99704448068405</v>
       </c>
       <c r="N6">
         <v>7153.7299999999987</v>
@@ -13943,7 +13943,7 @@
         <v>122.91603123489784</v>
       </c>
       <c r="C7">
-        <v>671.74118883566564</v>
+        <v>671.74125587231561</v>
       </c>
       <c r="D7">
         <v>5080.8330704267191</v>
@@ -13970,10 +13970,10 @@
         <v>447.49999999998676</v>
       </c>
       <c r="L7">
-        <v>1083.8728819084549</v>
+        <v>1083.872894162889</v>
       </c>
       <c r="M7">
-        <v>640.00761692784238</v>
+        <v>640.00753110685321</v>
       </c>
       <c r="N7">
         <v>7153.7262225311251</v>
@@ -13996,7 +13996,7 @@
         <v>122.37299721651519</v>
       </c>
       <c r="C8">
-        <v>674.53999538193762</v>
+        <v>674.5400622973508</v>
       </c>
       <c r="D8">
         <v>5062.039907594989</v>
@@ -14023,10 +14023,10 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L8">
-        <v>1084.3836880051099</v>
+        <v>1084.3837002112753</v>
       </c>
       <c r="M8">
-        <v>632.99742167844772</v>
+        <v>632.99732935379745</v>
       </c>
       <c r="N8">
         <v>7153.7300000000805</v>
@@ -14049,7 +14049,7 @@
         <v>122.04567901068839</v>
       </c>
       <c r="C9">
-        <v>666.74330400430938</v>
+        <v>666.74907106427668</v>
       </c>
       <c r="D9">
         <v>5043.2285472449839</v>
@@ -14076,10 +14076,10 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L9">
-        <v>1082.9581281349426</v>
+        <v>1082.9591868939794</v>
       </c>
       <c r="M9">
-        <v>634.99509315017906</v>
+        <v>634.99500232439834</v>
       </c>
       <c r="N9">
         <v>7153.7290312053328</v>
@@ -14102,7 +14102,7 @@
         <v>121.85428018512731</v>
       </c>
       <c r="C10">
-        <v>673.99930211931439</v>
+        <v>674.01076117379068</v>
       </c>
       <c r="D10">
         <v>5022.8444054085348</v>
@@ -14129,10 +14129,10 @@
         <v>446.50000000010687</v>
       </c>
       <c r="L10">
-        <v>1084.2850591370336</v>
+        <v>1084.287149404536</v>
       </c>
       <c r="M10">
-        <v>639.50570857236914</v>
+        <v>639.50562092495261</v>
       </c>
       <c r="N10">
         <v>7153.7300000000005</v>
@@ -14214,7 +14214,7 @@
         <v>132.01283488783477</v>
       </c>
       <c r="C2">
-        <v>738.29235440187063</v>
+        <v>738.29242226909912</v>
       </c>
       <c r="D2">
         <v>4995.4682954671816</v>
@@ -14241,10 +14241,10 @@
         <v>448.01136248050449</v>
       </c>
       <c r="L2">
-        <v>1095.7435094043747</v>
+        <v>1095.7435212914288</v>
       </c>
       <c r="M2">
-        <v>642.99985740391708</v>
+        <v>642.99981670214788</v>
       </c>
       <c r="N2">
         <v>7153.7270248759933</v>
@@ -14267,7 +14267,7 @@
         <v>135.40098103059569</v>
       </c>
       <c r="C3">
-        <v>714.69118092494909</v>
+        <v>714.69124867054029</v>
       </c>
       <c r="D3">
         <v>5073.4636648529759</v>
@@ -14294,10 +14294,10 @@
         <v>448.49999999931407</v>
       </c>
       <c r="L3">
-        <v>1091.5955713378216</v>
+        <v>1091.5955833231017</v>
       </c>
       <c r="M3">
-        <v>642.99990540406293</v>
+        <v>642.99981670213811</v>
       </c>
       <c r="N3">
         <v>7153.7299999998104</v>
@@ -14320,7 +14320,7 @@
         <v>133.94887203350854</v>
       </c>
       <c r="C4">
-        <v>693.23836698640332</v>
+        <v>693.2384345834671</v>
       </c>
       <c r="D4">
         <v>5176.0080174466702</v>
@@ -14347,10 +14347,10 @@
         <v>448.69999999960066</v>
       </c>
       <c r="L4">
-        <v>1087.7686718401576</v>
+        <v>1087.7686839948431</v>
       </c>
       <c r="M4">
-        <v>642.99990477156177</v>
+        <v>642.99981670213811</v>
       </c>
       <c r="N4">
         <v>7153.7246089077908</v>
@@ -14373,7 +14373,7 @@
         <v>139.2702769722533</v>
       </c>
       <c r="C5">
-        <v>683.30806574951396</v>
+        <v>683.30813315765295</v>
       </c>
       <c r="D5">
         <v>5190.3822062191284</v>
@@ -14400,10 +14400,10 @@
         <v>447.99999999997851</v>
       </c>
       <c r="L5">
-        <v>1085.9769519719014</v>
+        <v>1085.9769641897194</v>
       </c>
       <c r="M5">
-        <v>641.99713259811324</v>
+        <v>641.99704448085447</v>
       </c>
       <c r="N5">
         <v>7153.7299999999987</v>
@@ -14426,7 +14426,7 @@
         <v>138.09272787527436</v>
       </c>
       <c r="C6">
-        <v>679.28574697967906</v>
+        <v>679.28581418400233</v>
       </c>
       <c r="D6">
         <v>5171.5462185110791</v>
@@ -14453,10 +14453,10 @@
         <v>447.50000000180552</v>
       </c>
       <c r="L6">
-        <v>1085.2473068329207</v>
+        <v>1085.2473190425658</v>
       </c>
       <c r="M6">
-        <v>641.99713202228259</v>
+        <v>641.99704448068405</v>
       </c>
       <c r="N6">
         <v>7153.7299999999987</v>
@@ -14479,7 +14479,7 @@
         <v>135.70235089279097</v>
       </c>
       <c r="C7">
-        <v>668.45025431230943</v>
+        <v>668.4503213483348</v>
       </c>
       <c r="D7">
         <v>5160.8529557812444</v>
@@ -14506,10 +14506,10 @@
         <v>447.49999999998676</v>
       </c>
       <c r="L7">
-        <v>1083.2708576219468</v>
+        <v>1083.270869899608</v>
       </c>
       <c r="M7">
-        <v>640.00761692784238</v>
+        <v>640.00753110685321</v>
       </c>
       <c r="N7">
         <v>7153.7262225311251</v>
@@ -14532,7 +14532,7 @@
         <v>133.7974011898136</v>
       </c>
       <c r="C8">
-        <v>668.64942951992202</v>
+        <v>668.64949643435432</v>
       </c>
       <c r="D8">
         <v>5147.0201619764293</v>
@@ -14559,10 +14559,10 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L8">
-        <v>1083.3073373339885</v>
+        <v>1083.3073495893796</v>
       </c>
       <c r="M8">
-        <v>632.99742167844772</v>
+        <v>632.99732935379745</v>
       </c>
       <c r="N8">
         <v>7153.7300000000805</v>
@@ -14585,7 +14585,7 @@
         <v>132.17566840628675</v>
       </c>
       <c r="C9">
-        <v>658.65346718593628</v>
+        <v>658.65923418033037</v>
       </c>
       <c r="D9">
         <v>5136.3165594159445</v>
@@ -14612,10 +14612,10 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L9">
-        <v>1081.469775349703</v>
+        <v>1081.4708404517237</v>
       </c>
       <c r="M9">
-        <v>634.99509315017906</v>
+        <v>634.99500232439834</v>
       </c>
       <c r="N9">
         <v>7153.7290312053328</v>
@@ -14638,7 +14638,7 @@
         <v>130.62626413732676</v>
       </c>
       <c r="C10">
-        <v>663.26149422994979</v>
+        <v>663.27295309629721</v>
       </c>
       <c r="D10">
         <v>5120.1974557012154</v>
@@ -14665,10 +14665,10 @@
         <v>446.50000000010687</v>
       </c>
       <c r="L10">
-        <v>1082.3185666777649</v>
+        <v>1082.3206744030635</v>
       </c>
       <c r="M10">
-        <v>639.50570857236914</v>
+        <v>639.50562092495261</v>
       </c>
       <c r="N10">
         <v>7153.7300000000005</v>
@@ -14750,7 +14750,7 @@
         <v>130.74732236472201</v>
       </c>
       <c r="C2">
-        <v>745.39356082721929</v>
+        <v>745.39362869198203</v>
       </c>
       <c r="D2">
         <v>5000.0173714836792</v>
@@ -14777,10 +14777,10 @@
         <v>448.01136248050437</v>
       </c>
       <c r="L2">
-        <v>1096.9846534364949</v>
+        <v>1096.9846652810445</v>
       </c>
       <c r="M2">
-        <v>642.99985740391708</v>
+        <v>642.99981670214788</v>
       </c>
       <c r="N2">
         <v>7153.7270248759933</v>
@@ -14803,7 +14803,7 @@
         <v>132.03261135726328</v>
       </c>
       <c r="C3">
-        <v>720.31608057270887</v>
+        <v>720.31614831323759</v>
       </c>
       <c r="D3">
         <v>5020.0594045144708</v>
@@ -14830,10 +14830,10 @@
         <v>448.49999999931407</v>
       </c>
       <c r="L3">
-        <v>1092.5893219784516</v>
+        <v>1092.5893339161616</v>
       </c>
       <c r="M3">
-        <v>642.99990540406293</v>
+        <v>642.99981670213811</v>
       </c>
       <c r="N3">
         <v>7153.7299999998104</v>
@@ -14856,7 +14856,7 @@
         <v>132.95131779100578</v>
       </c>
       <c r="C4">
-        <v>698.04421262341634</v>
+        <v>698.04428021603439</v>
       </c>
       <c r="D4">
         <v>5172.898361572994</v>
@@ -14883,10 +14883,10 @@
         <v>448.69999999960066</v>
       </c>
       <c r="L4">
-        <v>1088.6312110768022</v>
+        <v>1088.6312231797642</v>
       </c>
       <c r="M4">
-        <v>642.99990477156177</v>
+        <v>642.99981670213811</v>
       </c>
       <c r="N4">
         <v>7153.7246089077908</v>
@@ -14909,7 +14909,7 @@
         <v>134.65680298872925</v>
       </c>
       <c r="C5">
-        <v>685.4180762514909</v>
+        <v>685.41814365576954</v>
       </c>
       <c r="D5">
         <v>5195.8369482238713</v>
@@ -14936,10 +14936,10 @@
         <v>447.99999999997851</v>
       </c>
       <c r="L5">
-        <v>1086.3587180844877</v>
+        <v>1086.3587302786198</v>
       </c>
       <c r="M5">
-        <v>641.99713259811324</v>
+        <v>641.99704448085447</v>
       </c>
       <c r="N5">
         <v>7153.7299999999987</v>
@@ -14962,7 +14962,7 @@
         <v>133.29446854959551</v>
       </c>
       <c r="C6">
-        <v>685.07447959643298</v>
+        <v>685.07454679752243</v>
       </c>
       <c r="D6">
         <v>5180.9136971688822</v>
@@ -14989,10 +14989,10 @@
         <v>447.50000000180552</v>
       </c>
       <c r="L6">
-        <v>1086.2965579833933</v>
+        <v>1086.2965701407666</v>
       </c>
       <c r="M6">
-        <v>641.99713202228259</v>
+        <v>641.99704448068405</v>
       </c>
       <c r="N6">
         <v>7153.7299999999987</v>
@@ -15015,7 +15015,7 @@
         <v>130.97225694412992</v>
       </c>
       <c r="C7">
-        <v>675.7198826581639</v>
+        <v>675.71994969182663</v>
       </c>
       <c r="D7">
         <v>5167.0929050171171</v>
@@ -15042,10 +15042,10 @@
         <v>447.49999999998676</v>
       </c>
       <c r="L7">
-        <v>1084.5987032878404</v>
+        <v>1084.5987154895349</v>
       </c>
       <c r="M7">
-        <v>640.00761692784238</v>
+        <v>640.00753110685321</v>
       </c>
       <c r="N7">
         <v>7153.7262225311251</v>
@@ -15068,7 +15068,7 @@
         <v>128.83473848041294</v>
       </c>
       <c r="C8">
-        <v>680.21890059115879</v>
+        <v>680.21896750409041</v>
       </c>
       <c r="D8">
         <v>5160.4497008574062</v>
@@ -15095,10 +15095,10 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L8">
-        <v>1085.4168395173554</v>
+        <v>1085.4168516740608</v>
       </c>
       <c r="M8">
-        <v>632.99742167844772</v>
+        <v>632.99732935379745</v>
       </c>
       <c r="N8">
         <v>7153.7300000000805</v>
@@ -15121,7 +15121,7 @@
         <v>127.11945929494519</v>
       </c>
       <c r="C9">
-        <v>667.60524477160072</v>
+        <v>667.61101180887249</v>
       </c>
       <c r="D9">
         <v>5153.2407164114575</v>
@@ -15148,10 +15148,10 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L9">
-        <v>1083.1160917841332</v>
+        <v>1083.1171480181581</v>
       </c>
       <c r="M9">
-        <v>634.99509315017906</v>
+        <v>634.99500232439834</v>
       </c>
       <c r="N9">
         <v>7153.7290312053328</v>
@@ -15174,7 +15174,7 @@
         <v>125.36787393679488</v>
       </c>
       <c r="C10">
-        <v>687.71105604778654</v>
+        <v>687.72251515404116</v>
       </c>
       <c r="D10">
         <v>5142.488569638278</v>
@@ -15201,10 +15201,10 @@
         <v>446.50000000010687</v>
       </c>
       <c r="L10">
-        <v>1086.7729630384072</v>
+        <v>1086.7750317307064</v>
       </c>
       <c r="M10">
-        <v>639.50570857236914</v>
+        <v>639.50562092495261</v>
       </c>
       <c r="N10">
         <v>7153.7300000000005</v>
@@ -15286,7 +15286,7 @@
         <v>131.18729091489587</v>
       </c>
       <c r="C2">
-        <v>744.80341165227253</v>
+        <v>744.80347951703516</v>
       </c>
       <c r="D2">
         <v>5001.8788477725811</v>
@@ -15313,10 +15313,10 @@
         <v>448.01136248050449</v>
       </c>
       <c r="L2">
-        <v>1096.8816537215889</v>
+        <v>1096.8816655661385</v>
       </c>
       <c r="M2">
-        <v>642.99985740391708</v>
+        <v>642.99981670214788</v>
       </c>
       <c r="N2">
         <v>7153.7270248759933</v>
@@ -15339,7 +15339,7 @@
         <v>133.83332618491619</v>
       </c>
       <c r="C3">
-        <v>722.16261046958618</v>
+        <v>722.1626782101149</v>
       </c>
       <c r="D3">
         <v>5047.5596193140746</v>
@@ -15366,10 +15366,10 @@
         <v>448.49999999931407</v>
       </c>
       <c r="L3">
-        <v>1092.9147303949921</v>
+        <v>1092.914742332702</v>
       </c>
       <c r="M3">
-        <v>642.99990540406293</v>
+        <v>642.99981670213811</v>
       </c>
       <c r="N3">
         <v>7153.7299999998104</v>
@@ -15392,7 +15392,7 @@
         <v>133.38190595012401</v>
       </c>
       <c r="C4">
-        <v>702.58340804711554</v>
+        <v>702.58347563989059</v>
       </c>
       <c r="D4">
         <v>5216.9378116836087</v>
@@ -15419,10 +15419,10 @@
         <v>448.69999999960066</v>
       </c>
       <c r="L4">
-        <v>1089.4430596706559</v>
+        <v>1089.443071748344</v>
       </c>
       <c r="M4">
-        <v>642.99990477156177</v>
+        <v>642.99981670213811</v>
       </c>
       <c r="N4">
         <v>7153.7246089077908</v>
@@ -15445,7 +15445,7 @@
         <v>139.46801616005175</v>
       </c>
       <c r="C5">
-        <v>694.47364178666442</v>
+        <v>694.47370919187051</v>
       </c>
       <c r="D5">
         <v>5295.2542915213389</v>
@@ -15472,10 +15472,10 @@
         <v>447.99999999997851</v>
       </c>
       <c r="L5">
-        <v>1087.9907876511013</v>
+        <v>1087.9907997712889</v>
       </c>
       <c r="M5">
-        <v>641.99713259811324</v>
+        <v>641.99704448085447</v>
       </c>
       <c r="N5">
         <v>7153.7299999999987</v>
@@ -15498,7 +15498,7 @@
         <v>139.13936085156757</v>
       </c>
       <c r="C6">
-        <v>693.48154812936468</v>
+        <v>693.4816153325977</v>
       </c>
       <c r="D6">
         <v>5286.1455602089682</v>
@@ -15525,10 +15525,10 @@
         <v>447.50000000180552</v>
       </c>
       <c r="L6">
-        <v>1087.8123987071076</v>
+        <v>1087.8124107909782</v>
       </c>
       <c r="M6">
-        <v>641.99713202228259</v>
+        <v>641.99704448068405</v>
       </c>
       <c r="N6">
         <v>7153.7299999999987</v>
@@ -15551,7 +15551,7 @@
         <v>136.2236065891876</v>
       </c>
       <c r="C7">
-        <v>686.51285605484202</v>
+        <v>686.51292309182429</v>
       </c>
       <c r="D7">
         <v>5283.9120506544805</v>
@@ -15578,10 +15578,10 @@
         <v>447.49999999998676</v>
       </c>
       <c r="L7">
-        <v>1086.5566554366412</v>
+        <v>1086.5566675387099</v>
       </c>
       <c r="M7">
-        <v>640.00761692784238</v>
+        <v>640.00753110685321</v>
       </c>
       <c r="N7">
         <v>7153.7262225311251</v>
@@ -15604,7 +15604,7 @@
         <v>134.66509052424692</v>
       </c>
       <c r="C8">
-        <v>690.78080362839205</v>
+        <v>690.78087054601463</v>
       </c>
       <c r="D8">
         <v>5279.8513319236799</v>
@@ -15631,10 +15631,10 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L8">
-        <v>1087.3264498941446</v>
+        <v>1087.3264619492031</v>
       </c>
       <c r="M8">
-        <v>632.99742167844772</v>
+        <v>632.99732935379745</v>
       </c>
       <c r="N8">
         <v>7153.7300000000805</v>
@@ -15657,7 +15657,7 @@
         <v>133.36131307175839</v>
       </c>
       <c r="C9">
-        <v>681.91345616659805</v>
+        <v>681.91922326358156</v>
       </c>
       <c r="D9">
         <v>5274.2241187962763</v>
@@ -15684,10 +15684,10 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L9">
-        <v>1085.7241762351314</v>
+        <v>1085.7252215293909</v>
       </c>
       <c r="M9">
-        <v>634.99509315017906</v>
+        <v>634.99500232439834</v>
       </c>
       <c r="N9">
         <v>7153.7290312053328</v>
@@ -15710,7 +15710,7 @@
         <v>131.96988142102833</v>
       </c>
       <c r="C10">
-        <v>688.89472112508849</v>
+        <v>688.90618033768408</v>
       </c>
       <c r="D10">
         <v>5261.8020907611954</v>
@@ -15737,10 +15737,10 @@
         <v>446.50000000010687</v>
       </c>
       <c r="L10">
-        <v>1086.9866482558984</v>
+        <v>1086.9887169673952</v>
       </c>
       <c r="M10">
-        <v>639.50570857236914</v>
+        <v>639.50562092495261</v>
       </c>
       <c r="N10">
         <v>7153.7300000000005</v>
@@ -15822,7 +15822,7 @@
         <v>130.74877847859773</v>
       </c>
       <c r="C2">
-        <v>738.69287765443914</v>
+        <v>738.69294552166764</v>
       </c>
       <c r="D2">
         <v>5003.391951095</v>
@@ -15849,10 +15849,10 @@
         <v>448.01136248050449</v>
       </c>
       <c r="L2">
-        <v>1095.8136616965296</v>
+        <v>1095.813673583584</v>
       </c>
       <c r="M2">
-        <v>642.99985740391708</v>
+        <v>642.99981670214788</v>
       </c>
       <c r="N2">
         <v>7153.7270248759933</v>
@@ -15875,7 +15875,7 @@
         <v>130.9203906851705</v>
       </c>
       <c r="C3">
-        <v>711.96460307393659</v>
+        <v>711.96467081939966</v>
       </c>
       <c r="D3">
         <v>5062.7414378132244</v>
@@ -15902,10 +15902,10 @@
         <v>448.49999999931407</v>
       </c>
       <c r="L3">
-        <v>1091.1123937350746</v>
+        <v>1091.1124057451918</v>
       </c>
       <c r="M3">
-        <v>642.99990540406293</v>
+        <v>642.99981670213811</v>
       </c>
       <c r="N3">
         <v>7153.7299999998104</v>
@@ -15928,7 +15928,7 @@
         <v>128.14565422856003</v>
       </c>
       <c r="C4">
-        <v>687.4327658656747</v>
+        <v>687.43283346215571</v>
       </c>
       <c r="D4">
         <v>5077.3556029671081</v>
@@ -15955,10 +15955,10 @@
         <v>448.69999999960066</v>
       </c>
       <c r="L4">
-        <v>1086.722724880462</v>
+        <v>1086.7227370835358</v>
       </c>
       <c r="M4">
-        <v>642.99990477156177</v>
+        <v>642.99981670213811</v>
       </c>
       <c r="N4">
         <v>7153.7246089077908</v>
@@ -15981,7 +15981,7 @@
         <v>126.4025102235894</v>
       </c>
       <c r="C5">
-        <v>681.22587790070827</v>
+        <v>681.22594530789002</v>
       </c>
       <c r="D5">
         <v>5046.0484036971184</v>
@@ -16008,10 +16008,10 @@
         <v>447.99999999997851</v>
       </c>
       <c r="L5">
-        <v>1085.5995525623871</v>
+        <v>1085.5995647800314</v>
       </c>
       <c r="M5">
-        <v>641.99713259811324</v>
+        <v>641.99704448085447</v>
       </c>
       <c r="N5">
         <v>7153.7299999999987</v>
@@ -16034,7 +16034,7 @@
         <v>124.62736744766084</v>
       </c>
       <c r="C6">
-        <v>685.66470068143713</v>
+        <v>685.66476788523175</v>
       </c>
       <c r="D6">
         <v>5012.8901447742446</v>
@@ -16061,10 +16061,10 @@
         <v>447.50000000180552</v>
       </c>
       <c r="L6">
-        <v>1086.4033338113888</v>
+        <v>1086.4033459692514</v>
       </c>
       <c r="M6">
-        <v>641.99713202228259</v>
+        <v>641.99704448068417</v>
       </c>
       <c r="N6">
         <v>7153.7299999999987</v>
@@ -16087,7 +16087,7 @@
         <v>123.80462732409063</v>
       </c>
       <c r="C7">
-        <v>677.14792467309564</v>
+        <v>677.14799170945685</v>
       </c>
       <c r="D7">
         <v>4990.3813569632839</v>
@@ -16111,13 +16111,13 @@
         <v>6499.1933677997877</v>
       </c>
       <c r="K7">
-        <v>447.49999999998676</v>
+        <v>447.49999999998681</v>
       </c>
       <c r="L7">
-        <v>1084.8586390472456</v>
+        <v>1084.8586512494312</v>
       </c>
       <c r="M7">
-        <v>640.00761692784238</v>
+        <v>640.00753110685321</v>
       </c>
       <c r="N7">
         <v>7153.7262225311251</v>
@@ -16140,7 +16140,7 @@
         <v>123.44945993615787</v>
       </c>
       <c r="C8">
-        <v>680.92808520287724</v>
+        <v>680.92815211864433</v>
       </c>
       <c r="D8">
         <v>4966.7727754107191</v>
@@ -16167,10 +16167,10 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L8">
-        <v>1085.5455750560052</v>
+        <v>1085.5455871845797</v>
       </c>
       <c r="M8">
-        <v>632.99742167844772</v>
+        <v>632.99732935379745</v>
       </c>
       <c r="N8">
         <v>7153.7300000000805</v>
@@ -16193,7 +16193,7 @@
         <v>123.46661710451475</v>
       </c>
       <c r="C9">
-        <v>672.9184740197602</v>
+        <v>672.92424108105797</v>
       </c>
       <c r="D9">
         <v>4943.3140520197085</v>
@@ -16220,10 +16220,10 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L9">
-        <v>1084.0879014994659</v>
+        <v>1084.0889534798755</v>
       </c>
       <c r="M9">
-        <v>634.99509315017906</v>
+        <v>634.99500232439834</v>
       </c>
       <c r="N9">
         <v>7153.7290312053328</v>
@@ -16246,7 +16246,7 @@
         <v>123.57004555623834</v>
       </c>
       <c r="C10">
-        <v>678.43365272706717</v>
+        <v>678.44511181919177</v>
       </c>
       <c r="D10">
         <v>4914.8166209869532</v>
@@ -16273,10 +16273,10 @@
         <v>446.50000000010687</v>
       </c>
       <c r="L10">
-        <v>1085.0924955485298</v>
+        <v>1085.0945774302063</v>
       </c>
       <c r="M10">
-        <v>639.50570857236914</v>
+        <v>639.50562092495261</v>
       </c>
       <c r="N10">
         <v>7153.7300000000005</v>
@@ -16358,7 +16358,7 @@
         <v>130.83035446798564</v>
       </c>
       <c r="C2">
-        <v>737.81865952297846</v>
+        <v>737.81872739020685</v>
       </c>
       <c r="D2">
         <v>4994.1055910036375</v>
@@ -16385,10 +16385,10 @@
         <v>448.01136248050449</v>
       </c>
       <c r="L2">
-        <v>1095.6605409841929</v>
+        <v>1095.6605528712471</v>
       </c>
       <c r="M2">
-        <v>642.99985740391708</v>
+        <v>642.99981670214788</v>
       </c>
       <c r="N2">
         <v>7153.7270248759933</v>
@@ -16411,7 +16411,7 @@
         <v>133.71145240027431</v>
       </c>
       <c r="C3">
-        <v>711.16141755123988</v>
+        <v>711.16148529658903</v>
       </c>
       <c r="D3">
         <v>5059.2245699707264</v>
@@ -16438,10 +16438,10 @@
         <v>448.49999999931407</v>
       </c>
       <c r="L3">
-        <v>1090.9699472052885</v>
+        <v>1090.9699592375698</v>
       </c>
       <c r="M3">
-        <v>642.99990540406293</v>
+        <v>642.99981670213811</v>
       </c>
       <c r="N3">
         <v>7153.7299999998104</v>
@@ -16464,7 +16464,7 @@
         <v>127.36910766030475</v>
       </c>
       <c r="C4">
-        <v>686.81702121964497</v>
+        <v>686.81708881587463</v>
       </c>
       <c r="D4">
         <v>5173.3521750635618</v>
@@ -16491,10 +16491,10 @@
         <v>448.69999999960066</v>
       </c>
       <c r="L4">
-        <v>1086.6115655825513</v>
+        <v>1086.6115777855798</v>
       </c>
       <c r="M4">
-        <v>642.99990477156177</v>
+        <v>642.99981670213811</v>
       </c>
       <c r="N4">
         <v>7153.7246089077908</v>
@@ -16517,7 +16517,7 @@
         <v>125.58751793615981</v>
       </c>
       <c r="C5">
-        <v>681.46217951595349</v>
+        <v>681.46224692288479</v>
       </c>
       <c r="D5">
         <v>5163.3284985554792</v>
@@ -16544,10 +16544,10 @@
         <v>447.99999999997851</v>
       </c>
       <c r="L5">
-        <v>1085.6423825560146</v>
+        <v>1085.6423947736134</v>
       </c>
       <c r="M5">
-        <v>641.99713259811324</v>
+        <v>641.99704448085447</v>
       </c>
       <c r="N5">
         <v>7153.7299999999987</v>
@@ -16570,7 +16570,7 @@
         <v>123.74973345186841</v>
       </c>
       <c r="C6">
-        <v>684.41133378500547</v>
+        <v>684.41140098855033</v>
       </c>
       <c r="D6">
         <v>5142.9701574130468</v>
@@ -16597,10 +16597,10 @@
         <v>447.50000000180552</v>
       </c>
       <c r="L6">
-        <v>1086.1765871602322</v>
+        <v>1086.1765993180495</v>
       </c>
       <c r="M6">
-        <v>641.99713202228259</v>
+        <v>641.99704448068405</v>
       </c>
       <c r="N6">
         <v>7153.7299999999987</v>
@@ -16623,7 +16623,7 @@
         <v>123.25538456689884</v>
       </c>
       <c r="C7">
-        <v>679.14369698635539</v>
+        <v>679.14376402262349</v>
       </c>
       <c r="D7">
         <v>5140.8510202928937</v>
@@ -16650,10 +16650,10 @@
         <v>447.49999999998676</v>
       </c>
       <c r="L7">
-        <v>1085.2214973860953</v>
+        <v>1085.2215095652084</v>
       </c>
       <c r="M7">
-        <v>640.00761692784238</v>
+        <v>640.00753110685321</v>
       </c>
       <c r="N7">
         <v>7153.7262225311251</v>
@@ -16676,7 +16676,7 @@
         <v>123.34699441564477</v>
       </c>
       <c r="C8">
-        <v>680.98574419505394</v>
+        <v>680.98581111084206</v>
       </c>
       <c r="D8">
         <v>5145.5117198777561</v>
@@ -16703,10 +16703,10 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L8">
-        <v>1085.5560267292187</v>
+        <v>1085.5560388577974</v>
       </c>
       <c r="M8">
-        <v>632.99742167844772</v>
+        <v>632.99732935379745</v>
       </c>
       <c r="N8">
         <v>7153.7300000000805</v>
@@ -16729,7 +16729,7 @@
         <v>123.15331732026554</v>
       </c>
       <c r="C9">
-        <v>676.8628062792053</v>
+        <v>676.86857335918808</v>
       </c>
       <c r="D9">
         <v>5142.9307822638802</v>
@@ -16756,10 +16756,10 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L9">
-        <v>1084.8067418253845</v>
+        <v>1084.80779156735</v>
       </c>
       <c r="M9">
-        <v>634.99509315017906</v>
+        <v>634.99500232439834</v>
       </c>
       <c r="N9">
         <v>7153.7290312053328</v>
@@ -16782,7 +16782,7 @@
         <v>122.99031459721495</v>
       </c>
       <c r="C10">
-        <v>681.30500284853247</v>
+        <v>681.31646199730415</v>
       </c>
       <c r="D10">
         <v>5127.5568392231253</v>
@@ -16809,10 +16809,10 @@
         <v>446.50000000010687</v>
       </c>
       <c r="L10">
-        <v>1085.6138927281461</v>
+        <v>1085.6159697117052</v>
       </c>
       <c r="M10">
-        <v>639.50570857236914</v>
+        <v>639.50562092495261</v>
       </c>
       <c r="N10">
         <v>7153.7300000000005</v>
@@ -16894,7 +16894,7 @@
         <v>129.9144208313642</v>
       </c>
       <c r="C2">
-        <v>737.09085036660099</v>
+        <v>737.0909182338296</v>
       </c>
       <c r="D2">
         <v>4996.1877637536309</v>
@@ -16921,10 +16921,10 @@
         <v>448.01136248050449</v>
       </c>
       <c r="L2">
-        <v>1095.5330640396146</v>
+        <v>1095.5330759266687</v>
       </c>
       <c r="M2">
-        <v>642.99985740391708</v>
+        <v>642.99981670214788</v>
       </c>
       <c r="N2">
         <v>7153.7270248759933</v>
@@ -16947,7 +16947,7 @@
         <v>127.65617014576377</v>
       </c>
       <c r="C3">
-        <v>708.10314440549143</v>
+        <v>708.10321215072634</v>
       </c>
       <c r="D3">
         <v>5027.3483532950913</v>
@@ -16974,10 +16974,10 @@
         <v>448.49999999931407</v>
       </c>
       <c r="L3">
-        <v>1090.4266304271766</v>
+        <v>1090.4266424817044</v>
       </c>
       <c r="M3">
-        <v>642.99990540406293</v>
+        <v>642.99981670213811</v>
       </c>
       <c r="N3">
         <v>7153.7299999998104</v>
@@ -17000,7 +17000,7 @@
         <v>123.64418198855837</v>
       </c>
       <c r="C4">
-        <v>683.38663765931983</v>
+        <v>683.38670525499379</v>
       </c>
       <c r="D4">
         <v>5129.0705605795793</v>
@@ -17027,10 +17027,10 @@
         <v>448.69999999960066</v>
       </c>
       <c r="L4">
-        <v>1085.9911932454002</v>
+        <v>1085.9912054972092</v>
       </c>
       <c r="M4">
-        <v>642.99990477156177</v>
+        <v>642.99981670213811</v>
       </c>
       <c r="N4">
         <v>7153.7246089077908</v>
@@ -17053,7 +17053,7 @@
         <v>122.78082244789128</v>
       </c>
       <c r="C5">
-        <v>675.43506091242534</v>
+        <v>675.43512831802025</v>
       </c>
       <c r="D5">
         <v>5114.9567989940415</v>
@@ -17080,10 +17080,10 @@
         <v>447.99999999997851</v>
       </c>
       <c r="L5">
-        <v>1084.5468589848463</v>
+        <v>1084.5468712542411</v>
       </c>
       <c r="M5">
-        <v>641.99713259811324</v>
+        <v>641.99704448085447</v>
       </c>
       <c r="N5">
         <v>7153.7299999999987</v>
@@ -17106,7 +17106,7 @@
         <v>122.1537035341605</v>
       </c>
       <c r="C6">
-        <v>678.17666498561664</v>
+        <v>678.17673218697496</v>
       </c>
       <c r="D6">
         <v>5088.8387538574816</v>
@@ -17133,10 +17133,10 @@
         <v>447.50000000180552</v>
       </c>
       <c r="L6">
-        <v>1085.0458075898764</v>
+        <v>1085.0458197989828</v>
       </c>
       <c r="M6">
-        <v>641.99713202228259</v>
+        <v>641.99704448068405</v>
       </c>
       <c r="N6">
         <v>7153.7299999999987</v>
@@ -17159,7 +17159,7 @@
         <v>121.61327336420652</v>
       </c>
       <c r="C7">
-        <v>673.26896504333536</v>
+        <v>673.26903207673854</v>
       </c>
       <c r="D7">
         <v>5077.3275096292755</v>
@@ -17186,10 +17186,10 @@
         <v>447.49999999998676</v>
       </c>
       <c r="L7">
-        <v>1084.1518379644929</v>
+        <v>1084.1518501921812</v>
       </c>
       <c r="M7">
-        <v>640.00761692784238</v>
+        <v>640.00753110685321</v>
       </c>
       <c r="N7">
         <v>7153.7262225311251</v>
@@ -17212,7 +17212,7 @@
         <v>121.64494251169684</v>
       </c>
       <c r="C8">
-        <v>678.12681214169083</v>
+        <v>678.12687905423479</v>
       </c>
       <c r="D8">
         <v>5073.7963265976923</v>
@@ -17239,10 +17239,10 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L8">
-        <v>1085.0367503981799</v>
+        <v>1085.0367625548151</v>
       </c>
       <c r="M8">
-        <v>632.99742167844772</v>
+        <v>632.99732935379745</v>
       </c>
       <c r="N8">
         <v>7153.7300000000805</v>
@@ -17265,7 +17265,7 @@
         <v>120.9191936997708</v>
       </c>
       <c r="C9">
-        <v>668.78905120686318</v>
+        <v>668.79481824374739</v>
       </c>
       <c r="D9">
         <v>5064.7347572539602</v>
@@ -17292,10 +17292,10 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L9">
-        <v>1083.3329065537655</v>
+        <v>1083.3339627877194</v>
       </c>
       <c r="M9">
-        <v>634.99509315017906</v>
+        <v>634.99500232439834</v>
       </c>
       <c r="N9">
         <v>7153.7290312053328</v>
@@ -17318,7 +17318,7 @@
         <v>121.22121815092756</v>
       </c>
       <c r="C10">
-        <v>676.27687124554507</v>
+        <v>676.28833027831217</v>
       </c>
       <c r="D10">
         <v>5045.8505856887241</v>
@@ -17345,10 +17345,10 @@
         <v>446.50000000010687</v>
       </c>
       <c r="L10">
-        <v>1084.7000874573332</v>
+        <v>1084.7021732692992</v>
       </c>
       <c r="M10">
-        <v>639.50570857236914</v>
+        <v>639.50562092495261</v>
       </c>
       <c r="N10">
         <v>7153.7300000000005</v>
@@ -17430,7 +17430,7 @@
         <v>130.96762662962942</v>
       </c>
       <c r="C2">
-        <v>737.11838346946377</v>
+        <v>737.11845133669237</v>
       </c>
       <c r="D2">
         <v>4990.7093008196125</v>
@@ -17457,10 +17457,10 @@
         <v>448.01136248050449</v>
       </c>
       <c r="L2">
-        <v>1095.537886506874</v>
+        <v>1095.5378983939281</v>
       </c>
       <c r="M2">
-        <v>642.99985740391708</v>
+        <v>642.99981670214788</v>
       </c>
       <c r="N2">
         <v>7153.7270248759933</v>
@@ -17483,7 +17483,7 @@
         <v>133.99452839756603</v>
       </c>
       <c r="C3">
-        <v>711.81505088674874</v>
+        <v>711.81511863221181</v>
       </c>
       <c r="D3">
         <v>5040.7616734517896</v>
@@ -17510,10 +17510,10 @@
         <v>448.49999999931407</v>
       </c>
       <c r="L3">
-        <v>1091.0858806787369</v>
+        <v>1091.0858926888541</v>
       </c>
       <c r="M3">
-        <v>642.99990540406293</v>
+        <v>642.99981670213811</v>
       </c>
       <c r="N3">
         <v>7153.7299999998104</v>
@@ -17536,7 +17536,7 @@
         <v>131.69013141507304</v>
       </c>
       <c r="C4">
-        <v>690.26169513216178</v>
+        <v>690.26176272927728</v>
       </c>
       <c r="D4">
         <v>5215.023220180623</v>
@@ -17563,10 +17563,10 @@
         <v>448.69999999960066</v>
       </c>
       <c r="L4">
-        <v>1087.232934508562</v>
+        <v>1087.2329466860297</v>
       </c>
       <c r="M4">
-        <v>642.99990477156177</v>
+        <v>642.99981670213811</v>
       </c>
       <c r="N4">
         <v>7153.7246089077908</v>
@@ -17589,7 +17589,7 @@
         <v>132.96431372067329</v>
       </c>
       <c r="C5">
-        <v>683.88169920299106</v>
+        <v>683.88176661177715</v>
       </c>
       <c r="D5">
         <v>5238.3696353585929</v>
@@ -17616,10 +17616,10 @@
         <v>447.99999999997851</v>
       </c>
       <c r="L5">
-        <v>1086.0807715719682</v>
+        <v>1086.0807837669156</v>
       </c>
       <c r="M5">
-        <v>641.99713259811324</v>
+        <v>641.99704448085447</v>
       </c>
       <c r="N5">
         <v>7153.7299999999987</v>
@@ -17642,7 +17642,7 @@
         <v>132.41225965687801</v>
       </c>
       <c r="C6">
-        <v>683.61106447472332</v>
+        <v>683.61113168031079</v>
       </c>
       <c r="D6">
         <v>5221.0830045704788</v>
@@ -17669,10 +17669,10 @@
         <v>447.50000000180552</v>
       </c>
       <c r="L6">
-        <v>1086.0318099243377</v>
+        <v>1086.0318220825238</v>
       </c>
       <c r="M6">
-        <v>641.99713202228259</v>
+        <v>641.99704448068405</v>
       </c>
       <c r="N6">
         <v>7153.7299999999987</v>
@@ -17695,7 +17695,7 @@
         <v>130.47120123309782</v>
       </c>
       <c r="C7">
-        <v>674.64157234548247</v>
+        <v>674.64163938345541</v>
       </c>
       <c r="D7">
         <v>5214.1203115172066</v>
@@ -17722,10 +17722,10 @@
         <v>447.49999999998676</v>
       </c>
       <c r="L7">
-        <v>1084.4022162297169</v>
+        <v>1084.4022284582377</v>
       </c>
       <c r="M7">
-        <v>640.00761692784238</v>
+        <v>640.00753110685321</v>
       </c>
       <c r="N7">
         <v>7153.7262225311251</v>
@@ -17748,7 +17748,7 @@
         <v>129.16228687900838</v>
       </c>
       <c r="C8">
-        <v>681.93803929353749</v>
+        <v>681.93810621078478</v>
       </c>
       <c r="D8">
         <v>5201.2887262713939</v>
@@ -17775,10 +17775,10 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L8">
-        <v>1085.7286317667995</v>
+        <v>1085.7286438956419</v>
       </c>
       <c r="M8">
-        <v>632.99742167844772</v>
+        <v>632.99732935379745</v>
       </c>
       <c r="N8">
         <v>7153.7300000000805</v>
@@ -17801,7 +17801,7 @@
         <v>128.09299460233049</v>
       </c>
       <c r="C9">
-        <v>672.16103283620669</v>
+        <v>672.16679988785666</v>
       </c>
       <c r="D9">
         <v>5189.3362960408931</v>
@@ -17828,10 +17828,10 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L9">
-        <v>1083.9496288874225</v>
+        <v>1083.9506831160263</v>
       </c>
       <c r="M9">
-        <v>634.99509315017906</v>
+        <v>634.99500232439834</v>
       </c>
       <c r="N9">
         <v>7153.7290312053328</v>
@@ -17854,7 +17854,7 @@
         <v>127.14875872057624</v>
       </c>
       <c r="C10">
-        <v>677.53486438265554</v>
+        <v>677.54632343873266</v>
       </c>
       <c r="D10">
         <v>5172.2179895106765</v>
@@ -17881,10 +17881,10 @@
         <v>446.50000000010687</v>
       </c>
       <c r="L10">
-        <v>1084.9290712949683</v>
+        <v>1084.9311571111766</v>
       </c>
       <c r="M10">
-        <v>639.50570857236914</v>
+        <v>639.50562092495261</v>
       </c>
       <c r="N10">
         <v>7153.7300000000005</v>
@@ -17966,7 +17966,7 @@
         <v>130.68151173472788</v>
       </c>
       <c r="C2">
-        <v>738.82234054131516</v>
+        <v>738.82240840854354</v>
       </c>
       <c r="D2">
         <v>5003.2747899445694</v>
@@ -17993,10 +17993,10 @@
         <v>448.01136248050449</v>
       </c>
       <c r="L2">
-        <v>1095.8363373294801</v>
+        <v>1095.8363492165345</v>
       </c>
       <c r="M2">
-        <v>642.99985740391708</v>
+        <v>642.99981670214788</v>
       </c>
       <c r="N2">
         <v>7153.7270248759933</v>
@@ -18019,7 +18019,7 @@
         <v>134.07501334246967</v>
       </c>
       <c r="C3">
-        <v>715.88913024538294</v>
+        <v>715.8891979909738</v>
       </c>
       <c r="D3">
         <v>5063.8887887333813</v>
@@ -18046,10 +18046,10 @@
         <v>448.49999999931407</v>
       </c>
       <c r="L3">
-        <v>1091.8075077586602</v>
+        <v>1091.80751974394</v>
       </c>
       <c r="M3">
-        <v>642.99990540406293</v>
+        <v>642.99981670213811</v>
       </c>
       <c r="N3">
         <v>7153.7299999998104</v>
@@ -18072,7 +18072,7 @@
         <v>131.06670693926861</v>
       </c>
       <c r="C4">
-        <v>693.47645296255268</v>
+        <v>693.47652055961601</v>
       </c>
       <c r="D4">
         <v>5181.4842147823429</v>
@@ -18099,10 +18099,10 @@
         <v>448.69999999960066</v>
       </c>
       <c r="L4">
-        <v>1087.8114822826651</v>
+        <v>1087.811494437351</v>
       </c>
       <c r="M4">
-        <v>642.99990477156177</v>
+        <v>642.99981670213811</v>
       </c>
       <c r="N4">
         <v>7153.7246089077908</v>
@@ -18125,7 +18125,7 @@
         <v>130.95771940455342</v>
       </c>
       <c r="C5">
-        <v>683.23768903751363</v>
+        <v>683.23775644565239</v>
       </c>
       <c r="D5">
         <v>5179.775501677148</v>
@@ -18152,10 +18152,10 @@
         <v>447.99999999997851</v>
       </c>
       <c r="L5">
-        <v>1085.964196095432</v>
+        <v>1085.9642083132499</v>
       </c>
       <c r="M5">
-        <v>641.99713259811324</v>
+        <v>641.99704448085447</v>
       </c>
       <c r="N5">
         <v>7153.7299999999987</v>
@@ -18178,7 +18178,7 @@
         <v>130.31849854842392</v>
       </c>
       <c r="C6">
-        <v>686.8039369582342</v>
+        <v>686.80400416319424</v>
       </c>
       <c r="D6">
         <v>5155.812925053875</v>
@@ -18205,10 +18205,10 @@
         <v>447.50000000180552</v>
       </c>
       <c r="L6">
-        <v>1086.6092025410899</v>
+        <v>1086.6092146734832</v>
       </c>
       <c r="M6">
-        <v>641.99713202228259</v>
+        <v>641.99704448068405</v>
       </c>
       <c r="N6">
         <v>7153.7299999999987</v>
@@ -18231,7 +18231,7 @@
         <v>128.50240901564706</v>
       </c>
       <c r="C7">
-        <v>684.18369276416968</v>
+        <v>684.18375980237374</v>
       </c>
       <c r="D7">
         <v>5148.4818411566221</v>
@@ -18258,10 +18258,10 @@
         <v>447.49999999998676</v>
       </c>
       <c r="L7">
-        <v>1086.135405062957</v>
+        <v>1086.1354171908624</v>
       </c>
       <c r="M7">
-        <v>640.00761692784238</v>
+        <v>640.00753110685321</v>
       </c>
       <c r="N7">
         <v>7153.7262225311251</v>
@@ -18284,7 +18284,7 @@
         <v>127.37514349294079</v>
       </c>
       <c r="C8">
-        <v>691.24129007101465</v>
+        <v>691.24135698973032</v>
       </c>
       <c r="D8">
         <v>5142.4378569530072</v>
@@ -18311,10 +18311,10 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L8">
-        <v>1087.4094060442355</v>
+        <v>1087.4094180994907</v>
       </c>
       <c r="M8">
-        <v>632.99742167844784</v>
+        <v>632.99732935379745</v>
       </c>
       <c r="N8">
         <v>7153.7300000000805</v>
@@ -18337,7 +18337,7 @@
         <v>126.48103093566561</v>
       </c>
       <c r="C9">
-        <v>685.39060905040321</v>
+        <v>685.39637615820277</v>
       </c>
       <c r="D9">
         <v>5135.8896260435749</v>
@@ -18364,10 +18364,10 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L9">
-        <v>1086.3537487184483</v>
+        <v>1086.3547920479762</v>
       </c>
       <c r="M9">
-        <v>634.99509315017906</v>
+        <v>634.99500232439834</v>
       </c>
       <c r="N9">
         <v>7153.7290312053328</v>
@@ -18390,7 +18390,7 @@
         <v>125.64901923387974</v>
       </c>
       <c r="C10">
-        <v>689.84091296099359</v>
+        <v>689.85237227426705</v>
       </c>
       <c r="D10">
         <v>5119.9896450011129</v>
@@ -18417,10 +18417,10 @@
         <v>446.50000000010687</v>
       </c>
       <c r="L10">
-        <v>1087.1571301511831</v>
+        <v>1087.1591945190992</v>
       </c>
       <c r="M10">
-        <v>639.50570857236914</v>
+        <v>639.50562092495261</v>
       </c>
       <c r="N10">
         <v>7153.7300000000005</v>
@@ -18502,7 +18502,7 @@
         <v>129.91359161293207</v>
       </c>
       <c r="C2">
-        <v>741.49032992930063</v>
+        <v>741.49039780228793</v>
       </c>
       <c r="D2">
         <v>4987.9726290095414</v>
@@ -18529,10 +18529,10 @@
         <v>448.01136248050449</v>
       </c>
       <c r="L2">
-        <v>1096.3030809784286</v>
+        <v>1096.3030928446062</v>
       </c>
       <c r="M2">
-        <v>642.99985740391708</v>
+        <v>642.99981670214788</v>
       </c>
       <c r="N2">
         <v>7153.7270248759933</v>
@@ -18555,7 +18555,7 @@
         <v>127.99694219570164</v>
       </c>
       <c r="C3">
-        <v>721.22563873666911</v>
+        <v>721.22570649488296</v>
       </c>
       <c r="D3">
         <v>4997.8511395747946</v>
@@ -18582,10 +18582,10 @@
         <v>448.49999999931407</v>
       </c>
       <c r="L3">
-        <v>1092.7496106836775</v>
+        <v>1092.7496226245039</v>
       </c>
       <c r="M3">
-        <v>642.99990540406293</v>
+        <v>642.99981670213811</v>
       </c>
       <c r="N3">
         <v>7153.7299999998104</v>
@@ -18608,7 +18608,7 @@
         <v>121.88108197758491</v>
       </c>
       <c r="C4">
-        <v>702.79879261080339</v>
+        <v>702.79886022122457</v>
       </c>
       <c r="D4">
         <v>5074.772651449397</v>
@@ -18635,10 +18635,10 @@
         <v>448.69999999960066</v>
       </c>
       <c r="L4">
-        <v>1089.481545259461</v>
+        <v>1089.4815573403018</v>
       </c>
       <c r="M4">
-        <v>642.99990477156177</v>
+        <v>642.99981670213811</v>
       </c>
       <c r="N4">
         <v>7153.7246089077908</v>
@@ -18661,7 +18661,7 @@
         <v>124.4417388338972</v>
       </c>
       <c r="C5">
-        <v>695.40408523425026</v>
+        <v>695.40415265725062</v>
       </c>
       <c r="D5">
         <v>5088.9672916286909</v>
@@ -18688,10 +18688,10 @@
         <v>447.99999999997851</v>
       </c>
       <c r="L5">
-        <v>1088.1577595934934</v>
+        <v>1088.1577716914292</v>
       </c>
       <c r="M5">
-        <v>641.99713259811324</v>
+        <v>641.99704448085447</v>
       </c>
       <c r="N5">
         <v>7153.7299999999987</v>
@@ -18714,7 +18714,7 @@
         <v>124.55667094875552</v>
       </c>
       <c r="C6">
-        <v>700.83729226005119</v>
+        <v>700.83735948186018</v>
       </c>
       <c r="D6">
         <v>5070.636146293582</v>
@@ -18741,10 +18741,10 @@
         <v>447.50000000180552</v>
       </c>
       <c r="L6">
-        <v>1089.1310582543804</v>
+        <v>1089.1310702657829</v>
       </c>
       <c r="M6">
-        <v>641.99713202228259</v>
+        <v>641.99704448068405</v>
       </c>
       <c r="N6">
         <v>7153.7299999999987</v>
@@ -18767,7 +18767,7 @@
         <v>123.3568084171016</v>
       </c>
       <c r="C7">
-        <v>696.35126817817445</v>
+        <v>696.3513352346996</v>
       </c>
       <c r="D7">
         <v>5065.9368536218244</v>
@@ -18794,10 +18794,10 @@
         <v>447.49999999998676</v>
       </c>
       <c r="L7">
-        <v>1088.327716991452</v>
+        <v>1088.3277290236301</v>
       </c>
       <c r="M7">
-        <v>640.00761692784238</v>
+        <v>640.00753110685321</v>
       </c>
       <c r="N7">
         <v>7153.7262225311251</v>
@@ -18820,7 +18820,7 @@
         <v>124.074651673804</v>
       </c>
       <c r="C8">
-        <v>697.95787859357813</v>
+        <v>697.9579455310577</v>
       </c>
       <c r="D8">
         <v>5063.6010849189761</v>
@@ -18847,10 +18847,10 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L8">
-        <v>1088.6157530878306</v>
+        <v>1088.6157650734856</v>
       </c>
       <c r="M8">
-        <v>632.99742167844772</v>
+        <v>632.99732935379745</v>
       </c>
       <c r="N8">
         <v>7153.7300000000805</v>
@@ -18873,7 +18873,7 @@
         <v>123.03856025010066</v>
       </c>
       <c r="C9">
-        <v>691.11279800286604</v>
+        <v>691.11856518344007</v>
       </c>
       <c r="D9">
         <v>5057.0183678919975</v>
@@ -18900,10 +18900,10 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L9">
-        <v>1087.3862595304752</v>
+        <v>1087.3872984750053</v>
       </c>
       <c r="M9">
-        <v>634.99509315017906</v>
+        <v>634.99500232439834</v>
       </c>
       <c r="N9">
         <v>7153.7290312053328</v>
@@ -18926,7 +18926,7 @@
         <v>122.43616348805008</v>
       </c>
       <c r="C10">
-        <v>697.67371367975261</v>
+        <v>697.68517310275365</v>
       </c>
       <c r="D10">
         <v>5043.103646213759</v>
@@ -18953,10 +18953,10 @@
         <v>446.50000000010687</v>
       </c>
       <c r="L10">
-        <v>1088.5648712396426</v>
+        <v>1088.5669231347879</v>
       </c>
       <c r="M10">
-        <v>639.50570857236914</v>
+        <v>639.50562092495261</v>
       </c>
       <c r="N10">
         <v>7153.7300000000005</v>
@@ -19038,7 +19038,7 @@
         <v>130.33877366403408</v>
       </c>
       <c r="C2">
-        <v>742.97373498000763</v>
+        <v>742.97380284477049</v>
       </c>
       <c r="D2">
         <v>4979.7078623491825</v>
@@ -19065,10 +19065,10 @@
         <v>448.01136248050449</v>
       </c>
       <c r="L2">
-        <v>1096.5623172156609</v>
+        <v>1096.5623290602105</v>
       </c>
       <c r="M2">
-        <v>642.99985740391708</v>
+        <v>642.99981670214788</v>
       </c>
       <c r="N2">
         <v>7153.7270248759933</v>
@@ -19091,7 +19091,7 @@
         <v>134.02480484285448</v>
       </c>
       <c r="C3">
-        <v>725.67257741696642</v>
+        <v>725.67264515774752</v>
       </c>
       <c r="D3">
         <v>4996.6406149646282</v>
@@ -19118,10 +19118,10 @@
         <v>448.49999999931407</v>
       </c>
       <c r="L3">
-        <v>1093.5321179528612</v>
+        <v>1093.5321298415897</v>
       </c>
       <c r="M3">
-        <v>642.99990540406293</v>
+        <v>642.99981670213811</v>
       </c>
       <c r="N3">
         <v>7153.7299999998104</v>
@@ -19144,7 +19144,7 @@
         <v>132.94480837340305</v>
       </c>
       <c r="C4">
-        <v>685.36700175175224</v>
+        <v>685.36706934414906</v>
       </c>
       <c r="D4">
         <v>5182.0211872416094</v>
@@ -19171,10 +19171,10 @@
         <v>448.69999999960066</v>
       </c>
       <c r="L4">
-        <v>1086.3494781826096</v>
+        <v>1086.349490410774</v>
       </c>
       <c r="M4">
-        <v>642.99990477156177</v>
+        <v>642.99981670213811</v>
       </c>
       <c r="N4">
         <v>7153.7246089077908</v>
@@ -19197,7 +19197,7 @@
         <v>138.8621720920768</v>
       </c>
       <c r="C5">
-        <v>686.06866509498218</v>
+        <v>686.06873249806915</v>
       </c>
       <c r="D5">
         <v>5257.0033962528005</v>
@@ -19224,10 +19224,10 @@
         <v>447.99999999997851</v>
       </c>
       <c r="L5">
-        <v>1086.4764161610183</v>
+        <v>1086.4764283549346</v>
       </c>
       <c r="M5">
-        <v>641.99713259811324</v>
+        <v>641.99704448085447</v>
       </c>
       <c r="N5">
         <v>7153.7299999999987</v>
@@ -19250,7 +19250,7 @@
         <v>138.32317921440259</v>
       </c>
       <c r="C6">
-        <v>694.31755830563156</v>
+        <v>694.31762550614167</v>
       </c>
       <c r="D6">
         <v>5256.042907155932</v>
@@ -19277,10 +19277,10 @@
         <v>447.50000000180552</v>
       </c>
       <c r="L6">
-        <v>1087.9627219678844</v>
+        <v>1087.9627340512654</v>
       </c>
       <c r="M6">
-        <v>641.99713202228259</v>
+        <v>641.99704448068405</v>
       </c>
       <c r="N6">
         <v>7153.7299999999987</v>
@@ -19303,7 +19303,7 @@
         <v>135.74221733303227</v>
       </c>
       <c r="C7">
-        <v>685.96323556244022</v>
+        <v>685.96330259653246</v>
       </c>
       <c r="D7">
         <v>5253.3491650458072</v>
@@ -19327,13 +19327,13 @@
         <v>6504.2162005747778</v>
       </c>
       <c r="K7">
-        <v>447.49999999998676</v>
+        <v>447.49999999998681</v>
       </c>
       <c r="L7">
-        <v>1086.4573428700432</v>
+        <v>1086.4573549972047</v>
       </c>
       <c r="M7">
-        <v>640.00761692784238</v>
+        <v>640.00753110685321</v>
       </c>
       <c r="N7">
         <v>7153.7262225311251</v>
@@ -19356,7 +19356,7 @@
         <v>133.63988256135707</v>
       </c>
       <c r="C8">
-        <v>700.2833486612933</v>
+        <v>700.28341557601436</v>
       </c>
       <c r="D8">
         <v>5254.6192411877482</v>
@@ -19383,10 +19383,10 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L8">
-        <v>1089.0320776925623</v>
+        <v>1089.0320896490932</v>
       </c>
       <c r="M8">
-        <v>632.99742167844772</v>
+        <v>632.99732935379745</v>
       </c>
       <c r="N8">
         <v>7153.7300000000805</v>
@@ -19409,7 +19409,7 @@
         <v>131.6392374512514</v>
       </c>
       <c r="C9">
-        <v>698.40035442123838</v>
+        <v>698.40612158557667</v>
       </c>
       <c r="D9">
         <v>5250.0598913601298</v>
@@ -19436,10 +19436,10 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L9">
-        <v>1088.6949812111998</v>
+        <v>1088.6960138635368</v>
       </c>
       <c r="M9">
-        <v>634.99509315017906</v>
+        <v>634.99500232439834</v>
       </c>
       <c r="N9">
         <v>7153.7290312053328</v>
@@ -19462,7 +19462,7 @@
         <v>129.78237388008696</v>
       </c>
       <c r="C10">
-        <v>709.26073167382435</v>
+        <v>709.27219115031835</v>
       </c>
       <c r="D10">
         <v>5239.4333396314196</v>
@@ -19489,10 +19489,10 @@
         <v>446.50000000010687</v>
       </c>
       <c r="L10">
-        <v>1090.6323658174531</v>
+        <v>1090.6344011387348</v>
       </c>
       <c r="M10">
-        <v>639.50570857236914</v>
+        <v>639.50562092495261</v>
       </c>
       <c r="N10">
         <v>7153.7300000000005</v>
@@ -19574,7 +19574,7 @@
         <v>130.39866441259181</v>
       </c>
       <c r="C2">
-        <v>746.06958947869077</v>
+        <v>746.06965734754465</v>
       </c>
       <c r="D2">
         <v>4989.9132349024912</v>
@@ -19601,10 +19601,10 @@
         <v>448.01136248050437</v>
       </c>
       <c r="L2">
-        <v>1097.1024396286316</v>
+        <v>1097.1024514505593</v>
       </c>
       <c r="M2">
-        <v>642.99985740391708</v>
+        <v>642.99981670214788</v>
       </c>
       <c r="N2">
         <v>7153.7270248759933</v>
@@ -19627,7 +19627,7 @@
         <v>132.22716404990038</v>
       </c>
       <c r="C3">
-        <v>719.17359253903805</v>
+        <v>719.17366028863819</v>
       </c>
       <c r="D3">
         <v>5070.0823762542877</v>
@@ -19654,10 +19654,10 @@
         <v>448.49999999931407</v>
       </c>
       <c r="L3">
-        <v>1092.3877790709571</v>
+        <v>1092.3877910321878</v>
       </c>
       <c r="M3">
-        <v>642.99990540406293</v>
+        <v>642.99981670213811</v>
       </c>
       <c r="N3">
         <v>7153.7299999998104</v>
@@ -19680,7 +19680,7 @@
         <v>128.66942567873872</v>
       </c>
       <c r="C4">
-        <v>696.95567122754323</v>
+        <v>696.95573882938561</v>
       </c>
       <c r="D4">
         <v>5244.0064423166059</v>
@@ -19707,10 +19707,10 @@
         <v>448.69999999960066</v>
       </c>
       <c r="L4">
-        <v>1088.4361658921387</v>
+        <v>1088.4361780221648</v>
       </c>
       <c r="M4">
-        <v>642.99990477156177</v>
+        <v>642.99981670213811</v>
       </c>
       <c r="N4">
         <v>7153.7246089077908</v>
@@ -19733,7 +19733,7 @@
         <v>130.20969986456774</v>
       </c>
       <c r="C5">
-        <v>697.83972486228765</v>
+        <v>697.83979227653606</v>
       </c>
       <c r="D5">
         <v>5273.5719011942801</v>
@@ -19760,10 +19760,10 @@
         <v>447.99999999997851</v>
       </c>
       <c r="L5">
-        <v>1088.5945957857236</v>
+        <v>1088.5946078567476</v>
       </c>
       <c r="M5">
-        <v>641.99713259811324</v>
+        <v>641.99704448085447</v>
       </c>
       <c r="N5">
         <v>7153.7299999999987</v>
@@ -19786,7 +19786,7 @@
         <v>129.68945408714768</v>
       </c>
       <c r="C6">
-        <v>709.15799207725786</v>
+        <v>709.1580592911431</v>
       </c>
       <c r="D6">
         <v>5266.0427154509407</v>
@@ -19813,10 +19813,10 @@
         <v>447.50000000180552</v>
       </c>
       <c r="L6">
-        <v>1090.6141176864955</v>
+        <v>1090.6141296243836</v>
       </c>
       <c r="M6">
-        <v>641.99713202228259</v>
+        <v>641.99704448068405</v>
       </c>
       <c r="N6">
         <v>7153.7299999999987</v>
@@ -19839,7 +19839,7 @@
         <v>127.97095584666513</v>
       </c>
       <c r="C7">
-        <v>702.84612263839358</v>
+        <v>702.84618968784469</v>
       </c>
       <c r="D7">
         <v>5261.9833000002727</v>
@@ -19866,10 +19866,10 @@
         <v>447.49999999998676</v>
       </c>
       <c r="L7">
-        <v>1089.490002107694</v>
+        <v>1089.4900140882994</v>
       </c>
       <c r="M7">
-        <v>640.00761692784238</v>
+        <v>640.00753110685321</v>
       </c>
       <c r="N7">
         <v>7153.7262225311251</v>
@@ -19892,7 +19892,7 @@
         <v>126.82382189980795</v>
       </c>
       <c r="C8">
-        <v>706.74114047534306</v>
+        <v>706.74120740638011</v>
       </c>
       <c r="D8">
         <v>5263.3902512442173</v>
@@ -19919,10 +19919,10 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L8">
-        <v>1090.1842754249903</v>
+        <v>1090.1842873346407</v>
       </c>
       <c r="M8">
-        <v>632.99742167844772</v>
+        <v>632.99732935379745</v>
       </c>
       <c r="N8">
         <v>7153.7300000000805</v>
@@ -19945,7 +19945,7 @@
         <v>125.81223953179246</v>
       </c>
       <c r="C9">
-        <v>697.95903076555362</v>
+        <v>697.96479793884794</v>
       </c>
       <c r="D9">
         <v>5256.3006811578116</v>
@@ -19972,10 +19972,10 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L9">
-        <v>1088.6159574167523</v>
+        <v>1088.6169900721393</v>
       </c>
       <c r="M9">
-        <v>634.99509315017906</v>
+        <v>634.99500232439834</v>
       </c>
       <c r="N9">
         <v>7153.7290312053328</v>
@@ -19998,7 +19998,7 @@
         <v>124.92059314097705</v>
       </c>
       <c r="C10">
-        <v>707.77005715283849</v>
+        <v>707.78151662219852</v>
       </c>
       <c r="D10">
         <v>5242.549084169249</v>
@@ -20025,10 +20025,10 @@
         <v>446.50000000010687</v>
       </c>
       <c r="L10">
-        <v>1090.367359956366</v>
+        <v>1090.3693990443155</v>
       </c>
       <c r="M10">
-        <v>639.50570857236914</v>
+        <v>639.50562092495261</v>
       </c>
       <c r="N10">
         <v>7153.7300000000005</v>
@@ -20110,7 +20110,7 @@
         <v>130.42468882643882</v>
       </c>
       <c r="C2">
-        <v>748.05477040554706</v>
+        <v>748.05483827440128</v>
       </c>
       <c r="D2">
         <v>5009.1996286102503</v>
@@ -20137,10 +20137,10 @@
         <v>448.01136248050437</v>
       </c>
       <c r="L2">
-        <v>1097.4482339685806</v>
+        <v>1097.4482457905085</v>
       </c>
       <c r="M2">
-        <v>642.99985740391708</v>
+        <v>642.99981670214788</v>
       </c>
       <c r="N2">
         <v>7153.7270248759933</v>
@@ -20163,7 +20163,7 @@
         <v>133.48196649175443</v>
       </c>
       <c r="C3">
-        <v>716.61628289450857</v>
+        <v>716.61635064359507</v>
       </c>
       <c r="D3">
         <v>5102.0979188983765</v>
@@ -20190,10 +20190,10 @@
         <v>448.49999999931407</v>
       </c>
       <c r="L3">
-        <v>1091.9361527068925</v>
+        <v>1091.936164692791</v>
       </c>
       <c r="M3">
-        <v>642.99990540406293</v>
+        <v>642.99981670213811</v>
       </c>
       <c r="N3">
         <v>7153.7299999998104</v>
@@ -20216,7 +20216,7 @@
         <v>120.49603493822566</v>
       </c>
       <c r="C4">
-        <v>699.47887837743212</v>
+        <v>699.47894597829929</v>
       </c>
       <c r="D4">
         <v>5213.664043742875</v>
@@ -20243,10 +20243,10 @@
         <v>448.69999999960066</v>
       </c>
       <c r="L4">
-        <v>1088.8880986807271</v>
+        <v>1088.8881107851666</v>
       </c>
       <c r="M4">
-        <v>642.99990477156177</v>
+        <v>642.99981670213811</v>
       </c>
       <c r="N4">
         <v>7153.7246089077908</v>
@@ -20269,7 +20269,7 @@
         <v>118.11798032172069</v>
       </c>
       <c r="C5">
-        <v>691.51444784935723</v>
+        <v>691.5145152628528</v>
       </c>
       <c r="D5">
         <v>5204.2661335693201</v>
@@ -20296,10 +20296,10 @@
         <v>447.99999999997851</v>
       </c>
       <c r="L5">
-        <v>1087.4586150692737</v>
+        <v>1087.4586272136623</v>
       </c>
       <c r="M5">
-        <v>641.99713259811324</v>
+        <v>641.99704448085447</v>
       </c>
       <c r="N5">
         <v>7153.7299999999987</v>
@@ -20322,7 +20322,7 @@
         <v>116.2907871390257</v>
       </c>
       <c r="C6">
-        <v>684.72287820158999</v>
+        <v>684.7229454129216</v>
       </c>
       <c r="D6">
         <v>5176.5686854700725</v>
@@ -20349,10 +20349,10 @@
         <v>447.50000000180552</v>
       </c>
       <c r="L6">
-        <v>1086.2329495566371</v>
+        <v>1086.232961715863</v>
       </c>
       <c r="M6">
-        <v>641.99713202228259</v>
+        <v>641.99704448068405</v>
       </c>
       <c r="N6">
         <v>7153.7299999999987</v>
@@ -20375,7 +20375,7 @@
         <v>116.2889522316062</v>
       </c>
       <c r="C7">
-        <v>679.58282127722941</v>
+        <v>679.58288832126539</v>
       </c>
       <c r="D7">
         <v>5164.4176137778913</v>
@@ -20402,10 +20402,10 @@
         <v>447.49999999998676</v>
       </c>
       <c r="L7">
-        <v>1085.3012780388049</v>
+        <v>1085.3012902193293</v>
       </c>
       <c r="M7">
-        <v>640.00761692784238</v>
+        <v>640.00753110685321</v>
       </c>
       <c r="N7">
         <v>7153.7262225311251</v>
@@ -20428,7 +20428,7 @@
         <v>116.1415311175714</v>
       </c>
       <c r="C8">
-        <v>688.4682437670059</v>
+        <v>688.46831069078723</v>
       </c>
       <c r="D8">
         <v>5168.9592891495085</v>
@@ -20455,10 +20455,10 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L8">
-        <v>1086.9096578712144</v>
+        <v>1086.909669952847</v>
       </c>
       <c r="M8">
-        <v>632.99742167844772</v>
+        <v>632.99732935379745</v>
       </c>
       <c r="N8">
         <v>7153.7300000000805</v>
@@ -20481,7 +20481,7 @@
         <v>116.21911195001377</v>
       </c>
       <c r="C9">
-        <v>680.68864302506529</v>
+        <v>680.69441012769562</v>
       </c>
       <c r="D9">
         <v>5164.9819997326667</v>
@@ -20508,10 +20508,10 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L9">
-        <v>1085.5021779935169</v>
+        <v>1085.5032232887997</v>
       </c>
       <c r="M9">
-        <v>634.99509315017906</v>
+        <v>634.99500232439834</v>
       </c>
       <c r="N9">
         <v>7153.7290312053328</v>
@@ -20534,7 +20534,7 @@
         <v>116.31997260992567</v>
       </c>
       <c r="C10">
-        <v>684.31710046199373</v>
+        <v>684.32855966903969</v>
       </c>
       <c r="D10">
         <v>5149.9754481181199</v>
@@ -20561,10 +20561,10 @@
         <v>446.50000000010687</v>
       </c>
       <c r="L10">
-        <v>1086.1595392362624</v>
+        <v>1086.1616123240476</v>
       </c>
       <c r="M10">
-        <v>639.50570857236914</v>
+        <v>639.50562092495261</v>
       </c>
       <c r="N10">
         <v>7153.7300000000005</v>
@@ -20646,7 +20646,7 @@
         <v>132.05934845858519</v>
       </c>
       <c r="C2">
-        <v>744.84743133736947</v>
+        <v>744.8474992021321</v>
       </c>
       <c r="D2">
         <v>5005.0196251445132</v>
@@ -20673,10 +20673,10 @@
         <v>448.01136248050437</v>
       </c>
       <c r="L2">
-        <v>1096.8893365502834</v>
+        <v>1096.889348394833</v>
       </c>
       <c r="M2">
-        <v>642.99985740391708</v>
+        <v>642.99981670214788</v>
       </c>
       <c r="N2">
         <v>7153.7270248759933</v>
@@ -20699,7 +20699,7 @@
         <v>135.47162845481947</v>
       </c>
       <c r="C3">
-        <v>701.69871485794613</v>
+        <v>701.69878259761992</v>
       </c>
       <c r="D3">
         <v>5075.7708009129101</v>
@@ -20726,10 +20726,10 @@
         <v>448.49999999931407</v>
       </c>
       <c r="L3">
-        <v>1089.2849799359628</v>
+        <v>1089.284992039899</v>
       </c>
       <c r="M3">
-        <v>642.99990540406293</v>
+        <v>642.99981670213811</v>
       </c>
       <c r="N3">
         <v>7153.7299999998104</v>
@@ -20752,7 +20752,7 @@
         <v>137.40922100477081</v>
       </c>
       <c r="C4">
-        <v>687.15301093714641</v>
+        <v>687.15307852726232</v>
       </c>
       <c r="D4">
         <v>5216.4148950649042</v>
@@ -20779,10 +20779,10 @@
         <v>448.69999999960066</v>
       </c>
       <c r="L4">
-        <v>1086.6722212164825</v>
+        <v>1086.6722334184074</v>
       </c>
       <c r="M4">
-        <v>642.99990477156177</v>
+        <v>642.99981670213811</v>
       </c>
       <c r="N4">
         <v>7153.7246089077908</v>
@@ -20805,7 +20805,7 @@
         <v>135.86347211093721</v>
       </c>
       <c r="C5">
-        <v>672.91312704126551</v>
+        <v>672.91319444149383</v>
       </c>
       <c r="D5">
         <v>5226.3429236459615</v>
@@ -20832,10 +20832,10 @@
         <v>447.99999999997851</v>
       </c>
       <c r="L5">
-        <v>1084.0869283260338</v>
+        <v>1084.0869406206352</v>
       </c>
       <c r="M5">
-        <v>641.99713259811324</v>
+        <v>641.99704448085447</v>
       </c>
       <c r="N5">
         <v>7153.7299999999987</v>
@@ -20858,7 +20858,7 @@
         <v>133.92845066147495</v>
       </c>
       <c r="C6">
-        <v>673.23727428647612</v>
+        <v>673.23734148186247</v>
       </c>
       <c r="D6">
         <v>5205.3812656524842</v>
@@ -20885,10 +20885,10 @@
         <v>447.50000000180552</v>
       </c>
       <c r="L6">
-        <v>1084.1460565418715</v>
+        <v>1084.1460687991071</v>
       </c>
       <c r="M6">
-        <v>641.99713202228259</v>
+        <v>641.99704448068405</v>
       </c>
       <c r="N6">
         <v>7153.7299999999987</v>
@@ -20911,7 +20911,7 @@
         <v>131.65240461669364</v>
       </c>
       <c r="C7">
-        <v>663.29206446533055</v>
+        <v>663.29213149174871</v>
       </c>
       <c r="D7">
         <v>5204.1632290590169</v>
@@ -20935,13 +20935,13 @@
         <v>6499.2021708435423</v>
       </c>
       <c r="K7">
-        <v>447.49999999998676</v>
+        <v>447.49999999998681</v>
       </c>
       <c r="L7">
-        <v>1082.3241889864148</v>
+        <v>1082.3242013151544</v>
       </c>
       <c r="M7">
-        <v>640.00761692784238</v>
+        <v>640.00753110685321</v>
       </c>
       <c r="N7">
         <v>7153.7262225311251</v>
@@ -20964,7 +20964,7 @@
         <v>130.06053313025603</v>
       </c>
       <c r="C8">
-        <v>671.09100303014293</v>
+        <v>671.09106993483704</v>
       </c>
       <c r="D8">
         <v>5214.0151123137566</v>
@@ -20991,10 +20991,10 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L8">
-        <v>1083.7540262308337</v>
+        <v>1083.7540384611459</v>
       </c>
       <c r="M8">
-        <v>632.99742167844772</v>
+        <v>632.99732935379745</v>
       </c>
       <c r="N8">
         <v>7153.7300000000805</v>
@@ -21017,7 +21017,7 @@
         <v>128.60038074161201</v>
       </c>
       <c r="C9">
-        <v>659.98953373998881</v>
+        <v>659.99530073487415</v>
       </c>
       <c r="D9">
         <v>5218.01762362928</v>
@@ -21044,10 +21044,10 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L9">
-        <v>1081.7161154724602</v>
+        <v>1081.7171785326807</v>
       </c>
       <c r="M9">
-        <v>634.99509315017906</v>
+        <v>634.99500232439834</v>
       </c>
       <c r="N9">
         <v>7153.7290312053328</v>
@@ -21070,7 +21070,7 @@
         <v>127.22988851090008</v>
       </c>
       <c r="C10">
-        <v>660.54580669902782</v>
+        <v>660.55726555518424</v>
       </c>
       <c r="D10">
         <v>5208.3645053787495</v>
@@ -21097,10 +21097,10 @@
         <v>446.50000000010687</v>
       </c>
       <c r="L10">
-        <v>1081.8186560216654</v>
+        <v>1081.8207682908601</v>
       </c>
       <c r="M10">
-        <v>639.50570857236914</v>
+        <v>639.50562092495261</v>
       </c>
       <c r="N10">
         <v>7153.7300000000005</v>

--- a/Output Data/MtomToCrss_Monthly.xlsx
+++ b/Output Data/MtomToCrss_Monthly.xlsx
@@ -777,13 +777,13 @@
         <v>43983</v>
       </c>
       <c r="B2">
-        <v>129.06996042163107</v>
+        <v>124.0648264147403</v>
       </c>
       <c r="C2">
         <v>690.06232091611628</v>
       </c>
       <c r="D2">
-        <v>5089.5358751030599</v>
+        <v>5099.1730850217946</v>
       </c>
       <c r="E2">
         <v>197.98687180060332</v>
@@ -798,7 +798,7 @@
         <v>6753.034597398294</v>
       </c>
       <c r="I2">
-        <v>6026.2667451453817</v>
+        <v>6022.8663774529177</v>
       </c>
       <c r="J2">
         <v>6499.9999999993579</v>
@@ -819,7 +819,7 @@
         <v>6060.6942579678771</v>
       </c>
       <c r="P2">
-        <v>3612.1510557360148</v>
+        <v>3613.3308903121042</v>
       </c>
       <c r="Q2">
         <v>9325.9438790725399</v>
@@ -830,13 +830,13 @@
         <v>44013</v>
       </c>
       <c r="B3">
-        <v>127.50497435990994</v>
+        <v>122.99563263337348</v>
       </c>
       <c r="C3">
         <v>681.14625995291669</v>
       </c>
       <c r="D3">
-        <v>5068.5707832461476</v>
+        <v>5077.2502624616473</v>
       </c>
       <c r="E3">
         <v>68.578587490167067</v>
@@ -851,7 +851,7 @@
         <v>6753.0400000000109</v>
       </c>
       <c r="I3">
-        <v>6025.2145287854573</v>
+        <v>6022.1263320799126</v>
       </c>
       <c r="J3">
         <v>6505.4999999998909</v>
@@ -872,7 +872,7 @@
         <v>6055.8060499874828</v>
       </c>
       <c r="P3">
-        <v>3609.5592223607041</v>
+        <v>3610.6364505148886</v>
       </c>
       <c r="Q3">
         <v>9323.6702976955621</v>
@@ -883,13 +883,13 @@
         <v>44044</v>
       </c>
       <c r="B4">
-        <v>125.91310099975131</v>
+        <v>121.89776368947057</v>
       </c>
       <c r="C4">
         <v>681.27761335472837</v>
       </c>
       <c r="D4">
-        <v>5038.4615108562075</v>
+        <v>5046.1853442349375</v>
       </c>
       <c r="E4">
         <v>65.578587490167067</v>
@@ -904,7 +904,7 @@
         <v>6753.0400000000072</v>
       </c>
       <c r="I4">
-        <v>6024.1341215397833</v>
+        <v>6021.3611883345002</v>
       </c>
       <c r="J4">
         <v>6504.5094474017742</v>
@@ -925,7 +925,7 @@
         <v>6052.7713815109682</v>
       </c>
       <c r="P4">
-        <v>3605.7738153557216</v>
+        <v>3606.7521314940786</v>
       </c>
       <c r="Q4">
         <v>9319.1465770621744</v>
@@ -936,13 +936,13 @@
         <v>44075</v>
       </c>
       <c r="B5">
-        <v>125.46153345456604</v>
+        <v>121.45644672478116</v>
       </c>
       <c r="C5">
         <v>671.18639460381814</v>
       </c>
       <c r="D5">
-        <v>5020.310046161153</v>
+        <v>5028.0095968118876</v>
       </c>
       <c r="E5">
         <v>76.340001750528216</v>
@@ -957,7 +957,7 @@
         <v>6753.0362407513312</v>
       </c>
       <c r="I5">
-        <v>6023.8256848772153</v>
+        <v>6021.052229423025</v>
       </c>
       <c r="J5">
         <v>6500.611145979442</v>
@@ -978,7 +978,7 @@
         <v>6051.7289078794111</v>
       </c>
       <c r="P5">
-        <v>3603.4544075990812</v>
+        <v>3604.4418442514175</v>
       </c>
       <c r="Q5">
         <v>9311.4999999999891</v>
@@ -989,13 +989,13 @@
         <v>44105</v>
       </c>
       <c r="B6">
-        <v>124.65453154302061</v>
+        <v>121.20585560373276</v>
       </c>
       <c r="C6">
         <v>675.81504638845979</v>
       </c>
       <c r="D6">
-        <v>5004.7593361598256</v>
+        <v>5011.3834787788437</v>
       </c>
       <c r="E6">
         <v>80.301194063809945</v>
@@ -1010,7 +1010,7 @@
         <v>6753.0399999999981</v>
       </c>
       <c r="I6">
-        <v>6023.2723759326582</v>
+        <v>6020.8762256357568</v>
       </c>
       <c r="J6">
         <v>6497.0454729563462</v>
@@ -1031,7 +1031,7 @@
         <v>6051.8472467295114</v>
       </c>
       <c r="P6">
-        <v>3601.4437658008305</v>
+        <v>3602.3028345833632</v>
       </c>
       <c r="Q6">
         <v>9309.9999999999909</v>
@@ -1042,13 +1042,13 @@
         <v>44136</v>
       </c>
       <c r="B7">
-        <v>123.94226126194521</v>
+        <v>121.04879085908796</v>
       </c>
       <c r="C7">
-        <v>671.94183237443406</v>
+        <v>671.51532490662225</v>
       </c>
       <c r="D7">
-        <v>4988.6398849417546</v>
+        <v>4994.1873450024787</v>
       </c>
       <c r="E7">
         <v>78.033413610138652</v>
@@ -1063,7 +1063,7 @@
         <v>6753.0390355238087</v>
       </c>
       <c r="I7">
-        <v>6022.7817376978919</v>
+        <v>6020.7657594927186</v>
       </c>
       <c r="J7">
         <v>6492.9976901597547</v>
@@ -1072,7 +1072,7 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L7">
-        <v>1083.9095606024232</v>
+        <v>1083.8315942927898</v>
       </c>
       <c r="M7">
         <v>634.99500232439834</v>
@@ -1084,7 +1084,7 @@
         <v>6052.087686348541</v>
       </c>
       <c r="P7">
-        <v>3599.3359521019174</v>
+        <v>3600.0640948154728</v>
       </c>
       <c r="Q7">
         <v>9308.4999999999891</v>
@@ -1095,13 +1095,13 @@
         <v>44166</v>
       </c>
       <c r="B8">
-        <v>123.13102840518295</v>
+        <v>120.7950542815943</v>
       </c>
       <c r="C8">
-        <v>682.27319762541322</v>
+        <v>681.42078998832005</v>
       </c>
       <c r="D8">
-        <v>4962.5778603608587</v>
+        <v>4967.0459382570789</v>
       </c>
       <c r="E8">
         <v>73.30119406380993</v>
@@ -1116,7 +1116,7 @@
         <v>6753.0400000000063</v>
       </c>
       <c r="I8">
-        <v>6022.2202577540638</v>
+        <v>6020.587302516109</v>
       </c>
       <c r="J8">
         <v>6487.1703561422319</v>
@@ -1125,7 +1125,7 @@
         <v>446.50000000010687</v>
       </c>
       <c r="L8">
-        <v>1085.7893816552626</v>
+        <v>1085.6348817085527</v>
       </c>
       <c r="M8">
         <v>639.50562092495261</v>
@@ -1137,7 +1137,7 @@
         <v>6051.7290793060156</v>
       </c>
       <c r="P8">
-        <v>3595.8785220540117</v>
+        <v>3596.4757654859231</v>
       </c>
       <c r="Q8">
         <v>9307.781288860604</v>
@@ -1475,7 +1475,7 @@
         <v>124.19965469988007</v>
       </c>
       <c r="C7">
-        <v>680.3468984265694</v>
+        <v>679.92038915913622</v>
       </c>
       <c r="D7">
         <v>4964.8144966789841</v>
@@ -1502,7 +1502,7 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L7">
-        <v>1085.4400935741505</v>
+        <v>1085.362605600443</v>
       </c>
       <c r="M7">
         <v>634.99500232439834</v>
@@ -1528,7 +1528,7 @@
         <v>123.47824011793338</v>
       </c>
       <c r="C8">
-        <v>690.85538653809363</v>
+        <v>690.00296692744666</v>
       </c>
       <c r="D8">
         <v>4935.1108647505325</v>
@@ -1555,7 +1555,7 @@
         <v>446.50000000010687</v>
       </c>
       <c r="L8">
-        <v>1087.3398850784552</v>
+        <v>1087.1863236145768</v>
       </c>
       <c r="M8">
         <v>639.50562092495261</v>
@@ -1905,7 +1905,7 @@
         <v>124.39532639611396</v>
       </c>
       <c r="C7">
-        <v>688.92851549041802</v>
+        <v>688.50200322779722</v>
       </c>
       <c r="D7">
         <v>4982.1643864890257</v>
@@ -1932,7 +1932,7 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L7">
-        <v>1086.9927500901576</v>
+        <v>1086.9157526906074</v>
       </c>
       <c r="M7">
         <v>634.99500232439834</v>
@@ -1958,7 +1958,7 @@
         <v>123.87666740458874</v>
       </c>
       <c r="C8">
-        <v>697.63742664161225</v>
+        <v>696.78500294459059</v>
       </c>
       <c r="D8">
         <v>4956.3466233087765</v>
@@ -1985,7 +1985,7 @@
         <v>446.50000000010687</v>
       </c>
       <c r="L8">
-        <v>1088.5583731705351</v>
+        <v>1088.4055425734782</v>
       </c>
       <c r="M8">
         <v>639.50562092495261</v>
@@ -2335,7 +2335,7 @@
         <v>121.10266838013078</v>
       </c>
       <c r="C7">
-        <v>675.17791143967986</v>
+        <v>674.75140314826228</v>
       </c>
       <c r="D7">
         <v>4997.4264592819318</v>
@@ -2362,7 +2362,7 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L7">
-        <v>1084.5000519922471</v>
+        <v>1084.4222520405992</v>
       </c>
       <c r="M7">
         <v>634.99500232439834</v>
@@ -2388,7 +2388,7 @@
         <v>120.90985880552232</v>
       </c>
       <c r="C8">
-        <v>686.98057528713036</v>
+        <v>686.12816360277805</v>
       </c>
       <c r="D8">
         <v>4970.3416577734288</v>
@@ -2415,7 +2415,7 @@
         <v>446.50000000010687</v>
       </c>
       <c r="L8">
-        <v>1086.6410919257096</v>
+        <v>1086.4871805758639</v>
       </c>
       <c r="M8">
         <v>639.50562092495261</v>
@@ -2497,13 +2497,13 @@
         <v>43983</v>
       </c>
       <c r="B2">
-        <v>128.96534653914276</v>
+        <v>123.98803115685433</v>
       </c>
       <c r="C2">
         <v>688.85013328031755</v>
       </c>
       <c r="D2">
-        <v>5083.2653035634894</v>
+        <v>5092.8489037911768</v>
       </c>
       <c r="E2">
         <v>196.89287180060336</v>
@@ -2518,7 +2518,7 @@
         <v>6753.034597398294</v>
       </c>
       <c r="I2">
-        <v>6026.1967224749797</v>
+        <v>6022.8133449904035</v>
       </c>
       <c r="J2">
         <v>6499.9999999993579</v>
@@ -2539,7 +2539,7 @@
         <v>6061.1312802520079</v>
       </c>
       <c r="P2">
-        <v>3611.3795054891484</v>
+        <v>3612.5575369014427</v>
       </c>
       <c r="Q2">
         <v>9325.8596097589907</v>
@@ -2550,13 +2550,13 @@
         <v>44013</v>
       </c>
       <c r="B3">
-        <v>128.03908515318028</v>
+        <v>123.55478758553745</v>
       </c>
       <c r="C3">
         <v>681.6089852715927</v>
       </c>
       <c r="D3">
-        <v>5065.1129360346677</v>
+        <v>5073.7440459743257</v>
       </c>
       <c r="E3">
         <v>91.023587490167074</v>
@@ -2571,7 +2571,7 @@
         <v>6753.0400000000109</v>
       </c>
       <c r="I3">
-        <v>6025.5748683048705</v>
+        <v>6022.5141601975238</v>
       </c>
       <c r="J3">
         <v>6505.4999999998909</v>
@@ -2592,7 +2592,7 @@
         <v>6057.4035191970497</v>
       </c>
       <c r="P3">
-        <v>3609.1282770175803</v>
+        <v>3610.2019662432676</v>
       </c>
       <c r="Q3">
         <v>9324.1236450915458</v>
@@ -2603,13 +2603,13 @@
         <v>44044</v>
       </c>
       <c r="B4">
-        <v>127.01004075334536</v>
+        <v>123.0169430057327</v>
       </c>
       <c r="C4">
         <v>687.82679862427131</v>
       </c>
       <c r="D4">
-        <v>5035.0502660619031</v>
+        <v>5042.7309772332746</v>
       </c>
       <c r="E4">
         <v>86.020587490167046</v>
@@ -2624,7 +2624,7 @@
         <v>6753.0400000000072</v>
       </c>
       <c r="I4">
-        <v>6024.8797804024516</v>
+        <v>6022.1411153421541</v>
       </c>
       <c r="J4">
         <v>6502.3313072630963</v>
@@ -2645,7 +2645,7 @@
         <v>6056.4741164709767</v>
       </c>
       <c r="P4">
-        <v>3605.3401268755078</v>
+        <v>3606.3152394475701</v>
       </c>
       <c r="Q4">
         <v>9319.9999999999891</v>
@@ -2656,13 +2656,13 @@
         <v>44075</v>
       </c>
       <c r="B5">
-        <v>125.47010626737753</v>
+        <v>121.96648632058962</v>
       </c>
       <c r="C5">
         <v>683.18860411888795</v>
       </c>
       <c r="D5">
-        <v>5018.3943103174133</v>
+        <v>5025.1279560035427</v>
       </c>
       <c r="E5">
         <v>69.844276606507194</v>
@@ -2677,7 +2677,7 @@
         <v>6753.0362407513312</v>
       </c>
       <c r="I5">
-        <v>6023.8315518409399</v>
+        <v>6021.4092999405057</v>
       </c>
       <c r="J5">
         <v>6498.9441968759293</v>
@@ -2698,7 +2698,7 @@
         <v>6055.6035967050093</v>
       </c>
       <c r="P5">
-        <v>3603.2077888715812</v>
+        <v>3604.0728800982156</v>
       </c>
       <c r="Q5">
         <v>9311.4999999999891</v>
@@ -2709,13 +2709,13 @@
         <v>44105</v>
       </c>
       <c r="B6">
-        <v>124.16275244823647</v>
+        <v>121.14587572094624</v>
       </c>
       <c r="C6">
         <v>690.42573401786854</v>
       </c>
       <c r="D6">
-        <v>4996.46350733892</v>
+        <v>5002.2563482019868</v>
       </c>
       <c r="E6">
         <v>70.803143765996026</v>
@@ -2730,7 +2730,7 @@
         <v>6753.0399999999981</v>
       </c>
       <c r="I6">
-        <v>6022.9340021862718</v>
+        <v>6020.834041476528</v>
       </c>
       <c r="J6">
         <v>6495.0340074520855</v>
@@ -2751,7 +2751,7 @@
         <v>6054.552612264084</v>
       </c>
       <c r="P6">
-        <v>3600.3619650451847</v>
+        <v>3601.1180063957568</v>
       </c>
       <c r="Q6">
         <v>9309.9999999999909</v>
@@ -2762,13 +2762,13 @@
         <v>44136</v>
       </c>
       <c r="B7">
-        <v>123.09573558048079</v>
+        <v>120.56455457199246</v>
       </c>
       <c r="C7">
-        <v>686.15028841862329</v>
+        <v>685.72377696179683</v>
       </c>
       <c r="D7">
-        <v>4975.8625737228422</v>
+        <v>4980.7135146678138</v>
       </c>
       <c r="E7">
         <v>72.402913321931635</v>
@@ -2783,7 +2783,7 @@
         <v>6753.0390355238087</v>
       </c>
       <c r="I7">
-        <v>6022.1957746948001</v>
+        <v>6020.424843458034</v>
       </c>
       <c r="J7">
         <v>6490.8999966194797</v>
@@ -2792,7 +2792,7 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L7">
-        <v>1086.4911858331416</v>
+        <v>1086.4140256028577</v>
       </c>
       <c r="M7">
         <v>634.99500232439834</v>
@@ -2804,7 +2804,7 @@
         <v>6054.3121249197784</v>
       </c>
       <c r="P7">
-        <v>3597.6485929976411</v>
+        <v>3598.2909082745459</v>
       </c>
       <c r="Q7">
         <v>9308.4999999999891</v>
@@ -2815,13 +2815,13 @@
         <v>44166</v>
       </c>
       <c r="B8">
-        <v>121.96708237780484</v>
+        <v>119.92359709027971</v>
       </c>
       <c r="C8">
-        <v>700.58324314031813</v>
+        <v>699.73081933313574</v>
       </c>
       <c r="D8">
-        <v>4947.5941237839097</v>
+        <v>4951.500807846407</v>
       </c>
       <c r="E8">
         <v>68.718143765996018</v>
@@ -2836,7 +2836,7 @@
         <v>6753.0400000000063</v>
       </c>
       <c r="I8">
-        <v>6021.4097172072188</v>
+        <v>6019.9718354605357</v>
       </c>
       <c r="J8">
         <v>6485.2017550477412</v>
@@ -2845,7 +2845,7 @@
         <v>446.50000000010687</v>
       </c>
       <c r="L8">
-        <v>1089.0856668965814</v>
+        <v>1088.9332136353516</v>
       </c>
       <c r="M8">
         <v>639.50562092495261</v>
@@ -2857,7 +2857,7 @@
         <v>6053.7748201718623</v>
       </c>
       <c r="P8">
-        <v>3593.8622706793817</v>
+        <v>3594.3900375753178</v>
       </c>
       <c r="Q8">
         <v>9307.7572253850649</v>
@@ -3195,7 +3195,7 @@
         <v>125.80118030046172</v>
       </c>
       <c r="C7">
-        <v>670.96043287047257</v>
+        <v>670.53392597045035</v>
       </c>
       <c r="D7">
         <v>4996.8194752926929</v>
@@ -3222,7 +3222,7 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L7">
-        <v>1083.7301567714783</v>
+        <v>1083.6521904549979</v>
       </c>
       <c r="M7">
         <v>634.99500232439834</v>
@@ -3248,7 +3248,7 @@
         <v>124.68478140666714</v>
       </c>
       <c r="C8">
-        <v>680.61948410526111</v>
+        <v>679.76707859240673</v>
       </c>
       <c r="D8">
         <v>4969.2010769635899</v>
@@ -3275,7 +3275,7 @@
         <v>446.50000000010687</v>
       </c>
       <c r="L8">
-        <v>1085.4896173246141</v>
+        <v>1085.3347527507901</v>
       </c>
       <c r="M8">
         <v>639.50562092495261</v>
@@ -3625,7 +3625,7 @@
         <v>124.90589913340106</v>
       </c>
       <c r="C7">
-        <v>672.59719965007002</v>
+        <v>672.17069244026766</v>
       </c>
       <c r="D7">
         <v>4969.7116920439812</v>
@@ -3652,7 +3652,7 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L7">
-        <v>1084.0292994201664</v>
+        <v>1083.9513957121715</v>
       </c>
       <c r="M7">
         <v>634.99500232439834</v>
@@ -3678,7 +3678,7 @@
         <v>123.93282767967263</v>
       </c>
       <c r="C8">
-        <v>685.80657151251637</v>
+        <v>684.95416262587923</v>
       </c>
       <c r="D8">
         <v>4944.2816981690221</v>
@@ -3705,7 +3705,7 @@
         <v>446.50000000010687</v>
       </c>
       <c r="L8">
-        <v>1086.4290008968558</v>
+        <v>1086.2747913013754</v>
       </c>
       <c r="M8">
         <v>639.50562092495261</v>
@@ -3787,13 +3787,13 @@
         <v>43983</v>
       </c>
       <c r="B2">
-        <v>131.67534692074352</v>
+        <v>126.43544057837994</v>
       </c>
       <c r="C2">
         <v>694.20040790242842</v>
       </c>
       <c r="D2">
-        <v>5092.4754940788562</v>
+        <v>5102.5646153973257</v>
       </c>
       <c r="E2">
         <v>275.00587180060336</v>
@@ -3808,7 +3808,7 @@
         <v>6753.034597398294</v>
       </c>
       <c r="I2">
-        <v>6027.997505037034</v>
+        <v>6024.4899968187865</v>
       </c>
       <c r="J2">
         <v>6499.9999999993579</v>
@@ -3829,7 +3829,7 @@
         <v>6062.2668168674154</v>
       </c>
       <c r="P2">
-        <v>3612.5118243100683</v>
+        <v>3613.7443817944209</v>
       </c>
       <c r="Q2">
         <v>9325.7412975150564</v>
@@ -3840,13 +3840,13 @@
         <v>44013</v>
       </c>
       <c r="B3">
-        <v>130.94177228365132</v>
+        <v>126.22065448490142</v>
       </c>
       <c r="C3">
         <v>687.17653553029061</v>
       </c>
       <c r="D3">
-        <v>5083.8379123332797</v>
+        <v>5092.9246011181376</v>
       </c>
       <c r="E3">
         <v>104.29758749016709</v>
@@ -3861,7 +3861,7 @@
         <v>6753.0400000000109</v>
       </c>
       <c r="I3">
-        <v>6027.5128751664242</v>
+        <v>6024.3436603859545</v>
       </c>
       <c r="J3">
         <v>6505.4999999998909</v>
@@ -3882,7 +3882,7 @@
         <v>6059.0413347131744</v>
       </c>
       <c r="P3">
-        <v>3611.4501515036327</v>
+        <v>3612.566803309508</v>
       </c>
       <c r="Q3">
         <v>9325.650191227598</v>
@@ -3893,13 +3893,13 @@
         <v>44044</v>
       </c>
       <c r="B4">
-        <v>130.28613550174211</v>
+        <v>126.08193397370111</v>
       </c>
       <c r="C4">
         <v>687.70123710430835</v>
       </c>
       <c r="D4">
-        <v>5056.0235062885722</v>
+        <v>5064.110015033134</v>
       </c>
       <c r="E4">
         <v>103.95458749016706</v>
@@ -3914,7 +3914,7 @@
         <v>6753.0400000000072</v>
       </c>
       <c r="I4">
-        <v>6027.0779049999492</v>
+        <v>6024.2491483820131</v>
       </c>
       <c r="J4">
         <v>6501.1402019309662</v>
@@ -3935,7 +3935,7 @@
         <v>6056.8552618444646</v>
       </c>
       <c r="P4">
-        <v>3607.9910664432214</v>
+        <v>3609.0032386089415</v>
       </c>
       <c r="Q4">
         <v>9319.9999999999891</v>
@@ -3946,13 +3946,13 @@
         <v>44075</v>
       </c>
       <c r="B5">
-        <v>128.62946326410477</v>
+        <v>124.94042820497019</v>
       </c>
       <c r="C5">
         <v>679.0787981343326</v>
       </c>
       <c r="D5">
-        <v>5038.6645430471053</v>
+        <v>5045.7542616542378</v>
       </c>
       <c r="E5">
         <v>74.943697502216367</v>
@@ -3967,7 +3967,7 @@
         <v>6753.0362407513312</v>
       </c>
       <c r="I5">
-        <v>6025.9717771156129</v>
+        <v>6023.4689162978293</v>
       </c>
       <c r="J5">
         <v>6496.8710238515096</v>
@@ -3988,7 +3988,7 @@
         <v>6055.4042172670188</v>
       </c>
       <c r="P5">
-        <v>3605.7996022166972</v>
+        <v>3606.6976706326286</v>
       </c>
       <c r="Q5">
         <v>9311.4999999999891</v>
@@ -3999,13 +3999,13 @@
         <v>44105</v>
       </c>
       <c r="B6">
-        <v>127.26199352020095</v>
+        <v>124.08535326958597</v>
       </c>
       <c r="C6">
         <v>683.46856743614364</v>
       </c>
       <c r="D6">
-        <v>5022.0141254896716</v>
+        <v>5028.1134756116844</v>
       </c>
       <c r="E6">
         <v>77.287195624608927</v>
@@ -4020,7 +4020,7 @@
         <v>6753.0399999999981</v>
       </c>
       <c r="I6">
-        <v>6025.0504501180721</v>
+        <v>6022.8805518821964</v>
       </c>
       <c r="J6">
         <v>6493.1327076629368</v>
@@ -4041,7 +4041,7 @@
         <v>6054.8847840961362</v>
       </c>
       <c r="P6">
-        <v>3603.673308070956</v>
+        <v>3604.4551433491956</v>
       </c>
       <c r="Q6">
         <v>9309.9999999999909</v>
@@ -4052,13 +4052,13 @@
         <v>44136</v>
       </c>
       <c r="B7">
-        <v>126.04939921553516</v>
+        <v>123.3841327019196</v>
       </c>
       <c r="C7">
-        <v>682.71573789165802</v>
+        <v>682.28922715396061</v>
       </c>
       <c r="D7">
-        <v>5002.9408506845184</v>
+        <v>5008.0480712738054</v>
       </c>
       <c r="E7">
         <v>76.580511894782845</v>
@@ -4073,7 +4073,7 @@
         <v>6753.0390355238087</v>
       </c>
       <c r="I7">
-        <v>6024.2269828869712</v>
+        <v>6022.395838476582</v>
       </c>
       <c r="J7">
         <v>6489.1068342605467</v>
@@ -4082,7 +4082,7 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L7">
-        <v>1085.8695913137365</v>
+        <v>1085.7922857656067</v>
       </c>
       <c r="M7">
         <v>634.99500232439834</v>
@@ -4094,7 +4094,7 @@
         <v>6054.4465317419181</v>
       </c>
       <c r="P7">
-        <v>3601.2070921495388</v>
+        <v>3601.8707630880831</v>
       </c>
       <c r="Q7">
         <v>9308.4999999999891</v>
@@ -4105,13 +4105,13 @@
         <v>44166</v>
       </c>
       <c r="B8">
-        <v>124.77223132983387</v>
+        <v>122.62047928799682</v>
       </c>
       <c r="C8">
-        <v>698.73207805987852</v>
+        <v>697.87965635714897</v>
       </c>
       <c r="D8">
-        <v>4978.0662475995832</v>
+        <v>4982.1788925069104</v>
       </c>
       <c r="E8">
         <v>72.804195624608965</v>
@@ -4126,7 +4126,7 @@
         <v>6753.0400000000063</v>
       </c>
       <c r="I8">
-        <v>6023.3532892371441</v>
+        <v>6021.8654706405205</v>
       </c>
       <c r="J8">
         <v>6484.0534376580345</v>
@@ -4135,7 +4135,7 @@
         <v>446.50000000010687</v>
       </c>
       <c r="L8">
-        <v>1088.7543780890201</v>
+        <v>1088.6017457346229</v>
       </c>
       <c r="M8">
         <v>639.50562092495261</v>
@@ -4147,7 +4147,7 @@
         <v>6053.8239810055993</v>
       </c>
       <c r="P8">
-        <v>3597.9407207893714</v>
+        <v>3598.4846657457792</v>
       </c>
       <c r="Q8">
         <v>9307.9708272286553</v>
@@ -4485,7 +4485,7 @@
         <v>124.01924533472354</v>
       </c>
       <c r="C7">
-        <v>673.54708920194082</v>
+        <v>673.12058091142808</v>
       </c>
       <c r="D7">
         <v>4979.5038687305314</v>
@@ -4512,7 +4512,7 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L7">
-        <v>1084.2025717329645</v>
+        <v>1084.1247716704474</v>
       </c>
       <c r="M7">
         <v>634.99500232439834</v>
@@ -4538,7 +4538,7 @@
         <v>122.88406691030076</v>
       </c>
       <c r="C8">
-        <v>679.44715475600992</v>
+        <v>678.59474714443604</v>
       </c>
       <c r="D8">
         <v>4961.2176884401233</v>
@@ -4565,7 +4565,7 @@
         <v>446.50000000010687</v>
       </c>
       <c r="L8">
-        <v>1085.2766314024882</v>
+        <v>1085.1217665573099</v>
       </c>
       <c r="M8">
         <v>639.50562092495261</v>
@@ -4915,7 +4915,7 @@
         <v>122.39332116431014</v>
       </c>
       <c r="C7">
-        <v>679.59724399594279</v>
+        <v>679.17073416097423</v>
       </c>
       <c r="D7">
         <v>5032.4402248522501</v>
@@ -4942,7 +4942,7 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L7">
-        <v>1085.3038993925343</v>
+        <v>1085.2264114256277</v>
       </c>
       <c r="M7">
         <v>634.99500232439834</v>
@@ -4968,7 +4968,7 @@
         <v>121.74159638016704</v>
       </c>
       <c r="C8">
-        <v>683.32948865891376</v>
+        <v>682.47707605474648</v>
       </c>
       <c r="D8">
         <v>5006.9374331184517</v>
@@ -4995,7 +4995,7 @@
         <v>446.50000000010687</v>
       </c>
       <c r="L8">
-        <v>1085.9808349856814</v>
+        <v>1085.8263342469863</v>
       </c>
       <c r="M8">
         <v>639.50562092495261</v>
@@ -5077,13 +5077,13 @@
         <v>43983</v>
       </c>
       <c r="B2">
-        <v>132.96613528520359</v>
+        <v>127.46802266204804</v>
       </c>
       <c r="C2">
         <v>692.39371432149881</v>
       </c>
       <c r="D2">
-        <v>5095.41996455344</v>
+        <v>5106.0061858657828</v>
       </c>
       <c r="E2">
         <v>315.99087180060337</v>
@@ -5098,7 +5098,7 @@
         <v>6753.034597398294</v>
       </c>
       <c r="I2">
-        <v>6028.8450953824713</v>
+        <v>6025.1895762559916</v>
       </c>
       <c r="J2">
         <v>6499.9999999993579</v>
@@ -5119,7 +5119,7 @@
         <v>6060.0561161696478</v>
       </c>
       <c r="P2">
-        <v>3612.872284606447</v>
+        <v>3614.1631129816237</v>
       </c>
       <c r="Q2">
         <v>9325.0131356991933</v>
@@ -5130,13 +5130,13 @@
         <v>44013</v>
       </c>
       <c r="B3">
-        <v>134.09019506707344</v>
+        <v>129.13624908488219</v>
       </c>
       <c r="C3">
         <v>686.49604703538625</v>
       </c>
       <c r="D3">
-        <v>5087.5092737069117</v>
+        <v>5097.0437311880196</v>
       </c>
       <c r="E3">
         <v>161.90858749016706</v>
@@ -5151,7 +5151,7 @@
         <v>6753.0400000000109</v>
       </c>
       <c r="I3">
-        <v>6029.5784919135331</v>
+        <v>6026.3111150558534</v>
       </c>
       <c r="J3">
         <v>6505.4999999998909</v>
@@ -5172,7 +5172,7 @@
         <v>6056.0248190799693</v>
       </c>
       <c r="P3">
-        <v>3611.9020630926257</v>
+        <v>3613.0708828737779</v>
       </c>
       <c r="Q3">
         <v>9322.3759292934737</v>
@@ -5183,13 +5183,13 @@
         <v>44044</v>
       </c>
       <c r="B4">
-        <v>133.66860414687849</v>
+        <v>129.25682594647486</v>
       </c>
       <c r="C4">
         <v>688.21891089123426</v>
       </c>
       <c r="D4">
-        <v>5063.561262996428</v>
+        <v>5072.0463257588071</v>
       </c>
       <c r="E4">
         <v>119.19036550290929</v>
@@ -5204,7 +5204,7 @@
         <v>6753.0400000000072</v>
       </c>
       <c r="I4">
-        <v>6029.3038810556864</v>
+        <v>6026.3918227080821</v>
       </c>
       <c r="J4">
         <v>6502.4577876381591</v>
@@ -5225,7 +5225,7 @@
         <v>6052.7174324932184</v>
       </c>
       <c r="P4">
-        <v>3608.9346533790399</v>
+        <v>3609.9913913873174</v>
       </c>
       <c r="Q4">
         <v>9317.4940354808714</v>
@@ -5236,13 +5236,13 @@
         <v>44075</v>
       </c>
       <c r="B5">
-        <v>131.72817168371421</v>
+        <v>127.85680552728479</v>
       </c>
       <c r="C5">
         <v>680.98539851759631</v>
       </c>
       <c r="D5">
-        <v>5049.2467155445993</v>
+        <v>5056.6859192697439</v>
       </c>
       <c r="E5">
         <v>76.631184359755252</v>
@@ -5257,7 +5257,7 @@
         <v>6753.0362407513312</v>
       </c>
       <c r="I5">
-        <v>6028.0322625599501</v>
+        <v>6025.4521115024527</v>
       </c>
       <c r="J5">
         <v>6499.0215263590053</v>
@@ -5278,7 +5278,7 @@
         <v>6050.5440250963475</v>
       </c>
       <c r="P5">
-        <v>3607.1385113831425</v>
+        <v>3608.0741103294567</v>
       </c>
       <c r="Q5">
         <v>9311.4999999999891</v>
@@ -5289,13 +5289,13 @@
         <v>44105</v>
       </c>
       <c r="B6">
-        <v>130.14549066122018</v>
+        <v>126.81174197872387</v>
       </c>
       <c r="C6">
         <v>687.3051841131072</v>
       </c>
       <c r="D6">
-        <v>5034.2581105999425</v>
+        <v>5040.658104519076</v>
       </c>
       <c r="E6">
         <v>80.687874668653393</v>
@@ -5310,7 +5310,7 @@
         <v>6753.0399999999981</v>
       </c>
       <c r="I6">
-        <v>6026.9845164464632</v>
+        <v>6024.7452788112068</v>
       </c>
       <c r="J6">
         <v>6496.2497374294935</v>
@@ -5331,7 +5331,7 @@
         <v>6051.5731050423483</v>
       </c>
       <c r="P6">
-        <v>3605.2392446307394</v>
+        <v>3606.0526623581663</v>
       </c>
       <c r="Q6">
         <v>9309.9999999999909</v>
@@ -5342,13 +5342,13 @@
         <v>44136</v>
       </c>
       <c r="B7">
-        <v>128.69597763068469</v>
+        <v>125.89885459293642</v>
       </c>
       <c r="C7">
-        <v>681.30350636761636</v>
+        <v>680.87699619736679</v>
       </c>
       <c r="D7">
-        <v>5023.9050444966433</v>
+        <v>5029.2639675592854</v>
       </c>
       <c r="E7">
         <v>79.36149161482588</v>
@@ -5363,7 +5363,7 @@
         <v>6753.0390355238087</v>
       </c>
       <c r="I7">
-        <v>6026.0164211047977</v>
+        <v>6024.1244155539453</v>
       </c>
       <c r="J7">
         <v>6492.282748421273</v>
@@ -5372,7 +5372,7 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L7">
-        <v>1085.6136230213879</v>
+        <v>1085.5363174664747</v>
       </c>
       <c r="M7">
         <v>634.99500232439834</v>
@@ -5384,7 +5384,7 @@
         <v>6054.0847928155217</v>
       </c>
       <c r="P7">
-        <v>3603.9160721756175</v>
+        <v>3604.6021734733758</v>
       </c>
       <c r="Q7">
         <v>9308.4999999999891</v>
@@ -5395,13 +5395,13 @@
         <v>44166</v>
       </c>
       <c r="B8">
-        <v>127.14394096006488</v>
+        <v>124.88572145950735</v>
       </c>
       <c r="C8">
-        <v>684.11501221226001</v>
+        <v>683.26259750599775</v>
       </c>
       <c r="D8">
-        <v>5002.1616780708455</v>
+        <v>5006.4765660676303</v>
       </c>
       <c r="E8">
         <v>74.604874668653395</v>
@@ -5416,7 +5416,7 @@
         <v>6753.0400000000063</v>
       </c>
       <c r="I8">
-        <v>6024.9706011107</v>
+        <v>6023.4313088809895</v>
       </c>
       <c r="J8">
         <v>6486.7641441677879</v>
@@ -5425,7 +5425,7 @@
         <v>446.50000000010687</v>
       </c>
       <c r="L8">
-        <v>1086.122979787641</v>
+        <v>1085.9687103769966</v>
       </c>
       <c r="M8">
         <v>639.50562092495261</v>
@@ -5437,7 +5437,7 @@
         <v>6054.8591644930057</v>
       </c>
       <c r="P8">
-        <v>3601.1056837341253</v>
+        <v>3601.666798469792</v>
       </c>
       <c r="Q8">
         <v>9307.8248245143186</v>
@@ -5507,13 +5507,13 @@
         <v>43983</v>
       </c>
       <c r="B2">
-        <v>129.0329813615534</v>
+        <v>124.62227894868603</v>
       </c>
       <c r="C2">
         <v>690.02877366304131</v>
       </c>
       <c r="D2">
-        <v>5089.5453111650431</v>
+        <v>5098.0379467102221</v>
       </c>
       <c r="E2">
         <v>184.83787180060338</v>
@@ -5528,7 +5528,7 @@
         <v>6753.034597398294</v>
       </c>
       <c r="I2">
-        <v>6026.2419934348636</v>
+        <v>6023.250203711108</v>
       </c>
       <c r="J2">
         <v>6499.9999999993579</v>
@@ -5549,7 +5549,7 @@
         <v>6061.546585187868</v>
       </c>
       <c r="P2">
-        <v>3612.1522138874207</v>
+        <v>3613.1922830195354</v>
       </c>
       <c r="Q2">
         <v>9326.3635664683043</v>
@@ -5560,13 +5560,13 @@
         <v>44013</v>
       </c>
       <c r="B3">
-        <v>126.99315696733692</v>
+        <v>123.01936296536452</v>
       </c>
       <c r="C3">
         <v>678.63033242690926</v>
       </c>
       <c r="D3">
-        <v>5068.452212080716</v>
+        <v>5076.1008464009055</v>
       </c>
       <c r="E3">
         <v>54.181587490167075</v>
@@ -5581,7 +5581,7 @@
         <v>6753.0400000000109</v>
       </c>
       <c r="I3">
-        <v>6024.8683284913641</v>
+        <v>6022.1427941003903</v>
       </c>
       <c r="J3">
         <v>6505.4999999998909</v>
@@ -5602,7 +5602,7 @@
         <v>6059.3291259936923</v>
       </c>
       <c r="P3">
-        <v>3609.5444785124378</v>
+        <v>3610.4942570674339</v>
       </c>
       <c r="Q3">
         <v>9324.0145923307628</v>
@@ -5613,13 +5613,13 @@
         <v>44044</v>
       </c>
       <c r="B4">
-        <v>125.0194531112011</v>
+        <v>121.48102320310359</v>
       </c>
       <c r="C4">
         <v>683.9236104472194</v>
       </c>
       <c r="D4">
-        <v>5037.3002036596563</v>
+        <v>5044.1066725167784</v>
       </c>
       <c r="E4">
         <v>53.624587490167073</v>
@@ -5634,7 +5634,7 @@
         <v>6753.0400000000072</v>
       </c>
       <c r="I4">
-        <v>6023.5231388295815</v>
+        <v>6021.0694350231161</v>
       </c>
       <c r="J4">
         <v>6505.3924179122305</v>
@@ -5655,7 +5655,7 @@
         <v>6056.7750158833742</v>
       </c>
       <c r="P4">
-        <v>3605.6263199010164</v>
+        <v>3606.4895014884501</v>
       </c>
       <c r="Q4">
         <v>9319.4541400935796</v>
@@ -5666,13 +5666,13 @@
         <v>44075</v>
       </c>
       <c r="B5">
-        <v>124.58843177389662</v>
+        <v>121.05907195502905</v>
       </c>
       <c r="C5">
         <v>680.68695562462233</v>
       </c>
       <c r="D5">
-        <v>5020.5867159147301</v>
+        <v>5027.3717782904296</v>
       </c>
       <c r="E5">
         <v>76.816073034971268</v>
@@ -5687,7 +5687,7 @@
         <v>6753.0362407513312</v>
       </c>
       <c r="I5">
-        <v>6023.2269353066795</v>
+        <v>6020.7729911889473</v>
       </c>
       <c r="J5">
         <v>6500.0522896659277</v>
@@ -5708,7 +5708,7 @@
         <v>6055.0878962672332</v>
       </c>
       <c r="P5">
-        <v>3603.4900256219389</v>
+        <v>3604.3601782488881</v>
       </c>
       <c r="Q5">
         <v>9311.4999999999891</v>
@@ -5719,13 +5719,13 @@
         <v>44105</v>
       </c>
       <c r="B6">
-        <v>124.51375425597716</v>
+        <v>121.00746518415369</v>
       </c>
       <c r="C6">
         <v>688.5364280271732</v>
       </c>
       <c r="D6">
-        <v>5007.4345512086138</v>
+        <v>5014.1716243195087</v>
       </c>
       <c r="E6">
         <v>84.971466374866196</v>
@@ -5740,7 +5740,7 @@
         <v>6753.0399999999981</v>
       </c>
       <c r="I6">
-        <v>6023.1755977010098</v>
+        <v>6020.7366953181181</v>
       </c>
       <c r="J6">
         <v>6495.7014527315232</v>
@@ -5761,7 +5761,7 @@
         <v>6057.8235390182263</v>
       </c>
       <c r="P6">
-        <v>3601.7911367262145</v>
+        <v>3602.6632738441995</v>
       </c>
       <c r="Q6">
         <v>9309.9999999999909</v>
@@ -5772,13 +5772,13 @@
         <v>44136</v>
       </c>
       <c r="B7">
-        <v>124.01574758930042</v>
+        <v>121.07393969037427</v>
       </c>
       <c r="C7">
-        <v>686.86238594949975</v>
+        <v>686.43587368687906</v>
       </c>
       <c r="D7">
-        <v>4993.5166838606001</v>
+        <v>4999.1585693216075</v>
       </c>
       <c r="E7">
         <v>83.322515846644706</v>
@@ -5793,7 +5793,7 @@
         <v>6753.0390355238087</v>
       </c>
       <c r="I7">
-        <v>6022.8324849656337</v>
+        <v>6020.7834478998584</v>
       </c>
       <c r="J7">
         <v>6491.5815924386188</v>
@@ -5802,7 +5802,7 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L7">
-        <v>1086.6197571277689</v>
+        <v>1086.5427597282185</v>
       </c>
       <c r="M7">
         <v>634.99500232439834</v>
@@ -5814,7 +5814,7 @@
         <v>6058.5142259049271</v>
       </c>
       <c r="P7">
-        <v>3599.9762662754956</v>
+        <v>3600.7140601832834</v>
       </c>
       <c r="Q7">
         <v>9308.4999999999891</v>
@@ -5825,13 +5825,13 @@
         <v>44166</v>
       </c>
       <c r="B8">
-        <v>123.36537792418306</v>
+        <v>120.99037813379006</v>
       </c>
       <c r="C8">
-        <v>694.53786341470993</v>
+        <v>693.68544159254066</v>
       </c>
       <c r="D8">
-        <v>4968.3954215891154</v>
+        <v>4972.9394885281445</v>
       </c>
       <c r="E8">
         <v>77.16146637486618</v>
@@ -5846,7 +5846,7 @@
         <v>6753.0400000000063</v>
       </c>
       <c r="I8">
-        <v>6022.3828287052575</v>
+        <v>6020.724677726098</v>
       </c>
       <c r="J8">
         <v>6485.8539238239428</v>
@@ -5855,7 +5855,7 @@
         <v>446.50000000010687</v>
       </c>
       <c r="L8">
-        <v>1088.0023324167516</v>
+        <v>1087.8490627359879</v>
       </c>
       <c r="M8">
         <v>639.50562092495261</v>
@@ -5867,7 +5867,7 @@
         <v>6058.0989774555219</v>
       </c>
       <c r="P8">
-        <v>3596.6556488774763</v>
+        <v>3597.2604777443894</v>
       </c>
       <c r="Q8">
         <v>9307.8020972415943</v>
@@ -6205,7 +6205,7 @@
         <v>122.96054031966648</v>
       </c>
       <c r="C7">
-        <v>685.63190339289872</v>
+        <v>685.20539193607226</v>
       </c>
       <c r="D7">
         <v>5000.7877959632478</v>
@@ -6232,7 +6232,7 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L7">
-        <v>1086.3974016471079</v>
+        <v>1086.3202414168243</v>
       </c>
       <c r="M7">
         <v>634.99500232439834</v>
@@ -6258,7 +6258,7 @@
         <v>122.60333979033359</v>
       </c>
       <c r="C8">
-        <v>696.73950073169772</v>
+        <v>695.88707905752949</v>
       </c>
       <c r="D8">
         <v>4970.9434403483347</v>
@@ -6285,7 +6285,7 @@
         <v>446.50000000010687</v>
       </c>
       <c r="L8">
-        <v>1088.3973776978057</v>
+        <v>1088.2444249168932</v>
       </c>
       <c r="M8">
         <v>639.50562092495261</v>
@@ -6635,7 +6635,7 @@
         <v>123.82632339453463</v>
       </c>
       <c r="C7">
-        <v>668.97496624387293</v>
+        <v>668.54846007817605</v>
       </c>
       <c r="D7">
         <v>4975.9637619587393</v>
@@ -6662,7 +6662,7 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L7">
-        <v>1083.3669579129294</v>
+        <v>1083.2888432237412</v>
       </c>
       <c r="M7">
         <v>634.99500232439834</v>
@@ -6688,7 +6688,7 @@
         <v>123.26234016192069</v>
       </c>
       <c r="C8">
-        <v>676.95107663142312</v>
+        <v>676.09867373619204</v>
       </c>
       <c r="D8">
         <v>4946.8345782082006</v>
@@ -6715,7 +6715,7 @@
         <v>446.50000000010687</v>
       </c>
       <c r="L8">
-        <v>1084.8228095828269</v>
+        <v>1084.6676523200001</v>
       </c>
       <c r="M8">
         <v>639.50562092495261</v>
@@ -7065,7 +7065,7 @@
         <v>123.95492582219684</v>
       </c>
       <c r="C7">
-        <v>670.1030269788946</v>
+        <v>669.67652012174722</v>
       </c>
       <c r="D7">
         <v>4963.7038593998186</v>
@@ -7092,7 +7092,7 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L7">
-        <v>1083.5734211591173</v>
+        <v>1083.4954461930381</v>
       </c>
       <c r="M7">
         <v>634.99500232439834</v>
@@ -7118,7 +7118,7 @@
         <v>123.68443831752533</v>
       </c>
       <c r="C8">
-        <v>678.36180688464356</v>
+        <v>677.50940206063956</v>
       </c>
       <c r="D8">
         <v>4934.0839723866229</v>
@@ -7145,7 +7145,7 @@
         <v>446.50000000010687</v>
       </c>
       <c r="L8">
-        <v>1085.0794436492442</v>
+        <v>1084.924436425669</v>
       </c>
       <c r="M8">
         <v>639.50562092495261</v>
@@ -7495,7 +7495,7 @@
         <v>123.91509633977857</v>
       </c>
       <c r="C7">
-        <v>672.7569552597306</v>
+        <v>672.3304543631026</v>
       </c>
       <c r="D7">
         <v>4972.3280953564308</v>
@@ -7522,7 +7522,7 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L7">
-        <v>1084.0584427833155</v>
+        <v>1083.9806012704969</v>
       </c>
       <c r="M7">
         <v>634.99500232439834</v>
@@ -7548,7 +7548,7 @@
         <v>123.49906453897235</v>
       </c>
       <c r="C8">
-        <v>680.84332295096362</v>
+        <v>679.99092259978761</v>
       </c>
       <c r="D8">
         <v>4944.0227699892912</v>
@@ -7575,7 +7575,7 @@
         <v>446.50000000010687</v>
       </c>
       <c r="L8">
-        <v>1085.5302159749835</v>
+        <v>1085.3754224217009</v>
       </c>
       <c r="M8">
         <v>639.50562092495261</v>
@@ -7925,7 +7925,7 @@
         <v>120.58500478684618</v>
       </c>
       <c r="C7">
-        <v>667.86415425537632</v>
+        <v>667.4376475218105</v>
       </c>
       <c r="D7">
         <v>4988.5988119099866</v>
@@ -7952,7 +7952,7 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L7">
-        <v>1083.1635126964552</v>
+        <v>1083.085398014128</v>
       </c>
       <c r="M7">
         <v>634.99500232439834</v>
@@ -7978,7 +7978,7 @@
         <v>120.33963976902521</v>
       </c>
       <c r="C8">
-        <v>675.48338313169245</v>
+        <v>674.63098057496632</v>
       </c>
       <c r="D8">
         <v>4960.4574286505876</v>
@@ -8005,7 +8005,7 @@
         <v>446.50000000010687</v>
       </c>
       <c r="L8">
-        <v>1084.5556552586509</v>
+        <v>1084.4002858090987</v>
       </c>
       <c r="M8">
         <v>639.50562092495261</v>
@@ -8355,7 +8355,7 @@
         <v>125.395411347711</v>
       </c>
       <c r="C7">
-        <v>682.63619421488124</v>
+        <v>682.20968347718372</v>
       </c>
       <c r="D7">
         <v>5002.4950242028372</v>
@@ -8382,7 +8382,7 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L7">
-        <v>1085.8551745569691</v>
+        <v>1085.7778690088394</v>
       </c>
       <c r="M7">
         <v>634.99500232439834</v>
@@ -8408,7 +8408,7 @@
         <v>123.71634903038461</v>
       </c>
       <c r="C8">
-        <v>695.59708635559571</v>
+        <v>694.74466602002258</v>
       </c>
       <c r="D8">
         <v>4980.0586514196048</v>
@@ -8435,7 +8435,7 @@
         <v>446.50000000010687</v>
       </c>
       <c r="L8">
-        <v>1088.1923906495085</v>
+        <v>1088.0394381087976</v>
       </c>
       <c r="M8">
         <v>639.50562092495261</v>
@@ -8785,7 +8785,7 @@
         <v>123.86110835892087</v>
       </c>
       <c r="C7">
-        <v>676.35462649484145</v>
+        <v>675.92811795274326</v>
       </c>
       <c r="D7">
         <v>5015.714862196849</v>
@@ -8812,7 +8812,7 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L7">
-        <v>1084.7142409748394</v>
+        <v>1084.6366064450083</v>
       </c>
       <c r="M7">
         <v>634.99500232439834</v>
@@ -8838,7 +8838,7 @@
         <v>123.09897860211542</v>
       </c>
       <c r="C8">
-        <v>685.54550677749432</v>
+        <v>684.69309541114296</v>
       </c>
       <c r="D8">
         <v>4988.635909199128</v>
@@ -8865,7 +8865,7 @@
         <v>446.50000000010687</v>
       </c>
       <c r="L8">
-        <v>1086.3817711385084</v>
+        <v>1086.2275610944366</v>
       </c>
       <c r="M8">
         <v>639.50562092495261</v>
@@ -9215,7 +9215,7 @@
         <v>124.86262255735704</v>
       </c>
       <c r="C7">
-        <v>675.84841251135538</v>
+        <v>675.42190340161915</v>
       </c>
       <c r="D7">
         <v>5019.4648648063985</v>
@@ -9242,7 +9242,7 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L7">
-        <v>1084.6220997944922</v>
+        <v>1084.5444652714764</v>
       </c>
       <c r="M7">
         <v>634.99500232439834</v>
@@ -9268,7 +9268,7 @@
         <v>124.29246397779836</v>
       </c>
       <c r="C8">
-        <v>683.6467681550904</v>
+        <v>682.79435715388422</v>
       </c>
       <c r="D8">
         <v>4995.378063921431</v>
@@ -9295,7 +9295,7 @@
         <v>446.50000000010687</v>
       </c>
       <c r="L8">
-        <v>1086.0382712518956</v>
+        <v>1085.8838428373126</v>
       </c>
       <c r="M8">
         <v>639.50562092495261</v>
@@ -9430,13 +9430,13 @@
         <v>44013</v>
       </c>
       <c r="B3">
-        <v>123.40572922488701</v>
+        <v>123.4077927462735</v>
       </c>
       <c r="C3">
         <v>679.33446320449377</v>
       </c>
       <c r="D3">
-        <v>5070.3646562018566</v>
+        <v>5070.3606826026962</v>
       </c>
       <c r="E3">
         <v>43.352561983471055</v>
@@ -9451,7 +9451,7 @@
         <v>6753.0400000000109</v>
       </c>
       <c r="I3">
-        <v>6022.4108210535214</v>
+        <v>6022.4122525432813</v>
       </c>
       <c r="J3">
         <v>6504.2181116193633</v>
@@ -9472,7 +9472,7 @@
         <v>6055.0388338695193</v>
       </c>
       <c r="P3">
-        <v>3609.7822830439836</v>
+        <v>3609.7817889428993</v>
       </c>
       <c r="Q3">
         <v>9323.1648705384832</v>
@@ -9483,13 +9483,13 @@
         <v>44044</v>
       </c>
       <c r="B4">
-        <v>121.90294760799388</v>
+        <v>121.90478499331738</v>
       </c>
       <c r="C4">
         <v>681.88404862352922</v>
       </c>
       <c r="D4">
-        <v>5039.1638226926998</v>
+        <v>5039.160286453076</v>
       </c>
       <c r="E4">
         <v>46.832561983471038</v>
@@ -9504,7 +9504,7 @@
         <v>6753.0400000000072</v>
       </c>
       <c r="I4">
-        <v>6021.3648175169801</v>
+        <v>6021.3661038408982</v>
       </c>
       <c r="J4">
         <v>6505.5763425827108</v>
@@ -9525,7 +9525,7 @@
         <v>6053.3415098667519</v>
       </c>
       <c r="P4">
-        <v>3605.8630166919402</v>
+        <v>3605.8625675565013</v>
       </c>
       <c r="Q4">
         <v>9318.7803333831816</v>
@@ -9536,13 +9536,13 @@
         <v>44075</v>
       </c>
       <c r="B5">
-        <v>121.67126729103727</v>
+        <v>121.67287937432761</v>
       </c>
       <c r="C5">
         <v>670.87524703945974</v>
       </c>
       <c r="D5">
-        <v>5021.7303308160108</v>
+        <v>5021.7272303636646</v>
       </c>
       <c r="E5">
         <v>77.159877779655986</v>
@@ -9557,7 +9557,7 @@
         <v>6753.0362407513312</v>
       </c>
       <c r="I5">
-        <v>6021.2026213380577</v>
+        <v>6021.2037499311446</v>
       </c>
       <c r="J5">
         <v>6501.2395906193651</v>
@@ -9578,7 +9578,7 @@
         <v>6052.3176823477252</v>
       </c>
       <c r="P5">
-        <v>3603.636874595798</v>
+        <v>3603.63647654653</v>
       </c>
       <c r="Q5">
         <v>9311.4999999999891</v>
@@ -9589,13 +9589,13 @@
         <v>44105</v>
       </c>
       <c r="B6">
-        <v>122.15233854246624</v>
+        <v>122.15372664750049</v>
       </c>
       <c r="C6">
         <v>673.55760681970173</v>
       </c>
       <c r="D6">
-        <v>5009.384761035597</v>
+        <v>5009.3820934453706</v>
       </c>
       <c r="E6">
         <v>90.627015316938028</v>
@@ -9610,7 +9610,7 @@
         <v>6753.0399999999981</v>
       </c>
       <c r="I6">
-        <v>6021.5392314165838</v>
+        <v>6021.5401987635032</v>
       </c>
       <c r="J6">
         <v>6499.2184362099106</v>
@@ -9631,7 +9631,7 @@
         <v>6052.581022264586</v>
       </c>
       <c r="P6">
-        <v>3602.0441318372286</v>
+        <v>3602.0437865590925</v>
       </c>
       <c r="Q6">
         <v>9309.9999999999909</v>
@@ -9642,13 +9642,13 @@
         <v>44136</v>
       </c>
       <c r="B7">
-        <v>122.44552573961175</v>
+        <v>122.44669037153407</v>
       </c>
       <c r="C7">
-        <v>670.31586914075876</v>
+        <v>669.88936167291843</v>
       </c>
       <c r="D7">
-        <v>4994.1468950316739</v>
+        <v>4994.1446610326875</v>
       </c>
       <c r="E7">
         <v>80.915240629294857</v>
@@ -9663,7 +9663,7 @@
         <v>6753.0390355238087</v>
       </c>
       <c r="I7">
-        <v>6021.7435493146704</v>
+        <v>6021.7443609264255</v>
       </c>
       <c r="J7">
         <v>6495.8615771036511</v>
@@ -9672,7 +9672,7 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L7">
-        <v>1083.6123304089674</v>
+        <v>1083.5343640993342</v>
       </c>
       <c r="M7">
         <v>634.99500232439834</v>
@@ -9684,7 +9684,7 @@
         <v>6052.1950583525904</v>
       </c>
       <c r="P7">
-        <v>3600.0588015276494</v>
+        <v>3600.0585091743933</v>
       </c>
       <c r="Q7">
         <v>9308.4999999999891</v>
@@ -9695,13 +9695,13 @@
         <v>44166</v>
       </c>
       <c r="B8">
-        <v>122.59079381631069</v>
+        <v>122.59173405582267</v>
       </c>
       <c r="C8">
-        <v>681.09442651254494</v>
+        <v>680.24201966909493</v>
       </c>
       <c r="D8">
-        <v>4969.54609472012</v>
+        <v>4969.5442953479906</v>
       </c>
       <c r="E8">
         <v>74.748015316938023</v>
@@ -9716,7 +9716,7 @@
         <v>6753.0400000000063</v>
       </c>
       <c r="I8">
-        <v>6021.8447845210458</v>
+        <v>6021.8454397569985</v>
       </c>
       <c r="J8">
         <v>6490.1504454145588</v>
@@ -9725,7 +9725,7 @@
         <v>446.50000000010687</v>
       </c>
       <c r="L8">
-        <v>1085.5757269228602</v>
+        <v>1085.4210410716323</v>
       </c>
       <c r="M8">
         <v>639.50562092495261</v>
@@ -9737,7 +9737,7 @@
         <v>6053.72511747108</v>
       </c>
       <c r="P8">
-        <v>3596.8089769281582</v>
+        <v>3596.8087371601109</v>
       </c>
       <c r="Q8">
         <v>9307.7890932310474</v>
@@ -10075,7 +10075,7 @@
         <v>120.92473038993182</v>
       </c>
       <c r="C7">
-        <v>672.23187650088539</v>
+        <v>671.80536903307348</v>
       </c>
       <c r="D7">
         <v>4972.1488794175984</v>
@@ -10102,7 +10102,7 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L7">
-        <v>1083.9625808059923</v>
+        <v>1083.8846144963588</v>
       </c>
       <c r="M7">
         <v>634.99500232439834</v>
@@ -10128,7 +10128,7 @@
         <v>120.72533658166964</v>
       </c>
       <c r="C8">
-        <v>682.7067430169925</v>
+        <v>681.85433537989911</v>
       </c>
       <c r="D8">
         <v>4943.8359170055774</v>
@@ -10155,7 +10155,7 @@
         <v>446.50000000010687</v>
       </c>
       <c r="L8">
-        <v>1085.8679619131681</v>
+        <v>1085.7134619664582</v>
       </c>
       <c r="M8">
         <v>639.50562092495261</v>
@@ -10505,7 +10505,7 @@
         <v>124.12986745979615</v>
       </c>
       <c r="C7">
-        <v>684.88304271591755</v>
+        <v>684.45653125909098</v>
       </c>
       <c r="D7">
         <v>4996.6737884760369</v>
@@ -10532,7 +10532,7 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L7">
-        <v>1086.2619257045744</v>
+        <v>1086.1847654742905</v>
       </c>
       <c r="M7">
         <v>634.99500232439834</v>
@@ -10558,7 +10558,7 @@
         <v>123.05023553614691</v>
       </c>
       <c r="C8">
-        <v>694.68095601989967</v>
+        <v>693.82853546715182</v>
       </c>
       <c r="D8">
         <v>4974.9375158853336</v>
@@ -10585,7 +10585,7 @@
         <v>446.50000000010687</v>
       </c>
       <c r="L8">
-        <v>1088.0280067968299</v>
+        <v>1087.8747913577831</v>
       </c>
       <c r="M8">
         <v>639.50562092495261</v>
@@ -10935,7 +10935,7 @@
         <v>130.18399858021672</v>
       </c>
       <c r="C7">
-        <v>660.62807377629645</v>
+        <v>660.20157010971639</v>
       </c>
       <c r="D7">
         <v>4994.1959428580194</v>
@@ -10962,7 +10962,7 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L7">
-        <v>1081.8338220143878</v>
+        <v>1081.7552023709102</v>
       </c>
       <c r="M7">
         <v>634.99500232439834</v>
@@ -10988,7 +10988,7 @@
         <v>128.5665528971185</v>
       </c>
       <c r="C8">
-        <v>668.46039458221298</v>
+        <v>667.60800043654206</v>
       </c>
       <c r="D8">
         <v>4968.4794120233364</v>
@@ -11015,7 +11015,7 @@
         <v>446.50000000010687</v>
       </c>
       <c r="L8">
-        <v>1083.2727147495298</v>
+        <v>1083.1165985920713</v>
       </c>
       <c r="M8">
         <v>639.50562092495261</v>
@@ -11365,7 +11365,7 @@
         <v>124.67038122455436</v>
       </c>
       <c r="C7">
-        <v>664.65863870861972</v>
+        <v>664.23213114729731</v>
       </c>
       <c r="D7">
         <v>4998.4077571383814</v>
@@ -11392,7 +11392,7 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L7">
-        <v>1082.575410729781</v>
+        <v>1082.4971038233441</v>
       </c>
       <c r="M7">
         <v>634.99500232439834</v>
@@ -11418,7 +11418,7 @@
         <v>123.10630690863077</v>
       </c>
       <c r="C8">
-        <v>687.99644213947784</v>
+        <v>687.14403120854445</v>
       </c>
       <c r="D8">
         <v>4976.2622610408825</v>
@@ -11445,7 +11445,7 @@
         <v>446.50000000010687</v>
       </c>
       <c r="L8">
-        <v>1086.8244846274006</v>
+        <v>1086.670600381093</v>
       </c>
       <c r="M8">
         <v>639.50562092495261</v>
@@ -11795,7 +11795,7 @@
         <v>124.34142251790325</v>
       </c>
       <c r="C7">
-        <v>677.56161602953159</v>
+        <v>677.13511371585753</v>
       </c>
       <c r="D7">
         <v>4974.4856061235259</v>
@@ -11822,7 +11822,7 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L7">
-        <v>1084.9339421057371</v>
+        <v>1084.8563075011266</v>
       </c>
       <c r="M7">
         <v>634.99500232439834</v>
@@ -11848,7 +11848,7 @@
         <v>123.50477026106289</v>
       </c>
       <c r="C8">
-        <v>687.7770316398254</v>
+        <v>686.92462510766734</v>
       </c>
       <c r="D8">
         <v>4947.482547527442</v>
@@ -11875,7 +11875,7 @@
         <v>446.50000000010687</v>
       </c>
       <c r="L8">
-        <v>1086.7848749178224</v>
+        <v>1086.6309902671048</v>
       </c>
       <c r="M8">
         <v>639.50562092495261</v>
@@ -12225,7 +12225,7 @@
         <v>123.75605153050694</v>
       </c>
       <c r="C7">
-        <v>678.81070611608243</v>
+        <v>678.38419628111365</v>
       </c>
       <c r="D7">
         <v>4955.5667598070668</v>
@@ -12252,7 +12252,7 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L7">
-        <v>1085.161001054845</v>
+        <v>1085.0835130879386</v>
       </c>
       <c r="M7">
         <v>634.99500232439834</v>
@@ -12278,7 +12278,7 @@
         <v>123.45523993594459</v>
       </c>
       <c r="C8">
-        <v>687.54417103361902</v>
+        <v>686.69175636036493</v>
       </c>
       <c r="D8">
         <v>4925.5066794185559</v>
@@ -12305,7 +12305,7 @@
         <v>446.50000000010687</v>
       </c>
       <c r="L8">
-        <v>1086.7428371231501</v>
+        <v>1086.5889523105213</v>
       </c>
       <c r="M8">
         <v>639.50562092495261</v>
@@ -12655,7 +12655,7 @@
         <v>123.76319197262978</v>
       </c>
       <c r="C7">
-        <v>683.48730536369476</v>
+        <v>683.0607954351118</v>
       </c>
       <c r="D7">
         <v>5003.8191839213641</v>
@@ -12682,7 +12682,7 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L7">
-        <v>1086.0094205306114</v>
+        <v>1085.9321327136875</v>
       </c>
       <c r="M7">
         <v>634.99500232439834</v>
@@ -12708,7 +12708,7 @@
         <v>123.2041474820702</v>
       </c>
       <c r="C8">
-        <v>691.14669244257618</v>
+        <v>690.29427131729506</v>
       </c>
       <c r="D8">
         <v>4979.2381753119907</v>
@@ -12735,7 +12735,7 @@
         <v>446.50000000010687</v>
       </c>
       <c r="L8">
-        <v>1087.392363658148</v>
+        <v>1087.2388018581428</v>
       </c>
       <c r="M8">
         <v>639.50562092495261</v>
@@ -13085,7 +13085,7 @@
         <v>123.3846468545276</v>
       </c>
       <c r="C7">
-        <v>678.88475005727673</v>
+        <v>678.45824078984322</v>
       </c>
       <c r="D7">
         <v>4987.0172107173603</v>
@@ -13112,7 +13112,7 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L7">
-        <v>1085.1744523010393</v>
+        <v>1085.0969643273318</v>
       </c>
       <c r="M7">
         <v>634.99500232439834</v>
@@ -13138,7 +13138,7 @@
         <v>122.89764485821298</v>
       </c>
       <c r="C8">
-        <v>689.58433098495937</v>
+        <v>688.73191290285843</v>
       </c>
       <c r="D8">
         <v>4961.3758111760808</v>
@@ -13165,7 +13165,7 @@
         <v>446.50000000010687</v>
       </c>
       <c r="L8">
-        <v>1087.1109083419744</v>
+        <v>1086.9572570630874</v>
       </c>
       <c r="M8">
         <v>639.50562092495261</v>
@@ -13515,7 +13515,7 @@
         <v>125.78737178546439</v>
       </c>
       <c r="C7">
-        <v>676.37528504143415</v>
+        <v>675.94877649933596</v>
       </c>
       <c r="D7">
         <v>4985.4795982854966</v>
@@ -13542,7 +13542,7 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L7">
-        <v>1084.718002031489</v>
+        <v>1084.6403675016579</v>
       </c>
       <c r="M7">
         <v>634.99500232439834</v>
@@ -13568,7 +13568,7 @@
         <v>124.99528930244102</v>
       </c>
       <c r="C8">
-        <v>684.96999239462605</v>
+        <v>684.11758102827469</v>
       </c>
       <c r="D8">
         <v>4957.7149713239642</v>
@@ -13595,7 +13595,7 @@
         <v>446.50000000010687</v>
       </c>
       <c r="L8">
-        <v>1086.2776553400788</v>
+        <v>1086.123445296007</v>
       </c>
       <c r="M8">
         <v>639.50562092495261</v>
@@ -13945,7 +13945,7 @@
         <v>121.98073292403748</v>
       </c>
       <c r="C7">
-        <v>699.16482333124122</v>
+        <v>698.7383079670409</v>
       </c>
       <c r="D7">
         <v>5003.7321120009501</v>
@@ -13972,7 +13972,7 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L7">
-        <v>1088.8318649707635</v>
+        <v>1088.7554943222908</v>
       </c>
       <c r="M7">
         <v>634.99500232439834</v>
@@ -13998,7 +13998,7 @@
         <v>121.7148280200303</v>
       </c>
       <c r="C8">
-        <v>713.25150721609305</v>
+        <v>712.39907044773543</v>
       </c>
       <c r="D8">
         <v>4976.9454466462003</v>
@@ -14025,7 +14025,7 @@
         <v>446.50000000010687</v>
       </c>
       <c r="L8">
-        <v>1091.340540108522</v>
+        <v>1091.1894176880458</v>
       </c>
       <c r="M8">
         <v>639.50562092495261</v>
@@ -14375,7 +14375,7 @@
         <v>125.0315749088026</v>
       </c>
       <c r="C7">
-        <v>695.53004761544992</v>
+        <v>695.10353304396551</v>
       </c>
       <c r="D7">
         <v>5058.0048985441399</v>
@@ -14402,7 +14402,7 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L7">
-        <v>1088.180361100669</v>
+        <v>1088.1038302642833</v>
       </c>
       <c r="M7">
         <v>634.99500232439834</v>
@@ -14428,7 +14428,7 @@
         <v>124.01972265262337</v>
       </c>
       <c r="C8">
-        <v>708.57223945575458</v>
+        <v>707.71980646968552</v>
       </c>
       <c r="D8">
         <v>5036.882857388664</v>
@@ -14455,7 +14455,7 @@
         <v>446.50000000010687</v>
       </c>
       <c r="L8">
-        <v>1090.5100817755142</v>
+        <v>1090.35841936055</v>
       </c>
       <c r="M8">
         <v>639.50562092495261</v>
@@ -14805,7 +14805,7 @@
         <v>121.49121678685127</v>
       </c>
       <c r="C7">
-        <v>684.25162770494194</v>
+        <v>683.82511624811548</v>
       </c>
       <c r="D7">
         <v>5006.6021673359355</v>
@@ -14832,7 +14832,7 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L7">
-        <v>1086.1476970428123</v>
+        <v>1086.0705368125286</v>
       </c>
       <c r="M7">
         <v>634.99500232439834</v>
@@ -14858,7 +14858,7 @@
         <v>120.30023341654574</v>
       </c>
       <c r="C8">
-        <v>691.10201969317609</v>
+        <v>690.24959649646564</v>
       </c>
       <c r="D8">
         <v>4984.6734026449822</v>
@@ -14885,7 +14885,7 @@
         <v>446.50000000010687</v>
       </c>
       <c r="L8">
-        <v>1087.3843186372592</v>
+        <v>1087.2307566363115</v>
       </c>
       <c r="M8">
         <v>639.50562092495261</v>
@@ -15235,7 +15235,7 @@
         <v>123.64871863702952</v>
       </c>
       <c r="C7">
-        <v>671.82531177904229</v>
+        <v>671.39880487902019</v>
       </c>
       <c r="D7">
         <v>5013.9347521002783</v>
@@ -15262,7 +15262,7 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L7">
-        <v>1083.8882595455382</v>
+        <v>1083.8102932290581</v>
       </c>
       <c r="M7">
         <v>634.99500232439834</v>
@@ -15288,7 +15288,7 @@
         <v>123.00502857565995</v>
       </c>
       <c r="C8">
-        <v>675.59048614920312</v>
+        <v>674.73808205507669</v>
       </c>
       <c r="D8">
         <v>4991.6300767679377</v>
@@ -15315,7 +15315,7 @@
         <v>446.50000000010687</v>
       </c>
       <c r="L8">
-        <v>1084.5751491549925</v>
+        <v>1084.4198210277764</v>
       </c>
       <c r="M8">
         <v>639.50562092495261</v>
@@ -15665,7 +15665,7 @@
         <v>124.36863447969557</v>
       </c>
       <c r="C7">
-        <v>693.68928028303606</v>
+        <v>693.26276650760076</v>
       </c>
       <c r="D7">
         <v>4981.7023123675363</v>
@@ -15692,7 +15692,7 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L7">
-        <v>1087.849751368027</v>
+        <v>1087.7730596701799</v>
       </c>
       <c r="M7">
         <v>634.99500232439834</v>
@@ -15718,7 +15718,7 @@
         <v>123.73076912406448</v>
       </c>
       <c r="C8">
-        <v>702.12303921372109</v>
+        <v>701.27061049506756</v>
       </c>
       <c r="D8">
         <v>4954.5225360537497</v>
@@ -15745,7 +15745,7 @@
         <v>446.50000000010687</v>
       </c>
       <c r="L8">
-        <v>1089.3607999493843</v>
+        <v>1089.2084854337188</v>
       </c>
       <c r="M8">
         <v>639.50562092495261</v>
@@ -16095,7 +16095,7 @@
         <v>124.02344626139688</v>
       </c>
       <c r="C7">
-        <v>682.8026411888045</v>
+        <v>682.37613045110697</v>
       </c>
       <c r="D7">
         <v>4968.3944879269447</v>
@@ -16122,7 +16122,7 @@
         <v>447.4999999999996</v>
       </c>
       <c r="L7">
-        <v>1085.885344704164</v>
+        <v>1085.8080391560343</v>
       </c>
       <c r="M7">
         <v>634.99500232439834</v>
@@ -16148,7 +16148,7 @@
         <v>122.93650716550083</v>
       </c>
       <c r="C8">
-        <v>691.59258482752568</v>
+        <v>690.74016296943671</v>
       </c>
       <c r="D8">
         <v>4940.0431381510016</v>
@@ -16175,7 +16175,7 @@
         <v>446.50000000010687</v>
       </c>
       <c r="L8">
-        <v>1087.4726928843961</v>
+        <v>1087.3191311246069</v>
       </c>
       <c r="M8">
         <v>639.50562092495261</v>

--- a/Output Data/MtomToCrss_Monthly.xlsx
+++ b/Output Data/MtomToCrss_Monthly.xlsx
@@ -6,51 +6,49 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Trace1" sheetId="1" r:id="rId2"/>
-    <sheet name="Trace2" sheetId="2" r:id="rId4"/>
-    <sheet name="Trace3" sheetId="3" r:id="rId5"/>
-    <sheet name="Trace4" sheetId="4" r:id="rId6"/>
-    <sheet name="Trace5" sheetId="5" r:id="rId7"/>
-    <sheet name="Trace6" sheetId="6" r:id="rId8"/>
-    <sheet name="Trace7" sheetId="7" r:id="rId9"/>
-    <sheet name="Trace8" sheetId="8" r:id="rId10"/>
-    <sheet name="Trace9" sheetId="9" r:id="rId11"/>
-    <sheet name="Trace10" sheetId="10" r:id="rId12"/>
-    <sheet name="Trace11" sheetId="11" r:id="rId13"/>
-    <sheet name="Trace12" sheetId="12" r:id="rId14"/>
-    <sheet name="Trace13" sheetId="13" r:id="rId15"/>
-    <sheet name="Trace14" sheetId="14" r:id="rId16"/>
-    <sheet name="Trace15" sheetId="15" r:id="rId17"/>
-    <sheet name="Trace16" sheetId="16" r:id="rId18"/>
-    <sheet name="Trace17" sheetId="17" r:id="rId19"/>
-    <sheet name="Trace18" sheetId="18" r:id="rId20"/>
-    <sheet name="Trace19" sheetId="19" r:id="rId21"/>
-    <sheet name="Trace20" sheetId="20" r:id="rId22"/>
-    <sheet name="Trace21" sheetId="21" r:id="rId23"/>
-    <sheet name="Trace22" sheetId="22" r:id="rId24"/>
-    <sheet name="Trace23" sheetId="23" r:id="rId25"/>
-    <sheet name="Trace24" sheetId="24" r:id="rId26"/>
-    <sheet name="Trace25" sheetId="25" r:id="rId27"/>
-    <sheet name="Trace26" sheetId="26" r:id="rId28"/>
-    <sheet name="Trace27" sheetId="27" r:id="rId29"/>
-    <sheet name="Trace28" sheetId="28" r:id="rId30"/>
-    <sheet name="Trace29" sheetId="29" r:id="rId31"/>
-    <sheet name="Trace30" sheetId="30" r:id="rId32"/>
-    <sheet name="Trace31" sheetId="31" r:id="rId33"/>
-    <sheet name="Trace32" sheetId="32" r:id="rId34"/>
-    <sheet name="Trace33" sheetId="33" r:id="rId35"/>
-    <sheet name="Trace34" sheetId="34" r:id="rId36"/>
-    <sheet name="Trace35" sheetId="35" r:id="rId37"/>
-    <sheet name="Trace36" sheetId="36" r:id="rId38"/>
-    <sheet name="Trace37" sheetId="37" r:id="rId39"/>
-    <sheet name="Trace38" sheetId="38" r:id="rId40"/>
+    <sheet name="Trace3" sheetId="1" r:id="rId2"/>
+    <sheet name="Trace4" sheetId="2" r:id="rId4"/>
+    <sheet name="Trace5" sheetId="3" r:id="rId5"/>
+    <sheet name="Trace6" sheetId="4" r:id="rId6"/>
+    <sheet name="Trace7" sheetId="5" r:id="rId7"/>
+    <sheet name="Trace8" sheetId="6" r:id="rId8"/>
+    <sheet name="Trace9" sheetId="7" r:id="rId9"/>
+    <sheet name="Trace10" sheetId="8" r:id="rId10"/>
+    <sheet name="Trace11" sheetId="9" r:id="rId11"/>
+    <sheet name="Trace12" sheetId="10" r:id="rId12"/>
+    <sheet name="Trace13" sheetId="11" r:id="rId13"/>
+    <sheet name="Trace14" sheetId="12" r:id="rId14"/>
+    <sheet name="Trace15" sheetId="13" r:id="rId15"/>
+    <sheet name="Trace16" sheetId="14" r:id="rId16"/>
+    <sheet name="Trace17" sheetId="15" r:id="rId17"/>
+    <sheet name="Trace18" sheetId="16" r:id="rId18"/>
+    <sheet name="Trace19" sheetId="17" r:id="rId19"/>
+    <sheet name="Trace20" sheetId="18" r:id="rId20"/>
+    <sheet name="Trace21" sheetId="19" r:id="rId21"/>
+    <sheet name="Trace22" sheetId="20" r:id="rId22"/>
+    <sheet name="Trace23" sheetId="21" r:id="rId23"/>
+    <sheet name="Trace24" sheetId="22" r:id="rId24"/>
+    <sheet name="Trace25" sheetId="23" r:id="rId25"/>
+    <sheet name="Trace26" sheetId="24" r:id="rId26"/>
+    <sheet name="Trace27" sheetId="25" r:id="rId27"/>
+    <sheet name="Trace28" sheetId="26" r:id="rId28"/>
+    <sheet name="Trace29" sheetId="27" r:id="rId29"/>
+    <sheet name="Trace30" sheetId="28" r:id="rId30"/>
+    <sheet name="Trace31" sheetId="29" r:id="rId31"/>
+    <sheet name="Trace32" sheetId="30" r:id="rId32"/>
+    <sheet name="Trace33" sheetId="31" r:id="rId33"/>
+    <sheet name="Trace34" sheetId="32" r:id="rId34"/>
+    <sheet name="Trace35" sheetId="33" r:id="rId35"/>
+    <sheet name="Trace36" sheetId="34" r:id="rId36"/>
+    <sheet name="Trace37" sheetId="35" r:id="rId37"/>
+    <sheet name="Trace38" sheetId="36" r:id="rId38"/>
   </sheets>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" count="608" uniqueCount="16">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" count="576" uniqueCount="16">
   <si>
     <t>FlamingGorge.Bank Storage</t>
   </si>
@@ -122,7 +120,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="267">
+  <borders count="253">
     <border>
       <start/>
       <end/>
@@ -382,25 +380,11 @@
     <border/>
     <border/>
     <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="267">
+  <cellXfs count="253">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -726,24 +710,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="252" xfId="0" applyNumberFormat="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="253" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="254" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="255" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="256" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="257" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="258" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="259" xfId="0" applyNumberFormat="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="260" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="261" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="262" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="263" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="264" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="265" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="266" xfId="0" applyNumberFormat="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -753,7 +719,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q3"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -808,161 +774,108 @@
     </row>
     <row r="2">
       <c r="A2" s="5">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B2">
-        <v>127.61414348703123</v>
+        <v>127.58388114980184</v>
       </c>
       <c r="C2">
-        <v>660.26927328953502</v>
+        <v>659.4143042190999</v>
       </c>
       <c r="D2">
-        <v>4937.9063736294993</v>
+        <v>4902.5299653692073</v>
       </c>
       <c r="E2">
-        <v>55.769619780236106</v>
+        <v>58.553719008264402</v>
       </c>
       <c r="F2">
         <v>639.99999999966485</v>
       </c>
       <c r="G2">
-        <v>7466.4698465532028</v>
+        <v>7463.6047210161732</v>
       </c>
       <c r="H2">
-        <v>6753.0400000001837</v>
+        <v>6753.0390430251737</v>
       </c>
       <c r="I2">
-        <v>6025.2881299801256</v>
+        <v>6025.2677585043648</v>
       </c>
       <c r="J2">
-        <v>6491.8343415028767</v>
+        <v>6488.0568461016146</v>
       </c>
       <c r="K2">
-        <v>447.49999999907499</v>
+        <v>447.50000000006378</v>
       </c>
       <c r="L2">
-        <v>1081.7676828324904</v>
+        <v>1081.6100824288158</v>
       </c>
       <c r="M2">
-        <v>635.99722949062857</v>
+        <v>638.00068114730868</v>
       </c>
       <c r="N2">
-        <v>7153.730000000015</v>
+        <v>7153.7290377295694</v>
       </c>
       <c r="O2">
-        <v>6041.2001286660225</v>
+        <v>6038.2717914819887</v>
       </c>
       <c r="P2">
-        <v>3592.5472560788003</v>
+        <v>3587.6652841391747</v>
       </c>
       <c r="Q2">
-        <v>9308.5046460185258</v>
+        <v>9308.4999999999891</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B3">
-        <v>126.85925818433839</v>
+        <v>126.64951377642015</v>
       </c>
       <c r="C3">
-        <v>656.65862009739021</v>
+        <v>676.88563638776748</v>
       </c>
       <c r="D3">
-        <v>4913.3438932407116</v>
+        <v>4870.2542943499611</v>
       </c>
       <c r="E3">
-        <v>56.131890109905918</v>
+        <v>57.338842975206539</v>
       </c>
       <c r="F3">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G3">
-        <v>7467.3699770632256</v>
+        <v>7463.9836448912583</v>
       </c>
       <c r="H3">
-        <v>6753.0390355238924</v>
+        <v>6753.0399999999836</v>
       </c>
       <c r="I3">
-        <v>6024.7773893773701</v>
+        <v>6024.6351883869947</v>
       </c>
       <c r="J3">
-        <v>6489.6436262334628</v>
+        <v>6483.5529049722363</v>
       </c>
       <c r="K3">
-        <v>447.49999999999727</v>
+        <v>446.50000000010533</v>
       </c>
       <c r="L3">
-        <v>1081.1013490108901</v>
+        <v>1084.8108995330408</v>
       </c>
       <c r="M3">
-        <v>638.00068114730971</v>
+        <v>639.00563909789298</v>
       </c>
       <c r="N3">
-        <v>7153.7290312053865</v>
+        <v>7153.7299999999959</v>
       </c>
       <c r="O3">
-        <v>6040.6611790478501</v>
+        <v>6037.349263086272</v>
       </c>
       <c r="P3">
-        <v>3589.1711367670159</v>
+        <v>3583.0953125085152</v>
       </c>
       <c r="Q3">
-        <v>9308.0770424395105</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="5">
-        <v>44166</v>
-      </c>
-      <c r="B4">
-        <v>126.05937267248038</v>
-      </c>
-      <c r="C4">
-        <v>675.59287677965176</v>
-      </c>
-      <c r="D4">
-        <v>4881.3422415288178</v>
-      </c>
-      <c r="E4">
-        <v>52.769619780236106</v>
-      </c>
-      <c r="F4">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G4">
-        <v>7468.037263139674</v>
-      </c>
-      <c r="H4">
-        <v>6753.0400000000072</v>
-      </c>
-      <c r="I4">
-        <v>6024.2336589649822</v>
-      </c>
-      <c r="J4">
-        <v>6486.3324278060063</v>
-      </c>
-      <c r="K4">
-        <v>446.50000000010687</v>
-      </c>
-      <c r="L4">
-        <v>1084.5755874881054</v>
-      </c>
-      <c r="M4">
-        <v>639.50562092495773</v>
-      </c>
-      <c r="N4">
-        <v>7153.7300000000005</v>
-      </c>
-      <c r="O4">
-        <v>6039.9946589424435</v>
-      </c>
-      <c r="P4">
-        <v>3584.6781553677479</v>
-      </c>
-      <c r="Q4">
-        <v>9307.353755236958</v>
+        <v>9307.7812888605949</v>
       </c>
     </row>
   </sheetData>
@@ -971,7 +884,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q3"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -1026,161 +939,108 @@
     </row>
     <row r="2">
       <c r="A2" s="68">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B2">
-        <v>127.55318283928071</v>
+        <v>127.50760322672146</v>
       </c>
       <c r="C2">
-        <v>664.56220853264153</v>
+        <v>656.56905380487433</v>
       </c>
       <c r="D2">
-        <v>4938.2909271582248</v>
+        <v>4902.0833072371561</v>
       </c>
       <c r="E2">
-        <v>60.691262637378962</v>
+        <v>56.5697190082644</v>
       </c>
       <c r="F2">
         <v>639.99999999966485</v>
       </c>
       <c r="G2">
-        <v>7466.1998584562107</v>
+        <v>7463.5956342160862</v>
       </c>
       <c r="H2">
-        <v>6753.0400000001837</v>
+        <v>6753.0390430251737</v>
       </c>
       <c r="I2">
-        <v>6025.2469648347087</v>
+        <v>6025.2162498510152</v>
       </c>
       <c r="J2">
-        <v>6490.7725893033512</v>
+        <v>6489.8479485023836</v>
       </c>
       <c r="K2">
-        <v>447.49999999907499</v>
+        <v>447.50000000006378</v>
       </c>
       <c r="L2">
-        <v>1082.55770943009</v>
+        <v>1081.0848073779332</v>
       </c>
       <c r="M2">
-        <v>635.99722949062857</v>
+        <v>638.00068114730868</v>
       </c>
       <c r="N2">
-        <v>7153.730000000015</v>
+        <v>7153.7290377295694</v>
       </c>
       <c r="O2">
-        <v>6041.0545846637924</v>
+        <v>6038.3423587224297</v>
       </c>
       <c r="P2">
-        <v>3592.599582567836</v>
+        <v>3587.6028213908648</v>
       </c>
       <c r="Q2">
-        <v>9308.4196998773423</v>
+        <v>9308.4999999999891</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="68">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B3">
-        <v>126.7561860873154</v>
+        <v>126.55649987186634</v>
       </c>
       <c r="C3">
-        <v>666.45599315498123</v>
+        <v>674.23495985768</v>
       </c>
       <c r="D3">
-        <v>4920.059992101189</v>
+        <v>4869.3127812512021</v>
       </c>
       <c r="E3">
-        <v>59.994318681334491</v>
+        <v>56.902842975206546</v>
       </c>
       <c r="F3">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G3">
-        <v>7467.1985389166139</v>
+        <v>7463.9313179892124</v>
       </c>
       <c r="H3">
-        <v>6753.0390355238924</v>
+        <v>6753.0399999999836</v>
       </c>
       <c r="I3">
-        <v>6024.7074777672315</v>
+        <v>6024.5720988852736</v>
       </c>
       <c r="J3">
-        <v>6487.511629034464</v>
+        <v>6485.9568319140435</v>
       </c>
       <c r="K3">
-        <v>447.49999999999727</v>
+        <v>446.50000000010533</v>
       </c>
       <c r="L3">
-        <v>1082.9053837648357</v>
+        <v>1084.3280489467352</v>
       </c>
       <c r="M3">
-        <v>638.00068114730971</v>
+        <v>639.00563909789298</v>
       </c>
       <c r="N3">
-        <v>7153.7290312053865</v>
+        <v>7153.7299999999959</v>
       </c>
       <c r="O3">
-        <v>6041.6373769812744</v>
+        <v>6037.4203113932645</v>
       </c>
       <c r="P3">
-        <v>3590.1003584721539</v>
+        <v>3582.9602472190832</v>
       </c>
       <c r="Q3">
-        <v>9307.9753597147283</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="68">
-        <v>44166</v>
-      </c>
-      <c r="B4">
-        <v>125.6377781512775</v>
-      </c>
-      <c r="C4">
-        <v>683.74681147979527</v>
-      </c>
-      <c r="D4">
-        <v>4889.0839957408425</v>
-      </c>
-      <c r="E4">
-        <v>58.219262637378968</v>
-      </c>
-      <c r="F4">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G4">
-        <v>7467.9130794457815</v>
-      </c>
-      <c r="H4">
-        <v>6753.0400000000072</v>
-      </c>
-      <c r="I4">
-        <v>6023.9461817738402</v>
-      </c>
-      <c r="J4">
-        <v>6483.0042512173268</v>
-      </c>
-      <c r="K4">
-        <v>446.50000000010687</v>
-      </c>
-      <c r="L4">
-        <v>1086.0563707924018</v>
-      </c>
-      <c r="M4">
-        <v>639.50562092495773</v>
-      </c>
-      <c r="N4">
-        <v>7153.7300000000005</v>
-      </c>
-      <c r="O4">
-        <v>6041.0964991709334</v>
-      </c>
-      <c r="P4">
-        <v>3585.775240778863</v>
-      </c>
-      <c r="Q4">
-        <v>9307.2522701684884</v>
+        <v>9307.7715333975339</v>
       </c>
     </row>
   </sheetData>
@@ -1189,7 +1049,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q3"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -1244,161 +1104,108 @@
     </row>
     <row r="2">
       <c r="A2" s="75">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B2">
-        <v>127.65786266997669</v>
+        <v>127.5732699064701</v>
       </c>
       <c r="C2">
-        <v>665.49758792929015</v>
+        <v>657.79559257120445</v>
       </c>
       <c r="D2">
-        <v>4936.2760802785706</v>
+        <v>4901.3702529867378</v>
       </c>
       <c r="E2">
-        <v>63.415163736280064</v>
+        <v>58.277719008264398</v>
       </c>
       <c r="F2">
         <v>639.99999999966485</v>
       </c>
       <c r="G2">
-        <v>7466.2190011176535</v>
+        <v>7463.5746405745049</v>
       </c>
       <c r="H2">
-        <v>6753.0400000001837</v>
+        <v>6753.0390430251737</v>
       </c>
       <c r="I2">
-        <v>6025.3176524112323</v>
+        <v>6025.2605929860565</v>
       </c>
       <c r="J2">
-        <v>6490.1185745931871</v>
+        <v>6488.127513493956</v>
       </c>
       <c r="K2">
-        <v>447.49999999907499</v>
+        <v>447.50000000006378</v>
       </c>
       <c r="L2">
-        <v>1082.7294329754332</v>
+        <v>1081.3113356133508</v>
       </c>
       <c r="M2">
-        <v>635.99722949062857</v>
+        <v>638.00068114730868</v>
       </c>
       <c r="N2">
-        <v>7153.730000000015</v>
+        <v>7153.7290377295694</v>
       </c>
       <c r="O2">
-        <v>6040.9649136334538</v>
+        <v>6037.9997365440231</v>
       </c>
       <c r="P2">
-        <v>3592.3249558962734</v>
+        <v>3587.5030518594658</v>
       </c>
       <c r="Q2">
-        <v>9308.4196998773423</v>
+        <v>9308.4999999999891</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="75">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B3">
-        <v>126.99698350980169</v>
+        <v>126.63467676251788</v>
       </c>
       <c r="C3">
-        <v>662.71171220679105</v>
+        <v>673.67322003583081</v>
       </c>
       <c r="D3">
-        <v>4909.1431468826222</v>
+        <v>4867.6817371065954</v>
       </c>
       <c r="E3">
-        <v>63.536868131883935</v>
+        <v>57.228842975206547</v>
       </c>
       <c r="F3">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G3">
-        <v>7466.7233146695025</v>
+        <v>7463.8888644681265</v>
       </c>
       <c r="H3">
-        <v>6753.0390355238924</v>
+        <v>6753.0399999999836</v>
       </c>
       <c r="I3">
-        <v>6024.8708055351362</v>
+        <v>6024.6251247353748</v>
       </c>
       <c r="J3">
-        <v>6486.2331253655229</v>
+        <v>6483.64932306224</v>
       </c>
       <c r="K3">
-        <v>447.49999999999727</v>
+        <v>446.50000000010533</v>
       </c>
       <c r="L3">
-        <v>1082.2174427774132</v>
+        <v>1084.2255806205576</v>
       </c>
       <c r="M3">
-        <v>638.00068114730971</v>
+        <v>639.00563909789298</v>
       </c>
       <c r="N3">
-        <v>7153.7290312053865</v>
+        <v>7153.7299999999959</v>
       </c>
       <c r="O3">
-        <v>6040.18609390867</v>
+        <v>6036.8393256280706</v>
       </c>
       <c r="P3">
-        <v>3588.5876410976412</v>
+        <v>3582.7260343969197</v>
       </c>
       <c r="Q3">
-        <v>9307.8520907480961</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="75">
-        <v>44166</v>
-      </c>
-      <c r="B4">
-        <v>125.31537008983845</v>
-      </c>
-      <c r="C4">
-        <v>680.34783690485233</v>
-      </c>
-      <c r="D4">
-        <v>4877.6026001762129</v>
-      </c>
-      <c r="E4">
-        <v>61.50116373628007</v>
-      </c>
-      <c r="F4">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G4">
-        <v>7467.195404810619</v>
-      </c>
-      <c r="H4">
-        <v>6753.0400000000072</v>
-      </c>
-      <c r="I4">
-        <v>6023.7255357106242</v>
-      </c>
-      <c r="J4">
-        <v>6480.8306485293397</v>
-      </c>
-      <c r="K4">
-        <v>446.50000000010687</v>
-      </c>
-      <c r="L4">
-        <v>1085.440268455824</v>
-      </c>
-      <c r="M4">
-        <v>639.50562092495773</v>
-      </c>
-      <c r="N4">
-        <v>7153.7300000000005</v>
-      </c>
-      <c r="O4">
-        <v>6039.3932813746223</v>
-      </c>
-      <c r="P4">
-        <v>3584.1458289261618</v>
-      </c>
-      <c r="Q4">
-        <v>9307.054751251444</v>
+        <v>9307.7715333975339</v>
       </c>
     </row>
   </sheetData>
@@ -1407,7 +1214,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q3"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -1462,161 +1269,108 @@
     </row>
     <row r="2">
       <c r="A2" s="82">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B2">
-        <v>127.57619931045639</v>
+        <v>127.57027107683285</v>
       </c>
       <c r="C2">
-        <v>662.69343872962406</v>
+        <v>658.89260003548611</v>
       </c>
       <c r="D2">
-        <v>4937.0161911195773</v>
+        <v>4902.8896747049375</v>
       </c>
       <c r="E2">
-        <v>61.290180219796554</v>
+        <v>58.19971900826441</v>
       </c>
       <c r="F2">
         <v>639.99999999966485</v>
       </c>
       <c r="G2">
-        <v>7466.3121110229122</v>
+        <v>7465.4543433218578</v>
       </c>
       <c r="H2">
-        <v>6753.0400000001837</v>
+        <v>6753.0390430251737</v>
       </c>
       <c r="I2">
-        <v>6025.2625072611409</v>
+        <v>6025.2585679482736</v>
       </c>
       <c r="J2">
-        <v>6490.6232120178574</v>
+        <v>6488.8016603618134</v>
       </c>
       <c r="K2">
-        <v>447.49999999907499</v>
+        <v>447.50000000006378</v>
       </c>
       <c r="L2">
-        <v>1082.2140801699129</v>
+        <v>1081.5139141144807</v>
       </c>
       <c r="M2">
-        <v>635.99722949062857</v>
+        <v>638.00068114730868</v>
       </c>
       <c r="N2">
-        <v>7153.730000000015</v>
+        <v>7153.7290377295694</v>
       </c>
       <c r="O2">
-        <v>6041.2923980712103</v>
+        <v>6038.9674646500798</v>
       </c>
       <c r="P2">
-        <v>3592.4259315389127</v>
+        <v>3587.7155790932461</v>
       </c>
       <c r="Q2">
-        <v>9308.4557405518208</v>
+        <v>9308.4999999999891</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="82">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B3">
-        <v>126.82677351450117</v>
+        <v>126.63048703719545</v>
       </c>
       <c r="C3">
-        <v>656.96545893854534</v>
+        <v>677.84105685635393</v>
       </c>
       <c r="D3">
-        <v>4909.5789750327021</v>
+        <v>4870.9507629935842</v>
       </c>
       <c r="E3">
-        <v>61.232109890125699</v>
+        <v>57.197842975206541</v>
       </c>
       <c r="F3">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G3">
-        <v>7466.9006899868145</v>
+        <v>7466.4457811340926</v>
       </c>
       <c r="H3">
-        <v>6753.0390355238924</v>
+        <v>6753.0399999999836</v>
       </c>
       <c r="I3">
-        <v>6024.7553557171423</v>
+        <v>6024.6222829279623</v>
       </c>
       <c r="J3">
-        <v>6487.2046324238854</v>
+        <v>6484.5302024441698</v>
       </c>
       <c r="K3">
-        <v>447.49999999999727</v>
+        <v>446.50000000010533</v>
       </c>
       <c r="L3">
-        <v>1081.1580179073919</v>
+        <v>1084.9848085382193</v>
       </c>
       <c r="M3">
-        <v>638.00068114730971</v>
+        <v>639.00563909789298</v>
       </c>
       <c r="N3">
-        <v>7153.7290312053865</v>
+        <v>7153.7299999999959</v>
       </c>
       <c r="O3">
-        <v>6040.3523161052799</v>
+        <v>6038.0559508896577</v>
       </c>
       <c r="P3">
-        <v>3588.6482266577304</v>
+        <v>3583.1951553446529</v>
       </c>
       <c r="Q3">
-        <v>9307.9734144417398</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="82">
-        <v>44166</v>
-      </c>
-      <c r="B4">
-        <v>125.63794010883292</v>
-      </c>
-      <c r="C4">
-        <v>676.3253098533221</v>
-      </c>
-      <c r="D4">
-        <v>4876.5275534929133</v>
-      </c>
-      <c r="E4">
-        <v>58.833180219796553</v>
-      </c>
-      <c r="F4">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G4">
-        <v>7467.4153125731573</v>
-      </c>
-      <c r="H4">
-        <v>6753.0400000000072</v>
-      </c>
-      <c r="I4">
-        <v>6023.9462926123269</v>
-      </c>
-      <c r="J4">
-        <v>6482.4194885395891</v>
-      </c>
-      <c r="K4">
-        <v>446.50000000010687</v>
-      </c>
-      <c r="L4">
-        <v>1084.7089065042132</v>
-      </c>
-      <c r="M4">
-        <v>639.50562092495773</v>
-      </c>
-      <c r="N4">
-        <v>7153.7300000000005</v>
-      </c>
-      <c r="O4">
-        <v>6039.4069441281981</v>
-      </c>
-      <c r="P4">
-        <v>3583.9926366663435</v>
-      </c>
-      <c r="Q4">
-        <v>9307.2280253614608</v>
+        <v>9308.0563315758445</v>
       </c>
     </row>
   </sheetData>
@@ -1625,7 +1379,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q3"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -1680,161 +1434,108 @@
     </row>
     <row r="2">
       <c r="A2" s="89">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B2">
-        <v>127.62432479364934</v>
+        <v>127.55681478999914</v>
       </c>
       <c r="C2">
-        <v>658.96348922258483</v>
+        <v>659.39725557291058</v>
       </c>
       <c r="D2">
-        <v>4937.7233740708598</v>
+        <v>4904.2622923596391</v>
       </c>
       <c r="E2">
-        <v>62.542465934082259</v>
+        <v>57.849719008264401</v>
       </c>
       <c r="F2">
         <v>639.99999999966485</v>
       </c>
       <c r="G2">
-        <v>7466.6062342645482</v>
+        <v>7464.0123196255063</v>
       </c>
       <c r="H2">
-        <v>6753.0400000001837</v>
+        <v>6753.0390430251737</v>
       </c>
       <c r="I2">
-        <v>6025.2950051526004</v>
+        <v>6025.2494812402738</v>
       </c>
       <c r="J2">
-        <v>6490.5619083565889</v>
+        <v>6488.740798093595</v>
       </c>
       <c r="K2">
-        <v>447.49999999907499</v>
+        <v>447.50000000006378</v>
       </c>
       <c r="L2">
-        <v>1081.5269808506596</v>
+        <v>1081.6069397674814</v>
       </c>
       <c r="M2">
-        <v>635.99722949062857</v>
+        <v>638.00068114730868</v>
       </c>
       <c r="N2">
-        <v>7153.730000000015</v>
+        <v>7153.7290377295694</v>
       </c>
       <c r="O2">
-        <v>6041.2115708045631</v>
+        <v>6038.6606678905218</v>
       </c>
       <c r="P2">
-        <v>3592.5223551906702</v>
+        <v>3587.9073643844781</v>
       </c>
       <c r="Q2">
-        <v>9308.8516376643784</v>
+        <v>9308.4999999999891</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="89">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B3">
-        <v>126.91103435553998</v>
+        <v>126.61161402372004</v>
       </c>
       <c r="C3">
-        <v>655.72101202824729</v>
+        <v>680.99208853901098</v>
       </c>
       <c r="D3">
-        <v>4915.0311538874103</v>
+        <v>4872.2336480997737</v>
       </c>
       <c r="E3">
-        <v>62.172967032982832</v>
+        <v>57.056842975206557</v>
       </c>
       <c r="F3">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G3">
-        <v>7469.0183841915214</v>
+        <v>7464.4838759761478</v>
       </c>
       <c r="H3">
-        <v>6753.0390355238924</v>
+        <v>6753.0399999999836</v>
       </c>
       <c r="I3">
-        <v>6024.8125080526388</v>
+        <v>6024.6094817381345</v>
       </c>
       <c r="J3">
-        <v>6487.6020061175477</v>
+        <v>6484.4841608270708</v>
       </c>
       <c r="K3">
-        <v>447.49999999999727</v>
+        <v>446.50000000010533</v>
       </c>
       <c r="L3">
-        <v>1080.9280099131831</v>
+        <v>1085.5571797989503</v>
       </c>
       <c r="M3">
-        <v>638.00068114730971</v>
+        <v>639.00563909789298</v>
       </c>
       <c r="N3">
-        <v>7153.7290312053865</v>
+        <v>7153.7299999999959</v>
       </c>
       <c r="O3">
-        <v>6040.907964433809</v>
+        <v>6037.7629644450108</v>
       </c>
       <c r="P3">
-        <v>3589.4050575381807</v>
+        <v>3583.3789145674773</v>
       </c>
       <c r="Q3">
-        <v>9308.4999999999891</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="89">
-        <v>44166</v>
-      </c>
-      <c r="B4">
-        <v>125.81977123197254</v>
-      </c>
-      <c r="C4">
-        <v>673.29645336661656</v>
-      </c>
-      <c r="D4">
-        <v>4884.5987721349065</v>
-      </c>
-      <c r="E4">
-        <v>59.710465934082265</v>
-      </c>
-      <c r="F4">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G4">
-        <v>7470.3214931540479</v>
-      </c>
-      <c r="H4">
-        <v>6753.0400000000072</v>
-      </c>
-      <c r="I4">
-        <v>6024.07041605431</v>
-      </c>
-      <c r="J4">
-        <v>6483.0752828605209</v>
-      </c>
-      <c r="K4">
-        <v>446.50000000010687</v>
-      </c>
-      <c r="L4">
-        <v>1084.1568538346353</v>
-      </c>
-      <c r="M4">
-        <v>639.50562092495773</v>
-      </c>
-      <c r="N4">
-        <v>7153.7300000000005</v>
-      </c>
-      <c r="O4">
-        <v>6040.2228685316086</v>
-      </c>
-      <c r="P4">
-        <v>3585.1404705976561</v>
-      </c>
-      <c r="Q4">
-        <v>9308.2231537258413</v>
+        <v>9307.897551787044</v>
       </c>
     </row>
   </sheetData>
@@ -1843,7 +1544,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q3"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -1898,161 +1599,108 @@
     </row>
     <row r="2">
       <c r="A2" s="96">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B2">
-        <v>127.66318925274851</v>
+        <v>127.59283919217972</v>
       </c>
       <c r="C2">
-        <v>658.97289617971489</v>
+        <v>659.41467191228105</v>
       </c>
       <c r="D2">
-        <v>4936.3769372148126</v>
+        <v>4902.7224368406278</v>
       </c>
       <c r="E2">
-        <v>63.553768131884446</v>
+        <v>58.786719008264406</v>
       </c>
       <c r="F2">
         <v>639.99999999966485</v>
       </c>
       <c r="G2">
-        <v>7466.1989396084609</v>
+        <v>7464.1957576375407</v>
       </c>
       <c r="H2">
-        <v>6753.0400000001837</v>
+        <v>6753.0390430251737</v>
       </c>
       <c r="I2">
-        <v>6025.3212493145211</v>
+        <v>6025.2738076556907</v>
       </c>
       <c r="J2">
-        <v>6490.2281753421457</v>
+        <v>6488.7697090630754</v>
       </c>
       <c r="K2">
-        <v>447.49999999907499</v>
+        <v>447.50000000006378</v>
       </c>
       <c r="L2">
-        <v>1081.5287148840896</v>
+        <v>1081.6101502075198</v>
       </c>
       <c r="M2">
-        <v>635.99722949062857</v>
+        <v>638.00068114730868</v>
       </c>
       <c r="N2">
-        <v>7153.730000000015</v>
+        <v>7153.7290377295694</v>
       </c>
       <c r="O2">
-        <v>6040.9884462220116</v>
+        <v>6038.1429336392184</v>
       </c>
       <c r="P2">
-        <v>3592.3387161243195</v>
+        <v>3587.6922002439383</v>
       </c>
       <c r="Q2">
-        <v>9308.4196998773423</v>
+        <v>9308.4999999999891</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="96">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B3">
-        <v>127.16671111150862</v>
+        <v>126.65608415489335</v>
       </c>
       <c r="C3">
-        <v>655.86384706779995</v>
+        <v>676.21216722923066</v>
       </c>
       <c r="D3">
-        <v>4912.4331057754962</v>
+        <v>4869.914077840649</v>
       </c>
       <c r="E3">
-        <v>67.813065934081735</v>
+        <v>57.276842975206556</v>
       </c>
       <c r="F3">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G3">
-        <v>7466.9908176393128</v>
+        <v>7464.673118565629</v>
       </c>
       <c r="H3">
-        <v>6753.0390355238924</v>
+        <v>6753.0399999999836</v>
       </c>
       <c r="I3">
-        <v>6024.9859281561503</v>
+        <v>6024.63964495244</v>
       </c>
       <c r="J3">
-        <v>6486.9594878611915</v>
+        <v>6484.470372013745</v>
       </c>
       <c r="K3">
-        <v>447.49999999999727</v>
+        <v>446.50000000010533</v>
       </c>
       <c r="L3">
-        <v>1080.9544534682559</v>
+        <v>1084.6883123951457</v>
       </c>
       <c r="M3">
-        <v>638.00068114730971</v>
+        <v>639.00563909789298</v>
       </c>
       <c r="N3">
-        <v>7153.7290312053865</v>
+        <v>7153.7299999999959</v>
       </c>
       <c r="O3">
-        <v>6041.031524437286</v>
+        <v>6037.0988912279909</v>
       </c>
       <c r="P3">
-        <v>3589.0448657564216</v>
+        <v>3583.04651456908</v>
       </c>
       <c r="Q3">
-        <v>9307.8520907480961</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="96">
-        <v>44166</v>
-      </c>
-      <c r="B4">
-        <v>125.72221832222266</v>
-      </c>
-      <c r="C4">
-        <v>676.51160964553719</v>
-      </c>
-      <c r="D4">
-        <v>4882.1697338171816</v>
-      </c>
-      <c r="E4">
-        <v>62.22576813188445</v>
-      </c>
-      <c r="F4">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G4">
-        <v>7467.6766768690559</v>
-      </c>
-      <c r="H4">
-        <v>6753.0400000000072</v>
-      </c>
-      <c r="I4">
-        <v>6024.0039522591023</v>
-      </c>
-      <c r="J4">
-        <v>6482.2425436876374</v>
-      </c>
-      <c r="K4">
-        <v>446.50000000010687</v>
-      </c>
-      <c r="L4">
-        <v>1084.742818227104</v>
-      </c>
-      <c r="M4">
-        <v>639.50562092495773</v>
-      </c>
-      <c r="N4">
-        <v>7153.7300000000005</v>
-      </c>
-      <c r="O4">
-        <v>6040.4324026274198</v>
-      </c>
-      <c r="P4">
-        <v>3584.7957289051719</v>
-      </c>
-      <c r="Q4">
-        <v>9307.054751251444</v>
+        <v>9307.7864917742263</v>
       </c>
     </row>
   </sheetData>
@@ -2061,7 +1709,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q3"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -2116,161 +1764,108 @@
     </row>
     <row r="2">
       <c r="A2" s="103">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B2">
-        <v>127.60367663105879</v>
+        <v>127.58391959633563</v>
       </c>
       <c r="C2">
-        <v>663.47487861176603</v>
+        <v>655.98294669022653</v>
       </c>
       <c r="D2">
-        <v>4936.5659237263035</v>
+        <v>4902.3324619638988</v>
       </c>
       <c r="E2">
-        <v>62.005174725291056</v>
+        <v>58.554719008264399</v>
       </c>
       <c r="F2">
         <v>639.99999999966485</v>
       </c>
       <c r="G2">
-        <v>7466.1971019129624</v>
+        <v>7463.5746405745049</v>
       </c>
       <c r="H2">
-        <v>6753.0400000001837</v>
+        <v>6753.0390430251737</v>
       </c>
       <c r="I2">
-        <v>6025.2810619835727</v>
+        <v>6025.2677844663876</v>
       </c>
       <c r="J2">
-        <v>6490.4309085634859</v>
+        <v>6487.9884194835158</v>
       </c>
       <c r="K2">
-        <v>447.49999999907499</v>
+        <v>447.50000000006378</v>
       </c>
       <c r="L2">
-        <v>1082.3578182677802</v>
+        <v>1080.9765034185759</v>
       </c>
       <c r="M2">
-        <v>635.99722949062857</v>
+        <v>638.00068114730868</v>
       </c>
       <c r="N2">
-        <v>7153.730000000015</v>
+        <v>7153.7290377295694</v>
       </c>
       <c r="O2">
-        <v>6040.9995690470714</v>
+        <v>6038.3519176314931</v>
       </c>
       <c r="P2">
-        <v>3592.3645001466452</v>
+        <v>3587.6376643453968</v>
       </c>
       <c r="Q2">
-        <v>9308.4196998773423</v>
+        <v>9308.4999999999891</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="103">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B3">
-        <v>126.91502324614871</v>
+        <v>126.64897539823909</v>
       </c>
       <c r="C3">
-        <v>660.20451401928608</v>
+        <v>676.33865823820793</v>
       </c>
       <c r="D3">
-        <v>4910.7900798618584</v>
+        <v>4868.6914361667614</v>
       </c>
       <c r="E3">
-        <v>62.81336263737844</v>
+        <v>57.323842975206553</v>
       </c>
       <c r="F3">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G3">
-        <v>7466.7275917407569</v>
+        <v>7463.8898045123406</v>
       </c>
       <c r="H3">
-        <v>6753.0390355238924</v>
+        <v>6753.0399999999836</v>
       </c>
       <c r="I3">
-        <v>6024.8152136323588</v>
+        <v>6024.6348232166038</v>
       </c>
       <c r="J3">
-        <v>6486.8494947647923</v>
+        <v>6483.3903707509526</v>
       </c>
       <c r="K3">
-        <v>447.49999999999727</v>
+        <v>446.50000000010533</v>
       </c>
       <c r="L3">
-        <v>1081.7557474897581</v>
+        <v>1084.7113376037232</v>
       </c>
       <c r="M3">
-        <v>638.00068114730971</v>
+        <v>639.00563909789298</v>
       </c>
       <c r="N3">
-        <v>7153.7290312053865</v>
+        <v>7153.7299999999959</v>
       </c>
       <c r="O3">
-        <v>6040.2555156726212</v>
+        <v>6037.4073752928798</v>
       </c>
       <c r="P3">
-        <v>3588.8165853656624</v>
+        <v>3582.8710605670522</v>
       </c>
       <c r="Q3">
-        <v>9307.9046814628837</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="103">
-        <v>44166</v>
-      </c>
-      <c r="B4">
-        <v>124.96976855168381</v>
-      </c>
-      <c r="C4">
-        <v>683.49266011316843</v>
-      </c>
-      <c r="D4">
-        <v>4879.9911878218072</v>
-      </c>
-      <c r="E4">
-        <v>59.870174725291065</v>
-      </c>
-      <c r="F4">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G4">
-        <v>7467.2262328957213</v>
-      </c>
-      <c r="H4">
-        <v>6753.0400000000072</v>
-      </c>
-      <c r="I4">
-        <v>6023.4889672224954</v>
-      </c>
-      <c r="J4">
-        <v>6481.8486272907585</v>
-      </c>
-      <c r="K4">
-        <v>446.50000000010687</v>
-      </c>
-      <c r="L4">
-        <v>1086.0103937826991</v>
-      </c>
-      <c r="M4">
-        <v>639.50562092495773</v>
-      </c>
-      <c r="N4">
-        <v>7153.7300000000005</v>
-      </c>
-      <c r="O4">
-        <v>6039.4350963017905</v>
-      </c>
-      <c r="P4">
-        <v>3584.4861534568208</v>
-      </c>
-      <c r="Q4">
-        <v>9307.1204419898804</v>
+        <v>9307.7715333975339</v>
       </c>
     </row>
   </sheetData>
@@ -2279,7 +1874,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q3"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -2334,161 +1929,108 @@
     </row>
     <row r="2">
       <c r="A2" s="110">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B2">
-        <v>127.72821279506623</v>
+        <v>127.58541901115427</v>
       </c>
       <c r="C2">
-        <v>660.65077732328893</v>
+        <v>662.45956718969478</v>
       </c>
       <c r="D2">
-        <v>4940.3684526447678</v>
+        <v>4902.8198935832643</v>
       </c>
       <c r="E2">
-        <v>65.245762637378959</v>
+        <v>58.593719008264401</v>
       </c>
       <c r="F2">
         <v>639.99999999966485</v>
       </c>
       <c r="G2">
-        <v>7466.514187999157</v>
+        <v>7463.8533546668514</v>
       </c>
       <c r="H2">
-        <v>6753.0400000001837</v>
+        <v>6753.0390430251737</v>
       </c>
       <c r="I2">
-        <v>6025.3651580273354</v>
+        <v>6025.2687969852796</v>
       </c>
       <c r="J2">
-        <v>6490.7615917597141</v>
+        <v>6488.1771882244357</v>
       </c>
       <c r="K2">
-        <v>447.49999999907499</v>
+        <v>447.50000000006378</v>
       </c>
       <c r="L2">
-        <v>1081.838007459145</v>
+        <v>1082.1710618920833</v>
       </c>
       <c r="M2">
-        <v>635.99722949062857</v>
+        <v>638.00068114730868</v>
       </c>
       <c r="N2">
-        <v>7153.730000000015</v>
+        <v>7153.7290377295694</v>
       </c>
       <c r="O2">
-        <v>6041.118477565401</v>
+        <v>6039.4230490926984</v>
       </c>
       <c r="P2">
-        <v>3592.8822730295419</v>
+        <v>3587.7058258799748</v>
       </c>
       <c r="Q2">
-        <v>9308.8849070181859</v>
+        <v>9308.4999999999891</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="110">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B3">
-        <v>127.07237126824347</v>
+        <v>126.65105103391302</v>
       </c>
       <c r="C3">
-        <v>656.38599811905885</v>
+        <v>685.62772379934688</v>
       </c>
       <c r="D3">
-        <v>4916.952508862435</v>
+        <v>4871.1085369930661</v>
       </c>
       <c r="E3">
-        <v>63.669318681334488</v>
+        <v>57.338842975206539</v>
       </c>
       <c r="F3">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G3">
-        <v>7467.3889990265488</v>
+        <v>7464.2864317496687</v>
       </c>
       <c r="H3">
-        <v>6753.0390355238924</v>
+        <v>6753.0399999999836</v>
       </c>
       <c r="I3">
-        <v>6024.9219394474003</v>
+        <v>6024.6362310790537</v>
       </c>
       <c r="J3">
-        <v>6487.3759618100021</v>
+        <v>6483.6841585035781</v>
       </c>
       <c r="K3">
-        <v>447.49999999999727</v>
+        <v>446.50000000010533</v>
       </c>
       <c r="L3">
-        <v>1081.0509988265717</v>
+        <v>1086.3966465917838</v>
       </c>
       <c r="M3">
-        <v>638.00068114730971</v>
+        <v>639.00563909789298</v>
       </c>
       <c r="N3">
-        <v>7153.7290312053865</v>
+        <v>7153.7299999999959</v>
       </c>
       <c r="O3">
-        <v>6040.490458851672</v>
+        <v>6038.9740446133819</v>
       </c>
       <c r="P3">
-        <v>3589.6709703159631</v>
+        <v>3583.2177626744092</v>
       </c>
       <c r="Q3">
-        <v>9308.4999999999891</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="110">
-        <v>44166</v>
-      </c>
-      <c r="B4">
-        <v>125.8177988231122</v>
-      </c>
-      <c r="C4">
-        <v>674.88279830030683</v>
-      </c>
-      <c r="D4">
-        <v>4884.6929914159409</v>
-      </c>
-      <c r="E4">
-        <v>59.692762637378969</v>
-      </c>
-      <c r="F4">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G4">
-        <v>7467.9670541262021</v>
-      </c>
-      <c r="H4">
-        <v>6753.0400000000072</v>
-      </c>
-      <c r="I4">
-        <v>6024.0690722312384</v>
-      </c>
-      <c r="J4">
-        <v>6482.5191042611659</v>
-      </c>
-      <c r="K4">
-        <v>446.50000000010687</v>
-      </c>
-      <c r="L4">
-        <v>1084.4462222377688</v>
-      </c>
-      <c r="M4">
-        <v>639.50562092495773</v>
-      </c>
-      <c r="N4">
-        <v>7153.7300000000005</v>
-      </c>
-      <c r="O4">
-        <v>6039.7419483439016</v>
-      </c>
-      <c r="P4">
-        <v>3585.1538210364279</v>
-      </c>
-      <c r="Q4">
-        <v>9307.8371621766546</v>
+        <v>9307.8650842545776</v>
       </c>
     </row>
   </sheetData>
@@ -2497,7 +2039,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q3"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -2552,161 +2094,108 @@
     </row>
     <row r="2">
       <c r="A2" s="117">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B2">
-        <v>128.63880615210408</v>
+        <v>127.5517014010023</v>
       </c>
       <c r="C2">
-        <v>661.38113940189044</v>
+        <v>661.46847614058879</v>
       </c>
       <c r="D2">
-        <v>4941.9423599612146</v>
+        <v>4901.5903999732309</v>
       </c>
       <c r="E2">
-        <v>88.940487912104217</v>
+        <v>57.716719008264398</v>
       </c>
       <c r="F2">
         <v>639.99999999966485</v>
       </c>
       <c r="G2">
-        <v>7466.4133374166222</v>
+        <v>7463.7424330381946</v>
       </c>
       <c r="H2">
-        <v>6753.0400000001837</v>
+        <v>6753.0390430251737</v>
       </c>
       <c r="I2">
-        <v>6025.9779410824694</v>
+        <v>6025.2460282912334</v>
       </c>
       <c r="J2">
-        <v>6490.9861593459482</v>
+        <v>6488.561389434426</v>
       </c>
       <c r="K2">
-        <v>447.49999999907499</v>
+        <v>447.50000000006378</v>
       </c>
       <c r="L2">
-        <v>1081.9726389071927</v>
+        <v>1081.9887381062299</v>
       </c>
       <c r="M2">
-        <v>635.99722949062857</v>
+        <v>638.00068114730868</v>
       </c>
       <c r="N2">
-        <v>7153.730000000015</v>
+        <v>7153.7290377295694</v>
       </c>
       <c r="O2">
-        <v>6041.3848505506148</v>
+        <v>6038.167393200647</v>
       </c>
       <c r="P2">
-        <v>3593.0961824105752</v>
+        <v>3587.5338549849871</v>
       </c>
       <c r="Q2">
-        <v>9308.5804766206893</v>
+        <v>9308.4999999999891</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="117">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B3">
-        <v>127.27782469962754</v>
+        <v>126.58135374319433</v>
       </c>
       <c r="C3">
-        <v>655.25475661135965</v>
+        <v>674.50780275078444</v>
       </c>
       <c r="D3">
-        <v>4921.1545113214252</v>
+        <v>4869.5390485194657</v>
       </c>
       <c r="E3">
-        <v>74.550956043971837</v>
+        <v>56.402842975206546</v>
       </c>
       <c r="F3">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G3">
-        <v>7467.3671165862579</v>
+        <v>7464.3017457958031</v>
       </c>
       <c r="H3">
-        <v>6753.0390355238924</v>
+        <v>6753.0399999999836</v>
       </c>
       <c r="I3">
-        <v>6025.0610227592242</v>
+        <v>6024.5889568236344</v>
       </c>
       <c r="J3">
-        <v>6486.9082673215253</v>
+        <v>6485.2698483342538</v>
       </c>
       <c r="K3">
-        <v>447.49999999999727</v>
+        <v>446.50000000010533</v>
       </c>
       <c r="L3">
-        <v>1080.8416894348111</v>
+        <v>1084.3778174596262</v>
       </c>
       <c r="M3">
-        <v>638.00068114730971</v>
+        <v>639.00563909789298</v>
       </c>
       <c r="N3">
-        <v>7153.7290312053865</v>
+        <v>7153.7299999999959</v>
       </c>
       <c r="O3">
-        <v>6041.8990802552817</v>
+        <v>6037.1051106972036</v>
       </c>
       <c r="P3">
-        <v>3590.2512883826944</v>
+        <v>3582.992719297803</v>
       </c>
       <c r="Q3">
-        <v>9308.2928606713631</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="117">
-        <v>44166</v>
-      </c>
-      <c r="B4">
-        <v>125.79673635309841</v>
-      </c>
-      <c r="C4">
-        <v>677.30617550155</v>
-      </c>
-      <c r="D4">
-        <v>4892.2624792631332</v>
-      </c>
-      <c r="E4">
-        <v>69.340487912104237</v>
-      </c>
-      <c r="F4">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G4">
-        <v>7468.0436065846779</v>
-      </c>
-      <c r="H4">
-        <v>6753.0400000000072</v>
-      </c>
-      <c r="I4">
-        <v>6024.0547222972928</v>
-      </c>
-      <c r="J4">
-        <v>6480.7687636235314</v>
-      </c>
-      <c r="K4">
-        <v>446.50000000010687</v>
-      </c>
-      <c r="L4">
-        <v>1084.8874469920659</v>
-      </c>
-      <c r="M4">
-        <v>639.50562092495773</v>
-      </c>
-      <c r="N4">
-        <v>7153.7300000000005</v>
-      </c>
-      <c r="O4">
-        <v>6041.7361169331598</v>
-      </c>
-      <c r="P4">
-        <v>3586.2237598919014</v>
-      </c>
-      <c r="Q4">
-        <v>9307.6299267319046</v>
+        <v>9307.9105237660806</v>
       </c>
     </row>
   </sheetData>
@@ -2715,7 +2204,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q3"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -2770,161 +2259,108 @@
     </row>
     <row r="2">
       <c r="A2" s="124">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B2">
-        <v>127.83930855446758</v>
+        <v>127.57127068671193</v>
       </c>
       <c r="C2">
-        <v>660.67271997917419</v>
+        <v>660.80472558441193</v>
       </c>
       <c r="D2">
-        <v>4938.2744259406918</v>
+        <v>4903.6776168883898</v>
       </c>
       <c r="E2">
-        <v>68.136614285730616</v>
+        <v>58.225719008264399</v>
       </c>
       <c r="F2">
         <v>639.99999999966485</v>
       </c>
       <c r="G2">
-        <v>7466.4709185422435</v>
+        <v>7463.6313547405689</v>
       </c>
       <c r="H2">
-        <v>6753.0400000001837</v>
+        <v>6753.0390430251737</v>
       </c>
       <c r="I2">
-        <v>6025.4401781142233</v>
+        <v>6025.2592429608676</v>
       </c>
       <c r="J2">
-        <v>6490.0357159080295</v>
+        <v>6488.1193625319884</v>
       </c>
       <c r="K2">
-        <v>447.49999999907499</v>
+        <v>447.50000000006378</v>
       </c>
       <c r="L2">
-        <v>1081.842052263253</v>
+        <v>1081.8663853879377</v>
       </c>
       <c r="M2">
-        <v>635.99722949062857</v>
+        <v>638.00068114730868</v>
       </c>
       <c r="N2">
-        <v>7153.730000000015</v>
+        <v>7153.7290377295694</v>
       </c>
       <c r="O2">
-        <v>6041.1056623702361</v>
+        <v>6038.5180064636806</v>
       </c>
       <c r="P2">
-        <v>3592.5973372347057</v>
+        <v>3587.8256947465807</v>
       </c>
       <c r="Q2">
-        <v>9308.6889499932204</v>
+        <v>9308.4999999999891</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="124">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B3">
-        <v>127.30540361632981</v>
+        <v>126.62794848890631</v>
       </c>
       <c r="C3">
-        <v>660.9175819765494</v>
+        <v>671.68665674275837</v>
       </c>
       <c r="D3">
-        <v>4911.741786120685</v>
+        <v>4874.8182662461741</v>
       </c>
       <c r="E3">
-        <v>66.843142857158639</v>
+        <v>57.105842975206549</v>
       </c>
       <c r="F3">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G3">
-        <v>7467.146046783052</v>
+        <v>7464.0361223787922</v>
       </c>
       <c r="H3">
-        <v>6753.0390355238924</v>
+        <v>6753.0399999999836</v>
       </c>
       <c r="I3">
-        <v>6025.0796459452122</v>
+        <v>6024.6205610866182</v>
       </c>
       <c r="J3">
-        <v>6486.1624138245852</v>
+        <v>6483.8464269487822</v>
       </c>
       <c r="K3">
-        <v>447.49999999999727</v>
+        <v>446.50000000010533</v>
       </c>
       <c r="L3">
-        <v>1081.8871898587049</v>
+        <v>1083.8629142649436</v>
       </c>
       <c r="M3">
-        <v>638.00068114730971</v>
+        <v>639.00563909789298</v>
       </c>
       <c r="N3">
-        <v>7153.7290312053865</v>
+        <v>7153.7299999999959</v>
       </c>
       <c r="O3">
-        <v>6040.2042519424549</v>
+        <v>6038.0824789246008</v>
       </c>
       <c r="P3">
-        <v>3588.9488844307807</v>
+        <v>3583.7485714936479</v>
       </c>
       <c r="Q3">
-        <v>9308.2625224322765</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="124">
-        <v>44166</v>
-      </c>
-      <c r="B4">
-        <v>125.78469060021592</v>
-      </c>
-      <c r="C4">
-        <v>685.7827146291005</v>
-      </c>
-      <c r="D4">
-        <v>4881.9250642128927</v>
-      </c>
-      <c r="E4">
-        <v>64.218614285730609</v>
-      </c>
-      <c r="F4">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G4">
-        <v>7467.8951487401682</v>
-      </c>
-      <c r="H4">
-        <v>6753.0400000000072</v>
-      </c>
-      <c r="I4">
-        <v>6024.0465152596325</v>
-      </c>
-      <c r="J4">
-        <v>6481.5811524269793</v>
-      </c>
-      <c r="K4">
-        <v>446.50000000010687</v>
-      </c>
-      <c r="L4">
-        <v>1086.4246872192557</v>
-      </c>
-      <c r="M4">
-        <v>639.50562092495773</v>
-      </c>
-      <c r="N4">
-        <v>7153.7300000000005</v>
-      </c>
-      <c r="O4">
-        <v>6039.2878725410956</v>
-      </c>
-      <c r="P4">
-        <v>3584.7609651876187</v>
-      </c>
-      <c r="Q4">
-        <v>9307.6305780279836</v>
+        <v>9307.8494998389924</v>
       </c>
     </row>
   </sheetData>
@@ -2933,7 +2369,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q3"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -2988,161 +2424,108 @@
     </row>
     <row r="2">
       <c r="A2" s="131">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B2">
-        <v>127.83501071629516</v>
+        <v>127.57949824494742</v>
       </c>
       <c r="C2">
-        <v>659.8392923586606</v>
+        <v>660.19292349443572</v>
       </c>
       <c r="D2">
-        <v>4940.4309796798261</v>
+        <v>4901.824902763211</v>
       </c>
       <c r="E2">
-        <v>68.024779120895445</v>
+        <v>58.439719008264404</v>
       </c>
       <c r="F2">
         <v>639.99999999966485</v>
       </c>
       <c r="G2">
-        <v>7467.6921750497822</v>
+        <v>7463.5746405745049</v>
       </c>
       <c r="H2">
-        <v>6753.0400000001837</v>
+        <v>6753.0390430251737</v>
       </c>
       <c r="I2">
-        <v>6025.4372758954987</v>
+        <v>6025.2647988337594</v>
       </c>
       <c r="J2">
-        <v>6489.6525778883861</v>
+        <v>6487.9922781632295</v>
       </c>
       <c r="K2">
-        <v>447.49999999907499</v>
+        <v>447.50000000006378</v>
       </c>
       <c r="L2">
-        <v>1081.6884222067645</v>
+        <v>1081.7536091736154</v>
       </c>
       <c r="M2">
-        <v>635.99722949062857</v>
+        <v>638.00068114730868</v>
       </c>
       <c r="N2">
-        <v>7153.730000000015</v>
+        <v>7153.7290377295694</v>
       </c>
       <c r="O2">
-        <v>6041.0762789584651</v>
+        <v>6038.161676598168</v>
       </c>
       <c r="P2">
-        <v>3592.8907811304157</v>
+        <v>3587.5666667849118</v>
       </c>
       <c r="Q2">
-        <v>9308.4196998773423</v>
+        <v>9308.4999999999891</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="131">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B3">
-        <v>127.45502811826053</v>
+        <v>126.64432505909974</v>
       </c>
       <c r="C3">
-        <v>659.38081686343946</v>
+        <v>670.15772139641842</v>
       </c>
       <c r="D3">
-        <v>4918.1241694027831</v>
+        <v>4868.5251676776961</v>
       </c>
       <c r="E3">
-        <v>70.846560439576223</v>
+        <v>57.317842975206553</v>
       </c>
       <c r="F3">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G3">
-        <v>7468.9981734650346</v>
+        <v>7463.8888644681265</v>
       </c>
       <c r="H3">
-        <v>6753.0390355238924</v>
+        <v>6753.0399999999836</v>
       </c>
       <c r="I3">
-        <v>6025.1806827538576</v>
+        <v>6024.6316689818568</v>
       </c>
       <c r="J3">
-        <v>6485.7857069617867</v>
+        <v>6483.4022058239161</v>
       </c>
       <c r="K3">
-        <v>447.49999999999727</v>
+        <v>446.50000000010533</v>
       </c>
       <c r="L3">
-        <v>1081.6039091495054</v>
+        <v>1083.5834222676608</v>
       </c>
       <c r="M3">
-        <v>638.00068114730971</v>
+        <v>639.00563909789298</v>
       </c>
       <c r="N3">
-        <v>7153.7290312053865</v>
+        <v>7153.7299999999959</v>
       </c>
       <c r="O3">
-        <v>6041.0126741640124</v>
+        <v>6037.1833658130627</v>
       </c>
       <c r="P3">
-        <v>3589.8329701971265</v>
+        <v>3582.847185714415</v>
       </c>
       <c r="Q3">
-        <v>9307.9520164388887</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="131">
-        <v>44166</v>
-      </c>
-      <c r="B4">
-        <v>125.61063287856578</v>
-      </c>
-      <c r="C4">
-        <v>674.11797393975849</v>
-      </c>
-      <c r="D4">
-        <v>4895.0218227420237</v>
-      </c>
-      <c r="E4">
-        <v>67.964779120895443</v>
-      </c>
-      <c r="F4">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G4">
-        <v>7469.9915904899435</v>
-      </c>
-      <c r="H4">
-        <v>6753.0400000000072</v>
-      </c>
-      <c r="I4">
-        <v>6023.9276036397614</v>
-      </c>
-      <c r="J4">
-        <v>6480.6812892662556</v>
-      </c>
-      <c r="K4">
-        <v>446.50000000010687</v>
-      </c>
-      <c r="L4">
-        <v>1084.3067082141526</v>
-      </c>
-      <c r="M4">
-        <v>639.50562092495773</v>
-      </c>
-      <c r="N4">
-        <v>7153.7300000000005</v>
-      </c>
-      <c r="O4">
-        <v>6041.0561522829466</v>
-      </c>
-      <c r="P4">
-        <v>3586.612291260426</v>
-      </c>
-      <c r="Q4">
-        <v>9307.3027214761478</v>
+        <v>9307.7715333975339</v>
       </c>
     </row>
   </sheetData>
@@ -3151,7 +2534,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q3"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -3206,161 +2589,108 @@
     </row>
     <row r="2">
       <c r="A2" s="12">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B2">
-        <v>128.25407651564478</v>
+        <v>127.57380815794345</v>
       </c>
       <c r="C2">
-        <v>662.57512925814092</v>
+        <v>661.28492346064286</v>
       </c>
       <c r="D2">
-        <v>4938.3879365581633</v>
+        <v>4901.614079649089</v>
       </c>
       <c r="E2">
-        <v>78.929345054961388</v>
+        <v>58.291719008264408</v>
       </c>
       <c r="F2">
         <v>639.99999999966485</v>
       </c>
       <c r="G2">
-        <v>7466.4698465532028</v>
+        <v>7463.5746405745049</v>
       </c>
       <c r="H2">
-        <v>6753.0400000001837</v>
+        <v>6753.0390430251737</v>
       </c>
       <c r="I2">
-        <v>6025.7192881276433</v>
+        <v>6025.2609564543764</v>
       </c>
       <c r="J2">
-        <v>6488.3806841526784</v>
+        <v>6488.0019983964357</v>
       </c>
       <c r="K2">
-        <v>447.49999999907499</v>
+        <v>447.50000000006378</v>
       </c>
       <c r="L2">
-        <v>1082.1923185023295</v>
+        <v>1081.9549029322411</v>
       </c>
       <c r="M2">
-        <v>635.99722949062857</v>
+        <v>638.00068114730868</v>
       </c>
       <c r="N2">
-        <v>7153.730000000015</v>
+        <v>7153.7290377295694</v>
       </c>
       <c r="O2">
-        <v>6041.2001286660225</v>
+        <v>6038.1045105733747</v>
       </c>
       <c r="P2">
-        <v>3592.6127827101386</v>
+        <v>3587.5371682623536</v>
       </c>
       <c r="Q2">
-        <v>9308.5046460185258</v>
+        <v>9308.4999999999891</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="12">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B3">
-        <v>128.16973029912248</v>
+        <v>126.61214241790465</v>
       </c>
       <c r="C3">
-        <v>660.55641296198417</v>
+        <v>676.1204979037326</v>
       </c>
       <c r="D3">
-        <v>4914.1914608196948</v>
+        <v>4868.1813943111947</v>
       </c>
       <c r="E3">
-        <v>78.54452747254328</v>
+        <v>56.628842975206553</v>
       </c>
       <c r="F3">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G3">
-        <v>7467.3699770632256</v>
+        <v>7464.0715458792447</v>
       </c>
       <c r="H3">
-        <v>6753.0390355238924</v>
+        <v>6753.0399999999836</v>
       </c>
       <c r="I3">
-        <v>6025.6625823443455</v>
+        <v>6024.6098401698846</v>
       </c>
       <c r="J3">
-        <v>6482.3388303968077</v>
+        <v>6483.8815425514913</v>
       </c>
       <c r="K3">
-        <v>447.49999999999727</v>
+        <v>446.50000000010533</v>
       </c>
       <c r="L3">
-        <v>1081.8206133130711</v>
+        <v>1084.6716259509558</v>
       </c>
       <c r="M3">
-        <v>638.00068114730971</v>
+        <v>639.00563909789298</v>
       </c>
       <c r="N3">
-        <v>7153.7290312053865</v>
+        <v>7153.7299999999959</v>
       </c>
       <c r="O3">
-        <v>6040.6611790478501</v>
+        <v>6037.2891117564059</v>
       </c>
       <c r="P3">
-        <v>3589.2886430113913</v>
+        <v>3582.7978213354108</v>
       </c>
       <c r="Q3">
-        <v>9308.0770424395105</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="12">
-        <v>44166</v>
-      </c>
-      <c r="B4">
-        <v>125.82201391864881</v>
-      </c>
-      <c r="C4">
-        <v>680.65787708368794</v>
-      </c>
-      <c r="D4">
-        <v>4886.8807201826676</v>
-      </c>
-      <c r="E4">
-        <v>75.929345054961388</v>
-      </c>
-      <c r="F4">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G4">
-        <v>7468.037263139674</v>
-      </c>
-      <c r="H4">
-        <v>6753.0400000000072</v>
-      </c>
-      <c r="I4">
-        <v>6024.0719432048427</v>
-      </c>
-      <c r="J4">
-        <v>6473.7056052325015</v>
-      </c>
-      <c r="K4">
-        <v>446.50000000010687</v>
-      </c>
-      <c r="L4">
-        <v>1085.4965955145306</v>
-      </c>
-      <c r="M4">
-        <v>639.50562092495773</v>
-      </c>
-      <c r="N4">
-        <v>7153.7300000000005</v>
-      </c>
-      <c r="O4">
-        <v>6039.9946589424435</v>
-      </c>
-      <c r="P4">
-        <v>3585.4638086320679</v>
-      </c>
-      <c r="Q4">
-        <v>9307.353755236958</v>
+        <v>9307.7910443236524</v>
       </c>
     </row>
   </sheetData>
@@ -3369,7 +2699,7 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q3"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -3424,161 +2754,108 @@
     </row>
     <row r="2">
       <c r="A2" s="138">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B2">
-        <v>127.59854557733026</v>
+        <v>127.58538056462045</v>
       </c>
       <c r="C2">
-        <v>658.81321084842932</v>
+        <v>659.13789102260364</v>
       </c>
       <c r="D2">
-        <v>4938.3672175406327</v>
+        <v>4902.4954078232058</v>
       </c>
       <c r="E2">
-        <v>61.871658241774576</v>
+        <v>58.592719008264403</v>
       </c>
       <c r="F2">
         <v>639.99999999966485</v>
       </c>
       <c r="G2">
-        <v>7467.173217367611</v>
+        <v>7463.6484316579754</v>
       </c>
       <c r="H2">
-        <v>6753.0400000001837</v>
+        <v>6753.0390430251737</v>
       </c>
       <c r="I2">
-        <v>6025.277597115979</v>
+        <v>6025.2687710232567</v>
       </c>
       <c r="J2">
-        <v>6490.7627881146718</v>
+        <v>6488.0508375046984</v>
       </c>
       <c r="K2">
-        <v>447.49999999907499</v>
+        <v>447.50000000006378</v>
       </c>
       <c r="L2">
-        <v>1081.499277870415</v>
+        <v>1081.5591298161983</v>
       </c>
       <c r="M2">
-        <v>635.99722949062857</v>
+        <v>638.00068114730868</v>
       </c>
       <c r="N2">
-        <v>7153.730000000015</v>
+        <v>7153.7290377295694</v>
       </c>
       <c r="O2">
-        <v>6041.4653116688287</v>
+        <v>6038.7601947760031</v>
       </c>
       <c r="P2">
-        <v>3592.6099634577781</v>
+        <v>3587.6604514513906</v>
       </c>
       <c r="Q2">
-        <v>9308.6632826420955</v>
+        <v>9308.4999999999891</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="138">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B3">
-        <v>126.87959098220345</v>
+        <v>126.64562904603736</v>
       </c>
       <c r="C3">
-        <v>657.4957164728587</v>
+        <v>677.40701269579893</v>
       </c>
       <c r="D3">
-        <v>4913.0525743075186</v>
+        <v>4871.1382155477295</v>
       </c>
       <c r="E3">
-        <v>62.025120879136686</v>
+        <v>57.198842975206553</v>
       </c>
       <c r="F3">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G3">
-        <v>7468.3144540888261</v>
+        <v>7464.4118974702878</v>
       </c>
       <c r="H3">
-        <v>6753.0390355238924</v>
+        <v>6753.0399999999836</v>
       </c>
       <c r="I3">
-        <v>6024.7911806816192</v>
+        <v>6024.6325534599528</v>
       </c>
       <c r="J3">
-        <v>6487.4649704040676</v>
+        <v>6483.6797869652437</v>
       </c>
       <c r="K3">
-        <v>447.49999999999727</v>
+        <v>446.50000000010533</v>
       </c>
       <c r="L3">
-        <v>1081.2559511332065</v>
+        <v>1084.9058022863185</v>
       </c>
       <c r="M3">
-        <v>638.00068114730971</v>
+        <v>639.00563909789298</v>
       </c>
       <c r="N3">
-        <v>7153.7290312053865</v>
+        <v>7153.7299999999959</v>
       </c>
       <c r="O3">
-        <v>6040.8619415554949</v>
+        <v>6038.2687877538019</v>
       </c>
       <c r="P3">
-        <v>3589.1307484905997</v>
+        <v>3583.2220147868297</v>
       </c>
       <c r="Q3">
-        <v>9308.233475182089</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="138">
-        <v>44166</v>
-      </c>
-      <c r="B4">
-        <v>125.32340554549444</v>
-      </c>
-      <c r="C4">
-        <v>670.0773938650085</v>
-      </c>
-      <c r="D4">
-        <v>4881.6185974259606</v>
-      </c>
-      <c r="E4">
-        <v>58.996658241774576</v>
-      </c>
-      <c r="F4">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G4">
-        <v>7469.0032141309293</v>
-      </c>
-      <c r="H4">
-        <v>6753.0400000000072</v>
-      </c>
-      <c r="I4">
-        <v>6023.7310349273503</v>
-      </c>
-      <c r="J4">
-        <v>6482.7376842722897</v>
-      </c>
-      <c r="K4">
-        <v>446.50000000010687</v>
-      </c>
-      <c r="L4">
-        <v>1083.5687382810725</v>
-      </c>
-      <c r="M4">
-        <v>639.50562092495773</v>
-      </c>
-      <c r="N4">
-        <v>7153.7300000000005</v>
-      </c>
-      <c r="O4">
-        <v>6040.1316792996586</v>
-      </c>
-      <c r="P4">
-        <v>3584.7174211609922</v>
-      </c>
-      <c r="Q4">
-        <v>9307.4897102659979</v>
+        <v>9307.9617492880625</v>
       </c>
     </row>
   </sheetData>
@@ -3587,7 +2864,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q3"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -3642,161 +2919,108 @@
     </row>
     <row r="2">
       <c r="A2" s="145">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B2">
-        <v>127.67312026998965</v>
+        <v>127.57503844702538</v>
       </c>
       <c r="C2">
-        <v>662.75021656831359</v>
+        <v>658.05099741765468</v>
       </c>
       <c r="D2">
-        <v>4942.4692904246003</v>
+        <v>4901.3716589674923</v>
       </c>
       <c r="E2">
-        <v>63.812185714302046</v>
+        <v>58.323719008264405</v>
       </c>
       <c r="F2">
         <v>639.99999999966485</v>
       </c>
       <c r="G2">
-        <v>7467.6811477220299</v>
+        <v>7463.5746405745049</v>
       </c>
       <c r="H2">
-        <v>6753.0400000001837</v>
+        <v>6753.0390430251737</v>
       </c>
       <c r="I2">
-        <v>6025.327955473067</v>
+        <v>6025.2617872391083</v>
       </c>
       <c r="J2">
-        <v>6490.8660428749863</v>
+        <v>6488.0090854594646</v>
       </c>
       <c r="K2">
-        <v>447.49999999907499</v>
+        <v>447.50000000006378</v>
       </c>
       <c r="L2">
-        <v>1082.224523800809</v>
+        <v>1081.358506082619</v>
       </c>
       <c r="M2">
-        <v>635.99722949062857</v>
+        <v>638.00068114730868</v>
       </c>
       <c r="N2">
-        <v>7153.730000000015</v>
+        <v>7153.7290377295694</v>
       </c>
       <c r="O2">
-        <v>6042.2749214674295</v>
+        <v>6038.0640257820469</v>
       </c>
       <c r="P2">
-        <v>3593.1676938519545</v>
+        <v>3587.5032485853098</v>
       </c>
       <c r="Q2">
-        <v>9309.1166377918507</v>
+        <v>9308.4999999999891</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="145">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B3">
-        <v>127.02149446207025</v>
+        <v>126.63936711070117</v>
       </c>
       <c r="C3">
-        <v>657.74939949755333</v>
+        <v>673.16460034062345</v>
       </c>
       <c r="D3">
-        <v>4923.0712986105718</v>
+        <v>4867.8156970480604</v>
       </c>
       <c r="E3">
-        <v>63.777857142872946</v>
+        <v>57.304842975206547</v>
       </c>
       <c r="F3">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G3">
-        <v>7469.2989240589422</v>
+        <v>7463.8888644681265</v>
       </c>
       <c r="H3">
-        <v>6753.0390355238924</v>
+        <v>6753.0399999999836</v>
       </c>
       <c r="I3">
-        <v>6024.887430792488</v>
+        <v>6024.6283061022195</v>
       </c>
       <c r="J3">
-        <v>6487.3512552522425</v>
+        <v>6483.4349273677735</v>
       </c>
       <c r="K3">
-        <v>447.49999999999727</v>
+        <v>446.50000000010533</v>
       </c>
       <c r="L3">
-        <v>1081.3028033219086</v>
+        <v>1084.1328022871369</v>
       </c>
       <c r="M3">
-        <v>638.00068114730971</v>
+        <v>639.00563909789298</v>
       </c>
       <c r="N3">
-        <v>7153.7290312053865</v>
+        <v>7153.7299999999959</v>
       </c>
       <c r="O3">
-        <v>6043.9976137639742</v>
+        <v>6036.9197911064102</v>
       </c>
       <c r="P3">
-        <v>3590.5155639419263</v>
+        <v>3582.7452807401969</v>
       </c>
       <c r="Q3">
-        <v>9308.4999999999891</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="145">
-        <v>44166</v>
-      </c>
-      <c r="B4">
-        <v>125.76283705931507</v>
-      </c>
-      <c r="C4">
-        <v>669.41258798507045</v>
-      </c>
-      <c r="D4">
-        <v>4894.4977594385473</v>
-      </c>
-      <c r="E4">
-        <v>60.812185714302046</v>
-      </c>
-      <c r="F4">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G4">
-        <v>7470.7678720790118</v>
-      </c>
-      <c r="H4">
-        <v>6753.0400000000072</v>
-      </c>
-      <c r="I4">
-        <v>6024.0316262201004</v>
-      </c>
-      <c r="J4">
-        <v>6482.6576620341448</v>
-      </c>
-      <c r="K4">
-        <v>446.50000000010687</v>
-      </c>
-      <c r="L4">
-        <v>1083.4471095393001</v>
-      </c>
-      <c r="M4">
-        <v>639.50562092495773</v>
-      </c>
-      <c r="N4">
-        <v>7153.7300000000005</v>
-      </c>
-      <c r="O4">
-        <v>6044.3967270589483</v>
-      </c>
-      <c r="P4">
-        <v>3586.5386451287059</v>
-      </c>
-      <c r="Q4">
-        <v>9307.9682335313391</v>
+        <v>9307.7715333975339</v>
       </c>
     </row>
   </sheetData>
@@ -3805,7 +3029,7 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q3"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -3860,161 +3084,108 @@
     </row>
     <row r="2">
       <c r="A2" s="152">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B2">
-        <v>127.55745555007066</v>
+        <v>127.58687997943908</v>
       </c>
       <c r="C2">
-        <v>658.86513722048471</v>
+        <v>657.82852452953409</v>
       </c>
       <c r="D2">
-        <v>4935.9204541336376</v>
+        <v>4902.2396671829847</v>
       </c>
       <c r="E2">
-        <v>60.80244395606028</v>
+        <v>58.631719008264398</v>
       </c>
       <c r="F2">
         <v>639.99999999966485</v>
       </c>
       <c r="G2">
-        <v>7466.2470259740066</v>
+        <v>7463.6047210161732</v>
       </c>
       <c r="H2">
-        <v>6753.0400000001837</v>
+        <v>6753.0390430251737</v>
       </c>
       <c r="I2">
-        <v>6025.2498500855618</v>
+        <v>6025.2697835421486</v>
       </c>
       <c r="J2">
-        <v>6490.6692299126698</v>
+        <v>6488.0440585748447</v>
       </c>
       <c r="K2">
-        <v>447.49999999907499</v>
+        <v>447.50000000006378</v>
       </c>
       <c r="L2">
-        <v>1081.508851113575</v>
+        <v>1081.3174177842648</v>
       </c>
       <c r="M2">
-        <v>635.99722949062857</v>
+        <v>638.00068114730868</v>
       </c>
       <c r="N2">
-        <v>7153.730000000015</v>
+        <v>7153.7290377295694</v>
       </c>
       <c r="O2">
-        <v>6040.9596739555336</v>
+        <v>6038.2610142805934</v>
       </c>
       <c r="P2">
-        <v>3592.2764367062587</v>
+        <v>3587.6246874921203</v>
       </c>
       <c r="Q2">
-        <v>9308.4196998773423</v>
+        <v>9308.4999999999891</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="152">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B3">
-        <v>126.77582101222346</v>
+        <v>126.65120399339621</v>
       </c>
       <c r="C3">
-        <v>656.33597373754515</v>
+        <v>673.22690124747646</v>
       </c>
       <c r="D3">
-        <v>4908.0096009863528</v>
+        <v>4868.8618340395478</v>
       </c>
       <c r="E3">
-        <v>60.39397802199381</v>
+        <v>57.304842975206554</v>
       </c>
       <c r="F3">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G3">
-        <v>7466.7632363355779</v>
+        <v>7463.932255807521</v>
       </c>
       <c r="H3">
-        <v>6753.0390355238924</v>
+        <v>6753.0399999999836</v>
       </c>
       <c r="I3">
-        <v>6024.7207957190167</v>
+        <v>6024.6363348310724</v>
       </c>
       <c r="J3">
-        <v>6487.2750527729268</v>
+        <v>6483.4716540090112</v>
       </c>
       <c r="K3">
-        <v>447.49999999999727</v>
+        <v>446.50000000010533</v>
       </c>
       <c r="L3">
-        <v>1081.0417594045311</v>
+        <v>1084.1441667693496</v>
       </c>
       <c r="M3">
-        <v>638.00068114730971</v>
+        <v>639.00563909789298</v>
       </c>
       <c r="N3">
-        <v>7153.7290312053865</v>
+        <v>7153.7299999999959</v>
       </c>
       <c r="O3">
-        <v>6039.9399112735437</v>
+        <v>6037.1938951509837</v>
       </c>
       <c r="P3">
-        <v>3588.4298750541525</v>
+        <v>3582.895528366887</v>
       </c>
       <c r="Q3">
-        <v>9307.8520907480961</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="152">
-        <v>44166</v>
-      </c>
-      <c r="B4">
-        <v>125.68445506126055</v>
-      </c>
-      <c r="C4">
-        <v>676.30404542486167</v>
-      </c>
-      <c r="D4">
-        <v>4874.6484186240023</v>
-      </c>
-      <c r="E4">
-        <v>58.144443956060279</v>
-      </c>
-      <c r="F4">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G4">
-        <v>7467.2356161314574</v>
-      </c>
-      <c r="H4">
-        <v>6753.0400000000072</v>
-      </c>
-      <c r="I4">
-        <v>6023.9781260010541</v>
-      </c>
-      <c r="J4">
-        <v>6482.5612596783149</v>
-      </c>
-      <c r="K4">
-        <v>446.50000000010687</v>
-      </c>
-      <c r="L4">
-        <v>1084.7050365345613</v>
-      </c>
-      <c r="M4">
-        <v>639.50562092495773</v>
-      </c>
-      <c r="N4">
-        <v>7153.7300000000005</v>
-      </c>
-      <c r="O4">
-        <v>6038.9568411802484</v>
-      </c>
-      <c r="P4">
-        <v>3583.7241594016245</v>
-      </c>
-      <c r="Q4">
-        <v>9307.054751251444</v>
+        <v>9307.7715333975339</v>
       </c>
     </row>
   </sheetData>
@@ -4023,7 +3194,7 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q3"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -4078,161 +3249,108 @@
     </row>
     <row r="2">
       <c r="A2" s="159">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B2">
-        <v>127.60098947921726</v>
+        <v>127.57261631539531</v>
       </c>
       <c r="C2">
-        <v>662.07891022903266</v>
+        <v>658.14716822402977</v>
       </c>
       <c r="D2">
-        <v>4939.8131829748618</v>
+        <v>4901.907263635806</v>
       </c>
       <c r="E2">
-        <v>61.935251648367988</v>
+        <v>58.260719008264402</v>
       </c>
       <c r="F2">
         <v>639.99999999966485</v>
       </c>
       <c r="G2">
-        <v>7466.3119578816213</v>
+        <v>7463.620387912877</v>
       </c>
       <c r="H2">
-        <v>6753.0400000001837</v>
+        <v>6753.0390430251737</v>
       </c>
       <c r="I2">
-        <v>6025.2792474195803</v>
+        <v>6025.2601516316681</v>
       </c>
       <c r="J2">
-        <v>6490.8638188713985</v>
+        <v>6488.0993684797859</v>
       </c>
       <c r="K2">
-        <v>447.49999999907499</v>
+        <v>447.50000000006378</v>
       </c>
       <c r="L2">
-        <v>1082.101044714824</v>
+        <v>1081.3762677740265</v>
       </c>
       <c r="M2">
-        <v>635.99722949062857</v>
+        <v>638.00068114730868</v>
       </c>
       <c r="N2">
-        <v>7153.730000000015</v>
+        <v>7153.7290377295694</v>
       </c>
       <c r="O2">
-        <v>6041.5617037425136</v>
+        <v>6038.124752969039</v>
       </c>
       <c r="P2">
-        <v>3592.8067170662766</v>
+        <v>3587.5781907777537</v>
       </c>
       <c r="Q2">
-        <v>9308.4196998773423</v>
+        <v>9308.4999999999891</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="159">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B3">
-        <v>126.8639516890037</v>
+        <v>126.63617685065876</v>
       </c>
       <c r="C3">
-        <v>657.59849258032864</v>
+        <v>673.37676042747478</v>
       </c>
       <c r="D3">
-        <v>4915.497395205869</v>
+        <v>4869.1185975309618</v>
       </c>
       <c r="E3">
-        <v>61.554824175839983</v>
+        <v>57.284842975206544</v>
       </c>
       <c r="F3">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G3">
-        <v>7467.0283045556562</v>
+        <v>7463.9626467326943</v>
       </c>
       <c r="H3">
-        <v>6753.0390355238924</v>
+        <v>6753.0399999999836</v>
       </c>
       <c r="I3">
-        <v>6024.7805728817802</v>
+        <v>6024.6261422119696</v>
       </c>
       <c r="J3">
-        <v>6487.6995123959678</v>
+        <v>6483.557678359899</v>
       </c>
       <c r="K3">
-        <v>447.49999999999727</v>
+        <v>446.50000000010533</v>
       </c>
       <c r="L3">
-        <v>1081.2749336077156</v>
+        <v>1084.1715027794194</v>
       </c>
       <c r="M3">
-        <v>638.00068114730971</v>
+        <v>639.00563909789298</v>
       </c>
       <c r="N3">
-        <v>7153.7290312053865</v>
+        <v>7153.7299999999959</v>
       </c>
       <c r="O3">
-        <v>6041.3236406774267</v>
+        <v>6037.0742622174903</v>
       </c>
       <c r="P3">
-        <v>3589.4696969462093</v>
+        <v>3582.9323795160431</v>
       </c>
       <c r="Q3">
-        <v>9307.8520907480961</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="159">
-        <v>44166</v>
-      </c>
-      <c r="B4">
-        <v>125.66651513074657</v>
-      </c>
-      <c r="C4">
-        <v>674.40736806156951</v>
-      </c>
-      <c r="D4">
-        <v>4882.9542372290634</v>
-      </c>
-      <c r="E4">
-        <v>58.184251648367976</v>
-      </c>
-      <c r="F4">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G4">
-        <v>7467.5873274097685</v>
-      </c>
-      <c r="H4">
-        <v>6753.0400000000072</v>
-      </c>
-      <c r="I4">
-        <v>6023.9658484695219</v>
-      </c>
-      <c r="J4">
-        <v>6483.0936017082704</v>
-      </c>
-      <c r="K4">
-        <v>446.50000000010687</v>
-      </c>
-      <c r="L4">
-        <v>1084.3594981772358</v>
-      </c>
-      <c r="M4">
-        <v>639.50562092495773</v>
-      </c>
-      <c r="N4">
-        <v>7153.7300000000005</v>
-      </c>
-      <c r="O4">
-        <v>6040.6228381087949</v>
-      </c>
-      <c r="P4">
-        <v>3584.9071945910641</v>
-      </c>
-      <c r="Q4">
-        <v>9307.054751251444</v>
+        <v>9307.8384608779525</v>
       </c>
     </row>
   </sheetData>
@@ -4241,7 +3359,7 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q3"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -4296,161 +3414,108 @@
     </row>
     <row r="2">
       <c r="A2" s="166">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B2">
-        <v>127.59142734884294</v>
+        <v>127.58691842597287</v>
       </c>
       <c r="C2">
-        <v>658.85180637866324</v>
+        <v>659.10086316069146</v>
       </c>
       <c r="D2">
-        <v>4936.2888816358482</v>
+        <v>4902.1695901036192</v>
       </c>
       <c r="E2">
-        <v>61.686432967049292</v>
+        <v>58.632719008264409</v>
       </c>
       <c r="F2">
         <v>639.99999999966485</v>
       </c>
       <c r="G2">
-        <v>7466.2647903638253</v>
+        <v>7463.5871740918656</v>
       </c>
       <c r="H2">
-        <v>6753.0400000001837</v>
+        <v>6753.0390430251737</v>
       </c>
       <c r="I2">
-        <v>6025.2727903607756</v>
+        <v>6025.2698095041715</v>
       </c>
       <c r="J2">
-        <v>6490.631736553858</v>
+        <v>6488.0103179921653</v>
       </c>
       <c r="K2">
-        <v>447.49999999907499</v>
+        <v>447.50000000006378</v>
       </c>
       <c r="L2">
-        <v>1081.5063937700315</v>
+        <v>1081.5523042871423</v>
       </c>
       <c r="M2">
-        <v>635.99722949062857</v>
+        <v>638.00068114730868</v>
       </c>
       <c r="N2">
-        <v>7153.730000000015</v>
+        <v>7153.7290377295694</v>
       </c>
       <c r="O2">
-        <v>6041.0115622228814</v>
+        <v>6038.7573938317582</v>
       </c>
       <c r="P2">
-        <v>3592.3267024255852</v>
+        <v>3587.6148875877716</v>
       </c>
       <c r="Q2">
-        <v>9308.4280664624894</v>
+        <v>9308.4999999999891</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="166">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B3">
-        <v>126.80974741519559</v>
+        <v>126.65158851060455</v>
       </c>
       <c r="C3">
-        <v>654.41011852649876</v>
+        <v>673.85421056427367</v>
       </c>
       <c r="D3">
-        <v>4909.7099565854078</v>
+        <v>4869.2296559139277</v>
       </c>
       <c r="E3">
-        <v>60.393483516499323</v>
+        <v>57.313842975206548</v>
       </c>
       <c r="F3">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G3">
-        <v>7467.1607088995588</v>
+        <v>7463.9418172220048</v>
       </c>
       <c r="H3">
-        <v>6753.0390355238924</v>
+        <v>6753.0399999999836</v>
       </c>
       <c r="I3">
-        <v>6024.7438072761715</v>
+        <v>6024.63659564099</v>
       </c>
       <c r="J3">
-        <v>6488.310596679049</v>
+        <v>6483.421412162812</v>
       </c>
       <c r="K3">
-        <v>447.49999999999727</v>
+        <v>446.50000000010533</v>
       </c>
       <c r="L3">
-        <v>1080.6853195651543</v>
+        <v>1084.2585951025326</v>
       </c>
       <c r="M3">
-        <v>638.00068114730971</v>
+        <v>639.00563909789298</v>
       </c>
       <c r="N3">
-        <v>7153.7290312053865</v>
+        <v>7153.7299999999959</v>
       </c>
       <c r="O3">
-        <v>6040.0528703808968</v>
+        <v>6037.8249886494032</v>
       </c>
       <c r="P3">
-        <v>3588.6664347304891</v>
+        <v>3582.9483177318239</v>
       </c>
       <c r="Q3">
-        <v>9308.294797154711</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="166">
-        <v>44166</v>
-      </c>
-      <c r="B4">
-        <v>125.89839171068411</v>
-      </c>
-      <c r="C4">
-        <v>671.50841791435516</v>
-      </c>
-      <c r="D4">
-        <v>4877.0996294773822</v>
-      </c>
-      <c r="E4">
-        <v>58.541432967049303</v>
-      </c>
-      <c r="F4">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G4">
-        <v>7467.7761755570991</v>
-      </c>
-      <c r="H4">
-        <v>6753.0400000000072</v>
-      </c>
-      <c r="I4">
-        <v>6024.1239809904182</v>
-      </c>
-      <c r="J4">
-        <v>6484.0246280319161</v>
-      </c>
-      <c r="K4">
-        <v>446.50000000010687</v>
-      </c>
-      <c r="L4">
-        <v>1083.8303331568659</v>
-      </c>
-      <c r="M4">
-        <v>639.50562092495773</v>
-      </c>
-      <c r="N4">
-        <v>7153.7300000000005</v>
-      </c>
-      <c r="O4">
-        <v>6039.1642495687802</v>
-      </c>
-      <c r="P4">
-        <v>3584.0741660068284</v>
-      </c>
-      <c r="Q4">
-        <v>9307.6781226417752</v>
+        <v>9307.7715333975339</v>
       </c>
     </row>
   </sheetData>
@@ -4459,7 +3524,7 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q3"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -4514,161 +3579,108 @@
     </row>
     <row r="2">
       <c r="A2" s="173">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B2">
-        <v>127.85485036840315</v>
+        <v>127.58849473385912</v>
       </c>
       <c r="C2">
-        <v>661.54048572804243</v>
+        <v>666.47436505749181</v>
       </c>
       <c r="D2">
-        <v>4939.3171844944245</v>
+        <v>4904.6581136908953</v>
       </c>
       <c r="E2">
-        <v>68.541031868148181</v>
+        <v>58.673719008264399</v>
       </c>
       <c r="F2">
         <v>639.99999999966485</v>
       </c>
       <c r="G2">
-        <v>7466.9294629547749</v>
+        <v>7464.1057544632686</v>
       </c>
       <c r="H2">
-        <v>6753.0400000001837</v>
+        <v>6753.0390430251737</v>
       </c>
       <c r="I2">
-        <v>6025.450673098353</v>
+        <v>6025.2708739471082</v>
       </c>
       <c r="J2">
-        <v>6491.6587183361617</v>
+        <v>6488.0212567198832</v>
       </c>
       <c r="K2">
-        <v>447.49999999907499</v>
+        <v>447.50000000006378</v>
       </c>
       <c r="L2">
-        <v>1082.0020077158176</v>
+        <v>1082.9087562967941</v>
       </c>
       <c r="M2">
-        <v>635.99722949062857</v>
+        <v>638.00068114730868</v>
       </c>
       <c r="N2">
-        <v>7153.730000000015</v>
+        <v>7153.7290377295694</v>
       </c>
       <c r="O2">
-        <v>6041.2808643955623</v>
+        <v>6039.6901946832804</v>
       </c>
       <c r="P2">
-        <v>3592.7392261785149</v>
+        <v>3587.9626277540528</v>
       </c>
       <c r="Q2">
-        <v>9308.4744044725339</v>
+        <v>9308.4999999999891</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="173">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B3">
-        <v>126.8836241302389</v>
+        <v>126.65593288570301</v>
       </c>
       <c r="C3">
-        <v>657.55168181917747</v>
+        <v>686.58073806153402</v>
       </c>
       <c r="D3">
-        <v>4915.1478117977313</v>
+        <v>4873.5158632737657</v>
       </c>
       <c r="E3">
-        <v>65.251934065949854</v>
+        <v>57.38584297520655</v>
       </c>
       <c r="F3">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G3">
-        <v>7467.6956924451833</v>
+        <v>7464.7409693392046</v>
       </c>
       <c r="H3">
-        <v>6753.0390355238924</v>
+        <v>6753.0399999999836</v>
       </c>
       <c r="I3">
-        <v>6024.7939162790126</v>
+        <v>6024.639542341275</v>
       </c>
       <c r="J3">
-        <v>6488.1183212302885</v>
+        <v>6483.4250987485375</v>
       </c>
       <c r="K3">
-        <v>447.49999999999727</v>
+        <v>446.50000000010533</v>
       </c>
       <c r="L3">
-        <v>1081.2662880331777</v>
+        <v>1086.5689112872651</v>
       </c>
       <c r="M3">
-        <v>638.00068114730971</v>
+        <v>639.00563909789298</v>
       </c>
       <c r="N3">
-        <v>7153.7290312053865</v>
+        <v>7153.7299999999959</v>
       </c>
       <c r="O3">
-        <v>6041.2587940922203</v>
+        <v>6039.2314619265944</v>
       </c>
       <c r="P3">
-        <v>3589.4212309189102</v>
+        <v>3583.5623929795147</v>
       </c>
       <c r="Q3">
-        <v>9307.92413419275</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="173">
-        <v>44166</v>
-      </c>
-      <c r="B4">
-        <v>125.8847853599213</v>
-      </c>
-      <c r="C4">
-        <v>674.4767705262592</v>
-      </c>
-      <c r="D4">
-        <v>4883.190371006327</v>
-      </c>
-      <c r="E4">
-        <v>62.381031868148185</v>
-      </c>
-      <c r="F4">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G4">
-        <v>7468.3251065587965</v>
-      </c>
-      <c r="H4">
-        <v>6753.0400000000072</v>
-      </c>
-      <c r="I4">
-        <v>6024.1147108432824</v>
-      </c>
-      <c r="J4">
-        <v>6482.9545547345469</v>
-      </c>
-      <c r="K4">
-        <v>446.50000000010687</v>
-      </c>
-      <c r="L4">
-        <v>1084.3721578829159</v>
-      </c>
-      <c r="M4">
-        <v>639.50562092495773</v>
-      </c>
-      <c r="N4">
-        <v>7153.7300000000005</v>
-      </c>
-      <c r="O4">
-        <v>6040.6065760739311</v>
-      </c>
-      <c r="P4">
-        <v>3584.9407454536254</v>
-      </c>
-      <c r="Q4">
-        <v>9307.1335670719054</v>
+        <v>9307.846253085745</v>
       </c>
     </row>
   </sheetData>
@@ -4677,7 +3689,7 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q3"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -4732,161 +3744,108 @@
     </row>
     <row r="2">
       <c r="A2" s="180">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B2">
-        <v>127.64775618336728</v>
+        <v>127.59133977736111</v>
       </c>
       <c r="C2">
-        <v>658.78231130147765</v>
+        <v>657.87946732448063</v>
       </c>
       <c r="D2">
-        <v>4936.5393590600443</v>
+        <v>4904.9975477263997</v>
       </c>
       <c r="E2">
-        <v>63.152180219796541</v>
+        <v>58.747719008264404</v>
       </c>
       <c r="F2">
         <v>639.99999999966485</v>
       </c>
       <c r="G2">
-        <v>7466.1984801845874</v>
+        <v>7463.5901508022398</v>
       </c>
       <c r="H2">
-        <v>6753.0400000001837</v>
+        <v>6753.0390430251737</v>
       </c>
       <c r="I2">
-        <v>6025.3108277627698</v>
+        <v>6025.2727951367997</v>
       </c>
       <c r="J2">
-        <v>6490.1819359096089</v>
+        <v>6487.9916607744753</v>
       </c>
       <c r="K2">
-        <v>447.49999999907499</v>
+        <v>447.50000000006378</v>
       </c>
       <c r="L2">
-        <v>1081.4935710554469</v>
+        <v>1081.3268263588352</v>
       </c>
       <c r="M2">
-        <v>635.99722949062857</v>
+        <v>638.00068114730868</v>
       </c>
       <c r="N2">
-        <v>7153.730000000015</v>
+        <v>7153.7290377295694</v>
       </c>
       <c r="O2">
-        <v>6041.029320421896</v>
+        <v>6038.1806069867052</v>
       </c>
       <c r="P2">
-        <v>3592.3608758459345</v>
+        <v>3588.0100130656469</v>
       </c>
       <c r="Q2">
-        <v>9308.4196998773423</v>
+        <v>9308.4999999999891</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="180">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B3">
-        <v>126.98362620824027</v>
+        <v>126.65943052963235</v>
       </c>
       <c r="C3">
-        <v>655.37436058061053</v>
+        <v>674.21956298252951</v>
       </c>
       <c r="D3">
-        <v>4910.4972441819973</v>
+        <v>4872.2112159173284</v>
       </c>
       <c r="E3">
-        <v>63.452109890125683</v>
+        <v>57.402842975206546</v>
       </c>
       <c r="F3">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G3">
-        <v>7466.7259145489434</v>
+        <v>7463.9172186692113</v>
       </c>
       <c r="H3">
-        <v>6753.0390355238924</v>
+        <v>6753.0399999999836</v>
       </c>
       <c r="I3">
-        <v>6024.8617455617277</v>
+        <v>6024.6419147243032</v>
       </c>
       <c r="J3">
-        <v>6486.4133159672538</v>
+        <v>6483.4008562798999</v>
       </c>
       <c r="K3">
-        <v>447.49999999999727</v>
+        <v>446.50000000010533</v>
       </c>
       <c r="L3">
-        <v>1080.863833065366</v>
+        <v>1084.3252400348242</v>
       </c>
       <c r="M3">
-        <v>638.00068114730971</v>
+        <v>639.00563909789298</v>
       </c>
       <c r="N3">
-        <v>7153.7290312053865</v>
+        <v>7153.7299999999959</v>
       </c>
       <c r="O3">
-        <v>6040.5767401266985</v>
+        <v>6037.3136214233054</v>
       </c>
       <c r="P3">
-        <v>3588.7758775462125</v>
+        <v>3583.3757024831925</v>
       </c>
       <c r="Q3">
-        <v>9307.8520907480961</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="180">
-        <v>44166</v>
-      </c>
-      <c r="B4">
-        <v>125.48719368508635</v>
-      </c>
-      <c r="C4">
-        <v>671.82811042071705</v>
-      </c>
-      <c r="D4">
-        <v>4879.7652641605418</v>
-      </c>
-      <c r="E4">
-        <v>60.871180219796543</v>
-      </c>
-      <c r="F4">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G4">
-        <v>7467.3665158561344</v>
-      </c>
-      <c r="H4">
-        <v>6753.0400000000072</v>
-      </c>
-      <c r="I4">
-        <v>6023.8431264419351</v>
-      </c>
-      <c r="J4">
-        <v>6481.1254025304906</v>
-      </c>
-      <c r="K4">
-        <v>446.50000000010687</v>
-      </c>
-      <c r="L4">
-        <v>1083.8887733197259</v>
-      </c>
-      <c r="M4">
-        <v>639.50562092495773</v>
-      </c>
-      <c r="N4">
-        <v>7153.7300000000005</v>
-      </c>
-      <c r="O4">
-        <v>6040.1773983855828</v>
-      </c>
-      <c r="P4">
-        <v>3584.4539639830114</v>
-      </c>
-      <c r="Q4">
-        <v>9307.054751251444</v>
+        <v>9307.7715333975339</v>
       </c>
     </row>
   </sheetData>
@@ -4895,7 +3854,7 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q3"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -4950,161 +3909,108 @@
     </row>
     <row r="2">
       <c r="A2" s="187">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B2">
-        <v>127.94402180570252</v>
+        <v>127.53605366174136</v>
       </c>
       <c r="C2">
-        <v>666.74887666857717</v>
+        <v>659.65901104355487</v>
       </c>
       <c r="D2">
-        <v>4938.3770590739605</v>
+        <v>4901.8736680956808</v>
       </c>
       <c r="E2">
-        <v>70.861383516499842</v>
+        <v>57.309719008264409</v>
       </c>
       <c r="F2">
         <v>639.99999999966485</v>
       </c>
       <c r="G2">
-        <v>7466.2529984843759</v>
+        <v>7463.5809073331848</v>
       </c>
       <c r="H2">
-        <v>6753.0400000001837</v>
+        <v>6753.0390430251737</v>
       </c>
       <c r="I2">
-        <v>6025.5108402386768</v>
+        <v>6025.2354617479305</v>
       </c>
       <c r="J2">
-        <v>6490.7560382394486</v>
+        <v>6489.0199904629744</v>
       </c>
       <c r="K2">
-        <v>447.49999999907499</v>
+        <v>447.50000000006378</v>
       </c>
       <c r="L2">
-        <v>1082.9591533854916</v>
+        <v>1081.6551904489443</v>
       </c>
       <c r="M2">
-        <v>635.99722949062857</v>
+        <v>638.00068114730868</v>
       </c>
       <c r="N2">
-        <v>7153.730000000015</v>
+        <v>7153.7290377295694</v>
       </c>
       <c r="O2">
-        <v>6041.1536278149961</v>
+        <v>6038.0913905021107</v>
       </c>
       <c r="P2">
-        <v>3592.6113026026496</v>
+        <v>3587.5734900654893</v>
       </c>
       <c r="Q2">
-        <v>9308.4280664624894</v>
+        <v>9308.4999999999891</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="187">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B3">
-        <v>126.9965533916972</v>
+        <v>126.57728679454691</v>
       </c>
       <c r="C3">
-        <v>670.65087496559113</v>
+        <v>674.60302119905225</v>
       </c>
       <c r="D3">
-        <v>4924.3610241580072</v>
+        <v>4868.776869133696</v>
       </c>
       <c r="E3">
-        <v>84.953758241774054</v>
+        <v>56.703842975206548</v>
       </c>
       <c r="F3">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G3">
-        <v>7467.5532055754857</v>
+        <v>7463.9015535299168</v>
       </c>
       <c r="H3">
-        <v>6753.0390355238924</v>
+        <v>6753.0399999999836</v>
       </c>
       <c r="I3">
-        <v>6024.8705137939241</v>
+        <v>6024.5861982683045</v>
       </c>
       <c r="J3">
-        <v>6488.3719292610867</v>
+        <v>6485.0221921077391</v>
       </c>
       <c r="K3">
-        <v>447.49999999999727</v>
+        <v>446.50000000010533</v>
       </c>
       <c r="L3">
-        <v>1083.6735707795299</v>
+        <v>1084.3951869026905</v>
       </c>
       <c r="M3">
-        <v>638.00068114730971</v>
+        <v>639.00563909789298</v>
       </c>
       <c r="N3">
-        <v>7153.7290312053865</v>
+        <v>7153.7299999999959</v>
       </c>
       <c r="O3">
-        <v>6041.0234084102203</v>
+        <v>6037.0240589642772</v>
       </c>
       <c r="P3">
-        <v>3590.6929346039174</v>
+        <v>3582.8833280719523</v>
       </c>
       <c r="Q3">
-        <v>9308.0718631050531</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="187">
-        <v>44166</v>
-      </c>
-      <c r="B4">
-        <v>125.4864801966816</v>
-      </c>
-      <c r="C4">
-        <v>692.44536789407334</v>
-      </c>
-      <c r="D4">
-        <v>4895.9888392144412</v>
-      </c>
-      <c r="E4">
-        <v>68.164383516499839</v>
-      </c>
-      <c r="F4">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G4">
-        <v>7468.3379127407061</v>
-      </c>
-      <c r="H4">
-        <v>6753.0400000000072</v>
-      </c>
-      <c r="I4">
-        <v>6023.8426381513009</v>
-      </c>
-      <c r="J4">
-        <v>6483.4343388953403</v>
-      </c>
-      <c r="K4">
-        <v>446.50000000010687</v>
-      </c>
-      <c r="L4">
-        <v>1087.6260827150811</v>
-      </c>
-      <c r="M4">
-        <v>639.50562092495773</v>
-      </c>
-      <c r="N4">
-        <v>7153.7300000000005</v>
-      </c>
-      <c r="O4">
-        <v>6040.5445609067228</v>
-      </c>
-      <c r="P4">
-        <v>3586.7481889298183</v>
-      </c>
-      <c r="Q4">
-        <v>9307.3648779796968</v>
+        <v>9307.7923450520611</v>
       </c>
     </row>
   </sheetData>
@@ -5113,7 +4019,7 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q3"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -5168,161 +4074,108 @@
     </row>
     <row r="2">
       <c r="A2" s="194">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B2">
-        <v>127.62186526633126</v>
+        <v>127.57607650343827</v>
       </c>
       <c r="C2">
-        <v>662.04504889752911</v>
+        <v>660.09560431695581</v>
       </c>
       <c r="D2">
-        <v>4940.4733056727873</v>
+        <v>4901.3133477850342</v>
       </c>
       <c r="E2">
-        <v>62.478465934082266</v>
+        <v>58.350719008264399</v>
       </c>
       <c r="F2">
         <v>639.99999999966485</v>
       </c>
       <c r="G2">
-        <v>7467.0001733064037</v>
+        <v>7463.5746405745049</v>
       </c>
       <c r="H2">
-        <v>6753.0400000001837</v>
+        <v>6753.0390430251737</v>
       </c>
       <c r="I2">
-        <v>6025.2933442975491</v>
+        <v>6025.2624882137252</v>
       </c>
       <c r="J2">
-        <v>6490.8419397697244</v>
+        <v>6488.0637790980554</v>
       </c>
       <c r="K2">
-        <v>447.49999999907499</v>
+        <v>447.50000000006378</v>
       </c>
       <c r="L2">
-        <v>1082.0948163120522</v>
+        <v>1081.7356698479491</v>
       </c>
       <c r="M2">
-        <v>635.99722949062857</v>
+        <v>638.00068114730868</v>
       </c>
       <c r="N2">
-        <v>7153.730000000015</v>
+        <v>7153.7290377295694</v>
       </c>
       <c r="O2">
-        <v>6041.8312860235328</v>
+        <v>6038.1029174218638</v>
       </c>
       <c r="P2">
-        <v>3592.8965404602382</v>
+        <v>3587.4950869697564</v>
       </c>
       <c r="Q2">
-        <v>9308.8017336336652</v>
+        <v>9308.4999999999891</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="194">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B3">
-        <v>126.90603926449</v>
+        <v>126.62271593121146</v>
       </c>
       <c r="C3">
-        <v>656.9690122103051</v>
+        <v>678.0105367980442</v>
       </c>
       <c r="D3">
-        <v>4917.3977748098714</v>
+        <v>4868.1114831362565</v>
       </c>
       <c r="E3">
-        <v>62.106967032982837</v>
+        <v>56.844842975206546</v>
       </c>
       <c r="F3">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G3">
-        <v>7468.4319384004739</v>
+        <v>7464.0021304499833</v>
       </c>
       <c r="H3">
-        <v>6753.0390355238924</v>
+        <v>6753.0399999999836</v>
       </c>
       <c r="I3">
-        <v>6024.8091199886685</v>
+        <v>6024.6170119634471</v>
       </c>
       <c r="J3">
-        <v>6487.4724038467511</v>
+        <v>6483.7592993151766</v>
       </c>
       <c r="K3">
-        <v>447.49999999999727</v>
+        <v>446.50000000010533</v>
       </c>
       <c r="L3">
-        <v>1081.158674158585</v>
+        <v>1085.0156279562375</v>
       </c>
       <c r="M3">
-        <v>638.00068114730971</v>
+        <v>639.00563909789298</v>
       </c>
       <c r="N3">
-        <v>7153.7290312053865</v>
+        <v>7153.7299999999959</v>
       </c>
       <c r="O3">
-        <v>6041.2268879718767</v>
+        <v>6037.0367027989832</v>
       </c>
       <c r="P3">
-        <v>3589.7325351021004</v>
+        <v>3582.7877770307177</v>
       </c>
       <c r="Q3">
-        <v>9308.4999999999891</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="194">
-        <v>44166</v>
-      </c>
-      <c r="B4">
-        <v>125.51405206486248</v>
-      </c>
-      <c r="C4">
-        <v>675.00509769643315</v>
-      </c>
-      <c r="D4">
-        <v>4886.1749723771118</v>
-      </c>
-      <c r="E4">
-        <v>59.704465934082265</v>
-      </c>
-      <c r="F4">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G4">
-        <v>7469.1815554222831</v>
-      </c>
-      <c r="H4">
-        <v>6753.0400000000072</v>
-      </c>
-      <c r="I4">
-        <v>6023.8615074830122</v>
-      </c>
-      <c r="J4">
-        <v>6482.7786565443757</v>
-      </c>
-      <c r="K4">
-        <v>446.50000000010687</v>
-      </c>
-      <c r="L4">
-        <v>1084.46852999407</v>
-      </c>
-      <c r="M4">
-        <v>639.50562092495773</v>
-      </c>
-      <c r="N4">
-        <v>7153.7300000000005</v>
-      </c>
-      <c r="O4">
-        <v>6040.4275544175607</v>
-      </c>
-      <c r="P4">
-        <v>3585.3638095127021</v>
-      </c>
-      <c r="Q4">
-        <v>9307.9409997095281</v>
+        <v>9307.7715333975339</v>
       </c>
     </row>
   </sheetData>
@@ -5331,7 +4184,7 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q3"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -5386,161 +4239,108 @@
     </row>
     <row r="2">
       <c r="A2" s="201">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B2">
-        <v>127.89973441925918</v>
+        <v>127.5732699064701</v>
       </c>
       <c r="C2">
-        <v>665.45688275267673</v>
+        <v>660.88240662083945</v>
       </c>
       <c r="D2">
-        <v>4960.4615500110513</v>
+        <v>4901.3709929766082</v>
       </c>
       <c r="E2">
-        <v>69.708971428587759</v>
+        <v>58.277719008264398</v>
       </c>
       <c r="F2">
         <v>639.99999999966485</v>
       </c>
       <c r="G2">
-        <v>7468.2143865689504</v>
+        <v>7463.5749539124372</v>
       </c>
       <c r="H2">
-        <v>6753.0400000001837</v>
+        <v>6753.0390430251737</v>
       </c>
       <c r="I2">
-        <v>6025.4809821345689</v>
+        <v>6025.2605929860565</v>
       </c>
       <c r="J2">
-        <v>6490.2230639030904</v>
+        <v>6488.0536107032749</v>
       </c>
       <c r="K2">
-        <v>447.49999999907499</v>
+        <v>447.50000000006378</v>
       </c>
       <c r="L2">
-        <v>1082.7219600320832</v>
+        <v>1081.8807047961229</v>
       </c>
       <c r="M2">
-        <v>635.99722949062857</v>
+        <v>638.00068114730868</v>
       </c>
       <c r="N2">
-        <v>7153.730000000015</v>
+        <v>7153.7290377295694</v>
       </c>
       <c r="O2">
-        <v>6042.4458751136281</v>
+        <v>6038.0616829121773</v>
       </c>
       <c r="P2">
-        <v>3595.5950250115038</v>
+        <v>3587.503155399384</v>
       </c>
       <c r="Q2">
-        <v>9308.8586754122971</v>
+        <v>9308.4999999999891</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="201">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B3">
-        <v>127.46838145824742</v>
+        <v>126.63606110560204</v>
       </c>
       <c r="C3">
-        <v>662.52034822274777</v>
+        <v>678.49539616147467</v>
       </c>
       <c r="D3">
-        <v>4940.2455792387591</v>
+        <v>4871.0795760669225</v>
       </c>
       <c r="E3">
-        <v>69.511714285730079</v>
+        <v>57.264842975206548</v>
       </c>
       <c r="F3">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G3">
-        <v>7470.3345063693223</v>
+        <v>7463.910955430415</v>
       </c>
       <c r="H3">
-        <v>6753.0390355238924</v>
+        <v>6753.0399999999836</v>
       </c>
       <c r="I3">
-        <v>6025.1896998179709</v>
+        <v>6024.6260637058376</v>
       </c>
       <c r="J3">
-        <v>6486.1166970321628</v>
+        <v>6483.5345467205079</v>
       </c>
       <c r="K3">
-        <v>447.49999999999727</v>
+        <v>446.50000000010533</v>
       </c>
       <c r="L3">
-        <v>1082.1822436218069</v>
+        <v>1085.1037165293287</v>
       </c>
       <c r="M3">
-        <v>638.00068114730971</v>
+        <v>639.00563909789298</v>
       </c>
       <c r="N3">
-        <v>7153.7290312053865</v>
+        <v>7153.7299999999959</v>
       </c>
       <c r="O3">
-        <v>6042.152617775002</v>
+        <v>6039.3359335956211</v>
       </c>
       <c r="P3">
-        <v>3592.8655535567336</v>
+        <v>3583.2136133783424</v>
       </c>
       <c r="Q3">
-        <v>9308.4999999999891</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="201">
-        <v>44166</v>
-      </c>
-      <c r="B4">
-        <v>126.37728578756885</v>
-      </c>
-      <c r="C4">
-        <v>679.15445502099169</v>
-      </c>
-      <c r="D4">
-        <v>4910.8661691892039</v>
-      </c>
-      <c r="E4">
-        <v>65.097971428587769</v>
-      </c>
-      <c r="F4">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G4">
-        <v>7471.4770228534153</v>
-      </c>
-      <c r="H4">
-        <v>6753.0400000000072</v>
-      </c>
-      <c r="I4">
-        <v>6024.4502555697873</v>
-      </c>
-      <c r="J4">
-        <v>6480.5352017002506</v>
-      </c>
-      <c r="K4">
-        <v>446.50000000010687</v>
-      </c>
-      <c r="L4">
-        <v>1085.2234555282582</v>
-      </c>
-      <c r="M4">
-        <v>639.50562092495773</v>
-      </c>
-      <c r="N4">
-        <v>7153.7300000000005</v>
-      </c>
-      <c r="O4">
-        <v>6041.4644550073526</v>
-      </c>
-      <c r="P4">
-        <v>3588.827164093233</v>
-      </c>
-      <c r="Q4">
-        <v>9307.9325701932539</v>
+        <v>9307.7715333975339</v>
       </c>
     </row>
   </sheetData>
@@ -5549,7 +4349,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q3"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -5604,161 +4404,108 @@
     </row>
     <row r="2">
       <c r="A2" s="19">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B2">
-        <v>127.66056776994853</v>
+        <v>127.57588427076921</v>
       </c>
       <c r="C2">
-        <v>661.58540591150302</v>
+        <v>659.49636443444831</v>
       </c>
       <c r="D2">
-        <v>4938.3879365581633</v>
+        <v>4901.6515231365383</v>
       </c>
       <c r="E2">
-        <v>63.485553846170163</v>
+        <v>58.345719008264403</v>
       </c>
       <c r="F2">
         <v>639.99999999966485</v>
       </c>
       <c r="G2">
-        <v>7466.4698465532028</v>
+        <v>7463.5878007677347</v>
       </c>
       <c r="H2">
-        <v>6753.0400000001837</v>
+        <v>6753.0390430251737</v>
       </c>
       <c r="I2">
-        <v>6025.3194790951311</v>
+        <v>6025.262358403611</v>
       </c>
       <c r="J2">
-        <v>6490.7019848947648</v>
+        <v>6488.0004577305599</v>
       </c>
       <c r="K2">
-        <v>447.49999999907499</v>
+        <v>447.50000000006378</v>
       </c>
       <c r="L2">
-        <v>1082.0102702673112</v>
+        <v>1081.625208994468</v>
       </c>
       <c r="M2">
-        <v>635.99722949062857</v>
+        <v>638.00068114730868</v>
       </c>
       <c r="N2">
-        <v>7153.730000000015</v>
+        <v>7153.7290377295694</v>
       </c>
       <c r="O2">
-        <v>6041.2001286660225</v>
+        <v>6038.1725475143576</v>
       </c>
       <c r="P2">
-        <v>3592.6127827101386</v>
+        <v>3587.5424073821905</v>
       </c>
       <c r="Q2">
-        <v>9308.5046460185258</v>
+        <v>9308.4999999999891</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="19">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B3">
-        <v>127.00207230893722</v>
+        <v>126.62363893928709</v>
       </c>
       <c r="C3">
-        <v>658.69450431186499</v>
+        <v>676.45410491379187</v>
       </c>
       <c r="D3">
-        <v>4914.1914608196948</v>
+        <v>4868.6078598537106</v>
       </c>
       <c r="E3">
-        <v>63.598923076938874</v>
+        <v>56.87384297520655</v>
       </c>
       <c r="F3">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G3">
-        <v>7467.3699770632256</v>
+        <v>7463.9411903723512</v>
       </c>
       <c r="H3">
-        <v>6753.0390355238924</v>
+        <v>6753.0399999999836</v>
       </c>
       <c r="I3">
-        <v>6024.8742571593075</v>
+        <v>6024.6176380198131</v>
       </c>
       <c r="J3">
-        <v>6487.3239298534681</v>
+        <v>6483.8798732926962</v>
       </c>
       <c r="K3">
-        <v>447.49999999999727</v>
+        <v>446.50000000010533</v>
       </c>
       <c r="L3">
-        <v>1081.4773548043402</v>
+        <v>1084.7323506910229</v>
       </c>
       <c r="M3">
-        <v>638.00068114730971</v>
+        <v>639.00563909789298</v>
       </c>
       <c r="N3">
-        <v>7153.7290312053865</v>
+        <v>7153.7299999999959</v>
       </c>
       <c r="O3">
-        <v>6040.6611790478501</v>
+        <v>6037.0509263019394</v>
       </c>
       <c r="P3">
-        <v>3589.2886430113913</v>
+        <v>3582.8590596631866</v>
       </c>
       <c r="Q3">
-        <v>9308.0770424395105</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="19">
-        <v>44166</v>
-      </c>
-      <c r="B4">
-        <v>125.61849900535563</v>
-      </c>
-      <c r="C4">
-        <v>677.86152840541956</v>
-      </c>
-      <c r="D4">
-        <v>4883.8828399443946</v>
-      </c>
-      <c r="E4">
-        <v>60.485553846170163</v>
-      </c>
-      <c r="F4">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G4">
-        <v>7468.037263139674</v>
-      </c>
-      <c r="H4">
-        <v>6753.0400000000072</v>
-      </c>
-      <c r="I4">
-        <v>6023.9329877243072</v>
-      </c>
-      <c r="J4">
-        <v>6482.5541734940462</v>
-      </c>
-      <c r="K4">
-        <v>446.50000000010687</v>
-      </c>
-      <c r="L4">
-        <v>1084.9885349570793</v>
-      </c>
-      <c r="M4">
-        <v>639.50562092495773</v>
-      </c>
-      <c r="N4">
-        <v>7153.7300000000005</v>
-      </c>
-      <c r="O4">
-        <v>6039.9946589424435</v>
-      </c>
-      <c r="P4">
-        <v>3585.0390269509044</v>
-      </c>
-      <c r="Q4">
-        <v>9307.353755236958</v>
+        <v>9307.7773866753705</v>
       </c>
     </row>
   </sheetData>
@@ -5767,7 +4514,7 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q3"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -5822,161 +4569,108 @@
     </row>
     <row r="2">
       <c r="A2" s="208">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B2">
-        <v>127.99517606187187</v>
+        <v>127.55508469597764</v>
       </c>
       <c r="C2">
-        <v>659.48478965171671</v>
+        <v>658.81149717351377</v>
       </c>
       <c r="D2">
-        <v>4937.3312673004421</v>
+        <v>4902.3610255886442</v>
       </c>
       <c r="E2">
-        <v>72.192476923093253</v>
+        <v>57.804719008264399</v>
       </c>
       <c r="F2">
         <v>639.99999999966485</v>
       </c>
       <c r="G2">
-        <v>7466.453766717591</v>
+        <v>7463.763583348742</v>
       </c>
       <c r="H2">
-        <v>6753.0400000001837</v>
+        <v>6753.0390430251737</v>
       </c>
       <c r="I2">
-        <v>6025.5452310377023</v>
+        <v>6025.2483129492448</v>
       </c>
       <c r="J2">
-        <v>6491.5616048294933</v>
+        <v>6488.5618475406154</v>
       </c>
       <c r="K2">
-        <v>447.49999999907499</v>
+        <v>447.50000000006378</v>
       </c>
       <c r="L2">
-        <v>1081.6230748753915</v>
+        <v>1081.4989620326901</v>
       </c>
       <c r="M2">
-        <v>635.99722949062857</v>
+        <v>638.00068114730868</v>
       </c>
       <c r="N2">
-        <v>7153.730000000015</v>
+        <v>7153.7290377295694</v>
       </c>
       <c r="O2">
-        <v>6041.1980233125323</v>
+        <v>6038.2445204767191</v>
       </c>
       <c r="P2">
-        <v>3592.4689183701821</v>
+        <v>3587.6416588153857</v>
       </c>
       <c r="Q2">
-        <v>9308.6138729911818</v>
+        <v>9308.4999999999891</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="208">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B3">
-        <v>127.17882307042257</v>
+        <v>126.60876944377831</v>
       </c>
       <c r="C3">
-        <v>657.22511598097219</v>
+        <v>673.7670899926012</v>
       </c>
       <c r="D3">
-        <v>4913.3092163587116</v>
+        <v>4871.0104927739185</v>
       </c>
       <c r="E3">
-        <v>63.383461538477334</v>
+        <v>57.027842975206553</v>
       </c>
       <c r="F3">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G3">
-        <v>7467.4832392597636</v>
+        <v>7464.1491826827951</v>
       </c>
       <c r="H3">
-        <v>6753.0390355238924</v>
+        <v>6753.0399999999836</v>
       </c>
       <c r="I3">
-        <v>6024.994143438731</v>
+        <v>6024.6075523166965</v>
       </c>
       <c r="J3">
-        <v>6489.0336121004093</v>
+        <v>6484.3243739044801</v>
       </c>
       <c r="K3">
-        <v>447.49999999999727</v>
+        <v>446.50000000010533</v>
       </c>
       <c r="L3">
-        <v>1081.2059743713244</v>
+        <v>1084.242703351495</v>
       </c>
       <c r="M3">
-        <v>638.00068114730971</v>
+        <v>639.00563909789298</v>
       </c>
       <c r="N3">
-        <v>7153.7290312053865</v>
+        <v>7153.7299999999959</v>
       </c>
       <c r="O3">
-        <v>6040.2340914569832</v>
+        <v>6037.3133107078675</v>
       </c>
       <c r="P3">
-        <v>3589.1663291853024</v>
+        <v>3583.2037156615606</v>
       </c>
       <c r="Q3">
-        <v>9308.3953588707336</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="208">
-        <v>44166</v>
-      </c>
-      <c r="B4">
-        <v>126.31218309114224</v>
-      </c>
-      <c r="C4">
-        <v>676.83910418819414</v>
-      </c>
-      <c r="D4">
-        <v>4883.8228490727961</v>
-      </c>
-      <c r="E4">
-        <v>59.890476923093246</v>
-      </c>
-      <c r="F4">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G4">
-        <v>7468.1082561895037</v>
-      </c>
-      <c r="H4">
-        <v>6753.0400000000072</v>
-      </c>
-      <c r="I4">
-        <v>6024.4059012850748</v>
-      </c>
-      <c r="J4">
-        <v>6484.6237437183663</v>
-      </c>
-      <c r="K4">
-        <v>446.50000000010687</v>
-      </c>
-      <c r="L4">
-        <v>1084.8024296738429</v>
-      </c>
-      <c r="M4">
-        <v>639.50562092495773</v>
-      </c>
-      <c r="N4">
-        <v>7153.7300000000005</v>
-      </c>
-      <c r="O4">
-        <v>6041.5021244118489</v>
-      </c>
-      <c r="P4">
-        <v>3585.0305265363859</v>
-      </c>
-      <c r="Q4">
-        <v>9307.6989641163145</v>
+        <v>9307.7812888605949</v>
       </c>
     </row>
   </sheetData>
@@ -5985,7 +4679,7 @@
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q3"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -6040,161 +4734,108 @@
     </row>
     <row r="2">
       <c r="A2" s="215">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B2">
-        <v>127.73774388573283</v>
+        <v>127.57726834598641</v>
       </c>
       <c r="C2">
-        <v>660.06414528112953</v>
+        <v>656.66491423728348</v>
       </c>
       <c r="D2">
-        <v>4937.1207478700617</v>
+        <v>4901.5159569922516</v>
       </c>
       <c r="E2">
-        <v>65.493773626389952</v>
+        <v>58.381719008264398</v>
       </c>
       <c r="F2">
         <v>639.99999999966485</v>
       </c>
       <c r="G2">
-        <v>7466.2775010910236</v>
+        <v>7463.5746405745049</v>
       </c>
       <c r="H2">
-        <v>6753.0400000001837</v>
+        <v>6753.0390430251737</v>
       </c>
       <c r="I2">
-        <v>6025.3715941258306</v>
+        <v>6025.2632930364334</v>
       </c>
       <c r="J2">
-        <v>6490.426186332802</v>
+        <v>6487.9771521387502</v>
       </c>
       <c r="K2">
-        <v>447.49999999907499</v>
+        <v>447.50000000006378</v>
       </c>
       <c r="L2">
-        <v>1081.7298705177277</v>
+        <v>1081.1025117466788</v>
       </c>
       <c r="M2">
-        <v>635.99722949062857</v>
+        <v>638.00068114730868</v>
       </c>
       <c r="N2">
-        <v>7153.730000000015</v>
+        <v>7153.7290377295694</v>
       </c>
       <c r="O2">
-        <v>6041.1582962075208</v>
+        <v>6038.1392787622235</v>
       </c>
       <c r="P2">
-        <v>3592.4401965442166</v>
+        <v>3587.5234388692643</v>
       </c>
       <c r="Q2">
-        <v>9308.5046460185258</v>
+        <v>9308.4999999999891</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="215">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B3">
-        <v>127.11586229370246</v>
+        <v>126.64217294368423</v>
       </c>
       <c r="C3">
-        <v>657.42201303143781</v>
+        <v>687.13565215194876</v>
       </c>
       <c r="D3">
-        <v>4910.3565701411317</v>
+        <v>4868.9624048890673</v>
       </c>
       <c r="E3">
-        <v>64.552813186828999</v>
+        <v>57.319842975206548</v>
       </c>
       <c r="F3">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G3">
-        <v>7466.9272255829246</v>
+        <v>7463.8888644681265</v>
       </c>
       <c r="H3">
-        <v>6753.0390355238924</v>
+        <v>6753.0399999999836</v>
       </c>
       <c r="I3">
-        <v>6024.9514384845934</v>
+        <v>6024.630209243398</v>
       </c>
       <c r="J3">
-        <v>6487.1593810888926</v>
+        <v>6483.3831212671366</v>
       </c>
       <c r="K3">
-        <v>447.49999999999727</v>
+        <v>446.50000000010533</v>
       </c>
       <c r="L3">
-        <v>1081.2423392453927</v>
+        <v>1086.6690900302783</v>
       </c>
       <c r="M3">
-        <v>638.00068114730971</v>
+        <v>639.00563909789298</v>
       </c>
       <c r="N3">
-        <v>7153.7290312053865</v>
+        <v>7153.7299999999959</v>
       </c>
       <c r="O3">
-        <v>6040.5055445730031</v>
+        <v>6037.0274365196392</v>
       </c>
       <c r="P3">
-        <v>3588.7563220964371</v>
+        <v>3582.9099639904089</v>
       </c>
       <c r="Q3">
-        <v>9308.06603635379</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="215">
-        <v>44166</v>
-      </c>
-      <c r="B4">
-        <v>125.66930347591401</v>
-      </c>
-      <c r="C4">
-        <v>676.73497935885405</v>
-      </c>
-      <c r="D4">
-        <v>4879.9006849966509</v>
-      </c>
-      <c r="E4">
-        <v>62.243773626389959</v>
-      </c>
-      <c r="F4">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G4">
-        <v>7467.443407994233</v>
-      </c>
-      <c r="H4">
-        <v>6753.0400000000072</v>
-      </c>
-      <c r="I4">
-        <v>6023.9677567252702</v>
-      </c>
-      <c r="J4">
-        <v>6482.061070519022</v>
-      </c>
-      <c r="K4">
-        <v>446.50000000010687</v>
-      </c>
-      <c r="L4">
-        <v>1084.7834766185579</v>
-      </c>
-      <c r="M4">
-        <v>639.50562092495773</v>
-      </c>
-      <c r="N4">
-        <v>7153.7300000000005</v>
-      </c>
-      <c r="O4">
-        <v>6039.7809433514967</v>
-      </c>
-      <c r="P4">
-        <v>3584.4732586512851</v>
-      </c>
-      <c r="Q4">
-        <v>9307.3086099870106</v>
+        <v>9307.7715333975339</v>
       </c>
     </row>
   </sheetData>
@@ -6203,7 +4844,7 @@
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q3"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -6258,161 +4899,108 @@
     </row>
     <row r="2">
       <c r="A2" s="222">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B2">
-        <v>127.67764129844156</v>
+        <v>127.57623028957352</v>
       </c>
       <c r="C2">
-        <v>658.17519746119865</v>
+        <v>659.08383280769522</v>
       </c>
       <c r="D2">
-        <v>4936.5062087244341</v>
+        <v>4901.75956165764</v>
       </c>
       <c r="E2">
-        <v>63.929828571444894</v>
+        <v>58.354719008264404</v>
       </c>
       <c r="F2">
         <v>639.99999999966485</v>
       </c>
       <c r="G2">
-        <v>7466.485007541065</v>
+        <v>7463.5754239193384</v>
       </c>
       <c r="H2">
-        <v>6753.0400000001837</v>
+        <v>6753.0390430251737</v>
       </c>
       <c r="I2">
-        <v>6025.3310084064024</v>
+        <v>6025.2625920618166</v>
       </c>
       <c r="J2">
-        <v>6492.0085134085948</v>
+        <v>6487.9989150923384</v>
       </c>
       <c r="K2">
-        <v>447.49999999907499</v>
+        <v>447.50000000006378</v>
       </c>
       <c r="L2">
-        <v>1081.3814436396444</v>
+        <v>1081.5491649978831</v>
       </c>
       <c r="M2">
-        <v>635.99722949062857</v>
+        <v>638.00068114730868</v>
       </c>
       <c r="N2">
-        <v>7153.730000000015</v>
+        <v>7153.7290377295694</v>
       </c>
       <c r="O2">
-        <v>6041.1511563130716</v>
+        <v>6038.0635572080728</v>
       </c>
       <c r="P2">
-        <v>3592.3563530417055</v>
+        <v>3587.5575242101772</v>
       </c>
       <c r="Q2">
-        <v>9308.6510906503117</v>
+        <v>9308.4999999999891</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="222">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B3">
-        <v>126.75258147042688</v>
+        <v>126.64148138064758</v>
       </c>
       <c r="C3">
-        <v>653.32658658510354</v>
+        <v>676.44843981884287</v>
       </c>
       <c r="D3">
-        <v>4911.4907091639952</v>
+        <v>4871.062362384776</v>
       </c>
       <c r="E3">
-        <v>63.329285714301513</v>
+        <v>57.328842975206555</v>
       </c>
       <c r="F3">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G3">
-        <v>7467.630763924556</v>
+        <v>7464.1188105759848</v>
       </c>
       <c r="H3">
-        <v>6753.0390355238924</v>
+        <v>6753.0399999999836</v>
       </c>
       <c r="I3">
-        <v>6024.7050328317509</v>
+        <v>6024.6297401688735</v>
       </c>
       <c r="J3">
-        <v>6489.2249109921777</v>
+        <v>6483.4143488368227</v>
       </c>
       <c r="K3">
-        <v>447.49999999999727</v>
+        <v>446.50000000010533</v>
       </c>
       <c r="L3">
-        <v>1080.484691838818</v>
+        <v>1084.7313196177877</v>
       </c>
       <c r="M3">
-        <v>638.00068114730971</v>
+        <v>639.00563909789298</v>
       </c>
       <c r="N3">
-        <v>7153.7290312053865</v>
+        <v>7153.7299999999959</v>
       </c>
       <c r="O3">
-        <v>6040.4242079525648</v>
+        <v>6037.5839824416407</v>
       </c>
       <c r="P3">
-        <v>3588.9139815953122</v>
+        <v>3583.2111471358721</v>
       </c>
       <c r="Q3">
-        <v>9308.497052228131</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="222">
-        <v>44166</v>
-      </c>
-      <c r="B4">
-        <v>125.79987258942381</v>
-      </c>
-      <c r="C4">
-        <v>669.98534345140104</v>
-      </c>
-      <c r="D4">
-        <v>4879.795785191709</v>
-      </c>
-      <c r="E4">
-        <v>60.450828571444902</v>
-      </c>
-      <c r="F4">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G4">
-        <v>7468.3125208898246</v>
-      </c>
-      <c r="H4">
-        <v>6753.0400000000072</v>
-      </c>
-      <c r="I4">
-        <v>6024.0568589058121</v>
-      </c>
-      <c r="J4">
-        <v>6484.6401509420193</v>
-      </c>
-      <c r="K4">
-        <v>446.50000000010687</v>
-      </c>
-      <c r="L4">
-        <v>1083.5519121970972</v>
-      </c>
-      <c r="M4">
-        <v>639.50562092495773</v>
-      </c>
-      <c r="N4">
-        <v>7153.7300000000005</v>
-      </c>
-      <c r="O4">
-        <v>6039.5412841003035</v>
-      </c>
-      <c r="P4">
-        <v>3584.4583126471407</v>
-      </c>
-      <c r="Q4">
-        <v>9307.8517204572308</v>
+        <v>9307.7715333975339</v>
       </c>
     </row>
   </sheetData>
@@ -6421,7 +5009,7 @@
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q3"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -6476,161 +5064,108 @@
     </row>
     <row r="2">
       <c r="A2" s="229">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B2">
-        <v>127.55804931645275</v>
+        <v>127.60387334738338</v>
       </c>
       <c r="C2">
-        <v>662.86157523181907</v>
+        <v>660.02085101270177</v>
       </c>
       <c r="D2">
-        <v>4943.980006944972</v>
+        <v>4902.8580771026527</v>
       </c>
       <c r="E2">
-        <v>60.817894505510836</v>
+        <v>59.073719008264398</v>
       </c>
       <c r="F2">
         <v>639.99999999966485</v>
       </c>
       <c r="G2">
-        <v>7466.5257699795702</v>
+        <v>7463.7675000729187</v>
       </c>
       <c r="H2">
-        <v>6753.0400000001837</v>
+        <v>6753.0390430251737</v>
       </c>
       <c r="I2">
-        <v>6025.2502510406111</v>
+        <v>6025.2812587562512</v>
       </c>
       <c r="J2">
-        <v>6490.7257011109996</v>
+        <v>6487.9918151216634</v>
       </c>
       <c r="K2">
-        <v>447.49999999907499</v>
+        <v>447.50000000006378</v>
       </c>
       <c r="L2">
-        <v>1082.2450069471483</v>
+        <v>1081.7218902013842</v>
       </c>
       <c r="M2">
-        <v>635.99722949062857</v>
+        <v>638.00068114730868</v>
       </c>
       <c r="N2">
-        <v>7153.730000000015</v>
+        <v>7153.7290377295694</v>
       </c>
       <c r="O2">
-        <v>6041.0522962360847</v>
+        <v>6038.6031551687065</v>
       </c>
       <c r="P2">
-        <v>3593.3727180883243</v>
+        <v>3587.7111627389863</v>
       </c>
       <c r="Q2">
-        <v>9308.5470597451585</v>
+        <v>9308.4999999999891</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="229">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B3">
-        <v>126.79722447630947</v>
+        <v>126.6723821719193</v>
       </c>
       <c r="C3">
-        <v>655.40766905328337</v>
+        <v>675.90398299362948</v>
       </c>
       <c r="D3">
-        <v>4922.1767565588116</v>
+        <v>4870.6189482029267</v>
       </c>
       <c r="E3">
-        <v>60.935252747268557</v>
+        <v>57.413842975206549</v>
       </c>
       <c r="F3">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G3">
-        <v>7467.8819097768983</v>
+        <v>7464.1480897994415</v>
       </c>
       <c r="H3">
-        <v>6753.0390355238924</v>
+        <v>6753.0399999999836</v>
       </c>
       <c r="I3">
-        <v>6024.7353132333137</v>
+        <v>6024.6506995722229</v>
       </c>
       <c r="J3">
-        <v>6487.6431633799439</v>
+        <v>6483.3935782453937</v>
       </c>
       <c r="K3">
-        <v>447.49999999999727</v>
+        <v>446.50000000010533</v>
       </c>
       <c r="L3">
-        <v>1080.8699986925262</v>
+        <v>1084.6322154999709</v>
       </c>
       <c r="M3">
-        <v>638.00068114730971</v>
+        <v>639.00563909789298</v>
       </c>
       <c r="N3">
-        <v>7153.7290312053865</v>
+        <v>7153.7299999999959</v>
       </c>
       <c r="O3">
-        <v>6040.2073486532217</v>
+        <v>6037.6629316699791</v>
       </c>
       <c r="P3">
-        <v>3590.3922519938646</v>
+        <v>3583.1475890066868</v>
       </c>
       <c r="Q3">
-        <v>9308.4999999999891</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="229">
-        <v>44166</v>
-      </c>
-      <c r="B4">
-        <v>124.77736443345835</v>
-      </c>
-      <c r="C4">
-        <v>687.57494481946162</v>
-      </c>
-      <c r="D4">
-        <v>4895.8843080567067</v>
-      </c>
-      <c r="E4">
-        <v>58.574894505510841</v>
-      </c>
-      <c r="F4">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G4">
-        <v>7468.8885198959679</v>
-      </c>
-      <c r="H4">
-        <v>6753.0400000000072</v>
-      </c>
-      <c r="I4">
-        <v>6023.356698003583</v>
-      </c>
-      <c r="J4">
-        <v>6483.0628201447607</v>
-      </c>
-      <c r="K4">
-        <v>446.50000000010687</v>
-      </c>
-      <c r="L4">
-        <v>1086.7483935675036</v>
-      </c>
-      <c r="M4">
-        <v>639.50562092495773</v>
-      </c>
-      <c r="N4">
-        <v>7153.7300000000005</v>
-      </c>
-      <c r="O4">
-        <v>6039.899896262229</v>
-      </c>
-      <c r="P4">
-        <v>3586.733497695926</v>
-      </c>
-      <c r="Q4">
-        <v>9307.9157111607037</v>
+        <v>9307.7715333975339</v>
       </c>
     </row>
   </sheetData>
@@ -6639,7 +5174,7 @@
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q3"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -6694,161 +5229,108 @@
     </row>
     <row r="2">
       <c r="A2" s="236">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B2">
-        <v>127.97970640701776</v>
+        <v>127.57922911921075</v>
       </c>
       <c r="C2">
-        <v>662.65488092272437</v>
+        <v>663.27886237703319</v>
       </c>
       <c r="D2">
-        <v>4942.0643805108739</v>
+        <v>4901.4973832465002</v>
       </c>
       <c r="E2">
-        <v>71.789938461554769</v>
+        <v>58.432719008264407</v>
       </c>
       <c r="F2">
         <v>639.99999999966485</v>
       </c>
       <c r="G2">
-        <v>7466.8896879957229</v>
+        <v>7463.5746405745049</v>
       </c>
       <c r="H2">
-        <v>6753.0400000001837</v>
+        <v>6753.0390430251737</v>
       </c>
       <c r="I2">
-        <v>6025.5348308514631</v>
+        <v>6025.2646170995995</v>
       </c>
       <c r="J2">
-        <v>6490.9722167413966</v>
+        <v>6487.9748369309218</v>
       </c>
       <c r="K2">
-        <v>447.49999999907499</v>
+        <v>447.50000000006378</v>
       </c>
       <c r="L2">
-        <v>1082.2069879044673</v>
+        <v>1082.3217616119232</v>
       </c>
       <c r="M2">
-        <v>635.99722949062857</v>
+        <v>638.00068114730868</v>
       </c>
       <c r="N2">
-        <v>7153.730000000015</v>
+        <v>7153.7290377295694</v>
       </c>
       <c r="O2">
-        <v>6042.8580886122936</v>
+        <v>6038.210033432254</v>
       </c>
       <c r="P2">
-        <v>3593.112742214933</v>
+        <v>3587.5208400173296</v>
       </c>
       <c r="Q2">
-        <v>9308.8817080418576</v>
+        <v>9308.4999999999891</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="236">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B3">
-        <v>126.7662624424518</v>
+        <v>126.64055672735358</v>
       </c>
       <c r="C3">
-        <v>658.96656064649562</v>
+        <v>678.09004184481898</v>
       </c>
       <c r="D3">
-        <v>4919.6364553821049</v>
+        <v>4868.5883057109822</v>
       </c>
       <c r="E3">
-        <v>68.011230769246566</v>
+        <v>57.226842975206552</v>
       </c>
       <c r="F3">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G3">
-        <v>7467.6558234143085</v>
+        <v>7463.8893344902335</v>
       </c>
       <c r="H3">
-        <v>6753.0390355238924</v>
+        <v>6753.0399999999836</v>
       </c>
       <c r="I3">
-        <v>6024.7143123426704</v>
+        <v>6024.6291130020772</v>
       </c>
       <c r="J3">
-        <v>6487.5507352904824</v>
+        <v>6483.4606914035721</v>
       </c>
       <c r="K3">
-        <v>447.49999999999727</v>
+        <v>446.50000000010533</v>
       </c>
       <c r="L3">
-        <v>1081.5275479876652</v>
+        <v>1085.0300715697927</v>
       </c>
       <c r="M3">
-        <v>638.00068114730971</v>
+        <v>639.00563909789298</v>
       </c>
       <c r="N3">
-        <v>7153.7290312053865</v>
+        <v>7153.7299999999959</v>
       </c>
       <c r="O3">
-        <v>6042.7178565825989</v>
+        <v>6037.2061883373271</v>
       </c>
       <c r="P3">
-        <v>3590.0419544197607</v>
+        <v>3582.8562518414651</v>
       </c>
       <c r="Q3">
-        <v>9308.4571500528164</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="236">
-        <v>44166</v>
-      </c>
-      <c r="B4">
-        <v>125.49020139401938</v>
-      </c>
-      <c r="C4">
-        <v>678.02591774384837</v>
-      </c>
-      <c r="D4">
-        <v>4889.2386980363253</v>
-      </c>
-      <c r="E4">
-        <v>64.275938461554802</v>
-      </c>
-      <c r="F4">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G4">
-        <v>7468.2426855127014</v>
-      </c>
-      <c r="H4">
-        <v>6753.0400000000072</v>
-      </c>
-      <c r="I4">
-        <v>6023.8451848234445</v>
-      </c>
-      <c r="J4">
-        <v>6482.1539912776434</v>
-      </c>
-      <c r="K4">
-        <v>446.50000000010687</v>
-      </c>
-      <c r="L4">
-        <v>1085.0184229918912</v>
-      </c>
-      <c r="M4">
-        <v>639.50562092495773</v>
-      </c>
-      <c r="N4">
-        <v>7153.7300000000005</v>
-      </c>
-      <c r="O4">
-        <v>6042.1647800399633</v>
-      </c>
-      <c r="P4">
-        <v>3585.797100752256</v>
-      </c>
-      <c r="Q4">
-        <v>9307.7236794382006</v>
+        <v>9307.7715333975339</v>
       </c>
     </row>
   </sheetData>
@@ -6857,7 +5339,7 @@
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q3"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -6912,161 +5394,108 @@
     </row>
     <row r="2">
       <c r="A2" s="243">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B2">
-        <v>127.63409470002649</v>
+        <v>127.5769223271821</v>
       </c>
       <c r="C2">
-        <v>661.36262854445795</v>
+        <v>658.30135443319648</v>
       </c>
       <c r="D2">
-        <v>4937.0958111220689</v>
+        <v>4903.5299146662683</v>
       </c>
       <c r="E2">
-        <v>62.796691208807545</v>
+        <v>58.372719008264411</v>
       </c>
       <c r="F2">
         <v>639.99999999966485</v>
       </c>
       <c r="G2">
-        <v>7466.1967956303797</v>
+        <v>7463.5813773400851</v>
       </c>
       <c r="H2">
-        <v>6753.0400000001837</v>
+        <v>6753.0390430251737</v>
       </c>
       <c r="I2">
-        <v>6025.3016025171555</v>
+        <v>6025.2630593782278</v>
       </c>
       <c r="J2">
-        <v>6490.4695370837962</v>
+        <v>6488.0864268864298</v>
       </c>
       <c r="K2">
-        <v>447.49999999907499</v>
+        <v>447.50000000006378</v>
       </c>
       <c r="L2">
-        <v>1081.9692267043774</v>
+        <v>1081.4047442729739</v>
       </c>
       <c r="M2">
-        <v>635.99722949062857</v>
+        <v>638.00068114730868</v>
       </c>
       <c r="N2">
-        <v>7153.730000000015</v>
+        <v>7153.7290377295694</v>
       </c>
       <c r="O2">
-        <v>6040.9827469232205</v>
+        <v>6038.4725285723271</v>
       </c>
       <c r="P2">
-        <v>3592.436794345499</v>
+        <v>3587.8050618185375</v>
       </c>
       <c r="Q2">
-        <v>9308.4196998773423</v>
+        <v>9308.4999999999891</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="243">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B3">
-        <v>126.94473494775868</v>
+        <v>126.63944291432561</v>
       </c>
       <c r="C3">
-        <v>658.5167314526567</v>
+        <v>676.15338882318224</v>
       </c>
       <c r="D3">
-        <v>4910.0587731797896</v>
+        <v>4871.349930470994</v>
       </c>
       <c r="E3">
-        <v>62.795604395620195</v>
+        <v>57.25784297520655</v>
       </c>
       <c r="F3">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G3">
-        <v>7466.6897920930587</v>
+        <v>7463.9054702656776</v>
       </c>
       <c r="H3">
-        <v>6753.0390355238924</v>
+        <v>6753.0399999999836</v>
       </c>
       <c r="I3">
-        <v>6024.8353664472697</v>
+        <v>6024.6283575218877</v>
       </c>
       <c r="J3">
-        <v>6487.6131558511115</v>
+        <v>6483.5642844457643</v>
       </c>
       <c r="K3">
-        <v>447.49999999999727</v>
+        <v>446.50000000010533</v>
       </c>
       <c r="L3">
-        <v>1081.4445220518087</v>
+        <v>1084.6776136381472</v>
       </c>
       <c r="M3">
-        <v>638.00068114730971</v>
+        <v>639.00563909789298</v>
       </c>
       <c r="N3">
-        <v>7153.7290312053865</v>
+        <v>7153.7299999999959</v>
       </c>
       <c r="O3">
-        <v>6040.0598236551868</v>
+        <v>6037.6171907555272</v>
       </c>
       <c r="P3">
-        <v>3588.7149245968503</v>
+        <v>3583.2523476537017</v>
       </c>
       <c r="Q3">
-        <v>9307.8520907480961</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="243">
-        <v>44166</v>
-      </c>
-      <c r="B4">
-        <v>125.95573941905022</v>
-      </c>
-      <c r="C4">
-        <v>676.09678158432382</v>
-      </c>
-      <c r="D4">
-        <v>4877.5363900247721</v>
-      </c>
-      <c r="E4">
-        <v>59.713691208807539</v>
-      </c>
-      <c r="F4">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G4">
-        <v>7467.1536712788811</v>
-      </c>
-      <c r="H4">
-        <v>6753.0400000000072</v>
-      </c>
-      <c r="I4">
-        <v>6024.1630525698747</v>
-      </c>
-      <c r="J4">
-        <v>6483.1459589535862</v>
-      </c>
-      <c r="K4">
-        <v>446.50000000010687</v>
-      </c>
-      <c r="L4">
-        <v>1084.6673097504574</v>
-      </c>
-      <c r="M4">
-        <v>639.50562092495773</v>
-      </c>
-      <c r="N4">
-        <v>7153.7300000000005</v>
-      </c>
-      <c r="O4">
-        <v>6039.1672508648517</v>
-      </c>
-      <c r="P4">
-        <v>3584.1363953892219</v>
-      </c>
-      <c r="Q4">
-        <v>9307.054751251444</v>
+        <v>9307.7819392247984</v>
       </c>
     </row>
   </sheetData>
@@ -7075,7 +5504,7 @@
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q3"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -7130,597 +5559,108 @@
     </row>
     <row r="2">
       <c r="A2" s="250">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B2">
-        <v>127.7872741796441</v>
+        <v>127.60133587615188</v>
       </c>
       <c r="C2">
-        <v>658.85226797628741</v>
+        <v>657.74893113942539</v>
       </c>
       <c r="D2">
-        <v>4937.7383213620788</v>
+        <v>4901.6625489856096</v>
       </c>
       <c r="E2">
-        <v>66.782614285730631</v>
+        <v>59.007719008264409</v>
       </c>
       <c r="F2">
         <v>639.99999999966485</v>
       </c>
       <c r="G2">
-        <v>7466.3150207074523</v>
+        <v>7463.7035791343706</v>
       </c>
       <c r="H2">
-        <v>6753.0400000001837</v>
+        <v>6753.0390430251737</v>
       </c>
       <c r="I2">
-        <v>6025.405040649558</v>
+        <v>6025.2795452627433</v>
       </c>
       <c r="J2">
-        <v>6490.853874931212</v>
+        <v>6488.0036931288996</v>
       </c>
       <c r="K2">
-        <v>447.49999999907499</v>
+        <v>447.50000000006378</v>
       </c>
       <c r="L2">
-        <v>1081.5064788587272</v>
+        <v>1081.3027177595225</v>
       </c>
       <c r="M2">
-        <v>635.99722949062857</v>
+        <v>638.00068114730868</v>
       </c>
       <c r="N2">
-        <v>7153.730000000015</v>
+        <v>7153.7290377295694</v>
       </c>
       <c r="O2">
-        <v>6041.0278558281634</v>
+        <v>6038.4312940626405</v>
       </c>
       <c r="P2">
-        <v>3592.5243890798733</v>
+        <v>3587.5439501269648</v>
       </c>
       <c r="Q2">
-        <v>9308.4299972129083</v>
+        <v>9308.4999999999891</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="250">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B3">
-        <v>126.64841456798648</v>
+        <v>126.65838641263733</v>
       </c>
       <c r="C3">
-        <v>659.89769403028981</v>
+        <v>673.49309413464107</v>
       </c>
       <c r="D3">
-        <v>4916.6774695617132</v>
+        <v>4869.1094223411092</v>
       </c>
       <c r="E3">
-        <v>64.39114285715867</v>
+        <v>57.115842975206547</v>
       </c>
       <c r="F3">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G3">
-        <v>7467.2250578640496</v>
+        <v>7464.1295426114348</v>
       </c>
       <c r="H3">
-        <v>6753.0390355238924</v>
+        <v>6753.0399999999836</v>
       </c>
       <c r="I3">
-        <v>6024.6343786376538</v>
+        <v>6024.6412065414961</v>
       </c>
       <c r="J3">
-        <v>6487.2470336567221</v>
+        <v>6483.6881496982714</v>
       </c>
       <c r="K3">
-        <v>447.49999999999727</v>
+        <v>446.50000000010533</v>
       </c>
       <c r="L3">
-        <v>1081.6991874175988</v>
+        <v>1084.1927235310181</v>
       </c>
       <c r="M3">
-        <v>638.00068114730971</v>
+        <v>639.00563909789298</v>
       </c>
       <c r="N3">
-        <v>7153.7290312053865</v>
+        <v>7153.7299999999959</v>
       </c>
       <c r="O3">
-        <v>6040.4972840245191</v>
+        <v>6037.5231694880722</v>
       </c>
       <c r="P3">
-        <v>3589.6329419510516</v>
+        <v>3582.9310627657874</v>
       </c>
       <c r="Q3">
-        <v>9307.9247826170777</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="250">
-        <v>44166</v>
-      </c>
-      <c r="B4">
-        <v>125.48430549783617</v>
-      </c>
-      <c r="C4">
-        <v>676.4087219780921</v>
-      </c>
-      <c r="D4">
-        <v>4886.3720299845945</v>
-      </c>
-      <c r="E4">
-        <v>61.615614285730615</v>
-      </c>
-      <c r="F4">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G4">
-        <v>7467.8841666945009</v>
-      </c>
-      <c r="H4">
-        <v>6753.0400000000072</v>
-      </c>
-      <c r="I4">
-        <v>6023.8411498563191</v>
-      </c>
-      <c r="J4">
-        <v>6482.0719138580862</v>
-      </c>
-      <c r="K4">
-        <v>446.50000000010687</v>
-      </c>
-      <c r="L4">
-        <v>1084.7240891921435</v>
-      </c>
-      <c r="M4">
-        <v>639.50562092495773</v>
-      </c>
-      <c r="N4">
-        <v>7153.7300000000005</v>
-      </c>
-      <c r="O4">
-        <v>6039.8336461758008</v>
-      </c>
-      <c r="P4">
-        <v>3585.3917314447367</v>
-      </c>
-      <c r="Q4">
-        <v>9307.1637547605642</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing">
-  <dimension ref="A1:Q4"/>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="259" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="259" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="259" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="259" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="259" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="259" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="259" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="259" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="259" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="259" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="259" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="259" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="259" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="259" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="259" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="259" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="257">
-        <v>44105</v>
-      </c>
-      <c r="B2">
-        <v>127.82523996530011</v>
-      </c>
-      <c r="C2">
-        <v>661.88941599138718</v>
-      </c>
-      <c r="D2">
-        <v>4937.748310888388</v>
-      </c>
-      <c r="E2">
-        <v>67.770531868148197</v>
-      </c>
-      <c r="F2">
-        <v>639.99999999966485</v>
-      </c>
-      <c r="G2">
-        <v>7466.5423809777949</v>
-      </c>
-      <c r="H2">
-        <v>6753.0400000001837</v>
-      </c>
-      <c r="I2">
-        <v>6025.4306779605949</v>
-      </c>
-      <c r="J2">
-        <v>6490.0641223713437</v>
-      </c>
-      <c r="K2">
-        <v>447.49999999907499</v>
-      </c>
-      <c r="L2">
-        <v>1082.0661894276102</v>
-      </c>
-      <c r="M2">
-        <v>635.99722949062857</v>
-      </c>
-      <c r="N2">
-        <v>7153.730000000015</v>
-      </c>
-      <c r="O2">
-        <v>6041.3166554049158</v>
-      </c>
-      <c r="P2">
-        <v>3592.5257483622618</v>
-      </c>
-      <c r="Q2">
-        <v>9308.9168730318343</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="257">
-        <v>44136</v>
-      </c>
-      <c r="B3">
-        <v>127.32063424178018</v>
-      </c>
-      <c r="C3">
-        <v>657.70937062087023</v>
-      </c>
-      <c r="D3">
-        <v>4910.8704761494655</v>
-      </c>
-      <c r="E3">
-        <v>67.604934065949877</v>
-      </c>
-      <c r="F3">
-        <v>639.99999999966485</v>
-      </c>
-      <c r="G3">
-        <v>7467.2060477513451</v>
-      </c>
-      <c r="H3">
-        <v>6753.0390355238924</v>
-      </c>
-      <c r="I3">
-        <v>6025.0899307919499</v>
-      </c>
-      <c r="J3">
-        <v>6485.6369338478999</v>
-      </c>
-      <c r="K3">
-        <v>447.49999999999727</v>
-      </c>
-      <c r="L3">
-        <v>1081.2954115140017</v>
-      </c>
-      <c r="M3">
-        <v>638.00068114730971</v>
-      </c>
-      <c r="N3">
-        <v>7153.7290312053865</v>
-      </c>
-      <c r="O3">
-        <v>6040.4759617684258</v>
-      </c>
-      <c r="P3">
-        <v>3588.8277614548133</v>
-      </c>
-      <c r="Q3">
-        <v>9308.4999999999891</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="257">
-        <v>44166</v>
-      </c>
-      <c r="B4">
-        <v>126.18044319069523</v>
-      </c>
-      <c r="C4">
-        <v>677.25689785719248</v>
-      </c>
-      <c r="D4">
-        <v>4879.3619199233508</v>
-      </c>
-      <c r="E4">
-        <v>65.383531868148197</v>
-      </c>
-      <c r="F4">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G4">
-        <v>7467.7792835665705</v>
-      </c>
-      <c r="H4">
-        <v>6753.0400000000072</v>
-      </c>
-      <c r="I4">
-        <v>6024.3161455447871</v>
-      </c>
-      <c r="J4">
-        <v>6479.7835967391466</v>
-      </c>
-      <c r="K4">
-        <v>446.50000000010687</v>
-      </c>
-      <c r="L4">
-        <v>1084.8784783893775</v>
-      </c>
-      <c r="M4">
-        <v>639.50562092495773</v>
-      </c>
-      <c r="N4">
-        <v>7153.7300000000005</v>
-      </c>
-      <c r="O4">
-        <v>6039.7278642125393</v>
-      </c>
-      <c r="P4">
-        <v>3584.3964957699486</v>
-      </c>
-      <c r="Q4">
-        <v>9307.781288860604</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing">
-  <dimension ref="A1:Q4"/>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="266" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="266" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="266" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="266" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="266" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="266" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="266" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="266" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="266" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="266" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="266" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="266" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="266" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="266" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="266" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="266" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="264">
-        <v>44105</v>
-      </c>
-      <c r="B2">
-        <v>127.80554854363317</v>
-      </c>
-      <c r="C2">
-        <v>665.00057507089878</v>
-      </c>
-      <c r="D2">
-        <v>4937.2405478552237</v>
-      </c>
-      <c r="E2">
-        <v>67.258136263752604</v>
-      </c>
-      <c r="F2">
-        <v>639.99999999966485</v>
-      </c>
-      <c r="G2">
-        <v>7466.2704565916129</v>
-      </c>
-      <c r="H2">
-        <v>6753.0400000001837</v>
-      </c>
-      <c r="I2">
-        <v>6025.4173808539153</v>
-      </c>
-      <c r="J2">
-        <v>6489.9132587045206</v>
-      </c>
-      <c r="K2">
-        <v>447.49999999907499</v>
-      </c>
-      <c r="L2">
-        <v>1082.638187850268</v>
-      </c>
-      <c r="M2">
-        <v>635.99722949062857</v>
-      </c>
-      <c r="N2">
-        <v>7153.730000000015</v>
-      </c>
-      <c r="O2">
-        <v>6041.0928471750703</v>
-      </c>
-      <c r="P2">
-        <v>3592.456541231822</v>
-      </c>
-      <c r="Q2">
-        <v>9308.4196998773423</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="264">
-        <v>44136</v>
-      </c>
-      <c r="B3">
-        <v>127.26967011882299</v>
-      </c>
-      <c r="C3">
-        <v>660.3824928236744</v>
-      </c>
-      <c r="D3">
-        <v>4911.75188159754</v>
-      </c>
-      <c r="E3">
-        <v>66.791131868147687</v>
-      </c>
-      <c r="F3">
-        <v>639.99999999966485</v>
-      </c>
-      <c r="G3">
-        <v>7467.1224486476322</v>
-      </c>
-      <c r="H3">
-        <v>6753.0390355238924</v>
-      </c>
-      <c r="I3">
-        <v>6025.0555160404956</v>
-      </c>
-      <c r="J3">
-        <v>6485.8942888579759</v>
-      </c>
-      <c r="K3">
-        <v>447.49999999999727</v>
-      </c>
-      <c r="L3">
-        <v>1081.7885552033513</v>
-      </c>
-      <c r="M3">
-        <v>638.00068114730971</v>
-      </c>
-      <c r="N3">
-        <v>7153.7290312053865</v>
-      </c>
-      <c r="O3">
-        <v>6040.4329430529133</v>
-      </c>
-      <c r="P3">
-        <v>3588.9502878278981</v>
-      </c>
-      <c r="Q3">
-        <v>9308.204427931898</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="264">
-        <v>44166</v>
-      </c>
-      <c r="B4">
-        <v>126.16645227277773</v>
-      </c>
-      <c r="C4">
-        <v>677.81710155811925</v>
-      </c>
-      <c r="D4">
-        <v>4880.0643040636241</v>
-      </c>
-      <c r="E4">
-        <v>63.724136263752605</v>
-      </c>
-      <c r="F4">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G4">
-        <v>7468.0343964150225</v>
-      </c>
-      <c r="H4">
-        <v>6753.0400000000072</v>
-      </c>
-      <c r="I4">
-        <v>6024.3066133895818</v>
-      </c>
-      <c r="J4">
-        <v>6480.6654694049321</v>
-      </c>
-      <c r="K4">
-        <v>446.50000000010687</v>
-      </c>
-      <c r="L4">
-        <v>1084.9804494836155</v>
-      </c>
-      <c r="M4">
-        <v>639.50562092495773</v>
-      </c>
-      <c r="N4">
-        <v>7153.7300000000005</v>
-      </c>
-      <c r="O4">
-        <v>6039.9274645804771</v>
-      </c>
-      <c r="P4">
-        <v>3584.4965710581614</v>
-      </c>
-      <c r="Q4">
-        <v>9307.6644454241105</v>
+        <v>9307.8040452935384</v>
       </c>
     </row>
   </sheetData>
@@ -7729,7 +5669,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q3"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -7784,161 +5724,108 @@
     </row>
     <row r="2">
       <c r="A2" s="26">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B2">
-        <v>128.09768242666135</v>
+        <v>127.58145901817177</v>
       </c>
       <c r="C2">
-        <v>661.71128267195377</v>
+        <v>668.0716771350518</v>
       </c>
       <c r="D2">
-        <v>4944.6960729602642</v>
+        <v>4902.6132882745569</v>
       </c>
       <c r="E2">
-        <v>74.859812087928404</v>
+        <v>58.490719008264399</v>
       </c>
       <c r="F2">
         <v>639.99999999966485</v>
       </c>
       <c r="G2">
-        <v>7466.8771916484338</v>
+        <v>7463.6622185270735</v>
       </c>
       <c r="H2">
-        <v>6753.0400000001837</v>
+        <v>6753.0390430251737</v>
       </c>
       <c r="I2">
-        <v>6025.6141456511577</v>
+        <v>6025.2661228969246</v>
       </c>
       <c r="J2">
-        <v>6490.3798532931878</v>
+        <v>6488.0154021895551</v>
       </c>
       <c r="K2">
-        <v>447.49999999907499</v>
+        <v>447.50000000006378</v>
       </c>
       <c r="L2">
-        <v>1082.0334238507326</v>
+        <v>1083.201521568878</v>
       </c>
       <c r="M2">
-        <v>635.99722949062857</v>
+        <v>638.00068114730868</v>
       </c>
       <c r="N2">
-        <v>7153.730000000015</v>
+        <v>7153.7290377295694</v>
       </c>
       <c r="O2">
-        <v>6042.1789188359671</v>
+        <v>6038.5609542754255</v>
       </c>
       <c r="P2">
-        <v>3593.4698977285743</v>
+        <v>3587.6769364013671</v>
       </c>
       <c r="Q2">
-        <v>9308.5785487240246</v>
+        <v>9308.4999999999891</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="26">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B3">
-        <v>126.91386950917131</v>
+        <v>126.64616970047946</v>
       </c>
       <c r="C3">
-        <v>661.04212214197423</v>
+        <v>689.32661874648124</v>
       </c>
       <c r="D3">
-        <v>4925.3544174888584</v>
+        <v>4871.7682920063025</v>
       </c>
       <c r="E3">
-        <v>72.311043956059777</v>
+        <v>57.314842975206552</v>
       </c>
       <c r="F3">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G3">
-        <v>7468.3293226496098</v>
+        <v>7464.0368948000551</v>
       </c>
       <c r="H3">
-        <v>6753.0390355238924</v>
+        <v>6753.0399999999836</v>
       </c>
       <c r="I3">
-        <v>6024.8144310749658</v>
+        <v>6024.6329201666931</v>
       </c>
       <c r="J3">
-        <v>6486.9687980002036</v>
+        <v>6483.4305191382846</v>
       </c>
       <c r="K3">
-        <v>447.49999999999727</v>
+        <v>446.50000000010533</v>
       </c>
       <c r="L3">
-        <v>1081.9101462641338</v>
+        <v>1087.0644840961638</v>
       </c>
       <c r="M3">
-        <v>638.00068114730971</v>
+        <v>639.00563909789298</v>
       </c>
       <c r="N3">
-        <v>7153.7290312053865</v>
+        <v>7153.7299999999959</v>
       </c>
       <c r="O3">
-        <v>6041.8498636874492</v>
+        <v>6037.8418118910331</v>
       </c>
       <c r="P3">
-        <v>3590.829551914188</v>
+        <v>3583.312280398754</v>
       </c>
       <c r="Q3">
-        <v>9308.4159607105539</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="26">
-        <v>44166</v>
-      </c>
-      <c r="B4">
-        <v>125.62654492142045</v>
-      </c>
-      <c r="C4">
-        <v>677.5726427359632</v>
-      </c>
-      <c r="D4">
-        <v>4896.0310850681108</v>
-      </c>
-      <c r="E4">
-        <v>67.504812087928428</v>
-      </c>
-      <c r="F4">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G4">
-        <v>7469.2752340893003</v>
-      </c>
-      <c r="H4">
-        <v>6753.0400000000072</v>
-      </c>
-      <c r="I4">
-        <v>6023.9384940975788</v>
-      </c>
-      <c r="J4">
-        <v>6482.0699265815783</v>
-      </c>
-      <c r="K4">
-        <v>446.50000000010687</v>
-      </c>
-      <c r="L4">
-        <v>1084.9359504350089</v>
-      </c>
-      <c r="M4">
-        <v>639.50562092495773</v>
-      </c>
-      <c r="N4">
-        <v>7153.7300000000005</v>
-      </c>
-      <c r="O4">
-        <v>6041.0736630465817</v>
-      </c>
-      <c r="P4">
-        <v>3586.7541258524475</v>
-      </c>
-      <c r="Q4">
-        <v>9307.809512665026</v>
+        <v>9307.7715333975339</v>
       </c>
     </row>
   </sheetData>
@@ -7947,7 +5834,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q3"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -8002,161 +5889,108 @@
     </row>
     <row r="2">
       <c r="A2" s="33">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B2">
-        <v>127.63890522126285</v>
+        <v>127.55562294745098</v>
       </c>
       <c r="C2">
-        <v>658.09667112306556</v>
+        <v>662.0613376197756</v>
       </c>
       <c r="D2">
-        <v>4936.3136703912705</v>
+        <v>4903.2589300571653</v>
       </c>
       <c r="E2">
-        <v>62.921867032983371</v>
+        <v>57.818719008264402</v>
       </c>
       <c r="F2">
         <v>639.99999999966485</v>
       </c>
       <c r="G2">
-        <v>7466.2000115975025</v>
+        <v>7463.7485431279083</v>
       </c>
       <c r="H2">
-        <v>6753.0400000001837</v>
+        <v>6753.0390430251737</v>
       </c>
       <c r="I2">
-        <v>6025.3048509374648</v>
+        <v>6025.2486764175646</v>
       </c>
       <c r="J2">
-        <v>6490.8725851116542</v>
+        <v>6488.5012248219855</v>
       </c>
       <c r="K2">
-        <v>447.49999999907499</v>
+        <v>447.50000000006378</v>
       </c>
       <c r="L2">
-        <v>1081.3669406670829</v>
+        <v>1082.0978122434267</v>
       </c>
       <c r="M2">
-        <v>635.99722949062857</v>
+        <v>638.00068114730868</v>
       </c>
       <c r="N2">
-        <v>7153.730000000015</v>
+        <v>7153.7290377295694</v>
       </c>
       <c r="O2">
-        <v>6041.0605345758331</v>
+        <v>6038.3428272964038</v>
       </c>
       <c r="P2">
-        <v>3592.3300844332121</v>
+        <v>3587.7671894158634</v>
       </c>
       <c r="Q2">
-        <v>9308.4196998773423</v>
+        <v>9308.4999999999891</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="33">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B3">
-        <v>126.90113411622946</v>
+        <v>126.6027703082257</v>
       </c>
       <c r="C3">
-        <v>656.45166589724874</v>
+        <v>682.2755995789372</v>
       </c>
       <c r="D3">
-        <v>4911.9504614418793</v>
+        <v>4871.88938415127</v>
       </c>
       <c r="E3">
-        <v>61.536516483532303</v>
+        <v>56.857842975206552</v>
       </c>
       <c r="F3">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G3">
-        <v>7466.8123351626364</v>
+        <v>7464.3125075968892</v>
       </c>
       <c r="H3">
-        <v>6753.0390355238924</v>
+        <v>6753.0399999999836</v>
       </c>
       <c r="I3">
-        <v>6024.8057929308934</v>
+        <v>6024.6034832317318</v>
       </c>
       <c r="J3">
-        <v>6487.4385913585602</v>
+        <v>6484.3432407848259</v>
       </c>
       <c r="K3">
-        <v>447.49999999999727</v>
+        <v>446.50000000010533</v>
       </c>
       <c r="L3">
-        <v>1081.0631262738598</v>
+        <v>1085.7898172547762</v>
       </c>
       <c r="M3">
-        <v>638.00068114730971</v>
+        <v>639.00563909789298</v>
       </c>
       <c r="N3">
-        <v>7153.7290312053865</v>
+        <v>7153.7299999999959</v>
       </c>
       <c r="O3">
-        <v>6040.6621339098674</v>
+        <v>6037.4048305700262</v>
       </c>
       <c r="P3">
-        <v>3588.9778929080207</v>
+        <v>3583.3296198802495</v>
       </c>
       <c r="Q3">
-        <v>9307.8605323065367</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="33">
-        <v>44166</v>
-      </c>
-      <c r="B4">
-        <v>125.50128321444986</v>
-      </c>
-      <c r="C4">
-        <v>675.10873581822773</v>
-      </c>
-      <c r="D4">
-        <v>4882.7788952252113</v>
-      </c>
-      <c r="E4">
-        <v>59.194867032983375</v>
-      </c>
-      <c r="F4">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G4">
-        <v>7467.3730230189321</v>
-      </c>
-      <c r="H4">
-        <v>6753.0400000000072</v>
-      </c>
-      <c r="I4">
-        <v>6023.8527688783624</v>
-      </c>
-      <c r="J4">
-        <v>6482.6007468695916</v>
-      </c>
-      <c r="K4">
-        <v>446.50000000010687</v>
-      </c>
-      <c r="L4">
-        <v>1084.4874352431871</v>
-      </c>
-      <c r="M4">
-        <v>639.50562092495773</v>
-      </c>
-      <c r="N4">
-        <v>7153.7300000000005</v>
-      </c>
-      <c r="O4">
-        <v>6040.1385301140572</v>
-      </c>
-      <c r="P4">
-        <v>3584.8822810943238</v>
-      </c>
-      <c r="Q4">
-        <v>9307.0659237014952</v>
+        <v>9307.7838903174106</v>
       </c>
     </row>
   </sheetData>
@@ -8165,7 +5999,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q3"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -8220,161 +6054,108 @@
     </row>
     <row r="2">
       <c r="A2" s="40">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B2">
-        <v>127.7521319516201</v>
+        <v>127.56819496400709</v>
       </c>
       <c r="C2">
-        <v>670.18053494399533</v>
+        <v>662.28574675732239</v>
       </c>
       <c r="D2">
-        <v>4940.2580498799098</v>
+        <v>4901.421460285781</v>
       </c>
       <c r="E2">
-        <v>65.868169230785554</v>
+        <v>58.145719008264408</v>
       </c>
       <c r="F2">
         <v>639.99999999966485</v>
       </c>
       <c r="G2">
-        <v>7466.2050652601229</v>
+        <v>7463.5749539124372</v>
       </c>
       <c r="H2">
-        <v>6753.0400000001837</v>
+        <v>6753.0390430251737</v>
       </c>
       <c r="I2">
-        <v>6025.3813100138077</v>
+        <v>6025.257165999039</v>
       </c>
       <c r="J2">
-        <v>6491.3418198373984</v>
+        <v>6488.3516866127875</v>
       </c>
       <c r="K2">
-        <v>447.49999999907499</v>
+        <v>447.50000000006378</v>
       </c>
       <c r="L2">
-        <v>1083.5875918025902</v>
+        <v>1082.1390896666076</v>
       </c>
       <c r="M2">
-        <v>635.99722949062857</v>
+        <v>638.00068114730868</v>
       </c>
       <c r="N2">
-        <v>7153.730000000015</v>
+        <v>7153.7290377295694</v>
       </c>
       <c r="O2">
-        <v>6041.6748954913392</v>
+        <v>6038.1177243594339</v>
       </c>
       <c r="P2">
-        <v>3592.8672504419628</v>
+        <v>3587.5102168217722</v>
       </c>
       <c r="Q2">
-        <v>9308.4531662179288</v>
+        <v>9308.4999999999891</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="40">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B3">
-        <v>126.58578157895461</v>
+        <v>126.62925772702042</v>
       </c>
       <c r="C3">
-        <v>673.47972313236767</v>
+        <v>676.29066565844357</v>
       </c>
       <c r="D3">
-        <v>4917.0741825864307</v>
+        <v>4869.0596816846373</v>
       </c>
       <c r="E3">
-        <v>63.715615384631178</v>
+        <v>57.219842975206546</v>
       </c>
       <c r="F3">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G3">
-        <v>7466.7495365976838</v>
+        <v>7463.8962280710521</v>
       </c>
       <c r="H3">
-        <v>6753.0390355238924</v>
+        <v>6753.0399999999836</v>
       </c>
       <c r="I3">
-        <v>6024.5918960139534</v>
+        <v>6024.621449108965</v>
       </c>
       <c r="J3">
-        <v>6488.570782776842</v>
+        <v>6483.8976860106322</v>
       </c>
       <c r="K3">
-        <v>447.49999999999727</v>
+        <v>446.50000000010533</v>
       </c>
       <c r="L3">
-        <v>1084.1902821901519</v>
+        <v>1084.7026002037383</v>
       </c>
       <c r="M3">
-        <v>638.00068114730971</v>
+        <v>639.00563909789298</v>
       </c>
       <c r="N3">
-        <v>7153.7290312053865</v>
+        <v>7153.7299999999959</v>
       </c>
       <c r="O3">
-        <v>6041.0157015197838</v>
+        <v>6037.7130746923931</v>
       </c>
       <c r="P3">
-        <v>3589.6877935579587</v>
+        <v>3582.9239243824068</v>
       </c>
       <c r="Q3">
-        <v>9307.922837344091</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="40">
-        <v>44166</v>
-      </c>
-      <c r="B4">
-        <v>125.3913047900912</v>
-      </c>
-      <c r="C4">
-        <v>696.4208910774945</v>
-      </c>
-      <c r="D4">
-        <v>4886.4811440164804</v>
-      </c>
-      <c r="E4">
-        <v>60.871169230785554</v>
-      </c>
-      <c r="F4">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G4">
-        <v>7467.3967199433782</v>
-      </c>
-      <c r="H4">
-        <v>6753.0400000000072</v>
-      </c>
-      <c r="I4">
-        <v>6023.7775030610846</v>
-      </c>
-      <c r="J4">
-        <v>6483.99992279863</v>
-      </c>
-      <c r="K4">
-        <v>446.50000000010687</v>
-      </c>
-      <c r="L4">
-        <v>1088.3402084887268</v>
-      </c>
-      <c r="M4">
-        <v>639.50562092495773</v>
-      </c>
-      <c r="N4">
-        <v>7153.7300000000005</v>
-      </c>
-      <c r="O4">
-        <v>6040.2991434155119</v>
-      </c>
-      <c r="P4">
-        <v>3585.4071923149759</v>
-      </c>
-      <c r="Q4">
-        <v>9307.1368483424121</v>
+        <v>9307.7715333975339</v>
       </c>
     </row>
   </sheetData>
@@ -8383,7 +6164,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q3"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -8438,161 +6219,108 @@
     </row>
     <row r="2">
       <c r="A2" s="47">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B2">
-        <v>127.55833648653798</v>
+        <v>127.57211651045576</v>
       </c>
       <c r="C2">
-        <v>664.01805031302752</v>
+        <v>659.61596411134224</v>
       </c>
       <c r="D2">
-        <v>4941.3590440164207</v>
+        <v>4902.3921051803391</v>
       </c>
       <c r="E2">
-        <v>60.825367032983365</v>
+        <v>58.247719008264404</v>
       </c>
       <c r="F2">
         <v>639.99999999966485</v>
       </c>
       <c r="G2">
-        <v>7466.765638889714</v>
+        <v>7463.6194478990756</v>
       </c>
       <c r="H2">
-        <v>6753.0400000001837</v>
+        <v>6753.0390430251737</v>
       </c>
       <c r="I2">
-        <v>6025.2504449591261</v>
+        <v>6025.2598141253711</v>
       </c>
       <c r="J2">
-        <v>6491.0087138689805</v>
+        <v>6488.179495100464</v>
       </c>
       <c r="K2">
-        <v>447.49999999907499</v>
+        <v>447.50000000006378</v>
       </c>
       <c r="L2">
-        <v>1082.4577283178696</v>
+        <v>1081.6472553948686</v>
       </c>
       <c r="M2">
-        <v>635.99722949062857</v>
+        <v>638.00068114730868</v>
       </c>
       <c r="N2">
-        <v>7153.730000000015</v>
+        <v>7153.7290377295694</v>
       </c>
       <c r="O2">
-        <v>6042.0909920402319</v>
+        <v>6038.4885538022272</v>
       </c>
       <c r="P2">
-        <v>3593.0170187127246</v>
+        <v>3587.6460051298795</v>
       </c>
       <c r="Q2">
-        <v>9308.5393481584979</v>
+        <v>9308.4999999999891</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="47">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B3">
-        <v>126.74819460852682</v>
+        <v>126.63402372106748</v>
       </c>
       <c r="C3">
-        <v>660.44081674204074</v>
+        <v>670.52062406043694</v>
       </c>
       <c r="D3">
-        <v>4916.8476359150845</v>
+        <v>4870.9260617620075</v>
       </c>
       <c r="E3">
-        <v>59.652516483532288</v>
+        <v>57.241842975206559</v>
       </c>
       <c r="F3">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G3">
-        <v>7467.8326428707733</v>
+        <v>7463.9969585767976</v>
       </c>
       <c r="H3">
-        <v>6753.0390355238924</v>
+        <v>6753.0399999999836</v>
       </c>
       <c r="I3">
-        <v>6024.7020573171767</v>
+        <v>6024.6246817889978</v>
       </c>
       <c r="J3">
-        <v>6487.8479068663682</v>
+        <v>6483.6858335004445</v>
       </c>
       <c r="K3">
-        <v>447.49999999999727</v>
+        <v>446.50000000010533</v>
       </c>
       <c r="L3">
-        <v>1081.7993063402409</v>
+        <v>1083.6497617518453</v>
       </c>
       <c r="M3">
-        <v>638.00068114730971</v>
+        <v>639.00563909789298</v>
       </c>
       <c r="N3">
-        <v>7153.7290312053865</v>
+        <v>7153.7299999999959</v>
       </c>
       <c r="O3">
-        <v>6041.9723748258921</v>
+        <v>6037.7773322338053</v>
       </c>
       <c r="P3">
-        <v>3589.6564700370295</v>
+        <v>3583.191614371945</v>
       </c>
       <c r="Q3">
-        <v>9308.0110059251929</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="47">
-        <v>44166</v>
-      </c>
-      <c r="B4">
-        <v>125.58800231342802</v>
-      </c>
-      <c r="C4">
-        <v>682.35217768320206</v>
-      </c>
-      <c r="D4">
-        <v>4885.9855529860506</v>
-      </c>
-      <c r="E4">
-        <v>56.908367032983364</v>
-      </c>
-      <c r="F4">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G4">
-        <v>7468.537699751485</v>
-      </c>
-      <c r="H4">
-        <v>6753.0400000000072</v>
-      </c>
-      <c r="I4">
-        <v>6023.912116736592</v>
-      </c>
-      <c r="J4">
-        <v>6483.4082088538125</v>
-      </c>
-      <c r="K4">
-        <v>446.50000000010687</v>
-      </c>
-      <c r="L4">
-        <v>1085.803699305774</v>
-      </c>
-      <c r="M4">
-        <v>639.50562092495773</v>
-      </c>
-      <c r="N4">
-        <v>7153.7300000000005</v>
-      </c>
-      <c r="O4">
-        <v>6042.4240225384283</v>
-      </c>
-      <c r="P4">
-        <v>3585.3369698134907</v>
-      </c>
-      <c r="Q4">
-        <v>9307.2371990722277</v>
+        <v>9307.8150842545765</v>
       </c>
     </row>
   </sheetData>
@@ -8601,7 +6329,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q3"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -8656,161 +6384,108 @@
     </row>
     <row r="2">
       <c r="A2" s="54">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B2">
-        <v>128.44608173755049</v>
+        <v>127.58030562215745</v>
       </c>
       <c r="C2">
-        <v>663.9891018879531</v>
+        <v>664.63507464248369</v>
       </c>
       <c r="D2">
-        <v>4942.3311385954839</v>
+        <v>4904.8724891622805</v>
       </c>
       <c r="E2">
-        <v>83.925559340675676</v>
+        <v>58.460719008264398</v>
       </c>
       <c r="F2">
         <v>639.99999999966485</v>
       </c>
       <c r="G2">
-        <v>7467.0907937489847</v>
+        <v>7464.6211471571369</v>
       </c>
       <c r="H2">
-        <v>6753.0400000001837</v>
+        <v>6753.0390430251737</v>
       </c>
       <c r="I2">
-        <v>6025.8483728491765</v>
+        <v>6025.2653440362392</v>
       </c>
       <c r="J2">
-        <v>6487.6793951450218</v>
+        <v>6488.0568461016146</v>
       </c>
       <c r="K2">
-        <v>447.49999999907499</v>
+        <v>447.50000000006378</v>
       </c>
       <c r="L2">
-        <v>1082.4524035953327</v>
+        <v>1082.5710849351688</v>
       </c>
       <c r="M2">
-        <v>635.99722949062857</v>
+        <v>638.00068114730868</v>
       </c>
       <c r="N2">
-        <v>7153.730000000015</v>
+        <v>7153.7290377295694</v>
       </c>
       <c r="O2">
-        <v>6041.7332229625536</v>
+        <v>6039.3730708418498</v>
       </c>
       <c r="P2">
-        <v>3593.148944819367</v>
+        <v>3587.9925582049145</v>
       </c>
       <c r="Q2">
-        <v>9309.5099928246764</v>
+        <v>9308.4999999999891</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="54">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B3">
-        <v>128.5372938417454</v>
+        <v>126.65439952715235</v>
       </c>
       <c r="C3">
-        <v>661.38196027942183</v>
+        <v>680.23414659738125</v>
       </c>
       <c r="D3">
-        <v>4919.9511443268866</v>
+        <v>4874.0102480311907</v>
       </c>
       <c r="E3">
-        <v>83.114670329686135</v>
+        <v>57.558842975206559</v>
       </c>
       <c r="F3">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G3">
-        <v>7468.3991028746259</v>
+        <v>7465.4005985011518</v>
       </c>
       <c r="H3">
-        <v>6753.0390355238924</v>
+        <v>6753.0399999999836</v>
       </c>
       <c r="I3">
-        <v>6025.9096945542615</v>
+        <v>6024.6385022807854</v>
       </c>
       <c r="J3">
-        <v>6481.4365560888082</v>
+        <v>6483.494759040017</v>
       </c>
       <c r="K3">
-        <v>447.49999999999727</v>
+        <v>446.50000000010533</v>
       </c>
       <c r="L3">
-        <v>1081.9727919866766</v>
+        <v>1085.4196110155124</v>
       </c>
       <c r="M3">
-        <v>638.00068114730971</v>
+        <v>639.00563909789298</v>
       </c>
       <c r="N3">
-        <v>7153.7290312053865</v>
+        <v>7153.7299999999959</v>
       </c>
       <c r="O3">
-        <v>6041.4184362282876</v>
+        <v>6038.7456788774934</v>
       </c>
       <c r="P3">
-        <v>3590.0853487916538</v>
+        <v>3583.6330880193368</v>
       </c>
       <c r="Q3">
-        <v>9308.4999999999891</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="54">
-        <v>44166</v>
-      </c>
-      <c r="B4">
-        <v>126.37740422987585</v>
-      </c>
-      <c r="C4">
-        <v>677.0828572146944</v>
-      </c>
-      <c r="D4">
-        <v>4893.5703853611913</v>
-      </c>
-      <c r="E4">
-        <v>80.817559340675672</v>
-      </c>
-      <c r="F4">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G4">
-        <v>7469.0956150411339</v>
-      </c>
-      <c r="H4">
-        <v>6753.0400000000072</v>
-      </c>
-      <c r="I4">
-        <v>6024.4503370388147</v>
-      </c>
-      <c r="J4">
-        <v>6471.4063875978709</v>
-      </c>
-      <c r="K4">
-        <v>446.50000000010687</v>
-      </c>
-      <c r="L4">
-        <v>1084.8467995829906</v>
-      </c>
-      <c r="M4">
-        <v>639.50562092495773</v>
-      </c>
-      <c r="N4">
-        <v>7153.7300000000005</v>
-      </c>
-      <c r="O4">
-        <v>6040.9479827451778</v>
-      </c>
-      <c r="P4">
-        <v>3586.4080662701831</v>
-      </c>
-      <c r="Q4">
-        <v>9307.9072816444295</v>
+        <v>9307.7988486941013</v>
       </c>
     </row>
   </sheetData>
@@ -8819,7 +6494,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q3"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -8874,161 +6549,108 @@
     </row>
     <row r="2">
       <c r="A2" s="61">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B2">
-        <v>127.70560152932694</v>
+        <v>127.56496545516697</v>
       </c>
       <c r="C2">
-        <v>664.00034185760785</v>
+        <v>659.32643713449067</v>
       </c>
       <c r="D2">
-        <v>4938.9094638280121</v>
+        <v>4905.6154407773529</v>
       </c>
       <c r="E2">
-        <v>64.657389011005336</v>
+        <v>58.061719008264411</v>
       </c>
       <c r="F2">
         <v>639.99999999966485</v>
       </c>
       <c r="G2">
-        <v>7466.4585140976278</v>
+        <v>7464.1102780196888</v>
       </c>
       <c r="H2">
-        <v>6753.0400000001837</v>
+        <v>6753.0390430251737</v>
       </c>
       <c r="I2">
-        <v>6025.3498892256321</v>
+        <v>6025.2549851891199</v>
       </c>
       <c r="J2">
-        <v>6490.8916984028847</v>
+        <v>6488.2714888149567</v>
       </c>
       <c r="K2">
-        <v>447.49999999907499</v>
+        <v>447.50000000006378</v>
       </c>
       <c r="L2">
-        <v>1082.4544710556377</v>
+        <v>1081.5938854542114</v>
       </c>
       <c r="M2">
-        <v>635.99722949062857</v>
+        <v>638.00068114730868</v>
       </c>
       <c r="N2">
-        <v>7153.730000000015</v>
+        <v>7153.7290377295694</v>
       </c>
       <c r="O2">
-        <v>6041.6687893341959</v>
+        <v>6039.3042925785776</v>
       </c>
       <c r="P2">
-        <v>3592.6837473195601</v>
+        <v>3588.0962346091605</v>
       </c>
       <c r="Q2">
-        <v>9308.5522008029329</v>
+        <v>9308.4999999999891</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="61">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B3">
-        <v>127.01591331377794</v>
+        <v>126.64471811792133</v>
       </c>
       <c r="C3">
-        <v>658.04003520173546</v>
+        <v>675.27328112111536</v>
       </c>
       <c r="D3">
-        <v>4918.6272795668647</v>
+        <v>4873.6067108834168</v>
       </c>
       <c r="E3">
-        <v>62.788505494521289</v>
+        <v>57.705842975206551</v>
       </c>
       <c r="F3">
-        <v>639.99999999966485</v>
+        <v>719.9999999998256</v>
       </c>
       <c r="G3">
-        <v>7468.0346242076348</v>
+        <v>7464.6374398720109</v>
       </c>
       <c r="H3">
-        <v>6753.0390355238924</v>
+        <v>6753.0399999999836</v>
       </c>
       <c r="I3">
-        <v>6024.8836452182077</v>
+        <v>6024.6319355568876</v>
       </c>
       <c r="J3">
-        <v>6487.6475900885562</v>
+        <v>6483.84368208252</v>
       </c>
       <c r="K3">
-        <v>447.49999999999727</v>
+        <v>446.50000000010533</v>
       </c>
       <c r="L3">
-        <v>1081.3564816993523</v>
+        <v>1084.5174131877961</v>
       </c>
       <c r="M3">
-        <v>638.00068114730971</v>
+        <v>639.00563909789298</v>
       </c>
       <c r="N3">
-        <v>7153.7290312053865</v>
+        <v>7153.7299999999959</v>
       </c>
       <c r="O3">
-        <v>6042.5443240549785</v>
+        <v>6038.4856144384539</v>
       </c>
       <c r="P3">
-        <v>3589.9025328252646</v>
+        <v>3583.575387248688</v>
       </c>
       <c r="Q3">
-        <v>9308.2005549652076</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="61">
-        <v>44166</v>
-      </c>
-      <c r="B4">
-        <v>125.77232338186099</v>
-      </c>
-      <c r="C4">
-        <v>670.64172585767483</v>
-      </c>
-      <c r="D4">
-        <v>4890.0865595951027</v>
-      </c>
-      <c r="E4">
-        <v>60.57638901100534</v>
-      </c>
-      <c r="F4">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G4">
-        <v>7469.1909100024805</v>
-      </c>
-      <c r="H4">
-        <v>6753.0400000000072</v>
-      </c>
-      <c r="I4">
-        <v>6024.0380893484862</v>
-      </c>
-      <c r="J4">
-        <v>6482.8949605484895</v>
-      </c>
-      <c r="K4">
-        <v>446.50000000010687</v>
-      </c>
-      <c r="L4">
-        <v>1083.6719000273574</v>
-      </c>
-      <c r="M4">
-        <v>639.50562092495773</v>
-      </c>
-      <c r="N4">
-        <v>7153.7300000000005</v>
-      </c>
-      <c r="O4">
-        <v>6042.3453108574513</v>
-      </c>
-      <c r="P4">
-        <v>3585.9169066008362</v>
-      </c>
-      <c r="Q4">
-        <v>9307.4753377566904</v>
+        <v>9307.7910443236524</v>
       </c>
     </row>
   </sheetData>

--- a/Output Data/MtomToCrss_Monthly.xlsx
+++ b/Output Data/MtomToCrss_Monthly.xlsx
@@ -719,7 +719,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q2"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -773,109 +773,56 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5">
-        <v>44136</v>
+      <c r="A2" s="2">
+        <v>44166</v>
       </c>
       <c r="B2">
-        <v>127.58388114980184</v>
+        <v>126.6415096846172</v>
       </c>
       <c r="C2">
-        <v>659.4143042190999</v>
+        <v>671.9329339090275</v>
       </c>
       <c r="D2">
-        <v>4902.5299653692073</v>
+        <v>4869.5670756895406</v>
       </c>
       <c r="E2">
-        <v>58.553719008264402</v>
+        <v>54.738422287867714</v>
       </c>
       <c r="F2">
-        <v>639.99999999966485</v>
+        <v>714.99999999999989</v>
       </c>
       <c r="G2">
-        <v>7463.6047210161732</v>
+        <v>7464.1816264736835</v>
       </c>
       <c r="H2">
-        <v>6753.0390430251737</v>
+        <v>6753.0400000000045</v>
       </c>
       <c r="I2">
-        <v>6025.2677585043648</v>
+        <v>6024.6298586023695</v>
       </c>
       <c r="J2">
-        <v>6488.0568461016146</v>
+        <v>6483.4722157261394</v>
       </c>
       <c r="K2">
-        <v>447.50000000006378</v>
+        <v>446.49999996677309</v>
       </c>
       <c r="L2">
-        <v>1081.6100824288158</v>
+        <v>1083.9079908384958</v>
       </c>
       <c r="M2">
-        <v>638.00068114730868</v>
+        <v>639.80540361452881</v>
       </c>
       <c r="N2">
-        <v>7153.7290377295694</v>
+        <v>7153.7300000000005</v>
       </c>
       <c r="O2">
-        <v>6038.2717914819887</v>
+        <v>6037.4431109605039</v>
       </c>
       <c r="P2">
-        <v>3587.6652841391747</v>
+        <v>3582.9967514315226</v>
       </c>
       <c r="Q2">
-        <v>9308.4999999999891</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="5">
-        <v>44166</v>
-      </c>
-      <c r="B3">
-        <v>126.64951377642015</v>
-      </c>
-      <c r="C3">
-        <v>676.88563638776748</v>
-      </c>
-      <c r="D3">
-        <v>4870.2542943499611</v>
-      </c>
-      <c r="E3">
-        <v>57.338842975206539</v>
-      </c>
-      <c r="F3">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G3">
-        <v>7463.9836448912583</v>
-      </c>
-      <c r="H3">
-        <v>6753.0399999999836</v>
-      </c>
-      <c r="I3">
-        <v>6024.6351883869947</v>
-      </c>
-      <c r="J3">
-        <v>6483.5529049722363</v>
-      </c>
-      <c r="K3">
-        <v>446.50000000010533</v>
-      </c>
-      <c r="L3">
-        <v>1084.8108995330408</v>
-      </c>
-      <c r="M3">
-        <v>639.00563909789298</v>
-      </c>
-      <c r="N3">
-        <v>7153.7299999999959</v>
-      </c>
-      <c r="O3">
-        <v>6037.349263086272</v>
-      </c>
-      <c r="P3">
-        <v>3583.0953125085152</v>
-      </c>
-      <c r="Q3">
-        <v>9307.7812888605949</v>
+        <v>9307.7206567066005</v>
       </c>
     </row>
   </sheetData>
@@ -884,7 +831,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q2"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -938,109 +885,56 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="68">
-        <v>44136</v>
+      <c r="A2" s="65">
+        <v>44166</v>
       </c>
       <c r="B2">
-        <v>127.50760322672146</v>
+        <v>126.64166351049538</v>
       </c>
       <c r="C2">
-        <v>656.56905380487433</v>
+        <v>673.33803937230971</v>
       </c>
       <c r="D2">
-        <v>4902.0833072371561</v>
+        <v>4869.4250452063579</v>
       </c>
       <c r="E2">
-        <v>56.5697190082644</v>
+        <v>54.742422287867711</v>
       </c>
       <c r="F2">
-        <v>639.99999999966485</v>
+        <v>714.99999999999989</v>
       </c>
       <c r="G2">
-        <v>7463.5956342160862</v>
+        <v>7464.1646235934486</v>
       </c>
       <c r="H2">
-        <v>6753.0390430251737</v>
+        <v>6753.0400000000045</v>
       </c>
       <c r="I2">
-        <v>6025.2162498510152</v>
+        <v>6024.6299629321484</v>
       </c>
       <c r="J2">
-        <v>6489.8479485023836</v>
+        <v>6483.4652908692642</v>
       </c>
       <c r="K2">
-        <v>447.50000000006378</v>
+        <v>446.49999996677309</v>
       </c>
       <c r="L2">
-        <v>1081.0848073779332</v>
+        <v>1084.1645002188668</v>
       </c>
       <c r="M2">
-        <v>638.00068114730868</v>
+        <v>639.80540361452881</v>
       </c>
       <c r="N2">
-        <v>7153.7290377295694</v>
+        <v>7153.7300000000005</v>
       </c>
       <c r="O2">
-        <v>6038.3423587224297</v>
+        <v>6037.4480194502103</v>
       </c>
       <c r="P2">
-        <v>3587.6028213908648</v>
+        <v>3582.9763684221757</v>
       </c>
       <c r="Q2">
-        <v>9308.4999999999891</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="68">
-        <v>44166</v>
-      </c>
-      <c r="B3">
-        <v>126.55649987186634</v>
-      </c>
-      <c r="C3">
-        <v>674.23495985768</v>
-      </c>
-      <c r="D3">
-        <v>4869.3127812512021</v>
-      </c>
-      <c r="E3">
-        <v>56.902842975206546</v>
-      </c>
-      <c r="F3">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G3">
-        <v>7463.9313179892124</v>
-      </c>
-      <c r="H3">
-        <v>6753.0399999999836</v>
-      </c>
-      <c r="I3">
-        <v>6024.5720988852736</v>
-      </c>
-      <c r="J3">
-        <v>6485.9568319140435</v>
-      </c>
-      <c r="K3">
-        <v>446.50000000010533</v>
-      </c>
-      <c r="L3">
-        <v>1084.3280489467352</v>
-      </c>
-      <c r="M3">
-        <v>639.00563909789298</v>
-      </c>
-      <c r="N3">
-        <v>7153.7299999999959</v>
-      </c>
-      <c r="O3">
-        <v>6037.4203113932645</v>
-      </c>
-      <c r="P3">
-        <v>3582.9602472190832</v>
-      </c>
-      <c r="Q3">
-        <v>9307.7715333975339</v>
+        <v>9307.7206567066005</v>
       </c>
     </row>
   </sheetData>
@@ -1049,7 +943,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q2"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -1103,109 +997,56 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="75">
-        <v>44136</v>
+      <c r="A2" s="72">
+        <v>44166</v>
       </c>
       <c r="B2">
-        <v>127.5732699064701</v>
+        <v>126.64097129404357</v>
       </c>
       <c r="C2">
-        <v>657.79559257120445</v>
+        <v>670.31892277339284</v>
       </c>
       <c r="D2">
-        <v>4901.3702529867378</v>
+        <v>4869.0261164401836</v>
       </c>
       <c r="E2">
-        <v>58.277719008264398</v>
+        <v>54.724422287867711</v>
       </c>
       <c r="F2">
-        <v>639.99999999966485</v>
+        <v>714.99999999999989</v>
       </c>
       <c r="G2">
-        <v>7463.5746405745049</v>
+        <v>7464.1928577340223</v>
       </c>
       <c r="H2">
-        <v>6753.0390430251737</v>
+        <v>6753.0400000000045</v>
       </c>
       <c r="I2">
-        <v>6025.2605929860565</v>
+        <v>6024.6294934481421</v>
       </c>
       <c r="J2">
-        <v>6488.127513493956</v>
+        <v>6483.4767759977394</v>
       </c>
       <c r="K2">
-        <v>447.50000000006378</v>
+        <v>446.49999996677309</v>
       </c>
       <c r="L2">
-        <v>1081.3113356133508</v>
+        <v>1083.6129404871836</v>
       </c>
       <c r="M2">
-        <v>638.00068114730868</v>
+        <v>639.80540361452881</v>
       </c>
       <c r="N2">
-        <v>7153.7290377295694</v>
+        <v>7153.7300000000005</v>
       </c>
       <c r="O2">
-        <v>6037.9997365440231</v>
+        <v>6037.382321203374</v>
       </c>
       <c r="P2">
-        <v>3587.5030518594658</v>
+        <v>3582.9191175517199</v>
       </c>
       <c r="Q2">
-        <v>9308.4999999999891</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="75">
-        <v>44166</v>
-      </c>
-      <c r="B3">
-        <v>126.63467676251788</v>
-      </c>
-      <c r="C3">
-        <v>673.67322003583081</v>
-      </c>
-      <c r="D3">
-        <v>4867.6817371065954</v>
-      </c>
-      <c r="E3">
-        <v>57.228842975206547</v>
-      </c>
-      <c r="F3">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G3">
-        <v>7463.8888644681265</v>
-      </c>
-      <c r="H3">
-        <v>6753.0399999999836</v>
-      </c>
-      <c r="I3">
-        <v>6024.6251247353748</v>
-      </c>
-      <c r="J3">
-        <v>6483.64932306224</v>
-      </c>
-      <c r="K3">
-        <v>446.50000000010533</v>
-      </c>
-      <c r="L3">
-        <v>1084.2255806205576</v>
-      </c>
-      <c r="M3">
-        <v>639.00563909789298</v>
-      </c>
-      <c r="N3">
-        <v>7153.7299999999959</v>
-      </c>
-      <c r="O3">
-        <v>6036.8393256280706</v>
-      </c>
-      <c r="P3">
-        <v>3582.7260343969197</v>
-      </c>
-      <c r="Q3">
-        <v>9307.7715333975339</v>
+        <v>9307.7206567066005</v>
       </c>
     </row>
   </sheetData>
@@ -1214,7 +1055,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q2"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -1268,109 +1109,56 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="82">
-        <v>44136</v>
+      <c r="A2" s="79">
+        <v>44166</v>
       </c>
       <c r="B2">
-        <v>127.57027107683285</v>
+        <v>126.6410866634522</v>
       </c>
       <c r="C2">
-        <v>658.89260003548611</v>
+        <v>673.2760226907543</v>
       </c>
       <c r="D2">
-        <v>4902.8896747049375</v>
+        <v>4869.5692960722881</v>
       </c>
       <c r="E2">
-        <v>58.19971900826441</v>
+        <v>54.727422287867704</v>
       </c>
       <c r="F2">
-        <v>639.99999999966485</v>
+        <v>714.99999999999989</v>
       </c>
       <c r="G2">
-        <v>7465.4543433218578</v>
+        <v>7464.1945736210191</v>
       </c>
       <c r="H2">
-        <v>6753.0390430251737</v>
+        <v>6753.0400000000045</v>
       </c>
       <c r="I2">
-        <v>6025.2585679482736</v>
+        <v>6024.6295716954764</v>
       </c>
       <c r="J2">
-        <v>6488.8016603618134</v>
+        <v>6483.4740736145686</v>
       </c>
       <c r="K2">
-        <v>447.50000000006378</v>
+        <v>446.49999996677309</v>
       </c>
       <c r="L2">
-        <v>1081.5139141144807</v>
+        <v>1084.1531874148554</v>
       </c>
       <c r="M2">
-        <v>638.00068114730868</v>
+        <v>639.80540361452881</v>
       </c>
       <c r="N2">
-        <v>7153.7290377295694</v>
+        <v>7153.7300000000005</v>
       </c>
       <c r="O2">
-        <v>6038.9674646500798</v>
+        <v>6037.4043150130192</v>
       </c>
       <c r="P2">
-        <v>3587.7155790932461</v>
+        <v>3582.9970700820072</v>
       </c>
       <c r="Q2">
-        <v>9308.4999999999891</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="82">
-        <v>44166</v>
-      </c>
-      <c r="B3">
-        <v>126.63048703719545</v>
-      </c>
-      <c r="C3">
-        <v>677.84105685635393</v>
-      </c>
-      <c r="D3">
-        <v>4870.9507629935842</v>
-      </c>
-      <c r="E3">
-        <v>57.197842975206541</v>
-      </c>
-      <c r="F3">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G3">
-        <v>7466.4457811340926</v>
-      </c>
-      <c r="H3">
-        <v>6753.0399999999836</v>
-      </c>
-      <c r="I3">
-        <v>6024.6222829279623</v>
-      </c>
-      <c r="J3">
-        <v>6484.5302024441698</v>
-      </c>
-      <c r="K3">
-        <v>446.50000000010533</v>
-      </c>
-      <c r="L3">
-        <v>1084.9848085382193</v>
-      </c>
-      <c r="M3">
-        <v>639.00563909789298</v>
-      </c>
-      <c r="N3">
-        <v>7153.7299999999959</v>
-      </c>
-      <c r="O3">
-        <v>6038.0559508896577</v>
-      </c>
-      <c r="P3">
-        <v>3583.1951553446529</v>
-      </c>
-      <c r="Q3">
-        <v>9308.0563315758445</v>
+        <v>9307.7206567066005</v>
       </c>
     </row>
   </sheetData>
@@ -1379,7 +1167,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q2"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -1433,109 +1221,56 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="89">
-        <v>44136</v>
+      <c r="A2" s="86">
+        <v>44166</v>
       </c>
       <c r="B2">
-        <v>127.55681478999914</v>
+        <v>126.64166351049538</v>
       </c>
       <c r="C2">
-        <v>659.39725557291058</v>
+        <v>675.66742270508212</v>
       </c>
       <c r="D2">
-        <v>4904.2622923596391</v>
+        <v>4869.5897976070883</v>
       </c>
       <c r="E2">
-        <v>57.849719008264401</v>
+        <v>54.742422287867711</v>
       </c>
       <c r="F2">
-        <v>639.99999999966485</v>
+        <v>714.99999999999989</v>
       </c>
       <c r="G2">
-        <v>7464.0123196255063</v>
+        <v>7464.1654035420825</v>
       </c>
       <c r="H2">
-        <v>6753.0390430251737</v>
+        <v>6753.0400000000045</v>
       </c>
       <c r="I2">
-        <v>6025.2494812402738</v>
+        <v>6024.6299629321484</v>
       </c>
       <c r="J2">
-        <v>6488.740798093595</v>
+        <v>6483.4654597682129</v>
       </c>
       <c r="K2">
-        <v>447.50000000006378</v>
+        <v>446.49999996677309</v>
       </c>
       <c r="L2">
-        <v>1081.6069397674814</v>
+        <v>1084.5892254133714</v>
       </c>
       <c r="M2">
-        <v>638.00068114730868</v>
+        <v>639.80540361452881</v>
       </c>
       <c r="N2">
-        <v>7153.7290377295694</v>
+        <v>7153.7300000000005</v>
       </c>
       <c r="O2">
-        <v>6038.6606678905218</v>
+        <v>6037.4289518555825</v>
       </c>
       <c r="P2">
-        <v>3587.9073643844781</v>
+        <v>3583.0000122812894</v>
       </c>
       <c r="Q2">
-        <v>9308.4999999999891</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="89">
-        <v>44166</v>
-      </c>
-      <c r="B3">
-        <v>126.61161402372004</v>
-      </c>
-      <c r="C3">
-        <v>680.99208853901098</v>
-      </c>
-      <c r="D3">
-        <v>4872.2336480997737</v>
-      </c>
-      <c r="E3">
-        <v>57.056842975206557</v>
-      </c>
-      <c r="F3">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G3">
-        <v>7464.4838759761478</v>
-      </c>
-      <c r="H3">
-        <v>6753.0399999999836</v>
-      </c>
-      <c r="I3">
-        <v>6024.6094817381345</v>
-      </c>
-      <c r="J3">
-        <v>6484.4841608270708</v>
-      </c>
-      <c r="K3">
-        <v>446.50000000010533</v>
-      </c>
-      <c r="L3">
-        <v>1085.5571797989503</v>
-      </c>
-      <c r="M3">
-        <v>639.00563909789298</v>
-      </c>
-      <c r="N3">
-        <v>7153.7299999999959</v>
-      </c>
-      <c r="O3">
-        <v>6037.7629644450108</v>
-      </c>
-      <c r="P3">
-        <v>3583.3789145674773</v>
-      </c>
-      <c r="Q3">
-        <v>9307.897551787044</v>
+        <v>9307.7206567066005</v>
       </c>
     </row>
   </sheetData>
@@ -1544,7 +1279,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q2"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -1598,109 +1333,56 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="96">
-        <v>44136</v>
+      <c r="A2" s="93">
+        <v>44166</v>
       </c>
       <c r="B2">
-        <v>127.59283919217972</v>
+        <v>126.64170196696496</v>
       </c>
       <c r="C2">
-        <v>659.41467191228105</v>
+        <v>671.46682437029233</v>
       </c>
       <c r="D2">
-        <v>4902.7224368406278</v>
+        <v>4869.501944462243</v>
       </c>
       <c r="E2">
-        <v>58.786719008264406</v>
+        <v>54.743422287867702</v>
       </c>
       <c r="F2">
-        <v>639.99999999966485</v>
+        <v>714.99999999999989</v>
       </c>
       <c r="G2">
-        <v>7464.1957576375407</v>
+        <v>7464.1654035420825</v>
       </c>
       <c r="H2">
-        <v>6753.0390430251737</v>
+        <v>6753.0400000000045</v>
       </c>
       <c r="I2">
-        <v>6025.2738076556907</v>
+        <v>6024.6299890145938</v>
       </c>
       <c r="J2">
-        <v>6488.7697090630754</v>
+        <v>6483.4649530713687</v>
       </c>
       <c r="K2">
-        <v>447.50000000006378</v>
+        <v>446.49999996677309</v>
       </c>
       <c r="L2">
-        <v>1081.6101502075198</v>
+        <v>1083.8227833828132</v>
       </c>
       <c r="M2">
-        <v>638.00068114730868</v>
+        <v>639.80540361452881</v>
       </c>
       <c r="N2">
-        <v>7153.7290377295694</v>
+        <v>7153.7300000000005</v>
       </c>
       <c r="O2">
-        <v>6038.1429336392184</v>
+        <v>6037.4292350376809</v>
       </c>
       <c r="P2">
-        <v>3587.6922002439383</v>
+        <v>3582.9874043506338</v>
       </c>
       <c r="Q2">
-        <v>9308.4999999999891</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="96">
-        <v>44166</v>
-      </c>
-      <c r="B3">
-        <v>126.65608415489335</v>
-      </c>
-      <c r="C3">
-        <v>676.21216722923066</v>
-      </c>
-      <c r="D3">
-        <v>4869.914077840649</v>
-      </c>
-      <c r="E3">
-        <v>57.276842975206556</v>
-      </c>
-      <c r="F3">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G3">
-        <v>7464.673118565629</v>
-      </c>
-      <c r="H3">
-        <v>6753.0399999999836</v>
-      </c>
-      <c r="I3">
-        <v>6024.63964495244</v>
-      </c>
-      <c r="J3">
-        <v>6484.470372013745</v>
-      </c>
-      <c r="K3">
-        <v>446.50000000010533</v>
-      </c>
-      <c r="L3">
-        <v>1084.6883123951457</v>
-      </c>
-      <c r="M3">
-        <v>639.00563909789298</v>
-      </c>
-      <c r="N3">
-        <v>7153.7299999999959</v>
-      </c>
-      <c r="O3">
-        <v>6037.0988912279909</v>
-      </c>
-      <c r="P3">
-        <v>3583.04651456908</v>
-      </c>
-      <c r="Q3">
-        <v>9307.7864917742263</v>
+        <v>9307.7206567066005</v>
       </c>
     </row>
   </sheetData>
@@ -1709,7 +1391,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q2"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -1763,109 +1445,56 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="103">
-        <v>44136</v>
+      <c r="A2" s="100">
+        <v>44166</v>
       </c>
       <c r="B2">
-        <v>127.58391959633563</v>
+        <v>126.64170196696496</v>
       </c>
       <c r="C2">
-        <v>655.98294669022653</v>
+        <v>674.18917598972007</v>
       </c>
       <c r="D2">
-        <v>4902.3324619638988</v>
+        <v>4869.188648456905</v>
       </c>
       <c r="E2">
-        <v>58.554719008264399</v>
+        <v>54.743422287867702</v>
       </c>
       <c r="F2">
-        <v>639.99999999966485</v>
+        <v>714.99999999999989</v>
       </c>
       <c r="G2">
-        <v>7463.5746405745049</v>
+        <v>7464.1660275009899</v>
       </c>
       <c r="H2">
-        <v>6753.0390430251737</v>
+        <v>6753.0400000000045</v>
       </c>
       <c r="I2">
-        <v>6025.2677844663876</v>
+        <v>6024.6299890145938</v>
       </c>
       <c r="J2">
-        <v>6487.9884194835158</v>
+        <v>6483.4649530713687</v>
       </c>
       <c r="K2">
-        <v>447.50000000006378</v>
+        <v>446.49999996677309</v>
       </c>
       <c r="L2">
-        <v>1080.9765034185759</v>
+        <v>1084.3197607307461</v>
       </c>
       <c r="M2">
-        <v>638.00068114730868</v>
+        <v>639.80540361452881</v>
       </c>
       <c r="N2">
-        <v>7153.7290377295694</v>
+        <v>7153.7300000000005</v>
       </c>
       <c r="O2">
-        <v>6038.3519176314931</v>
+        <v>6037.4019551621986</v>
       </c>
       <c r="P2">
-        <v>3587.6376643453968</v>
+        <v>3582.9424427672166</v>
       </c>
       <c r="Q2">
-        <v>9308.4999999999891</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="103">
-        <v>44166</v>
-      </c>
-      <c r="B3">
-        <v>126.64897539823909</v>
-      </c>
-      <c r="C3">
-        <v>676.33865823820793</v>
-      </c>
-      <c r="D3">
-        <v>4868.6914361667614</v>
-      </c>
-      <c r="E3">
-        <v>57.323842975206553</v>
-      </c>
-      <c r="F3">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G3">
-        <v>7463.8898045123406</v>
-      </c>
-      <c r="H3">
-        <v>6753.0399999999836</v>
-      </c>
-      <c r="I3">
-        <v>6024.6348232166038</v>
-      </c>
-      <c r="J3">
-        <v>6483.3903707509526</v>
-      </c>
-      <c r="K3">
-        <v>446.50000000010533</v>
-      </c>
-      <c r="L3">
-        <v>1084.7113376037232</v>
-      </c>
-      <c r="M3">
-        <v>639.00563909789298</v>
-      </c>
-      <c r="N3">
-        <v>7153.7299999999959</v>
-      </c>
-      <c r="O3">
-        <v>6037.4073752928798</v>
-      </c>
-      <c r="P3">
-        <v>3582.8710605670522</v>
-      </c>
-      <c r="Q3">
-        <v>9307.7715333975339</v>
+        <v>9307.7206567066005</v>
       </c>
     </row>
   </sheetData>
@@ -1874,7 +1503,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q2"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -1928,109 +1557,56 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="110">
-        <v>44136</v>
+      <c r="A2" s="107">
+        <v>44166</v>
       </c>
       <c r="B2">
-        <v>127.58541901115427</v>
+        <v>126.63997142583531</v>
       </c>
       <c r="C2">
-        <v>662.45956718969478</v>
+        <v>672.9446289575834</v>
       </c>
       <c r="D2">
-        <v>4902.8198935832643</v>
+        <v>4870.1651730559852</v>
       </c>
       <c r="E2">
-        <v>58.593719008264401</v>
+        <v>54.698422287867707</v>
       </c>
       <c r="F2">
-        <v>639.99999999966485</v>
+        <v>714.99999999999989</v>
       </c>
       <c r="G2">
-        <v>7463.8533546668514</v>
+        <v>7464.16649547017</v>
       </c>
       <c r="H2">
-        <v>6753.0390430251737</v>
+        <v>6753.0400000000045</v>
       </c>
       <c r="I2">
-        <v>6025.2687969852796</v>
+        <v>6024.6288153045771</v>
       </c>
       <c r="J2">
-        <v>6488.1771882244357</v>
+        <v>6483.4870788335775</v>
       </c>
       <c r="K2">
-        <v>447.50000000006378</v>
+        <v>446.49999996677309</v>
       </c>
       <c r="L2">
-        <v>1082.1710618920833</v>
+        <v>1084.0927360611238</v>
       </c>
       <c r="M2">
-        <v>638.00068114730868</v>
+        <v>639.80540361452881</v>
       </c>
       <c r="N2">
-        <v>7153.7290377295694</v>
+        <v>7153.7300000000005</v>
       </c>
       <c r="O2">
-        <v>6039.4230490926984</v>
+        <v>6037.5038860448549</v>
       </c>
       <c r="P2">
-        <v>3587.7058258799748</v>
+        <v>3583.0825392339143</v>
       </c>
       <c r="Q2">
-        <v>9308.4999999999891</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="110">
-        <v>44166</v>
-      </c>
-      <c r="B3">
-        <v>126.65105103391302</v>
-      </c>
-      <c r="C3">
-        <v>685.62772379934688</v>
-      </c>
-      <c r="D3">
-        <v>4871.1085369930661</v>
-      </c>
-      <c r="E3">
-        <v>57.338842975206539</v>
-      </c>
-      <c r="F3">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G3">
-        <v>7464.2864317496687</v>
-      </c>
-      <c r="H3">
-        <v>6753.0399999999836</v>
-      </c>
-      <c r="I3">
-        <v>6024.6362310790537</v>
-      </c>
-      <c r="J3">
-        <v>6483.6841585035781</v>
-      </c>
-      <c r="K3">
-        <v>446.50000000010533</v>
-      </c>
-      <c r="L3">
-        <v>1086.3966465917838</v>
-      </c>
-      <c r="M3">
-        <v>639.00563909789298</v>
-      </c>
-      <c r="N3">
-        <v>7153.7299999999959</v>
-      </c>
-      <c r="O3">
-        <v>6038.9740446133819</v>
-      </c>
-      <c r="P3">
-        <v>3583.2177626744092</v>
-      </c>
-      <c r="Q3">
-        <v>9307.8650842545776</v>
+        <v>9307.7206567066005</v>
       </c>
     </row>
   </sheetData>
@@ -2039,7 +1615,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q2"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -2093,109 +1669,56 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="117">
-        <v>44136</v>
+      <c r="A2" s="114">
+        <v>44166</v>
       </c>
       <c r="B2">
-        <v>127.5517014010023</v>
+        <v>126.63647188710654</v>
       </c>
       <c r="C2">
-        <v>661.46847614058879</v>
+        <v>669.20435154945744</v>
       </c>
       <c r="D2">
-        <v>4901.5903999732309</v>
+        <v>4869.4493213910846</v>
       </c>
       <c r="E2">
-        <v>57.716719008264398</v>
+        <v>54.607422287867713</v>
       </c>
       <c r="F2">
-        <v>639.99999999966485</v>
+        <v>714.99999999999989</v>
       </c>
       <c r="G2">
-        <v>7463.7424330381946</v>
+        <v>7464.3110979470384</v>
       </c>
       <c r="H2">
-        <v>6753.0390430251737</v>
+        <v>6753.0400000000045</v>
       </c>
       <c r="I2">
-        <v>6025.2460282912334</v>
+        <v>6024.6264418020992</v>
       </c>
       <c r="J2">
-        <v>6488.561389434426</v>
+        <v>6483.6100930758294</v>
       </c>
       <c r="K2">
-        <v>447.50000000006378</v>
+        <v>446.49999996677309</v>
       </c>
       <c r="L2">
-        <v>1081.9887381062299</v>
+        <v>1083.4090176046457</v>
       </c>
       <c r="M2">
-        <v>638.00068114730868</v>
+        <v>639.80540361452881</v>
       </c>
       <c r="N2">
-        <v>7153.7290377295694</v>
+        <v>7153.7300000000005</v>
       </c>
       <c r="O2">
-        <v>6038.167393200647</v>
+        <v>6037.4487746024724</v>
       </c>
       <c r="P2">
-        <v>3587.5338549849871</v>
+        <v>3582.9798523341433</v>
       </c>
       <c r="Q2">
-        <v>9308.4999999999891</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="117">
-        <v>44166</v>
-      </c>
-      <c r="B3">
-        <v>126.58135374319433</v>
-      </c>
-      <c r="C3">
-        <v>674.50780275078444</v>
-      </c>
-      <c r="D3">
-        <v>4869.5390485194657</v>
-      </c>
-      <c r="E3">
-        <v>56.402842975206546</v>
-      </c>
-      <c r="F3">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G3">
-        <v>7464.3017457958031</v>
-      </c>
-      <c r="H3">
-        <v>6753.0399999999836</v>
-      </c>
-      <c r="I3">
-        <v>6024.5889568236344</v>
-      </c>
-      <c r="J3">
-        <v>6485.2698483342538</v>
-      </c>
-      <c r="K3">
-        <v>446.50000000010533</v>
-      </c>
-      <c r="L3">
-        <v>1084.3778174596262</v>
-      </c>
-      <c r="M3">
-        <v>639.00563909789298</v>
-      </c>
-      <c r="N3">
-        <v>7153.7299999999959</v>
-      </c>
-      <c r="O3">
-        <v>6037.1051106972036</v>
-      </c>
-      <c r="P3">
-        <v>3582.992719297803</v>
-      </c>
-      <c r="Q3">
-        <v>9307.9105237660806</v>
+        <v>9307.7206567066005</v>
       </c>
     </row>
   </sheetData>
@@ -2204,7 +1727,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q2"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -2258,109 +1781,56 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="124">
-        <v>44136</v>
+      <c r="A2" s="121">
+        <v>44166</v>
       </c>
       <c r="B2">
-        <v>127.57127068671193</v>
+        <v>126.65120071494304</v>
       </c>
       <c r="C2">
-        <v>660.80472558441193</v>
+        <v>666.81147936692787</v>
       </c>
       <c r="D2">
-        <v>4903.6776168883898</v>
+        <v>4869.5110480315143</v>
       </c>
       <c r="E2">
-        <v>58.225719008264399</v>
+        <v>54.990422287867709</v>
       </c>
       <c r="F2">
-        <v>639.99999999966485</v>
+        <v>714.99999999999989</v>
       </c>
       <c r="G2">
-        <v>7463.6313547405689</v>
+        <v>7464.1816264736835</v>
       </c>
       <c r="H2">
-        <v>6753.0390430251737</v>
+        <v>6753.0400000000045</v>
       </c>
       <c r="I2">
-        <v>6025.2592429608676</v>
+        <v>6024.6364313784625</v>
       </c>
       <c r="J2">
-        <v>6488.1193625319884</v>
+        <v>6483.4649530713687</v>
       </c>
       <c r="K2">
-        <v>447.50000000006378</v>
+        <v>446.49999996677309</v>
       </c>
       <c r="L2">
-        <v>1081.8663853879377</v>
+        <v>1082.9706840486924</v>
       </c>
       <c r="M2">
-        <v>638.00068114730868</v>
+        <v>639.80540361452881</v>
       </c>
       <c r="N2">
-        <v>7153.7290377295694</v>
+        <v>7153.7300000000005</v>
       </c>
       <c r="O2">
-        <v>6038.5180064636806</v>
+        <v>6037.5714060210657</v>
       </c>
       <c r="P2">
-        <v>3587.8256947465807</v>
+        <v>3582.9887108176217</v>
       </c>
       <c r="Q2">
-        <v>9308.4999999999891</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="124">
-        <v>44166</v>
-      </c>
-      <c r="B3">
-        <v>126.62794848890631</v>
-      </c>
-      <c r="C3">
-        <v>671.68665674275837</v>
-      </c>
-      <c r="D3">
-        <v>4874.8182662461741</v>
-      </c>
-      <c r="E3">
-        <v>57.105842975206549</v>
-      </c>
-      <c r="F3">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G3">
-        <v>7464.0361223787922</v>
-      </c>
-      <c r="H3">
-        <v>6753.0399999999836</v>
-      </c>
-      <c r="I3">
-        <v>6024.6205610866182</v>
-      </c>
-      <c r="J3">
-        <v>6483.8464269487822</v>
-      </c>
-      <c r="K3">
-        <v>446.50000000010533</v>
-      </c>
-      <c r="L3">
-        <v>1083.8629142649436</v>
-      </c>
-      <c r="M3">
-        <v>639.00563909789298</v>
-      </c>
-      <c r="N3">
-        <v>7153.7299999999959</v>
-      </c>
-      <c r="O3">
-        <v>6038.0824789246008</v>
-      </c>
-      <c r="P3">
-        <v>3583.7485714936479</v>
-      </c>
-      <c r="Q3">
-        <v>9307.8494998389924</v>
+        <v>9307.7206567066005</v>
       </c>
     </row>
   </sheetData>
@@ -2369,7 +1839,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q2"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -2423,109 +1893,56 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="131">
-        <v>44136</v>
+      <c r="A2" s="128">
+        <v>44166</v>
       </c>
       <c r="B2">
-        <v>127.57949824494742</v>
+        <v>126.64170196696496</v>
       </c>
       <c r="C2">
-        <v>660.19292349443572</v>
+        <v>669.20648599039669</v>
       </c>
       <c r="D2">
-        <v>4901.824902763211</v>
+        <v>4869.3235737148661</v>
       </c>
       <c r="E2">
-        <v>58.439719008264404</v>
+        <v>54.743422287867702</v>
       </c>
       <c r="F2">
-        <v>639.99999999966485</v>
+        <v>714.99999999999989</v>
       </c>
       <c r="G2">
-        <v>7463.5746405745049</v>
+        <v>7464.1661834907172</v>
       </c>
       <c r="H2">
-        <v>6753.0390430251737</v>
+        <v>6753.0400000000045</v>
       </c>
       <c r="I2">
-        <v>6025.2647988337594</v>
+        <v>6024.6299890145938</v>
       </c>
       <c r="J2">
-        <v>6487.9922781632295</v>
+        <v>6483.4649530713687</v>
       </c>
       <c r="K2">
-        <v>447.50000000006378</v>
+        <v>446.49999996677309</v>
       </c>
       <c r="L2">
-        <v>1081.7536091736154</v>
+        <v>1083.4094085357178</v>
       </c>
       <c r="M2">
-        <v>638.00068114730868</v>
+        <v>639.80540361452881</v>
       </c>
       <c r="N2">
-        <v>7153.7290377295694</v>
+        <v>7153.7300000000005</v>
       </c>
       <c r="O2">
-        <v>6038.161676598168</v>
+        <v>6037.421400332958</v>
       </c>
       <c r="P2">
-        <v>3587.5666667849118</v>
+        <v>3582.961806095017</v>
       </c>
       <c r="Q2">
-        <v>9308.4999999999891</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="131">
-        <v>44166</v>
-      </c>
-      <c r="B3">
-        <v>126.64432505909974</v>
-      </c>
-      <c r="C3">
-        <v>670.15772139641842</v>
-      </c>
-      <c r="D3">
-        <v>4868.5251676776961</v>
-      </c>
-      <c r="E3">
-        <v>57.317842975206553</v>
-      </c>
-      <c r="F3">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G3">
-        <v>7463.8888644681265</v>
-      </c>
-      <c r="H3">
-        <v>6753.0399999999836</v>
-      </c>
-      <c r="I3">
-        <v>6024.6316689818568</v>
-      </c>
-      <c r="J3">
-        <v>6483.4022058239161</v>
-      </c>
-      <c r="K3">
-        <v>446.50000000010533</v>
-      </c>
-      <c r="L3">
-        <v>1083.5834222676608</v>
-      </c>
-      <c r="M3">
-        <v>639.00563909789298</v>
-      </c>
-      <c r="N3">
-        <v>7153.7299999999959</v>
-      </c>
-      <c r="O3">
-        <v>6037.1833658130627</v>
-      </c>
-      <c r="P3">
-        <v>3582.847185714415</v>
-      </c>
-      <c r="Q3">
-        <v>9307.7715333975339</v>
+        <v>9307.7206567066005</v>
       </c>
     </row>
   </sheetData>
@@ -2534,7 +1951,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q2"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -2588,109 +2005,56 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="12">
-        <v>44136</v>
+      <c r="A2" s="9">
+        <v>44166</v>
       </c>
       <c r="B2">
-        <v>127.57380815794345</v>
+        <v>126.62616555326792</v>
       </c>
       <c r="C2">
-        <v>661.28492346064286</v>
+        <v>670.55630893776765</v>
       </c>
       <c r="D2">
-        <v>4901.614079649089</v>
+        <v>4869.2437139489084</v>
       </c>
       <c r="E2">
-        <v>58.291719008264408</v>
+        <v>54.339422287867706</v>
       </c>
       <c r="F2">
-        <v>639.99999999966485</v>
+        <v>714.99999999999989</v>
       </c>
       <c r="G2">
-        <v>7463.5746405745049</v>
+        <v>7464.6578550978684</v>
       </c>
       <c r="H2">
-        <v>6753.0390430251737</v>
+        <v>6753.0400000000045</v>
       </c>
       <c r="I2">
-        <v>6025.2609564543764</v>
+        <v>6024.6194517068889</v>
       </c>
       <c r="J2">
-        <v>6488.0019983964357</v>
+        <v>6483.8145525770406</v>
       </c>
       <c r="K2">
-        <v>447.50000000006378</v>
+        <v>446.49999996677309</v>
       </c>
       <c r="L2">
-        <v>1081.9549029322411</v>
+        <v>1083.6563360188695</v>
       </c>
       <c r="M2">
-        <v>638.00068114730868</v>
+        <v>639.80540361452881</v>
       </c>
       <c r="N2">
-        <v>7153.7290377295694</v>
+        <v>7153.7300000000005</v>
       </c>
       <c r="O2">
-        <v>6038.1045105733747</v>
+        <v>6037.5384923836373</v>
       </c>
       <c r="P2">
-        <v>3587.5371682623536</v>
+        <v>3582.9503452992421</v>
       </c>
       <c r="Q2">
-        <v>9308.4999999999891</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="12">
-        <v>44166</v>
-      </c>
-      <c r="B3">
-        <v>126.61214241790465</v>
-      </c>
-      <c r="C3">
-        <v>676.1204979037326</v>
-      </c>
-      <c r="D3">
-        <v>4868.1813943111947</v>
-      </c>
-      <c r="E3">
-        <v>56.628842975206553</v>
-      </c>
-      <c r="F3">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G3">
-        <v>7464.0715458792447</v>
-      </c>
-      <c r="H3">
-        <v>6753.0399999999836</v>
-      </c>
-      <c r="I3">
-        <v>6024.6098401698846</v>
-      </c>
-      <c r="J3">
-        <v>6483.8815425514913</v>
-      </c>
-      <c r="K3">
-        <v>446.50000000010533</v>
-      </c>
-      <c r="L3">
-        <v>1084.6716259509558</v>
-      </c>
-      <c r="M3">
-        <v>639.00563909789298</v>
-      </c>
-      <c r="N3">
-        <v>7153.7299999999959</v>
-      </c>
-      <c r="O3">
-        <v>6037.2891117564059</v>
-      </c>
-      <c r="P3">
-        <v>3582.7978213354108</v>
-      </c>
-      <c r="Q3">
-        <v>9307.7910443236524</v>
+        <v>9307.83571542342</v>
       </c>
     </row>
   </sheetData>
@@ -2699,7 +2063,7 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q2"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -2753,109 +2117,56 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="138">
-        <v>44136</v>
+      <c r="A2" s="135">
+        <v>44166</v>
       </c>
       <c r="B2">
-        <v>127.58538056462045</v>
+        <v>126.64185579284315</v>
       </c>
       <c r="C2">
-        <v>659.13789102260364</v>
+        <v>670.94057290880801</v>
       </c>
       <c r="D2">
-        <v>4902.4954078232058</v>
+        <v>4869.3907772992598</v>
       </c>
       <c r="E2">
-        <v>58.592719008264403</v>
+        <v>54.7474222878677</v>
       </c>
       <c r="F2">
-        <v>639.99999999966485</v>
+        <v>714.99999999999989</v>
       </c>
       <c r="G2">
-        <v>7463.6484316579754</v>
+        <v>7464.3744297761732</v>
       </c>
       <c r="H2">
-        <v>6753.0390430251737</v>
+        <v>6753.0400000000045</v>
       </c>
       <c r="I2">
-        <v>6025.2687710232567</v>
+        <v>6024.6300933443727</v>
       </c>
       <c r="J2">
-        <v>6488.0508375046984</v>
+        <v>6483.5438947277071</v>
       </c>
       <c r="K2">
-        <v>447.50000000006378</v>
+        <v>446.49999996677309</v>
       </c>
       <c r="L2">
-        <v>1081.5591298161983</v>
+        <v>1083.7265816432302</v>
       </c>
       <c r="M2">
-        <v>638.00068114730868</v>
+        <v>639.80540361452881</v>
       </c>
       <c r="N2">
-        <v>7153.7290377295694</v>
+        <v>7153.7300000000005</v>
       </c>
       <c r="O2">
-        <v>6038.7601947760031</v>
+        <v>6037.4704852300192</v>
       </c>
       <c r="P2">
-        <v>3587.6604514513906</v>
+        <v>3582.9714505830261</v>
       </c>
       <c r="Q2">
-        <v>9308.4999999999891</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="138">
-        <v>44166</v>
-      </c>
-      <c r="B3">
-        <v>126.64562904603736</v>
-      </c>
-      <c r="C3">
-        <v>677.40701269579893</v>
-      </c>
-      <c r="D3">
-        <v>4871.1382155477295</v>
-      </c>
-      <c r="E3">
-        <v>57.198842975206553</v>
-      </c>
-      <c r="F3">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G3">
-        <v>7464.4118974702878</v>
-      </c>
-      <c r="H3">
-        <v>6753.0399999999836</v>
-      </c>
-      <c r="I3">
-        <v>6024.6325534599528</v>
-      </c>
-      <c r="J3">
-        <v>6483.6797869652437</v>
-      </c>
-      <c r="K3">
-        <v>446.50000000010533</v>
-      </c>
-      <c r="L3">
-        <v>1084.9058022863185</v>
-      </c>
-      <c r="M3">
-        <v>639.00563909789298</v>
-      </c>
-      <c r="N3">
-        <v>7153.7299999999959</v>
-      </c>
-      <c r="O3">
-        <v>6038.2687877538019</v>
-      </c>
-      <c r="P3">
-        <v>3583.2220147868297</v>
-      </c>
-      <c r="Q3">
-        <v>9307.9617492880625</v>
+        <v>9307.8110400987443</v>
       </c>
     </row>
   </sheetData>
@@ -2864,7 +2175,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q2"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -2918,109 +2229,56 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="145">
-        <v>44136</v>
+      <c r="A2" s="142">
+        <v>44166</v>
       </c>
       <c r="B2">
-        <v>127.57503844702538</v>
+        <v>126.64177887990405</v>
       </c>
       <c r="C2">
-        <v>658.05099741765468</v>
+        <v>671.60108700359547</v>
       </c>
       <c r="D2">
-        <v>4901.3716589674923</v>
+        <v>4869.3131379159777</v>
       </c>
       <c r="E2">
-        <v>58.323719008264405</v>
+        <v>54.745422287867711</v>
       </c>
       <c r="F2">
-        <v>639.99999999966485</v>
+        <v>714.99999999999989</v>
       </c>
       <c r="G2">
-        <v>7463.5746405745049</v>
+        <v>7464.1775707407824</v>
       </c>
       <c r="H2">
-        <v>6753.0390430251737</v>
+        <v>6753.0400000000045</v>
       </c>
       <c r="I2">
-        <v>6025.2617872391083</v>
+        <v>6024.6300411794828</v>
       </c>
       <c r="J2">
-        <v>6488.0090854594646</v>
+        <v>6483.4661353640058</v>
       </c>
       <c r="K2">
-        <v>447.50000000006378</v>
+        <v>446.49999996677309</v>
       </c>
       <c r="L2">
-        <v>1081.358506082619</v>
+        <v>1083.8473273503278</v>
       </c>
       <c r="M2">
-        <v>638.00068114730868</v>
+        <v>639.80540361452881</v>
       </c>
       <c r="N2">
-        <v>7153.7290377295694</v>
+        <v>7153.7300000000005</v>
       </c>
       <c r="O2">
-        <v>6038.0640257820469</v>
+        <v>6037.3596666354988</v>
       </c>
       <c r="P2">
-        <v>3587.5032485853098</v>
+        <v>3582.9603084377377</v>
       </c>
       <c r="Q2">
-        <v>9308.4999999999891</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="145">
-        <v>44166</v>
-      </c>
-      <c r="B3">
-        <v>126.63936711070117</v>
-      </c>
-      <c r="C3">
-        <v>673.16460034062345</v>
-      </c>
-      <c r="D3">
-        <v>4867.8156970480604</v>
-      </c>
-      <c r="E3">
-        <v>57.304842975206547</v>
-      </c>
-      <c r="F3">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G3">
-        <v>7463.8888644681265</v>
-      </c>
-      <c r="H3">
-        <v>6753.0399999999836</v>
-      </c>
-      <c r="I3">
-        <v>6024.6283061022195</v>
-      </c>
-      <c r="J3">
-        <v>6483.4349273677735</v>
-      </c>
-      <c r="K3">
-        <v>446.50000000010533</v>
-      </c>
-      <c r="L3">
-        <v>1084.1328022871369</v>
-      </c>
-      <c r="M3">
-        <v>639.00563909789298</v>
-      </c>
-      <c r="N3">
-        <v>7153.7299999999959</v>
-      </c>
-      <c r="O3">
-        <v>6036.9197911064102</v>
-      </c>
-      <c r="P3">
-        <v>3582.7452807401969</v>
-      </c>
-      <c r="Q3">
-        <v>9307.7715333975339</v>
+        <v>9307.7206567066005</v>
       </c>
     </row>
   </sheetData>
@@ -3029,7 +2287,7 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q2"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -3083,109 +2341,56 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="152">
-        <v>44136</v>
+      <c r="A2" s="149">
+        <v>44166</v>
       </c>
       <c r="B2">
-        <v>127.58687997943908</v>
+        <v>126.64170196696496</v>
       </c>
       <c r="C2">
-        <v>657.82852452953409</v>
+        <v>670.44359809254695</v>
       </c>
       <c r="D2">
-        <v>4902.2396671829847</v>
+        <v>4869.3340835265117</v>
       </c>
       <c r="E2">
-        <v>58.631719008264398</v>
+        <v>54.743422287867702</v>
       </c>
       <c r="F2">
-        <v>639.99999999966485</v>
+        <v>714.99999999999989</v>
       </c>
       <c r="G2">
-        <v>7463.6047210161732</v>
+        <v>7464.1824064223192</v>
       </c>
       <c r="H2">
-        <v>6753.0390430251737</v>
+        <v>6753.0400000000045</v>
       </c>
       <c r="I2">
-        <v>6025.2697835421486</v>
+        <v>6024.6299890145938</v>
       </c>
       <c r="J2">
-        <v>6488.0440585748447</v>
+        <v>6483.4649530713687</v>
       </c>
       <c r="K2">
-        <v>447.50000000006378</v>
+        <v>446.49999996677309</v>
       </c>
       <c r="L2">
-        <v>1081.3174177842648</v>
+        <v>1083.6357318397338</v>
       </c>
       <c r="M2">
-        <v>638.00068114730868</v>
+        <v>639.80540361452881</v>
       </c>
       <c r="N2">
-        <v>7153.7290377295694</v>
+        <v>7153.7300000000005</v>
       </c>
       <c r="O2">
-        <v>6038.2610142805934</v>
+        <v>6037.4066748638388</v>
       </c>
       <c r="P2">
-        <v>3587.6246874921203</v>
+        <v>3582.9633143739788</v>
       </c>
       <c r="Q2">
-        <v>9308.4999999999891</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="152">
-        <v>44166</v>
-      </c>
-      <c r="B3">
-        <v>126.65120399339621</v>
-      </c>
-      <c r="C3">
-        <v>673.22690124747646</v>
-      </c>
-      <c r="D3">
-        <v>4868.8618340395478</v>
-      </c>
-      <c r="E3">
-        <v>57.304842975206554</v>
-      </c>
-      <c r="F3">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G3">
-        <v>7463.932255807521</v>
-      </c>
-      <c r="H3">
-        <v>6753.0399999999836</v>
-      </c>
-      <c r="I3">
-        <v>6024.6363348310724</v>
-      </c>
-      <c r="J3">
-        <v>6483.4716540090112</v>
-      </c>
-      <c r="K3">
-        <v>446.50000000010533</v>
-      </c>
-      <c r="L3">
-        <v>1084.1441667693496</v>
-      </c>
-      <c r="M3">
-        <v>639.00563909789298</v>
-      </c>
-      <c r="N3">
-        <v>7153.7299999999959</v>
-      </c>
-      <c r="O3">
-        <v>6037.1938951509837</v>
-      </c>
-      <c r="P3">
-        <v>3582.895528366887</v>
-      </c>
-      <c r="Q3">
-        <v>9307.7715333975339</v>
+        <v>9307.7206567066005</v>
       </c>
     </row>
   </sheetData>
@@ -3194,7 +2399,7 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q2"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -3248,109 +2453,56 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="159">
-        <v>44136</v>
+      <c r="A2" s="156">
+        <v>44166</v>
       </c>
       <c r="B2">
-        <v>127.57261631539531</v>
+        <v>126.64170196696496</v>
       </c>
       <c r="C2">
-        <v>658.14716822402977</v>
+        <v>670.45107230593851</v>
       </c>
       <c r="D2">
-        <v>4901.907263635806</v>
+        <v>4869.4159416370858</v>
       </c>
       <c r="E2">
-        <v>58.260719008264402</v>
+        <v>54.743422287867702</v>
       </c>
       <c r="F2">
-        <v>639.99999999966485</v>
+        <v>714.99999999999989</v>
       </c>
       <c r="G2">
-        <v>7463.620387912877</v>
+        <v>7464.1672754188057</v>
       </c>
       <c r="H2">
-        <v>6753.0390430251737</v>
+        <v>6753.0400000000045</v>
       </c>
       <c r="I2">
-        <v>6025.2601516316681</v>
+        <v>6024.6299890145938</v>
       </c>
       <c r="J2">
-        <v>6488.0993684797859</v>
+        <v>6483.4649530713687</v>
       </c>
       <c r="K2">
-        <v>447.50000000006378</v>
+        <v>446.49999996677309</v>
       </c>
       <c r="L2">
-        <v>1081.3762677740265</v>
+        <v>1083.6370981681589</v>
       </c>
       <c r="M2">
-        <v>638.00068114730868</v>
+        <v>639.80540361452881</v>
       </c>
       <c r="N2">
-        <v>7153.7290377295694</v>
+        <v>7153.7300000000005</v>
       </c>
       <c r="O2">
-        <v>6038.124752969039</v>
+        <v>6037.3658966416642</v>
       </c>
       <c r="P2">
-        <v>3587.5781907777537</v>
+        <v>3582.9750619551878</v>
       </c>
       <c r="Q2">
-        <v>9308.4999999999891</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="159">
-        <v>44166</v>
-      </c>
-      <c r="B3">
-        <v>126.63617685065876</v>
-      </c>
-      <c r="C3">
-        <v>673.37676042747478</v>
-      </c>
-      <c r="D3">
-        <v>4869.1185975309618</v>
-      </c>
-      <c r="E3">
-        <v>57.284842975206544</v>
-      </c>
-      <c r="F3">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G3">
-        <v>7463.9626467326943</v>
-      </c>
-      <c r="H3">
-        <v>6753.0399999999836</v>
-      </c>
-      <c r="I3">
-        <v>6024.6261422119696</v>
-      </c>
-      <c r="J3">
-        <v>6483.557678359899</v>
-      </c>
-      <c r="K3">
-        <v>446.50000000010533</v>
-      </c>
-      <c r="L3">
-        <v>1084.1715027794194</v>
-      </c>
-      <c r="M3">
-        <v>639.00563909789298</v>
-      </c>
-      <c r="N3">
-        <v>7153.7299999999959</v>
-      </c>
-      <c r="O3">
-        <v>6037.0742622174903</v>
-      </c>
-      <c r="P3">
-        <v>3582.9323795160431</v>
-      </c>
-      <c r="Q3">
-        <v>9307.8384608779525</v>
+        <v>9307.7206567066005</v>
       </c>
     </row>
   </sheetData>
@@ -3359,7 +2511,7 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q2"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -3413,109 +2565,56 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="166">
-        <v>44136</v>
+      <c r="A2" s="163">
+        <v>44166</v>
       </c>
       <c r="B2">
-        <v>127.58691842597287</v>
+        <v>126.64120203286082</v>
       </c>
       <c r="C2">
-        <v>659.10086316069146</v>
+        <v>670.78857792487645</v>
       </c>
       <c r="D2">
-        <v>4902.1695901036192</v>
+        <v>4869.3475538484809</v>
       </c>
       <c r="E2">
-        <v>58.632719008264409</v>
+        <v>54.730422287867704</v>
       </c>
       <c r="F2">
-        <v>639.99999999966485</v>
+        <v>714.99999999999989</v>
       </c>
       <c r="G2">
-        <v>7463.5871740918656</v>
+        <v>7464.1678993777132</v>
       </c>
       <c r="H2">
-        <v>6753.0390430251737</v>
+        <v>6753.0400000000045</v>
       </c>
       <c r="I2">
-        <v>6025.2698095041715</v>
+        <v>6024.6296499428108</v>
       </c>
       <c r="J2">
-        <v>6488.0103179921653</v>
+        <v>6483.4722157261394</v>
       </c>
       <c r="K2">
-        <v>447.50000000006378</v>
+        <v>446.49999996677309</v>
       </c>
       <c r="L2">
-        <v>1081.5523042871423</v>
+        <v>1083.698796101648</v>
       </c>
       <c r="M2">
-        <v>638.00068114730868</v>
+        <v>639.80540361452881</v>
       </c>
       <c r="N2">
-        <v>7153.7290377295694</v>
+        <v>7153.7300000000005</v>
       </c>
       <c r="O2">
-        <v>6038.7573938317582</v>
+        <v>6037.4182853298744</v>
       </c>
       <c r="P2">
-        <v>3587.6148875877716</v>
+        <v>3582.9652475202543</v>
       </c>
       <c r="Q2">
-        <v>9308.4999999999891</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="166">
-        <v>44166</v>
-      </c>
-      <c r="B3">
-        <v>126.65158851060455</v>
-      </c>
-      <c r="C3">
-        <v>673.85421056427367</v>
-      </c>
-      <c r="D3">
-        <v>4869.2296559139277</v>
-      </c>
-      <c r="E3">
-        <v>57.313842975206548</v>
-      </c>
-      <c r="F3">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G3">
-        <v>7463.9418172220048</v>
-      </c>
-      <c r="H3">
-        <v>6753.0399999999836</v>
-      </c>
-      <c r="I3">
-        <v>6024.63659564099</v>
-      </c>
-      <c r="J3">
-        <v>6483.421412162812</v>
-      </c>
-      <c r="K3">
-        <v>446.50000000010533</v>
-      </c>
-      <c r="L3">
-        <v>1084.2585951025326</v>
-      </c>
-      <c r="M3">
-        <v>639.00563909789298</v>
-      </c>
-      <c r="N3">
-        <v>7153.7299999999959</v>
-      </c>
-      <c r="O3">
-        <v>6037.8249886494032</v>
-      </c>
-      <c r="P3">
-        <v>3582.9483177318239</v>
-      </c>
-      <c r="Q3">
-        <v>9307.7715333975339</v>
+        <v>9307.7206567066005</v>
       </c>
     </row>
   </sheetData>
@@ -3524,7 +2623,7 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q2"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -3578,109 +2677,56 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="173">
-        <v>44136</v>
+      <c r="A2" s="170">
+        <v>44166</v>
       </c>
       <c r="B2">
-        <v>127.58849473385912</v>
+        <v>126.64112511992174</v>
       </c>
       <c r="C2">
-        <v>666.47436505749181</v>
+        <v>673.91466406553116</v>
       </c>
       <c r="D2">
-        <v>4904.6581136908953</v>
+        <v>4869.9226331350883</v>
       </c>
       <c r="E2">
-        <v>58.673719008264399</v>
+        <v>54.728422287867708</v>
       </c>
       <c r="F2">
-        <v>639.99999999966485</v>
+        <v>714.99999999999989</v>
       </c>
       <c r="G2">
-        <v>7464.1057544632686</v>
+        <v>7464.2005012306427</v>
       </c>
       <c r="H2">
-        <v>6753.0390430251737</v>
+        <v>6753.0400000000045</v>
       </c>
       <c r="I2">
-        <v>6025.2708739471082</v>
+        <v>6024.6295977779209</v>
       </c>
       <c r="J2">
-        <v>6488.0212567198832</v>
+        <v>6483.4733980187757</v>
       </c>
       <c r="K2">
-        <v>447.50000000006378</v>
+        <v>446.49999996677309</v>
       </c>
       <c r="L2">
-        <v>1082.9087562967941</v>
+        <v>1084.2696855009385</v>
       </c>
       <c r="M2">
-        <v>638.00068114730868</v>
+        <v>639.80540361452881</v>
       </c>
       <c r="N2">
-        <v>7153.7290377295694</v>
+        <v>7153.7300000000005</v>
       </c>
       <c r="O2">
-        <v>6039.6901946832804</v>
+        <v>6037.5174276556827</v>
       </c>
       <c r="P2">
-        <v>3587.9626277540528</v>
+        <v>3583.0477513738974</v>
       </c>
       <c r="Q2">
-        <v>9308.4999999999891</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="173">
-        <v>44166</v>
-      </c>
-      <c r="B3">
-        <v>126.65593288570301</v>
-      </c>
-      <c r="C3">
-        <v>686.58073806153402</v>
-      </c>
-      <c r="D3">
-        <v>4873.5158632737657</v>
-      </c>
-      <c r="E3">
-        <v>57.38584297520655</v>
-      </c>
-      <c r="F3">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G3">
-        <v>7464.7409693392046</v>
-      </c>
-      <c r="H3">
-        <v>6753.0399999999836</v>
-      </c>
-      <c r="I3">
-        <v>6024.639542341275</v>
-      </c>
-      <c r="J3">
-        <v>6483.4250987485375</v>
-      </c>
-      <c r="K3">
-        <v>446.50000000010533</v>
-      </c>
-      <c r="L3">
-        <v>1086.5689112872651</v>
-      </c>
-      <c r="M3">
-        <v>639.00563909789298</v>
-      </c>
-      <c r="N3">
-        <v>7153.7299999999959</v>
-      </c>
-      <c r="O3">
-        <v>6039.2314619265944</v>
-      </c>
-      <c r="P3">
-        <v>3583.5623929795147</v>
-      </c>
-      <c r="Q3">
-        <v>9307.846253085745</v>
+        <v>9307.7206567066005</v>
       </c>
     </row>
   </sheetData>
@@ -3689,7 +2735,7 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q2"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -3743,109 +2789,56 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="180">
-        <v>44136</v>
+      <c r="A2" s="177">
+        <v>44166</v>
       </c>
       <c r="B2">
-        <v>127.59133977736111</v>
+        <v>126.64127894579994</v>
       </c>
       <c r="C2">
-        <v>657.87946732448063</v>
+        <v>671.15430882273074</v>
       </c>
       <c r="D2">
-        <v>4904.9975477263997</v>
+        <v>4869.2855311572175</v>
       </c>
       <c r="E2">
-        <v>58.747719008264404</v>
+        <v>54.732422287867713</v>
       </c>
       <c r="F2">
-        <v>639.99999999966485</v>
+        <v>714.99999999999989</v>
       </c>
       <c r="G2">
-        <v>7463.5901508022398</v>
+        <v>7464.173047038702</v>
       </c>
       <c r="H2">
-        <v>6753.0390430251737</v>
+        <v>6753.0400000000045</v>
       </c>
       <c r="I2">
-        <v>6025.2727951367997</v>
+        <v>6024.6297021077007</v>
       </c>
       <c r="J2">
-        <v>6487.9916607744753</v>
+        <v>6483.505644466436</v>
       </c>
       <c r="K2">
-        <v>447.50000000006378</v>
+        <v>446.49999996677309</v>
       </c>
       <c r="L2">
-        <v>1081.3268263588352</v>
+        <v>1083.765653775549</v>
       </c>
       <c r="M2">
-        <v>638.00068114730868</v>
+        <v>639.80540361452881</v>
       </c>
       <c r="N2">
-        <v>7153.7290377295694</v>
+        <v>7153.7300000000005</v>
       </c>
       <c r="O2">
-        <v>6038.1806069867052</v>
+        <v>6037.5134780191911</v>
       </c>
       <c r="P2">
-        <v>3588.0100130656469</v>
+        <v>3582.9563465500419</v>
       </c>
       <c r="Q2">
-        <v>9308.4999999999891</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="180">
-        <v>44166</v>
-      </c>
-      <c r="B3">
-        <v>126.65943052963235</v>
-      </c>
-      <c r="C3">
-        <v>674.21956298252951</v>
-      </c>
-      <c r="D3">
-        <v>4872.2112159173284</v>
-      </c>
-      <c r="E3">
-        <v>57.402842975206546</v>
-      </c>
-      <c r="F3">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G3">
-        <v>7463.9172186692113</v>
-      </c>
-      <c r="H3">
-        <v>6753.0399999999836</v>
-      </c>
-      <c r="I3">
-        <v>6024.6419147243032</v>
-      </c>
-      <c r="J3">
-        <v>6483.4008562798999</v>
-      </c>
-      <c r="K3">
-        <v>446.50000000010533</v>
-      </c>
-      <c r="L3">
-        <v>1084.3252400348242</v>
-      </c>
-      <c r="M3">
-        <v>639.00563909789298</v>
-      </c>
-      <c r="N3">
-        <v>7153.7299999999959</v>
-      </c>
-      <c r="O3">
-        <v>6037.3136214233054</v>
-      </c>
-      <c r="P3">
-        <v>3583.3757024831925</v>
-      </c>
-      <c r="Q3">
-        <v>9307.7715333975339</v>
+        <v>9307.7206567066005</v>
       </c>
     </row>
   </sheetData>
@@ -3854,7 +2847,7 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q2"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -3908,109 +2901,56 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="187">
-        <v>44136</v>
+      <c r="A2" s="184">
+        <v>44166</v>
       </c>
       <c r="B2">
-        <v>127.53605366174136</v>
+        <v>126.64216344459952</v>
       </c>
       <c r="C2">
-        <v>659.65901104355487</v>
+        <v>669.94813690207218</v>
       </c>
       <c r="D2">
-        <v>4901.8736680956808</v>
+        <v>4869.1623739277893</v>
       </c>
       <c r="E2">
-        <v>57.309719008264409</v>
+        <v>54.755422287867709</v>
       </c>
       <c r="F2">
-        <v>639.99999999966485</v>
+        <v>714.99999999999989</v>
       </c>
       <c r="G2">
-        <v>7463.5809073331848</v>
+        <v>7464.1672754188057</v>
       </c>
       <c r="H2">
-        <v>6753.0390430251737</v>
+        <v>6753.0400000000045</v>
       </c>
       <c r="I2">
-        <v>6025.2354617479305</v>
+        <v>6024.6303020039313</v>
       </c>
       <c r="J2">
-        <v>6489.0199904629744</v>
+        <v>6483.5265388822854</v>
       </c>
       <c r="K2">
-        <v>447.50000000006378</v>
+        <v>446.49999996677309</v>
       </c>
       <c r="L2">
-        <v>1081.6551904489443</v>
+        <v>1083.5451587355808</v>
       </c>
       <c r="M2">
-        <v>638.00068114730868</v>
+        <v>639.80540361452881</v>
       </c>
       <c r="N2">
-        <v>7153.7290377295694</v>
+        <v>7153.7300000000005</v>
       </c>
       <c r="O2">
-        <v>6038.0913905021107</v>
+        <v>6037.4184741179406</v>
       </c>
       <c r="P2">
-        <v>3587.5734900654893</v>
+        <v>3582.9386720698117</v>
       </c>
       <c r="Q2">
-        <v>9308.4999999999891</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="187">
-        <v>44166</v>
-      </c>
-      <c r="B3">
-        <v>126.57728679454691</v>
-      </c>
-      <c r="C3">
-        <v>674.60302119905225</v>
-      </c>
-      <c r="D3">
-        <v>4868.776869133696</v>
-      </c>
-      <c r="E3">
-        <v>56.703842975206548</v>
-      </c>
-      <c r="F3">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G3">
-        <v>7463.9015535299168</v>
-      </c>
-      <c r="H3">
-        <v>6753.0399999999836</v>
-      </c>
-      <c r="I3">
-        <v>6024.5861982683045</v>
-      </c>
-      <c r="J3">
-        <v>6485.0221921077391</v>
-      </c>
-      <c r="K3">
-        <v>446.50000000010533</v>
-      </c>
-      <c r="L3">
-        <v>1084.3951869026905</v>
-      </c>
-      <c r="M3">
-        <v>639.00563909789298</v>
-      </c>
-      <c r="N3">
-        <v>7153.7299999999959</v>
-      </c>
-      <c r="O3">
-        <v>6037.0240589642772</v>
-      </c>
-      <c r="P3">
-        <v>3582.8833280719523</v>
-      </c>
-      <c r="Q3">
-        <v>9307.7923450520611</v>
+        <v>9307.7206567066005</v>
       </c>
     </row>
   </sheetData>
@@ -4019,7 +2959,7 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q2"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -4073,109 +3013,56 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="194">
-        <v>44136</v>
+      <c r="A2" s="191">
+        <v>44166</v>
       </c>
       <c r="B2">
-        <v>127.57607650343827</v>
+        <v>126.62978046140539</v>
       </c>
       <c r="C2">
-        <v>660.09560431695581</v>
+        <v>673.51500581759547</v>
       </c>
       <c r="D2">
-        <v>4901.3133477850342</v>
+        <v>4869.4584249603558</v>
       </c>
       <c r="E2">
-        <v>58.350719008264399</v>
+        <v>54.433422287867707</v>
       </c>
       <c r="F2">
-        <v>639.99999999966485</v>
+        <v>714.99999999999989</v>
       </c>
       <c r="G2">
-        <v>7463.5746405745049</v>
+        <v>7464.2472981487217</v>
       </c>
       <c r="H2">
-        <v>6753.0390430251737</v>
+        <v>6753.0400000000045</v>
       </c>
       <c r="I2">
-        <v>6025.2624882137252</v>
+        <v>6024.6219034567011</v>
       </c>
       <c r="J2">
-        <v>6488.0637790980554</v>
+        <v>6483.6459010242688</v>
       </c>
       <c r="K2">
-        <v>447.50000000006378</v>
+        <v>446.49999996677309</v>
       </c>
       <c r="L2">
-        <v>1081.7356698479491</v>
+        <v>1084.1967816415729</v>
       </c>
       <c r="M2">
-        <v>638.00068114730868</v>
+        <v>639.80540361452881</v>
       </c>
       <c r="N2">
-        <v>7153.7290377295694</v>
+        <v>7153.7300000000005</v>
       </c>
       <c r="O2">
-        <v>6038.1029174218638</v>
+        <v>6037.4107338072499</v>
       </c>
       <c r="P2">
-        <v>3587.4950869697564</v>
+        <v>3582.9811588011312</v>
       </c>
       <c r="Q2">
-        <v>9308.4999999999891</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="194">
-        <v>44166</v>
-      </c>
-      <c r="B3">
-        <v>126.62271593121146</v>
-      </c>
-      <c r="C3">
-        <v>678.0105367980442</v>
-      </c>
-      <c r="D3">
-        <v>4868.1114831362565</v>
-      </c>
-      <c r="E3">
-        <v>56.844842975206546</v>
-      </c>
-      <c r="F3">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G3">
-        <v>7464.0021304499833</v>
-      </c>
-      <c r="H3">
-        <v>6753.0399999999836</v>
-      </c>
-      <c r="I3">
-        <v>6024.6170119634471</v>
-      </c>
-      <c r="J3">
-        <v>6483.7592993151766</v>
-      </c>
-      <c r="K3">
-        <v>446.50000000010533</v>
-      </c>
-      <c r="L3">
-        <v>1085.0156279562375</v>
-      </c>
-      <c r="M3">
-        <v>639.00563909789298</v>
-      </c>
-      <c r="N3">
-        <v>7153.7299999999959</v>
-      </c>
-      <c r="O3">
-        <v>6037.0367027989832</v>
-      </c>
-      <c r="P3">
-        <v>3582.7877770307177</v>
-      </c>
-      <c r="Q3">
-        <v>9307.7715333975339</v>
+        <v>9307.7206567066005</v>
       </c>
     </row>
   </sheetData>
@@ -4184,7 +3071,7 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q2"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -4238,109 +3125,56 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="201">
-        <v>44136</v>
+      <c r="A2" s="198">
+        <v>44166</v>
       </c>
       <c r="B2">
-        <v>127.5732699064701</v>
+        <v>126.64097129404357</v>
       </c>
       <c r="C2">
-        <v>660.88240662083945</v>
+        <v>671.86130318417941</v>
       </c>
       <c r="D2">
-        <v>4901.3709929766082</v>
+        <v>4870.5393818528401</v>
       </c>
       <c r="E2">
-        <v>58.277719008264398</v>
+        <v>54.724422287867711</v>
       </c>
       <c r="F2">
-        <v>639.99999999966485</v>
+        <v>714.99999999999989</v>
       </c>
       <c r="G2">
-        <v>7463.5749539124372</v>
+        <v>7464.2003452409162</v>
       </c>
       <c r="H2">
-        <v>6753.0390430251737</v>
+        <v>6753.0400000000045</v>
       </c>
       <c r="I2">
-        <v>6025.2605929860565</v>
+        <v>6024.6294934481421</v>
       </c>
       <c r="J2">
-        <v>6488.0536107032749</v>
+        <v>6483.4762693008952</v>
       </c>
       <c r="K2">
-        <v>447.50000000006378</v>
+        <v>446.49999996677309</v>
       </c>
       <c r="L2">
-        <v>1081.8807047961229</v>
+        <v>1083.894896337513</v>
       </c>
       <c r="M2">
-        <v>638.00068114730868</v>
+        <v>639.80540361452881</v>
       </c>
       <c r="N2">
-        <v>7153.7290377295694</v>
+        <v>7153.7300000000005</v>
       </c>
       <c r="O2">
-        <v>6038.0616829121773</v>
+        <v>6039.0240591417141</v>
       </c>
       <c r="P2">
-        <v>3587.503155399384</v>
+        <v>3583.1361923724135</v>
       </c>
       <c r="Q2">
-        <v>9308.4999999999891</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="201">
-        <v>44166</v>
-      </c>
-      <c r="B3">
-        <v>126.63606110560204</v>
-      </c>
-      <c r="C3">
-        <v>678.49539616147467</v>
-      </c>
-      <c r="D3">
-        <v>4871.0795760669225</v>
-      </c>
-      <c r="E3">
-        <v>57.264842975206548</v>
-      </c>
-      <c r="F3">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G3">
-        <v>7463.910955430415</v>
-      </c>
-      <c r="H3">
-        <v>6753.0399999999836</v>
-      </c>
-      <c r="I3">
-        <v>6024.6260637058376</v>
-      </c>
-      <c r="J3">
-        <v>6483.5345467205079</v>
-      </c>
-      <c r="K3">
-        <v>446.50000000010533</v>
-      </c>
-      <c r="L3">
-        <v>1085.1037165293287</v>
-      </c>
-      <c r="M3">
-        <v>639.00563909789298</v>
-      </c>
-      <c r="N3">
-        <v>7153.7299999999959</v>
-      </c>
-      <c r="O3">
-        <v>6039.3359335956211</v>
-      </c>
-      <c r="P3">
-        <v>3583.2136133783424</v>
-      </c>
-      <c r="Q3">
-        <v>9307.7715333975339</v>
+        <v>9307.7206567066005</v>
       </c>
     </row>
   </sheetData>
@@ -4349,7 +3183,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q2"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -4403,109 +3237,56 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="19">
-        <v>44136</v>
+      <c r="A2" s="16">
+        <v>44166</v>
       </c>
       <c r="B2">
-        <v>127.57588427076921</v>
+        <v>126.62705005206753</v>
       </c>
       <c r="C2">
-        <v>659.49636443444831</v>
+        <v>674.26646738917213</v>
       </c>
       <c r="D2">
-        <v>4901.6515231365383</v>
+        <v>4869.0691918653802</v>
       </c>
       <c r="E2">
-        <v>58.345719008264403</v>
+        <v>54.362422287867709</v>
       </c>
       <c r="F2">
-        <v>639.99999999966485</v>
+        <v>714.99999999999989</v>
       </c>
       <c r="G2">
-        <v>7463.5878007677347</v>
+        <v>7464.4468090094697</v>
       </c>
       <c r="H2">
-        <v>6753.0390430251737</v>
+        <v>6753.0400000000045</v>
       </c>
       <c r="I2">
-        <v>6025.262358403611</v>
+        <v>6024.6200516031195</v>
       </c>
       <c r="J2">
-        <v>6488.0004577305599</v>
+        <v>6484.0570301443404</v>
       </c>
       <c r="K2">
-        <v>447.50000000006378</v>
+        <v>446.49999996677309</v>
       </c>
       <c r="L2">
-        <v>1081.625208994468</v>
+        <v>1084.3338598799464</v>
       </c>
       <c r="M2">
-        <v>638.00068114730868</v>
+        <v>639.80540361452881</v>
       </c>
       <c r="N2">
-        <v>7153.7290377295694</v>
+        <v>7153.7300000000005</v>
       </c>
       <c r="O2">
-        <v>6038.1725475143576</v>
+        <v>6037.3624984564831</v>
       </c>
       <c r="P2">
-        <v>3587.5424073821905</v>
+        <v>3582.9252993711275</v>
       </c>
       <c r="Q2">
-        <v>9308.4999999999891</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="19">
-        <v>44166</v>
-      </c>
-      <c r="B3">
-        <v>126.62363893928709</v>
-      </c>
-      <c r="C3">
-        <v>676.45410491379187</v>
-      </c>
-      <c r="D3">
-        <v>4868.6078598537106</v>
-      </c>
-      <c r="E3">
-        <v>56.87384297520655</v>
-      </c>
-      <c r="F3">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G3">
-        <v>7463.9411903723512</v>
-      </c>
-      <c r="H3">
-        <v>6753.0399999999836</v>
-      </c>
-      <c r="I3">
-        <v>6024.6176380198131</v>
-      </c>
-      <c r="J3">
-        <v>6483.8798732926962</v>
-      </c>
-      <c r="K3">
-        <v>446.50000000010533</v>
-      </c>
-      <c r="L3">
-        <v>1084.7323506910229</v>
-      </c>
-      <c r="M3">
-        <v>639.00563909789298</v>
-      </c>
-      <c r="N3">
-        <v>7153.7299999999959</v>
-      </c>
-      <c r="O3">
-        <v>6037.0509263019394</v>
-      </c>
-      <c r="P3">
-        <v>3582.8590596631866</v>
-      </c>
-      <c r="Q3">
-        <v>9307.7773866753705</v>
+        <v>9307.807143994849</v>
       </c>
     </row>
   </sheetData>
@@ -4514,7 +3295,7 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q2"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -4568,109 +3349,56 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="208">
-        <v>44136</v>
+      <c r="A2" s="205">
+        <v>44166</v>
       </c>
       <c r="B2">
-        <v>127.55508469597764</v>
+        <v>126.64185579284315</v>
       </c>
       <c r="C2">
-        <v>658.81149717351377</v>
+        <v>670.77521447529682</v>
       </c>
       <c r="D2">
-        <v>4902.3610255886442</v>
+        <v>4869.6774287539665</v>
       </c>
       <c r="E2">
-        <v>57.804719008264399</v>
+        <v>54.747422287867707</v>
       </c>
       <c r="F2">
-        <v>639.99999999966485</v>
+        <v>714.99999999999989</v>
       </c>
       <c r="G2">
-        <v>7463.763583348742</v>
+        <v>7464.2123564498897</v>
       </c>
       <c r="H2">
-        <v>6753.0390430251737</v>
+        <v>6753.0400000000045</v>
       </c>
       <c r="I2">
-        <v>6025.2483129492448</v>
+        <v>6024.6300933443727</v>
       </c>
       <c r="J2">
-        <v>6488.5618475406154</v>
+        <v>6483.4946792862447</v>
       </c>
       <c r="K2">
-        <v>447.50000000006378</v>
+        <v>446.49999996677309</v>
       </c>
       <c r="L2">
-        <v>1081.4989620326901</v>
+        <v>1083.6963531875836</v>
       </c>
       <c r="M2">
-        <v>638.00068114730868</v>
+        <v>639.80540361452881</v>
       </c>
       <c r="N2">
-        <v>7153.7290377295694</v>
+        <v>7153.7300000000005</v>
       </c>
       <c r="O2">
-        <v>6038.2445204767191</v>
+        <v>6037.4803022094311</v>
       </c>
       <c r="P2">
-        <v>3587.6416588153857</v>
+        <v>3583.0125813463578</v>
       </c>
       <c r="Q2">
-        <v>9308.4999999999891</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="208">
-        <v>44166</v>
-      </c>
-      <c r="B3">
-        <v>126.60876944377831</v>
-      </c>
-      <c r="C3">
-        <v>673.7670899926012</v>
-      </c>
-      <c r="D3">
-        <v>4871.0104927739185</v>
-      </c>
-      <c r="E3">
-        <v>57.027842975206553</v>
-      </c>
-      <c r="F3">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G3">
-        <v>7464.1491826827951</v>
-      </c>
-      <c r="H3">
-        <v>6753.0399999999836</v>
-      </c>
-      <c r="I3">
-        <v>6024.6075523166965</v>
-      </c>
-      <c r="J3">
-        <v>6484.3243739044801</v>
-      </c>
-      <c r="K3">
-        <v>446.50000000010533</v>
-      </c>
-      <c r="L3">
-        <v>1084.242703351495</v>
-      </c>
-      <c r="M3">
-        <v>639.00563909789298</v>
-      </c>
-      <c r="N3">
-        <v>7153.7299999999959</v>
-      </c>
-      <c r="O3">
-        <v>6037.3133107078675</v>
-      </c>
-      <c r="P3">
-        <v>3583.2037156615606</v>
-      </c>
-      <c r="Q3">
-        <v>9307.7812888605949</v>
+        <v>9307.7206567066005</v>
       </c>
     </row>
   </sheetData>
@@ -4679,7 +3407,7 @@
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q2"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -4733,109 +3461,56 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="215">
-        <v>44136</v>
+      <c r="A2" s="212">
+        <v>44166</v>
       </c>
       <c r="B2">
-        <v>127.57726834598641</v>
+        <v>126.64170196696496</v>
       </c>
       <c r="C2">
-        <v>656.66491423728348</v>
+        <v>683.8765404064618</v>
       </c>
       <c r="D2">
-        <v>4901.5159569922516</v>
+        <v>4870.4971205288321</v>
       </c>
       <c r="E2">
-        <v>58.381719008264398</v>
+        <v>54.743422287867702</v>
       </c>
       <c r="F2">
-        <v>639.99999999966485</v>
+        <v>714.99999999999989</v>
       </c>
       <c r="G2">
-        <v>7463.5746405745049</v>
+        <v>7464.1644676037204</v>
       </c>
       <c r="H2">
-        <v>6753.0390430251737</v>
+        <v>6753.0400000000045</v>
       </c>
       <c r="I2">
-        <v>6025.2632930364334</v>
+        <v>6024.6299890145938</v>
       </c>
       <c r="J2">
-        <v>6487.9771521387502</v>
+        <v>6483.4649530713687</v>
       </c>
       <c r="K2">
-        <v>447.50000000006378</v>
+        <v>446.49999996677309</v>
       </c>
       <c r="L2">
-        <v>1081.1025117466788</v>
+        <v>1086.0799385701969</v>
       </c>
       <c r="M2">
-        <v>638.00068114730868</v>
+        <v>639.80540361452881</v>
       </c>
       <c r="N2">
-        <v>7153.7290377295694</v>
+        <v>7153.7300000000005</v>
       </c>
       <c r="O2">
-        <v>6038.1392787622235</v>
+        <v>6037.5319096561507</v>
       </c>
       <c r="P2">
-        <v>3587.5234388692643</v>
+        <v>3583.1301341465723</v>
       </c>
       <c r="Q2">
-        <v>9308.4999999999891</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="215">
-        <v>44166</v>
-      </c>
-      <c r="B3">
-        <v>126.64217294368423</v>
-      </c>
-      <c r="C3">
-        <v>687.13565215194876</v>
-      </c>
-      <c r="D3">
-        <v>4868.9624048890673</v>
-      </c>
-      <c r="E3">
-        <v>57.319842975206548</v>
-      </c>
-      <c r="F3">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G3">
-        <v>7463.8888644681265</v>
-      </c>
-      <c r="H3">
-        <v>6753.0399999999836</v>
-      </c>
-      <c r="I3">
-        <v>6024.630209243398</v>
-      </c>
-      <c r="J3">
-        <v>6483.3831212671366</v>
-      </c>
-      <c r="K3">
-        <v>446.50000000010533</v>
-      </c>
-      <c r="L3">
-        <v>1086.6690900302783</v>
-      </c>
-      <c r="M3">
-        <v>639.00563909789298</v>
-      </c>
-      <c r="N3">
-        <v>7153.7299999999959</v>
-      </c>
-      <c r="O3">
-        <v>6037.0274365196392</v>
-      </c>
-      <c r="P3">
-        <v>3582.9099639904089</v>
-      </c>
-      <c r="Q3">
-        <v>9307.7715333975339</v>
+        <v>9307.7206567066005</v>
       </c>
     </row>
   </sheetData>
@@ -4844,7 +3519,7 @@
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q2"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -4898,109 +3573,56 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="222">
-        <v>44136</v>
+      <c r="A2" s="219">
+        <v>44166</v>
       </c>
       <c r="B2">
-        <v>127.57623028957352</v>
+        <v>126.64062518581764</v>
       </c>
       <c r="C2">
-        <v>659.08383280769522</v>
+        <v>672.42591304997609</v>
       </c>
       <c r="D2">
-        <v>4901.75956165764</v>
+        <v>4871.4307185323014</v>
       </c>
       <c r="E2">
-        <v>58.354719008264404</v>
+        <v>54.71542228786771</v>
       </c>
       <c r="F2">
-        <v>639.99999999966485</v>
+        <v>714.99999999999989</v>
       </c>
       <c r="G2">
-        <v>7463.5754239193384</v>
+        <v>7464.4964137426341</v>
       </c>
       <c r="H2">
-        <v>6753.0390430251737</v>
+        <v>6753.0400000000045</v>
       </c>
       <c r="I2">
-        <v>6025.2625920618166</v>
+        <v>6024.6292587061389</v>
       </c>
       <c r="J2">
-        <v>6487.9989150923384</v>
+        <v>6483.4806606735474</v>
       </c>
       <c r="K2">
-        <v>447.50000000006378</v>
+        <v>446.49999996677309</v>
       </c>
       <c r="L2">
-        <v>1081.5491649978831</v>
+        <v>1083.9981102091888</v>
       </c>
       <c r="M2">
-        <v>638.00068114730868</v>
+        <v>639.80540361452881</v>
       </c>
       <c r="N2">
-        <v>7153.7290377295694</v>
+        <v>7153.7300000000005</v>
       </c>
       <c r="O2">
-        <v>6038.0635572080728</v>
+        <v>6037.9173753817004</v>
       </c>
       <c r="P2">
-        <v>3587.5575242101772</v>
+        <v>3583.2639312247097</v>
       </c>
       <c r="Q2">
-        <v>9308.4999999999891</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="222">
-        <v>44166</v>
-      </c>
-      <c r="B3">
-        <v>126.64148138064758</v>
-      </c>
-      <c r="C3">
-        <v>676.44843981884287</v>
-      </c>
-      <c r="D3">
-        <v>4871.062362384776</v>
-      </c>
-      <c r="E3">
-        <v>57.328842975206555</v>
-      </c>
-      <c r="F3">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G3">
-        <v>7464.1188105759848</v>
-      </c>
-      <c r="H3">
-        <v>6753.0399999999836</v>
-      </c>
-      <c r="I3">
-        <v>6024.6297401688735</v>
-      </c>
-      <c r="J3">
-        <v>6483.4143488368227</v>
-      </c>
-      <c r="K3">
-        <v>446.50000000010533</v>
-      </c>
-      <c r="L3">
-        <v>1084.7313196177877</v>
-      </c>
-      <c r="M3">
-        <v>639.00563909789298</v>
-      </c>
-      <c r="N3">
-        <v>7153.7299999999959</v>
-      </c>
-      <c r="O3">
-        <v>6037.5839824416407</v>
-      </c>
-      <c r="P3">
-        <v>3583.2111471358721</v>
-      </c>
-      <c r="Q3">
-        <v>9307.7715333975339</v>
+        <v>9307.7206567066005</v>
       </c>
     </row>
   </sheetData>
@@ -5009,7 +3631,7 @@
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q2"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -5063,109 +3685,56 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="229">
-        <v>44136</v>
+      <c r="A2" s="226">
+        <v>44166</v>
       </c>
       <c r="B2">
-        <v>127.60387334738338</v>
+        <v>126.64170196696496</v>
       </c>
       <c r="C2">
-        <v>660.02085101270177</v>
+        <v>671.41569528638956</v>
       </c>
       <c r="D2">
-        <v>4902.8580771026527</v>
+        <v>4870.050749278681</v>
       </c>
       <c r="E2">
-        <v>59.073719008264398</v>
+        <v>54.743422287867702</v>
       </c>
       <c r="F2">
-        <v>639.99999999966485</v>
+        <v>714.99999999999989</v>
       </c>
       <c r="G2">
-        <v>7463.7675000729187</v>
+        <v>7464.1657155215371</v>
       </c>
       <c r="H2">
-        <v>6753.0390430251737</v>
+        <v>6753.0400000000045</v>
       </c>
       <c r="I2">
-        <v>6025.2812587562512</v>
+        <v>6024.6299890145938</v>
       </c>
       <c r="J2">
-        <v>6487.9918151216634</v>
+        <v>6483.4649530713687</v>
       </c>
       <c r="K2">
-        <v>447.50000000006378</v>
+        <v>446.49999996677309</v>
       </c>
       <c r="L2">
-        <v>1081.7218902013842</v>
+        <v>1083.8134366975059</v>
       </c>
       <c r="M2">
-        <v>638.00068114730868</v>
+        <v>639.80540361452881</v>
       </c>
       <c r="N2">
-        <v>7153.7290377295694</v>
+        <v>7153.7300000000005</v>
       </c>
       <c r="O2">
-        <v>6038.6031551687065</v>
+        <v>6037.4382024707984</v>
       </c>
       <c r="P2">
-        <v>3587.7111627389863</v>
+        <v>3583.0661272621164</v>
       </c>
       <c r="Q2">
-        <v>9308.4999999999891</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="229">
-        <v>44166</v>
-      </c>
-      <c r="B3">
-        <v>126.6723821719193</v>
-      </c>
-      <c r="C3">
-        <v>675.90398299362948</v>
-      </c>
-      <c r="D3">
-        <v>4870.6189482029267</v>
-      </c>
-      <c r="E3">
-        <v>57.413842975206549</v>
-      </c>
-      <c r="F3">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G3">
-        <v>7464.1480897994415</v>
-      </c>
-      <c r="H3">
-        <v>6753.0399999999836</v>
-      </c>
-      <c r="I3">
-        <v>6024.6506995722229</v>
-      </c>
-      <c r="J3">
-        <v>6483.3935782453937</v>
-      </c>
-      <c r="K3">
-        <v>446.50000000010533</v>
-      </c>
-      <c r="L3">
-        <v>1084.6322154999709</v>
-      </c>
-      <c r="M3">
-        <v>639.00563909789298</v>
-      </c>
-      <c r="N3">
-        <v>7153.7299999999959</v>
-      </c>
-      <c r="O3">
-        <v>6037.6629316699791</v>
-      </c>
-      <c r="P3">
-        <v>3583.1475890066868</v>
-      </c>
-      <c r="Q3">
-        <v>9307.7715333975339</v>
+        <v>9307.7206567066005</v>
       </c>
     </row>
   </sheetData>
@@ -5174,7 +3743,7 @@
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q2"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -5228,109 +3797,56 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="236">
-        <v>44136</v>
+      <c r="A2" s="233">
+        <v>44166</v>
       </c>
       <c r="B2">
-        <v>127.57922911921075</v>
+        <v>126.64120203286082</v>
       </c>
       <c r="C2">
-        <v>663.27886237703319</v>
+        <v>669.85852562072603</v>
       </c>
       <c r="D2">
-        <v>4901.4973832465002</v>
+        <v>4869.83337370749</v>
       </c>
       <c r="E2">
-        <v>58.432719008264407</v>
+        <v>54.730422287867711</v>
       </c>
       <c r="F2">
-        <v>639.99999999966485</v>
+        <v>714.99999999999989</v>
       </c>
       <c r="G2">
-        <v>7463.5746405745049</v>
+        <v>7464.3217052484697</v>
       </c>
       <c r="H2">
-        <v>6753.0390430251737</v>
+        <v>6753.0400000000045</v>
       </c>
       <c r="I2">
-        <v>6025.2646170995995</v>
+        <v>6024.6296499428108</v>
       </c>
       <c r="J2">
-        <v>6487.9748369309218</v>
+        <v>6483.4884300251624</v>
       </c>
       <c r="K2">
-        <v>447.50000000006378</v>
+        <v>446.49999996677309</v>
       </c>
       <c r="L2">
-        <v>1082.3217616119232</v>
+        <v>1083.5287772871955</v>
       </c>
       <c r="M2">
-        <v>638.00068114730868</v>
+        <v>639.80540361452881</v>
       </c>
       <c r="N2">
-        <v>7153.7290377295694</v>
+        <v>7153.7300000000005</v>
       </c>
       <c r="O2">
-        <v>6038.210033432254</v>
+        <v>6037.4439605068001</v>
       </c>
       <c r="P2">
-        <v>3587.5208400173296</v>
+        <v>3583.034948762001</v>
       </c>
       <c r="Q2">
-        <v>9308.4999999999891</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="236">
-        <v>44166</v>
-      </c>
-      <c r="B3">
-        <v>126.64055672735358</v>
-      </c>
-      <c r="C3">
-        <v>678.09004184481898</v>
-      </c>
-      <c r="D3">
-        <v>4868.5883057109822</v>
-      </c>
-      <c r="E3">
-        <v>57.226842975206552</v>
-      </c>
-      <c r="F3">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G3">
-        <v>7463.8893344902335</v>
-      </c>
-      <c r="H3">
-        <v>6753.0399999999836</v>
-      </c>
-      <c r="I3">
-        <v>6024.6291130020772</v>
-      </c>
-      <c r="J3">
-        <v>6483.4606914035721</v>
-      </c>
-      <c r="K3">
-        <v>446.50000000010533</v>
-      </c>
-      <c r="L3">
-        <v>1085.0300715697927</v>
-      </c>
-      <c r="M3">
-        <v>639.00563909789298</v>
-      </c>
-      <c r="N3">
-        <v>7153.7299999999959</v>
-      </c>
-      <c r="O3">
-        <v>6037.2061883373271</v>
-      </c>
-      <c r="P3">
-        <v>3582.8562518414651</v>
-      </c>
-      <c r="Q3">
-        <v>9307.7715333975339</v>
+        <v>9307.7518741883887</v>
       </c>
     </row>
   </sheetData>
@@ -5339,7 +3855,7 @@
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q2"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -5393,109 +3909,56 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="243">
-        <v>44136</v>
+      <c r="A2" s="240">
+        <v>44166</v>
       </c>
       <c r="B2">
-        <v>127.5769223271821</v>
+        <v>126.64266337870363</v>
       </c>
       <c r="C2">
-        <v>658.30135443319648</v>
+        <v>671.87222426469123</v>
       </c>
       <c r="D2">
-        <v>4903.5299146662683</v>
+        <v>4869.4892882805716</v>
       </c>
       <c r="E2">
-        <v>58.372719008264411</v>
+        <v>54.768422287867701</v>
       </c>
       <c r="F2">
-        <v>639.99999999966485</v>
+        <v>714.99999999999989</v>
       </c>
       <c r="G2">
-        <v>7463.5813773400851</v>
+        <v>7464.1713311517069</v>
       </c>
       <c r="H2">
-        <v>6753.0390430251737</v>
+        <v>6753.0400000000045</v>
       </c>
       <c r="I2">
-        <v>6025.2630593782278</v>
+        <v>6024.6306410757143</v>
       </c>
       <c r="J2">
-        <v>6488.0864268864298</v>
+        <v>6483.4649530713687</v>
       </c>
       <c r="K2">
-        <v>447.50000000006378</v>
+        <v>446.49999996677309</v>
       </c>
       <c r="L2">
-        <v>1081.4047442729739</v>
+        <v>1083.8968927726992</v>
       </c>
       <c r="M2">
-        <v>638.00068114730868</v>
+        <v>639.80540361452881</v>
       </c>
       <c r="N2">
-        <v>7153.7290377295694</v>
+        <v>7153.7300000000005</v>
       </c>
       <c r="O2">
-        <v>6038.4725285723271</v>
+        <v>6037.3936484873111</v>
       </c>
       <c r="P2">
-        <v>3587.8050618185375</v>
+        <v>3582.9855880428704</v>
       </c>
       <c r="Q2">
-        <v>9308.4999999999891</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="243">
-        <v>44166</v>
-      </c>
-      <c r="B3">
-        <v>126.63944291432561</v>
-      </c>
-      <c r="C3">
-        <v>676.15338882318224</v>
-      </c>
-      <c r="D3">
-        <v>4871.349930470994</v>
-      </c>
-      <c r="E3">
-        <v>57.25784297520655</v>
-      </c>
-      <c r="F3">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G3">
-        <v>7463.9054702656776</v>
-      </c>
-      <c r="H3">
-        <v>6753.0399999999836</v>
-      </c>
-      <c r="I3">
-        <v>6024.6283575218877</v>
-      </c>
-      <c r="J3">
-        <v>6483.5642844457643</v>
-      </c>
-      <c r="K3">
-        <v>446.50000000010533</v>
-      </c>
-      <c r="L3">
-        <v>1084.6776136381472</v>
-      </c>
-      <c r="M3">
-        <v>639.00563909789298</v>
-      </c>
-      <c r="N3">
-        <v>7153.7299999999959</v>
-      </c>
-      <c r="O3">
-        <v>6037.6171907555272</v>
-      </c>
-      <c r="P3">
-        <v>3583.2523476537017</v>
-      </c>
-      <c r="Q3">
-        <v>9307.7819392247984</v>
+        <v>9307.7206567066005</v>
       </c>
     </row>
   </sheetData>
@@ -5504,7 +3967,7 @@
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q2"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -5558,109 +4021,56 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="250">
-        <v>44136</v>
+      <c r="A2" s="247">
+        <v>44166</v>
       </c>
       <c r="B2">
-        <v>127.60133587615188</v>
+        <v>126.62701159559801</v>
       </c>
       <c r="C2">
-        <v>657.74893113942539</v>
+        <v>670.59398295210258</v>
       </c>
       <c r="D2">
-        <v>4901.6625489856096</v>
+        <v>4870.0816126131313</v>
       </c>
       <c r="E2">
-        <v>59.007719008264409</v>
+        <v>54.361422287867711</v>
       </c>
       <c r="F2">
-        <v>639.99999999966485</v>
+        <v>714.99999999999989</v>
       </c>
       <c r="G2">
-        <v>7463.7035791343706</v>
+        <v>7464.2808359400133</v>
       </c>
       <c r="H2">
-        <v>6753.0390430251737</v>
+        <v>6753.0400000000045</v>
       </c>
       <c r="I2">
-        <v>6025.2795452627433</v>
+        <v>6024.620025520675</v>
       </c>
       <c r="J2">
-        <v>6488.0036931288996</v>
+        <v>6483.7199918913957</v>
       </c>
       <c r="K2">
-        <v>447.50000000006378</v>
+        <v>446.49999996677309</v>
       </c>
       <c r="L2">
-        <v>1081.3027177595225</v>
+        <v>1083.6632230414857</v>
       </c>
       <c r="M2">
-        <v>638.00068114730868</v>
+        <v>639.80540361452881</v>
       </c>
       <c r="N2">
-        <v>7153.7290377295694</v>
+        <v>7153.7300000000005</v>
       </c>
       <c r="O2">
-        <v>6038.4312940626405</v>
+        <v>6037.5378341108881</v>
       </c>
       <c r="P2">
-        <v>3587.5439501269648</v>
+        <v>3583.0705540358813</v>
       </c>
       <c r="Q2">
-        <v>9308.4999999999891</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="250">
-        <v>44166</v>
-      </c>
-      <c r="B3">
-        <v>126.65838641263733</v>
-      </c>
-      <c r="C3">
-        <v>673.49309413464107</v>
-      </c>
-      <c r="D3">
-        <v>4869.1094223411092</v>
-      </c>
-      <c r="E3">
-        <v>57.115842975206547</v>
-      </c>
-      <c r="F3">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G3">
-        <v>7464.1295426114348</v>
-      </c>
-      <c r="H3">
-        <v>6753.0399999999836</v>
-      </c>
-      <c r="I3">
-        <v>6024.6412065414961</v>
-      </c>
-      <c r="J3">
-        <v>6483.6881496982714</v>
-      </c>
-      <c r="K3">
-        <v>446.50000000010533</v>
-      </c>
-      <c r="L3">
-        <v>1084.1927235310181</v>
-      </c>
-      <c r="M3">
-        <v>639.00563909789298</v>
-      </c>
-      <c r="N3">
-        <v>7153.7299999999959</v>
-      </c>
-      <c r="O3">
-        <v>6037.5231694880722</v>
-      </c>
-      <c r="P3">
-        <v>3582.9310627657874</v>
-      </c>
-      <c r="Q3">
-        <v>9307.8040452935384</v>
+        <v>9307.7336639906789</v>
       </c>
     </row>
   </sheetData>
@@ -5669,7 +4079,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q2"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -5723,109 +4133,56 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="26">
-        <v>44136</v>
+      <c r="A2" s="23">
+        <v>44166</v>
       </c>
       <c r="B2">
-        <v>127.58145901817177</v>
+        <v>126.64316331280774</v>
       </c>
       <c r="C2">
-        <v>668.0716771350518</v>
+        <v>682.89339119559895</v>
       </c>
       <c r="D2">
-        <v>4902.6132882745569</v>
+        <v>4869.8249362491606</v>
       </c>
       <c r="E2">
-        <v>58.490719008264399</v>
+        <v>54.781422287867713</v>
       </c>
       <c r="F2">
-        <v>639.99999999966485</v>
+        <v>714.99999999999989</v>
       </c>
       <c r="G2">
-        <v>7463.6622185270735</v>
+        <v>7464.1917658059347</v>
       </c>
       <c r="H2">
-        <v>6753.0390430251737</v>
+        <v>6753.0400000000045</v>
       </c>
       <c r="I2">
-        <v>6025.2661228969246</v>
+        <v>6024.6309801474963</v>
       </c>
       <c r="J2">
-        <v>6488.0154021895551</v>
+        <v>6483.4713712313987</v>
       </c>
       <c r="K2">
-        <v>447.50000000006378</v>
+        <v>446.49999996677309</v>
       </c>
       <c r="L2">
-        <v>1083.201521568878</v>
+        <v>1085.9018885647249</v>
       </c>
       <c r="M2">
-        <v>638.00068114730868</v>
+        <v>639.80540361452881</v>
       </c>
       <c r="N2">
-        <v>7153.7290377295694</v>
+        <v>7153.7300000000005</v>
       </c>
       <c r="O2">
-        <v>6038.5609542754255</v>
+        <v>6037.4441492948645</v>
       </c>
       <c r="P2">
-        <v>3587.6769364013671</v>
+        <v>3583.0337385648563</v>
       </c>
       <c r="Q2">
-        <v>9308.4999999999891</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="26">
-        <v>44166</v>
-      </c>
-      <c r="B3">
-        <v>126.64616970047946</v>
-      </c>
-      <c r="C3">
-        <v>689.32661874648124</v>
-      </c>
-      <c r="D3">
-        <v>4871.7682920063025</v>
-      </c>
-      <c r="E3">
-        <v>57.314842975206552</v>
-      </c>
-      <c r="F3">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G3">
-        <v>7464.0368948000551</v>
-      </c>
-      <c r="H3">
-        <v>6753.0399999999836</v>
-      </c>
-      <c r="I3">
-        <v>6024.6329201666931</v>
-      </c>
-      <c r="J3">
-        <v>6483.4305191382846</v>
-      </c>
-      <c r="K3">
-        <v>446.50000000010533</v>
-      </c>
-      <c r="L3">
-        <v>1087.0644840961638</v>
-      </c>
-      <c r="M3">
-        <v>639.00563909789298</v>
-      </c>
-      <c r="N3">
-        <v>7153.7299999999959</v>
-      </c>
-      <c r="O3">
-        <v>6037.8418118910331</v>
-      </c>
-      <c r="P3">
-        <v>3583.312280398754</v>
-      </c>
-      <c r="Q3">
-        <v>9307.7715333975339</v>
+        <v>9307.7206567066005</v>
       </c>
     </row>
   </sheetData>
@@ -5834,7 +4191,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q2"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -5888,109 +4245,56 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="33">
-        <v>44136</v>
+      <c r="A2" s="30">
+        <v>44166</v>
       </c>
       <c r="B2">
-        <v>127.55562294745098</v>
+        <v>126.64170196696496</v>
       </c>
       <c r="C2">
-        <v>662.0613376197756</v>
+        <v>678.16463890210321</v>
       </c>
       <c r="D2">
-        <v>4903.2589300571653</v>
+        <v>4870.0204040338103</v>
       </c>
       <c r="E2">
-        <v>57.818719008264402</v>
+        <v>54.743422287867702</v>
       </c>
       <c r="F2">
-        <v>639.99999999966485</v>
+        <v>714.99999999999989</v>
       </c>
       <c r="G2">
-        <v>7463.7485431279083</v>
+        <v>7464.3129698237617</v>
       </c>
       <c r="H2">
-        <v>6753.0390430251737</v>
+        <v>6753.0400000000045</v>
       </c>
       <c r="I2">
-        <v>6025.2486764175646</v>
+        <v>6024.6299890145938</v>
       </c>
       <c r="J2">
-        <v>6488.5012248219855</v>
+        <v>6483.4649530713687</v>
       </c>
       <c r="K2">
-        <v>447.50000000006378</v>
+        <v>446.49999996677309</v>
       </c>
       <c r="L2">
-        <v>1082.0978122434267</v>
+        <v>1085.0437034850897</v>
       </c>
       <c r="M2">
-        <v>638.00068114730868</v>
+        <v>639.80540361452881</v>
       </c>
       <c r="N2">
-        <v>7153.7290377295694</v>
+        <v>7153.7300000000005</v>
       </c>
       <c r="O2">
-        <v>6038.3428272964038</v>
+        <v>6037.4986146517967</v>
       </c>
       <c r="P2">
-        <v>3587.7671894158634</v>
+        <v>3583.0617747987026</v>
       </c>
       <c r="Q2">
-        <v>9308.4999999999891</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="33">
-        <v>44166</v>
-      </c>
-      <c r="B3">
-        <v>126.6027703082257</v>
-      </c>
-      <c r="C3">
-        <v>682.2755995789372</v>
-      </c>
-      <c r="D3">
-        <v>4871.88938415127</v>
-      </c>
-      <c r="E3">
-        <v>56.857842975206552</v>
-      </c>
-      <c r="F3">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G3">
-        <v>7464.3125075968892</v>
-      </c>
-      <c r="H3">
-        <v>6753.0399999999836</v>
-      </c>
-      <c r="I3">
-        <v>6024.6034832317318</v>
-      </c>
-      <c r="J3">
-        <v>6484.3432407848259</v>
-      </c>
-      <c r="K3">
-        <v>446.50000000010533</v>
-      </c>
-      <c r="L3">
-        <v>1085.7898172547762</v>
-      </c>
-      <c r="M3">
-        <v>639.00563909789298</v>
-      </c>
-      <c r="N3">
-        <v>7153.7299999999959</v>
-      </c>
-      <c r="O3">
-        <v>6037.4048305700262</v>
-      </c>
-      <c r="P3">
-        <v>3583.3296198802495</v>
-      </c>
-      <c r="Q3">
-        <v>9307.7838903174106</v>
+        <v>9307.7206567066005</v>
       </c>
     </row>
   </sheetData>
@@ -5999,7 +4303,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q2"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -6053,109 +4357,56 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="40">
-        <v>44136</v>
+      <c r="A2" s="37">
+        <v>44166</v>
       </c>
       <c r="B2">
-        <v>127.56819496400709</v>
+        <v>126.64170196696496</v>
       </c>
       <c r="C2">
-        <v>662.28574675732239</v>
+        <v>673.88562216088633</v>
       </c>
       <c r="D2">
-        <v>4901.421460285781</v>
+        <v>4870.0731011419812</v>
       </c>
       <c r="E2">
-        <v>58.145719008264408</v>
+        <v>54.743422287867702</v>
       </c>
       <c r="F2">
-        <v>639.99999999966485</v>
+        <v>714.99999999999989</v>
       </c>
       <c r="G2">
-        <v>7463.5749539124372</v>
+        <v>7464.1694592749836</v>
       </c>
       <c r="H2">
-        <v>6753.0390430251737</v>
+        <v>6753.0400000000045</v>
       </c>
       <c r="I2">
-        <v>6025.257165999039</v>
+        <v>6024.6299890145938</v>
       </c>
       <c r="J2">
-        <v>6488.3516866127875</v>
+        <v>6483.4649530713687</v>
       </c>
       <c r="K2">
-        <v>447.50000000006378</v>
+        <v>446.49999996677309</v>
       </c>
       <c r="L2">
-        <v>1082.1390896666076</v>
+        <v>1084.2643878073645</v>
       </c>
       <c r="M2">
-        <v>638.00068114730868</v>
+        <v>639.80540361452881</v>
       </c>
       <c r="N2">
-        <v>7153.7290377295694</v>
+        <v>7153.7300000000005</v>
       </c>
       <c r="O2">
-        <v>6038.1177243594339</v>
+        <v>6037.9852715116222</v>
       </c>
       <c r="P2">
-        <v>3587.5102168217722</v>
+        <v>3583.069333222973</v>
       </c>
       <c r="Q2">
-        <v>9308.4999999999891</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="40">
-        <v>44166</v>
-      </c>
-      <c r="B3">
-        <v>126.62925772702042</v>
-      </c>
-      <c r="C3">
-        <v>676.29066565844357</v>
-      </c>
-      <c r="D3">
-        <v>4869.0596816846373</v>
-      </c>
-      <c r="E3">
-        <v>57.219842975206546</v>
-      </c>
-      <c r="F3">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G3">
-        <v>7463.8962280710521</v>
-      </c>
-      <c r="H3">
-        <v>6753.0399999999836</v>
-      </c>
-      <c r="I3">
-        <v>6024.621449108965</v>
-      </c>
-      <c r="J3">
-        <v>6483.8976860106322</v>
-      </c>
-      <c r="K3">
-        <v>446.50000000010533</v>
-      </c>
-      <c r="L3">
-        <v>1084.7026002037383</v>
-      </c>
-      <c r="M3">
-        <v>639.00563909789298</v>
-      </c>
-      <c r="N3">
-        <v>7153.7299999999959</v>
-      </c>
-      <c r="O3">
-        <v>6037.7130746923931</v>
-      </c>
-      <c r="P3">
-        <v>3582.9239243824068</v>
-      </c>
-      <c r="Q3">
-        <v>9307.7715333975339</v>
+        <v>9307.7206567066005</v>
       </c>
     </row>
   </sheetData>
@@ -6164,7 +4415,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q2"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -6218,109 +4469,56 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="47">
-        <v>44136</v>
+      <c r="A2" s="44">
+        <v>44166</v>
       </c>
       <c r="B2">
-        <v>127.57211651045576</v>
+        <v>126.64170196696496</v>
       </c>
       <c r="C2">
-        <v>659.61596411134224</v>
+        <v>671.66801646281795</v>
       </c>
       <c r="D2">
-        <v>4902.3921051803391</v>
+        <v>4869.2181795473743</v>
       </c>
       <c r="E2">
-        <v>58.247719008264404</v>
+        <v>54.743422287867702</v>
       </c>
       <c r="F2">
-        <v>639.99999999966485</v>
+        <v>714.99999999999989</v>
       </c>
       <c r="G2">
-        <v>7463.6194478990756</v>
+        <v>7464.1689913058026</v>
       </c>
       <c r="H2">
-        <v>6753.0390430251737</v>
+        <v>6753.0400000000045</v>
       </c>
       <c r="I2">
-        <v>6025.2598141253711</v>
+        <v>6024.6299890145938</v>
       </c>
       <c r="J2">
-        <v>6488.179495100464</v>
+        <v>6483.4649530713687</v>
       </c>
       <c r="K2">
-        <v>447.50000000006378</v>
+        <v>446.49999996677309</v>
       </c>
       <c r="L2">
-        <v>1081.6472553948686</v>
+        <v>1083.8595624334073</v>
       </c>
       <c r="M2">
-        <v>638.00068114730868</v>
+        <v>639.80540361452881</v>
       </c>
       <c r="N2">
-        <v>7153.7290377295694</v>
+        <v>7153.7300000000005</v>
       </c>
       <c r="O2">
-        <v>6038.4885538022272</v>
+        <v>6037.4107338072499</v>
       </c>
       <c r="P2">
-        <v>3587.6460051298795</v>
+        <v>3582.9466808186658</v>
       </c>
       <c r="Q2">
-        <v>9308.4999999999891</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="47">
-        <v>44166</v>
-      </c>
-      <c r="B3">
-        <v>126.63402372106748</v>
-      </c>
-      <c r="C3">
-        <v>670.52062406043694</v>
-      </c>
-      <c r="D3">
-        <v>4870.9260617620075</v>
-      </c>
-      <c r="E3">
-        <v>57.241842975206559</v>
-      </c>
-      <c r="F3">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G3">
-        <v>7463.9969585767976</v>
-      </c>
-      <c r="H3">
-        <v>6753.0399999999836</v>
-      </c>
-      <c r="I3">
-        <v>6024.6246817889978</v>
-      </c>
-      <c r="J3">
-        <v>6483.6858335004445</v>
-      </c>
-      <c r="K3">
-        <v>446.50000000010533</v>
-      </c>
-      <c r="L3">
-        <v>1083.6497617518453</v>
-      </c>
-      <c r="M3">
-        <v>639.00563909789298</v>
-      </c>
-      <c r="N3">
-        <v>7153.7299999999959</v>
-      </c>
-      <c r="O3">
-        <v>6037.7773322338053</v>
-      </c>
-      <c r="P3">
-        <v>3583.191614371945</v>
-      </c>
-      <c r="Q3">
-        <v>9307.8150842545765</v>
+        <v>9307.7206567066005</v>
       </c>
     </row>
   </sheetData>
@@ -6329,7 +4527,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q2"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -6383,109 +4581,56 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="54">
-        <v>44136</v>
+      <c r="A2" s="51">
+        <v>44166</v>
       </c>
       <c r="B2">
-        <v>127.58030562215745</v>
+        <v>126.64170196696496</v>
       </c>
       <c r="C2">
-        <v>664.63507464248369</v>
+        <v>672.84876481494723</v>
       </c>
       <c r="D2">
-        <v>4904.8724891622805</v>
+        <v>4869.842181229782</v>
       </c>
       <c r="E2">
-        <v>58.460719008264398</v>
+        <v>54.743422287867702</v>
       </c>
       <c r="F2">
-        <v>639.99999999966485</v>
+        <v>714.99999999999989</v>
       </c>
       <c r="G2">
-        <v>7464.6211471571369</v>
+        <v>7464.173515007883</v>
       </c>
       <c r="H2">
-        <v>6753.0390430251737</v>
+        <v>6753.0400000000045</v>
       </c>
       <c r="I2">
-        <v>6025.2653440362392</v>
+        <v>6024.6299890145938</v>
       </c>
       <c r="J2">
-        <v>6488.0568461016146</v>
+        <v>6483.4649530713687</v>
       </c>
       <c r="K2">
-        <v>447.50000000006378</v>
+        <v>446.49999996677309</v>
       </c>
       <c r="L2">
-        <v>1082.5710849351688</v>
+        <v>1084.0752489555553</v>
       </c>
       <c r="M2">
-        <v>638.00068114730868</v>
+        <v>639.80540361452881</v>
       </c>
       <c r="N2">
-        <v>7153.7290377295694</v>
+        <v>7153.7300000000005</v>
       </c>
       <c r="O2">
-        <v>6039.3730708418498</v>
+        <v>6037.4070524399704</v>
       </c>
       <c r="P2">
-        <v>3587.9925582049145</v>
+        <v>3583.0362120379673</v>
       </c>
       <c r="Q2">
-        <v>9308.4999999999891</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="54">
-        <v>44166</v>
-      </c>
-      <c r="B3">
-        <v>126.65439952715235</v>
-      </c>
-      <c r="C3">
-        <v>680.23414659738125</v>
-      </c>
-      <c r="D3">
-        <v>4874.0102480311907</v>
-      </c>
-      <c r="E3">
-        <v>57.558842975206559</v>
-      </c>
-      <c r="F3">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G3">
-        <v>7465.4005985011518</v>
-      </c>
-      <c r="H3">
-        <v>6753.0399999999836</v>
-      </c>
-      <c r="I3">
-        <v>6024.6385022807854</v>
-      </c>
-      <c r="J3">
-        <v>6483.494759040017</v>
-      </c>
-      <c r="K3">
-        <v>446.50000000010533</v>
-      </c>
-      <c r="L3">
-        <v>1085.4196110155124</v>
-      </c>
-      <c r="M3">
-        <v>639.00563909789298</v>
-      </c>
-      <c r="N3">
-        <v>7153.7299999999959</v>
-      </c>
-      <c r="O3">
-        <v>6038.7456788774934</v>
-      </c>
-      <c r="P3">
-        <v>3583.6330880193368</v>
-      </c>
-      <c r="Q3">
-        <v>9307.7988486941013</v>
+        <v>9307.7206567066005</v>
       </c>
     </row>
   </sheetData>
@@ -6494,7 +4639,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q2"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -6548,109 +4693,56 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="61">
-        <v>44136</v>
+      <c r="A2" s="58">
+        <v>44166</v>
       </c>
       <c r="B2">
-        <v>127.56496545516697</v>
+        <v>126.64120203286082</v>
       </c>
       <c r="C2">
-        <v>659.32643713449067</v>
+        <v>671.64211162934475</v>
       </c>
       <c r="D2">
-        <v>4905.6154407773529</v>
+        <v>4869.6552989290476</v>
       </c>
       <c r="E2">
-        <v>58.061719008264411</v>
+        <v>54.730422287867704</v>
       </c>
       <c r="F2">
-        <v>639.99999999966485</v>
+        <v>714.99999999999989</v>
       </c>
       <c r="G2">
-        <v>7464.1102780196888</v>
+        <v>7464.3125018545807</v>
       </c>
       <c r="H2">
-        <v>6753.0390430251737</v>
+        <v>6753.0400000000045</v>
       </c>
       <c r="I2">
-        <v>6025.2549851891199</v>
+        <v>6024.6296499428108</v>
       </c>
       <c r="J2">
-        <v>6488.2714888149567</v>
+        <v>6483.5669796871525</v>
       </c>
       <c r="K2">
-        <v>447.50000000006378</v>
+        <v>446.49999996677309</v>
       </c>
       <c r="L2">
-        <v>1081.5938854542114</v>
+        <v>1083.8548268835705</v>
       </c>
       <c r="M2">
-        <v>638.00068114730868</v>
+        <v>639.80540361452881</v>
       </c>
       <c r="N2">
-        <v>7153.7290377295694</v>
+        <v>7153.7300000000005</v>
       </c>
       <c r="O2">
-        <v>6039.3042925785776</v>
+        <v>6037.4543438504088</v>
       </c>
       <c r="P2">
-        <v>3588.0962346091605</v>
+        <v>3583.0094072327943</v>
       </c>
       <c r="Q2">
-        <v>9308.4999999999891</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="61">
-        <v>44166</v>
-      </c>
-      <c r="B3">
-        <v>126.64471811792133</v>
-      </c>
-      <c r="C3">
-        <v>675.27328112111536</v>
-      </c>
-      <c r="D3">
-        <v>4873.6067108834168</v>
-      </c>
-      <c r="E3">
-        <v>57.705842975206551</v>
-      </c>
-      <c r="F3">
-        <v>719.9999999998256</v>
-      </c>
-      <c r="G3">
-        <v>7464.6374398720109</v>
-      </c>
-      <c r="H3">
-        <v>6753.0399999999836</v>
-      </c>
-      <c r="I3">
-        <v>6024.6319355568876</v>
-      </c>
-      <c r="J3">
-        <v>6483.84368208252</v>
-      </c>
-      <c r="K3">
-        <v>446.50000000010533</v>
-      </c>
-      <c r="L3">
-        <v>1084.5174131877961</v>
-      </c>
-      <c r="M3">
-        <v>639.00563909789298</v>
-      </c>
-      <c r="N3">
-        <v>7153.7299999999959</v>
-      </c>
-      <c r="O3">
-        <v>6038.4856144384539</v>
-      </c>
-      <c r="P3">
-        <v>3583.575387248688</v>
-      </c>
-      <c r="Q3">
-        <v>9307.7910443236524</v>
+        <v>9307.8084426961468</v>
       </c>
     </row>
   </sheetData>

--- a/Output Data/MtomToCrss_Monthly.xlsx
+++ b/Output Data/MtomToCrss_Monthly.xlsx
@@ -120,7 +120,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="253">
+  <borders count="505">
     <border>
       <start/>
       <end/>
@@ -380,11 +380,263 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="253">
+  <cellXfs count="505">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -708,6 +960,330 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="250" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="251" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="252" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="253" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="254" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="255" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="256" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="257" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="258" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="259" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="260" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="261" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="262" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="263" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="264" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="265" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="266" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="267" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="268" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="269" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="270" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="271" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="272" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="273" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="274" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="275" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="276" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="277" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="278" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="279" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="280" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="281" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="282" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="283" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="284" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="285" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="286" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="287" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="288" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="289" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="290" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="291" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="292" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="293" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="294" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="295" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="296" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="297" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="298" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="299" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="300" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="301" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="302" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="303" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="304" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="305" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="306" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="307" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="308" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="309" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="310" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="311" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="312" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="313" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="314" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="315" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="316" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="317" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="318" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="319" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="320" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="321" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="322" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="323" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="324" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="325" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="326" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="327" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="328" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="329" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="330" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="331" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="332" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="333" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="334" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="335" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="336" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="337" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="338" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="339" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="340" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="341" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="342" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="343" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="344" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="345" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="346" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="347" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="348" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="349" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="350" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="351" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="352" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="353" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="354" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="355" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="356" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="357" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="358" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="359" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="360" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="361" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="362" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="363" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="364" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="365" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="366" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="367" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="368" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="369" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="370" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="371" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="372" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="373" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="374" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="375" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="376" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="377" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="378" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="379" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="380" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="381" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="382" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="383" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="384" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="385" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="386" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="387" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="388" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="389" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="390" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="391" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="392" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="393" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="394" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="395" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="396" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="397" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="398" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="399" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="400" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="401" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="402" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="403" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="404" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="405" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="406" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="407" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="408" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="409" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="410" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="411" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="412" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="413" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="414" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="415" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="416" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="417" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="418" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="419" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="420" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="421" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="422" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="423" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="424" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="425" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="426" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="427" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="428" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="429" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="430" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="431" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="432" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="433" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="434" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="435" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="436" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="437" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="438" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="439" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="440" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="441" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="442" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="443" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="444" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="445" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="446" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="447" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="448" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="449" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="450" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="451" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="452" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="453" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="454" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="455" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="456" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="457" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="458" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="459" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="460" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="461" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="462" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="463" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="464" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="465" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="466" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="467" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="468" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="469" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="470" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="471" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="472" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="473" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="474" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="475" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="476" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="477" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="478" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="479" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="480" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="481" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="482" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="483" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="484" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="485" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="486" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="487" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="488" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="489" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="490" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="491" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="492" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="493" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="494" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="495" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="496" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="497" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="498" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="499" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="500" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="501" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="502" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="503" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="504" xfId="0" applyNumberFormat="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -792,7 +1368,7 @@
         <v>714.99999999999989</v>
       </c>
       <c r="G2">
-        <v>7464.1816264736835</v>
+        <v>7464.1802286585662</v>
       </c>
       <c r="H2">
         <v>6753.0400000000045</v>
@@ -904,7 +1480,7 @@
         <v>714.99999999999989</v>
       </c>
       <c r="G2">
-        <v>7464.1646235934486</v>
+        <v>7464.1631425273472</v>
       </c>
       <c r="H2">
         <v>6753.0400000000045</v>
@@ -1016,7 +1592,7 @@
         <v>714.99999999999989</v>
       </c>
       <c r="G2">
-        <v>7464.1928577340223</v>
+        <v>7464.1915149103816</v>
       </c>
       <c r="H2">
         <v>6753.0400000000045</v>
@@ -1128,7 +1704,7 @@
         <v>714.99999999999989</v>
       </c>
       <c r="G2">
-        <v>7464.1945736210191</v>
+        <v>7464.193239198853</v>
       </c>
       <c r="H2">
         <v>6753.0400000000045</v>
@@ -1240,7 +1816,7 @@
         <v>714.99999999999989</v>
       </c>
       <c r="G2">
-        <v>7464.1654035420825</v>
+        <v>7464.1639262948338</v>
       </c>
       <c r="H2">
         <v>6753.0400000000045</v>
@@ -1352,7 +1928,7 @@
         <v>714.99999999999989</v>
       </c>
       <c r="G2">
-        <v>7464.1654035420825</v>
+        <v>7464.1639262948338</v>
       </c>
       <c r="H2">
         <v>6753.0400000000045</v>
@@ -1464,7 +2040,7 @@
         <v>714.99999999999989</v>
       </c>
       <c r="G2">
-        <v>7464.1660275009899</v>
+        <v>7464.164553308824</v>
       </c>
       <c r="H2">
         <v>6753.0400000000045</v>
@@ -1576,7 +2152,7 @@
         <v>714.99999999999989</v>
       </c>
       <c r="G2">
-        <v>7464.16649547017</v>
+        <v>7464.1650235693169</v>
       </c>
       <c r="H2">
         <v>6753.0400000000045</v>
@@ -1688,7 +2264,7 @@
         <v>714.99999999999989</v>
       </c>
       <c r="G2">
-        <v>7464.3110979470384</v>
+        <v>7464.3102132487011</v>
       </c>
       <c r="H2">
         <v>6753.0400000000045</v>
@@ -1800,7 +2376,7 @@
         <v>714.99999999999989</v>
       </c>
       <c r="G2">
-        <v>7464.1816264736835</v>
+        <v>7464.1802286585662</v>
       </c>
       <c r="H2">
         <v>6753.0400000000045</v>
@@ -1912,7 +2488,7 @@
         <v>714.99999999999989</v>
       </c>
       <c r="G2">
-        <v>7464.1661834907172</v>
+        <v>7464.1647100623222</v>
       </c>
       <c r="H2">
         <v>6753.0400000000045</v>
@@ -2024,7 +2600,7 @@
         <v>714.99999999999989</v>
       </c>
       <c r="G2">
-        <v>7464.6578550978684</v>
+        <v>7464.6582787867419</v>
       </c>
       <c r="H2">
         <v>6753.0400000000045</v>
@@ -2136,7 +2712,7 @@
         <v>714.99999999999989</v>
       </c>
       <c r="G2">
-        <v>7464.3744297761732</v>
+        <v>7464.3737277417858</v>
       </c>
       <c r="H2">
         <v>6753.0400000000045</v>
@@ -2248,7 +2824,7 @@
         <v>714.99999999999989</v>
       </c>
       <c r="G2">
-        <v>7464.1775707407824</v>
+        <v>7464.1761530676331</v>
       </c>
       <c r="H2">
         <v>6753.0400000000045</v>
@@ -2360,7 +2936,7 @@
         <v>714.99999999999989</v>
       </c>
       <c r="G2">
-        <v>7464.1824064223192</v>
+        <v>7464.1810124260546</v>
       </c>
       <c r="H2">
         <v>6753.0400000000045</v>
@@ -2472,7 +3048,7 @@
         <v>714.99999999999989</v>
       </c>
       <c r="G2">
-        <v>7464.1672754188057</v>
+        <v>7464.1658073368035</v>
       </c>
       <c r="H2">
         <v>6753.0400000000045</v>
@@ -2584,7 +3160,7 @@
         <v>714.99999999999989</v>
       </c>
       <c r="G2">
-        <v>7464.1678993777132</v>
+        <v>7464.1664343507937</v>
       </c>
       <c r="H2">
         <v>6753.0400000000045</v>
@@ -2696,7 +3272,7 @@
         <v>714.99999999999989</v>
       </c>
       <c r="G2">
-        <v>7464.2005012306427</v>
+        <v>7464.1991958317558</v>
       </c>
       <c r="H2">
         <v>6753.0400000000045</v>
@@ -2808,7 +3384,7 @@
         <v>714.99999999999989</v>
       </c>
       <c r="G2">
-        <v>7464.173047038702</v>
+        <v>7464.1716072162089</v>
       </c>
       <c r="H2">
         <v>6753.0400000000045</v>
@@ -2920,7 +3496,7 @@
         <v>714.99999999999989</v>
       </c>
       <c r="G2">
-        <v>7464.1672754188057</v>
+        <v>7464.1658073368035</v>
       </c>
       <c r="H2">
         <v>6753.0400000000045</v>
@@ -3032,7 +3608,7 @@
         <v>714.99999999999989</v>
       </c>
       <c r="G2">
-        <v>7464.2472981487217</v>
+        <v>7464.2461755566255</v>
       </c>
       <c r="H2">
         <v>6753.0400000000045</v>
@@ -3144,7 +3720,7 @@
         <v>714.99999999999989</v>
       </c>
       <c r="G2">
-        <v>7464.2003452409162</v>
+        <v>7464.1990390782576</v>
       </c>
       <c r="H2">
         <v>6753.0400000000045</v>
@@ -3256,7 +3832,7 @@
         <v>714.99999999999989</v>
       </c>
       <c r="G2">
-        <v>7464.4468090094697</v>
+        <v>7464.446268676902</v>
       </c>
       <c r="H2">
         <v>6753.0400000000045</v>
@@ -3368,7 +3944,7 @@
         <v>714.99999999999989</v>
       </c>
       <c r="G2">
-        <v>7464.2123564498897</v>
+        <v>7464.2110979638292</v>
       </c>
       <c r="H2">
         <v>6753.0400000000045</v>
@@ -3480,7 +4056,7 @@
         <v>714.99999999999989</v>
       </c>
       <c r="G2">
-        <v>7464.1644676037204</v>
+        <v>7464.1629857738499</v>
       </c>
       <c r="H2">
         <v>6753.0400000000045</v>
@@ -3592,7 +4168,7 @@
         <v>714.99999999999989</v>
       </c>
       <c r="G2">
-        <v>7464.4964137426341</v>
+        <v>7464.4959659378501</v>
       </c>
       <c r="H2">
         <v>6753.0400000000045</v>
@@ -3704,7 +4280,7 @@
         <v>714.99999999999989</v>
       </c>
       <c r="G2">
-        <v>7464.1657155215371</v>
+        <v>7464.1642398018294</v>
       </c>
       <c r="H2">
         <v>6753.0400000000045</v>
@@ -3816,7 +4392,7 @@
         <v>714.99999999999989</v>
       </c>
       <c r="G2">
-        <v>7464.3217052484697</v>
+        <v>7464.3208511440944</v>
       </c>
       <c r="H2">
         <v>6753.0400000000045</v>
@@ -3928,7 +4504,7 @@
         <v>714.99999999999989</v>
       </c>
       <c r="G2">
-        <v>7464.1713311517069</v>
+        <v>7464.1698829277366</v>
       </c>
       <c r="H2">
         <v>6753.0400000000045</v>
@@ -4040,7 +4616,7 @@
         <v>714.99999999999989</v>
       </c>
       <c r="G2">
-        <v>7464.2808359400133</v>
+        <v>7464.2798437818556</v>
       </c>
       <c r="H2">
         <v>6753.0400000000045</v>
@@ -4152,7 +4728,7 @@
         <v>714.99999999999989</v>
       </c>
       <c r="G2">
-        <v>7464.1917658059347</v>
+        <v>7464.1904176359003</v>
       </c>
       <c r="H2">
         <v>6753.0400000000045</v>
@@ -4264,7 +4840,7 @@
         <v>714.99999999999989</v>
       </c>
       <c r="G2">
-        <v>7464.3129698237617</v>
+        <v>7464.3120905243586</v>
       </c>
       <c r="H2">
         <v>6753.0400000000045</v>
@@ -4376,7 +4952,7 @@
         <v>714.99999999999989</v>
       </c>
       <c r="G2">
-        <v>7464.1694592749836</v>
+        <v>7464.1680018857669</v>
       </c>
       <c r="H2">
         <v>6753.0400000000045</v>
@@ -4488,7 +5064,7 @@
         <v>714.99999999999989</v>
       </c>
       <c r="G2">
-        <v>7464.1689913058026</v>
+        <v>7464.1675316252758</v>
       </c>
       <c r="H2">
         <v>6753.0400000000045</v>
@@ -4600,7 +5176,7 @@
         <v>714.99999999999989</v>
       </c>
       <c r="G2">
-        <v>7464.173515007883</v>
+        <v>7464.1720774767</v>
       </c>
       <c r="H2">
         <v>6753.0400000000045</v>
@@ -4712,7 +5288,7 @@
         <v>714.99999999999989</v>
       </c>
       <c r="G2">
-        <v>7464.3125018545807</v>
+        <v>7464.3116212054429</v>
       </c>
       <c r="H2">
         <v>6753.0400000000045</v>
